--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269337654114</t>
+    <t xml:space="preserve">1.04269313812256</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
@@ -47,85 +47,85 @@
     <t xml:space="preserve">1.03189933300018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0354973077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974045276642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00743305683136</t>
+    <t xml:space="preserve">1.03549718856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974057197571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">1.00311553478241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02614259719849</t>
+    <t xml:space="preserve">1.0261424779892</t>
   </si>
   <si>
     <t xml:space="preserve">1.00959181785583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983686447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976906776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791083335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304733753204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885653018951</t>
+    <t xml:space="preserve">0.98368638753891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976847171783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791023731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951304614543915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885593414307</t>
   </si>
   <si>
     <t xml:space="preserve">0.934034287929535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956341683864594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95778101682663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453309059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99016284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929651737213</t>
+    <t xml:space="preserve">0.956341862678528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957780957221985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453428268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99016273021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929592132568</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992321491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95562219619751</t>
+    <t xml:space="preserve">0.9923215508461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622136592865</t>
   </si>
   <si>
     <t xml:space="preserve">0.941949844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914605379104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473620891571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921801269054413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947706758975983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733821392059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97936886548996</t>
+    <t xml:space="preserve">0.914605319499969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473442077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921801209449768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947706580162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97073370218277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368805885315</t>
   </si>
   <si>
     <t xml:space="preserve">0.99879789352417</t>
@@ -134,67 +134,67 @@
     <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03621685504913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110528945923</t>
+    <t xml:space="preserve">1.03621697425842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110540866852</t>
   </si>
   <si>
     <t xml:space="preserve">1.05636560916901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02686214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02326428890228</t>
+    <t xml:space="preserve">1.0268622636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02326416969299</t>
   </si>
   <si>
     <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0585241317749</t>
+    <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
     <t xml:space="preserve">1.03981482982635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04341292381287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247036457062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02542293071747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06572031974792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723379135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11609184741974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13120341300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14919328689575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13552093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14343655109406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12616634368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11897027492523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12256824970245</t>
+    <t xml:space="preserve">1.04341268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247024536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02542304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06572020053864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723391056061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11609196662903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13120329380035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14919316768646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1355208158493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14343643188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12616622447968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11897015571594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544655799866</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">1.13336217403412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14199733734131</t>
+    <t xml:space="preserve">1.14199721813202</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12976408004761</t>
+    <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048386573792</t>
@@ -221,34 +221,34 @@
     <t xml:space="preserve">1.13696014881134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14415621757507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767981529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703440666199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279126167297</t>
+    <t xml:space="preserve">1.14415609836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767969608307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703452587128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279114246368</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13624060153961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12328791618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10457849502563</t>
+    <t xml:space="preserve">1.13624036312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12328767776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10457837581635</t>
   </si>
   <si>
     <t xml:space="preserve">1.121129155159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1563892364502</t>
+    <t xml:space="preserve">1.15638935565948</t>
   </si>
   <si>
     <t xml:space="preserve">1.14847350120544</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">1.15423035621643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12760543823242</t>
+    <t xml:space="preserve">1.12760531902313</t>
   </si>
   <si>
     <t xml:space="preserve">1.11249387264252</t>
@@ -284,52 +284,52 @@
     <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14055824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17222034931183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2010041475296</t>
+    <t xml:space="preserve">1.14055800437927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17222023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20100402832031</t>
   </si>
   <si>
     <t xml:space="preserve">1.18733167648315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18085551261902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884550571442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661212921143</t>
+    <t xml:space="preserve">1.18085539340973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884538650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006146907806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18805146217346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18589270114899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19308865070343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16862225532532</t>
+    <t xml:space="preserve">1.18805134296417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1858925819397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19308853149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16862213611603</t>
   </si>
   <si>
     <t xml:space="preserve">1.09162557125092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08155143260956</t>
+    <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
     <t xml:space="preserve">1.07795333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306478500366</t>
+    <t xml:space="preserve">1.09306490421295</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514584064484</t>
@@ -338,52 +338,52 @@
     <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07290589809418</t>
+    <t xml:space="preserve">1.07290601730347</t>
   </si>
   <si>
     <t xml:space="preserve">1.01392209529877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979577243328094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048291683197</t>
+    <t xml:space="preserve">0.979577302932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944244861603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048303604126</t>
   </si>
   <si>
     <t xml:space="preserve">1.0378143787384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04453408718109</t>
+    <t xml:space="preserve">1.0445339679718</t>
   </si>
   <si>
     <t xml:space="preserve">1.04901373386383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01541554927826</t>
+    <t xml:space="preserve">1.01541566848755</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02288174629211</t>
+    <t xml:space="preserve">1.02288162708282</t>
   </si>
   <si>
     <t xml:space="preserve">1.03333449363708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04080092906952</t>
+    <t xml:space="preserve">1.04080080986023</t>
   </si>
   <si>
     <t xml:space="preserve">1.03408122062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01914858818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885472774506</t>
+    <t xml:space="preserve">1.01914870738983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885496616364</t>
   </si>
   <si>
     <t xml:space="preserve">1.03557431697845</t>
@@ -392,31 +392,31 @@
     <t xml:space="preserve">1.05573356151581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04677379131317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767952442169</t>
+    <t xml:space="preserve">1.04677391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06767928600311</t>
   </si>
   <si>
     <t xml:space="preserve">1.06469297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0773857831955</t>
+    <t xml:space="preserve">1.07738554477692</t>
   </si>
   <si>
     <t xml:space="preserve">1.07813227176666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09754467010498</t>
+    <t xml:space="preserve">1.09754478931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634531497955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709168434143</t>
+    <t xml:space="preserve">1.08634519577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709180355072</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978449344635</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1087441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007835388184</t>
+    <t xml:space="preserve">1.10874402523041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007847309113</t>
   </si>
   <si>
     <t xml:space="preserve">1.06319975852966</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">1.06170654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0594664812088</t>
+    <t xml:space="preserve">1.05946660041809</t>
   </si>
   <si>
     <t xml:space="preserve">1.05125367641449</t>
@@ -458,31 +458,31 @@
     <t xml:space="preserve">1.10127794742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10575759410858</t>
+    <t xml:space="preserve">1.10575747489929</t>
   </si>
   <si>
     <t xml:space="preserve">1.13114285469055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13935589790344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799753665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426414012909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
+    <t xml:space="preserve">1.13935565948486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799729824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426437854767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322402954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455800056458</t>
   </si>
   <si>
     <t xml:space="preserve">1.08037209510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10202443599701</t>
+    <t xml:space="preserve">1.10202431678772</t>
   </si>
   <si>
     <t xml:space="preserve">1.0923182964325</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">1.08783853054047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11247730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14383554458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994349956512</t>
+    <t xml:space="preserve">1.11247706413269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14383566379547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666308879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1199437379837</t>
   </si>
   <si>
     <t xml:space="preserve">1.08261215686798</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">1.1005312204361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14980852603912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17668747901917</t>
+    <t xml:space="preserve">1.14980864524841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17668735980988</t>
   </si>
   <si>
     <t xml:space="preserve">1.17892718315125</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">1.21700537204742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22223174571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22521829605103</t>
+    <t xml:space="preserve">1.22223162651062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22521817684174</t>
   </si>
   <si>
     <t xml:space="preserve">1.19535303115845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21476542949677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22148513793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20356607437134</t>
+    <t xml:space="preserve">1.21476531028748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22148501873016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
     <t xml:space="preserve">1.18938004970551</t>
@@ -554,40 +554,40 @@
     <t xml:space="preserve">1.16996765136719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18490028381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19311320781708</t>
+    <t xml:space="preserve">1.18490016460419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19311308860779</t>
   </si>
   <si>
     <t xml:space="preserve">1.17519402503967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06991934776306</t>
+    <t xml:space="preserve">1.06991922855377</t>
   </si>
   <si>
     <t xml:space="preserve">1.06543970108032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05722677707672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04528045654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05274677276611</t>
+    <t xml:space="preserve">1.05722665786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04528057575226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05274701118469</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064204216003</t>
+    <t xml:space="preserve">1.02064192295074</t>
   </si>
   <si>
     <t xml:space="preserve">1.02512156963348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05200040340424</t>
+    <t xml:space="preserve">1.05200028419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.02586829662323</t>
@@ -596,46 +596,46 @@
     <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08111870288849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09530472755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471724510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13188970088959</t>
+    <t xml:space="preserve">1.08111882209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09530460834503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098396778107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471700668335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
     <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13487601280212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14906215667725</t>
+    <t xml:space="preserve">1.13487613201141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14906203746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279519557953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1617546081543</t>
+    <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
     <t xml:space="preserve">1.16698110103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15130186080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13636934757233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15727496147156</t>
+    <t xml:space="preserve">1.15130209922791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13636946678162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15727484226227</t>
   </si>
   <si>
     <t xml:space="preserve">1.1714608669281</t>
@@ -644,13 +644,13 @@
     <t xml:space="preserve">1.17220759391785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17594075202942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17295408248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250145435333</t>
+    <t xml:space="preserve">1.17594063282013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17295432090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250133514404</t>
   </si>
   <si>
     <t xml:space="preserve">1.16847443580627</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">1.12890315055847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12293004989624</t>
+    <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055537223816</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17967391014099</t>
+    <t xml:space="preserve">1.17967402935028</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21177875995636</t>
+    <t xml:space="preserve">1.21177899837494</t>
   </si>
   <si>
     <t xml:space="preserve">1.1960996389389</t>
@@ -695,25 +695,25 @@
     <t xml:space="preserve">1.20879232883453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19385993480682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.19385981559753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551191806793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447144985199</t>
+    <t xml:space="preserve">1.21551203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447156906128</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22596478462219</t>
+    <t xml:space="preserve">1.22596490383148</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806987285614</t>
@@ -722,82 +722,82 @@
     <t xml:space="preserve">1.32899963855743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3640912771225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3737975358963</t>
+    <t xml:space="preserve">1.36409115791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486191749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979454994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43352770805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547379016876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42008817195892</t>
+    <t xml:space="preserve">1.41486203670502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979443073273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4335275888443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547390937805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784846782684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45293998718262</t>
+    <t xml:space="preserve">1.45294010639191</t>
   </si>
   <si>
     <t xml:space="preserve">1.46339297294617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45741987228394</t>
+    <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488606929779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099402427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024741649628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083501815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40664899349213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44846034049988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44995367527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46413958072662</t>
+    <t xml:space="preserve">1.46488618850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099390506744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950057029724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920694828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024729728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083489894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40664911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44846022129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44995355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
     <t xml:space="preserve">1.44472718238831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48355185985565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45592653751373</t>
+    <t xml:space="preserve">1.48355197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45592665672302</t>
   </si>
   <si>
     <t xml:space="preserve">1.49325788021088</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">1.48952484130859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51267051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5305894613266</t>
+    <t xml:space="preserve">1.51267039775848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53058934211731</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506934642792</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55298829078674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57538723945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927928447723</t>
+    <t xml:space="preserve">1.55298817157745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5753870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733308315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927940368652</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018501758575</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">1.56344127655029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837378978729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60226583480835</t>
+    <t xml:space="preserve">1.578373670578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60226571559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.58285343647003</t>
@@ -857,34 +857,34 @@
     <t xml:space="preserve">1.58882653713226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389390468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823881626129</t>
+    <t xml:space="preserve">1.57389414310455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719834804535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6425838470459</t>
+    <t xml:space="preserve">1.64258396625519</t>
   </si>
   <si>
     <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63213098049164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64557027816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810408115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65846979618073</t>
+    <t xml:space="preserve">1.63213086128235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64557039737701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362419605255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810396194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
@@ -896,19 +896,19 @@
     <t xml:space="preserve">1.64463651180267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5893030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6108216047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085835933685</t>
+    <t xml:space="preserve">1.58930313587189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61082148551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085847854614</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5631730556488</t>
+    <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
     <t xml:space="preserve">1.56471025943756</t>
@@ -923,28 +923,28 @@
     <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58776593208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60467350482941</t>
+    <t xml:space="preserve">1.58776605129242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60467338562012</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59083986282349</t>
+    <t xml:space="preserve">1.59083998203278</t>
   </si>
   <si>
     <t xml:space="preserve">1.59852504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61389565467834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63080310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543250083923</t>
+    <t xml:space="preserve">1.61389541625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63080298900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543262004852</t>
   </si>
   <si>
     <t xml:space="preserve">1.63848829269409</t>
@@ -956,19 +956,19 @@
     <t xml:space="preserve">1.64156234264374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61696970462799</t>
+    <t xml:space="preserve">1.61696982383728</t>
   </si>
   <si>
     <t xml:space="preserve">1.65232169628143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67998850345612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67691457271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67537748813629</t>
+    <t xml:space="preserve">1.67998838424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67691433429718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.675377368927</t>
   </si>
   <si>
     <t xml:space="preserve">1.68306267261505</t>
@@ -977,10 +977,10 @@
     <t xml:space="preserve">1.70458126068115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72917377948761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148883342743</t>
+    <t xml:space="preserve">1.7291738986969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
     <t xml:space="preserve">1.70150709152222</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">1.69996988773346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72609961032867</t>
+    <t xml:space="preserve">1.72609972953796</t>
   </si>
   <si>
     <t xml:space="preserve">1.76452577114105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298868656158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991475582123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145207881927</t>
+    <t xml:space="preserve">1.76298856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7614518404007</t>
   </si>
   <si>
     <t xml:space="preserve">1.74608135223389</t>
@@ -1010,202 +1010,202 @@
     <t xml:space="preserve">1.72763669490814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7353218793869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915540218353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913714408875</t>
+    <t xml:space="preserve">1.73532176017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915552139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913702487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.77682220935822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77221083641052</t>
+    <t xml:space="preserve">1.7722110748291</t>
   </si>
   <si>
     <t xml:space="preserve">1.76759994029999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79834079742432</t>
+    <t xml:space="preserve">1.79834091663361</t>
   </si>
   <si>
     <t xml:space="preserve">1.82293355464935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83984076976776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295193195343</t>
+    <t xml:space="preserve">1.83984100818634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295205116272</t>
   </si>
   <si>
     <t xml:space="preserve">1.79372978210449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78758180141449</t>
+    <t xml:space="preserve">1.78758156299591</t>
   </si>
   <si>
     <t xml:space="preserve">1.74761831760406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71995151042938</t>
+    <t xml:space="preserve">1.71995162963867</t>
   </si>
   <si>
     <t xml:space="preserve">1.71534049510956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72456300258636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454438686371</t>
+    <t xml:space="preserve">1.72456276416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454426765442</t>
   </si>
   <si>
     <t xml:space="preserve">1.74300718307495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73071110248566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376665592194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222957134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81217432022095</t>
+    <t xml:space="preserve">1.73071086406708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376641750336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81217420101166</t>
   </si>
   <si>
     <t xml:space="preserve">1.80602586269379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985926628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987764358521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143334388733</t>
+    <t xml:space="preserve">1.81985938549042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987788200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143346309662</t>
   </si>
   <si>
     <t xml:space="preserve">1.75684058666229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80756330490112</t>
+    <t xml:space="preserve">1.80756318569183</t>
   </si>
   <si>
     <t xml:space="preserve">1.81524837017059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521137714386</t>
+    <t xml:space="preserve">1.85521149635315</t>
   </si>
   <si>
     <t xml:space="preserve">1.86135947704315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89824891090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285980701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671158790588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056324958801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215582370758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85367429256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84291529655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832206249237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674834251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211930751801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439677238464</t>
+    <t xml:space="preserve">1.89824867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285968780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671170711517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056384563446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215594291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84291517734528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832230091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674846172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211906909943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439665317535</t>
   </si>
   <si>
     <t xml:space="preserve">1.95358240604401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93360078334808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130410671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821167945862</t>
+    <t xml:space="preserve">1.9336005449295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130422592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
     <t xml:space="preserve">1.93052649497986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95050811767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356379032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971177101135</t>
+    <t xml:space="preserve">1.95050823688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356390953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971212863922</t>
   </si>
   <si>
     <t xml:space="preserve">1.97202658653259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98124897480011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94436001777649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969387054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661958217621</t>
+    <t xml:space="preserve">1.98124921321869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94435977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969351291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661934375763</t>
   </si>
   <si>
     <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00123071670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00276756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510063648224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434140205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745244503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206357955933</t>
+    <t xml:space="preserve">2.0012309551239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00276732444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510075569153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434152126312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9274525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206369876862</t>
   </si>
   <si>
     <t xml:space="preserve">1.92284142971039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95665633678436</t>
+    <t xml:space="preserve">1.95665597915649</t>
   </si>
   <si>
     <t xml:space="preserve">2.02736043930054</t>
@@ -1214,52 +1214,52 @@
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95511949062347</t>
+    <t xml:space="preserve">1.9551192522049</t>
   </si>
   <si>
     <t xml:space="preserve">1.9489711523056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9873970746994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656409263611</t>
+    <t xml:space="preserve">1.98739743232727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656456947327</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808256149292</t>
+    <t xml:space="preserve">2.07039761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.1057493686676</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0673234462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02582311630249</t>
+    <t xml:space="preserve">2.06732320785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02582335472107</t>
   </si>
   <si>
     <t xml:space="preserve">2.01198983192444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737881660461</t>
+    <t xml:space="preserve">2.00737905502319</t>
   </si>
   <si>
     <t xml:space="preserve">2.00584173202515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119372367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287794589996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830380439758</t>
+    <t xml:space="preserve">2.04119348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830404281616</t>
   </si>
   <si>
     <t xml:space="preserve">1.87365579605103</t>
@@ -1268,97 +1268,97 @@
     <t xml:space="preserve">1.826007604599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87826716899872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86443388462067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87673008441925</t>
+    <t xml:space="preserve">1.87826693058014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86443376541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87673020362854</t>
   </si>
   <si>
     <t xml:space="preserve">1.83523011207581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85982275009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902652263641</t>
+    <t xml:space="preserve">1.85982251167297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441526889801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902640342712</t>
   </si>
   <si>
     <t xml:space="preserve">1.82447063922882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515648365021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363753795624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134133815765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519288063049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84598898887634</t>
+    <t xml:space="preserve">1.87058210372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515624523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132260322571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363741874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519299983978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84598910808563</t>
   </si>
   <si>
     <t xml:space="preserve">1.95819330215454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95204520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94282305240631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9289892911911</t>
+    <t xml:space="preserve">1.95204508304596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898952960968</t>
   </si>
   <si>
     <t xml:space="preserve">1.85828566551208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87980437278748</t>
+    <t xml:space="preserve">1.8798041343689</t>
   </si>
   <si>
     <t xml:space="preserve">1.91361916065216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94743406772614</t>
+    <t xml:space="preserve">1.94743418693542</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667471408844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94589710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9658784866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91208219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88595223426819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8475261926651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137785434723</t>
+    <t xml:space="preserve">1.94589734077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587860584259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9120819568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859521150589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752595424652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137797355652</t>
   </si>
   <si>
     <t xml:space="preserve">1.79526686668396</t>
@@ -1370,25 +1370,25 @@
     <t xml:space="preserve">1.78297030925751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71226632595062</t>
+    <t xml:space="preserve">1.71226644515991</t>
   </si>
   <si>
     <t xml:space="preserve">1.66769218444824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62004387378693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63234043121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64924764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771056175232</t>
+    <t xml:space="preserve">1.62004399299622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6323401927948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6492475271225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000688076019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771068096161</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">1.59545111656189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69535899162292</t>
+    <t xml:space="preserve">1.69535887241364</t>
   </si>
   <si>
     <t xml:space="preserve">1.73224806785583</t>
@@ -1409,22 +1409,22 @@
     <t xml:space="preserve">1.74846124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72942197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70244920253754</t>
+    <t xml:space="preserve">1.72942173480988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70244908332825</t>
   </si>
   <si>
     <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69927585124969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75004804134369</t>
+    <t xml:space="preserve">1.69927597045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70720899105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7500479221344</t>
   </si>
   <si>
     <t xml:space="preserve">1.73735511302948</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">1.74528813362122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78178036212921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288673400879</t>
+    <t xml:space="preserve">1.7817804813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7928866147995</t>
   </si>
   <si>
     <t xml:space="preserve">1.79764688014984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81192600727081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543377876282</t>
+    <t xml:space="preserve">1.8119261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1457,16 +1457,19 @@
     <t xml:space="preserve">1.79129993915558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78019404411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779252529144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82461929321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668615341187</t>
+    <t xml:space="preserve">1.78019392490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985914707184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779240608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8246191740036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668627262115</t>
   </si>
   <si>
     <t xml:space="preserve">1.79923319816589</t>
@@ -1475,16 +1478,16 @@
     <t xml:space="preserve">1.77384734153748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77860724925995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649749755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856447696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760398864746</t>
+    <t xml:space="preserve">1.77860736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649773597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856459617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760410785675</t>
   </si>
   <si>
     <t xml:space="preserve">1.92140328884125</t>
@@ -1493,10 +1496,10 @@
     <t xml:space="preserve">1.91823029518127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84207212924957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86269843578339</t>
+    <t xml:space="preserve">1.84207201004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
     <t xml:space="preserve">1.87539160251617</t>
@@ -1505,25 +1508,25 @@
     <t xml:space="preserve">1.87380480766296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86745834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572554588318</t>
+    <t xml:space="preserve">1.86745822429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
   </si>
   <si>
     <t xml:space="preserve">1.80875313282013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80716645717621</t>
+    <t xml:space="preserve">1.8071665763855</t>
   </si>
   <si>
     <t xml:space="preserve">1.76115441322327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74687445163727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74211502075195</t>
+    <t xml:space="preserve">1.74687457084656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74211490154266</t>
   </si>
   <si>
     <t xml:space="preserve">1.73576807975769</t>
@@ -1541,7 +1544,7 @@
     <t xml:space="preserve">1.69292938709259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64057075977325</t>
+    <t xml:space="preserve">1.64057087898254</t>
   </si>
   <si>
     <t xml:space="preserve">1.60249185562134</t>
@@ -1553,13 +1556,13 @@
     <t xml:space="preserve">1.62787783145905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64374399185181</t>
+    <t xml:space="preserve">1.6437441110611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64215731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64533066749573</t>
+    <t xml:space="preserve">1.64533042907715</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196889877319</t>
@@ -1568,7 +1571,7 @@
     <t xml:space="preserve">1.76908755302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71990191936493</t>
+    <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975627422333</t>
@@ -1580,31 +1583,31 @@
     <t xml:space="preserve">1.65009045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66595685482025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706310749054</t>
+    <t xml:space="preserve">1.66595673561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706298828125</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071652412415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58265888690948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58821225166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5628262758255</t>
+    <t xml:space="preserve">1.67071664333344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58265900611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58821213245392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">1.54219996929169</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506004810333</t>
+    <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
     <t xml:space="preserve">1.51046752929688</t>
@@ -1616,7 +1619,7 @@
     <t xml:space="preserve">1.53109359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52554035186768</t>
+    <t xml:space="preserve">1.52554047107697</t>
   </si>
   <si>
     <t xml:space="preserve">1.54061341285706</t>
@@ -1625,7 +1628,7 @@
     <t xml:space="preserve">1.53268015384674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5144339799881</t>
+    <t xml:space="preserve">1.51443409919739</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854643344879</t>
@@ -1634,25 +1637,25 @@
     <t xml:space="preserve">1.52395379543304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55647957324982</t>
+    <t xml:space="preserve">1.55647969245911</t>
   </si>
   <si>
     <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51760721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57393264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5652060508728</t>
+    <t xml:space="preserve">1.51760745048523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57393252849579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56520617008209</t>
   </si>
   <si>
     <t xml:space="preserve">1.6310510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62311792373657</t>
+    <t xml:space="preserve">1.62311780452728</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691734313965</t>
@@ -1661,10 +1664,10 @@
     <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62629115581512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59614527225494</t>
+    <t xml:space="preserve">1.62629103660583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59614539146423</t>
   </si>
   <si>
     <t xml:space="preserve">1.60883831977844</t>
@@ -1673,46 +1676,46 @@
     <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53664684295654</t>
+    <t xml:space="preserve">1.53664696216583</t>
   </si>
   <si>
     <t xml:space="preserve">1.54933977127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55489313602448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53902685642242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679272651672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54299330711365</t>
+    <t xml:space="preserve">1.55489301681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53902673721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679260730743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54299342632294</t>
   </si>
   <si>
     <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51998722553253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50729417800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60090494155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59138548374176</t>
+    <t xml:space="preserve">1.51998710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50729429721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59931862354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60090506076813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
     <t xml:space="preserve">1.58662545681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485048294067</t>
+    <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
     <t xml:space="preserve">1.69768929481506</t>
@@ -1727,37 +1730,34 @@
     <t xml:space="preserve">1.72307538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72148871421814</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.70403587818146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70879566669464</t>
+    <t xml:space="preserve">1.70879578590393</t>
   </si>
   <si>
     <t xml:space="preserve">1.70562243461609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7135556936264</t>
+    <t xml:space="preserve">1.71355557441711</t>
   </si>
   <si>
     <t xml:space="preserve">1.68816947937012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68658268451691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326380729675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67388999462128</t>
+    <t xml:space="preserve">1.6865828037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326392650604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6738897562027</t>
   </si>
   <si>
     <t xml:space="preserve">1.68340957164764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65643715858459</t>
+    <t xml:space="preserve">1.65643703937531</t>
   </si>
   <si>
     <t xml:space="preserve">1.65802347660065</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">1.68182301521301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71672868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80557990074158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827306747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303285598755</t>
+    <t xml:space="preserve">1.71672880649567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80557978153229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827282905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303273677826</t>
   </si>
   <si>
     <t xml:space="preserve">1.7881270647049</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">1.81509959697723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78654050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033980846405</t>
+    <t xml:space="preserve">1.78654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033968925476</t>
   </si>
   <si>
     <t xml:space="preserve">1.80399310588837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83889889717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8008199930191</t>
+    <t xml:space="preserve">1.83889901638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80081987380981</t>
   </si>
   <si>
     <t xml:space="preserve">1.69134283065796</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">1.73894155025482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76274061203003</t>
+    <t xml:space="preserve">1.76274073123932</t>
   </si>
   <si>
     <t xml:space="preserve">1.77226066589355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75798118114471</t>
+    <t xml:space="preserve">1.75798106193542</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
@@ -1835,10 +1835,10 @@
     <t xml:space="preserve">1.90395081043243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90077722072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88967096805573</t>
+    <t xml:space="preserve">1.9007773399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88967084884644</t>
   </si>
   <si>
     <t xml:space="preserve">1.88843429088593</t>
@@ -1856,10 +1856,10 @@
     <t xml:space="preserve">1.88020956516266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88349974155426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120396137238</t>
+    <t xml:space="preserve">1.88349962234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
     <t xml:space="preserve">1.95587861537933</t>
@@ -1868,19 +1868,19 @@
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.949298620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613874912262</t>
+    <t xml:space="preserve">1.94929873943329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613886833191</t>
   </si>
   <si>
     <t xml:space="preserve">1.97890818119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98548817634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851774215698</t>
+    <t xml:space="preserve">1.98548829555511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851798057556</t>
   </si>
   <si>
     <t xml:space="preserve">2.01180791854858</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397339344025</t>
+    <t xml:space="preserve">1.97397351264954</t>
   </si>
   <si>
     <t xml:space="preserve">1.94600856304169</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">1.94271886348724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97726309299469</t>
+    <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
     <t xml:space="preserve">1.99371325969696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9986480474472</t>
+    <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1928,22 +1928,22 @@
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206805229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01016306877136</t>
+    <t xml:space="preserve">2.00358319282532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206793308258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01016283035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.01345276832581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98055338859558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042320251465</t>
+    <t xml:space="preserve">1.98055326938629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964232444763</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">2.03319239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0315477848053</t>
+    <t xml:space="preserve">2.03154754638672</t>
   </si>
   <si>
     <t xml:space="preserve">2.03483724594116</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1401162147522</t>
+    <t xml:space="preserve">2.14011597633362</t>
   </si>
   <si>
     <t xml:space="preserve">2.16314601898193</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">2.17959570884705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20098042488098</t>
+    <t xml:space="preserve">2.20098066329956</t>
   </si>
   <si>
     <t xml:space="preserve">2.18453025817871</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">2.1697256565094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17795085906982</t>
+    <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
     <t xml:space="preserve">2.19111037254333</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210453033447</t>
+    <t xml:space="preserve">2.24210476875305</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20591497421265</t>
+    <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
     <t xml:space="preserve">2.25361943244934</t>
@@ -2072,16 +2072,16 @@
     <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2799391746521</t>
+    <t xml:space="preserve">2.27993941307068</t>
   </si>
   <si>
     <t xml:space="preserve">2.27664923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24539494514465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24374938011169</t>
+    <t xml:space="preserve">2.24539470672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24374961853027</t>
   </si>
   <si>
     <t xml:space="preserve">2.22565507888794</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">2.26348948478699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32270860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30625867843628</t>
+    <t xml:space="preserve">2.32270836830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30625891685486</t>
   </si>
   <si>
     <t xml:space="preserve">2.31448364257812</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">2.31941890716553</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33093357086182</t>
+    <t xml:space="preserve">2.33093333244324</t>
   </si>
   <si>
     <t xml:space="preserve">2.25855445861816</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.31612873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28651928901672</t>
+    <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
     <t xml:space="preserve">2.23716998100281</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">2.2486846446991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2503297328949</t>
+    <t xml:space="preserve">2.25032949447632</t>
   </si>
   <si>
     <t xml:space="preserve">2.2815842628479</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">2.31777381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.357253074646</t>
+    <t xml:space="preserve">2.35725331306458</t>
   </si>
   <si>
     <t xml:space="preserve">2.38686299324036</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">2.35560846328735</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37534809112549</t>
+    <t xml:space="preserve">2.37534785270691</t>
   </si>
   <si>
     <t xml:space="preserve">2.43127727508545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253156661987</t>
+    <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.451016664505</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">2.48556160926819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47240161895752</t>
+    <t xml:space="preserve">2.47240138053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">2.45924186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4658215045929</t>
+    <t xml:space="preserve">2.46582174301147</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798733711243</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">2.47898125648499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47569179534912</t>
+    <t xml:space="preserve">2.47569155693054</t>
   </si>
   <si>
     <t xml:space="preserve">2.46088695526123</t>
@@ -2210,13 +2210,13 @@
     <t xml:space="preserve">2.51023578643799</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55465078353882</t>
+    <t xml:space="preserve">2.55465054512024</t>
   </si>
   <si>
     <t xml:space="preserve">2.52668595314026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51352620124817</t>
+    <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
     <t xml:space="preserve">2.36218786239624</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05128741264343</t>
+    <t xml:space="preserve">2.21413969993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05128717422485</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407193183899</t>
+    <t xml:space="preserve">1.52407205104828</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">1.85059988498688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73216152191162</t>
+    <t xml:space="preserve">1.73216164112091</t>
   </si>
   <si>
     <t xml:space="preserve">1.7288715839386</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">1.745321393013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7436763048172</t>
+    <t xml:space="preserve">1.74367642402649</t>
   </si>
   <si>
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73051655292511</t>
+    <t xml:space="preserve">1.7305166721344</t>
   </si>
   <si>
     <t xml:space="preserve">1.72229182720184</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">1.81441044807434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80125069618225</t>
+    <t xml:space="preserve">1.80125081539154</t>
   </si>
   <si>
     <t xml:space="preserve">1.80618572235107</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">1.83908522129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84895491600037</t>
+    <t xml:space="preserve">1.84895479679108</t>
   </si>
   <si>
     <t xml:space="preserve">1.8719847202301</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">1.86211490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83579540252686</t>
+    <t xml:space="preserve">1.83579528331757</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302573204041</t>
@@ -2366,7 +2366,7 @@
     <t xml:space="preserve">1.75848114490509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77657616138458</t>
+    <t xml:space="preserve">1.77657604217529</t>
   </si>
   <si>
     <t xml:space="preserve">1.78480088710785</t>
@@ -2384,22 +2384,22 @@
     <t xml:space="preserve">1.79960548877716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8752748966217</t>
+    <t xml:space="preserve">1.87527477741241</t>
   </si>
   <si>
     <t xml:space="preserve">1.91968929767609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97232854366302</t>
+    <t xml:space="preserve">1.97232842445374</t>
   </si>
   <si>
     <t xml:space="preserve">1.96410369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92133390903473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817403793335</t>
+    <t xml:space="preserve">1.92133402824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817415714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.83086037635803</t>
@@ -2411,22 +2411,22 @@
     <t xml:space="preserve">1.9048844575882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91146421432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98555862903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527945041656</t>
+    <t xml:space="preserve">1.91146409511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98555850982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527956962585</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89647388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9118926525116</t>
+    <t xml:space="preserve">1.89647400379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91189277172089</t>
   </si>
   <si>
     <t xml:space="preserve">1.91703200340271</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">1.92731094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9375901222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101631641388</t>
+    <t xml:space="preserve">1.93759000301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101643562317</t>
   </si>
   <si>
     <t xml:space="preserve">1.93245053291321</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276839256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906337738037</t>
+    <t xml:space="preserve">1.88276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906325817108</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850549697876</t>
+    <t xml:space="preserve">1.84850537776947</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105571269989</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">1.92388463020325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9067530632019</t>
+    <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85021865367889</t>
+    <t xml:space="preserve">1.85021877288818</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">1.8399395942688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8656370639801</t>
+    <t xml:space="preserve">1.86563694477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.85878455638885</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157419681549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92902421951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89990031719208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9221715927124</t>
+    <t xml:space="preserve">1.96157443523407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92902433872223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89990043640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92217147350311</t>
   </si>
   <si>
     <t xml:space="preserve">1.89133453369141</t>
@@ -2531,37 +2531,37 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735022068024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89818716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420272827148</t>
+    <t xml:space="preserve">1.86735033988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89818727970123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
     <t xml:space="preserve">1.88790822029114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91017949581146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619494438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8450790643692</t>
+    <t xml:space="preserve">1.91017937660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619482517242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507894515991</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81595516204834</t>
+    <t xml:space="preserve">1.81595504283905</t>
   </si>
   <si>
     <t xml:space="preserve">1.80910265445709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7834050655365</t>
+    <t xml:space="preserve">1.78340518474579</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169178962708</t>
@@ -2579,25 +2579,25 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201024532318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547571659088</t>
+    <t xml:space="preserve">1.73201012611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
     <t xml:space="preserve">1.65491759777069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6711927652359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67890214920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69774675369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858381271362</t>
+    <t xml:space="preserve">1.67119264602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67890202999115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69774687290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474285364151</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">1.78683137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78854465484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80396294593811</t>
+    <t xml:space="preserve">1.78854477405548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8039630651474</t>
   </si>
   <si>
     <t xml:space="preserve">1.76627349853516</t>
@@ -2630,34 +2630,34 @@
     <t xml:space="preserve">1.79025757312775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85535800457001</t>
+    <t xml:space="preserve">1.85535788536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671378612518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9255975484848</t>
+    <t xml:space="preserve">1.96671366691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92559766769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280790805817</t>
+    <t xml:space="preserve">1.82280778884888</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82109451293945</t>
+    <t xml:space="preserve">1.82109463214874</t>
   </si>
   <si>
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711043834686</t>
+    <t xml:space="preserve">1.79711055755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.798823595047</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.80224990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77141296863556</t>
+    <t xml:space="preserve">1.77141308784485</t>
   </si>
   <si>
     <t xml:space="preserve">1.83137357234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83479988574982</t>
+    <t xml:space="preserve">1.83480000495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73886287212372</t>
+    <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
     <t xml:space="preserve">1.74400234222412</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428140163422</t>
+    <t xml:space="preserve">1.75428128242493</t>
   </si>
   <si>
     <t xml:space="preserve">1.7422890663147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76798641681671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79539728164673</t>
+    <t xml:space="preserve">1.767986536026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79539716243744</t>
   </si>
   <si>
     <t xml:space="preserve">1.8245210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81424200534821</t>
+    <t xml:space="preserve">1.8142421245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.80053663253784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76969981193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738937854767</t>
+    <t xml:space="preserve">1.76969969272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738925933838</t>
   </si>
   <si>
     <t xml:space="preserve">1.83308696746826</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9632875919342</t>
+    <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
     <t xml:space="preserve">2.01639556884766</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">2.03352737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98898482322693</t>
+    <t xml:space="preserve">1.98898494243622</t>
   </si>
   <si>
     <t xml:space="preserve">2.00440335273743</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.04723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04380631446838</t>
+    <t xml:space="preserve">2.02153515815735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0438060760498</t>
   </si>
   <si>
     <t xml:space="preserve">2.07635641098022</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209327697754</t>
+    <t xml:space="preserve">2.04209303855896</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">2.07293009757996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08149576187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06607723236084</t>
+    <t xml:space="preserve">2.08149600028992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06607747077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">2.14316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12261152267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13460421562195</t>
+    <t xml:space="preserve">2.12261176109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13460397720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.17400693893433</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16201448440552</t>
+    <t xml:space="preserve">2.1620147228241</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
@@ -2843,37 +2843,37 @@
     <t xml:space="preserve">2.18942546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22711491584778</t>
+    <t xml:space="preserve">2.2271146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24082040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24253344535828</t>
+    <t xml:space="preserve">2.24082016944885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
     <t xml:space="preserve">2.24938607215881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24424624443054</t>
+    <t xml:space="preserve">2.24424648284912</t>
   </si>
   <si>
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18771195411682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19970464706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20998334884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23739385604858</t>
+    <t xml:space="preserve">2.1877121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19970440864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20998311042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23739409446716</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">2.27165722846985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25281238555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25224566459656</t>
+    <t xml:space="preserve">2.25281262397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25224590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.202472448349</t>
+    <t xml:space="preserve">2.20247220993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14736604690552</t>
+    <t xml:space="preserve">2.1473662853241</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847780227661</t>
+    <t xml:space="preserve">2.13847804069519</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002890586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647408485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536185264587</t>
+    <t xml:space="preserve">2.21136045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647384643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202634811401</t>
+    <t xml:space="preserve">2.22202610969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2558012008667</t>
+    <t xml:space="preserve">2.25580096244812</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379676818848</t>
+    <t xml:space="preserve">2.30379700660706</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335066795349</t>
+    <t xml:space="preserve">2.32335090637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38734531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623308181763</t>
+    <t xml:space="preserve">2.3873450756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623332023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956858634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3642361164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445543289185</t>
+    <t xml:space="preserve">2.36956882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36423587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201212882996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445567131042</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2789101600647</t>
+    <t xml:space="preserve">2.27890992164612</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691295623779</t>
+    <t xml:space="preserve">2.24691319465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600653648376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534088134766</t>
+    <t xml:space="preserve">2.43889594078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534064292908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4975574016571</t>
+    <t xml:space="preserve">2.56332945823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49755764007568</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54199814796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555320739746</t>
+    <t xml:space="preserve">2.5419979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555344581604</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222469329834</t>
+    <t xml:space="preserve">2.49222445487976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3170,40 +3170,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801772117615</t>
+    <t xml:space="preserve">2.31801795959473</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046126365662</t>
+    <t xml:space="preserve">2.33046102523804</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290432929993</t>
+    <t xml:space="preserve">2.34290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3109073638916</t>
+    <t xml:space="preserve">2.33579397201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31090712547302</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646661758423</t>
+    <t xml:space="preserve">2.26646685600281</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20069479942322</t>
+    <t xml:space="preserve">2.2006950378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357745170593</t>
+    <t xml:space="preserve">2.27357721328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492298126221</t>
+    <t xml:space="preserve">2.13492274284363</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02471041679382</t>
+    <t xml:space="preserve">2.09937024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247106552124</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893113136292</t>
+    <t xml:space="preserve">2.03893136978149</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0407087802887</t>
+    <t xml:space="preserve">2.04070901870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026268005371</t>
+    <t xml:space="preserve">2.06026291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491575241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802495002747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047524452209</t>
+    <t xml:space="preserve">2.21491599082947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047500610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759283065796</t>
+    <t xml:space="preserve">2.09759259223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.156254529953</t>
+    <t xml:space="preserve">2.15625429153442</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381074905396</t>
+    <t xml:space="preserve">2.14381098747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272008419037</t>
+    <t xml:space="preserve">1.91272020339966</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85405874252319</t>
+    <t xml:space="preserve">1.8540586233139</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495106220245</t>
+    <t xml:space="preserve">1.81495118141174</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738713741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494395256042</t>
+    <t xml:space="preserve">1.90738725662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494407176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88605582714081</t>
+    <t xml:space="preserve">1.8860559463501</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7554007768631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251125335693</t>
+    <t xml:space="preserve">1.75540089607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251137256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317690849304</t>
+    <t xml:space="preserve">1.77317702770233</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -21764,7 +21764,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21790,7 +21790,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21816,7 +21816,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21842,7 +21842,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21868,7 +21868,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21894,7 +21894,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21920,7 +21920,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21946,7 +21946,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21972,7 +21972,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -21998,7 +21998,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22024,7 +22024,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22050,7 +22050,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22076,7 +22076,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22102,7 +22102,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22128,7 +22128,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22154,7 +22154,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22180,7 +22180,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22206,7 +22206,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22232,7 +22232,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22258,7 +22258,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22284,7 +22284,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22310,7 +22310,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22336,7 +22336,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22362,7 +22362,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22388,7 +22388,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22440,7 +22440,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22466,7 +22466,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22518,7 +22518,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22544,7 +22544,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22570,7 +22570,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22596,7 +22596,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22622,7 +22622,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22648,7 +22648,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22674,7 +22674,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22700,7 +22700,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22726,7 +22726,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22752,7 +22752,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22804,7 +22804,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22856,7 +22856,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22960,7 +22960,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22986,7 +22986,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23012,7 +23012,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23038,7 +23038,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23064,7 +23064,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23090,7 +23090,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23116,7 +23116,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23142,7 +23142,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23168,7 +23168,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23194,7 +23194,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23220,7 +23220,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23246,7 +23246,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23272,7 +23272,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23298,7 +23298,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23324,7 +23324,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23350,7 +23350,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23376,7 +23376,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23402,7 +23402,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23428,7 +23428,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23454,7 +23454,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23480,7 +23480,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23506,7 +23506,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23532,7 +23532,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23558,7 +23558,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23584,7 +23584,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23610,7 +23610,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23636,7 +23636,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23662,7 +23662,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23688,7 +23688,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23714,7 +23714,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23740,7 +23740,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23766,7 +23766,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23792,7 +23792,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23818,7 +23818,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23844,7 +23844,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23870,7 +23870,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23896,7 +23896,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23922,7 +23922,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23948,7 +23948,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23974,7 +23974,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24000,7 +24000,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24026,7 +24026,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24052,7 +24052,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24078,7 +24078,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24104,7 +24104,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24130,7 +24130,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24156,7 +24156,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24182,7 +24182,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24208,7 +24208,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24234,7 +24234,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24260,7 +24260,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24286,7 +24286,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24312,7 +24312,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24338,7 +24338,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24364,7 +24364,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24390,7 +24390,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24416,7 +24416,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24442,7 +24442,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24468,7 +24468,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24494,7 +24494,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24520,7 +24520,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24546,7 +24546,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24572,7 +24572,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24598,7 +24598,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24624,7 +24624,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24650,7 +24650,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24676,7 +24676,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24702,7 +24702,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24728,7 +24728,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24754,7 +24754,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24806,7 +24806,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24832,7 +24832,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24858,7 +24858,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24910,7 +24910,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24988,7 +24988,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25144,7 +25144,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25326,7 +25326,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25352,7 +25352,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25430,7 +25430,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25560,7 +25560,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25638,7 +25638,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25742,7 +25742,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25794,7 +25794,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25820,7 +25820,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25846,7 +25846,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25872,7 +25872,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25898,7 +25898,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25976,7 +25976,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26028,7 +26028,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26054,7 +26054,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26158,7 +26158,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26210,7 +26210,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26288,7 +26288,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26418,7 +26418,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26522,7 +26522,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26782,7 +26782,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26808,7 +26808,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26834,7 +26834,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26860,7 +26860,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26912,7 +26912,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27068,7 +27068,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27198,7 +27198,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27276,7 +27276,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27328,7 +27328,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27406,7 +27406,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27510,7 +27510,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27562,7 +27562,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27614,7 +27614,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27640,7 +27640,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27718,7 +27718,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27744,7 +27744,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27848,7 +27848,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -60590,7 +60590,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6496296296</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>3475264</v>
@@ -60611,6 +60611,32 @@
         <v>1392</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6495949074</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>2568180</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>1.93900001049042</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>1.90299999713898</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>1.91999995708466</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>1.93700003623962</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1516">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269313812256</t>
+    <t xml:space="preserve">1.04269301891327</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189933300018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549718856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974057197571</t>
+    <t xml:space="preserve">1.03189921379089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0354973077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743293762207</t>
@@ -62,88 +62,88 @@
     <t xml:space="preserve">1.0261424779892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00959181785583</t>
+    <t xml:space="preserve">1.00959193706512</t>
   </si>
   <si>
     <t xml:space="preserve">0.98368638753891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964976847171783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791023731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304614543915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934034287929535</t>
+    <t xml:space="preserve">0.964977025985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95130467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885772228241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403422832489</t>
   </si>
   <si>
     <t xml:space="preserve">0.956341862678528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957780957221985</t>
+    <t xml:space="preserve">0.957780838012695</t>
   </si>
   <si>
     <t xml:space="preserve">0.971453428268433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99016273021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146290063858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9923215508461</t>
+    <t xml:space="preserve">0.990162670612335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929711341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01462888717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992321610450745</t>
   </si>
   <si>
     <t xml:space="preserve">0.955622136592865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941949844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914605319499969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473442077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921801209449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947706580162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97073370218277</t>
+    <t xml:space="preserve">0.941949963569641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91460520029068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473501682281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921801328659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947706699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733821392059</t>
   </si>
   <si>
     <t xml:space="preserve">0.979368805885315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99879789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03117966651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03621697425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110540866852</t>
+    <t xml:space="preserve">0.998798012733459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03117978572845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03621673583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110528945923</t>
   </si>
   <si>
     <t xml:space="preserve">1.05636560916901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0268622636795</t>
+    <t xml:space="preserve">1.02686202526093</t>
   </si>
   <si>
     <t xml:space="preserve">1.02326416969299</t>
@@ -155,34 +155,34 @@
     <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03981482982635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02542304992676</t>
+    <t xml:space="preserve">1.03981494903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341280460358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247012615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02542293071747</t>
   </si>
   <si>
     <t xml:space="preserve">1.06572020053864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07723391056061</t>
+    <t xml:space="preserve">1.07723367214203</t>
   </si>
   <si>
     <t xml:space="preserve">1.11609196662903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120329380035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14919316768646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1355208158493</t>
+    <t xml:space="preserve">1.13120353221893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14919340610504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13552105426788</t>
   </si>
   <si>
     <t xml:space="preserve">1.14343643188477</t>
@@ -194,28 +194,28 @@
     <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256813049316</t>
+    <t xml:space="preserve">1.12256824970245</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544655799866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14127767086029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336217403412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14199721813202</t>
+    <t xml:space="preserve">1.14127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336229324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14199733734131</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12976431846619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13048386573792</t>
+    <t xml:space="preserve">1.1297641992569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13048374652863</t>
   </si>
   <si>
     <t xml:space="preserve">1.13696014881134</t>
@@ -227,37 +227,37 @@
     <t xml:space="preserve">1.13767969608307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14703452587128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279114246368</t>
+    <t xml:space="preserve">1.1470342874527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279138088226</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13624036312103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12328767776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10457837581635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.121129155159</t>
+    <t xml:space="preserve">1.13624048233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12328779697418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10457825660706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12112891674042</t>
   </si>
   <si>
     <t xml:space="preserve">1.15638935565948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14847350120544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16214597225189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15495002269745</t>
+    <t xml:space="preserve">1.14847362041473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16214609146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15495014190674</t>
   </si>
   <si>
     <t xml:space="preserve">1.14991295337677</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">1.13480138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10817635059357</t>
+    <t xml:space="preserve">1.10817623138428</t>
   </si>
   <si>
     <t xml:space="preserve">1.15423035621643</t>
@@ -281,34 +281,34 @@
     <t xml:space="preserve">1.11249387264252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11177432537079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14055800437927</t>
+    <t xml:space="preserve">1.1117742061615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
     <t xml:space="preserve">1.17222023010254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20100402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18733167648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085539340973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661224842072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17006146907806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18805134296417</t>
+    <t xml:space="preserve">1.20100426673889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18733179569244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085563182831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884526729584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661248683929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17006158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18805146217346</t>
   </si>
   <si>
     <t xml:space="preserve">1.1858925819397</t>
@@ -317,40 +317,40 @@
     <t xml:space="preserve">1.19308853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16862213611603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162557125092</t>
+    <t xml:space="preserve">1.16862225532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162569046021</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07795333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09306490421295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07514584064484</t>
+    <t xml:space="preserve">1.07795345783234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09306502342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07514572143555</t>
   </si>
   <si>
     <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07290601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01392209529877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577302932739</t>
+    <t xml:space="preserve">1.07290589809418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01392221450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577362537384</t>
   </si>
   <si>
     <t xml:space="preserve">1.00944244861603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00048303604126</t>
+    <t xml:space="preserve">1.00048291683197</t>
   </si>
   <si>
     <t xml:space="preserve">1.0378143787384</t>
@@ -362,61 +362,61 @@
     <t xml:space="preserve">1.04901373386383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01541566848755</t>
+    <t xml:space="preserve">1.01541554927826</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02288162708282</t>
+    <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
     <t xml:space="preserve">1.03333449363708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04080080986023</t>
+    <t xml:space="preserve">1.04080069065094</t>
   </si>
   <si>
     <t xml:space="preserve">1.03408122062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01914870738983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885496616364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03557431697845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05573356151581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04677391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767928600311</t>
+    <t xml:space="preserve">1.01914846897125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885484695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03557443618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05573332309723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04677379131317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0676794052124</t>
   </si>
   <si>
     <t xml:space="preserve">1.06469297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07738554477692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07813227176666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754478931427</t>
+    <t xml:space="preserve">1.07738566398621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07813239097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754455089569</t>
   </si>
   <si>
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634519577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709180355072</t>
+    <t xml:space="preserve">1.08634531497955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709192276001</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978449344635</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10874402523041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007847309113</t>
+    <t xml:space="preserve">1.1087441444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007823467255</t>
   </si>
   <si>
     <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06170654296875</t>
+    <t xml:space="preserve">1.06170642375946</t>
   </si>
   <si>
     <t xml:space="preserve">1.05946660041809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05125367641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06618630886078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887899875641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127794742584</t>
+    <t xml:space="preserve">1.0512535572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0661860704422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0788791179657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127782821655</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575747489929</t>
@@ -464,25 +464,25 @@
     <t xml:space="preserve">1.13114285469055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13935565948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799729824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426437854767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455800056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037209510803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202431678772</t>
+    <t xml:space="preserve">1.13935577869415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799741744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455811977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037221431732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202443599701</t>
   </si>
   <si>
     <t xml:space="preserve">1.0923182964325</t>
@@ -491,52 +491,52 @@
     <t xml:space="preserve">1.08783853054047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11247706413269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14383566379547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666308879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1199437379837</t>
+    <t xml:space="preserve">1.11247730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14383554458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994361877441</t>
   </si>
   <si>
     <t xml:space="preserve">1.08261215686798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933174610138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1005312204361</t>
+    <t xml:space="preserve">1.08933162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10053133964539</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17668735980988</t>
+    <t xml:space="preserve">1.17668724060059</t>
   </si>
   <si>
     <t xml:space="preserve">1.17892718315125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20207273960114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21700537204742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22223162651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22521817684174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19535303115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21476531028748</t>
+    <t xml:space="preserve">1.20207262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21700525283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223174571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22521829605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19535291194916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21476542949677</t>
   </si>
   <si>
     <t xml:space="preserve">1.22148501873016</t>
@@ -545,28 +545,28 @@
     <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18938004970551</t>
+    <t xml:space="preserve">1.18938016891479</t>
   </si>
   <si>
     <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16996765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18490016460419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19311308860779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17519402503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991922855377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06543970108032</t>
+    <t xml:space="preserve">1.1699675321579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18490028381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19311320781708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17519414424896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991934776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06543958187103</t>
   </si>
   <si>
     <t xml:space="preserve">1.05722665786743</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">1.04528057575226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05274701118469</t>
+    <t xml:space="preserve">1.0527468919754</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064192295074</t>
+    <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">1.02512156963348</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">1.05200028419495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586829662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08186542987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08111882209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09530460834503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098396778107</t>
+    <t xml:space="preserve">1.02586817741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08186531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08111894130707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09530472755432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098408699036</t>
   </si>
   <si>
     <t xml:space="preserve">1.11471700668335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1318895816803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13412952423096</t>
+    <t xml:space="preserve">1.13188970088959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13412964344025</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487613201141</t>
@@ -623,31 +623,31 @@
     <t xml:space="preserve">1.15279519557953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16175472736359</t>
+    <t xml:space="preserve">1.16175484657288</t>
   </si>
   <si>
     <t xml:space="preserve">1.16698110103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15130209922791</t>
+    <t xml:space="preserve">1.15130198001862</t>
   </si>
   <si>
     <t xml:space="preserve">1.13636946678162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15727484226227</t>
+    <t xml:space="preserve">1.15727508068085</t>
   </si>
   <si>
     <t xml:space="preserve">1.1714608669281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17220759391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17594063282013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17295432090759</t>
+    <t xml:space="preserve">1.17220747470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17594075202942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1729542016983</t>
   </si>
   <si>
     <t xml:space="preserve">1.16250133514404</t>
@@ -659,13 +659,13 @@
     <t xml:space="preserve">1.14458215236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12890315055847</t>
+    <t xml:space="preserve">1.12890303134918</t>
   </si>
   <si>
     <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15055537223816</t>
+    <t xml:space="preserve">1.15055525302887</t>
   </si>
   <si>
     <t xml:space="preserve">1.16474115848541</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">1.18042039871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18863344192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17967402935028</t>
+    <t xml:space="preserve">1.18863332271576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1796737909317</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21177899837494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1960996389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20879232883453</t>
+    <t xml:space="preserve">1.21177887916565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19609975814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20879244804382</t>
   </si>
   <si>
     <t xml:space="preserve">1.19385981559753</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20953893661499</t>
+    <t xml:space="preserve">1.20953905582428</t>
   </si>
   <si>
     <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22820472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22596490383148</t>
+    <t xml:space="preserve">1.22447168827057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22820484638214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22596478462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806987285614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899963855743</t>
+    <t xml:space="preserve">1.32899975776672</t>
   </si>
   <si>
     <t xml:space="preserve">1.36409115791321</t>
@@ -728,22 +728,22 @@
     <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3857433795929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41486203670502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979443073273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335275888443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547390937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42008829116821</t>
+    <t xml:space="preserve">1.38574349880219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41486191749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979466915131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43352770805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547379016876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4200884103775</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784846782684</t>
@@ -761,28 +761,28 @@
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488618850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099390506744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950057029724</t>
+    <t xml:space="preserve">1.46488606929779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099402427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950068950653</t>
   </si>
   <si>
     <t xml:space="preserve">1.44920694828033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44024729728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083489894867</t>
+    <t xml:space="preserve">1.44024741649628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
     <t xml:space="preserve">1.40664911270142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44846022129059</t>
+    <t xml:space="preserve">1.44846034049988</t>
   </si>
   <si>
     <t xml:space="preserve">1.44995355606079</t>
@@ -794,28 +794,28 @@
     <t xml:space="preserve">1.44472718238831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48355197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45592665672302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49325788021088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267039775848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53058934211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506934642792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52461647987366</t>
+    <t xml:space="preserve">1.48355174064636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45592653751373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49325799942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952496051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267027854919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5305894613266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506910800934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52461659908295</t>
   </si>
   <si>
     <t xml:space="preserve">1.54104220867157</t>
@@ -824,40 +824,40 @@
     <t xml:space="preserve">1.49251139163971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50669729709625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55298817157745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5753870010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733308315277</t>
+    <t xml:space="preserve">1.50669717788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55298829078674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57538723945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733320236206</t>
   </si>
   <si>
     <t xml:space="preserve">1.59927940368652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62018501758575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56344127655029</t>
+    <t xml:space="preserve">1.62018513679504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
     <t xml:space="preserve">1.578373670578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60226571559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58285343647003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58882653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389414310455</t>
+    <t xml:space="preserve">1.60226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58285331726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58882665634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389402389526</t>
   </si>
   <si>
     <t xml:space="preserve">1.60823893547058</t>
@@ -866,37 +866,37 @@
     <t xml:space="preserve">1.61719834804535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64258396625519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63213086128235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64557039737701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362419605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810396194458</t>
+    <t xml:space="preserve">1.6425838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959729671478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63213121891022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362395763397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
     <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65693283081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66461801528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463651180267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58930313587189</t>
+    <t xml:space="preserve">1.65693271160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66461789608002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463663101196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
     <t xml:space="preserve">1.61082148551941</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">1.57085847854614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55856215953827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56317317485809</t>
+    <t xml:space="preserve">1.55856204032898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5631730556488</t>
   </si>
   <si>
     <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56624734401703</t>
+    <t xml:space="preserve">1.56624746322632</t>
   </si>
   <si>
     <t xml:space="preserve">1.54626572132111</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58776605129242</t>
+    <t xml:space="preserve">1.58776581287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.60467338562012</t>
@@ -932,13 +932,13 @@
     <t xml:space="preserve">1.600062251091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59083998203278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852504730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61389541625977</t>
+    <t xml:space="preserve">1.59083986282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852516651154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61389565467834</t>
   </si>
   <si>
     <t xml:space="preserve">1.63080298900604</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">1.64156234264374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61696982383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65232169628143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998838424683</t>
+    <t xml:space="preserve">1.61696970462799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65232193470001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998850345612</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691433429718</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">1.675377368927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68306267261505</t>
+    <t xml:space="preserve">1.68306255340576</t>
   </si>
   <si>
     <t xml:space="preserve">1.70458126068115</t>
@@ -992,52 +992,52 @@
     <t xml:space="preserve">1.72609972953796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76452577114105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7614518404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74608135223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72763669490814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532176017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915552139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913702487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77682220935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7722110748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76759994029999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834091663361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293355464935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984100818634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295205116272</t>
+    <t xml:space="preserve">1.76452600955963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298880577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991463661194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76145172119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7460812330246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72763693332672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915540218353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913690567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7768223285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77221083641052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7675998210907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79834079742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293367385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984124660492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295193195343</t>
   </si>
   <si>
     <t xml:space="preserve">1.79372978210449</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">1.71534049510956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72456276416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071086406708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380364894867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376641750336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222969055176</t>
+    <t xml:space="preserve">1.7245626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454438686371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380341053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376653671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222945213318</t>
   </si>
   <si>
     <t xml:space="preserve">1.81217420101166</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">1.80602586269379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985938549042</t>
+    <t xml:space="preserve">1.819859623909</t>
   </si>
   <si>
     <t xml:space="preserve">1.79987788200378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78143346309662</t>
+    <t xml:space="preserve">1.78143358230591</t>
   </si>
   <si>
     <t xml:space="preserve">1.75684058666229</t>
@@ -1103,25 +1103,25 @@
     <t xml:space="preserve">1.85521149635315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86135947704315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89824867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285968780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671170711517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056384563446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85367441177368</t>
+    <t xml:space="preserve">1.86135971546173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89824855327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285980701447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671158790588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056324958801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215570449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367453098297</t>
   </si>
   <si>
     <t xml:space="preserve">1.84291517734528</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">1.81832230091095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85674846172333</t>
+    <t xml:space="preserve">1.85674810409546</t>
   </si>
   <si>
     <t xml:space="preserve">1.87211906909943</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90439665317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358240604401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9336005449295</t>
+    <t xml:space="preserve">1.90439677238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9535825252533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360090255737</t>
   </si>
   <si>
     <t xml:space="preserve">1.92130422592163</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93052649497986</t>
+    <t xml:space="preserve">1.93052661418915</t>
   </si>
   <si>
     <t xml:space="preserve">1.95050823688507</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">1.97356390953064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97971212863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202658653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98124921321869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94435977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969351291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661934375763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973038673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0012309551239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00276732444763</t>
+    <t xml:space="preserve">1.97971224784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202694416046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98124885559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9443598985672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350853919983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969363212585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661958217621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00123047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00276756286621</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510075569153</t>
@@ -1196,49 +1196,49 @@
     <t xml:space="preserve">1.96434152126312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9274525642395</t>
+    <t xml:space="preserve">1.92745232582092</t>
   </si>
   <si>
     <t xml:space="preserve">1.93206369876862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92284142971039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736043930054</t>
+    <t xml:space="preserve">1.92284154891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665633678436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736020088196</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9551192522049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9489711523056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98739743232727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656456947327</t>
+    <t xml:space="preserve">1.95511913299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897103309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039761543274</t>
+    <t xml:space="preserve">2.07039737701416</t>
   </si>
   <si>
     <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1057493686676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06732320785522</t>
+    <t xml:space="preserve">2.10574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0673234462738</t>
   </si>
   <si>
     <t xml:space="preserve">2.02582335472107</t>
@@ -1247,148 +1247,148 @@
     <t xml:space="preserve">2.01198983192444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737905502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00584173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04119348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830404281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.826007604599</t>
+    <t xml:space="preserve">2.00737857818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00584149360657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04119372367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287818431854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830392360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365591526031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82600736618042</t>
   </si>
   <si>
     <t xml:space="preserve">1.87826693058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86443376541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87673020362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83523011207581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85982251167297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441526889801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902640342712</t>
+    <t xml:space="preserve">1.8644335269928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83522999286652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85982263088226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441514968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902652263641</t>
   </si>
   <si>
     <t xml:space="preserve">1.82447063922882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058210372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515624523163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90132260322571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363741874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134109973907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519299983978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84598910808563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95819330215454</t>
+    <t xml:space="preserve">1.87058198451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132284164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363765716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134133815765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519311904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84598922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95819365978241</t>
   </si>
   <si>
     <t xml:space="preserve">1.95204508304596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9428231716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591559886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898952960968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828566551208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8798041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361916065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743418693542</t>
+    <t xml:space="preserve">1.94282293319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591536045074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8582855463028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87980425357819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361927986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743394851685</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667471408844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94589734077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96587860584259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9120819568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8859521150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752595424652</t>
+    <t xml:space="preserve">1.94589722156525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587872505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91208207607269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88595223426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752631187439</t>
   </si>
   <si>
     <t xml:space="preserve">1.84137797355652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79526686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450739383698</t>
+    <t xml:space="preserve">1.79526662826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450751304626</t>
   </si>
   <si>
     <t xml:space="preserve">1.78297030925751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71226644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66769218444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62004399299622</t>
+    <t xml:space="preserve">1.7122665643692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66769230365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62004387378693</t>
   </si>
   <si>
     <t xml:space="preserve">1.6323401927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6492475271225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771068096161</t>
+    <t xml:space="preserve">1.64924776554108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771056175232</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">1.59545111656189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69535887241364</t>
+    <t xml:space="preserve">1.69535899162292</t>
   </si>
   <si>
     <t xml:space="preserve">1.73224806785583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72624862194061</t>
+    <t xml:space="preserve">1.7262487411499</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846124649048</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">1.70244908332825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71038222312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69927597045898</t>
+    <t xml:space="preserve">1.71038234233856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69927573204041</t>
   </si>
   <si>
     <t xml:space="preserve">1.70720899105072</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">1.73735511302948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528813362122</t>
+    <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
     <t xml:space="preserve">1.7817804813385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7928866147995</t>
+    <t xml:space="preserve">1.79288673400879</t>
   </si>
   <si>
     <t xml:space="preserve">1.79764688014984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8119261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543389797211</t>
+    <t xml:space="preserve">1.81192624568939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7754340171814</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1454,82 +1454,82 @@
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79129993915558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985914707184</t>
+    <t xml:space="preserve">1.79130017757416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019380569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985950469971</t>
   </si>
   <si>
     <t xml:space="preserve">1.82779240608215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8246191740036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668627262115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384734153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860736846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649773597717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856459617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760410785675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140328884125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91823029518127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207201004028</t>
+    <t xml:space="preserve">1.82461929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668603420258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7992330789566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384722232819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860724925995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649785518646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856471538544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140340805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91823017597198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207224845886</t>
   </si>
   <si>
     <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87539160251617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87380480766296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745822429657</t>
+    <t xml:space="preserve">1.8753913640976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380468845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745846271515</t>
   </si>
   <si>
     <t xml:space="preserve">1.83572566509247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80875313282013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115441322327</t>
+    <t xml:space="preserve">1.80875289440155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80716669559479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115429401398</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687457084656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74211490154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73576807975769</t>
+    <t xml:space="preserve">1.74211502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73576819896698</t>
   </si>
   <si>
     <t xml:space="preserve">1.73418164253235</t>
@@ -1538,16 +1538,16 @@
     <t xml:space="preserve">1.73259508609772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69451594352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69292938709259</t>
+    <t xml:space="preserve">1.69451606273651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69292950630188</t>
   </si>
   <si>
     <t xml:space="preserve">1.64057087898254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60249185562134</t>
+    <t xml:space="preserve">1.60249173641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.61677145957947</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">1.64215731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64533042907715</t>
+    <t xml:space="preserve">1.64533066749573</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196889877319</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975627422333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119694709778</t>
+    <t xml:space="preserve">1.68975615501404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119706630707</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009045600891</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">1.66595673561096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67706298828125</t>
+    <t xml:space="preserve">1.67706322669983</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54219996929169</t>
+    <t xml:space="preserve">1.54220008850098</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140663146973</t>
+    <t xml:space="preserve">1.51046764850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140675067902</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">1.52554047107697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54061341285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268015384674</t>
+    <t xml:space="preserve">1.54061353206635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268027305603</t>
   </si>
   <si>
     <t xml:space="preserve">1.51443409919739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54854643344879</t>
+    <t xml:space="preserve">1.54854655265808</t>
   </si>
   <si>
     <t xml:space="preserve">1.52395379543304</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51760745048523</t>
+    <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
     <t xml:space="preserve">1.57393252849579</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">1.56520617008209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62311780452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64691734313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167713165283</t>
+    <t xml:space="preserve">1.63105094432831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62311792373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64691710472107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167725086212</t>
   </si>
   <si>
     <t xml:space="preserve">1.62629103660583</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53664696216583</t>
+    <t xml:space="preserve">1.53664672374725</t>
   </si>
   <si>
     <t xml:space="preserve">1.54933977127075</t>
@@ -1697,52 +1697,52 @@
     <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51998710632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50729429721832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59931862354279</t>
+    <t xml:space="preserve">1.51998722553253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50729417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5993185043335</t>
   </si>
   <si>
     <t xml:space="preserve">1.60090506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59138536453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58662545681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65485036373138</t>
+    <t xml:space="preserve">1.59138548374176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58662557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65485024452209</t>
   </si>
   <si>
     <t xml:space="preserve">1.69768929481506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66278350353241</t>
+    <t xml:space="preserve">1.66278338432312</t>
   </si>
   <si>
     <t xml:space="preserve">1.6691300868988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72307538986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403587818146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70879578590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562243461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71355557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816947937012</t>
+    <t xml:space="preserve">1.72307527065277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70879566669464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562255382538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71355545520782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816959857941</t>
   </si>
   <si>
     <t xml:space="preserve">1.6865828037262</t>
@@ -1754,43 +1754,43 @@
     <t xml:space="preserve">1.6738897562027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68340957164764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643703937531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802347660065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182301521301</t>
+    <t xml:space="preserve">1.68340969085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643715858459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802359580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182289600372</t>
   </si>
   <si>
     <t xml:space="preserve">1.71672880649567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80557978153229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827282905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303273677826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7881270647049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81509959697723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033968925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399310588837</t>
+    <t xml:space="preserve">1.80558001995087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827294826508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78812694549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033957004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399322509766</t>
   </si>
   <si>
     <t xml:space="preserve">1.83889901638031</t>
@@ -1799,40 +1799,40 @@
     <t xml:space="preserve">1.80081987380981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69134283065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68023633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961015224457</t>
+    <t xml:space="preserve">1.69134271144867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68023645877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422429561615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62946426868439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66754329204559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894155025482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76274073123932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75798106193542</t>
+    <t xml:space="preserve">1.62946438789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66754353046417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894143104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76274085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226054668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798118114471</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395081043243</t>
+    <t xml:space="preserve">1.90395069122314</t>
   </si>
   <si>
     <t xml:space="preserve">1.9007773399353</t>
@@ -1841,46 +1841,46 @@
     <t xml:space="preserve">1.88967084884644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88843429088593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89172434806824</t>
+    <t xml:space="preserve">1.88843464851379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89172446727753</t>
   </si>
   <si>
     <t xml:space="preserve">1.89665937423706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86869478225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88020956516266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349962234497</t>
+    <t xml:space="preserve">1.86869490146637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88020968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349950313568</t>
   </si>
   <si>
     <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95587861537933</t>
+    <t xml:space="preserve">1.95587873458862</t>
   </si>
   <si>
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929873943329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613886833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97890818119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548829555511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851798057556</t>
+    <t xml:space="preserve">1.949298620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9789080619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548817634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">2.01180791854858</t>
@@ -1892,34 +1892,34 @@
     <t xml:space="preserve">2.01509785652161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02332282066345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98219835758209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98384320735931</t>
+    <t xml:space="preserve">2.02332258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98219847679138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9838433265686</t>
   </si>
   <si>
     <t xml:space="preserve">1.97397351264954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94600856304169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159440040588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271886348724</t>
+    <t xml:space="preserve">1.94600868225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159428119659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271874427795</t>
   </si>
   <si>
     <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99371325969696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99864792823792</t>
+    <t xml:space="preserve">1.99371314048767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99864816665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358319282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206793308258</t>
+    <t xml:space="preserve">2.00358295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206805229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.01016283035278</t>
@@ -1940,10 +1940,10 @@
     <t xml:space="preserve">2.01345276832581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98055326938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042308330536</t>
+    <t xml:space="preserve">1.98055338859558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042320251465</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964232444763</t>
@@ -1955,16 +1955,16 @@
     <t xml:space="preserve">2.03154754638672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03483724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06609201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06444692611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04306244850159</t>
+    <t xml:space="preserve">2.03483748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06609225273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06444716453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04306221008301</t>
   </si>
   <si>
     <t xml:space="preserve">1.97068333625793</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
+    <t xml:space="preserve">2.02167749404907</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14011597633362</t>
+    <t xml:space="preserve">2.1401162147522</t>
   </si>
   <si>
     <t xml:space="preserve">2.16314601898193</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">2.17959570884705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20098066329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18453025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1697256565094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17795062065125</t>
+    <t xml:space="preserve">2.20098042488098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18453049659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16972541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17795038223267</t>
   </si>
   <si>
     <t xml:space="preserve">2.19111037254333</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">2.23387980461121</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24045991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21249485015869</t>
+    <t xml:space="preserve">2.24045968055725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21249532699585</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20756030082703</t>
+    <t xml:space="preserve">2.20756006240845</t>
   </si>
   <si>
     <t xml:space="preserve">2.1713707447052</t>
@@ -2042,10 +2042,10 @@
     <t xml:space="preserve">2.19933533668518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604539871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591521263123</t>
+    <t xml:space="preserve">2.19604563713074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591497421265</t>
   </si>
   <si>
     <t xml:space="preserve">2.25361943244934</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">2.27171421051025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474377632141</t>
+    <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
     <t xml:space="preserve">2.26513433456421</t>
@@ -2072,7 +2072,7 @@
     <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993941307068</t>
+    <t xml:space="preserve">2.2799391746521</t>
   </si>
   <si>
     <t xml:space="preserve">2.27664923667908</t>
@@ -2084,19 +2084,19 @@
     <t xml:space="preserve">2.24374961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22565507888794</t>
+    <t xml:space="preserve">2.22565484046936</t>
   </si>
   <si>
     <t xml:space="preserve">2.26348948478699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32270836830139</t>
+    <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
     <t xml:space="preserve">2.30625891685486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31448364257812</t>
+    <t xml:space="preserve">2.3144838809967</t>
   </si>
   <si>
     <t xml:space="preserve">2.30296874046326</t>
@@ -2108,16 +2108,16 @@
     <t xml:space="preserve">2.26677966117859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31941890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33093333244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25855445861816</t>
+    <t xml:space="preserve">2.30790376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31941843032837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3309338092804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25855469703674</t>
   </si>
   <si>
     <t xml:space="preserve">2.29803395271301</t>
@@ -2129,76 +2129,76 @@
     <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23716998100281</t>
+    <t xml:space="preserve">2.23716974258423</t>
   </si>
   <si>
     <t xml:space="preserve">2.2486846446991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032949447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2815842628479</t>
+    <t xml:space="preserve">2.2503297328949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28158402442932</t>
   </si>
   <si>
     <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435345649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31777381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35725331306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38686299324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35560846328735</t>
+    <t xml:space="preserve">2.32435369491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31777358055115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.357253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38686275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35560822486877</t>
   </si>
   <si>
     <t xml:space="preserve">2.37534785270691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43127727508545</t>
+    <t xml:space="preserve">2.43127703666687</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.451016664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50859093666077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48556160926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240138053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46746683120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47733640670776</t>
+    <t xml:space="preserve">2.45101690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50859117507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48556137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4674665927887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
     <t xml:space="preserve">2.45924186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46582174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798733711243</t>
+    <t xml:space="preserve">2.4658215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798709869385</t>
   </si>
   <si>
     <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898125648499</t>
+    <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">2.46088695526123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51023578643799</t>
+    <t xml:space="preserve">2.51023602485657</t>
   </si>
   <si>
     <t xml:space="preserve">2.55465054512024</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36218786239624</t>
+    <t xml:space="preserve">2.36218810081482</t>
   </si>
   <si>
     <t xml:space="preserve">2.36383318901062</t>
@@ -2228,19 +2228,19 @@
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028287887573</t>
+    <t xml:space="preserve">2.38028311729431</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33257818222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34902834892273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21413969993591</t>
+    <t xml:space="preserve">2.33257842063904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34902811050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21414017677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128717422485</t>
@@ -2249,25 +2249,25 @@
     <t xml:space="preserve">1.84731006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8242803812027</t>
+    <t xml:space="preserve">1.82428050041199</t>
   </si>
   <si>
     <t xml:space="preserve">1.54956901073456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59645092487335</t>
+    <t xml:space="preserve">1.59645080566406</t>
   </si>
   <si>
     <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50844466686249</t>
+    <t xml:space="preserve">1.5084445476532</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407205104828</t>
+    <t xml:space="preserve">1.52407193183899</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2285,52 +2285,52 @@
     <t xml:space="preserve">1.66965246200562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68610215187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76835107803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85059988498688</t>
+    <t xml:space="preserve">1.68610227108002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76835131645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85060000419617</t>
   </si>
   <si>
     <t xml:space="preserve">1.73216164112091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7288715839386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71571183204651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.745321393013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74367642402649</t>
+    <t xml:space="preserve">1.72887182235718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71571171283722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74532151222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7436763048172</t>
   </si>
   <si>
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7305166721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670622825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78973591327667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81441044807434</t>
+    <t xml:space="preserve">1.73051679134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670610904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78973603248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81441056728363</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618572235107</t>
+    <t xml:space="preserve">1.80618584156036</t>
   </si>
   <si>
     <t xml:space="preserve">1.81276547908783</t>
@@ -2339,61 +2339,61 @@
     <t xml:space="preserve">1.83908522129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84895479679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8719847202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579528331757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79302573204041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76012623310089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77328598499298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74038636684418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848114490509</t>
+    <t xml:space="preserve">1.84895491600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87198495864868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211478710175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579552173615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79302585124969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76012635231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77328610420227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74038648605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848138332367</t>
   </si>
   <si>
     <t xml:space="preserve">1.77657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78480088710785</t>
+    <t xml:space="preserve">1.78480100631714</t>
   </si>
   <si>
     <t xml:space="preserve">1.83415031433105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86047005653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81934523582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960548877716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527477741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968929767609</t>
+    <t xml:space="preserve">1.86046993732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81934535503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527453899384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968941688538</t>
   </si>
   <si>
     <t xml:space="preserve">1.97232842445374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96410369873047</t>
+    <t xml:space="preserve">1.96410346031189</t>
   </si>
   <si>
     <t xml:space="preserve">1.92133402824402</t>
@@ -2402,19 +2402,19 @@
     <t xml:space="preserve">1.90817415714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83086037635803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85224497318268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9048844575882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91146409511566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98555850982666</t>
+    <t xml:space="preserve">1.83086025714874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85224521160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488433837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91146397590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98555874824524</t>
   </si>
   <si>
     <t xml:space="preserve">1.97527956962585</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906325817108</t>
+    <t xml:space="preserve">1.88276875019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906313896179</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">1.88105571269989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90161371231079</t>
+    <t xml:space="preserve">1.90161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">1.92388463020325</t>
@@ -2477,16 +2477,16 @@
     <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86392390727997</t>
+    <t xml:space="preserve">1.86392402648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.83822631835938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84679210186005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85021877288818</t>
+    <t xml:space="preserve">1.84679222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8502185344696</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8399395942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563694477081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85878455638885</t>
+    <t xml:space="preserve">1.83993947505951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8656370639801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85878443717957</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157443523407</t>
+    <t xml:space="preserve">1.96157419681549</t>
   </si>
   <si>
     <t xml:space="preserve">1.92902433872223</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735033988953</t>
+    <t xml:space="preserve">1.86735022068024</t>
   </si>
   <si>
     <t xml:space="preserve">1.89818727970123</t>
@@ -2540,7 +2540,7 @@
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790822029114</t>
+    <t xml:space="preserve">1.88790810108185</t>
   </si>
   <si>
     <t xml:space="preserve">1.91017937660217</t>
@@ -2549,10 +2549,10 @@
     <t xml:space="preserve">1.88619482517242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84507894515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84165275096893</t>
+    <t xml:space="preserve">1.8450790643692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84165287017822</t>
   </si>
   <si>
     <t xml:space="preserve">1.81595504283905</t>
@@ -2579,16 +2579,16 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201012611389</t>
+    <t xml:space="preserve">1.73201024532318</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65491759777069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67119264602661</t>
+    <t xml:space="preserve">1.65491771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6711927652359</t>
   </si>
   <si>
     <t xml:space="preserve">1.67890202999115</t>
@@ -2600,22 +2600,22 @@
     <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7474285364151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70973908901215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79197084903717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7782655954361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78683137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78854477405548</t>
+    <t xml:space="preserve">1.74742865562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70973896980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79197096824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78683125972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78854465484619</t>
   </si>
   <si>
     <t xml:space="preserve">1.8039630651474</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025757312775</t>
+    <t xml:space="preserve">1.79025769233704</t>
   </si>
   <si>
     <t xml:space="preserve">1.85535788536072</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671366691589</t>
+    <t xml:space="preserve">1.96671390533447</t>
   </si>
   <si>
     <t xml:space="preserve">1.92559766769409</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280778884888</t>
+    <t xml:space="preserve">1.82280790805817</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711055755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.798823595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224990844727</t>
+    <t xml:space="preserve">1.79711043834686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79882347583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80225002765656</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141308784485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83137357234955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83480000495911</t>
+    <t xml:space="preserve">1.83137381076813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83479988574982</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">1.85364484786987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86221063137054</t>
+    <t xml:space="preserve">1.86221086978912</t>
   </si>
   <si>
     <t xml:space="preserve">1.81252884864807</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74400234222412</t>
+    <t xml:space="preserve">1.74400222301483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">1.75428128242493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7422890663147</t>
+    <t xml:space="preserve">1.74228918552399</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">1.8142421245575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80053663253784</t>
+    <t xml:space="preserve">1.80053687095642</t>
   </si>
   <si>
     <t xml:space="preserve">1.76969969272614</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">1.86049747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87077665328979</t>
+    <t xml:space="preserve">1.87077653408051</t>
   </si>
   <si>
     <t xml:space="preserve">1.91874504089355</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01639556884766</t>
+    <t xml:space="preserve">2.01639580726624</t>
   </si>
   <si>
     <t xml:space="preserve">2.03010082244873</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">2.01982188224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0181086063385</t>
+    <t xml:space="preserve">2.01810884475708</t>
   </si>
   <si>
     <t xml:space="preserve">2.01468253135681</t>
@@ -2771,10 +2771,10 @@
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723262786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02153515815735</t>
+    <t xml:space="preserve">2.04723286628723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02153491973877</t>
   </si>
   <si>
     <t xml:space="preserve">2.0438060760498</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">2.13460397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17400693893433</t>
+    <t xml:space="preserve">2.17400670051575</t>
   </si>
   <si>
     <t xml:space="preserve">2.18257260322571</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24938607215881</t>
+    <t xml:space="preserve">2.24938583374023</t>
   </si>
   <si>
     <t xml:space="preserve">2.24424648284912</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452542304993</t>
+    <t xml:space="preserve">2.25452566146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -4557,6 +4557,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.83700001239777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94700002670288</t>
   </si>
 </sst>
 </file>
@@ -60616,7 +60619,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6495949074</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>2568180</v>
@@ -60637,6 +60640,32 @@
         <v>1426</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6494907407</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>3189897</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>1.97200000286102</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>1.93900001049042</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>1.94000005722046</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>1.94700002670288</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1515</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1517">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">1.03189921379089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549742698669</t>
+    <t xml:space="preserve">1.0354973077774</t>
   </si>
   <si>
     <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00743293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0031156539917</t>
+    <t xml:space="preserve">1.00743305683136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00311541557312</t>
   </si>
   <si>
     <t xml:space="preserve">1.0261424779892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00959181785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98368638753891</t>
+    <t xml:space="preserve">1.00959193706512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983686327934265</t>
   </si>
   <si>
     <t xml:space="preserve">0.964976966381073</t>
@@ -74,91 +74,91 @@
     <t xml:space="preserve">0.939791083335876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95130467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934034287929535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341862678528</t>
+    <t xml:space="preserve">0.951304614543915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885831832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
   </si>
   <si>
     <t xml:space="preserve">0.957780957221985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971453249454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99016284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929592132568</t>
+    <t xml:space="preserve">0.971453309059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990162968635559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929651737213</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99232143163681</t>
+    <t xml:space="preserve">0.9923215508461</t>
   </si>
   <si>
     <t xml:space="preserve">0.95562207698822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941949963569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914605438709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473382472992</t>
+    <t xml:space="preserve">0.941949903964996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914605319499969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473561286926</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801269054413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947706639766693</t>
+    <t xml:space="preserve">0.947706699371338</t>
   </si>
   <si>
     <t xml:space="preserve">0.970733642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979368925094604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99879789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03117966651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03621685504913</t>
+    <t xml:space="preserve">0.97936886548996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998797953128815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03117954730988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03621697425842</t>
   </si>
   <si>
     <t xml:space="preserve">1.02110540866852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05636560916901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686202526093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0232640504837</t>
+    <t xml:space="preserve">1.05636548995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0268622636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02326428890228</t>
   </si>
   <si>
     <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05852437019348</t>
+    <t xml:space="preserve">1.0585241317749</t>
   </si>
   <si>
     <t xml:space="preserve">1.03981482982635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04341280460358</t>
+    <t xml:space="preserve">1.04341292381287</t>
   </si>
   <si>
     <t xml:space="preserve">1.01247012615204</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">1.02542281150818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06572008132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723367214203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11609172821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13120341300964</t>
+    <t xml:space="preserve">1.06572020053864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723379135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11609184741974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13120329380035</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
@@ -188,49 +188,49 @@
     <t xml:space="preserve">1.14343643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12616622447968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11897015571594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12256801128387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12544655799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336217403412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14199733734131</t>
+    <t xml:space="preserve">1.12616646289825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11897027492523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12256824970245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12544667720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14127767086029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336205482483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1419974565506</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12976431846619</t>
+    <t xml:space="preserve">1.1297641992569</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048374652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13696002960205</t>
+    <t xml:space="preserve">1.13696026802063</t>
   </si>
   <si>
     <t xml:space="preserve">1.14415609836578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767969608307</t>
+    <t xml:space="preserve">1.13767981529236</t>
   </si>
   <si>
     <t xml:space="preserve">1.14703440666199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15279114246368</t>
+    <t xml:space="preserve">1.15279126167297</t>
   </si>
   <si>
     <t xml:space="preserve">1.1448757648468</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">1.12328791618347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10457837581635</t>
+    <t xml:space="preserve">1.10457849502563</t>
   </si>
   <si>
     <t xml:space="preserve">1.12112903594971</t>
@@ -260,43 +260,43 @@
     <t xml:space="preserve">1.15495002269745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15063238143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13480150699615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10817635059357</t>
+    <t xml:space="preserve">1.14991295337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1506325006485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13480138778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10817623138428</t>
   </si>
   <si>
     <t xml:space="preserve">1.15423035621643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12760531902313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11249387264252</t>
+    <t xml:space="preserve">1.12760543823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1124941110611</t>
   </si>
   <si>
     <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14055800437927</t>
+    <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
     <t xml:space="preserve">1.17222023010254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20100402832031</t>
+    <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
     <t xml:space="preserve">1.18733179569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18085563182831</t>
+    <t xml:space="preserve">1.18085551261902</t>
   </si>
   <si>
     <t xml:space="preserve">1.19884526729584</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17006158828735</t>
+    <t xml:space="preserve">1.17006170749664</t>
   </si>
   <si>
     <t xml:space="preserve">1.18805134296417</t>
@@ -314,13 +314,13 @@
     <t xml:space="preserve">1.1858925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19308865070343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16862237453461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162545204163</t>
+    <t xml:space="preserve">1.19308853149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16862225532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162569046021</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">1.07795345783234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306490421295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07514595985413</t>
+    <t xml:space="preserve">1.09306502342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07514572143555</t>
   </si>
   <si>
     <t xml:space="preserve">1.09381151199341</t>
@@ -344,25 +344,25 @@
     <t xml:space="preserve">1.01392221450806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979577302932739</t>
+    <t xml:space="preserve">0.979577362537384</t>
   </si>
   <si>
     <t xml:space="preserve">1.00944244861603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00048291683197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03781414031982</t>
+    <t xml:space="preserve">1.00048303604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
     <t xml:space="preserve">1.04453408718109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04901385307312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01541543006897</t>
+    <t xml:space="preserve">1.04901373386383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01541554927826</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
@@ -371,55 +371,55 @@
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333461284637</t>
+    <t xml:space="preserve">1.03333449363708</t>
   </si>
   <si>
     <t xml:space="preserve">1.04080092906952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03408133983612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01914870738983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885484695435</t>
+    <t xml:space="preserve">1.03408110141754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01914858818054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885472774506</t>
   </si>
   <si>
     <t xml:space="preserve">1.03557431697845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05573344230652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04677391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767928600311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469309329987</t>
+    <t xml:space="preserve">1.05573332309723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04677402973175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06767964363098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469285488129</t>
   </si>
   <si>
     <t xml:space="preserve">1.07738554477692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07813227176666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754478931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09903788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08634519577026</t>
+    <t xml:space="preserve">1.07813239097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09903800487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08634543418884</t>
   </si>
   <si>
     <t xml:space="preserve">1.08709180355072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09978461265564</t>
+    <t xml:space="preserve">1.09978449344635</t>
   </si>
   <si>
     <t xml:space="preserve">1.10277116298676</t>
@@ -428,55 +428,55 @@
     <t xml:space="preserve">1.11173057556152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10501086711884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1087441444397</t>
+    <t xml:space="preserve">1.10501098632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10874390602112</t>
   </si>
   <si>
     <t xml:space="preserve">1.09007835388184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06319963932037</t>
+    <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
     <t xml:space="preserve">1.06170654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05946671962738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05125367641449</t>
+    <t xml:space="preserve">1.05946660041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05125379562378</t>
   </si>
   <si>
     <t xml:space="preserve">1.06618618965149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07887899875641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127782821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10575735569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114297389984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13935601711273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799729824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426437854767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
+    <t xml:space="preserve">1.07887887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127770900726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10575759410858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114285469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13935589790344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799753665924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455823898315</t>
   </si>
   <si>
     <t xml:space="preserve">1.08037221431732</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">1.0923182964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08783853054047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11247718334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14383554458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666308879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994349956512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08261203765869</t>
+    <t xml:space="preserve">1.08783841133118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11247730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14383566379547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08261215686798</t>
   </si>
   <si>
     <t xml:space="preserve">1.08933174610138</t>
@@ -515,25 +515,25 @@
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17668724060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17892730236053</t>
+    <t xml:space="preserve">1.17668735980988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17892718315125</t>
   </si>
   <si>
     <t xml:space="preserve">1.20207273960114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22223174571991</t>
+    <t xml:space="preserve">1.21700537204742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223162651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521817684174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19535291194916</t>
+    <t xml:space="preserve">1.19535303115845</t>
   </si>
   <si>
     <t xml:space="preserve">1.21476542949677</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">1.22148513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356595516205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18937993049622</t>
+    <t xml:space="preserve">1.20356583595276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18938004970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16996765136719</t>
+    <t xml:space="preserve">1.16996777057648</t>
   </si>
   <si>
     <t xml:space="preserve">1.18490028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19311320781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17519402503967</t>
+    <t xml:space="preserve">1.19311308860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17519414424896</t>
   </si>
   <si>
     <t xml:space="preserve">1.06991934776306</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">1.06543970108032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05722653865814</t>
+    <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
     <t xml:space="preserve">1.04528057575226</t>
@@ -584,55 +584,55 @@
     <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02512156963348</t>
+    <t xml:space="preserve">1.02512145042419</t>
   </si>
   <si>
     <t xml:space="preserve">1.05200028419495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586817741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08186554908752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08111882209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09530460834503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098384857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471700668335</t>
+    <t xml:space="preserve">1.02586829662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08186531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08111870288849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09530484676361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098396778107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471712589264</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412952423096</t>
+    <t xml:space="preserve">1.13412964344025</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487613201141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14906215667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279507637024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16175484657288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16698110103607</t>
+    <t xml:space="preserve">1.14906203746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279519557953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16175472736359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16698098182678</t>
   </si>
   <si>
     <t xml:space="preserve">1.15130209922791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13636934757233</t>
+    <t xml:space="preserve">1.13636922836304</t>
   </si>
   <si>
     <t xml:space="preserve">1.15727484226227</t>
@@ -641,37 +641,37 @@
     <t xml:space="preserve">1.17146098613739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17220747470856</t>
+    <t xml:space="preserve">1.17220759391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729542016983</t>
+    <t xml:space="preserve">1.17295408248901</t>
   </si>
   <si>
     <t xml:space="preserve">1.16250133514404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16847443580627</t>
+    <t xml:space="preserve">1.16847455501556</t>
   </si>
   <si>
     <t xml:space="preserve">1.14458227157593</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12890315055847</t>
+    <t xml:space="preserve">1.12890303134918</t>
   </si>
   <si>
     <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15055525302887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16474115848541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14308905601501</t>
+    <t xml:space="preserve">1.15055537223816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1647412776947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14308893680573</t>
   </si>
   <si>
     <t xml:space="preserve">1.18042039871216</t>
@@ -683,22 +683,22 @@
     <t xml:space="preserve">1.17967391014099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18191361427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21177911758423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19609975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20879244804382</t>
+    <t xml:space="preserve">1.18191373348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21177887916565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19609987735748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20879232883453</t>
   </si>
   <si>
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
@@ -707,25 +707,25 @@
     <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22820484638214</t>
+    <t xml:space="preserve">1.22447144985199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22820460796356</t>
   </si>
   <si>
     <t xml:space="preserve">1.22596478462219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25806975364685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899951934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36409115791321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37379741668701</t>
+    <t xml:space="preserve">1.25806999206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899963855743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3640912771225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37379729747772</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
@@ -734,76 +734,76 @@
     <t xml:space="preserve">1.41486191749573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42979454994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43352770805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547367095947</t>
+    <t xml:space="preserve">1.42979443073273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4335275888443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547379016876</t>
   </si>
   <si>
     <t xml:space="preserve">1.4200884103775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41784846782684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45293998718262</t>
+    <t xml:space="preserve">1.41784858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45294010639191</t>
   </si>
   <si>
     <t xml:space="preserve">1.46339297294617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45741987228394</t>
+    <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488630771637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099390506744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950068950653</t>
+    <t xml:space="preserve">1.46488618850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099402427673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950057029724</t>
   </si>
   <si>
     <t xml:space="preserve">1.44920694828033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4402471780777</t>
+    <t xml:space="preserve">1.44024729728699</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664911270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44846022129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4499534368515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46413946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44472694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48355197906494</t>
+    <t xml:space="preserve">1.40664899349213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44846034049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44995355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46413958072662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44472706317902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
     <t xml:space="preserve">1.45592665672302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49325811862946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952496051788</t>
+    <t xml:space="preserve">1.49325799942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952484130859</t>
   </si>
   <si>
     <t xml:space="preserve">1.51267039775848</t>
@@ -812,31 +812,31 @@
     <t xml:space="preserve">1.5305894613266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506934642792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52461647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54104232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49251139163971</t>
+    <t xml:space="preserve">1.53506922721863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52461636066437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54104220867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49251127243042</t>
   </si>
   <si>
     <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55298817157745</t>
+    <t xml:space="preserve">1.55298840999603</t>
   </si>
   <si>
     <t xml:space="preserve">1.57538723945618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58733308315277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927952289581</t>
+    <t xml:space="preserve">1.58733332157135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927928447723</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">1.57837390899658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60226559638977</t>
+    <t xml:space="preserve">1.60226583480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.58285343647003</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">1.58882665634155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389402389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823881626129</t>
+    <t xml:space="preserve">1.57389390468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719822883606</t>
@@ -872,46 +872,46 @@
     <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63213109970093</t>
+    <t xml:space="preserve">1.63213121891022</t>
   </si>
   <si>
     <t xml:space="preserve">1.64557027816772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362431526184</t>
+    <t xml:space="preserve">1.63362419605255</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65846979618073</t>
+    <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693271160126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461789608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463663101196</t>
+    <t xml:space="preserve">1.66461801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463651180267</t>
   </si>
   <si>
     <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61082148551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085835933685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55856227874756</t>
+    <t xml:space="preserve">1.6108216047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085824012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56471037864685</t>
+    <t xml:space="preserve">1.56471014022827</t>
   </si>
   <si>
     <t xml:space="preserve">1.56624734401703</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">1.54626572132111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58008074760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58776581287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60467326641083</t>
+    <t xml:space="preserve">1.58008062839508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58776593208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60467338562012</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">1.59852504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61389565467834</t>
+    <t xml:space="preserve">1.61389553546906</t>
   </si>
   <si>
     <t xml:space="preserve">1.63080298900604</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">1.61543273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6384881734848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65539574623108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156222343445</t>
+    <t xml:space="preserve">1.63848829269409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65539586544037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156234264374</t>
   </si>
   <si>
     <t xml:space="preserve">1.61696982383728</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">1.67998862266541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67691433429718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67537748813629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68306255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70458114147186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7291738986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148883342743</t>
+    <t xml:space="preserve">1.67691445350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.675377368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68306267261505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70458137989044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72917366027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
     <t xml:space="preserve">1.70150697231293</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">1.72609996795654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76452589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298868656158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991463661194</t>
+    <t xml:space="preserve">1.76452577114105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298880577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991475582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.76145207881927</t>
@@ -1007,103 +1007,103 @@
     <t xml:space="preserve">1.74608147144318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763669490814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532211780548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915528297424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913690567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77682220935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77221095561981</t>
+    <t xml:space="preserve">1.72763657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915540218353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913726329803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7768223285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7722110748291</t>
   </si>
   <si>
     <t xml:space="preserve">1.76759994029999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79834079742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293331623077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984124660492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79373002052307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78758144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74761819839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995139122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72456276416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454414844513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071110248566</t>
+    <t xml:space="preserve">1.79834091663361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293355464935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984100818634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295193195343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79372954368591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78758180141449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74761843681335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534049510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7245626449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454438686371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071122169495</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380352973938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75376677513123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222945213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81217432022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602586269379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985950469971</t>
+    <t xml:space="preserve">1.75376641750336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222957134247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81217420101166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985938549042</t>
   </si>
   <si>
     <t xml:space="preserve">1.79987800121307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78143358230591</t>
+    <t xml:space="preserve">1.78143334388733</t>
   </si>
   <si>
     <t xml:space="preserve">1.75684082508087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80756306648254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81524837017059</t>
+    <t xml:space="preserve">1.80756294727325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8152482509613</t>
   </si>
   <si>
     <t xml:space="preserve">1.85521137714386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86135947704315</t>
+    <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.89824855327606</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">1.90286016464233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89671158790588</t>
+    <t xml:space="preserve">1.8967113494873</t>
   </si>
   <si>
     <t xml:space="preserve">1.89056360721588</t>
@@ -1124,58 +1124,58 @@
     <t xml:space="preserve">1.85367429256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84291529655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832242012024</t>
+    <t xml:space="preserve">1.84291517734528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832218170166</t>
   </si>
   <si>
     <t xml:space="preserve">1.85674834251404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87211918830872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439665317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360066413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130446434021</t>
+    <t xml:space="preserve">1.87211883068085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439713001251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358204841614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360078334808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130434513092</t>
   </si>
   <si>
     <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93052637577057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050823688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971200942993</t>
+    <t xml:space="preserve">1.93052661418915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050811767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356414794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971165180206</t>
   </si>
   <si>
     <t xml:space="preserve">1.97202670574188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98124933242798</t>
+    <t xml:space="preserve">1.9812490940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.9443598985672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969363212585</t>
+    <t xml:space="preserve">2.03350806236267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969375133514</t>
   </si>
   <si>
     <t xml:space="preserve">1.99661934375763</t>
@@ -1190,55 +1190,55 @@
     <t xml:space="preserve">2.00276756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434152126312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745232582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206346035004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665657520294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736020088196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01660108566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897127151489</t>
+    <t xml:space="preserve">1.97510063648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745220661163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206357955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9228413105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665645599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736043930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01660084724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511949062347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9489711523056</t>
   </si>
   <si>
     <t xml:space="preserve">1.98739695549011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05656409263611</t>
+    <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039761543274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0780827999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10574960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06732368469238</t>
+    <t xml:space="preserve">2.07039737701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07808256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1057493686676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0673234462738</t>
   </si>
   <si>
     <t xml:space="preserve">2.02582311630249</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">2.00737881660461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00584125518799</t>
+    <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
     <t xml:space="preserve">2.04119372367859</t>
@@ -1259,10 +1259,10 @@
     <t xml:space="preserve">1.88287830352783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83830368518829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365579605103</t>
+    <t xml:space="preserve">1.83830392360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365591526031</t>
   </si>
   <si>
     <t xml:space="preserve">1.826007604599</t>
@@ -1274,28 +1274,28 @@
     <t xml:space="preserve">1.86443376541138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87672984600067</t>
+    <t xml:space="preserve">1.87673008441925</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85982251167297</t>
+    <t xml:space="preserve">1.85982275009155</t>
   </si>
   <si>
     <t xml:space="preserve">1.88441514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88902616500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447063922882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87058210372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515624523163</t>
+    <t xml:space="preserve">1.88902640342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447075843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87058186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515636444092</t>
   </si>
   <si>
     <t xml:space="preserve">1.90132260322571</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">1.89363753795624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88134133815765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519323825836</t>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519335746765</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598910808563</t>
@@ -1316,37 +1316,37 @@
     <t xml:space="preserve">1.95819342136383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95204484462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94282293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591559886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87980437278748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361916065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743394851685</t>
+    <t xml:space="preserve">1.95204508304596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591536045074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898988723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8582855463028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87980425357819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361892223358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743406772614</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94589722156525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96587872505188</t>
+    <t xml:space="preserve">1.94589686393738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587860584259</t>
   </si>
   <si>
     <t xml:space="preserve">1.91208207607269</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">1.88595235347748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84752631187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137773513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526662826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450763225555</t>
+    <t xml:space="preserve">1.8475261926651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137809276581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526674747467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450739383698</t>
   </si>
   <si>
     <t xml:space="preserve">1.7829704284668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71226632595062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66769230365753</t>
+    <t xml:space="preserve">1.71226644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66769206523895</t>
   </si>
   <si>
     <t xml:space="preserve">1.62004387378693</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">1.64924740791321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66000688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771056175232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62772881984711</t>
+    <t xml:space="preserve">1.66000699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771068096161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62772917747498</t>
   </si>
   <si>
     <t xml:space="preserve">1.5954509973526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69535899162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73224806785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7262487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846124649048</t>
+    <t xml:space="preserve">1.69535911083221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73224794864655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72624862194061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846136569977</t>
   </si>
   <si>
     <t xml:space="preserve">1.72942185401917</t>
@@ -1415,106 +1415,103 @@
     <t xml:space="preserve">1.70244896411896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71038234233856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69927608966827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7500479221344</t>
+    <t xml:space="preserve">1.71038222312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69927585124969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70720899105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75004816055298</t>
   </si>
   <si>
     <t xml:space="preserve">1.73735499382019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528813362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7817804813385</t>
+    <t xml:space="preserve">1.74528825283051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78178060054779</t>
   </si>
   <si>
     <t xml:space="preserve">1.79288673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79764676094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81192624568939</t>
+    <t xml:space="preserve">1.79764652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8119261264801</t>
   </si>
   <si>
     <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76432752609253</t>
+    <t xml:space="preserve">1.76432764530182</t>
   </si>
   <si>
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130029678345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985926628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779240608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82461941242218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668603420258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384746074677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860724925995</t>
+    <t xml:space="preserve">1.79130017757416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019368648529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779252529144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82461929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79923331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384734153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860713005066</t>
   </si>
   <si>
     <t xml:space="preserve">1.88649773597717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856471538544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760386943817</t>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760398864746</t>
   </si>
   <si>
     <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9182300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207224845886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86269843578339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8753913640976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87380456924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875289440155</t>
+    <t xml:space="preserve">1.91823029518127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207212924957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86269855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87539148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380468845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745846271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875313282013</t>
   </si>
   <si>
     <t xml:space="preserve">1.8071665763855</t>
@@ -1523,7 +1520,7 @@
     <t xml:space="preserve">1.76115429401398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74687469005585</t>
+    <t xml:space="preserve">1.74687457084656</t>
   </si>
   <si>
     <t xml:space="preserve">1.74211490154266</t>
@@ -1547,28 +1544,28 @@
     <t xml:space="preserve">1.64057075977325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60249185562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61677157878876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62787783145905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6437441110611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6421571969986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64533066749573</t>
+    <t xml:space="preserve">1.60249173641205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61677145957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62787771224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64374399185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64215731620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64533054828644</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196889877319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76908767223358</t>
+    <t xml:space="preserve">1.76908755302429</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
@@ -1577,28 +1574,28 @@
     <t xml:space="preserve">1.68975627422333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66119706630707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65009045600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66595685482025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706346511841</t>
+    <t xml:space="preserve">1.66119682788849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65009033679962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66595673561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706334590912</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547643184662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071664333344</t>
+    <t xml:space="preserve">1.67071652412415</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58821225166321</t>
+    <t xml:space="preserve">1.58821213245392</t>
   </si>
   <si>
     <t xml:space="preserve">1.56282615661621</t>
@@ -1607,13 +1604,13 @@
     <t xml:space="preserve">1.54220008850098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506016731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140675067902</t>
+    <t xml:space="preserve">1.53506004810333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51046764850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140651226044</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
@@ -1625,49 +1622,49 @@
     <t xml:space="preserve">1.54061341285706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53268039226532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443409919739</t>
+    <t xml:space="preserve">1.53268015384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5144339799881</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854655265808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52395379543304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55647957324982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55409967899323</t>
+    <t xml:space="preserve">1.52395391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55647969245911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55409955978394</t>
   </si>
   <si>
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57393252849579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56520593166351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63105094432831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62311804294586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64691710472107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62629103660583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59614539146423</t>
+    <t xml:space="preserve">1.5739324092865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56520617008209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62311780452728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64691722393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167725086212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62629115581512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59614515304565</t>
   </si>
   <si>
     <t xml:space="preserve">1.60883831977844</t>
@@ -1685,10 +1682,10 @@
     <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53902661800385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679260730743</t>
+    <t xml:space="preserve">1.53902673721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
     <t xml:space="preserve">1.54299330711365</t>
@@ -1697,25 +1694,25 @@
     <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51998734474182</t>
+    <t xml:space="preserve">1.51998710632324</t>
   </si>
   <si>
     <t xml:space="preserve">1.50729417800903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5993185043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60090517997742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59138548374176</t>
+    <t xml:space="preserve">1.59931862354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60090494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
     <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485060214996</t>
+    <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
     <t xml:space="preserve">1.69768929481506</t>
@@ -1724,10 +1721,13 @@
     <t xml:space="preserve">1.6627836227417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66912996768951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307515144348</t>
+    <t xml:space="preserve">1.6691300868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307538986206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148859500885</t>
   </si>
   <si>
     <t xml:space="preserve">1.70403587818146</t>
@@ -1736,115 +1736,115 @@
     <t xml:space="preserve">1.70879566669464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70562243461609</t>
+    <t xml:space="preserve">1.70562255382538</t>
   </si>
   <si>
     <t xml:space="preserve">1.71355557441711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6881697177887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68658268451691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326380729675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67388987541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340969085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643715858459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182301521301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672868728638</t>
+    <t xml:space="preserve">1.68816936016083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6865828037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326392650604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6738897562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340957164764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802359580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182289600372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672892570496</t>
   </si>
   <si>
     <t xml:space="preserve">1.80557978153229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81827294826508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303273677826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78812682628632</t>
+    <t xml:space="preserve">1.81827306747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303249835968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78812694549561</t>
   </si>
   <si>
     <t xml:space="preserve">1.81509971618652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78654038906097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033980846405</t>
+    <t xml:space="preserve">1.78654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033957004547</t>
   </si>
   <si>
     <t xml:space="preserve">1.80399310588837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83889901638031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80081975460052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69134271144867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68023633956909</t>
+    <t xml:space="preserve">1.83889889717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8008199930191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69134283065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68023657798767</t>
   </si>
   <si>
     <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63422429561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62946426868439</t>
+    <t xml:space="preserve">1.63422417640686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62946438789368</t>
   </si>
   <si>
     <t xml:space="preserve">1.66754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73894131183624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76274085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226042747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.757981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83096587657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90395057201385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90077722072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88967084884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8884345293045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89172446727753</t>
+    <t xml:space="preserve">1.73894143104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7627409696579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226078510284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798118114471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83096599578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9007773399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88967108726501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88843441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89172422885895</t>
   </si>
   <si>
     <t xml:space="preserve">1.89665949344635</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">1.86869490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88020968437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349950313568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95587873458862</t>
+    <t xml:space="preserve">1.88020980358124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349962234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93120396137238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95587861537933</t>
   </si>
   <si>
     <t xml:space="preserve">1.96903848648071</t>
@@ -1871,46 +1871,46 @@
     <t xml:space="preserve">1.949298620224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93613886833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9789080619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9854884147644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851774215698</t>
+    <t xml:space="preserve">1.9361389875412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97890818119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548817634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851798057556</t>
   </si>
   <si>
     <t xml:space="preserve">2.01180791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01509785652161</t>
+    <t xml:space="preserve">2.01674246788025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01509809494019</t>
   </si>
   <si>
     <t xml:space="preserve">2.02332282066345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9821982383728</t>
+    <t xml:space="preserve">1.98219859600067</t>
   </si>
   <si>
     <t xml:space="preserve">1.98384308815002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397351264954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600868225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159451961517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271874427795</t>
+    <t xml:space="preserve">1.97397327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9460084438324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159428119659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271886348724</t>
   </si>
   <si>
     <t xml:space="preserve">1.97726321220398</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">1.99371314048767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99864816665649</t>
+    <t xml:space="preserve">1.9986480474472</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">1.98055338859558</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99042344093323</t>
+    <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964232444763</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.03483748435974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06609225273132</t>
+    <t xml:space="preserve">2.06609201431274</t>
   </si>
   <si>
     <t xml:space="preserve">2.06444716453552</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">2.04306244850159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97068357467651</t>
+    <t xml:space="preserve">1.97068321704865</t>
   </si>
   <si>
     <t xml:space="preserve">2.0266125202179</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">2.02167773246765</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04635238647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07925200462341</t>
+    <t xml:space="preserve">2.04635214805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07925224304199</t>
   </si>
   <si>
     <t xml:space="preserve">2.1401162147522</t>
@@ -1991,22 +1991,22 @@
     <t xml:space="preserve">2.15821099281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17959547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20098042488098</t>
+    <t xml:space="preserve">2.17959570884705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2009801864624</t>
   </si>
   <si>
     <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16972541809082</t>
+    <t xml:space="preserve">2.1697256565094</t>
   </si>
   <si>
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111037254333</t>
+    <t xml:space="preserve">2.19111061096191</t>
   </si>
   <si>
     <t xml:space="preserve">2.22072005271912</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210476875305</t>
+    <t xml:space="preserve">2.24210500717163</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">2.24045968055725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21249532699585</t>
+    <t xml:space="preserve">2.21249508857727</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">2.25690937042236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28487420082092</t>
+    <t xml:space="preserve">2.28487396240234</t>
   </si>
   <si>
     <t xml:space="preserve">2.27171421051025</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">2.26513433456421</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27006936073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27993941307068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2766489982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24539470672607</t>
+    <t xml:space="preserve">2.27006959915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2799391746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27664923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2453944683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.24374961853027</t>
@@ -2087,25 +2087,25 @@
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348948478699</t>
+    <t xml:space="preserve">2.26348972320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30625867843628</t>
+    <t xml:space="preserve">2.30625891685486</t>
   </si>
   <si>
     <t xml:space="preserve">2.31448364257812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30296897888184</t>
+    <t xml:space="preserve">2.30296874046326</t>
   </si>
   <si>
     <t xml:space="preserve">2.27335929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26677918434143</t>
+    <t xml:space="preserve">2.26677942276001</t>
   </si>
   <si>
     <t xml:space="preserve">2.30790376663208</t>
@@ -2114,10 +2114,10 @@
     <t xml:space="preserve">2.31941866874695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33093357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25855469703674</t>
+    <t xml:space="preserve">2.33093333244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25855445861816</t>
   </si>
   <si>
     <t xml:space="preserve">2.29803395271301</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">2.31612873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28651881217957</t>
+    <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
     <t xml:space="preserve">2.23716974258423</t>
@@ -2138,7 +2138,7 @@
     <t xml:space="preserve">2.2503297328949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28158402442932</t>
+    <t xml:space="preserve">2.2815842628479</t>
   </si>
   <si>
     <t xml:space="preserve">2.35889792442322</t>
@@ -2147,13 +2147,13 @@
     <t xml:space="preserve">2.32435345649719</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31777381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.357253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38686275482178</t>
+    <t xml:space="preserve">2.31777358055115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3868625164032</t>
   </si>
   <si>
     <t xml:space="preserve">2.35560822486877</t>
@@ -2168,25 +2168,25 @@
     <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.451016664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50859093666077</t>
+    <t xml:space="preserve">2.45101690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50859117507935</t>
   </si>
   <si>
     <t xml:space="preserve">2.48556137084961</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4724018573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46746683120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47733664512634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45924186706543</t>
+    <t xml:space="preserve">2.47240161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4674665927887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47733688354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45924162864685</t>
   </si>
   <si>
     <t xml:space="preserve">2.4658215045929</t>
@@ -2201,28 +2201,28 @@
     <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47569131851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46088671684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51023602485657</t>
+    <t xml:space="preserve">2.47569155693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46088695526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51023626327515</t>
   </si>
   <si>
     <t xml:space="preserve">2.55465030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52668595314026</t>
+    <t xml:space="preserve">2.52668571472168</t>
   </si>
   <si>
     <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36218810081482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36383295059204</t>
+    <t xml:space="preserve">2.3621883392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36383318901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
@@ -2231,37 +2231,37 @@
     <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184415817261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33257842063904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21413993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05128717422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84731006622314</t>
+    <t xml:space="preserve">2.26184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33257818222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34902858734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21414017677307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05128741264343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84731018543243</t>
   </si>
   <si>
     <t xml:space="preserve">1.8242803812027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956889152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59645080566406</t>
+    <t xml:space="preserve">1.54956912994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59645104408264</t>
   </si>
   <si>
     <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5084445476532</t>
+    <t xml:space="preserve">1.50844466686249</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">1.47636747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46896517276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57013130187988</t>
+    <t xml:space="preserve">1.46896529197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57013118267059</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6696525812149</t>
+    <t xml:space="preserve">1.66965234279633</t>
   </si>
   <si>
     <t xml:space="preserve">1.68610227108002</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">1.76835119724274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85060000419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73216164112091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72887170314789</t>
+    <t xml:space="preserve">1.85059988498688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73216152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7288715839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2306,19 +2306,19 @@
     <t xml:space="preserve">1.745321393013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7436763048172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545157909393</t>
+    <t xml:space="preserve">1.74367642402649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
     <t xml:space="preserve">1.7305166721344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72229182720184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670610904694</t>
+    <t xml:space="preserve">1.72229170799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670622825623</t>
   </si>
   <si>
     <t xml:space="preserve">1.78973591327667</t>
@@ -2327,22 +2327,22 @@
     <t xml:space="preserve">1.81441056728363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80125081539154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80618584156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276535987854</t>
+    <t xml:space="preserve">1.80125069618225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80618560314178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276547908783</t>
   </si>
   <si>
     <t xml:space="preserve">1.83908522129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84895503520966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87198483943939</t>
+    <t xml:space="preserve">1.84895479679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87198460102081</t>
   </si>
   <si>
     <t xml:space="preserve">1.86211478710175</t>
@@ -2354,28 +2354,28 @@
     <t xml:space="preserve">1.79302585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76012647151947</t>
+    <t xml:space="preserve">1.76012635231018</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848138332367</t>
+    <t xml:space="preserve">1.74038660526276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848126411438</t>
   </si>
   <si>
     <t xml:space="preserve">1.77657604217529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78480112552643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415043354034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86046981811523</t>
+    <t xml:space="preserve">1.78480088710785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415019512177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86046993732452</t>
   </si>
   <si>
     <t xml:space="preserve">1.81934535503387</t>
@@ -2387,7 +2387,7 @@
     <t xml:space="preserve">1.87527465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9196891784668</t>
+    <t xml:space="preserve">1.91968905925751</t>
   </si>
   <si>
     <t xml:space="preserve">1.97232842445374</t>
@@ -2396,79 +2396,79 @@
     <t xml:space="preserve">1.96410346031189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92133402824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817415714264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83086037635803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85224509239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90488433837891</t>
+    <t xml:space="preserve">1.92133390903473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817427635193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83086025714874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85224521160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488409996033</t>
   </si>
   <si>
     <t xml:space="preserve">1.91146409511566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98555862903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527968883514</t>
+    <t xml:space="preserve">1.98555874824524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527956962585</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8964741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91189241409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91703176498413</t>
+    <t xml:space="preserve">1.89647400379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9118926525116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91703200340271</t>
   </si>
   <si>
     <t xml:space="preserve">1.88962137699127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90503990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92731094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93758988380432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101631641388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93245053291321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88448202610016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906325817108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85193169116974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84850537776947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88105571269989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90161371231079</t>
+    <t xml:space="preserve">1.90503978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92731106281281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93759000301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9324506521225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88448178768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276875019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906313896179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85193157196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84850549697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8810555934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">1.92388463020325</t>
@@ -2477,55 +2477,55 @@
     <t xml:space="preserve">1.9067530632019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86392390727997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83822619915009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84679210186005</t>
+    <t xml:space="preserve">1.86392402648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83822631835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84679222106934</t>
   </si>
   <si>
     <t xml:space="preserve">1.8502185344696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81766831874847</t>
+    <t xml:space="preserve">1.81766843795776</t>
   </si>
   <si>
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83993947505951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563694477081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85878455638885</t>
+    <t xml:space="preserve">1.8399395942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563718318939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85878443717957</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93073737621307</t>
+    <t xml:space="preserve">1.93073725700378</t>
   </si>
   <si>
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157419681549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92902421951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89990031719208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92217135429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89133453369141</t>
+    <t xml:space="preserve">1.96157431602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92902433872223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89990043640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92217147350311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89133441448212</t>
   </si>
   <si>
     <t xml:space="preserve">1.87762916088104</t>
@@ -2534,37 +2534,37 @@
     <t xml:space="preserve">1.86735022068024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89818716049194</t>
+    <t xml:space="preserve">1.89818727970123</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790798187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91017949581146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619518280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8450790643692</t>
+    <t xml:space="preserve">1.88790822029114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91017937660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619482517242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507918357849</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81595504283905</t>
+    <t xml:space="preserve">1.81595516204834</t>
   </si>
   <si>
     <t xml:space="preserve">1.8091025352478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7834050655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169178962708</t>
+    <t xml:space="preserve">1.78340518474579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169190883636</t>
   </si>
   <si>
     <t xml:space="preserve">1.7731260061264</t>
@@ -2576,13 +2576,13 @@
     <t xml:space="preserve">1.7577075958252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73029696941376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73201012611389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547571659088</t>
+    <t xml:space="preserve">1.73029685020447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73201024532318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
     <t xml:space="preserve">1.65491771697998</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">1.67890202999115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69774675369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858381271362</t>
+    <t xml:space="preserve">1.69774687290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474285364151</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">1.70973896980286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79197096824646</t>
+    <t xml:space="preserve">1.79197084903717</t>
   </si>
   <si>
     <t xml:space="preserve">1.7782655954361</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">1.79025769233704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85535800457001</t>
+    <t xml:space="preserve">1.85535788536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671378612518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92559778690338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89476072788239</t>
+    <t xml:space="preserve">1.96671390533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92559766769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89476084709167</t>
   </si>
   <si>
     <t xml:space="preserve">1.82280790805817</t>
@@ -2660,10 +2660,10 @@
     <t xml:space="preserve">1.79711043834686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79882347583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224990844727</t>
+    <t xml:space="preserve">1.798823595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80225002765656</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141296863556</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">1.83137381076813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8348001241684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82623422145844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85364496707916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86221063137054</t>
+    <t xml:space="preserve">1.83479988574982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82623434066772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85364484786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86221075057983</t>
   </si>
   <si>
     <t xml:space="preserve">1.81252884864807</t>
@@ -2690,19 +2690,19 @@
     <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73886287212372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74400234222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75256812572479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75428152084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7422890663147</t>
+    <t xml:space="preserve">1.73886275291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74400222301483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7525680065155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75428140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74228918552399</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">1.76969969272614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80738937854767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83308708667755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86049747467041</t>
+    <t xml:space="preserve">1.80738925933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83308696746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8604975938797</t>
   </si>
   <si>
     <t xml:space="preserve">1.87077653408051</t>
@@ -2738,37 +2738,37 @@
     <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96328735351562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01639556884766</t>
+    <t xml:space="preserve">1.96328747272491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01639580726624</t>
   </si>
   <si>
     <t xml:space="preserve">2.03010082244873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01982188224792</t>
+    <t xml:space="preserve">2.0198221206665</t>
   </si>
   <si>
     <t xml:space="preserve">2.0181086063385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01468229293823</t>
+    <t xml:space="preserve">2.01468253135681</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00269031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.033527135849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98898482322693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00440335273743</t>
+    <t xml:space="preserve">2.00269055366516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03352737426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98898494243622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00440311431885</t>
   </si>
   <si>
     <t xml:space="preserve">2.04723286628723</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">2.08320903778076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07293033599854</t>
+    <t xml:space="preserve">2.07292985916138</t>
   </si>
   <si>
     <t xml:space="preserve">2.08149600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06607723236084</t>
+    <t xml:space="preserve">2.06607747077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">2.14316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12261176109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13460397720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17400693893433</t>
+    <t xml:space="preserve">2.12261152267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13460421562195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17400670051575</t>
   </si>
   <si>
     <t xml:space="preserve">2.18257260322571</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">2.13974332809448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1465961933136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14145660400391</t>
+    <t xml:space="preserve">2.14659595489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14145636558533</t>
   </si>
   <si>
     <t xml:space="preserve">2.16201448440552</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">2.20827007293701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18942523002625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22711491584778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19627785682678</t>
+    <t xml:space="preserve">2.18942546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2271146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1962776184082</t>
   </si>
   <si>
     <t xml:space="preserve">2.24082016944885</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">2.23739385604858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24595975875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25452542304993</t>
+    <t xml:space="preserve">2.24595952033997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25452566146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">2.25281262397766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25224566459656</t>
+    <t xml:space="preserve">2.25224590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.202472448349</t>
+    <t xml:space="preserve">2.20247220993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14736604690552</t>
+    <t xml:space="preserve">2.1473662853241</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847780227661</t>
+    <t xml:space="preserve">2.13847804069519</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002890586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647408485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536185264587</t>
+    <t xml:space="preserve">2.21136045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647384643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202634811401</t>
+    <t xml:space="preserve">2.22202610969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2558012008667</t>
+    <t xml:space="preserve">2.25580096244812</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379676818848</t>
+    <t xml:space="preserve">2.30379700660706</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335066795349</t>
+    <t xml:space="preserve">2.32335090637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38734531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623308181763</t>
+    <t xml:space="preserve">2.3873450756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623332023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956858634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3642361164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445543289185</t>
+    <t xml:space="preserve">2.36956882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36423587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201212882996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445567131042</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2789101600647</t>
+    <t xml:space="preserve">2.27890992164612</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691295623779</t>
+    <t xml:space="preserve">2.24691319465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600653648376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534088134766</t>
+    <t xml:space="preserve">2.43889594078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534064292908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4975574016571</t>
+    <t xml:space="preserve">2.56332945823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49755764007568</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54199814796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555320739746</t>
+    <t xml:space="preserve">2.5419979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555344581604</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222469329834</t>
+    <t xml:space="preserve">2.49222445487976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3170,40 +3170,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801772117615</t>
+    <t xml:space="preserve">2.31801795959473</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046126365662</t>
+    <t xml:space="preserve">2.33046102523804</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290432929993</t>
+    <t xml:space="preserve">2.34290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3109073638916</t>
+    <t xml:space="preserve">2.33579397201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31090712547302</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646661758423</t>
+    <t xml:space="preserve">2.26646685600281</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20069479942322</t>
+    <t xml:space="preserve">2.2006950378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357745170593</t>
+    <t xml:space="preserve">2.27357721328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492298126221</t>
+    <t xml:space="preserve">2.13492274284363</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02471041679382</t>
+    <t xml:space="preserve">2.09937024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247106552124</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893113136292</t>
+    <t xml:space="preserve">2.03893136978149</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0407087802887</t>
+    <t xml:space="preserve">2.04070901870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026268005371</t>
+    <t xml:space="preserve">2.06026291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491575241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802495002747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047524452209</t>
+    <t xml:space="preserve">2.21491599082947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047500610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759283065796</t>
+    <t xml:space="preserve">2.09759259223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.156254529953</t>
+    <t xml:space="preserve">2.15625429153442</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381074905396</t>
+    <t xml:space="preserve">2.14381098747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272008419037</t>
+    <t xml:space="preserve">1.91272020339966</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85405874252319</t>
+    <t xml:space="preserve">1.8540586233139</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495106220245</t>
+    <t xml:space="preserve">1.81495118141174</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738713741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494395256042</t>
+    <t xml:space="preserve">1.90738725662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494407176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88605582714081</t>
+    <t xml:space="preserve">1.8860559463501</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7554007768631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251125335693</t>
+    <t xml:space="preserve">1.75540089607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251137256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317690849304</t>
+    <t xml:space="preserve">1.77317702770233</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -4560,6 +4560,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.94700002670288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91799998283386</t>
   </si>
 </sst>
 </file>
@@ -21767,7 +21770,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21793,7 +21796,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21819,7 +21822,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21845,7 +21848,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21871,7 +21874,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21897,7 +21900,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21923,7 +21926,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21949,7 +21952,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -21975,7 +21978,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22001,7 +22004,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22027,7 +22030,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22053,7 +22056,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22079,7 +22082,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22105,7 +22108,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22131,7 +22134,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22157,7 +22160,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22183,7 +22186,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22209,7 +22212,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22235,7 +22238,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22261,7 +22264,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22287,7 +22290,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22313,7 +22316,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22339,7 +22342,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22365,7 +22368,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22391,7 +22394,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22443,7 +22446,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22469,7 +22472,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22521,7 +22524,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22547,7 +22550,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22573,7 +22576,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22599,7 +22602,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22625,7 +22628,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22651,7 +22654,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22677,7 +22680,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22703,7 +22706,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22729,7 +22732,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22755,7 +22758,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22807,7 +22810,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22859,7 +22862,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22963,7 +22966,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -22989,7 +22992,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23015,7 +23018,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23041,7 +23044,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23067,7 +23070,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23093,7 +23096,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23119,7 +23122,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23145,7 +23148,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23171,7 +23174,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23197,7 +23200,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23223,7 +23226,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23249,7 +23252,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23275,7 +23278,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23301,7 +23304,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23327,7 +23330,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23353,7 +23356,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23379,7 +23382,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23405,7 +23408,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23431,7 +23434,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23457,7 +23460,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23483,7 +23486,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23509,7 +23512,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23535,7 +23538,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23561,7 +23564,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23587,7 +23590,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23613,7 +23616,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23639,7 +23642,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23665,7 +23668,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23691,7 +23694,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23717,7 +23720,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23743,7 +23746,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23769,7 +23772,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23795,7 +23798,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23821,7 +23824,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23847,7 +23850,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23873,7 +23876,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23899,7 +23902,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23925,7 +23928,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23951,7 +23954,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -23977,7 +23980,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24003,7 +24006,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24029,7 +24032,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24055,7 +24058,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24081,7 +24084,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24107,7 +24110,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24133,7 +24136,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24159,7 +24162,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24185,7 +24188,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24211,7 +24214,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24237,7 +24240,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24263,7 +24266,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24289,7 +24292,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24315,7 +24318,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24341,7 +24344,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24367,7 +24370,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24393,7 +24396,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24419,7 +24422,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24445,7 +24448,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24471,7 +24474,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24497,7 +24500,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24523,7 +24526,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24549,7 +24552,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24575,7 +24578,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24601,7 +24604,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24627,7 +24630,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24653,7 +24656,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24679,7 +24682,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24705,7 +24708,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24731,7 +24734,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24757,7 +24760,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24809,7 +24812,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24835,7 +24838,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24861,7 +24864,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24913,7 +24916,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -24991,7 +24994,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25147,7 +25150,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25329,7 +25332,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25355,7 +25358,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25433,7 +25436,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25563,7 +25566,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25641,7 +25644,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25745,7 +25748,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25797,7 +25800,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25823,7 +25826,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25849,7 +25852,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25875,7 +25878,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25901,7 +25904,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -25979,7 +25982,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26031,7 +26034,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26057,7 +26060,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26161,7 +26164,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26213,7 +26216,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26291,7 +26294,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26421,7 +26424,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26525,7 +26528,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26785,7 +26788,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26811,7 +26814,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26837,7 +26840,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26863,7 +26866,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26915,7 +26918,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27071,7 +27074,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27201,7 +27204,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27279,7 +27282,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27331,7 +27334,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27409,7 +27412,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27513,7 +27516,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27565,7 +27568,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27617,7 +27620,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27643,7 +27646,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27721,7 +27724,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27747,7 +27750,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27851,7 +27854,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -60671,7 +60674,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.649537037</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>2723984</v>
@@ -60692,6 +60695,32 @@
         <v>1419</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6495023148</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>2302112</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>1.9539999961853</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>1.90299999713898</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>1.95200002193451</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>1.91799998283386</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269337654114</t>
+    <t xml:space="preserve">1.04269325733185</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">1.0354973077774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.029740691185</t>
+    <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743305683136</t>
@@ -59,43 +59,43 @@
     <t xml:space="preserve">1.00311553478241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0261424779892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959193706512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983686506748199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976966381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304733753204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885712623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934034287929535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341803073883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957781076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453487873077</t>
+    <t xml:space="preserve">1.02614259719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959181785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983686327934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976787567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791142940521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951304614543915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885831832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934034526348114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957780838012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453249454498</t>
   </si>
   <si>
     <t xml:space="preserve">0.990162909030914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977929651737213</t>
+    <t xml:space="preserve">0.977929592132568</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">0.992321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95562207698822</t>
+    <t xml:space="preserve">0.955622255802155</t>
   </si>
   <si>
     <t xml:space="preserve">0.941949844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914605319499969</t>
+    <t xml:space="preserve">0.91460520029068</t>
   </si>
   <si>
     <t xml:space="preserve">0.935473442077637</t>
@@ -122,13 +122,13 @@
     <t xml:space="preserve">0.947706699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970733821392059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368686676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99879789352417</t>
+    <t xml:space="preserve">0.970733642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368805885315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998797953128815</t>
   </si>
   <si>
     <t xml:space="preserve">1.03117966651917</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">1.03621685504913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02110540866852</t>
+    <t xml:space="preserve">1.02110528945923</t>
   </si>
   <si>
     <t xml:space="preserve">1.05636548995972</t>
@@ -146,64 +146,64 @@
     <t xml:space="preserve">1.02686214447021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02326440811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05132818222046</t>
+    <t xml:space="preserve">1.02326428890228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
     <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03981494903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341280460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247012615204</t>
+    <t xml:space="preserve">1.03981471061707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341292381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247024536133</t>
   </si>
   <si>
     <t xml:space="preserve">1.02542293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06572043895721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723379135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11609172821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13120341300964</t>
+    <t xml:space="preserve">1.06572008132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723355293274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11609196662903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13120353221893</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1355208158493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14343667030334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12616622447968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11897015571594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12256813049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12544679641724</t>
+    <t xml:space="preserve">1.13552093505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14343655109406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12616634368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11897027492523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12256801128387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12544667720795</t>
   </si>
   <si>
     <t xml:space="preserve">1.14127779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13336229324341</t>
+    <t xml:space="preserve">1.13336217403412</t>
   </si>
   <si>
     <t xml:space="preserve">1.1419974565506</t>
@@ -212,25 +212,25 @@
     <t xml:space="preserve">1.11681163311005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1297641992569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13048386573792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696038722992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14415609836578</t>
+    <t xml:space="preserve">1.12976431846619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13048374652863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696014881134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14415597915649</t>
   </si>
   <si>
     <t xml:space="preserve">1.13767981529236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14703452587128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279126167297</t>
+    <t xml:space="preserve">1.14703464508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279138088226</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">1.13624060153961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12328791618347</t>
+    <t xml:space="preserve">1.12328779697418</t>
   </si>
   <si>
     <t xml:space="preserve">1.10457849502563</t>
@@ -257,16 +257,16 @@
     <t xml:space="preserve">1.16214609146118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15494990348816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15063238143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13480126857758</t>
+    <t xml:space="preserve">1.15495002269745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991295337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1506325006485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13480138778687</t>
   </si>
   <si>
     <t xml:space="preserve">1.10817635059357</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">1.15423035621643</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12760531902313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11249387264252</t>
+    <t xml:space="preserve">1.12760555744171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11249399185181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11177432537079</t>
@@ -287,31 +287,31 @@
     <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17222034931183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20100438594818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18733167648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085563182831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884526729584</t>
+    <t xml:space="preserve">1.17222023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2010041475296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18733191490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085551261902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884538650513</t>
   </si>
   <si>
     <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17006146907806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18805134296417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18589270114899</t>
+    <t xml:space="preserve">1.17006158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18805146217346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1858925819397</t>
   </si>
   <si>
     <t xml:space="preserve">1.19308853149414</t>
@@ -320,49 +320,49 @@
     <t xml:space="preserve">1.16862237453461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09162569046021</t>
+    <t xml:space="preserve">1.09162557125092</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07795345783234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09306502342224</t>
+    <t xml:space="preserve">1.07795333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514572143555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09381151199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07290601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01392209529877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577302932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048291683197</t>
+    <t xml:space="preserve">1.0938116312027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07290589809418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01392233371735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577243328094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944244861603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048279762268</t>
   </si>
   <si>
     <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04453408718109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04901361465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01541543006897</t>
+    <t xml:space="preserve">1.0445339679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04901373386383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01541531085968</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
@@ -371,40 +371,40 @@
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333449363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04080092906952</t>
+    <t xml:space="preserve">1.03333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04080080986023</t>
   </si>
   <si>
     <t xml:space="preserve">1.03408122062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01914858818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885484695435</t>
+    <t xml:space="preserve">1.01914846897125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885472774506</t>
   </si>
   <si>
     <t xml:space="preserve">1.03557431697845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05573344230652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04677391052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767964363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469297409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07738554477692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07813239097595</t>
+    <t xml:space="preserve">1.05573356151581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04677379131317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0676794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469309329987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07738566398621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07813215255737</t>
   </si>
   <si>
     <t xml:space="preserve">1.09754478931427</t>
@@ -431,25 +431,25 @@
     <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10874402523041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06319963932037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06170666217804</t>
+    <t xml:space="preserve">1.1087441444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007823467255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06319975852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06170642375946</t>
   </si>
   <si>
     <t xml:space="preserve">1.05946660041809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05125367641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06618630886078</t>
+    <t xml:space="preserve">1.0512535572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618618965149</t>
   </si>
   <si>
     <t xml:space="preserve">1.07887899875641</t>
@@ -458,28 +458,28 @@
     <t xml:space="preserve">1.10127794742584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10575771331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114285469055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13935601711273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799753665924</t>
+    <t xml:space="preserve">1.10575747489929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114321231842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13935577869415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799741744995</t>
   </si>
   <si>
     <t xml:space="preserve">1.10426425933838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11322402954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037221431732</t>
+    <t xml:space="preserve">1.11322379112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455823898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037233352661</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202443599701</t>
@@ -494,22 +494,22 @@
     <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14383554458618</t>
+    <t xml:space="preserve">1.14383566379547</t>
   </si>
   <si>
     <t xml:space="preserve">1.12666308879852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11994361877441</t>
+    <t xml:space="preserve">1.11994349956512</t>
   </si>
   <si>
     <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933174610138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1005312204361</t>
+    <t xml:space="preserve">1.08933162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10053110122681</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980864524841</t>
@@ -530,28 +530,28 @@
     <t xml:space="preserve">1.22223162651062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22521841526031</t>
+    <t xml:space="preserve">1.22521829605103</t>
   </si>
   <si>
     <t xml:space="preserve">1.19535303115845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21476542949677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22148525714874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20356583595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18938004970551</t>
+    <t xml:space="preserve">1.21476531028748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22148513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20356595516205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18937993049622</t>
   </si>
   <si>
     <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1699675321579</t>
+    <t xml:space="preserve">1.16996777057648</t>
   </si>
   <si>
     <t xml:space="preserve">1.18490040302277</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">1.19311308860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519414424896</t>
+    <t xml:space="preserve">1.17519426345825</t>
   </si>
   <si>
     <t xml:space="preserve">1.06991934776306</t>
@@ -575,43 +575,43 @@
     <t xml:space="preserve">1.04528057575226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0527468919754</t>
+    <t xml:space="preserve">1.05274677276611</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064192295074</t>
+    <t xml:space="preserve">1.02064204216003</t>
   </si>
   <si>
     <t xml:space="preserve">1.02512156963348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05200040340424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02586829662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08186554908752</t>
+    <t xml:space="preserve">1.05200028419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02586817741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
     <t xml:space="preserve">1.08111870288849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09530484676361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098384857178</t>
+    <t xml:space="preserve">1.09530472755432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098396778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.11471724510193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13188946247101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13412964344025</t>
+    <t xml:space="preserve">1.13188970088959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487613201141</t>
@@ -620,100 +620,100 @@
     <t xml:space="preserve">1.14906203746796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15279507637024</t>
+    <t xml:space="preserve">1.15279531478882</t>
   </si>
   <si>
     <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16698110103607</t>
+    <t xml:space="preserve">1.16698098182678</t>
   </si>
   <si>
     <t xml:space="preserve">1.15130198001862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13636922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15727484226227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1714608669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220747470856</t>
+    <t xml:space="preserve">1.13636934757233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15727496147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17146098613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220759391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729542016983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250133514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847443580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14458239078522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890315055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12293004989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15055537223816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16474115848541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14308905601501</t>
+    <t xml:space="preserve">1.17295408248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250157356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847455501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14458227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890303134918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12292993068695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15055525302887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1647412776947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14308881759644</t>
   </si>
   <si>
     <t xml:space="preserve">1.18042051792145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18863332271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17967402935028</t>
+    <t xml:space="preserve">1.18863344192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1796737909317</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21177887916565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1960996389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20879220962524</t>
+    <t xml:space="preserve">1.21177899837494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19609987735748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20879232883453</t>
   </si>
   <si>
     <t xml:space="preserve">1.19385969638824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20431268215179</t>
+    <t xml:space="preserve">1.2043125629425</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551191806793</t>
+    <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
     <t xml:space="preserve">1.22447144985199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22820472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22596490383148</t>
+    <t xml:space="preserve">1.22820460796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22596478462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806987285614</t>
@@ -725,73 +725,73 @@
     <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37379765510559</t>
+    <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486203670502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979454994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335275888443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547390937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200884103775</t>
+    <t xml:space="preserve">1.41486191749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979443073273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43352770805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547379016876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45294010639191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46339297294617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45741987228394</t>
+    <t xml:space="preserve">1.45293998718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46339285373688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488606929779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099414348602</t>
+    <t xml:space="preserve">1.46488618850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
     <t xml:space="preserve">1.43950068950653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44920682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024765491486</t>
+    <t xml:space="preserve">1.44920706748962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4402471780777</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664899349213</t>
+    <t xml:space="preserve">1.40664911270142</t>
   </si>
   <si>
     <t xml:space="preserve">1.44846022129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44995355606079</t>
+    <t xml:space="preserve">1.44995367527008</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472706317902</t>
+    <t xml:space="preserve">1.44472718238831</t>
   </si>
   <si>
     <t xml:space="preserve">1.48355174064636</t>
@@ -803,16 +803,16 @@
     <t xml:space="preserve">1.49325811862946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5305894613266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506934642792</t>
+    <t xml:space="preserve">1.48952496051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267027854919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53058958053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506922721863</t>
   </si>
   <si>
     <t xml:space="preserve">1.52461647987366</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">1.54104220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49251127243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669729709625</t>
+    <t xml:space="preserve">1.49251139163971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669717788696</t>
   </si>
   <si>
     <t xml:space="preserve">1.55298829078674</t>
@@ -836,31 +836,31 @@
     <t xml:space="preserve">1.58733308315277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59927928447723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62018513679504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56344127655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.578373670578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60226571559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58285331726074</t>
+    <t xml:space="preserve">1.59927916526794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62018501758575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56344139575958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57837378978729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58285343647003</t>
   </si>
   <si>
     <t xml:space="preserve">1.58882641792297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389414310455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823881626129</t>
+    <t xml:space="preserve">1.57389402389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719834804535</t>
@@ -872,16 +872,16 @@
     <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63213098049164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64557027816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362419605255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810420036316</t>
+    <t xml:space="preserve">1.63213121891022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64557015895844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362431526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
     <t xml:space="preserve">1.65846991539001</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">1.64463651180267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5893030166626</t>
+    <t xml:space="preserve">1.58930289745331</t>
   </si>
   <si>
     <t xml:space="preserve">1.61082148551941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57085835933685</t>
+    <t xml:space="preserve">1.57085847854614</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856227874756</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">1.5462658405304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58008074760437</t>
+    <t xml:space="preserve">1.58008062839508</t>
   </si>
   <si>
     <t xml:space="preserve">1.58776593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60467350482941</t>
+    <t xml:space="preserve">1.60467326641083</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">1.59852516651154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61389565467834</t>
+    <t xml:space="preserve">1.61389553546906</t>
   </si>
   <si>
     <t xml:space="preserve">1.63080310821533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61543262004852</t>
+    <t xml:space="preserve">1.61543273925781</t>
   </si>
   <si>
     <t xml:space="preserve">1.63848829269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65539574623108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156234264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696970462799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65232169628143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998850345612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67691445350647</t>
+    <t xml:space="preserve">1.65539586544037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696982383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65232181549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998862266541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
     <t xml:space="preserve">1.675377368927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68306267261505</t>
+    <t xml:space="preserve">1.68306255340576</t>
   </si>
   <si>
     <t xml:space="preserve">1.70458126068115</t>
@@ -983,88 +983,88 @@
     <t xml:space="preserve">1.72148859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150709152222</t>
+    <t xml:space="preserve">1.7015073299408</t>
   </si>
   <si>
     <t xml:space="preserve">1.69997000694275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72609972953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76452589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298856735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7614518404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74608147144318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72763657569885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532176017761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915528297424</t>
+    <t xml:space="preserve">1.72609984874725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76452600955963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298892498016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991463661194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76145195960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74608159065247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72763681411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915552139282</t>
   </si>
   <si>
     <t xml:space="preserve">1.76913714408875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77682220935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77221095561981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76759994029999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7983410358429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293343544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984112739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295193195343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79372978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7875816822052</t>
+    <t xml:space="preserve">1.77682209014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77221119403839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7675998210907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79834067821503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293355464935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984124660492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295181274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79372990131378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78758156299591</t>
   </si>
   <si>
     <t xml:space="preserve">1.74761843681335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71995174884796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72456288337708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454414844513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300730228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071110248566</t>
+    <t xml:space="preserve">1.71995162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534073352814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72456276416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071086406708</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380352973938</t>
@@ -1073,127 +1073,127 @@
     <t xml:space="preserve">1.75376653671265</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75222957134247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81217420101166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602586269379</t>
+    <t xml:space="preserve">1.75222945213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81217432022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602622032166</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985938549042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79987800121307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143346309662</t>
+    <t xml:space="preserve">1.79987776279449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143358230591</t>
   </si>
   <si>
     <t xml:space="preserve">1.75684058666229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80756318569183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81524837017059</t>
+    <t xml:space="preserve">1.80756330490112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8152482509613</t>
   </si>
   <si>
     <t xml:space="preserve">1.85521137714386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86135959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89824891090393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285980701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671146869659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215570449829</t>
+    <t xml:space="preserve">1.86135947704315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89824855327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285992622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671182632446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8905633687973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215594291687</t>
   </si>
   <si>
     <t xml:space="preserve">1.85367441177368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84291529655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832230091095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674834251404</t>
+    <t xml:space="preserve">1.84291517734528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832242012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674870014191</t>
   </si>
   <si>
     <t xml:space="preserve">1.87211894989014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90439677238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360066413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130446434021</t>
+    <t xml:space="preserve">1.90439689159393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358240604401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9336005449295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130410671234</t>
   </si>
   <si>
     <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93052649497986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050811767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356379032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971212863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202670574188</t>
+    <t xml:space="preserve">1.93052661418915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050823688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356402873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971224784851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202682495117</t>
   </si>
   <si>
     <t xml:space="preserve">1.9812490940094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94436025619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969339370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661946296692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973038673401</t>
+    <t xml:space="preserve">1.9443598985672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350853919983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969351291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661958217621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973026752472</t>
   </si>
   <si>
     <t xml:space="preserve">2.00123071670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00276756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510063648224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9643417596817</t>
+    <t xml:space="preserve">2.00276732444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510075569153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434152126312</t>
   </si>
   <si>
     <t xml:space="preserve">1.92745244503021</t>
@@ -1202,79 +1202,79 @@
     <t xml:space="preserve">1.93206357955933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665621757507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01660132408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511937141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897103309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98739719390869</t>
+    <t xml:space="preserve">1.9228413105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665633678436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736020088196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01660108566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511913299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9873970746994</t>
   </si>
   <si>
     <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05195283889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07039785385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808232307434</t>
+    <t xml:space="preserve">2.05195331573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07039761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
     <t xml:space="preserve">2.10574960708618</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06732320785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02582311630249</t>
+    <t xml:space="preserve">2.0673234462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02582335472107</t>
   </si>
   <si>
     <t xml:space="preserve">2.01198983192444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737881660461</t>
+    <t xml:space="preserve">2.00737905502319</t>
   </si>
   <si>
     <t xml:space="preserve">2.00584173202515</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287818431854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830380439758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365555763245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82600772380829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87826716899872</t>
+    <t xml:space="preserve">2.04119396209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287842273712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830404281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8736560344696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.826007604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87826704978943</t>
   </si>
   <si>
     <t xml:space="preserve">1.86443376541138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87673008441925</t>
+    <t xml:space="preserve">1.87672984600067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522999286652</t>
@@ -1283,118 +1283,118 @@
     <t xml:space="preserve">1.85982263088226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88441526889801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902640342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8244708776474</t>
+    <t xml:space="preserve">1.8844153881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902628421783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447075843811</t>
   </si>
   <si>
     <t xml:space="preserve">1.87058198451996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91515612602234</t>
+    <t xml:space="preserve">1.91515600681305</t>
   </si>
   <si>
     <t xml:space="preserve">1.901322722435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89363753795624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134121894836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519311904907</t>
+    <t xml:space="preserve">1.89363741874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519299983978</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598898887634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95819330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204520225525</t>
+    <t xml:space="preserve">1.95819342136383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204496383667</t>
   </si>
   <si>
     <t xml:space="preserve">1.94282293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92591559886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898941040039</t>
+    <t xml:space="preserve">1.92591547966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898988723755</t>
   </si>
   <si>
     <t xml:space="preserve">1.85828542709351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87980425357819</t>
+    <t xml:space="preserve">1.8798041343689</t>
   </si>
   <si>
     <t xml:space="preserve">1.91361904144287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94743394851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667495250702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94589734077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96587860584259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91208207607269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8859521150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752607345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8413782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526662826538</t>
+    <t xml:space="preserve">1.94743430614471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667483329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94589710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587824821472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9120819568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88595247268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752631187439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137809276581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526686668396</t>
   </si>
   <si>
     <t xml:space="preserve">1.78450751304626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7829704284668</t>
+    <t xml:space="preserve">1.78297019004822</t>
   </si>
   <si>
     <t xml:space="preserve">1.71226632595062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66769230365753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62004399299622</t>
+    <t xml:space="preserve">1.66769218444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62004387378693</t>
   </si>
   <si>
     <t xml:space="preserve">1.63234031200409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6492475271225</t>
+    <t xml:space="preserve">1.64924764633179</t>
   </si>
   <si>
     <t xml:space="preserve">1.66000699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64771068096161</t>
+    <t xml:space="preserve">1.64771056175232</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59545111656189</t>
+    <t xml:space="preserve">1.5954509973526</t>
   </si>
   <si>
     <t xml:space="preserve">1.69535899162292</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">1.73224794864655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72624862194061</t>
+    <t xml:space="preserve">1.7262487411499</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846124649048</t>
@@ -1415,52 +1415,52 @@
     <t xml:space="preserve">1.70244908332825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71038222312927</t>
+    <t xml:space="preserve">1.71038234233856</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70720899105072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75004804134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73735499382019</t>
+    <t xml:space="preserve">1.70720911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7500479221344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
     <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78178036212921</t>
+    <t xml:space="preserve">1.78178060054779</t>
   </si>
   <si>
     <t xml:space="preserve">1.79288673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79764688014984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81192624568939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7754340171814</t>
+    <t xml:space="preserve">1.79764652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8119261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543377876282</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971350193024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79129993915558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019392490387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985914707184</t>
+    <t xml:space="preserve">1.78971362113953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79130017757416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019368648529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985950469971</t>
   </si>
   <si>
     <t xml:space="preserve">1.82779252529144</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">1.82461929321289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81668627262115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923331737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384734153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860724925995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649773597717</t>
+    <t xml:space="preserve">1.81668615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7992330789566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384757995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860713005066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649785518646</t>
   </si>
   <si>
     <t xml:space="preserve">1.87856447696686</t>
@@ -1499,28 +1499,28 @@
     <t xml:space="preserve">1.84207224845886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8626983165741</t>
+    <t xml:space="preserve">1.86269855499268</t>
   </si>
   <si>
     <t xml:space="preserve">1.87539148330688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87380480766296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572554588318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875313282013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115453243256</t>
+    <t xml:space="preserve">1.87380468845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745822429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80716669559479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115429401398</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687457084656</t>
@@ -1529,22 +1529,22 @@
     <t xml:space="preserve">1.74211502075195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73576819896698</t>
+    <t xml:space="preserve">1.73576831817627</t>
   </si>
   <si>
     <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73259520530701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451594352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69292962551117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64057087898254</t>
+    <t xml:space="preserve">1.73259496688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451606273651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69292938709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64057075977325</t>
   </si>
   <si>
     <t xml:space="preserve">1.60249173641205</t>
@@ -1571,28 +1571,28 @@
     <t xml:space="preserve">1.76908755302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71990215778351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975615501404</t>
+    <t xml:space="preserve">1.71990191936493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975639343262</t>
   </si>
   <si>
     <t xml:space="preserve">1.66119706630707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65009045600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66595685482025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706310749054</t>
+    <t xml:space="preserve">1.6500905752182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66595673561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706334590912</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071664333344</t>
+    <t xml:space="preserve">1.67071652412415</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
@@ -1604,19 +1604,19 @@
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54219996929169</t>
+    <t xml:space="preserve">1.54220008850098</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046741008759</t>
+    <t xml:space="preserve">1.51046764850616</t>
   </si>
   <si>
     <t xml:space="preserve">1.54140663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5310937166214</t>
+    <t xml:space="preserve">1.53109359741211</t>
   </si>
   <si>
     <t xml:space="preserve">1.52554047107697</t>
@@ -1625,37 +1625,37 @@
     <t xml:space="preserve">1.54061341285706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53268015384674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443409919739</t>
+    <t xml:space="preserve">1.53268027305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5144339799881</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854655265808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52395379543304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55647957324982</t>
+    <t xml:space="preserve">1.52395391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55647969245911</t>
   </si>
   <si>
     <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51760721206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57393264770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5652060508728</t>
+    <t xml:space="preserve">1.51760733127594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57393252849579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56520617008209</t>
   </si>
   <si>
     <t xml:space="preserve">1.6310510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62311792373657</t>
+    <t xml:space="preserve">1.62311780452728</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691722393036</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.62629115581512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59614539146423</t>
+    <t xml:space="preserve">1.59614527225494</t>
   </si>
   <si>
     <t xml:space="preserve">1.60883843898773</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53664696216583</t>
+    <t xml:space="preserve">1.53664672374725</t>
   </si>
   <si>
     <t xml:space="preserve">1.54933977127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55489301681519</t>
+    <t xml:space="preserve">1.5548928976059</t>
   </si>
   <si>
     <t xml:space="preserve">1.53902673721313</t>
@@ -1706,52 +1706,52 @@
     <t xml:space="preserve">1.59931838512421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60090517997742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59138548374176</t>
+    <t xml:space="preserve">1.60090494155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
     <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485048294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768929481506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278350353241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66912996768951</t>
+    <t xml:space="preserve">1.65485036373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768917560577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278338432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66913020610809</t>
   </si>
   <si>
     <t xml:space="preserve">1.72307527065277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72148883342743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403587818146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70879566669464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562243461609</t>
+    <t xml:space="preserve">1.72148871421814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70879578590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562255382538</t>
   </si>
   <si>
     <t xml:space="preserve">1.71355557441711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68816947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68658268451691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326380729675</t>
+    <t xml:space="preserve">1.68816959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6865828037262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326392650604</t>
   </si>
   <si>
     <t xml:space="preserve">1.6738897562027</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">1.68340969085693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65643715858459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802347660065</t>
+    <t xml:space="preserve">1.65643692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802359580994</t>
   </si>
   <si>
     <t xml:space="preserve">1.68182289600372</t>
@@ -1772,115 +1772,115 @@
     <t xml:space="preserve">1.71672868728638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.805579662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827282905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303273677826</t>
+    <t xml:space="preserve">1.80558001995087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827306747437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303285598755</t>
   </si>
   <si>
     <t xml:space="preserve">1.78812694549561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509983539581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654050827026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033968925476</t>
+    <t xml:space="preserve">1.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654038906097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033957004547</t>
   </si>
   <si>
     <t xml:space="preserve">1.80399322509766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83889901638031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80081975460052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69134271144867</t>
+    <t xml:space="preserve">1.8388991355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8008199930191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69134283065796</t>
   </si>
   <si>
     <t xml:space="preserve">1.68023645877838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65961015224457</t>
+    <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422417640686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62946426868439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66754329204559</t>
+    <t xml:space="preserve">1.62946438789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66754353046417</t>
   </si>
   <si>
     <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76274073123932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226054668427</t>
+    <t xml:space="preserve">1.7627409696579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226078510284</t>
   </si>
   <si>
     <t xml:space="preserve">1.75798118114471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83096599578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90395069122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90077745914459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88967072963715</t>
+    <t xml:space="preserve">1.83096587657928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90395045280457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90077722072601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88967096805573</t>
   </si>
   <si>
     <t xml:space="preserve">1.88843441009521</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89172446727753</t>
+    <t xml:space="preserve">1.89172434806824</t>
   </si>
   <si>
     <t xml:space="preserve">1.89665937423706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86869490146637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88020968437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349974155426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95587849617004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96903848648071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.949298620224</t>
+    <t xml:space="preserve">1.86869478225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88020956516266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349962234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93120408058167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95587885379791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96903872489929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94929850101471</t>
   </si>
   <si>
     <t xml:space="preserve">1.93613886833191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9789080619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548817634583</t>
+    <t xml:space="preserve">1.97890818119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548829555511</t>
   </si>
   <si>
     <t xml:space="preserve">2.00851774215698</t>
@@ -1889,40 +1889,40 @@
     <t xml:space="preserve">2.01180791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01674270629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01509785652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02332282066345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98219847679138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9838433265686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97397351264954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9460084438324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159428119659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271898269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97726321220398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99371314048767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99864816665649</t>
+    <t xml:space="preserve">2.01674294471741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01509809494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02332258224487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98219811916351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98384320735931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97397327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600880146027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159440040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271862506866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97726333141327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99371325969696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1931,43 +1931,43 @@
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206805229187</t>
+    <t xml:space="preserve">2.00358319282532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206817150116</t>
   </si>
   <si>
     <t xml:space="preserve">2.01016283035278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01345300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98055338859558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042320251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04964232444763</t>
+    <t xml:space="preserve">2.01345276832581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98055326938629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042308330536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04964256286621</t>
   </si>
   <si>
     <t xml:space="preserve">2.03319239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0315477848053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483724594116</t>
+    <t xml:space="preserve">2.03154754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483748435974</t>
   </si>
   <si>
     <t xml:space="preserve">2.06609201431274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06444692611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04306244850159</t>
+    <t xml:space="preserve">2.06444716453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04306221008301</t>
   </si>
   <si>
     <t xml:space="preserve">1.97068333625793</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
+    <t xml:space="preserve">2.02167749404907</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1401162147522</t>
+    <t xml:space="preserve">2.14011597633362</t>
   </si>
   <si>
     <t xml:space="preserve">2.16314601898193</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">2.20098042488098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18453025817871</t>
+    <t xml:space="preserve">2.18453049659729</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2009,25 +2009,25 @@
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2207202911377</t>
+    <t xml:space="preserve">2.19111037254333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22071981430054</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210476875305</t>
+    <t xml:space="preserve">2.24210500717163</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23387980461121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24045968055725</t>
+    <t xml:space="preserve">2.23388004302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24045991897583</t>
   </si>
   <si>
     <t xml:space="preserve">2.21249508857727</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">2.20756030082703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17137098312378</t>
+    <t xml:space="preserve">2.1713707447052</t>
   </si>
   <si>
     <t xml:space="preserve">2.19933533668518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604539871216</t>
+    <t xml:space="preserve">2.19604563713074</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591521263123</t>
@@ -2060,19 +2060,19 @@
     <t xml:space="preserve">2.25690937042236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28487420082092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27171421051025</t>
+    <t xml:space="preserve">2.28487396240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27171444892883</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006936073303</t>
+    <t xml:space="preserve">2.26513457298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006912231445</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
@@ -2084,34 +2084,34 @@
     <t xml:space="preserve">2.24539470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24374961853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22565484046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26348948478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270860671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30625891685486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31448364257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30296874046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27335906028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26677942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30790400505066</t>
+    <t xml:space="preserve">2.24374985694885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22565507888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26348972320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270836830139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30625867843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3144838809967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30296897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27335929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26677966117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30790376663208</t>
   </si>
   <si>
     <t xml:space="preserve">2.31941866874695</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">2.33093357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25855469703674</t>
+    <t xml:space="preserve">2.25855445861816</t>
   </si>
   <si>
     <t xml:space="preserve">2.29803395271301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31612873077393</t>
+    <t xml:space="preserve">2.31612849235535</t>
   </si>
   <si>
     <t xml:space="preserve">2.28651905059814</t>
@@ -2141,19 +2141,19 @@
     <t xml:space="preserve">2.2503297328949</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28158402442932</t>
+    <t xml:space="preserve">2.2815842628479</t>
   </si>
   <si>
     <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435369491577</t>
+    <t xml:space="preserve">2.32435345649719</t>
   </si>
   <si>
     <t xml:space="preserve">2.31777381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.357253074646</t>
+    <t xml:space="preserve">2.35725331306458</t>
   </si>
   <si>
     <t xml:space="preserve">2.38686275482178</t>
@@ -2165,10 +2165,10 @@
     <t xml:space="preserve">2.37534785270691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43127703666687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46253156661987</t>
+    <t xml:space="preserve">2.43127727508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.45101690292358</t>
@@ -2177,67 +2177,67 @@
     <t xml:space="preserve">2.50859093666077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48556160926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240161895752</t>
+    <t xml:space="preserve">2.48556137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240138053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47733640670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45924162864685</t>
+    <t xml:space="preserve">2.47733664512634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45924186706543</t>
   </si>
   <si>
     <t xml:space="preserve">2.46582174301147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798709869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49378633499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47898125648499</t>
+    <t xml:space="preserve">2.42798733711243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49378657341003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46088671684265</t>
+    <t xml:space="preserve">2.46088695526123</t>
   </si>
   <si>
     <t xml:space="preserve">2.51023602485657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55465054512024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52668571472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51352620124817</t>
+    <t xml:space="preserve">2.55465030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52668595314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
     <t xml:space="preserve">2.36218810081482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36383318901062</t>
+    <t xml:space="preserve">2.36383295059204</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028287887573</t>
+    <t xml:space="preserve">2.38028311729431</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33257842063904</t>
+    <t xml:space="preserve">2.33257818222046</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">2.21413993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05128717422485</t>
+    <t xml:space="preserve">2.05128741264343</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
@@ -2255,22 +2255,22 @@
     <t xml:space="preserve">1.82428050041199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956901073456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59645080566406</t>
+    <t xml:space="preserve">1.54956912994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59645092487335</t>
   </si>
   <si>
     <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5084445476532</t>
+    <t xml:space="preserve">1.50844478607178</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407193183899</t>
+    <t xml:space="preserve">1.52407205104828</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2279,28 +2279,28 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013130187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53887677192688</t>
+    <t xml:space="preserve">1.57013118267059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53887665271759</t>
   </si>
   <si>
     <t xml:space="preserve">1.66965246200562</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68610227108002</t>
+    <t xml:space="preserve">1.68610215187073</t>
   </si>
   <si>
     <t xml:space="preserve">1.76835119724274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85060000419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73216164112091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7288715839386</t>
+    <t xml:space="preserve">1.85060012340546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73216152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72887170314789</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7305166721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670622825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78973591327667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81441056728363</t>
+    <t xml:space="preserve">1.73051679134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229194641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670610904694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78973603248596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81441044807434</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125069618225</t>
@@ -2336,46 +2336,46 @@
     <t xml:space="preserve">1.80618584156036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81276559829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83908522129059</t>
+    <t xml:space="preserve">1.81276535987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83908545970917</t>
   </si>
   <si>
     <t xml:space="preserve">1.84895491600037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719847202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211478710175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579552173615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79302597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76012635231018</t>
+    <t xml:space="preserve">1.87198483943939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79302573204041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7601261138916</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848114490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657628059387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480112552643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415031433105</t>
+    <t xml:space="preserve">1.74038636684418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848138332367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415019512177</t>
   </si>
   <si>
     <t xml:space="preserve">1.86046993732452</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">1.79960572719574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87527477741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9196891784668</t>
+    <t xml:space="preserve">1.87527465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968929767609</t>
   </si>
   <si>
     <t xml:space="preserve">1.97232842445374</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">1.83086025714874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224521160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90488433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91146421432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98555850982666</t>
+    <t xml:space="preserve">1.85224497318268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488421916962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91146385669708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98555874824524</t>
   </si>
   <si>
     <t xml:space="preserve">1.97527956962585</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906325817108</t>
+    <t xml:space="preserve">1.88276875019073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906313896179</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">1.88105571269989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90161371231079</t>
+    <t xml:space="preserve">1.90161347389221</t>
   </si>
   <si>
     <t xml:space="preserve">1.92388463020325</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86392390727997</t>
+    <t xml:space="preserve">1.86392402648926</t>
   </si>
   <si>
     <t xml:space="preserve">1.83822631835938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84679210186005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85021877288818</t>
+    <t xml:space="preserve">1.84679222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8502185344696</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,13 +2498,13 @@
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8399395942688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86563694477081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85878455638885</t>
+    <t xml:space="preserve">1.83993947505951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8656370639801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85878443717957</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157443523407</t>
+    <t xml:space="preserve">1.96157419681549</t>
   </si>
   <si>
     <t xml:space="preserve">1.92902433872223</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735033988953</t>
+    <t xml:space="preserve">1.86735022068024</t>
   </si>
   <si>
     <t xml:space="preserve">1.89818727970123</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790822029114</t>
+    <t xml:space="preserve">1.88790810108185</t>
   </si>
   <si>
     <t xml:space="preserve">1.91017937660217</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">1.88619482517242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84507894515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84165275096893</t>
+    <t xml:space="preserve">1.8450790643692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84165287017822</t>
   </si>
   <si>
     <t xml:space="preserve">1.81595504283905</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201012611389</t>
+    <t xml:space="preserve">1.73201024532318</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65491759777069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67119264602661</t>
+    <t xml:space="preserve">1.65491771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6711927652359</t>
   </si>
   <si>
     <t xml:space="preserve">1.67890202999115</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7474285364151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70973908901215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79197084903717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7782655954361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78683137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78854477405548</t>
+    <t xml:space="preserve">1.74742865562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70973896980286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79197096824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77826547622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78683125972748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78854465484619</t>
   </si>
   <si>
     <t xml:space="preserve">1.8039630651474</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025757312775</t>
+    <t xml:space="preserve">1.79025769233704</t>
   </si>
   <si>
     <t xml:space="preserve">1.85535788536072</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671366691589</t>
+    <t xml:space="preserve">1.96671390533447</t>
   </si>
   <si>
     <t xml:space="preserve">1.92559766769409</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280778884888</t>
+    <t xml:space="preserve">1.82280790805817</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711055755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.798823595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224990844727</t>
+    <t xml:space="preserve">1.79711043834686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79882347583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80225002765656</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141308784485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83137357234955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83480000495911</t>
+    <t xml:space="preserve">1.83137381076813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83479988574982</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">1.85364484786987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86221063137054</t>
+    <t xml:space="preserve">1.86221086978912</t>
   </si>
   <si>
     <t xml:space="preserve">1.81252884864807</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74400234222412</t>
+    <t xml:space="preserve">1.74400222301483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">1.75428128242493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7422890663147</t>
+    <t xml:space="preserve">1.74228918552399</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">1.8142421245575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80053663253784</t>
+    <t xml:space="preserve">1.80053687095642</t>
   </si>
   <si>
     <t xml:space="preserve">1.76969969272614</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">1.86049747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87077665328979</t>
+    <t xml:space="preserve">1.87077653408051</t>
   </si>
   <si>
     <t xml:space="preserve">1.91874504089355</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01639556884766</t>
+    <t xml:space="preserve">2.01639580726624</t>
   </si>
   <si>
     <t xml:space="preserve">2.03010082244873</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">2.01982188224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0181086063385</t>
+    <t xml:space="preserve">2.01810884475708</t>
   </si>
   <si>
     <t xml:space="preserve">2.01468253135681</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723262786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02153515815735</t>
+    <t xml:space="preserve">2.04723286628723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02153491973877</t>
   </si>
   <si>
     <t xml:space="preserve">2.0438060760498</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">2.13460397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17400693893433</t>
+    <t xml:space="preserve">2.17400670051575</t>
   </si>
   <si>
     <t xml:space="preserve">2.18257260322571</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24938607215881</t>
+    <t xml:space="preserve">2.24938583374023</t>
   </si>
   <si>
     <t xml:space="preserve">2.24424648284912</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452542304993</t>
+    <t xml:space="preserve">2.25452566146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1520">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,28 +47,28 @@
     <t xml:space="preserve">1.03189921379089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0354973077774</t>
+    <t xml:space="preserve">1.03549718856812</t>
   </si>
   <si>
     <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00743305683136</t>
+    <t xml:space="preserve">1.00743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">1.00311553478241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02614259719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959181785583</t>
+    <t xml:space="preserve">1.0261424779892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959169864655</t>
   </si>
   <si>
     <t xml:space="preserve">0.983686327934265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964976787567139</t>
+    <t xml:space="preserve">0.964976906776428</t>
   </si>
   <si>
     <t xml:space="preserve">0.939791142940521</t>
@@ -77,31 +77,31 @@
     <t xml:space="preserve">0.951304614543915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913885831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934034526348114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957780838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453249454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990162909030914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929592132568</t>
+    <t xml:space="preserve">0.913885712623596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403422832489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341922283173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95778101682663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453428268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99016273021698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929770946503</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992321491241455</t>
+    <t xml:space="preserve">0.9923215508461</t>
   </si>
   <si>
     <t xml:space="preserve">0.955622255802155</t>
@@ -110,25 +110,25 @@
     <t xml:space="preserve">0.941949844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91460520029068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473442077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921801269054413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947706699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368805885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998797953128815</t>
+    <t xml:space="preserve">0.914605379104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473620891571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921801209449768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947706758975983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733821392059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368984699249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99879789352417</t>
   </si>
   <si>
     <t xml:space="preserve">1.03117966651917</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">1.03621685504913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02110528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05636548995972</t>
+    <t xml:space="preserve">1.02110540866852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05636560916901</t>
   </si>
   <si>
     <t xml:space="preserve">1.02686214447021</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05852425098419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03981471061707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341292381287</t>
+    <t xml:space="preserve">1.0585241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03981482982635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341280460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.01247024536133</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">1.02542293071747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06572008132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723355293274</t>
+    <t xml:space="preserve">1.06572031974792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723367214203</t>
   </si>
   <si>
     <t xml:space="preserve">1.11609196662903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120353221893</t>
+    <t xml:space="preserve">1.13120341300964</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13552093505859</t>
+    <t xml:space="preserve">1.1355208158493</t>
   </si>
   <si>
     <t xml:space="preserve">1.14343655109406</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">1.11897027492523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256801128387</t>
+    <t xml:space="preserve">1.12256824970245</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544667720795</t>
@@ -203,34 +203,34 @@
     <t xml:space="preserve">1.14127779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13336217403412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1419974565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11681163311005</t>
+    <t xml:space="preserve">1.13336229324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14199733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
     <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13048374652863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696014881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14415597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767981529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279138088226</t>
+    <t xml:space="preserve">1.13048386573792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696026802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14415609836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767993450165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703440666199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279114246368</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">1.13624060153961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12328779697418</t>
+    <t xml:space="preserve">1.12328767776489</t>
   </si>
   <si>
     <t xml:space="preserve">1.10457849502563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12112903594971</t>
+    <t xml:space="preserve">1.121129155159</t>
   </si>
   <si>
     <t xml:space="preserve">1.1563892364502</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">1.14847362041473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16214609146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15495002269745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991295337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1506325006485</t>
+    <t xml:space="preserve">1.1621458530426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15495014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991271495819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15063238143921</t>
   </si>
   <si>
     <t xml:space="preserve">1.13480138778687</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">1.10817635059357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15423035621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12760555744171</t>
+    <t xml:space="preserve">1.15423047542572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12760531902313</t>
   </si>
   <si>
     <t xml:space="preserve">1.11249399185181</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14055812358856</t>
+    <t xml:space="preserve">1.14055824279785</t>
   </si>
   <si>
     <t xml:space="preserve">1.17222023010254</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18733191490173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085551261902</t>
+    <t xml:space="preserve">1.18733167648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085563182831</t>
   </si>
   <si>
     <t xml:space="preserve">1.19884538650513</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17006158828735</t>
+    <t xml:space="preserve">1.17006146907806</t>
   </si>
   <si>
     <t xml:space="preserve">1.18805146217346</t>
@@ -317,10 +317,10 @@
     <t xml:space="preserve">1.19308853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16862237453461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162557125092</t>
+    <t xml:space="preserve">1.16862225532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162569046021</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
@@ -329,142 +329,142 @@
     <t xml:space="preserve">1.07795333862305</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306478500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07514572143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0938116312027</t>
+    <t xml:space="preserve">1.09306490421295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07514584064484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.07290589809418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01392233371735</t>
+    <t xml:space="preserve">1.01392221450806</t>
   </si>
   <si>
     <t xml:space="preserve">0.979577243328094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00944244861603</t>
+    <t xml:space="preserve">1.00944232940674</t>
   </si>
   <si>
     <t xml:space="preserve">1.00048279762268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03781425952911</t>
+    <t xml:space="preserve">1.0378143787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.0445339679718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04901373386383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01541531085968</t>
+    <t xml:space="preserve">1.04901361465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01541554927826</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02288174629211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03333473205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04080080986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03408122062683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01914846897125</t>
+    <t xml:space="preserve">1.02288162708282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03333449363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04080092906952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03408133983612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01914858818054</t>
   </si>
   <si>
     <t xml:space="preserve">1.02885472774506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03557431697845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05573356151581</t>
+    <t xml:space="preserve">1.03557443618774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05573344230652</t>
   </si>
   <si>
     <t xml:space="preserve">1.04677379131317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0676794052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469309329987</t>
+    <t xml:space="preserve">1.06767952442169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469297409058</t>
   </si>
   <si>
     <t xml:space="preserve">1.07738566398621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07813215255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754478931427</t>
+    <t xml:space="preserve">1.07813227176666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754455089569</t>
   </si>
   <si>
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634519577026</t>
+    <t xml:space="preserve">1.08634531497955</t>
   </si>
   <si>
     <t xml:space="preserve">1.08709192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09978449344635</t>
+    <t xml:space="preserve">1.09978461265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.10277104377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11173045635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1087441444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007823467255</t>
+    <t xml:space="preserve">1.11173057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10501086711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10874402523041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007835388184</t>
   </si>
   <si>
     <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06170642375946</t>
+    <t xml:space="preserve">1.06170654296875</t>
   </si>
   <si>
     <t xml:space="preserve">1.05946660041809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0512535572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06618618965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887899875641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127794742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10575747489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114321231842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13935577869415</t>
+    <t xml:space="preserve">1.05125367641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618630886078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127770900726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10575759410858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114285469055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13935589790344</t>
   </si>
   <si>
     <t xml:space="preserve">1.10799741744995</t>
@@ -473,13 +473,13 @@
     <t xml:space="preserve">1.10426425933838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11322379112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037233352661</t>
+    <t xml:space="preserve">1.11322391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455800056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037221431732</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202443599701</t>
@@ -488,16 +488,16 @@
     <t xml:space="preserve">1.0923182964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08783853054047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11247718334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14383566379547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666308879852</t>
+    <t xml:space="preserve">1.08783864974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11247730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14383542537689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666320800781</t>
   </si>
   <si>
     <t xml:space="preserve">1.11994349956512</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933162689209</t>
+    <t xml:space="preserve">1.08933174610138</t>
   </si>
   <si>
     <t xml:space="preserve">1.10053110122681</t>
@@ -515,19 +515,19 @@
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17668724060059</t>
+    <t xml:space="preserve">1.17668735980988</t>
   </si>
   <si>
     <t xml:space="preserve">1.17892718315125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20207273960114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22223162651062</t>
+    <t xml:space="preserve">1.20207262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21700537204742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521829605103</t>
@@ -545,52 +545,52 @@
     <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18937993049622</t>
+    <t xml:space="preserve">1.18938004970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16996777057648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18490040302277</t>
+    <t xml:space="preserve">1.1699675321579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18490028381348</t>
   </si>
   <si>
     <t xml:space="preserve">1.19311308860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519426345825</t>
+    <t xml:space="preserve">1.17519402503967</t>
   </si>
   <si>
     <t xml:space="preserve">1.06991934776306</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06543958187103</t>
+    <t xml:space="preserve">1.06543970108032</t>
   </si>
   <si>
     <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04528057575226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05274677276611</t>
+    <t xml:space="preserve">1.04528045654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0527468919754</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064204216003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02512156963348</t>
+    <t xml:space="preserve">1.02064180374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02512168884277</t>
   </si>
   <si>
     <t xml:space="preserve">1.05200028419495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586817741394</t>
+    <t xml:space="preserve">1.02586829662323</t>
   </si>
   <si>
     <t xml:space="preserve">1.08186542987823</t>
@@ -602,67 +602,67 @@
     <t xml:space="preserve">1.09530472755432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098396778107</t>
+    <t xml:space="preserve">1.11098408699036</t>
   </si>
   <si>
     <t xml:space="preserve">1.11471724510193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13188970088959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13412952423096</t>
+    <t xml:space="preserve">1.1318895816803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13412964344025</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487613201141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14906203746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279531478882</t>
+    <t xml:space="preserve">1.14906215667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279519557953</t>
   </si>
   <si>
     <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16698098182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15130198001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13636934757233</t>
+    <t xml:space="preserve">1.16698110103607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15130186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13636946678162</t>
   </si>
   <si>
     <t xml:space="preserve">1.15727496147156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17146098613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220759391785</t>
+    <t xml:space="preserve">1.1714608669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220771312714</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17295408248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250157356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847455501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14458227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890303134918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12292993068695</t>
+    <t xml:space="preserve">1.1729542016983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250145435333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847443580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14458215236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890315055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12293004989624</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055525302887</t>
@@ -671,25 +671,25 @@
     <t xml:space="preserve">1.1647412776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14308881759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18042051792145</t>
+    <t xml:space="preserve">1.14308893680573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18042063713074</t>
   </si>
   <si>
     <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1796737909317</t>
+    <t xml:space="preserve">1.17967391014099</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21177899837494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19609987735748</t>
+    <t xml:space="preserve">1.21177887916565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19609951972961</t>
   </si>
   <si>
     <t xml:space="preserve">1.20879232883453</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">1.19385969638824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953893661499</t>
@@ -707,13 +707,13 @@
     <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22447144985199</t>
+    <t xml:space="preserve">1.22447156906128</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820460796356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22596478462219</t>
+    <t xml:space="preserve">1.22596490383148</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806987285614</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37379741668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3857433795929</t>
+    <t xml:space="preserve">1.37379765510559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38574349880219</t>
   </si>
   <si>
     <t xml:space="preserve">1.41486191749573</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">1.42979443073273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43352770805359</t>
+    <t xml:space="preserve">1.4335275888443</t>
   </si>
   <si>
     <t xml:space="preserve">1.44547379016876</t>
@@ -746,40 +746,40 @@
     <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41784858703613</t>
+    <t xml:space="preserve">1.41784846782684</t>
   </si>
   <si>
     <t xml:space="preserve">1.45293998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46339285373688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45741975307465</t>
+    <t xml:space="preserve">1.46339297294617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45741987228394</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488618850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099402427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950068950653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920706748962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4402471780777</t>
+    <t xml:space="preserve">1.46488606929779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099390506744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950057029724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024741649628</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664911270142</t>
+    <t xml:space="preserve">1.40664899349213</t>
   </si>
   <si>
     <t xml:space="preserve">1.44846022129059</t>
@@ -797,19 +797,19 @@
     <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45592665672302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49325811862946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952496051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267027854919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53058958053589</t>
+    <t xml:space="preserve">1.45592641830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49325799942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952484130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5305894613266</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506922721863</t>
@@ -818,22 +818,22 @@
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104220867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49251139163971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55298829078674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57538712024689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733308315277</t>
+    <t xml:space="preserve">1.54104208946228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49251127243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669729709625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55298817157745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57538723945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733320236206</t>
   </si>
   <si>
     <t xml:space="preserve">1.59927916526794</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">1.62018501758575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56344139575958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57837378978729</t>
+    <t xml:space="preserve">1.56344127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.578373670578</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285343647003</t>
+    <t xml:space="preserve">1.58285355567932</t>
   </si>
   <si>
     <t xml:space="preserve">1.58882641792297</t>
@@ -863,22 +863,22 @@
     <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61719834804535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64258372783661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63213121891022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64557015895844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362431526184</t>
+    <t xml:space="preserve">1.61719846725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6425838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959753513336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63213098049164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362419605255</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461789608002</t>
+    <t xml:space="preserve">1.6646181344986</t>
   </si>
   <si>
     <t xml:space="preserve">1.64463651180267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58930289745331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61082148551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55856227874756</t>
+    <t xml:space="preserve">1.5893030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6108216047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085835933685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.56317317485809</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56624734401703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5462658405304</t>
+    <t xml:space="preserve">1.56624758243561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54626572132111</t>
   </si>
   <si>
     <t xml:space="preserve">1.58008062839508</t>
@@ -926,25 +926,25 @@
     <t xml:space="preserve">1.58776593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60467326641083</t>
+    <t xml:space="preserve">1.60467338562012</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59083986282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852516651154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61389553546906</t>
+    <t xml:space="preserve">1.59084010124207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61389577388763</t>
   </si>
   <si>
     <t xml:space="preserve">1.63080310821533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61543273925781</t>
+    <t xml:space="preserve">1.61543250083923</t>
   </si>
   <si>
     <t xml:space="preserve">1.63848829269409</t>
@@ -959,31 +959,31 @@
     <t xml:space="preserve">1.61696982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65232181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998862266541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67691433429718</t>
+    <t xml:space="preserve">1.65232169628143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998850345612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67691445350647</t>
   </si>
   <si>
     <t xml:space="preserve">1.675377368927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68306255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70458126068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7291738986969</t>
+    <t xml:space="preserve">1.68306267261505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70458114147186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72917377948761</t>
   </si>
   <si>
     <t xml:space="preserve">1.72148859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7015073299408</t>
+    <t xml:space="preserve">1.70150697231293</t>
   </si>
   <si>
     <t xml:space="preserve">1.69997000694275</t>
@@ -992,10 +992,10 @@
     <t xml:space="preserve">1.72609984874725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76452600955963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298892498016</t>
+    <t xml:space="preserve">1.76452589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298868656158</t>
   </si>
   <si>
     <t xml:space="preserve">1.75991463661194</t>
@@ -1004,55 +1004,55 @@
     <t xml:space="preserve">1.76145195960999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74608159065247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72763681411743</t>
+    <t xml:space="preserve">1.7460812330246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72763669490814</t>
   </si>
   <si>
     <t xml:space="preserve">1.73532199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74915552139282</t>
+    <t xml:space="preserve">1.74915540218353</t>
   </si>
   <si>
     <t xml:space="preserve">1.76913714408875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77682209014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77221119403839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7675998210907</t>
+    <t xml:space="preserve">1.7768223285675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77221095561981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76759994029999</t>
   </si>
   <si>
     <t xml:space="preserve">1.79834067821503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82293355464935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984124660492</t>
+    <t xml:space="preserve">1.82293343544006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984112739563</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79372990131378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78758156299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74761843681335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995162963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534073352814</t>
+    <t xml:space="preserve">1.79372978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7875816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74761819839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995151042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534061431885</t>
   </si>
   <si>
     <t xml:space="preserve">1.72456276416779</t>
@@ -1064,10 +1064,10 @@
     <t xml:space="preserve">1.74300718307495</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73071086406708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380352973938</t>
+    <t xml:space="preserve">1.73071110248566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380364894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.75376653671265</t>
@@ -1076,112 +1076,112 @@
     <t xml:space="preserve">1.75222945213318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81217432022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602622032166</t>
+    <t xml:space="preserve">1.81217420101166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602598190308</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985938549042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79987776279449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143358230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75684058666229</t>
+    <t xml:space="preserve">1.79987764358521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143334388733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75684070587158</t>
   </si>
   <si>
     <t xml:space="preserve">1.80756330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8152482509613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521137714386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135947704315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89824855327606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285992622375</t>
+    <t xml:space="preserve">1.81524848937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521149635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89824867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285980701447</t>
   </si>
   <si>
     <t xml:space="preserve">1.89671182632446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8905633687973</t>
+    <t xml:space="preserve">1.89056348800659</t>
   </si>
   <si>
     <t xml:space="preserve">1.83215594291687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85367441177368</t>
+    <t xml:space="preserve">1.8536741733551</t>
   </si>
   <si>
     <t xml:space="preserve">1.84291517734528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81832242012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674870014191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211894989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439689159393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358240604401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9336005449295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130410671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821179866791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052661418915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050823688507</t>
+    <t xml:space="preserve">1.81832218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674846172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211918830872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439677238464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358216762543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360078334808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130434513092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821167945862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052649497986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050835609436</t>
   </si>
   <si>
     <t xml:space="preserve">1.97356402873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97971224784851</t>
+    <t xml:space="preserve">1.97971200942993</t>
   </si>
   <si>
     <t xml:space="preserve">1.97202682495117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9812490940094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9443598985672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969351291656</t>
+    <t xml:space="preserve">1.98124921321869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94436001777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969363212585</t>
   </si>
   <si>
     <t xml:space="preserve">1.99661958217621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95973026752472</t>
+    <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
     <t xml:space="preserve">2.00123071670532</t>
@@ -1190,178 +1190,178 @@
     <t xml:space="preserve">2.00276732444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434152126312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745244503021</t>
+    <t xml:space="preserve">1.97510063648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434164047241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745268344879</t>
   </si>
   <si>
     <t xml:space="preserve">1.93206357955933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9228413105011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665633678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736020088196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01660108566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897127151489</t>
+    <t xml:space="preserve">1.92284142971039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665609836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736043930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01660084724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511901378632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9489711523056</t>
   </si>
   <si>
     <t xml:space="preserve">1.9873970746994</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05656433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05195331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07039761543274</t>
+    <t xml:space="preserve">2.05656409263611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05195283889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07039737701416</t>
   </si>
   <si>
     <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10574960708618</t>
+    <t xml:space="preserve">2.1057493686676</t>
   </si>
   <si>
     <t xml:space="preserve">2.0673234462738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02582335472107</t>
+    <t xml:space="preserve">2.02582311630249</t>
   </si>
   <si>
     <t xml:space="preserve">2.01198983192444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737905502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00584173202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04119396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287842273712</t>
+    <t xml:space="preserve">2.00737881660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00584149360657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04119372367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287818431854</t>
   </si>
   <si>
     <t xml:space="preserve">1.83830404281616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8736560344696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.826007604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87826704978943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86443376541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87672984600067</t>
+    <t xml:space="preserve">1.87365591526031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82600772380829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87826728820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86443388462067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672996520996</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522999286652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85982263088226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8844153881073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902628421783</t>
+    <t xml:space="preserve">1.85982251167297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441514968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902652263641</t>
   </si>
   <si>
     <t xml:space="preserve">1.82447075843811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515600681305</t>
+    <t xml:space="preserve">1.87058186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515624523163</t>
   </si>
   <si>
     <t xml:space="preserve">1.901322722435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89363741874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134109973907</t>
+    <t xml:space="preserve">1.89363753795624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134133815765</t>
   </si>
   <si>
     <t xml:space="preserve">1.87519299983978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84598898887634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95819342136383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94282293319702</t>
+    <t xml:space="preserve">1.84598910808563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95819330215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204520225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94282305240631</t>
   </si>
   <si>
     <t xml:space="preserve">1.92591547966003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92898988723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8798041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743430614471</t>
+    <t xml:space="preserve">1.92898976802826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85828578472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87980425357819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361916065216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743406772614</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667483329773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94589710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96587824821472</t>
+    <t xml:space="preserve">1.94589734077454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587872505188</t>
   </si>
   <si>
     <t xml:space="preserve">1.9120819568634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88595247268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752631187439</t>
+    <t xml:space="preserve">1.88595223426819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752607345581</t>
   </si>
   <si>
     <t xml:space="preserve">1.84137809276581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79526686668396</t>
+    <t xml:space="preserve">1.79526674747467</t>
   </si>
   <si>
     <t xml:space="preserve">1.78450751304626</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">1.71226632595062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66769218444824</t>
+    <t xml:space="preserve">1.66769230365753</t>
   </si>
   <si>
     <t xml:space="preserve">1.62004387378693</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">1.63234031200409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64924764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771056175232</t>
+    <t xml:space="preserve">1.6492475271225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000711917877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771068096161</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">1.5954509973526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69535899162292</t>
+    <t xml:space="preserve">1.69535887241364</t>
   </si>
   <si>
     <t xml:space="preserve">1.73224794864655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7262487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846124649048</t>
+    <t xml:space="preserve">1.72624862194061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846136569977</t>
   </si>
   <si>
     <t xml:space="preserve">1.72942185401917</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">1.70244908332825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71038234233856</t>
+    <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70720911026001</t>
+    <t xml:space="preserve">1.70720899105072</t>
   </si>
   <si>
     <t xml:space="preserve">1.7500479221344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7373548746109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74528801441193</t>
+    <t xml:space="preserve">1.73735499382019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74528813362122</t>
   </si>
   <si>
     <t xml:space="preserve">1.78178060054779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79764652252197</t>
+    <t xml:space="preserve">1.79288685321808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79764676094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.8119261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77543377876282</t>
+    <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130017757416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019368648529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779252529144</t>
+    <t xml:space="preserve">1.79129993915558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019380569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985914707184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779264450073</t>
   </si>
   <si>
     <t xml:space="preserve">1.82461929321289</t>
@@ -1472,70 +1472,70 @@
     <t xml:space="preserve">1.81668615341187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7992330789566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384757995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860713005066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649785518646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856447696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140340805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91823017597198</t>
+    <t xml:space="preserve">1.79923319816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384746074677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860724925995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649773597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856471538544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760422706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140352725983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91823029518127</t>
   </si>
   <si>
     <t xml:space="preserve">1.84207224845886</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86269855499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87539148330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87380468845367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745822429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572566509247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875301361084</t>
+    <t xml:space="preserve">1.86269843578339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8753913640976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380480766296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745834350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572554588318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875313282013</t>
   </si>
   <si>
     <t xml:space="preserve">1.80716669559479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76115429401398</t>
+    <t xml:space="preserve">1.76115441322327</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687457084656</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74211502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73576831817627</t>
+    <t xml:space="preserve">1.74211490154266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73576819896698</t>
   </si>
   <si>
     <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73259496688843</t>
+    <t xml:space="preserve">1.73259508609772</t>
   </si>
   <si>
     <t xml:space="preserve">1.69451606273651</t>
@@ -1550,70 +1550,70 @@
     <t xml:space="preserve">1.60249173641205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61677145957947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62787783145905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6437441110611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64215731620789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64533054828644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71196889877319</t>
+    <t xml:space="preserve">1.61677157878876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62787771224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64374399185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64215743541718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64533066749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71196901798248</t>
   </si>
   <si>
     <t xml:space="preserve">1.76908755302429</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71990191936493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975639343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119706630707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6500905752182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66595673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706334590912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547655105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67071652412415</t>
+    <t xml:space="preserve">1.71990203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975627422333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119694709778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65009045600891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66595685482025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706310749054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6754766702652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67071664333344</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58821213245392</t>
+    <t xml:space="preserve">1.58821225166321</t>
   </si>
   <si>
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54220008850098</t>
+    <t xml:space="preserve">1.54219996929169</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046764850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140663146973</t>
+    <t xml:space="preserve">1.51046752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140675067902</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
@@ -1622,22 +1622,22 @@
     <t xml:space="preserve">1.52554047107697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54061341285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268027305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5144339799881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54854655265808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52395391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55647969245911</t>
+    <t xml:space="preserve">1.54061329364777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268015384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443409919739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54854643344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52395379543304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55647957324982</t>
   </si>
   <si>
     <t xml:space="preserve">1.55409967899323</t>
@@ -1649,133 +1649,133 @@
     <t xml:space="preserve">1.57393252849579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56520617008209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6310510635376</t>
+    <t xml:space="preserve">1.56520593166351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63105094432831</t>
   </si>
   <si>
     <t xml:space="preserve">1.62311780452728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64691722393036</t>
+    <t xml:space="preserve">1.64691734313965</t>
   </si>
   <si>
     <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62629115581512</t>
+    <t xml:space="preserve">1.62629127502441</t>
   </si>
   <si>
     <t xml:space="preserve">1.59614527225494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60883843898773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5588595867157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53664672374725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54933977127075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5548928976059</t>
+    <t xml:space="preserve">1.60883831977844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55885946750641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53664684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54933965206146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55489313602448</t>
   </si>
   <si>
     <t xml:space="preserve">1.53902673721313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679272651672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54299342632294</t>
+    <t xml:space="preserve">1.56679260730743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54299330711365</t>
   </si>
   <si>
     <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51998722553253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50729417800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59931838512421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60090494155884</t>
+    <t xml:space="preserve">1.51998710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50729429721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5993185043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60090506076813</t>
   </si>
   <si>
     <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58662557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65485036373138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768917560577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278338432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66913020610809</t>
+    <t xml:space="preserve">1.58662545681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65485048294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768929481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6627836227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6691300868988</t>
   </si>
   <si>
     <t xml:space="preserve">1.72307527065277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72148871421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403575897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70879578590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562255382538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71355557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6865828037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326392650604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6738897562027</t>
+    <t xml:space="preserve">1.72148883342743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403587818146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70879566669464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562243461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7135556936264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816936016083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68658268451691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326380729675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67388987541199</t>
   </si>
   <si>
     <t xml:space="preserve">1.68340969085693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65643692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802359580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182289600372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80558001995087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827306747437</t>
+    <t xml:space="preserve">1.65643703937531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802347660065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182301521301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672880649567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80557990074158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827294826508</t>
   </si>
   <si>
     <t xml:space="preserve">1.82303285598755</t>
@@ -1784,19 +1784,19 @@
     <t xml:space="preserve">1.78812694549561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509971618652</t>
+    <t xml:space="preserve">1.81509959697723</t>
   </si>
   <si>
     <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81033957004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399322509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8388991355896</t>
+    <t xml:space="preserve">1.81033968925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399298667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83889889717102</t>
   </si>
   <si>
     <t xml:space="preserve">1.8008199930191</t>
@@ -1805,37 +1805,37 @@
     <t xml:space="preserve">1.69134283065796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68023645877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961027145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63422417640686</t>
+    <t xml:space="preserve">1.68023633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961015224457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63422429561615</t>
   </si>
   <si>
     <t xml:space="preserve">1.62946438789368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66754353046417</t>
+    <t xml:space="preserve">1.66754329204559</t>
   </si>
   <si>
     <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7627409696579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226078510284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75798118114471</t>
+    <t xml:space="preserve">1.76274085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226054668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798106193542</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395045280457</t>
+    <t xml:space="preserve">1.90395081043243</t>
   </si>
   <si>
     <t xml:space="preserve">1.90077722072601</t>
@@ -1844,43 +1844,43 @@
     <t xml:space="preserve">1.88967096805573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88843441009521</t>
+    <t xml:space="preserve">1.8884345293045</t>
   </si>
   <si>
     <t xml:space="preserve">1.89172434806824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89665937423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86869478225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88020956516266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349962234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120408058167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95587885379791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96903872489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94929850101471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613886833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97890818119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548829555511</t>
+    <t xml:space="preserve">1.89665913581848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86869466304779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88020968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349950313568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93120396137238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95587861537933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96903848648071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.949298620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9361389875412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9789080619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548817634583</t>
   </si>
   <si>
     <t xml:space="preserve">2.00851774215698</t>
@@ -1889,40 +1889,40 @@
     <t xml:space="preserve">2.01180791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01674294471741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01509809494019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02332258224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98219811916351</t>
+    <t xml:space="preserve">2.01674270629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01509785652161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02332282066345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98219835758209</t>
   </si>
   <si>
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397327423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600880146027</t>
+    <t xml:space="preserve">1.97397339344025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600856304169</t>
   </si>
   <si>
     <t xml:space="preserve">1.90159440040588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94271862506866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97726333141327</t>
+    <t xml:space="preserve">1.94271886348724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97726309299469</t>
   </si>
   <si>
     <t xml:space="preserve">1.99371325969696</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99864792823792</t>
+    <t xml:space="preserve">1.9986480474472</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1934,22 +1934,22 @@
     <t xml:space="preserve">2.00358319282532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99206817150116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01016283035278</t>
+    <t xml:space="preserve">1.99206805229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01016306877136</t>
   </si>
   <si>
     <t xml:space="preserve">2.01345276832581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98055326938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042308330536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04964256286621</t>
+    <t xml:space="preserve">1.980553150177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042320251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04964232444763</t>
   </si>
   <si>
     <t xml:space="preserve">2.03319239616394</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.03154754638672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03483748435974</t>
+    <t xml:space="preserve">2.03483724594116</t>
   </si>
   <si>
     <t xml:space="preserve">2.06609201431274</t>
@@ -1967,28 +1967,28 @@
     <t xml:space="preserve">2.06444716453552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04306221008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97068333625793</t>
+    <t xml:space="preserve">2.04306244850159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97068309783936</t>
   </si>
   <si>
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167749404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04635238647461</t>
+    <t xml:space="preserve">2.02167773246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04635214805603</t>
   </si>
   <si>
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14011597633362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16314601898193</t>
+    <t xml:space="preserve">2.1401162147522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16314578056335</t>
   </si>
   <si>
     <t xml:space="preserve">2.15821099281311</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">2.20098042488098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18453049659729</t>
+    <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2012,19 +2012,19 @@
     <t xml:space="preserve">2.19111037254333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22071981430054</t>
+    <t xml:space="preserve">2.2207202911377</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210500717163</t>
+    <t xml:space="preserve">2.24210453033447</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23388004302979</t>
+    <t xml:space="preserve">2.23387980461121</t>
   </si>
   <si>
     <t xml:space="preserve">2.24045991897583</t>
@@ -2036,16 +2036,16 @@
     <t xml:space="preserve">2.2026252746582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20756030082703</t>
+    <t xml:space="preserve">2.20756006240845</t>
   </si>
   <si>
     <t xml:space="preserve">2.1713707447052</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19933533668518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19604563713074</t>
+    <t xml:space="preserve">2.19933557510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
     <t xml:space="preserve">2.20591521263123</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">2.25361943244934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28816413879395</t>
+    <t xml:space="preserve">2.28816437721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.25690937042236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28487396240234</t>
+    <t xml:space="preserve">2.28487420082092</t>
   </si>
   <si>
     <t xml:space="preserve">2.27171444892883</t>
@@ -2069,10 +2069,10 @@
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513457298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006912231445</t>
+    <t xml:space="preserve">2.26513433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
@@ -2084,25 +2084,25 @@
     <t xml:space="preserve">2.24539470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24374985694885</t>
+    <t xml:space="preserve">2.24374938011169</t>
   </si>
   <si>
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270836830139</t>
+    <t xml:space="preserve">2.26348948478699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
     <t xml:space="preserve">2.30625867843628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3144838809967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30296897888184</t>
+    <t xml:space="preserve">2.31448364257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30296874046326</t>
   </si>
   <si>
     <t xml:space="preserve">2.27335929870605</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">2.26677966117859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30790376663208</t>
+    <t xml:space="preserve">2.30790400505066</t>
   </si>
   <si>
     <t xml:space="preserve">2.31941866874695</t>
@@ -2129,13 +2129,13 @@
     <t xml:space="preserve">2.31612849235535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28651905059814</t>
+    <t xml:space="preserve">2.28651928901672</t>
   </si>
   <si>
     <t xml:space="preserve">2.23716974258423</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2486846446991</t>
+    <t xml:space="preserve">2.24868440628052</t>
   </si>
   <si>
     <t xml:space="preserve">2.2503297328949</t>
@@ -2153,22 +2153,22 @@
     <t xml:space="preserve">2.31777381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35725331306458</t>
+    <t xml:space="preserve">2.357253074646</t>
   </si>
   <si>
     <t xml:space="preserve">2.38686275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35560822486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37534785270691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43127727508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46253180503845</t>
+    <t xml:space="preserve">2.35560846328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37534809112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43127703666687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46253156661987</t>
   </si>
   <si>
     <t xml:space="preserve">2.45101690292358</t>
@@ -2177,46 +2177,46 @@
     <t xml:space="preserve">2.50859093666077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48556137084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240138053894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46746683120728</t>
+    <t xml:space="preserve">2.48556160926819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4674665927887</t>
   </si>
   <si>
     <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46582174301147</t>
+    <t xml:space="preserve">2.45924162864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4658215045929</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798733711243</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49378657341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47898149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47569155693054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46088695526123</t>
+    <t xml:space="preserve">2.49378633499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47898125648499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47569179534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46088671684265</t>
   </si>
   <si>
     <t xml:space="preserve">2.51023602485657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.55465030670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52668595314026</t>
+    <t xml:space="preserve">2.55465054512024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52668571472168</t>
   </si>
   <si>
     <t xml:space="preserve">2.51352596282959</t>
@@ -2231,19 +2231,19 @@
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028311729431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26184439659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33257818222046</t>
+    <t xml:space="preserve">2.38028287887573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33257842063904</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413993835449</t>
+    <t xml:space="preserve">2.21414017677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128741264343</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">1.84731006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82428050041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54956912994385</t>
+    <t xml:space="preserve">1.82428026199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54956901073456</t>
   </si>
   <si>
     <t xml:space="preserve">1.59645092487335</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50844478607178</t>
+    <t xml:space="preserve">1.5084445476532</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407205104828</t>
+    <t xml:space="preserve">1.52407193183899</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013118267059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53887665271759</t>
+    <t xml:space="preserve">1.57013130187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
     <t xml:space="preserve">1.66965246200562</t>
@@ -2294,19 +2294,19 @@
     <t xml:space="preserve">1.76835119724274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85060012340546</t>
+    <t xml:space="preserve">1.85059988498688</t>
   </si>
   <si>
     <t xml:space="preserve">1.73216152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72887170314789</t>
+    <t xml:space="preserve">1.7288715839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74532151222229</t>
+    <t xml:space="preserve">1.745321393013</t>
   </si>
   <si>
     <t xml:space="preserve">1.7436763048172</t>
@@ -2315,16 +2315,16 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73051679134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229194641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670610904694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78973603248596</t>
+    <t xml:space="preserve">1.7305166721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229182720184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670622825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78973579406738</t>
   </si>
   <si>
     <t xml:space="preserve">1.81441044807434</t>
@@ -2333,31 +2333,31 @@
     <t xml:space="preserve">1.80125069618225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618584156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83908545970917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84895491600037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87198483943939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211490631104</t>
+    <t xml:space="preserve">1.80618572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276559829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83908522129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84895479679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8719847202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211478710175</t>
   </si>
   <si>
     <t xml:space="preserve">1.83579540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79302573204041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7601261138916</t>
+    <t xml:space="preserve">1.79302585124969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76012635231018</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
@@ -2366,25 +2366,25 @@
     <t xml:space="preserve">1.74038636684418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75848138332367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657604217529</t>
+    <t xml:space="preserve">1.75848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657616138458</t>
   </si>
   <si>
     <t xml:space="preserve">1.78480100631714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83415019512177</t>
+    <t xml:space="preserve">1.83415043354034</t>
   </si>
   <si>
     <t xml:space="preserve">1.86046993732452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81934535503387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960572719574</t>
+    <t xml:space="preserve">1.81934523582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960560798645</t>
   </si>
   <si>
     <t xml:space="preserve">1.87527465820312</t>
@@ -2393,43 +2393,43 @@
     <t xml:space="preserve">1.91968929767609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97232842445374</t>
+    <t xml:space="preserve">1.97232830524445</t>
   </si>
   <si>
     <t xml:space="preserve">1.96410346031189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92133402824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817415714264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83086025714874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85224497318268</t>
+    <t xml:space="preserve">1.92133414745331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83086037635803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85224509239197</t>
   </si>
   <si>
     <t xml:space="preserve">1.90488421916962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91146385669708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98555874824524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527956962585</t>
+    <t xml:space="preserve">1.91146421432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98555862903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527945041656</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89647400379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91189277172089</t>
+    <t xml:space="preserve">1.89647388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9118926525116</t>
   </si>
   <si>
     <t xml:space="preserve">1.91703200340271</t>
@@ -2444,10 +2444,10 @@
     <t xml:space="preserve">1.92731094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93759000301361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101643562317</t>
+    <t xml:space="preserve">1.9375901222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101631641388</t>
   </si>
   <si>
     <t xml:space="preserve">1.93245053291321</t>
@@ -2456,40 +2456,40 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276875019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906313896179</t>
+    <t xml:space="preserve">1.88276839256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906337738037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850537776947</t>
+    <t xml:space="preserve">1.84850549697876</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105571269989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90161347389221</t>
+    <t xml:space="preserve">1.90161371231079</t>
   </si>
   <si>
     <t xml:space="preserve">1.92388463020325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90675294399261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86392402648926</t>
+    <t xml:space="preserve">1.9067530632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86392390727997</t>
   </si>
   <si>
     <t xml:space="preserve">1.83822631835938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84679222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8502185344696</t>
+    <t xml:space="preserve">1.84679210186005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85021865367889</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,13 +2498,13 @@
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83993947505951</t>
+    <t xml:space="preserve">1.8399395942688</t>
   </si>
   <si>
     <t xml:space="preserve">1.8656370639801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85878443717957</t>
+    <t xml:space="preserve">1.85878455638885</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
@@ -2519,13 +2519,13 @@
     <t xml:space="preserve">1.96157419681549</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92902433872223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89990043640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92217147350311</t>
+    <t xml:space="preserve">1.92902421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89990031719208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9221715927124</t>
   </si>
   <si>
     <t xml:space="preserve">1.89133453369141</t>
@@ -2537,34 +2537,34 @@
     <t xml:space="preserve">1.86735022068024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89818727970123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420284748077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88790810108185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91017937660217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619482517242</t>
+    <t xml:space="preserve">1.89818716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88790822029114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91017949581146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619494438171</t>
   </si>
   <si>
     <t xml:space="preserve">1.8450790643692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84165287017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81595504283905</t>
+    <t xml:space="preserve">1.84165275096893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81595516204834</t>
   </si>
   <si>
     <t xml:space="preserve">1.80910265445709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78340518474579</t>
+    <t xml:space="preserve">1.7834050655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169178962708</t>
@@ -2585,43 +2585,43 @@
     <t xml:space="preserve">1.73201024532318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67547559738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65491771697998</t>
+    <t xml:space="preserve">1.67547571659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65491759777069</t>
   </si>
   <si>
     <t xml:space="preserve">1.6711927652359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67890202999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69774687290192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858369350433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74742865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70973896980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79197096824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78683125972748</t>
+    <t xml:space="preserve">1.67890214920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69774675369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858381271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7474285364151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70973908901215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79197084903717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7782655954361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78683137893677</t>
   </si>
   <si>
     <t xml:space="preserve">1.78854465484619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8039630651474</t>
+    <t xml:space="preserve">1.80396294593811</t>
   </si>
   <si>
     <t xml:space="preserve">1.76627349853516</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025769233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85535788536072</t>
+    <t xml:space="preserve">1.79025757312775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85535800457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671390533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92559766769409</t>
+    <t xml:space="preserve">1.96671378612518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9255975484848</t>
   </si>
   <si>
     <t xml:space="preserve">1.89476072788239</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">1.81938171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82109463214874</t>
+    <t xml:space="preserve">1.82109451293945</t>
   </si>
   <si>
     <t xml:space="preserve">1.77483928203583</t>
@@ -2663,16 +2663,16 @@
     <t xml:space="preserve">1.79711043834686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79882347583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80225002765656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141308784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83137381076813</t>
+    <t xml:space="preserve">1.798823595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80224990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141296863556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83137357234955</t>
   </si>
   <si>
     <t xml:space="preserve">1.83479988574982</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">1.85364484786987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86221086978912</t>
+    <t xml:space="preserve">1.86221063137054</t>
   </si>
   <si>
     <t xml:space="preserve">1.81252884864807</t>
@@ -2693,40 +2693,40 @@
     <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73886275291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74400222301483</t>
+    <t xml:space="preserve">1.73886287212372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74400234222412</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428128242493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74228918552399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.767986536026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79539716243744</t>
+    <t xml:space="preserve">1.75428140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7422890663147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76798641681671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79539728164673</t>
   </si>
   <si>
     <t xml:space="preserve">1.8245210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8142421245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80053687095642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76969969272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738925933838</t>
+    <t xml:space="preserve">1.81424200534821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80053663253784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76969981193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738937854767</t>
   </si>
   <si>
     <t xml:space="preserve">1.83308696746826</t>
@@ -2735,16 +2735,16 @@
     <t xml:space="preserve">1.86049747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87077653408051</t>
+    <t xml:space="preserve">1.87077665328979</t>
   </si>
   <si>
     <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96328747272491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01639580726624</t>
+    <t xml:space="preserve">1.9632875919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01639556884766</t>
   </si>
   <si>
     <t xml:space="preserve">2.03010082244873</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">2.01982188224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01810884475708</t>
+    <t xml:space="preserve">2.0181086063385</t>
   </si>
   <si>
     <t xml:space="preserve">2.01468253135681</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">2.03352737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98898494243622</t>
+    <t xml:space="preserve">1.98898482322693</t>
   </si>
   <si>
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723286628723</t>
+    <t xml:space="preserve">2.04723262786865</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0438060760498</t>
+    <t xml:space="preserve">2.04380631446838</t>
   </si>
   <si>
     <t xml:space="preserve">2.07635641098022</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209303855896</t>
+    <t xml:space="preserve">2.04209327697754</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">2.07293009757996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08149600028992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06607747077942</t>
+    <t xml:space="preserve">2.08149576187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06607723236084</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2816,13 +2816,13 @@
     <t xml:space="preserve">2.14316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12261176109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13460397720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17400670051575</t>
+    <t xml:space="preserve">2.12261152267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13460421562195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17400693893433</t>
   </si>
   <si>
     <t xml:space="preserve">2.18257260322571</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1620147228241</t>
+    <t xml:space="preserve">2.16201448440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
@@ -2846,43 +2846,43 @@
     <t xml:space="preserve">2.18942546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2271146774292</t>
+    <t xml:space="preserve">2.22711491584778</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24082016944885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425332069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24938583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24424648284912</t>
+    <t xml:space="preserve">2.24082040786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253344535828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24938607215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24424624443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1877121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19970440864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20998311042786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23739409446716</t>
+    <t xml:space="preserve">2.18771195411682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19970464706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20998334884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23739385604858</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452566146851</t>
+    <t xml:space="preserve">2.25452542304993</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">2.27165722846985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25281262397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25224590301514</t>
+    <t xml:space="preserve">2.25281238555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25224566459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20247220993042</t>
+    <t xml:space="preserve">2.202472448349</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1473662853241</t>
+    <t xml:space="preserve">2.14736604690552</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847804069519</t>
+    <t xml:space="preserve">2.13847780227661</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136045455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647384643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536209106445</t>
+    <t xml:space="preserve">2.21136069297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647408485413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536185264587</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202610969543</t>
+    <t xml:space="preserve">2.22202634811401</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25580096244812</t>
+    <t xml:space="preserve">2.2558012008667</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379700660706</t>
+    <t xml:space="preserve">2.30379676818848</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335090637207</t>
+    <t xml:space="preserve">2.32335066795349</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3873450756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623332023621</t>
+    <t xml:space="preserve">2.38734531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623308181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3047,22 +3047,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36423587799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201212882996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445567131042</t>
+    <t xml:space="preserve">2.36956858634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3642361164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068058013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490153312683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445543289185</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27890992164612</t>
+    <t xml:space="preserve">2.2789101600647</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691319465637</t>
+    <t xml:space="preserve">2.24691295623779</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889594078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534064292908</t>
+    <t xml:space="preserve">2.43889617919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600653648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534088134766</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332945823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49755764007568</t>
+    <t xml:space="preserve">2.56332969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4975574016571</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5419979095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555344581604</t>
+    <t xml:space="preserve">2.54199814796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555320739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222445487976</t>
+    <t xml:space="preserve">2.49222469329834</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3173,40 +3173,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801795959473</t>
+    <t xml:space="preserve">2.31801772117615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046102523804</t>
+    <t xml:space="preserve">2.33046126365662</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290456771851</t>
+    <t xml:space="preserve">2.34290432929993</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579397201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31090712547302</t>
+    <t xml:space="preserve">2.33579421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3109073638916</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646685600281</t>
+    <t xml:space="preserve">2.26646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2006950378418</t>
+    <t xml:space="preserve">2.20069479942322</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357721328735</t>
+    <t xml:space="preserve">2.27357745170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492274284363</t>
+    <t xml:space="preserve">2.13492298126221</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937024116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0247106552124</t>
+    <t xml:space="preserve">2.09937047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02471041679382</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893136978149</t>
+    <t xml:space="preserve">2.03893113136292</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04070901870728</t>
+    <t xml:space="preserve">2.0407087802887</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026291847229</t>
+    <t xml:space="preserve">2.06026268005371</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491599082947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047500610352</t>
+    <t xml:space="preserve">2.21491575241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802495002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047524452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759259223938</t>
+    <t xml:space="preserve">2.09759283065796</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15625429153442</t>
+    <t xml:space="preserve">2.156254529953</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381098747253</t>
+    <t xml:space="preserve">2.14381074905396</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272020339966</t>
+    <t xml:space="preserve">1.91272008419037</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8540586233139</t>
+    <t xml:space="preserve">1.85405874252319</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495118141174</t>
+    <t xml:space="preserve">1.81495106220245</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738725662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494407176971</t>
+    <t xml:space="preserve">1.90738713741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494395256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8860559463501</t>
+    <t xml:space="preserve">1.88605582714081</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75540089607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251137256622</t>
+    <t xml:space="preserve">1.7554007768631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251125335693</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317702770233</t>
+    <t xml:space="preserve">1.77317690849304</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -4569,6 +4569,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.92200005054474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87300002574921</t>
   </si>
 </sst>
 </file>
@@ -60758,27 +60761,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6494212963</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>2010193</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>1.92599999904633</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>1.8639999628067</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>1.92599999904633</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>1944123</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>1.90600001811981</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>1.87100005149841</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>1.87999999523163</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>1.89300000667572</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1509</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494907407</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>2131561</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>1.90299999713898</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>1.86899995803833</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>1.88999998569489</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>1.87300002574921</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.03189921379089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549718856812</t>
+    <t xml:space="preserve">1.0354973077774</t>
   </si>
   <si>
     <t xml:space="preserve">1.02974045276642</t>
@@ -59,73 +59,73 @@
     <t xml:space="preserve">1.00311553478241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0261424779892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959169864655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983686327934265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976906776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791142940521</t>
+    <t xml:space="preserve">1.02614259719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959193706512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98368638753891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976966381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791083335876</t>
   </si>
   <si>
     <t xml:space="preserve">0.951304614543915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913885712623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93403422832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341922283173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95778101682663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453428268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99016273021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929770946503</t>
+    <t xml:space="preserve">0.913885653018951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95778089761734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453487873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99016284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929592132568</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9923215508461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955622255802155</t>
+    <t xml:space="preserve">0.992321610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622136592865</t>
   </si>
   <si>
     <t xml:space="preserve">0.941949844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914605379104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473620891571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921801209449768</t>
+    <t xml:space="preserve">0.914605259895325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473561286926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.921801149845123</t>
   </si>
   <si>
     <t xml:space="preserve">0.947706758975983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970733821392059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368984699249</t>
+    <t xml:space="preserve">0.970733880996704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368805885315</t>
   </si>
   <si>
     <t xml:space="preserve">0.99879789352417</t>
@@ -134,16 +134,16 @@
     <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03621685504913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110540866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05636560916901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686214447021</t>
+    <t xml:space="preserve">1.03621697425842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110552787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05636548995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0268622636795</t>
   </si>
   <si>
     <t xml:space="preserve">1.02326428890228</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0585241317749</t>
+    <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
     <t xml:space="preserve">1.03981482982635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04341280460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02542293071747</t>
+    <t xml:space="preserve">1.04341268539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247012615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02542281150818</t>
   </si>
   <si>
     <t xml:space="preserve">1.06572031974792</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">1.11609196662903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120341300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14919328689575</t>
+    <t xml:space="preserve">1.13120329380035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14919340610504</t>
   </si>
   <si>
     <t xml:space="preserve">1.1355208158493</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">1.14343655109406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12616634368896</t>
+    <t xml:space="preserve">1.12616622447968</t>
   </si>
   <si>
     <t xml:space="preserve">1.11897027492523</t>
@@ -200,97 +200,97 @@
     <t xml:space="preserve">1.12544667720795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336229324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14199733734131</t>
+    <t xml:space="preserve">1.14127767086029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336217403412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1419974565506</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12976431846619</t>
+    <t xml:space="preserve">1.1297641992569</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048386573792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13696026802063</t>
+    <t xml:space="preserve">1.13696014881134</t>
   </si>
   <si>
     <t xml:space="preserve">1.14415609836578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767993450165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703440666199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279114246368</t>
+    <t xml:space="preserve">1.13767981529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703452587128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279126167297</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13624060153961</t>
+    <t xml:space="preserve">1.13624036312103</t>
   </si>
   <si>
     <t xml:space="preserve">1.12328767776489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10457849502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.121129155159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1563892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14847362041473</t>
+    <t xml:space="preserve">1.10457825660706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12112903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15638911724091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14847350120544</t>
   </si>
   <si>
     <t xml:space="preserve">1.1621458530426</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15495014190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991271495819</t>
+    <t xml:space="preserve">1.15495002269745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991283416748</t>
   </si>
   <si>
     <t xml:space="preserve">1.15063238143921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13480138778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10817635059357</t>
+    <t xml:space="preserve">1.13480126857758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10817623138428</t>
   </si>
   <si>
     <t xml:space="preserve">1.15423047542572</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12760531902313</t>
+    <t xml:space="preserve">1.12760543823242</t>
   </si>
   <si>
     <t xml:space="preserve">1.11249399185181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11177432537079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14055824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17222023010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2010041475296</t>
+    <t xml:space="preserve">1.1117742061615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14055812358856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17222034931183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20100402832031</t>
   </si>
   <si>
     <t xml:space="preserve">1.18733167648315</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">1.18085563182831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19884538650513</t>
+    <t xml:space="preserve">1.19884526729584</t>
   </si>
   <si>
     <t xml:space="preserve">1.18661224842072</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">1.17006146907806</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18805146217346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1858925819397</t>
+    <t xml:space="preserve">1.18805134296417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18589270114899</t>
   </si>
   <si>
     <t xml:space="preserve">1.19308853149414</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07795333862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09306490421295</t>
+    <t xml:space="preserve">1.07795345783234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514584064484</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07290589809418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01392221450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577243328094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048279762268</t>
+    <t xml:space="preserve">1.07290577888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01392209529877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577422142029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944244861603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048303604126</t>
   </si>
   <si>
     <t xml:space="preserve">1.0378143787384</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">1.04901361465454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01541554927826</t>
+    <t xml:space="preserve">1.01541543006897</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">1.04080092906952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03408133983612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01914858818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885472774506</t>
+    <t xml:space="preserve">1.03408122062683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01914870738983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885484695435</t>
   </si>
   <si>
     <t xml:space="preserve">1.03557443618774</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">1.04677379131317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06767952442169</t>
+    <t xml:space="preserve">1.0676794052124</t>
   </si>
   <si>
     <t xml:space="preserve">1.06469297409058</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">1.07738566398621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07813227176666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754455089569</t>
+    <t xml:space="preserve">1.07813239097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754478931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634531497955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709192276001</t>
+    <t xml:space="preserve">1.08634519577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709168434143</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978461265564</t>
@@ -425,58 +425,58 @@
     <t xml:space="preserve">1.10277104377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11173057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10501086711884</t>
+    <t xml:space="preserve">1.11173045635223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
     <t xml:space="preserve">1.10874402523041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09007835388184</t>
+    <t xml:space="preserve">1.09007847309113</t>
   </si>
   <si>
     <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06170654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05946660041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05125367641449</t>
+    <t xml:space="preserve">1.06170666217804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05946671962738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0512535572052</t>
   </si>
   <si>
     <t xml:space="preserve">1.06618630886078</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07887887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127770900726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10575759410858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114285469055</t>
+    <t xml:space="preserve">1.07887899875641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127782821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10575747489929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114297389984</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10799741744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455800056458</t>
+    <t xml:space="preserve">1.10799729824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426437854767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322379112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455811977386</t>
   </si>
   <si>
     <t xml:space="preserve">1.08037221431732</t>
@@ -488,16 +488,16 @@
     <t xml:space="preserve">1.0923182964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08783864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11247730255127</t>
+    <t xml:space="preserve">1.08783853054047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
     <t xml:space="preserve">1.14383542537689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12666320800781</t>
+    <t xml:space="preserve">1.12666308879852</t>
   </si>
   <si>
     <t xml:space="preserve">1.11994349956512</t>
@@ -509,10 +509,10 @@
     <t xml:space="preserve">1.08933174610138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10053110122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14980864524841</t>
+    <t xml:space="preserve">1.1005312204361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14980852603912</t>
   </si>
   <si>
     <t xml:space="preserve">1.17668735980988</t>
@@ -533,13 +533,13 @@
     <t xml:space="preserve">1.22521829605103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19535303115845</t>
+    <t xml:space="preserve">1.19535315036774</t>
   </si>
   <si>
     <t xml:space="preserve">1.21476531028748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22148513793945</t>
+    <t xml:space="preserve">1.22148525714874</t>
   </si>
   <si>
     <t xml:space="preserve">1.20356595516205</t>
@@ -560,10 +560,10 @@
     <t xml:space="preserve">1.19311308860779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519402503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991934776306</t>
+    <t xml:space="preserve">1.17519414424896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991922855377</t>
   </si>
   <si>
     <t xml:space="preserve">1.06543970108032</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04528045654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0527468919754</t>
+    <t xml:space="preserve">1.04528057575226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05274677276611</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02512168884277</t>
+    <t xml:space="preserve">1.02512156963348</t>
   </si>
   <si>
     <t xml:space="preserve">1.05200028419495</t>
@@ -596,34 +596,34 @@
     <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08111870288849</t>
+    <t xml:space="preserve">1.08111882209778</t>
   </si>
   <si>
     <t xml:space="preserve">1.09530472755432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098408699036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471724510193</t>
+    <t xml:space="preserve">1.11098384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471700668335</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412964344025</t>
+    <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487613201141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14906215667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279519557953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16175472736359</t>
+    <t xml:space="preserve">1.14906203746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279507637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16175484657288</t>
   </si>
   <si>
     <t xml:space="preserve">1.16698110103607</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.1714608669281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17220771312714</t>
+    <t xml:space="preserve">1.17220747470856</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
@@ -653,43 +653,43 @@
     <t xml:space="preserve">1.16250145435333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16847443580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14458215236664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890315055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12293004989624</t>
+    <t xml:space="preserve">1.16847455501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14458227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890303134918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055525302887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1647412776947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14308893680573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18042063713074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18863344192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17967391014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18191373348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21177887916565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19609951972961</t>
+    <t xml:space="preserve">1.16474115848541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14308905601501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18042051792145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18863332271576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1796737909317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18191361427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21177875995636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1960996389389</t>
   </si>
   <si>
     <t xml:space="preserve">1.20879232883453</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">1.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551203727722</t>
+    <t xml:space="preserve">1.21551215648651</t>
   </si>
   <si>
     <t xml:space="preserve">1.22447156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22820460796356</t>
+    <t xml:space="preserve">1.22820472717285</t>
   </si>
   <si>
     <t xml:space="preserve">1.22596490383148</t>
@@ -719,43 +719,43 @@
     <t xml:space="preserve">1.25806987285614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899963855743</t>
+    <t xml:space="preserve">1.32899951934814</t>
   </si>
   <si>
     <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37379765510559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38574349880219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41486191749573</t>
+    <t xml:space="preserve">1.37379741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3857433795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41486203670502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42979443073273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4335275888443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547379016876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42008829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784846782684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45293998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46339297294617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45741987228394</t>
+    <t xml:space="preserve">1.43352746963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4200884103775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41784858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45294010639191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46339285373688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
@@ -764,19 +764,19 @@
     <t xml:space="preserve">1.46488606929779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44099390506744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950057029724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920682907104</t>
+    <t xml:space="preserve">1.44099414348602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950068950653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920694828033</t>
   </si>
   <si>
     <t xml:space="preserve">1.44024741649628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42083501815796</t>
+    <t xml:space="preserve">1.42083489894867</t>
   </si>
   <si>
     <t xml:space="preserve">1.40664899349213</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">1.44846022129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44995367527008</t>
+    <t xml:space="preserve">1.44995355606079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472718238831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48355174064636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45592641830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49325799942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952484130859</t>
+    <t xml:space="preserve">1.44472706317902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48355185985565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45592665672302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49325811862946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4895247220993</t>
   </si>
   <si>
     <t xml:space="preserve">1.51267051696777</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">1.5305894613266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506922721863</t>
+    <t xml:space="preserve">1.53506934642792</t>
   </si>
   <si>
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104208946228</t>
+    <t xml:space="preserve">1.54104220867157</t>
   </si>
   <si>
     <t xml:space="preserve">1.49251127243042</t>
@@ -827,22 +827,22 @@
     <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55298817157745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57538723945618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927916526794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62018501758575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56344127655029</t>
+    <t xml:space="preserve">1.55298829078674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57538712024689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733296394348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927928447723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62018513679504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
     <t xml:space="preserve">1.578373670578</t>
@@ -851,49 +851,49 @@
     <t xml:space="preserve">1.60226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285355567932</t>
+    <t xml:space="preserve">1.58285331726074</t>
   </si>
   <si>
     <t xml:space="preserve">1.58882641792297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389402389526</t>
+    <t xml:space="preserve">1.57389414310455</t>
   </si>
   <si>
     <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61719846725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6425838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959753513336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63213098049164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64557027816772</t>
+    <t xml:space="preserve">1.61719834804535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258372783661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959741592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63213109970093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64557039737701</t>
   </si>
   <si>
     <t xml:space="preserve">1.63362419605255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63810408115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65846991539001</t>
+    <t xml:space="preserve">1.63810420036316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6584700345993</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6646181344986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463651180267</t>
+    <t xml:space="preserve">1.66461801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463663101196</t>
   </si>
   <si>
     <t xml:space="preserve">1.5893030166626</t>
@@ -908,43 +908,43 @@
     <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56317317485809</t>
+    <t xml:space="preserve">1.5631730556488</t>
   </si>
   <si>
     <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56624758243561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54626572132111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58008062839508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58776593208313</t>
+    <t xml:space="preserve">1.56624734401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5462658405304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58008074760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58776581287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.60467338562012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.600062251091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59084010124207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852504730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61389577388763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63080310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543250083923</t>
+    <t xml:space="preserve">1.60006213188171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59083986282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852516651154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61389565467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63080298900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543262004852</t>
   </si>
   <si>
     <t xml:space="preserve">1.63848829269409</t>
@@ -959,10 +959,10 @@
     <t xml:space="preserve">1.61696982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65232169628143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998850345612</t>
+    <t xml:space="preserve">1.65232181549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998862266541</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691445350647</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">1.70150697231293</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69997000694275</t>
+    <t xml:space="preserve">1.69996988773346</t>
   </si>
   <si>
     <t xml:space="preserve">1.72609984874725</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">1.76298868656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75991463661194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145195960999</t>
+    <t xml:space="preserve">1.75991475582123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7614518404007</t>
   </si>
   <si>
     <t xml:space="preserve">1.7460812330246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763669490814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532199859619</t>
+    <t xml:space="preserve">1.72763657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353218793869</t>
   </si>
   <si>
     <t xml:space="preserve">1.74915540218353</t>
@@ -1019,37 +1019,37 @@
     <t xml:space="preserve">1.76913714408875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7768223285675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77221095561981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76759994029999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834067821503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293343544006</t>
+    <t xml:space="preserve">1.77682220935822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77221083641052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7675998210907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79834091663361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293355464935</t>
   </si>
   <si>
     <t xml:space="preserve">1.83984112739563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79372978210449</t>
+    <t xml:space="preserve">1.80295193195343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79372990131378</t>
   </si>
   <si>
     <t xml:space="preserve">1.7875816822052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74761819839478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995151042938</t>
+    <t xml:space="preserve">1.74761831760406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995174884796</t>
   </si>
   <si>
     <t xml:space="preserve">1.71534061431885</t>
@@ -1058,19 +1058,19 @@
     <t xml:space="preserve">1.72456276416779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74454426765442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071110248566</t>
+    <t xml:space="preserve">1.74454438686371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071098327637</t>
   </si>
   <si>
     <t xml:space="preserve">1.71380364894867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75376653671265</t>
+    <t xml:space="preserve">1.75376641750336</t>
   </si>
   <si>
     <t xml:space="preserve">1.75222945213318</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">1.81217420101166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80602598190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985938549042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987764358521</t>
+    <t xml:space="preserve">1.80602610111237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987788200378</t>
   </si>
   <si>
     <t xml:space="preserve">1.78143334388733</t>
@@ -1097,37 +1097,37 @@
     <t xml:space="preserve">1.80756330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81524848937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521149635315</t>
+    <t xml:space="preserve">1.81524837017059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521137714386</t>
   </si>
   <si>
     <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89824867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285980701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671182632446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8536741733551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84291517734528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832218170166</t>
+    <t xml:space="preserve">1.89824855327606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285992622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671146869659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056360721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215582370758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367441177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84291505813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832230091095</t>
   </si>
   <si>
     <t xml:space="preserve">1.85674846172333</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">1.87211918830872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90439677238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358216762543</t>
+    <t xml:space="preserve">1.90439665317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358228683472</t>
   </si>
   <si>
     <t xml:space="preserve">1.93360078334808</t>
@@ -1148,25 +1148,25 @@
     <t xml:space="preserve">1.92130434513092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93821167945862</t>
+    <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
     <t xml:space="preserve">1.93052649497986</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95050835609436</t>
+    <t xml:space="preserve">1.95050811767578</t>
   </si>
   <si>
     <t xml:space="preserve">1.97356402873993</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97971200942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98124921321869</t>
+    <t xml:space="preserve">1.97971189022064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202670574188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9812490940094</t>
   </si>
   <si>
     <t xml:space="preserve">1.94436001777649</t>
@@ -1178,10 +1178,10 @@
     <t xml:space="preserve">1.99969363212585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99661958217621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973038673401</t>
+    <t xml:space="preserve">1.99661946296692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973014831543</t>
   </si>
   <si>
     <t xml:space="preserve">2.00123071670532</t>
@@ -1193,46 +1193,46 @@
     <t xml:space="preserve">1.97510063648224</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96434164047241</t>
+    <t xml:space="preserve">1.96434152126312</t>
   </si>
   <si>
     <t xml:space="preserve">1.92745268344879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93206357955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284142971039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665609836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736043930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01660084724426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511901378632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9489711523056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9873970746994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656409263611</t>
+    <t xml:space="preserve">1.93206369876862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92284166812897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665621757507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736020088196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01660132408142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511913299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897103309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195283889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808256149292</t>
+    <t xml:space="preserve">2.07039761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.1057493686676</t>
@@ -1244,25 +1244,25 @@
     <t xml:space="preserve">2.02582311630249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01198983192444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00737881660461</t>
+    <t xml:space="preserve">2.01199007034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00737857818604</t>
   </si>
   <si>
     <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119372367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287818431854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830404281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365591526031</t>
+    <t xml:space="preserve">2.04119348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830380439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365579605103</t>
   </si>
   <si>
     <t xml:space="preserve">1.82600772380829</t>
@@ -1274,43 +1274,43 @@
     <t xml:space="preserve">1.86443388462067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87672996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83522999286652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85982251167297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902652263641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447075843811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87058186531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515624523163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363753795624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134133815765</t>
+    <t xml:space="preserve">1.87672984600067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83522987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85982275009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441526889801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902640342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447063922882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87058198451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515612602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132260322571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363741874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134121894836</t>
   </si>
   <si>
     <t xml:space="preserve">1.87519299983978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84598910808563</t>
+    <t xml:space="preserve">1.84598898887634</t>
   </si>
   <si>
     <t xml:space="preserve">1.95819330215454</t>
@@ -1319,55 +1319,55 @@
     <t xml:space="preserve">1.95204520225525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94282305240631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591547966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898976802826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828578472137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87980425357819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361916065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743406772614</t>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8582855463028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8798041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743394851685</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667483329773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94589734077454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96587872505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9120819568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88595223426819</t>
+    <t xml:space="preserve">1.94589710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587860584259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91208183765411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859521150589</t>
   </si>
   <si>
     <t xml:space="preserve">1.84752607345581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84137809276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526674747467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78297019004822</t>
+    <t xml:space="preserve">1.84137785434723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450727462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78297030925751</t>
   </si>
   <si>
     <t xml:space="preserve">1.71226632595062</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">1.66769230365753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62004387378693</t>
+    <t xml:space="preserve">1.62004399299622</t>
   </si>
   <si>
     <t xml:space="preserve">1.63234031200409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6492475271225</t>
+    <t xml:space="preserve">1.64924764633179</t>
   </si>
   <si>
     <t xml:space="preserve">1.66000711917877</t>
@@ -1391,19 +1391,19 @@
     <t xml:space="preserve">1.64771068096161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62772905826569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5954509973526</t>
+    <t xml:space="preserve">1.6277289390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59545111656189</t>
   </si>
   <si>
     <t xml:space="preserve">1.69535887241364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73224794864655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72624862194061</t>
+    <t xml:space="preserve">1.73224806785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72624850273132</t>
   </si>
   <si>
     <t xml:space="preserve">1.74846136569977</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">1.72942185401917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70244908332825</t>
+    <t xml:space="preserve">1.70244920253754</t>
   </si>
   <si>
     <t xml:space="preserve">1.71038222312927</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">1.73735499382019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528813362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78178060054779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288685321808</t>
+    <t xml:space="preserve">1.74528801441193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7817804813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79288673400879</t>
   </si>
   <si>
     <t xml:space="preserve">1.79764676094055</t>
@@ -1445,64 +1445,64 @@
     <t xml:space="preserve">1.8119261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77543389797211</t>
+    <t xml:space="preserve">1.7754340171814</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971362113953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79129993915558</t>
+    <t xml:space="preserve">1.78971350193024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79130005836487</t>
   </si>
   <si>
     <t xml:space="preserve">1.78019380569458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985914707184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779264450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82461929321289</t>
+    <t xml:space="preserve">1.81985926628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779252529144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8246191740036</t>
   </si>
   <si>
     <t xml:space="preserve">1.81668615341187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79923319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384746074677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860724925995</t>
+    <t xml:space="preserve">1.79923331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384734153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860736846924</t>
   </si>
   <si>
     <t xml:space="preserve">1.88649773597717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856471538544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140352725983</t>
+    <t xml:space="preserve">1.87856459617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
     <t xml:space="preserve">1.91823029518127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84207224845886</t>
+    <t xml:space="preserve">1.84207201004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.86269843578339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8753913640976</t>
+    <t xml:space="preserve">1.87539148330688</t>
   </si>
   <si>
     <t xml:space="preserve">1.87380480766296</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.83572554588318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80875313282013</t>
+    <t xml:space="preserve">1.80875301361084</t>
   </si>
   <si>
     <t xml:space="preserve">1.80716669559479</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">1.73576819896698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73418164253235</t>
+    <t xml:space="preserve">1.73418176174164</t>
   </si>
   <si>
     <t xml:space="preserve">1.73259508609772</t>
@@ -1544,37 +1544,37 @@
     <t xml:space="preserve">1.69292938709259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64057075977325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60249173641205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61677157878876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62787771224976</t>
+    <t xml:space="preserve">1.64057087898254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60249185562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61677145957947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62787783145905</t>
   </si>
   <si>
     <t xml:space="preserve">1.64374399185181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64215743541718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64533066749573</t>
+    <t xml:space="preserve">1.64215731620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64533054828644</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196901798248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76908755302429</t>
+    <t xml:space="preserve">1.76908767223358</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975627422333</t>
+    <t xml:space="preserve">1.68975615501404</t>
   </si>
   <si>
     <t xml:space="preserve">1.66119694709778</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">1.6754766702652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071664333344</t>
+    <t xml:space="preserve">1.67071652412415</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58821225166321</t>
+    <t xml:space="preserve">1.58821213245392</t>
   </si>
   <si>
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54219996929169</t>
+    <t xml:space="preserve">1.5421998500824</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046752929688</t>
+    <t xml:space="preserve">1.51046741008759</t>
   </si>
   <si>
     <t xml:space="preserve">1.54140675067902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53109359741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52554047107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54061329364777</t>
+    <t xml:space="preserve">1.5310937166214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52554035186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54061341285706</t>
   </si>
   <si>
     <t xml:space="preserve">1.53268015384674</t>
@@ -1646,13 +1646,13 @@
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57393252849579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56520593166351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63105094432831</t>
+    <t xml:space="preserve">1.57393264770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5652060508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6310510635376</t>
   </si>
   <si>
     <t xml:space="preserve">1.62311780452728</t>
@@ -1661,34 +1661,34 @@
     <t xml:space="preserve">1.64691734313965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65167713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62629127502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59614527225494</t>
+    <t xml:space="preserve">1.65167701244354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62629103660583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59614539146423</t>
   </si>
   <si>
     <t xml:space="preserve">1.60883831977844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55885946750641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53664684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54933965206146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55489313602448</t>
+    <t xml:space="preserve">1.5588595867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53664696216583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54933977127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
     <t xml:space="preserve">1.53902673721313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679260730743</t>
+    <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
     <t xml:space="preserve">1.54299330711365</t>
@@ -1700,10 +1700,10 @@
     <t xml:space="preserve">1.51998710632324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50729429721832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5993185043335</t>
+    <t xml:space="preserve">1.50729417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59931862354279</t>
   </si>
   <si>
     <t xml:space="preserve">1.60090506076813</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58662545681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65485048294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768929481506</t>
+    <t xml:space="preserve">1.58662557601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65485036373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768941402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.6627836227417</t>
@@ -1736,16 +1736,16 @@
     <t xml:space="preserve">1.70403587818146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70879566669464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562243461609</t>
+    <t xml:space="preserve">1.70879578590393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562255382538</t>
   </si>
   <si>
     <t xml:space="preserve">1.7135556936264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68816936016083</t>
+    <t xml:space="preserve">1.68816947937012</t>
   </si>
   <si>
     <t xml:space="preserve">1.68658268451691</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">1.65326380729675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67388987541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340969085693</t>
+    <t xml:space="preserve">1.6738897562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340957164764</t>
   </si>
   <si>
     <t xml:space="preserve">1.65643703937531</t>
@@ -1766,34 +1766,34 @@
     <t xml:space="preserve">1.65802347660065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68182301521301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672880649567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80557990074158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827294826508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78812694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81509959697723</t>
+    <t xml:space="preserve">1.68182289600372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80557978153229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827282905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303261756897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7881270647049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81509947776794</t>
   </si>
   <si>
     <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81033968925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399298667908</t>
+    <t xml:space="preserve">1.81033957004547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399310588837</t>
   </si>
   <si>
     <t xml:space="preserve">1.83889889717102</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">1.8008199930191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69134283065796</t>
+    <t xml:space="preserve">1.69134271144867</t>
   </si>
   <si>
     <t xml:space="preserve">1.68023633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65961015224457</t>
+    <t xml:space="preserve">1.65961039066315</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422429561615</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76274085044861</t>
+    <t xml:space="preserve">1.7627409696579</t>
   </si>
   <si>
     <t xml:space="preserve">1.77226054668427</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">1.75798106193542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83096587657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90395081043243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90077722072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88967096805573</t>
+    <t xml:space="preserve">1.83096575737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90395069122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90077710151672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88967084884644</t>
   </si>
   <si>
     <t xml:space="preserve">1.8884345293045</t>
@@ -60813,7 +60813,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6494907407</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>2131561</v>
@@ -60834,6 +60834,32 @@
         <v>1519</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6495949074</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>3086085</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>1.87300002574921</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>1.82200002670288</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>1.86500000953674</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>1.84800004959106</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269313812256</t>
+    <t xml:space="preserve">1.04269325733185</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.03189933300018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549718856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974045276642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00743305683136</t>
+    <t xml:space="preserve">1.0354973077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974057197571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00743293762207</t>
   </si>
   <si>
     <t xml:space="preserve">1.0031156539917</t>
@@ -65,31 +65,31 @@
     <t xml:space="preserve">1.00959181785583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983686566352844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976906776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791083335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304733753204</t>
+    <t xml:space="preserve">0.983686327934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976966381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791142940521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95130467414856</t>
   </si>
   <si>
     <t xml:space="preserve">0.913885712623596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934034407138824</t>
+    <t xml:space="preserve">0.934034287929535</t>
   </si>
   <si>
     <t xml:space="preserve">0.956341743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.957780838012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453249454498</t>
+    <t xml:space="preserve">0.95778101682663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453368663788</t>
   </si>
   <si>
     <t xml:space="preserve">0.990162909030914</t>
@@ -101,43 +101,43 @@
     <t xml:space="preserve">1.0146290063858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.992321372032166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955622255802155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941950023174286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914605319499969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473501682281</t>
+    <t xml:space="preserve">0.992321670055389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622136592865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941949903964996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914605259895325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473442077637</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801209449768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947706818580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368805885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998797833919525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03117954730988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03621697425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110540866852</t>
+    <t xml:space="preserve">0.947706758975983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733761787415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97936886548996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99879777431488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03117966651917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03621685504913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110528945923</t>
   </si>
   <si>
     <t xml:space="preserve">1.05636548995972</t>
@@ -155,118 +155,118 @@
     <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03981482982635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02542293071747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06572020053864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723391056061</t>
+    <t xml:space="preserve">1.03981494903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341280460358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247012615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02542304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06572031974792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723367214203</t>
   </si>
   <si>
     <t xml:space="preserve">1.11609196662903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120341300964</t>
+    <t xml:space="preserve">1.13120329380035</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13552093505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14343655109406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12616622447968</t>
+    <t xml:space="preserve">1.1355208158493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14343678951263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12616634368896</t>
   </si>
   <si>
     <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256824970245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12544679641724</t>
+    <t xml:space="preserve">1.12256813049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12544667720795</t>
   </si>
   <si>
     <t xml:space="preserve">1.14127779006958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13336205482483</t>
+    <t xml:space="preserve">1.13336229324341</t>
   </si>
   <si>
     <t xml:space="preserve">1.14199733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11681139469147</t>
+    <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
     <t xml:space="preserve">1.1297641992569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13048374652863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696014881134</t>
+    <t xml:space="preserve">1.13048386573792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696002960205</t>
   </si>
   <si>
     <t xml:space="preserve">1.14415609836578</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767969608307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703464508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279126167297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14487564563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13624060153961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12328791618347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10457825660706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12112891674042</t>
+    <t xml:space="preserve">1.13767981529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703440666199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279114246368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14487552642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1362407207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12328779697418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10457849502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12112903594971</t>
   </si>
   <si>
     <t xml:space="preserve">1.1563892364502</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14847385883331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16214609146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15495002269745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991295337677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1506325006485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13480150699615</t>
+    <t xml:space="preserve">1.14847362041473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16214597225189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15495014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991283416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15063261985779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13480138778687</t>
   </si>
   <si>
     <t xml:space="preserve">1.10817635059357</t>
@@ -281,97 +281,97 @@
     <t xml:space="preserve">1.11249399185181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1117742061615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14055824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17222046852112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20100426673889</t>
+    <t xml:space="preserve">1.11177444458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14055812358856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17222023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
     <t xml:space="preserve">1.18733179569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18085563182831</t>
+    <t xml:space="preserve">1.18085551261902</t>
   </si>
   <si>
     <t xml:space="preserve">1.19884538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18661212921143</t>
+    <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006158828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18805158138275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1858925819397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19308841228485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16862237453461</t>
+    <t xml:space="preserve">1.18805146217346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18589270114899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19308865070343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16862225532532</t>
   </si>
   <si>
     <t xml:space="preserve">1.09162557125092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08155143260956</t>
+    <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
     <t xml:space="preserve">1.07795345783234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306466579437</t>
+    <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514584064484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0938116312027</t>
+    <t xml:space="preserve">1.09381139278412</t>
   </si>
   <si>
     <t xml:space="preserve">1.07290589809418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01392233371735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577243328094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944244861603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048279762268</t>
+    <t xml:space="preserve">1.01392221450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577422142029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944232940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048291683197</t>
   </si>
   <si>
     <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0445339679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04901361465454</t>
+    <t xml:space="preserve">1.04453408718109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04901373386383</t>
   </si>
   <si>
     <t xml:space="preserve">1.01541543006897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00869560241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02288162708282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03333461284637</t>
+    <t xml:space="preserve">1.00869572162628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02288174629211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03333449363708</t>
   </si>
   <si>
     <t xml:space="preserve">1.04080092906952</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">1.03557431697845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05573344230652</t>
+    <t xml:space="preserve">1.05573332309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.04677402973175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06767952442169</t>
+    <t xml:space="preserve">1.0676794052124</t>
   </si>
   <si>
     <t xml:space="preserve">1.06469297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07738566398621</t>
+    <t xml:space="preserve">1.07738554477692</t>
   </si>
   <si>
     <t xml:space="preserve">1.07813227176666</t>
@@ -413,10 +413,10 @@
     <t xml:space="preserve">1.0990377664566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634507656097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709192276001</t>
+    <t xml:space="preserve">1.08634531497955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709180355072</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978449344635</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">1.10277104377747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11173045635223</t>
+    <t xml:space="preserve">1.11173057556152</t>
   </si>
   <si>
     <t xml:space="preserve">1.10501086711884</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10874402523041</t>
+    <t xml:space="preserve">1.1087441444397</t>
   </si>
   <si>
     <t xml:space="preserve">1.09007835388184</t>
@@ -440,25 +440,25 @@
     <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06170642375946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05946660041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0512535572052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0661860704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127794742584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10575747489929</t>
+    <t xml:space="preserve">1.06170654296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0594664812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05125367641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618630886078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887899875641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127782821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10575759410858</t>
   </si>
   <si>
     <t xml:space="preserve">1.13114297389984</t>
@@ -470,19 +470,19 @@
     <t xml:space="preserve">1.10799753665924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10426425933838</t>
+    <t xml:space="preserve">1.10426437854767</t>
   </si>
   <si>
     <t xml:space="preserve">1.11322379112244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09455823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037233352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202443599701</t>
+    <t xml:space="preserve">1.09455811977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037221431732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1020245552063</t>
   </si>
   <si>
     <t xml:space="preserve">1.0923182964325</t>
@@ -491,25 +491,25 @@
     <t xml:space="preserve">1.08783853054047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11247706413269</t>
+    <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
     <t xml:space="preserve">1.14383554458618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12666308879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994338035583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0826119184494</t>
+    <t xml:space="preserve">1.12666320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
     <t xml:space="preserve">1.08933174610138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1005312204361</t>
+    <t xml:space="preserve">1.10053110122681</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980864524841</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">1.17892730236053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20207262039185</t>
+    <t xml:space="preserve">1.20207273960114</t>
   </si>
   <si>
     <t xml:space="preserve">1.21700525283813</t>
@@ -533,16 +533,16 @@
     <t xml:space="preserve">1.22521829605103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19535303115845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21476519107819</t>
+    <t xml:space="preserve">1.19535291194916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21476542949677</t>
   </si>
   <si>
     <t xml:space="preserve">1.22148513793945</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356583595276</t>
+    <t xml:space="preserve">1.20356607437134</t>
   </si>
   <si>
     <t xml:space="preserve">1.18937993049622</t>
@@ -551,115 +551,115 @@
     <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16996777057648</t>
+    <t xml:space="preserve">1.16996765136719</t>
   </si>
   <si>
     <t xml:space="preserve">1.18490028381348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19311320781708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17519414424896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991934776306</t>
+    <t xml:space="preserve">1.19311308860779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17519402503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991946697235</t>
   </si>
   <si>
     <t xml:space="preserve">1.06543970108032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05722665786743</t>
+    <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
     <t xml:space="preserve">1.04528057575226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05274677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04304075241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02064204216003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02512168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05200016498566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02586817741394</t>
+    <t xml:space="preserve">1.0527468919754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0430406332016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02064180374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02512156963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05200028419495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02586829662323</t>
   </si>
   <si>
     <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08111870288849</t>
+    <t xml:space="preserve">1.08111882209778</t>
   </si>
   <si>
     <t xml:space="preserve">1.09530472755432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098396778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471724510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13188970088959</t>
+    <t xml:space="preserve">1.11098384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471712589264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
     <t xml:space="preserve">1.13412940502167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13487613201141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14906215667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279531478882</t>
+    <t xml:space="preserve">1.13487601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14906203746796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279519557953</t>
   </si>
   <si>
     <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16698110103607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15130198001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13636922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15727484226227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17146098613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220759391785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17594063282013</t>
+    <t xml:space="preserve">1.16698122024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15130186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13636946678162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15727496147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1714608669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220747470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
     <t xml:space="preserve">1.1729542016983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16250133514404</t>
+    <t xml:space="preserve">1.16250145435333</t>
   </si>
   <si>
     <t xml:space="preserve">1.16847443580627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14458239078522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890303134918</t>
+    <t xml:space="preserve">1.14458215236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890315055847</t>
   </si>
   <si>
     <t xml:space="preserve">1.12293004989624</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">1.15055525302887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1647412776947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14308905601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18042039871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18863332271576</t>
+    <t xml:space="preserve">1.16474115848541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14308893680573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18042051792145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
     <t xml:space="preserve">1.1796737909317</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21177899837494</t>
+    <t xml:space="preserve">1.21177875995636</t>
   </si>
   <si>
     <t xml:space="preserve">1.1960996389389</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">1.20879232883453</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19385969638824</t>
+    <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
     <t xml:space="preserve">1.20431268215179</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">1.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447156906128</t>
+    <t xml:space="preserve">1.21551215648651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447168827057</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820472717285</t>
@@ -719,34 +719,34 @@
     <t xml:space="preserve">1.25806987285614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899963855743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36409115791321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3737975358963</t>
+    <t xml:space="preserve">1.32899951934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3640912771225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486191749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979454994202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43352770805359</t>
+    <t xml:space="preserve">1.41486203670502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979443073273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4335275888443</t>
   </si>
   <si>
     <t xml:space="preserve">1.44547379016876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42008829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784858703613</t>
+    <t xml:space="preserve">1.4200884103775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41784870624542</t>
   </si>
   <si>
     <t xml:space="preserve">1.45293998718262</t>
@@ -761,43 +761,43 @@
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488606929779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44099402427673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43950068950653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024729728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083513736725</t>
+    <t xml:space="preserve">1.4648859500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44099390506744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43950080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920694828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024741649628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
     <t xml:space="preserve">1.40664899349213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44846045970917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44995367527008</t>
+    <t xml:space="preserve">1.44846034049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44995355606079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472706317902</t>
+    <t xml:space="preserve">1.44472718238831</t>
   </si>
   <si>
     <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45592665672302</t>
+    <t xml:space="preserve">1.45592653751373</t>
   </si>
   <si>
     <t xml:space="preserve">1.49325799942017</t>
@@ -806,79 +806,79 @@
     <t xml:space="preserve">1.48952496051788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51267027854919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53058958053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506922721863</t>
+    <t xml:space="preserve">1.51267051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5305894613266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506934642792</t>
   </si>
   <si>
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104208946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49251127243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669717788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55298840999603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57538712024689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62018501758575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56344127655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57837390899658</t>
+    <t xml:space="preserve">1.54104220867157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49251139163971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669729709625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55298829078674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57538723945618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733308315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927928447723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62018513679504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.563441157341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.578373670578</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226571559906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285343647003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58882641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389390468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823905467987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61719822883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64258360862732</t>
+    <t xml:space="preserve">1.58285331726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58882653713226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389402389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823893547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61719834804535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258372783661</t>
   </si>
   <si>
     <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63213109970093</t>
+    <t xml:space="preserve">1.63213098049164</t>
   </si>
   <si>
     <t xml:space="preserve">1.64557039737701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362431526184</t>
+    <t xml:space="preserve">1.63362407684326</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
@@ -890,13 +890,13 @@
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461777687073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463639259338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58930289745331</t>
+    <t xml:space="preserve">1.66461801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463651180267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
     <t xml:space="preserve">1.61082148551941</t>
@@ -905,28 +905,28 @@
     <t xml:space="preserve">1.57085835933685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55856204032898</t>
+    <t xml:space="preserve">1.55856227874756</t>
   </si>
   <si>
     <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56471014022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56624722480774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5462658405304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58008062839508</t>
+    <t xml:space="preserve">1.56471025943756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56624734401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54626572132111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
     <t xml:space="preserve">1.58776593208313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60467338562012</t>
+    <t xml:space="preserve">1.60467350482941</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
@@ -938,19 +938,19 @@
     <t xml:space="preserve">1.59852516651154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61389553546906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63080322742462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543273925781</t>
+    <t xml:space="preserve">1.61389565467834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543262004852</t>
   </si>
   <si>
     <t xml:space="preserve">1.63848829269409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65539598464966</t>
+    <t xml:space="preserve">1.65539574623108</t>
   </si>
   <si>
     <t xml:space="preserve">1.64156234264374</t>
@@ -959,22 +959,22 @@
     <t xml:space="preserve">1.61696982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65232181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998862266541</t>
+    <t xml:space="preserve">1.65232169628143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998850345612</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.675377368927</t>
+    <t xml:space="preserve">1.67537748813629</t>
   </si>
   <si>
     <t xml:space="preserve">1.68306255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70458114147186</t>
+    <t xml:space="preserve">1.70458137989044</t>
   </si>
   <si>
     <t xml:space="preserve">1.7291738986969</t>
@@ -983,37 +983,37 @@
     <t xml:space="preserve">1.72148859500885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150721073151</t>
+    <t xml:space="preserve">1.70150709152222</t>
   </si>
   <si>
     <t xml:space="preserve">1.69997000694275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72609984874725</t>
+    <t xml:space="preserve">1.72609972953796</t>
   </si>
   <si>
     <t xml:space="preserve">1.76452589035034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298868656158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991463661194</t>
+    <t xml:space="preserve">1.76298856735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991487503052</t>
   </si>
   <si>
     <t xml:space="preserve">1.7614518404007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74608159065247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72763681411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915552139282</t>
+    <t xml:space="preserve">1.74608147144318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72763657569885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532176017761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915528297424</t>
   </si>
   <si>
     <t xml:space="preserve">1.76913714408875</t>
@@ -1022,70 +1022,70 @@
     <t xml:space="preserve">1.77682220935822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77221119403839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7675998210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834067821503</t>
+    <t xml:space="preserve">1.77221095561981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76759994029999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7983410358429</t>
   </si>
   <si>
     <t xml:space="preserve">1.82293343544006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83984124660492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79372990131378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78758156299591</t>
+    <t xml:space="preserve">1.83984100818634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295193195343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79372978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7875816822052</t>
   </si>
   <si>
     <t xml:space="preserve">1.74761843681335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71995174884796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534073352814</t>
+    <t xml:space="preserve">1.71995162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534061431885</t>
   </si>
   <si>
     <t xml:space="preserve">1.72456276416779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74454438686371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300718307495</t>
+    <t xml:space="preserve">1.74454426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
   </si>
   <si>
     <t xml:space="preserve">1.73071098327637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71380352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376665592194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222933292389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81217443943024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602586269379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987776279449</t>
+    <t xml:space="preserve">1.71380341053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376653671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222945213318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81217420101166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985938549042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987800121307</t>
   </si>
   <si>
     <t xml:space="preserve">1.78143346309662</t>
@@ -1094,16 +1094,16 @@
     <t xml:space="preserve">1.75684058666229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80756294727325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81524813175201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521161556244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135935783386</t>
+    <t xml:space="preserve">1.80756318569183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8152482509613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521137714386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.89824879169464</t>
@@ -1112,100 +1112,100 @@
     <t xml:space="preserve">1.90285992622375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89671158790588</t>
+    <t xml:space="preserve">1.89671170711517</t>
   </si>
   <si>
     <t xml:space="preserve">1.89056348800659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83215594291687</t>
+    <t xml:space="preserve">1.83215570449829</t>
   </si>
   <si>
     <t xml:space="preserve">1.85367441177368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84291517734528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832242012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674846172333</t>
+    <t xml:space="preserve">1.84291529655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674834251404</t>
   </si>
   <si>
     <t xml:space="preserve">1.87211894989014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90439665317535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358240604401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360078334808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130410671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821156024933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052685260773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050799846649</t>
+    <t xml:space="preserve">1.90439689159393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360066413879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821203708649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052661418915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050811767578</t>
   </si>
   <si>
     <t xml:space="preserve">1.97356379032135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97971212863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202658653259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98124921321869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94436013698578</t>
+    <t xml:space="preserve">1.97971189022064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202670574188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9812490940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94436001777649</t>
   </si>
   <si>
     <t xml:space="preserve">2.03350853919983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99969351291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661958217621</t>
+    <t xml:space="preserve">1.99969339370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661946296692</t>
   </si>
   <si>
     <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00123071670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00276732444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434128284454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745268344879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206381797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284107208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665633678436</t>
+    <t xml:space="preserve">2.00123047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00276756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510063648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9643417596817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9274525642395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206357955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92284154891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665597915649</t>
   </si>
   <si>
     <t xml:space="preserve">2.02736020088196</t>
@@ -1214,28 +1214,28 @@
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95511937141418</t>
+    <t xml:space="preserve">1.95511913299561</t>
   </si>
   <si>
     <t xml:space="preserve">1.94897103309631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9873970746994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656433105469</t>
+    <t xml:space="preserve">1.98739719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656456947327</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195283889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039785385132</t>
+    <t xml:space="preserve">2.07039761543274</t>
   </si>
   <si>
     <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1057493686676</t>
+    <t xml:space="preserve">2.10574960708618</t>
   </si>
   <si>
     <t xml:space="preserve">2.0673234462738</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119372367859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287854194641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830392360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365591526031</t>
+    <t xml:space="preserve">2.04119348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287818431854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830380439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365567684174</t>
   </si>
   <si>
     <t xml:space="preserve">1.82600772380829</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">1.87826716899872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86443364620209</t>
+    <t xml:space="preserve">1.86443376541138</t>
   </si>
   <si>
     <t xml:space="preserve">1.87672996520996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83522987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85982263088226</t>
+    <t xml:space="preserve">1.83522999286652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85982275009155</t>
   </si>
   <si>
     <t xml:space="preserve">1.8844153881073</t>
@@ -1292,19 +1292,19 @@
     <t xml:space="preserve">1.82447075843811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058198451996</t>
+    <t xml:space="preserve">1.87058210372925</t>
   </si>
   <si>
     <t xml:space="preserve">1.91515624523163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90132296085358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363741874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134109973907</t>
+    <t xml:space="preserve">1.901322722435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363753795624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134133815765</t>
   </si>
   <si>
     <t xml:space="preserve">1.87519311904907</t>
@@ -1313,79 +1313,79 @@
     <t xml:space="preserve">1.84598898887634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95819342136383</t>
+    <t xml:space="preserve">1.95819306373596</t>
   </si>
   <si>
     <t xml:space="preserve">1.95204520225525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9428231716156</t>
+    <t xml:space="preserve">1.94282293319702</t>
   </si>
   <si>
     <t xml:space="preserve">1.92591571807861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92898988723755</t>
+    <t xml:space="preserve">1.92898952960968</t>
   </si>
   <si>
     <t xml:space="preserve">1.85828542709351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8798041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361927986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743406772614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667459487915</t>
+    <t xml:space="preserve">1.87980425357819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361904144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743394851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667507171631</t>
   </si>
   <si>
     <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9658784866333</t>
+    <t xml:space="preserve">1.96587860584259</t>
   </si>
   <si>
     <t xml:space="preserve">1.91208207607269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88595259189606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8475261926651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137809276581</t>
+    <t xml:space="preserve">1.88595235347748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752607345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8413782119751</t>
   </si>
   <si>
     <t xml:space="preserve">1.79526674747467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78450751304626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78297030925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71226644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66769218444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62004375457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63234031200409</t>
+    <t xml:space="preserve">1.78450763225555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7829704284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71226632595062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66769230365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62004387378693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6323401927948</t>
   </si>
   <si>
     <t xml:space="preserve">1.6492475271225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66000688076019</t>
+    <t xml:space="preserve">1.66000711917877</t>
   </si>
   <si>
     <t xml:space="preserve">1.64771068096161</t>
@@ -1400,52 +1400,52 @@
     <t xml:space="preserve">1.69535899162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73224806785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72624862194061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942185401917</t>
+    <t xml:space="preserve">1.73224794864655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72624850273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846136569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942197322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.70244908332825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71038234233856</t>
+    <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7500479221344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73735499382019</t>
+    <t xml:space="preserve">1.70720899105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75004804134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
     <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7817804813385</t>
+    <t xml:space="preserve">1.78178036212921</t>
   </si>
   <si>
     <t xml:space="preserve">1.79288673400879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79764664173126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8119261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7754340171814</t>
+    <t xml:space="preserve">1.79764676094055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81192624568939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130017757416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019368648529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985938549042</t>
+    <t xml:space="preserve">1.79129981994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019380569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985914707184</t>
   </si>
   <si>
     <t xml:space="preserve">1.82779252529144</t>
@@ -1469,31 +1469,31 @@
     <t xml:space="preserve">1.82461929321289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81668603420258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384757995605</t>
+    <t xml:space="preserve">1.81668627262115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79923331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384734153748</t>
   </si>
   <si>
     <t xml:space="preserve">1.77860713005066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649797439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856471538544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140328884125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91822993755341</t>
+    <t xml:space="preserve">1.88649773597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760398864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140340805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91823017597198</t>
   </si>
   <si>
     <t xml:space="preserve">1.84207236766815</t>
@@ -1502,25 +1502,25 @@
     <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87539124488831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8738044500351</t>
+    <t xml:space="preserve">1.87539148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380468845367</t>
   </si>
   <si>
     <t xml:space="preserve">1.86745822429657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83572578430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875289440155</t>
+    <t xml:space="preserve">1.83572554588318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875301361084</t>
   </si>
   <si>
     <t xml:space="preserve">1.8071665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76115417480469</t>
+    <t xml:space="preserve">1.76115453243256</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687457084656</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">1.73576831817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73418176174164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73259508609772</t>
+    <t xml:space="preserve">1.73418164253235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73259520530701</t>
   </si>
   <si>
     <t xml:space="preserve">1.69451594352722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69292938709259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64057075977325</t>
+    <t xml:space="preserve">1.69292950630188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64057087898254</t>
   </si>
   <si>
     <t xml:space="preserve">1.60249173641205</t>
@@ -1553,25 +1553,25 @@
     <t xml:space="preserve">1.61677145957947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62787795066833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64374399185181</t>
+    <t xml:space="preserve">1.62787783145905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6437441110611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64215731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64533066749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71196901798248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76908755302429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71990191936493</t>
+    <t xml:space="preserve">1.64533054828644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71196889877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.769087433815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
     <t xml:space="preserve">1.68975615501404</t>
@@ -1580,19 +1580,19 @@
     <t xml:space="preserve">1.66119706630707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6500905752182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66595673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706334590912</t>
+    <t xml:space="preserve">1.65009045600891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66595685482025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706310749054</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071652412415</t>
+    <t xml:space="preserve">1.67071664333344</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54220008850098</t>
+    <t xml:space="preserve">1.54219996929169</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046764850616</t>
+    <t xml:space="preserve">1.51046741008759</t>
   </si>
   <si>
     <t xml:space="preserve">1.54140663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53109359741211</t>
+    <t xml:space="preserve">1.5310937166214</t>
   </si>
   <si>
     <t xml:space="preserve">1.52554047107697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54061353206635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268027305603</t>
+    <t xml:space="preserve">1.54061341285706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268015384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.5144339799881</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">1.57393252849579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56520628929138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63105094432831</t>
+    <t xml:space="preserve">1.56520617008209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6310510635376</t>
   </si>
   <si>
     <t xml:space="preserve">1.62311792373657</t>
@@ -1661,16 +1661,16 @@
     <t xml:space="preserve">1.64691734313965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65167725086212</t>
+    <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
     <t xml:space="preserve">1.62629115581512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59614539146423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60883831977844</t>
+    <t xml:space="preserve">1.59614527225494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60883843898773</t>
   </si>
   <si>
     <t xml:space="preserve">1.55885970592499</t>
@@ -1685,10 +1685,10 @@
     <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53902685642242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679284572601</t>
+    <t xml:space="preserve">1.53902673721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
     <t xml:space="preserve">1.54299342632294</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">1.50729417800903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5993185043335</t>
+    <t xml:space="preserve">1.59931838512421</t>
   </si>
   <si>
     <t xml:space="preserve">1.60090506076813</t>
@@ -1712,46 +1712,46 @@
     <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58662545681</t>
+    <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
     <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69768917560577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278338432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66913020610809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307515144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148871421814</t>
+    <t xml:space="preserve">1.69768929481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278350353241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6691300868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307527065277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148883342743</t>
   </si>
   <si>
     <t xml:space="preserve">1.70403575897217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70879578590393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562255382538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71355557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6865828037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326404571533</t>
+    <t xml:space="preserve">1.70879554748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562243461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7135556936264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68658268451691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326392650604</t>
   </si>
   <si>
     <t xml:space="preserve">1.6738897562027</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">1.65643715858459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65802371501923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182289600372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672880649567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80557978153229</t>
+    <t xml:space="preserve">1.65802359580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182277679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.805579662323</t>
   </si>
   <si>
     <t xml:space="preserve">1.81827282905579</t>
@@ -1784,22 +1784,22 @@
     <t xml:space="preserve">1.78812694549561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509959697723</t>
+    <t xml:space="preserve">1.81509983539581</t>
   </si>
   <si>
     <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81033957004547</t>
+    <t xml:space="preserve">1.81033968925476</t>
   </si>
   <si>
     <t xml:space="preserve">1.80399322509766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83889925479889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8008199930191</t>
+    <t xml:space="preserve">1.83889901638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80081987380981</t>
   </si>
   <si>
     <t xml:space="preserve">1.69134271144867</t>
@@ -1808,28 +1808,28 @@
     <t xml:space="preserve">1.68023645877838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65961027145386</t>
+    <t xml:space="preserve">1.65961015224457</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422417640686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62946438789368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894155025482</t>
+    <t xml:space="preserve">1.62946426868439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66754329204559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
     <t xml:space="preserve">1.76274073123932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77226078510284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75798118114471</t>
+    <t xml:space="preserve">1.77226054668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.757981300354</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096599578857</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">1.90077745914459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88967096805573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8884345293045</t>
+    <t xml:space="preserve">1.88967072963715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88843429088593</t>
   </si>
   <si>
     <t xml:space="preserve">1.89172434806824</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">1.88020968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88349950313568</t>
+    <t xml:space="preserve">1.88349962234497</t>
   </si>
   <si>
     <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95587885379791</t>
+    <t xml:space="preserve">1.95587861537933</t>
   </si>
   <si>
     <t xml:space="preserve">1.96903848648071</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">1.94929850101471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93613910675049</t>
+    <t xml:space="preserve">1.93613886833191</t>
   </si>
   <si>
     <t xml:space="preserve">1.97890818119049</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">1.97397351264954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94600880146027</t>
+    <t xml:space="preserve">1.94600856304169</t>
   </si>
   <si>
     <t xml:space="preserve">1.90159440040588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94271862506866</t>
+    <t xml:space="preserve">1.94271886348724</t>
   </si>
   <si>
     <t xml:space="preserve">1.97726321220398</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">2.01016283035278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01345276832581</t>
+    <t xml:space="preserve">2.01345300674438</t>
   </si>
   <si>
     <t xml:space="preserve">1.98055326938629</t>
@@ -1955,19 +1955,19 @@
     <t xml:space="preserve">2.03319239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03154754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483748435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06609225273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06444716453552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04306221008301</t>
+    <t xml:space="preserve">2.0315477848053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06609201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06444692611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04306244850159</t>
   </si>
   <si>
     <t xml:space="preserve">1.97068333625793</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167749404907</t>
+    <t xml:space="preserve">2.02167773246765</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -2000,25 +2000,25 @@
     <t xml:space="preserve">2.20098066329956</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18453049659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1697256565094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17795038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19111037254333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22072005271912</t>
+    <t xml:space="preserve">2.18453025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16972589492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17795062065125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19111061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2207202911377</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210500717163</t>
+    <t xml:space="preserve">2.24210476875305</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">2.24045991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21249508857727</t>
+    <t xml:space="preserve">2.21249485015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2045,10 +2045,10 @@
     <t xml:space="preserve">2.19933533668518</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19604563713074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20591497421265</t>
+    <t xml:space="preserve">2.19604539871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
     <t xml:space="preserve">2.25361943244934</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993941307068</t>
+    <t xml:space="preserve">2.27993965148926</t>
   </si>
   <si>
     <t xml:space="preserve">2.27664923667908</t>
@@ -2099,7 +2099,7 @@
     <t xml:space="preserve">2.30625891685486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3144838809967</t>
+    <t xml:space="preserve">2.31448364257812</t>
   </si>
   <si>
     <t xml:space="preserve">2.30296874046326</t>
@@ -2108,16 +2108,16 @@
     <t xml:space="preserve">2.27335929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26677966117859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30790376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31941866874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3309338092804</t>
+    <t xml:space="preserve">2.26677942276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30790400505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31941890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33093357086182</t>
   </si>
   <si>
     <t xml:space="preserve">2.25855445861816</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">2.32435369491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31777381896973</t>
+    <t xml:space="preserve">2.31777405738831</t>
   </si>
   <si>
     <t xml:space="preserve">2.35725331306458</t>
@@ -2168,31 +2168,31 @@
     <t xml:space="preserve">2.43127727508545</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46253204345703</t>
+    <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
     <t xml:space="preserve">2.45101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50859117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48556137084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240161895752</t>
+    <t xml:space="preserve">2.50859093666077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48556160926819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240138053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47733664512634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4658215045929</t>
+    <t xml:space="preserve">2.47733640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45924162864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46582174301147</t>
   </si>
   <si>
     <t xml:space="preserve">2.42798709869385</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">2.49378657341003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898149490356</t>
+    <t xml:space="preserve">2.47898125648499</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46088695526123</t>
+    <t xml:space="preserve">2.46088671684265</t>
   </si>
   <si>
     <t xml:space="preserve">2.51023602485657</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">2.55465054512024</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52668619155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51352596282959</t>
+    <t xml:space="preserve">2.52668595314026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51352620124817</t>
   </si>
   <si>
     <t xml:space="preserve">2.36218786239624</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028311729431</t>
+    <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184439659119</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">2.33257842063904</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34902811050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21414017677307</t>
+    <t xml:space="preserve">2.34902834892273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21413993835449</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128741264343</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">1.73216152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72887170314789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71571171283722</t>
+    <t xml:space="preserve">1.72887146472931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71571183204651</t>
   </si>
   <si>
     <t xml:space="preserve">1.745321393013</t>
@@ -2315,28 +2315,28 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73051679134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670610904694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78973603248596</t>
+    <t xml:space="preserve">1.7305166721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229170799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670622825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78973591327667</t>
   </si>
   <si>
     <t xml:space="preserve">1.81441056728363</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80125081539154</t>
+    <t xml:space="preserve">1.80125069618225</t>
   </si>
   <si>
     <t xml:space="preserve">1.80618584156036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81276535987854</t>
+    <t xml:space="preserve">1.81276547908783</t>
   </si>
   <si>
     <t xml:space="preserve">1.83908522129059</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">1.84895479679108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87198483943939</t>
+    <t xml:space="preserve">1.87198460102081</t>
   </si>
   <si>
     <t xml:space="preserve">1.86211478710175</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">1.83579540252686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79302573204041</t>
+    <t xml:space="preserve">1.79302585124969</t>
   </si>
   <si>
     <t xml:space="preserve">1.76012623310089</t>
@@ -2366,13 +2366,13 @@
     <t xml:space="preserve">1.74038636684418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75848126411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.776575922966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480100631714</t>
+    <t xml:space="preserve">1.75848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657616138458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480112552643</t>
   </si>
   <si>
     <t xml:space="preserve">1.83415031433105</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">1.79960560798645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87527441978455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968929767609</t>
+    <t xml:space="preserve">1.87527465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968905925751</t>
   </si>
   <si>
     <t xml:space="preserve">1.97232866287231</t>
@@ -2414,10 +2414,10 @@
     <t xml:space="preserve">1.90488421916962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91146385669708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98555874824524</t>
+    <t xml:space="preserve">1.91146409511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98555850982666</t>
   </si>
   <si>
     <t xml:space="preserve">1.97527956962585</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276875019073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906313896179</t>
+    <t xml:space="preserve">1.88276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906325817108</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">1.88105571269989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90161347389221</t>
+    <t xml:space="preserve">1.90161371231079</t>
   </si>
   <si>
     <t xml:space="preserve">1.92388463020325</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86392402648926</t>
+    <t xml:space="preserve">1.86392390727997</t>
   </si>
   <si>
     <t xml:space="preserve">1.83822631835938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84679222106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8502185344696</t>
+    <t xml:space="preserve">1.84679210186005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85021877288818</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,13 +2498,13 @@
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83993947505951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8656370639801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85878443717957</t>
+    <t xml:space="preserve">1.8399395942688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86563694477081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85878455638885</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157419681549</t>
+    <t xml:space="preserve">1.96157443523407</t>
   </si>
   <si>
     <t xml:space="preserve">1.92902433872223</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735022068024</t>
+    <t xml:space="preserve">1.86735033988953</t>
   </si>
   <si>
     <t xml:space="preserve">1.89818727970123</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790810108185</t>
+    <t xml:space="preserve">1.88790822029114</t>
   </si>
   <si>
     <t xml:space="preserve">1.91017937660217</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">1.88619482517242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8450790643692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84165287017822</t>
+    <t xml:space="preserve">1.84507894515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84165275096893</t>
   </si>
   <si>
     <t xml:space="preserve">1.81595504283905</t>
@@ -2582,16 +2582,16 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201024532318</t>
+    <t xml:space="preserve">1.73201012611389</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65491771697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6711927652359</t>
+    <t xml:space="preserve">1.65491759777069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67119264602661</t>
   </si>
   <si>
     <t xml:space="preserve">1.67890202999115</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74742865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70973896980286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79197096824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77826547622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78683125972748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78854465484619</t>
+    <t xml:space="preserve">1.7474285364151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70973908901215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79197084903717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7782655954361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78683137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78854477405548</t>
   </si>
   <si>
     <t xml:space="preserve">1.8039630651474</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025769233704</t>
+    <t xml:space="preserve">1.79025757312775</t>
   </si>
   <si>
     <t xml:space="preserve">1.85535788536072</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671390533447</t>
+    <t xml:space="preserve">1.96671366691589</t>
   </si>
   <si>
     <t xml:space="preserve">1.92559766769409</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280790805817</t>
+    <t xml:space="preserve">1.82280778884888</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711043834686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79882347583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80225002765656</t>
+    <t xml:space="preserve">1.79711055755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.798823595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80224990844727</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141308784485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83137381076813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83479988574982</t>
+    <t xml:space="preserve">1.83137357234955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83480000495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">1.85364484786987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86221086978912</t>
+    <t xml:space="preserve">1.86221063137054</t>
   </si>
   <si>
     <t xml:space="preserve">1.81252884864807</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74400222301483</t>
+    <t xml:space="preserve">1.74400234222412</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">1.75428128242493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74228918552399</t>
+    <t xml:space="preserve">1.7422890663147</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">1.8142421245575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80053687095642</t>
+    <t xml:space="preserve">1.80053663253784</t>
   </si>
   <si>
     <t xml:space="preserve">1.76969969272614</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">1.86049747467041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87077653408051</t>
+    <t xml:space="preserve">1.87077665328979</t>
   </si>
   <si>
     <t xml:space="preserve">1.91874504089355</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01639580726624</t>
+    <t xml:space="preserve">2.01639556884766</t>
   </si>
   <si>
     <t xml:space="preserve">2.03010082244873</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">2.01982188224792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01810884475708</t>
+    <t xml:space="preserve">2.0181086063385</t>
   </si>
   <si>
     <t xml:space="preserve">2.01468253135681</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723286628723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02153491973877</t>
+    <t xml:space="preserve">2.04723262786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02153515815735</t>
   </si>
   <si>
     <t xml:space="preserve">2.0438060760498</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">2.13460397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17400670051575</t>
+    <t xml:space="preserve">2.17400693893433</t>
   </si>
   <si>
     <t xml:space="preserve">2.18257260322571</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24938583374023</t>
+    <t xml:space="preserve">2.24938607215881</t>
   </si>
   <si>
     <t xml:space="preserve">2.24424648284912</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452566146851</t>
+    <t xml:space="preserve">2.25452542304993</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -60891,7 +60891,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494097222</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>2226645</v>
@@ -60912,6 +60912,32 @@
         <v>1417</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493055556</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>1883914</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>1.91499996185303</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>1.88699996471405</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>1.89900004863739</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>1.90199995040894</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1521">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,76 +44,76 @@
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0354973077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974045276642</t>
+    <t xml:space="preserve">1.03189933300018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549742698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974057197571</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743305683136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00311553478241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0261424779892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959193706512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98368638753891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964977025985718</t>
+    <t xml:space="preserve">1.0031156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02614259719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959181785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983686327934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976906776428</t>
   </si>
   <si>
     <t xml:space="preserve">0.939791142940521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95130467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885712623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93403422832489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341803073883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957780957221985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453309059143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990162670612335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929651737213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01462912559509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992321491241455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95562219619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941949963569641</t>
+    <t xml:space="preserve">0.951304733753204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957781076431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453368663788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990162909030914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146290063858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992321610450745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622255802155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941950082778931</t>
   </si>
   <si>
     <t xml:space="preserve">0.914605379104614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935473501682281</t>
+    <t xml:space="preserve">0.935473620891571</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801388263702</t>
@@ -122,16 +122,16 @@
     <t xml:space="preserve">0.947706699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97073370218277</t>
+    <t xml:space="preserve">0.970733880996704</t>
   </si>
   <si>
     <t xml:space="preserve">0.979368805885315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99879789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03117978572845</t>
+    <t xml:space="preserve">0.998797833919525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
     <t xml:space="preserve">1.03621697425842</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">1.02110540866852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05636548995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02326416969299</t>
+    <t xml:space="preserve">1.0563657283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02686202526093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02326428890228</t>
   </si>
   <si>
     <t xml:space="preserve">1.05132842063904</t>
@@ -158,10 +158,10 @@
     <t xml:space="preserve">1.03981482982635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04341280460358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247012615204</t>
+    <t xml:space="preserve">1.04341292381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247000694275</t>
   </si>
   <si>
     <t xml:space="preserve">1.02542293071747</t>
@@ -182,37 +182,37 @@
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13552105426788</t>
+    <t xml:space="preserve">1.13552093505859</t>
   </si>
   <si>
     <t xml:space="preserve">1.14343655109406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12616646289825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11897039413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12256824970245</t>
+    <t xml:space="preserve">1.12616622447968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11897015571594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544667720795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336229324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1419974565506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11681139469147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1297641992569</t>
+    <t xml:space="preserve">1.14127790927887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336217403412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14199733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11681151390076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048374652863</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">1.13696014881134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14415597915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767969608307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1470342874527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279126167297</t>
+    <t xml:space="preserve">1.14415609836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767957687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703452587128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279114246368</t>
   </si>
   <si>
     <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1362407207489</t>
+    <t xml:space="preserve">1.13624060153961</t>
   </si>
   <si>
     <t xml:space="preserve">1.12328791618347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10457825660706</t>
+    <t xml:space="preserve">1.10457837581635</t>
   </si>
   <si>
     <t xml:space="preserve">1.12112903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15638935565948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14847373962402</t>
+    <t xml:space="preserve">1.1563892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14847362041473</t>
   </si>
   <si>
     <t xml:space="preserve">1.16214597225189</t>
@@ -263,7 +263,7 @@
     <t xml:space="preserve">1.14991295337677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1506325006485</t>
+    <t xml:space="preserve">1.15063238143921</t>
   </si>
   <si>
     <t xml:space="preserve">1.13480138778687</t>
@@ -272,22 +272,22 @@
     <t xml:space="preserve">1.10817635059357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15423035621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12760543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11249387264252</t>
+    <t xml:space="preserve">1.15423047542572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12760531902313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11249399185181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14055824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17222023010254</t>
+    <t xml:space="preserve">1.14055812358856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17222034931183</t>
   </si>
   <si>
     <t xml:space="preserve">1.2010041475296</t>
@@ -305,22 +305,22 @@
     <t xml:space="preserve">1.18661236763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17006158828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18805134296417</t>
+    <t xml:space="preserve">1.17006170749664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18805146217346</t>
   </si>
   <si>
     <t xml:space="preserve">1.1858925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19308841228485</t>
+    <t xml:space="preserve">1.19308853149414</t>
   </si>
   <si>
     <t xml:space="preserve">1.16862225532532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09162580966949</t>
+    <t xml:space="preserve">1.09162569046021</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
@@ -329,25 +329,25 @@
     <t xml:space="preserve">1.07795345783234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306490421295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07514584064484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09381139278412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07290589809418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01392209529877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577362537384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944244861603</t>
+    <t xml:space="preserve">1.09306478500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07514595985413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0938116312027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07290577888489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01392221450806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577243328094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944232940674</t>
   </si>
   <si>
     <t xml:space="preserve">1.00048291683197</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">1.04901385307312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01541554927826</t>
+    <t xml:space="preserve">1.01541531085968</t>
   </si>
   <si>
     <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02288162708282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03333461284637</t>
+    <t xml:space="preserve">1.02288174629211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03333473205566</t>
   </si>
   <si>
     <t xml:space="preserve">1.04080092906952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03408122062683</t>
+    <t xml:space="preserve">1.03408110141754</t>
   </si>
   <si>
     <t xml:space="preserve">1.01914858818054</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">1.02885472774506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03557443618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05573356151581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04677391052246</t>
+    <t xml:space="preserve">1.03557431697845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05573332309723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04677379131317</t>
   </si>
   <si>
     <t xml:space="preserve">1.06767952442169</t>
@@ -401,49 +401,49 @@
     <t xml:space="preserve">1.06469309329987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07738566398621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07813215255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754455089569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09903788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08634519577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709168434143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09978437423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10277104377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11173057556152</t>
+    <t xml:space="preserve">1.07738554477692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07813227176666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09903800487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08634507656097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709180355072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09978461265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10277092456818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11173069477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10874402523041</t>
+    <t xml:space="preserve">1.1087441444397</t>
   </si>
   <si>
     <t xml:space="preserve">1.09007835388184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06319987773895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06170654296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05946671962738</t>
+    <t xml:space="preserve">1.06319975852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06170642375946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05946660041809</t>
   </si>
   <si>
     <t xml:space="preserve">1.05125367641449</t>
@@ -452,16 +452,16 @@
     <t xml:space="preserve">1.06618618965149</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07887899875641</t>
+    <t xml:space="preserve">1.07887887954712</t>
   </si>
   <si>
     <t xml:space="preserve">1.10127782821655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10575747489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114285469055</t>
+    <t xml:space="preserve">1.10575759410858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114297389984</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
@@ -470,31 +470,31 @@
     <t xml:space="preserve">1.10799741744995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10426425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322379112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037221431732</t>
+    <t xml:space="preserve">1.10426437854767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322367191315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455800056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037233352661</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202431678772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09231817722321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08783841133118</t>
+    <t xml:space="preserve">1.0923182964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08783864974976</t>
   </si>
   <si>
     <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14383554458618</t>
+    <t xml:space="preserve">1.14383542537689</t>
   </si>
   <si>
     <t xml:space="preserve">1.12666308879852</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">1.11994349956512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08261203765869</t>
+    <t xml:space="preserve">1.08261215686798</t>
   </si>
   <si>
     <t xml:space="preserve">1.08933162689209</t>
@@ -512,22 +512,22 @@
     <t xml:space="preserve">1.1005312204361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1498087644577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17668724060059</t>
+    <t xml:space="preserve">1.14980852603912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17668735980988</t>
   </si>
   <si>
     <t xml:space="preserve">1.17892730236053</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20207273960114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22223174571991</t>
+    <t xml:space="preserve">1.20207262039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21700537204742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223162651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521829605103</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">1.18938016891479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18714022636414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16996777057648</t>
+    <t xml:space="preserve">1.18714010715485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1699675321579</t>
   </si>
   <si>
     <t xml:space="preserve">1.18490028381348</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">1.17519402503967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06991946697235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06543970108032</t>
+    <t xml:space="preserve">1.06991934776306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06543958187103</t>
   </si>
   <si>
     <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04528069496155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0527468919754</t>
+    <t xml:space="preserve">1.04528057575226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05274665355682</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064168453217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02512156963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05200040340424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02586829662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08186531066895</t>
+    <t xml:space="preserve">1.02064180374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02512168884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05200016498566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02586817741394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
     <t xml:space="preserve">1.08111882209778</t>
@@ -602,10 +602,10 @@
     <t xml:space="preserve">1.09530472755432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098396778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471700668335</t>
+    <t xml:space="preserve">1.11098408699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471724510193</t>
   </si>
   <si>
     <t xml:space="preserve">1.13188970088959</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13487601280212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14906215667725</t>
+    <t xml:space="preserve">1.13487613201141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14906203746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279519557953</t>
@@ -629,19 +629,19 @@
     <t xml:space="preserve">1.16698110103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15130198001862</t>
+    <t xml:space="preserve">1.15130209922791</t>
   </si>
   <si>
     <t xml:space="preserve">1.13636934757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15727508068085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17146110534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220759391785</t>
+    <t xml:space="preserve">1.15727496147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17146098613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220771312714</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
@@ -650,40 +650,40 @@
     <t xml:space="preserve">1.1729542016983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16250157356262</t>
+    <t xml:space="preserve">1.16250145435333</t>
   </si>
   <si>
     <t xml:space="preserve">1.16847443580627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14458227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890291213989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12292981147766</t>
+    <t xml:space="preserve">1.14458215236664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890303134918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055525302887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1647412776947</t>
+    <t xml:space="preserve">1.16474115848541</t>
   </si>
   <si>
     <t xml:space="preserve">1.14308905601501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18042039871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18863332271576</t>
+    <t xml:space="preserve">1.18042027950287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
     <t xml:space="preserve">1.1796737909317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18191361427307</t>
+    <t xml:space="preserve">1.18191373348236</t>
   </si>
   <si>
     <t xml:space="preserve">1.21177887916565</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">1.1960996389389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20879244804382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19385981559753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20431268215179</t>
+    <t xml:space="preserve">1.20879256725311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19385969638824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2043125629425</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
@@ -707,52 +707,52 @@
     <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22447168827057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22820472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22596478462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25806987285614</t>
+    <t xml:space="preserve">1.22447156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22820460796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22596502304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25806975364685</t>
   </si>
   <si>
     <t xml:space="preserve">1.32899963855743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36409139633179</t>
+    <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
     <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38574349880219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41486179828644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979454994202</t>
+    <t xml:space="preserve">1.38574326038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41486191749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979443073273</t>
   </si>
   <si>
     <t xml:space="preserve">1.43352770805359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44547379016876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42008817195892</t>
+    <t xml:space="preserve">1.44547367095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784858703613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45294010639191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46339297294617</t>
+    <t xml:space="preserve">1.45293998718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46339285373688</t>
   </si>
   <si>
     <t xml:space="preserve">1.45741987228394</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488618850708</t>
+    <t xml:space="preserve">1.46488606929779</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43950068950653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920694828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024741649628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083489894867</t>
+    <t xml:space="preserve">1.43950080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4402471780777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
     <t xml:space="preserve">1.40664899349213</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">1.44846034049988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44995355606079</t>
+    <t xml:space="preserve">1.44995367527008</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472706317902</t>
+    <t xml:space="preserve">1.44472718238831</t>
   </si>
   <si>
     <t xml:space="preserve">1.48355185985565</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">1.45592665672302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49325788021088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952496051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267039775848</t>
+    <t xml:space="preserve">1.49325811862946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4895247220993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267027854919</t>
   </si>
   <si>
     <t xml:space="preserve">1.5305894613266</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104232788086</t>
+    <t xml:space="preserve">1.54104220867157</t>
   </si>
   <si>
     <t xml:space="preserve">1.49251127243042</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">1.58733320236206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59927928447723</t>
+    <t xml:space="preserve">1.59927952289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
@@ -845,52 +845,52 @@
     <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.578373670578</t>
+    <t xml:space="preserve">1.57837378978729</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285331726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58882665634155</t>
+    <t xml:space="preserve">1.58285343647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58882653713226</t>
   </si>
   <si>
     <t xml:space="preserve">1.57389390468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60823881626129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61719822883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64258408546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959729671478</t>
+    <t xml:space="preserve">1.60823893547058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61719846725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258396625519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
     <t xml:space="preserve">1.63213121891022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64557027816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362419605255</t>
+    <t xml:space="preserve">1.64557039737701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362431526184</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65846991539001</t>
+    <t xml:space="preserve">1.6584700345993</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461777687073</t>
+    <t xml:space="preserve">1.66461801528931</t>
   </si>
   <si>
     <t xml:space="preserve">1.64463663101196</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61082148551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085835933685</t>
+    <t xml:space="preserve">1.6108216047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085824012756</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856215953827</t>
@@ -911,31 +911,31 @@
     <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56471037864685</t>
+    <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
     <t xml:space="preserve">1.56624734401703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54626560211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58008062839508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58776581287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60467338562012</t>
+    <t xml:space="preserve">1.54626572132111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58008074760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58776593208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60467350482941</t>
   </si>
   <si>
     <t xml:space="preserve">1.600062251091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59083998203278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852504730225</t>
+    <t xml:space="preserve">1.59083986282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852516651154</t>
   </si>
   <si>
     <t xml:space="preserve">1.61389553546906</t>
@@ -947,31 +947,31 @@
     <t xml:space="preserve">1.61543273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6384881734848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65539574623108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156222343445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696982383728</t>
+    <t xml:space="preserve">1.63848805427551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65539586544037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156234264374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696970462799</t>
   </si>
   <si>
     <t xml:space="preserve">1.65232181549072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67998862266541</t>
+    <t xml:space="preserve">1.67998874187469</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67537760734558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68306255340576</t>
+    <t xml:space="preserve">1.67537748813629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68306243419647</t>
   </si>
   <si>
     <t xml:space="preserve">1.70458114147186</t>
@@ -983,58 +983,58 @@
     <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150709152222</t>
+    <t xml:space="preserve">1.70150721073151</t>
   </si>
   <si>
     <t xml:space="preserve">1.69997000694275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72609972953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76452600955963</t>
+    <t xml:space="preserve">1.72609984874725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76452589035034</t>
   </si>
   <si>
     <t xml:space="preserve">1.76298868656158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75991463661194</t>
+    <t xml:space="preserve">1.75991475582123</t>
   </si>
   <si>
     <t xml:space="preserve">1.76145195960999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74608111381531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72763669490814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915540218353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913690567017</t>
+    <t xml:space="preserve">1.74608135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72763681411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353218793869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915552139282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913702487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.7768223285675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77221095561981</t>
+    <t xml:space="preserve">1.77221119403839</t>
   </si>
   <si>
     <t xml:space="preserve">1.76759994029999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79834091663361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293355464935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984124660492</t>
+    <t xml:space="preserve">1.79834079742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293343544006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984112739563</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295193195343</t>
@@ -1046,40 +1046,40 @@
     <t xml:space="preserve">1.78758156299591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74761843681335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995139122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534049510956</t>
+    <t xml:space="preserve">1.74761831760406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995151042938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534061431885</t>
   </si>
   <si>
     <t xml:space="preserve">1.72456276416779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74454438686371</t>
+    <t xml:space="preserve">1.744544506073</t>
   </si>
   <si>
     <t xml:space="preserve">1.74300730228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73071122169495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380341053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376665592194</t>
+    <t xml:space="preserve">1.73071110248566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7138032913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376677513123</t>
   </si>
   <si>
     <t xml:space="preserve">1.75222957134247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81217408180237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602598190308</t>
+    <t xml:space="preserve">1.81217432022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602610111237</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985950469971</t>
@@ -1088,34 +1088,34 @@
     <t xml:space="preserve">1.79987776279449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78143358230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75684070587158</t>
+    <t xml:space="preserve">1.78143322467804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.756840467453</t>
   </si>
   <si>
     <t xml:space="preserve">1.80756330490112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81524837017059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135971546173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89824855327606</t>
+    <t xml:space="preserve">1.8152482509613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521149635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135983467102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89824879169464</t>
   </si>
   <si>
     <t xml:space="preserve">1.90285992622375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8967113494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056360721588</t>
+    <t xml:space="preserve">1.89671158790588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056348800659</t>
   </si>
   <si>
     <t xml:space="preserve">1.83215582370758</t>
@@ -1124,46 +1124,46 @@
     <t xml:space="preserve">1.85367429256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84291529655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832242012024</t>
+    <t xml:space="preserve">1.84291481971741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832253932953</t>
   </si>
   <si>
     <t xml:space="preserve">1.85674846172333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87211894989014</t>
+    <t xml:space="preserve">1.87211906909943</t>
   </si>
   <si>
     <t xml:space="preserve">1.90439689159393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360066413879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130446434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821156024933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052637577057</t>
+    <t xml:space="preserve">1.95358240604401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360078334808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9213045835495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821203708649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052661418915</t>
   </si>
   <si>
     <t xml:space="preserve">1.95050823688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97356367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971224784851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202670574188</t>
+    <t xml:space="preserve">1.97356379032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971212863922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202682495117</t>
   </si>
   <si>
     <t xml:space="preserve">1.9812490940094</t>
@@ -1175,31 +1175,31 @@
     <t xml:space="preserve">2.03350853919983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99969363212585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661934375763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973014831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00123047828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00276756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510099411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434152126312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745232582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206346035004</t>
+    <t xml:space="preserve">1.99969375133514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661958217621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973026752472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00123071670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00276732444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510075569153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434128284454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745220661163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206357955933</t>
   </si>
   <si>
     <t xml:space="preserve">1.92284154891968</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">2.02736043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660132408142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897127151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98739695549011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656409263611</t>
+    <t xml:space="preserve">2.01660108566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511937141418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897103309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739731311798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656456947327</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195307731628</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1057493686676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06732368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02582335472107</t>
+    <t xml:space="preserve">2.10574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0673234462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02582311630249</t>
   </si>
   <si>
     <t xml:space="preserve">2.01199007034302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737881660461</t>
+    <t xml:space="preserve">2.00737857818604</t>
   </si>
   <si>
     <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119372367859</t>
+    <t xml:space="preserve">2.04119348526001</t>
   </si>
   <si>
     <t xml:space="preserve">1.88287830352783</t>
@@ -1262,67 +1262,67 @@
     <t xml:space="preserve">1.83830392360687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8736560344696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.826007604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87826704978943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8644335269928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87673008441925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83522987365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85982275009155</t>
+    <t xml:space="preserve">1.87365579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82600748538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87826716899872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86443388462067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672996520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83522999286652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85982263088226</t>
   </si>
   <si>
     <t xml:space="preserve">1.88441514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88902640342712</t>
+    <t xml:space="preserve">1.88902628421783</t>
   </si>
   <si>
     <t xml:space="preserve">1.82447063922882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515600681305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90132260322571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363765716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134109973907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519323825836</t>
+    <t xml:space="preserve">1.87058186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515624523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.901322722435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363741874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134133815765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519299983978</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598910808563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95819365978241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204532146454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94282293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591559886932</t>
+    <t xml:space="preserve">1.95819342136383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204520225525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591571807861</t>
   </si>
   <si>
     <t xml:space="preserve">1.92898941040039</t>
@@ -1337,40 +1337,40 @@
     <t xml:space="preserve">1.91361904144287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94743418693542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667471408844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94589698314667</t>
+    <t xml:space="preserve">1.94743406772614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667507171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
     <t xml:space="preserve">1.96587872505188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91208207607269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88595223426819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752631187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137797355652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526674747467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450763225555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78297030925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71226644515991</t>
+    <t xml:space="preserve">1.9120819568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88595235347748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8475261926651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137809276581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450739383698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78297019004822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71226632595062</t>
   </si>
   <si>
     <t xml:space="preserve">1.66769218444824</t>
@@ -1382,19 +1382,19 @@
     <t xml:space="preserve">1.6323401927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64924776554108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000688076019</t>
+    <t xml:space="preserve">1.64924764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6600067615509</t>
   </si>
   <si>
     <t xml:space="preserve">1.6477108001709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62772905826569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59545111656189</t>
+    <t xml:space="preserve">1.62772917747498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59545123577118</t>
   </si>
   <si>
     <t xml:space="preserve">1.69535899162292</t>
@@ -1406,19 +1406,19 @@
     <t xml:space="preserve">1.72624850273132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74846124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70244920253754</t>
+    <t xml:space="preserve">1.74846136569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942185401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70244896411896</t>
   </si>
   <si>
     <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69927585124969</t>
+    <t xml:space="preserve">1.69927597045898</t>
   </si>
   <si>
     <t xml:space="preserve">1.70720911026001</t>
@@ -1427,25 +1427,25 @@
     <t xml:space="preserve">1.7500479221344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73735499382019</t>
+    <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
     <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78178036212921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288673400879</t>
+    <t xml:space="preserve">1.78178060054779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79288697242737</t>
   </si>
   <si>
     <t xml:space="preserve">1.79764676094055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81192624568939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543389797211</t>
+    <t xml:space="preserve">1.8119261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543377876282</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130005836487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019404411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985926628113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779240608215</t>
+    <t xml:space="preserve">1.79130017757416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019380569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985938549042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779252529144</t>
   </si>
   <si>
     <t xml:space="preserve">1.82461941242218</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81668627262115</t>
+    <t xml:space="preserve">1.81668615341187</t>
   </si>
   <si>
     <t xml:space="preserve">1.79923319816589</t>
@@ -1487,22 +1487,22 @@
     <t xml:space="preserve">1.87856447696686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89760410785675</t>
+    <t xml:space="preserve">1.89760398864746</t>
   </si>
   <si>
     <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91823029518127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207224845886</t>
+    <t xml:space="preserve">1.91822993755341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207212924957</t>
   </si>
   <si>
     <t xml:space="preserve">1.86269843578339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87539160251617</t>
+    <t xml:space="preserve">1.8753913640976</t>
   </si>
   <si>
     <t xml:space="preserve">1.87380480766296</t>
@@ -1511,34 +1511,34 @@
     <t xml:space="preserve">1.86745834350586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83572554588318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875337123871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115441322327</t>
+    <t xml:space="preserve">1.83572578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80716645717621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7611540555954</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687469005585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74211490154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73576819896698</t>
+    <t xml:space="preserve">1.74211478233337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73576843738556</t>
   </si>
   <si>
     <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73259508609772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451606273651</t>
+    <t xml:space="preserve">1.73259520530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451582431793</t>
   </si>
   <si>
     <t xml:space="preserve">1.69292950630188</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">1.60249173641205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61677157878876</t>
+    <t xml:space="preserve">1.61677145957947</t>
   </si>
   <si>
     <t xml:space="preserve">1.62787783145905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6437441110611</t>
+    <t xml:space="preserve">1.64374399185181</t>
   </si>
   <si>
     <t xml:space="preserve">1.64215731620789</t>
@@ -1568,16 +1568,16 @@
     <t xml:space="preserve">1.71196889877319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76908755302429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71990203857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975627422333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119694709778</t>
+    <t xml:space="preserve">1.769087433815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71990215778351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975615501404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119706630707</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009045600891</t>
@@ -1586,13 +1586,13 @@
     <t xml:space="preserve">1.66595685482025</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67706322669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547655105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67071664333344</t>
+    <t xml:space="preserve">1.67706334590912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547643184662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67071652412415</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
@@ -1601,28 +1601,28 @@
     <t xml:space="preserve">1.58821225166321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56282615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54219996929169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506016731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140675067902</t>
+    <t xml:space="preserve">1.56282603740692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54220008850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506004810333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51046764850616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140651226044</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54061353206635</t>
+    <t xml:space="preserve">1.52554047107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54061341285706</t>
   </si>
   <si>
     <t xml:space="preserve">1.53268027305603</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">1.52395379543304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55647945404053</t>
+    <t xml:space="preserve">1.55647969245911</t>
   </si>
   <si>
     <t xml:space="preserve">1.55409955978394</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57393252849579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56520593166351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6310510635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62311804294586</t>
+    <t xml:space="preserve">1.5739324092865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5652060508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63105094432831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62311792373657</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691722393036</t>
@@ -1664,13 +1664,13 @@
     <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62629103660583</t>
+    <t xml:space="preserve">1.62629115581512</t>
   </si>
   <si>
     <t xml:space="preserve">1.59614527225494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60883831977844</t>
+    <t xml:space="preserve">1.60883843898773</t>
   </si>
   <si>
     <t xml:space="preserve">1.5588595867157</t>
@@ -1682,22 +1682,22 @@
     <t xml:space="preserve">1.54933977127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55489313602448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53902673721313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56679260730743</t>
+    <t xml:space="preserve">1.5548928976059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53902661800385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
     <t xml:space="preserve">1.54299330711365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49142789840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51998734474182</t>
+    <t xml:space="preserve">1.49142801761627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51998722553253</t>
   </si>
   <si>
     <t xml:space="preserve">1.50729417800903</t>
@@ -1709,31 +1709,31 @@
     <t xml:space="preserve">1.60090506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59138548374176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58662545681</t>
+    <t xml:space="preserve">1.59138536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
     <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69768917560577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6627836227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66912996768951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307538986206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403587818146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70879566669464</t>
+    <t xml:space="preserve">1.69768929481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278350353241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66913020610809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307503223419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70879578590393</t>
   </si>
   <si>
     <t xml:space="preserve">1.70562243461609</t>
@@ -1742,145 +1742,145 @@
     <t xml:space="preserve">1.71355557441711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68816959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68658268451691</t>
+    <t xml:space="preserve">1.6881697177887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6865828037262</t>
   </si>
   <si>
     <t xml:space="preserve">1.65326380729675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67388987541199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340969085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643727779388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802335739136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182301521301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672880649567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80557978153229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827294826508</t>
+    <t xml:space="preserve">1.6738897562027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340957164764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643703937531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802359580994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182289600372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672892570496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.805579662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827282905579</t>
   </si>
   <si>
     <t xml:space="preserve">1.82303273677826</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78812694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81509959697723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654062747955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033957004547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399322509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83889877796173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80081987380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69134271144867</t>
+    <t xml:space="preserve">1.7881270647049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033980846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399310588837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83889889717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80081975460052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69134259223938</t>
   </si>
   <si>
     <t xml:space="preserve">1.68023633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65961015224457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63422429561615</t>
+    <t xml:space="preserve">1.65961027145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63422417640686</t>
   </si>
   <si>
     <t xml:space="preserve">1.62946426868439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66754329204559</t>
+    <t xml:space="preserve">1.66754341125488</t>
   </si>
   <si>
     <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76274073123932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226066589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75798118114471</t>
+    <t xml:space="preserve">1.76274085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226054668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798106193542</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395081043243</t>
+    <t xml:space="preserve">1.90395069122314</t>
   </si>
   <si>
     <t xml:space="preserve">1.90077722072601</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88967084884644</t>
+    <t xml:space="preserve">1.88967096805573</t>
   </si>
   <si>
     <t xml:space="preserve">1.8884345293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89172446727753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89665925502777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86869466304779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88020968437195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349950313568</t>
+    <t xml:space="preserve">1.89172410964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89665937423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86869478225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88020980358124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349962234497</t>
   </si>
   <si>
     <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95587873458862</t>
+    <t xml:space="preserve">1.95587861537933</t>
   </si>
   <si>
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.949298620224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613886833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9789080619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548817634583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851774215698</t>
+    <t xml:space="preserve">1.94929850101471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613910675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97890818119049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548829555511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851798057556</t>
   </si>
   <si>
     <t xml:space="preserve">2.01180791854858</t>
@@ -1895,70 +1895,70 @@
     <t xml:space="preserve">2.02332282066345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98219847679138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98384308815002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97397351264954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600868225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159451961517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271898269653</t>
+    <t xml:space="preserve">1.98219835758209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98384320735931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97397327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600856304169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159440040588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271886348724</t>
   </si>
   <si>
     <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99371314048767</t>
+    <t xml:space="preserve">1.99371325969696</t>
   </si>
   <si>
     <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00687289237976</t>
+    <t xml:space="preserve">2.00687313079834</t>
   </si>
   <si>
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358319282532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206805229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01016306877136</t>
+    <t xml:space="preserve">2.00358295440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206793308258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01016283035278</t>
   </si>
   <si>
     <t xml:space="preserve">2.01345276832581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98055338859558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042320251465</t>
+    <t xml:space="preserve">1.98055326938629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964256286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03319239616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03154754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483748435974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06609201431274</t>
+    <t xml:space="preserve">2.03319215774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03154730796814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483724594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06609225273132</t>
   </si>
   <si>
     <t xml:space="preserve">2.06444716453552</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04635214805603</t>
+    <t xml:space="preserve">2.02167797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04635238647461</t>
   </si>
   <si>
     <t xml:space="preserve">2.07925200462341</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.14011597633362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16314578056335</t>
+    <t xml:space="preserve">2.16314601898193</t>
   </si>
   <si>
     <t xml:space="preserve">2.15821099281311</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">2.20098042488098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18453025817871</t>
+    <t xml:space="preserve">2.18453049659729</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2207202911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23058986663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24210453033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21578502655029</t>
+    <t xml:space="preserve">2.19111037254333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22072005271912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2305896282196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24210500717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21578478813171</t>
   </si>
   <si>
     <t xml:space="preserve">2.23388004302979</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">2.21249508857727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20262503623962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20756006240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17137098312378</t>
+    <t xml:space="preserve">2.2026252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20756030082703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1713707447052</t>
   </si>
   <si>
     <t xml:space="preserve">2.19933533668518</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20591521263123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25361967086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28816437721252</t>
+    <t xml:space="preserve">2.2059154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25361943244934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28816413879395</t>
   </si>
   <si>
     <t xml:space="preserve">2.25690937042236</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006936073303</t>
+    <t xml:space="preserve">2.26513457298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006912231445</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2766489982605</t>
+    <t xml:space="preserve">2.27664923667908</t>
   </si>
   <si>
     <t xml:space="preserve">2.24539470672607</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348948478699</t>
+    <t xml:space="preserve">2.26348972320557</t>
   </si>
   <si>
     <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30625867843628</t>
+    <t xml:space="preserve">2.30625891685486</t>
   </si>
   <si>
     <t xml:space="preserve">2.31448364257812</t>
@@ -2102,25 +2102,25 @@
     <t xml:space="preserve">2.30296874046326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26677942276001</t>
+    <t xml:space="preserve">2.27335906028748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26677966117859</t>
   </si>
   <si>
     <t xml:space="preserve">2.30790400505066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31941866874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33093357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25855469703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29803395271301</t>
+    <t xml:space="preserve">2.31941890716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33093333244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25855445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29803371429443</t>
   </si>
   <si>
     <t xml:space="preserve">2.31612873077393</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23716974258423</t>
+    <t xml:space="preserve">2.23716998100281</t>
   </si>
   <si>
     <t xml:space="preserve">2.2486846446991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2503297328949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28158402442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3588981628418</t>
+    <t xml:space="preserve">2.25032949447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2815842628479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35889792442322</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435345649719</t>
@@ -2156,13 +2156,13 @@
     <t xml:space="preserve">2.38686275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35560846328735</t>
+    <t xml:space="preserve">2.35560822486877</t>
   </si>
   <si>
     <t xml:space="preserve">2.37534809112549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43127703666687</t>
+    <t xml:space="preserve">2.43127727508545</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253180503845</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">2.45101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50859093666077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48556137084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240161895752</t>
+    <t xml:space="preserve">2.50859117507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48556160926819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240138053894</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45924162864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4658215045929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798709869385</t>
+    <t xml:space="preserve">2.45924186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46582174301147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798733711243</t>
   </si>
   <si>
     <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898125648499</t>
+    <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46088671684265</t>
+    <t xml:space="preserve">2.46088695526123</t>
   </si>
   <si>
     <t xml:space="preserve">2.51023602485657</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">2.55465030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52668571472168</t>
+    <t xml:space="preserve">2.52668595314026</t>
   </si>
   <si>
     <t xml:space="preserve">2.51352596282959</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">2.36218810081482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36383295059204</t>
+    <t xml:space="preserve">2.36383318901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184439659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33257842063904</t>
+    <t xml:space="preserve">2.26184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33257818222046</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21414017677307</t>
+    <t xml:space="preserve">2.21413993835449</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128741264343</t>
@@ -2252,22 +2252,22 @@
     <t xml:space="preserve">1.8242803812027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956889152527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59645080566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51008951663971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5084445476532</t>
+    <t xml:space="preserve">1.54956912994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59645092487335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.510089635849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50844466686249</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407193183899</t>
+    <t xml:space="preserve">1.52407205104828</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2276,46 +2276,46 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013130187988</t>
+    <t xml:space="preserve">1.57013118267059</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6696525812149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68610227108002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76835119724274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85060000419617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73216152191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7288715839386</t>
+    <t xml:space="preserve">1.66965234279633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68610215187073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76835131645203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85059988498688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73216164112091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72887170314789</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74532151222229</t>
+    <t xml:space="preserve">1.745321393013</t>
   </si>
   <si>
     <t xml:space="preserve">1.74367642402649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73545157909393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7305166721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
+    <t xml:space="preserve">1.73545145988464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73051679134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229170799255</t>
   </si>
   <si>
     <t xml:space="preserve">1.76670622825623</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">1.78973591327667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81441056728363</t>
+    <t xml:space="preserve">1.81441044807434</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618584156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276559829712</t>
+    <t xml:space="preserve">1.80618572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276547908783</t>
   </si>
   <si>
     <t xml:space="preserve">1.83908522129059</t>
@@ -2342,19 +2342,19 @@
     <t xml:space="preserve">1.84895479679108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87198483943939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211478710175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79302585124969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76012635231018</t>
+    <t xml:space="preserve">1.8719847202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579504489899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79302573204041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76012623310089</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
@@ -2363,70 +2363,70 @@
     <t xml:space="preserve">1.74038648605347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75848114490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657616138458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480112552643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415043354034</t>
+    <t xml:space="preserve">1.75848126411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.776575922966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480088710785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415031433105</t>
   </si>
   <si>
     <t xml:space="preserve">1.86047005653381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81934535503387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960560798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9196891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232842445374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96410346031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92133402824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817415714264</t>
+    <t xml:space="preserve">1.81934523582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527453899384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968905925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96410369873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92133390903473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817439556122</t>
   </si>
   <si>
     <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224509239197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90488433837891</t>
+    <t xml:space="preserve">1.85224521160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488421916962</t>
   </si>
   <si>
     <t xml:space="preserve">1.91146409511566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98555862903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527945041656</t>
+    <t xml:space="preserve">1.98555850982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527956962585</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89647388458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9118926525116</t>
+    <t xml:space="preserve">1.89647400379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91189277172089</t>
   </si>
   <si>
     <t xml:space="preserve">1.91703200340271</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">1.92731094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9375901222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101631641388</t>
+    <t xml:space="preserve">1.93759000301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101643562317</t>
   </si>
   <si>
     <t xml:space="preserve">1.93245053291321</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276839256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906337738037</t>
+    <t xml:space="preserve">1.88276863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906325817108</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850549697876</t>
+    <t xml:space="preserve">1.84850537776947</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105571269989</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">1.92388463020325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9067530632019</t>
+    <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85021865367889</t>
+    <t xml:space="preserve">1.85021877288818</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">1.8399395942688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8656370639801</t>
+    <t xml:space="preserve">1.86563694477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.85878455638885</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157419681549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92902421951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89990031719208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9221715927124</t>
+    <t xml:space="preserve">1.96157443523407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92902433872223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89990043640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92217147350311</t>
   </si>
   <si>
     <t xml:space="preserve">1.89133453369141</t>
@@ -2531,37 +2531,37 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735022068024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89818716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420272827148</t>
+    <t xml:space="preserve">1.86735033988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89818727970123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
     <t xml:space="preserve">1.88790822029114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91017949581146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619494438171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8450790643692</t>
+    <t xml:space="preserve">1.91017937660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619482517242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507894515991</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81595516204834</t>
+    <t xml:space="preserve">1.81595504283905</t>
   </si>
   <si>
     <t xml:space="preserve">1.80910265445709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7834050655365</t>
+    <t xml:space="preserve">1.78340518474579</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169178962708</t>
@@ -2579,25 +2579,25 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201024532318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547571659088</t>
+    <t xml:space="preserve">1.73201012611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547559738159</t>
   </si>
   <si>
     <t xml:space="preserve">1.65491759777069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6711927652359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67890214920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69774675369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858381271362</t>
+    <t xml:space="preserve">1.67119264602661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67890202999115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69774687290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474285364151</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">1.78683137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78854465484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80396294593811</t>
+    <t xml:space="preserve">1.78854477405548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8039630651474</t>
   </si>
   <si>
     <t xml:space="preserve">1.76627349853516</t>
@@ -2630,34 +2630,34 @@
     <t xml:space="preserve">1.79025757312775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85535800457001</t>
+    <t xml:space="preserve">1.85535788536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671378612518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9255975484848</t>
+    <t xml:space="preserve">1.96671366691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92559766769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280790805817</t>
+    <t xml:space="preserve">1.82280778884888</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82109451293945</t>
+    <t xml:space="preserve">1.82109463214874</t>
   </si>
   <si>
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711043834686</t>
+    <t xml:space="preserve">1.79711055755615</t>
   </si>
   <si>
     <t xml:space="preserve">1.798823595047</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.80224990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77141296863556</t>
+    <t xml:space="preserve">1.77141308784485</t>
   </si>
   <si>
     <t xml:space="preserve">1.83137357234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83479988574982</t>
+    <t xml:space="preserve">1.83480000495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73886287212372</t>
+    <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
     <t xml:space="preserve">1.74400234222412</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428140163422</t>
+    <t xml:space="preserve">1.75428128242493</t>
   </si>
   <si>
     <t xml:space="preserve">1.7422890663147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76798641681671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79539728164673</t>
+    <t xml:space="preserve">1.767986536026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79539716243744</t>
   </si>
   <si>
     <t xml:space="preserve">1.8245210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81424200534821</t>
+    <t xml:space="preserve">1.8142421245575</t>
   </si>
   <si>
     <t xml:space="preserve">1.80053663253784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76969981193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738937854767</t>
+    <t xml:space="preserve">1.76969969272614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738925933838</t>
   </si>
   <si>
     <t xml:space="preserve">1.83308696746826</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9632875919342</t>
+    <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
     <t xml:space="preserve">2.01639556884766</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">2.03352737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98898482322693</t>
+    <t xml:space="preserve">1.98898494243622</t>
   </si>
   <si>
     <t xml:space="preserve">2.00440335273743</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.04723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04380631446838</t>
+    <t xml:space="preserve">2.02153515815735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0438060760498</t>
   </si>
   <si>
     <t xml:space="preserve">2.07635641098022</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209327697754</t>
+    <t xml:space="preserve">2.04209303855896</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">2.07293009757996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08149576187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06607723236084</t>
+    <t xml:space="preserve">2.08149600028992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06607747077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">2.14316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12261152267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13460421562195</t>
+    <t xml:space="preserve">2.12261176109314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13460397720337</t>
   </si>
   <si>
     <t xml:space="preserve">2.17400693893433</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16201448440552</t>
+    <t xml:space="preserve">2.1620147228241</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
@@ -2843,37 +2843,37 @@
     <t xml:space="preserve">2.18942546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22711491584778</t>
+    <t xml:space="preserve">2.2271146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24082040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24253344535828</t>
+    <t xml:space="preserve">2.24082016944885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
     <t xml:space="preserve">2.24938607215881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24424624443054</t>
+    <t xml:space="preserve">2.24424648284912</t>
   </si>
   <si>
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18771195411682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19970464706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20998334884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23739385604858</t>
+    <t xml:space="preserve">2.1877121925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19970440864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20998311042786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23739409446716</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">2.27165722846985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25281238555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25224566459656</t>
+    <t xml:space="preserve">2.25281262397766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25224590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.202472448349</t>
+    <t xml:space="preserve">2.20247220993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14736604690552</t>
+    <t xml:space="preserve">2.1473662853241</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847780227661</t>
+    <t xml:space="preserve">2.13847804069519</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002890586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647408485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536185264587</t>
+    <t xml:space="preserve">2.21136045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647384643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202634811401</t>
+    <t xml:space="preserve">2.22202610969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2558012008667</t>
+    <t xml:space="preserve">2.25580096244812</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379676818848</t>
+    <t xml:space="preserve">2.30379700660706</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335066795349</t>
+    <t xml:space="preserve">2.32335090637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38734531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623308181763</t>
+    <t xml:space="preserve">2.3873450756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623332023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956858634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3642361164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445543289185</t>
+    <t xml:space="preserve">2.36956882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36423587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201212882996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445567131042</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2789101600647</t>
+    <t xml:space="preserve">2.27890992164612</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691295623779</t>
+    <t xml:space="preserve">2.24691319465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600653648376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534088134766</t>
+    <t xml:space="preserve">2.43889594078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534064292908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4975574016571</t>
+    <t xml:space="preserve">2.56332945823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49755764007568</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54199814796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555320739746</t>
+    <t xml:space="preserve">2.5419979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555344581604</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222469329834</t>
+    <t xml:space="preserve">2.49222445487976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3170,40 +3170,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801772117615</t>
+    <t xml:space="preserve">2.31801795959473</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046126365662</t>
+    <t xml:space="preserve">2.33046102523804</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290432929993</t>
+    <t xml:space="preserve">2.34290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3109073638916</t>
+    <t xml:space="preserve">2.33579397201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31090712547302</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646661758423</t>
+    <t xml:space="preserve">2.26646685600281</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20069479942322</t>
+    <t xml:space="preserve">2.2006950378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357745170593</t>
+    <t xml:space="preserve">2.27357721328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492298126221</t>
+    <t xml:space="preserve">2.13492274284363</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02471041679382</t>
+    <t xml:space="preserve">2.09937024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247106552124</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893113136292</t>
+    <t xml:space="preserve">2.03893136978149</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0407087802887</t>
+    <t xml:space="preserve">2.04070901870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026268005371</t>
+    <t xml:space="preserve">2.06026291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491575241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802495002747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047524452209</t>
+    <t xml:space="preserve">2.21491599082947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047500610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759283065796</t>
+    <t xml:space="preserve">2.09759259223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.156254529953</t>
+    <t xml:space="preserve">2.15625429153442</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381074905396</t>
+    <t xml:space="preserve">2.14381098747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272008419037</t>
+    <t xml:space="preserve">1.91272020339966</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85405874252319</t>
+    <t xml:space="preserve">1.8540586233139</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495106220245</t>
+    <t xml:space="preserve">1.81495118141174</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738713741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494395256042</t>
+    <t xml:space="preserve">1.90738725662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494407176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88605582714081</t>
+    <t xml:space="preserve">1.8860559463501</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7554007768631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251125335693</t>
+    <t xml:space="preserve">1.75540089607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251137256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317690849304</t>
+    <t xml:space="preserve">1.77317702770233</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -4572,6 +4572,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.94799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96899998188019</t>
   </si>
 </sst>
 </file>
@@ -60969,7 +60972,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.649525463</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>17241155</v>
@@ -60990,6 +60993,32 @@
         <v>1519</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.649525463</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>3158354</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>1.97399997711182</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>1.91100001335144</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>1.92999994754791</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>1.96899998188019</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1520</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189933300018</t>
+    <t xml:space="preserve">1.03189945220947</t>
   </si>
   <si>
     <t xml:space="preserve">1.03549718856812</t>
@@ -53,31 +53,31 @@
     <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00743317604065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00311577320099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02614259719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959169864655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.983686208724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976787567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791023731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304852962494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885831832886</t>
+    <t xml:space="preserve">1.00743305683136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0031156539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02614271640778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959193706512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.983686447143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976906776428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791142940521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951304733753204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885712623596</t>
   </si>
   <si>
     <t xml:space="preserve">0.93403434753418</t>
@@ -98,19 +98,19 @@
     <t xml:space="preserve">0.977929711341858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462888717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992321610450745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955622375011444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.941949963569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.914605379104614</t>
+    <t xml:space="preserve">1.0146290063858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992321491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622255802155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.941949844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.914605259895325</t>
   </si>
   <si>
     <t xml:space="preserve">0.935473620891571</t>
@@ -119,16 +119,16 @@
     <t xml:space="preserve">0.921801269054413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947706699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733523368835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368686676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998798072338104</t>
+    <t xml:space="preserve">0.947706818580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368925094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998797953128815</t>
   </si>
   <si>
     <t xml:space="preserve">1.03117954730988</t>
@@ -140,22 +140,22 @@
     <t xml:space="preserve">1.02110540866852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05636548995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686202526093</t>
+    <t xml:space="preserve">1.0563657283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02686214447021</t>
   </si>
   <si>
     <t xml:space="preserve">1.02326428890228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05132830142975</t>
+    <t xml:space="preserve">1.05132842063904</t>
   </si>
   <si>
     <t xml:space="preserve">1.05852425098419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03981482982635</t>
+    <t xml:space="preserve">1.03981494903564</t>
   </si>
   <si>
     <t xml:space="preserve">1.04341292381287</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">1.01247012615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02542293071747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06571996212006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723391056061</t>
+    <t xml:space="preserve">1.02542281150818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06572008132935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723379135132</t>
   </si>
   <si>
     <t xml:space="preserve">1.11609184741974</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">1.12616610527039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11897027492523</t>
+    <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
     <t xml:space="preserve">1.12256824970245</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1297641992569</t>
+    <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048374652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13696026802063</t>
+    <t xml:space="preserve">1.13696014881134</t>
   </si>
   <si>
     <t xml:space="preserve">1.14415609836578</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">1.13767969608307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14703440666199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279126167297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14487564563751</t>
+    <t xml:space="preserve">1.14703452587128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279114246368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1448757648468</t>
   </si>
   <si>
     <t xml:space="preserve">1.13624048233032</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">1.12328791618347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10457825660706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12112903594971</t>
+    <t xml:space="preserve">1.10457837581635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.121129155159</t>
   </si>
   <si>
     <t xml:space="preserve">1.1563892364502</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">1.14847362041473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16214609146118</t>
+    <t xml:space="preserve">1.16214597225189</t>
   </si>
   <si>
     <t xml:space="preserve">1.15495002269745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15063238143921</t>
+    <t xml:space="preserve">1.14991307258606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1506325006485</t>
   </si>
   <si>
     <t xml:space="preserve">1.13480138778687</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">1.10817635059357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15423047542572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12760543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11249399185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1117742061615</t>
+    <t xml:space="preserve">1.15423035621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12760531902313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11249387264252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
     <t xml:space="preserve">1.14055812358856</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18733179569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085563182831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884526729584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661236763</t>
+    <t xml:space="preserve">1.18733167648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085551261902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884538650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006158828735</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.1858925819397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19308853149414</t>
+    <t xml:space="preserve">1.19308865070343</t>
   </si>
   <si>
     <t xml:space="preserve">1.16862225532532</t>
@@ -329,13 +329,13 @@
     <t xml:space="preserve">1.07795345783234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306502342224</t>
+    <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514584064484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0938116312027</t>
+    <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.07290589809418</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.01392221450806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979577362537384</t>
+    <t xml:space="preserve">0.979577243328094</t>
   </si>
   <si>
     <t xml:space="preserve">1.00944244861603</t>
@@ -371,40 +371,40 @@
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333461284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04080080986023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03408122062683</t>
+    <t xml:space="preserve">1.03333473205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04080092906952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03408110141754</t>
   </si>
   <si>
     <t xml:space="preserve">1.01914858818054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02885484695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03557443618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05573320388794</t>
+    <t xml:space="preserve">1.02885472774506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03557431697845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05573344230652</t>
   </si>
   <si>
     <t xml:space="preserve">1.04677379131317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06767952442169</t>
+    <t xml:space="preserve">1.06767964363098</t>
   </si>
   <si>
     <t xml:space="preserve">1.06469309329987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07738554477692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07813227176666</t>
+    <t xml:space="preserve">1.0773857831955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07813215255737</t>
   </si>
   <si>
     <t xml:space="preserve">1.09754467010498</t>
@@ -413,13 +413,13 @@
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634507656097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709180355072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09978461265564</t>
+    <t xml:space="preserve">1.08634519577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09978449344635</t>
   </si>
   <si>
     <t xml:space="preserve">1.10277104377747</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">1.11173057556152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1087441444397</t>
+    <t xml:space="preserve">1.10501110553741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10874402523041</t>
   </si>
   <si>
     <t xml:space="preserve">1.09007823467255</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">1.05125367641449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06618618965149</t>
+    <t xml:space="preserve">1.0661860704422</t>
   </si>
   <si>
     <t xml:space="preserve">1.07887899875641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10127794742584</t>
+    <t xml:space="preserve">1.10127782821655</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575747489929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13114309310913</t>
+    <t xml:space="preserve">1.13114297389984</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10799741744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322367191315</t>
+    <t xml:space="preserve">1.10799765586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426414012909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322391033173</t>
   </si>
   <si>
     <t xml:space="preserve">1.09455811977386</t>
@@ -494,25 +494,25 @@
     <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14383542537689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994338035583</t>
+    <t xml:space="preserve">1.14383554458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666308879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994349956512</t>
   </si>
   <si>
     <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933162689209</t>
+    <t xml:space="preserve">1.08933186531067</t>
   </si>
   <si>
     <t xml:space="preserve">1.1005312204361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14980840682983</t>
+    <t xml:space="preserve">1.14980852603912</t>
   </si>
   <si>
     <t xml:space="preserve">1.17668735980988</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">1.21700537204742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22223162651062</t>
+    <t xml:space="preserve">1.22223174571991</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521829605103</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">1.22148501873016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356595516205</t>
+    <t xml:space="preserve">1.20356607437134</t>
   </si>
   <si>
     <t xml:space="preserve">1.18938016891479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18714022636414</t>
+    <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.16996765136719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18490016460419</t>
+    <t xml:space="preserve">1.18490028381348</t>
   </si>
   <si>
     <t xml:space="preserve">1.19311320781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519402503967</t>
+    <t xml:space="preserve">1.17519414424896</t>
   </si>
   <si>
     <t xml:space="preserve">1.06991934776306</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">1.06543970108032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05722677707672</t>
+    <t xml:space="preserve">1.05722665786743</t>
   </si>
   <si>
     <t xml:space="preserve">1.04528057575226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05274665355682</t>
+    <t xml:space="preserve">1.05274677276611</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
@@ -584,49 +584,49 @@
     <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02512156963348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05200028419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02586805820465</t>
+    <t xml:space="preserve">1.02512168884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05200016498566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02586817741394</t>
   </si>
   <si>
     <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08111882209778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09530484676361</t>
+    <t xml:space="preserve">1.08111870288849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09530472755432</t>
   </si>
   <si>
     <t xml:space="preserve">1.11098408699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11471724510193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13188970088959</t>
+    <t xml:space="preserve">1.11471712589264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
     <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13487613201141</t>
+    <t xml:space="preserve">1.1348762512207</t>
   </si>
   <si>
     <t xml:space="preserve">1.14906203746796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15279519557953</t>
+    <t xml:space="preserve">1.15279507637024</t>
   </si>
   <si>
     <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16698110103607</t>
+    <t xml:space="preserve">1.16698098182678</t>
   </si>
   <si>
     <t xml:space="preserve">1.15130209922791</t>
@@ -635,25 +635,25 @@
     <t xml:space="preserve">1.13636934757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15727496147156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1714608669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220759391785</t>
+    <t xml:space="preserve">1.15727484226227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17146098613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220771312714</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729542016983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250157356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847455501556</t>
+    <t xml:space="preserve">1.17295408248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250145435333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847443580627</t>
   </si>
   <si>
     <t xml:space="preserve">1.14458227157593</t>
@@ -671,16 +671,16 @@
     <t xml:space="preserve">1.16474115848541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14308905601501</t>
+    <t xml:space="preserve">1.14308893680573</t>
   </si>
   <si>
     <t xml:space="preserve">1.18042039871216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18863356113434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1796737909317</t>
+    <t xml:space="preserve">1.18863344192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17967391014099</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191373348236</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">1.21177899837494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19609975814819</t>
+    <t xml:space="preserve">1.1960996389389</t>
   </si>
   <si>
     <t xml:space="preserve">1.20879244804382</t>
@@ -698,58 +698,58 @@
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20431268215179</t>
+    <t xml:space="preserve">1.20431244373322</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551191806793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447156906128</t>
+    <t xml:space="preserve">1.21551215648651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447144985199</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820460796356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22596502304077</t>
+    <t xml:space="preserve">1.22596478462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806975364685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899963855743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3640912771225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37379729747772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3857433795929</t>
+    <t xml:space="preserve">1.32899951934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36409139633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37379741668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38574326038361</t>
   </si>
   <si>
     <t xml:space="preserve">1.41486191749573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42979443073273</t>
+    <t xml:space="preserve">1.42979454994202</t>
   </si>
   <si>
     <t xml:space="preserve">1.43352770805359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44547367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200884103775</t>
+    <t xml:space="preserve">1.44547379016876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008817195892</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784846782684</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45294010639191</t>
+    <t xml:space="preserve">1.45293998718262</t>
   </si>
   <si>
     <t xml:space="preserve">1.46339285373688</t>
@@ -758,19 +758,19 @@
     <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45219349861145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46488606929779</t>
+    <t xml:space="preserve">1.45219337940216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43950068950653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920682907104</t>
+    <t xml:space="preserve">1.43950080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920694828033</t>
   </si>
   <si>
     <t xml:space="preserve">1.44024729728699</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664911270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44846045970917</t>
+    <t xml:space="preserve">1.40664899349213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44846034049988</t>
   </si>
   <si>
     <t xml:space="preserve">1.44995367527008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46413958072662</t>
+    <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
     <t xml:space="preserve">1.44472718238831</t>
@@ -797,19 +797,19 @@
     <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45592677593231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49325799942017</t>
+    <t xml:space="preserve">1.45592653751373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49325788021088</t>
   </si>
   <si>
     <t xml:space="preserve">1.48952484130859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51267027854919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5305894613266</t>
+    <t xml:space="preserve">1.51267039775848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53058958053589</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506922721863</t>
@@ -821,10 +821,10 @@
     <t xml:space="preserve">1.54104208946228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49251127243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50669717788696</t>
+    <t xml:space="preserve">1.49251139163971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
     <t xml:space="preserve">1.55298829078674</t>
@@ -839,19 +839,19 @@
     <t xml:space="preserve">1.59927952289581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62018501758575</t>
+    <t xml:space="preserve">1.62018513679504</t>
   </si>
   <si>
     <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.578373670578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60226583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58285343647003</t>
+    <t xml:space="preserve">1.57837378978729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60226571559906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58285355567932</t>
   </si>
   <si>
     <t xml:space="preserve">1.58882653713226</t>
@@ -863,28 +863,28 @@
     <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61719846725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64258396625519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959753513336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63213121891022</t>
+    <t xml:space="preserve">1.61719834804535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6425838470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959741592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63213109970093</t>
   </si>
   <si>
     <t xml:space="preserve">1.64557039737701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362431526184</t>
+    <t xml:space="preserve">1.63362443447113</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6584700345993</t>
+    <t xml:space="preserve">1.65846979618073</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
@@ -896,22 +896,22 @@
     <t xml:space="preserve">1.64463663101196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5893030166626</t>
+    <t xml:space="preserve">1.58930289745331</t>
   </si>
   <si>
     <t xml:space="preserve">1.6108216047287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57085824012756</t>
+    <t xml:space="preserve">1.57085835933685</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56317317485809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56471025943756</t>
+    <t xml:space="preserve">1.56317329406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56471037864685</t>
   </si>
   <si>
     <t xml:space="preserve">1.56624734401703</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">1.54626572132111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58008074760437</t>
+    <t xml:space="preserve">1.58008062839508</t>
   </si>
   <si>
     <t xml:space="preserve">1.58776593208313</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">1.60467350482941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.600062251091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59083986282349</t>
+    <t xml:space="preserve">1.60006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5908397436142</t>
   </si>
   <si>
     <t xml:space="preserve">1.59852516651154</t>
@@ -941,28 +941,28 @@
     <t xml:space="preserve">1.61389553546906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63080298900604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848805427551</t>
+    <t xml:space="preserve">1.63080310821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543262004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63848829269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.65539586544037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156234264374</t>
+    <t xml:space="preserve">1.64156222343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.61696970462799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65232181549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998874187469</t>
+    <t xml:space="preserve">1.65232169628143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998862266541</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691433429718</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">1.67537748813629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68306243419647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70458114147186</t>
+    <t xml:space="preserve">1.68306267261505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70458126068115</t>
   </si>
   <si>
     <t xml:space="preserve">1.72917377948761</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150721073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69997000694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72609984874725</t>
+    <t xml:space="preserve">1.70150709152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69997012615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72609972953796</t>
   </si>
   <si>
     <t xml:space="preserve">1.76452589035034</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">1.74608135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763681411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353218793869</t>
+    <t xml:space="preserve">1.72763669490814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532211780548</t>
   </si>
   <si>
     <t xml:space="preserve">1.74915552139282</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">1.76913702487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7768223285675</t>
+    <t xml:space="preserve">1.77682220935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.77221119403839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76759994029999</t>
+    <t xml:space="preserve">1.7675998210907</t>
   </si>
   <si>
     <t xml:space="preserve">1.79834079742432</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">1.82293343544006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83984112739563</t>
+    <t xml:space="preserve">1.83984088897705</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295193195343</t>
@@ -1055,46 +1055,46 @@
     <t xml:space="preserve">1.71534061431885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72456276416779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.744544506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300730228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071110248566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7138032913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376677513123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222957134247</t>
+    <t xml:space="preserve">1.72456300258636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454438686371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071074485779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380352973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376665592194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222945213318</t>
   </si>
   <si>
     <t xml:space="preserve">1.81217432022095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80602610111237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987776279449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143322467804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.756840467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80756330490112</t>
+    <t xml:space="preserve">1.80602586269379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81985938549042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987800121307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143346309662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75684082508087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80756306648254</t>
   </si>
   <si>
     <t xml:space="preserve">1.8152482509613</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">1.85521149635315</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86135983467102</t>
+    <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.89824879169464</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">1.89671158790588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89056348800659</t>
+    <t xml:space="preserve">1.8905633687973</t>
   </si>
   <si>
     <t xml:space="preserve">1.83215582370758</t>
@@ -1124,13 +1124,13 @@
     <t xml:space="preserve">1.85367429256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84291481971741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832253932953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674846172333</t>
+    <t xml:space="preserve">1.84291517734528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832242012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674822330475</t>
   </si>
   <si>
     <t xml:space="preserve">1.87211906909943</t>
@@ -1139,16 +1139,16 @@
     <t xml:space="preserve">1.90439689159393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95358240604401</t>
+    <t xml:space="preserve">1.95358216762543</t>
   </si>
   <si>
     <t xml:space="preserve">1.93360078334808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9213045835495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821203708649</t>
+    <t xml:space="preserve">1.92130410671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
     <t xml:space="preserve">1.93052661418915</t>
@@ -1157,88 +1157,88 @@
     <t xml:space="preserve">1.95050823688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97356379032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971212863922</t>
+    <t xml:space="preserve">1.97356402873993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971189022064</t>
   </si>
   <si>
     <t xml:space="preserve">1.97202682495117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9812490940094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9443598985672</t>
+    <t xml:space="preserve">1.98124921321869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94436013698578</t>
   </si>
   <si>
     <t xml:space="preserve">2.03350853919983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99969375133514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661958217621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973026752472</t>
+    <t xml:space="preserve">1.99969351291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661934375763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
     <t xml:space="preserve">2.00123071670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00276732444763</t>
+    <t xml:space="preserve">2.00276756286621</t>
   </si>
   <si>
     <t xml:space="preserve">1.97510075569153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96434128284454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745220661163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206357955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665633678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736043930054</t>
+    <t xml:space="preserve">1.96434152126312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745244503021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206381797791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9228413105011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665645599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736020088196</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95511937141418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897103309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98739731311798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656456947327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05195307731628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07039761543274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808256149292</t>
+    <t xml:space="preserve">1.95511913299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897150993347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9873970746994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05195283889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07039785385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.10574960708618</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0673234462738</t>
+    <t xml:space="preserve">2.06732368469238</t>
   </si>
   <si>
     <t xml:space="preserve">2.02582311630249</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">2.01199007034302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00737857818604</t>
+    <t xml:space="preserve">2.00737881660461</t>
   </si>
   <si>
     <t xml:space="preserve">2.00584149360657</t>
@@ -1265,7 +1265,7 @@
     <t xml:space="preserve">1.87365579605103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82600748538971</t>
+    <t xml:space="preserve">1.826007604599</t>
   </si>
   <si>
     <t xml:space="preserve">1.87826716899872</t>
@@ -1286,13 +1286,13 @@
     <t xml:space="preserve">1.88441514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88902628421783</t>
+    <t xml:space="preserve">1.88902640342712</t>
   </si>
   <si>
     <t xml:space="preserve">1.82447063922882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87058186531067</t>
+    <t xml:space="preserve">1.87058210372925</t>
   </si>
   <si>
     <t xml:space="preserve">1.91515624523163</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">1.88134133815765</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87519299983978</t>
+    <t xml:space="preserve">1.87519323825836</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598910808563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95819342136383</t>
+    <t xml:space="preserve">1.95819330215454</t>
   </si>
   <si>
     <t xml:space="preserve">1.95204520225525</t>
@@ -1322,13 +1322,13 @@
     <t xml:space="preserve">1.9428231716156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92591571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898941040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828566551208</t>
+    <t xml:space="preserve">1.92591524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85828542709351</t>
   </si>
   <si>
     <t xml:space="preserve">1.87980437278748</t>
@@ -1340,13 +1340,13 @@
     <t xml:space="preserve">1.94743406772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93667507171631</t>
+    <t xml:space="preserve">1.93667483329773</t>
   </si>
   <si>
     <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96587872505188</t>
+    <t xml:space="preserve">1.9658784866333</t>
   </si>
   <si>
     <t xml:space="preserve">1.9120819568634</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">1.8475261926651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84137809276581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450739383698</t>
+    <t xml:space="preserve">1.84137785434723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526674747467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7845071554184</t>
   </si>
   <si>
     <t xml:space="preserve">1.78297019004822</t>
@@ -1373,34 +1373,34 @@
     <t xml:space="preserve">1.71226632595062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66769218444824</t>
+    <t xml:space="preserve">1.66769242286682</t>
   </si>
   <si>
     <t xml:space="preserve">1.62004387378693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6323401927948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64924764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6600067615509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6477108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62772917747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59545123577118</t>
+    <t xml:space="preserve">1.63234031200409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64924740791321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771056175232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6277289390564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5954509973526</t>
   </si>
   <si>
     <t xml:space="preserve">1.69535899162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73224806785583</t>
+    <t xml:space="preserve">1.73224794864655</t>
   </si>
   <si>
     <t xml:space="preserve">1.72624850273132</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">1.74846136569977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72942185401917</t>
+    <t xml:space="preserve">1.72942197322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.70244896411896</t>
@@ -1427,13 +1427,13 @@
     <t xml:space="preserve">1.7500479221344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7373548746109</t>
+    <t xml:space="preserve">1.73735499382019</t>
   </si>
   <si>
     <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78178060054779</t>
+    <t xml:space="preserve">1.78178036212921</t>
   </si>
   <si>
     <t xml:space="preserve">1.79288697242737</t>
@@ -1451,22 +1451,19 @@
     <t xml:space="preserve">1.76432740688324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971362113953</t>
+    <t xml:space="preserve">1.78971338272095</t>
   </si>
   <si>
     <t xml:space="preserve">1.79130017757416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78019380569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81985938549042</t>
+    <t xml:space="preserve">1.78019404411316</t>
   </si>
   <si>
     <t xml:space="preserve">1.82779252529144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82461941242218</t>
+    <t xml:space="preserve">1.8246191740036</t>
   </si>
   <si>
     <t xml:space="preserve">1.81668615341187</t>
@@ -1493,7 +1490,7 @@
     <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91822993755341</t>
+    <t xml:space="preserve">1.91823017597198</t>
   </si>
   <si>
     <t xml:space="preserve">1.84207212924957</t>
@@ -1505,13 +1502,13 @@
     <t xml:space="preserve">1.8753913640976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87380480766296</t>
+    <t xml:space="preserve">1.87380456924438</t>
   </si>
   <si>
     <t xml:space="preserve">1.86745834350586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83572578430176</t>
+    <t xml:space="preserve">1.83572554588318</t>
   </si>
   <si>
     <t xml:space="preserve">1.80875301361084</t>
@@ -1520,19 +1517,19 @@
     <t xml:space="preserve">1.80716645717621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7611540555954</t>
+    <t xml:space="preserve">1.76115417480469</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687469005585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74211478233337</t>
+    <t xml:space="preserve">1.74211490154266</t>
   </si>
   <si>
     <t xml:space="preserve">1.73576843738556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73418164253235</t>
+    <t xml:space="preserve">1.73418176174164</t>
   </si>
   <si>
     <t xml:space="preserve">1.73259520530701</t>
@@ -1571,10 +1568,10 @@
     <t xml:space="preserve">1.769087433815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71990215778351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68975615501404</t>
+    <t xml:space="preserve">1.71990203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68975627422333</t>
   </si>
   <si>
     <t xml:space="preserve">1.66119706630707</t>
@@ -1601,7 +1598,7 @@
     <t xml:space="preserve">1.58821225166321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56282603740692</t>
+    <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
     <t xml:space="preserve">1.54220008850098</t>
@@ -1613,7 +1610,7 @@
     <t xml:space="preserve">1.51046764850616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54140651226044</t>
+    <t xml:space="preserve">1.54140663146973</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
@@ -1628,7 +1625,7 @@
     <t xml:space="preserve">1.53268027305603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5144339799881</t>
+    <t xml:space="preserve">1.51443409919739</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854655265808</t>
@@ -1637,10 +1634,10 @@
     <t xml:space="preserve">1.52395379543304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55647969245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55409955978394</t>
+    <t xml:space="preserve">1.5564798116684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
     <t xml:space="preserve">1.51760733127594</t>
@@ -1649,7 +1646,7 @@
     <t xml:space="preserve">1.5739324092865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5652060508728</t>
+    <t xml:space="preserve">1.56520617008209</t>
   </si>
   <si>
     <t xml:space="preserve">1.63105094432831</t>
@@ -1664,7 +1661,7 @@
     <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62629115581512</t>
+    <t xml:space="preserve">1.62629127502441</t>
   </si>
   <si>
     <t xml:space="preserve">1.59614527225494</t>
@@ -1685,7 +1682,7 @@
     <t xml:space="preserve">1.5548928976059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53902661800385</t>
+    <t xml:space="preserve">1.53902673721313</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679272651672</t>
@@ -1694,7 +1691,7 @@
     <t xml:space="preserve">1.54299330711365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49142801761627</t>
+    <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
     <t xml:space="preserve">1.51998722553253</t>
@@ -1709,27 +1706,30 @@
     <t xml:space="preserve">1.60090506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59138536453247</t>
+    <t xml:space="preserve">1.59138548374176</t>
   </si>
   <si>
     <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485036373138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768929481506</t>
+    <t xml:space="preserve">1.65485048294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768941402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.66278350353241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66913020610809</t>
+    <t xml:space="preserve">1.6691300868988</t>
   </si>
   <si>
     <t xml:space="preserve">1.72307503223419</t>
   </si>
   <si>
+    <t xml:space="preserve">1.72148895263672</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.70403575897217</t>
   </si>
   <si>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">1.70562243461609</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71355557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6881697177887</t>
+    <t xml:space="preserve">1.7135556936264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816959857941</t>
   </si>
   <si>
     <t xml:space="preserve">1.6865828037262</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">1.65326380729675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6738897562027</t>
+    <t xml:space="preserve">1.67388987541199</t>
   </si>
   <si>
     <t xml:space="preserve">1.68340957164764</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">1.68182289600372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71672892570496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.805579662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827282905579</t>
+    <t xml:space="preserve">1.71672880649567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80557978153229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827306747437</t>
   </si>
   <si>
     <t xml:space="preserve">1.82303273677826</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">1.80399310588837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83889889717102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80081975460052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69134259223938</t>
+    <t xml:space="preserve">1.8388991355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8008199930191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69134271144867</t>
   </si>
   <si>
     <t xml:space="preserve">1.68023633956909</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63422417640686</t>
+    <t xml:space="preserve">1.63422429561615</t>
   </si>
   <si>
     <t xml:space="preserve">1.62946426868439</t>
@@ -1820,19 +1820,19 @@
     <t xml:space="preserve">1.73894143104553</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76274085044861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226054668427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75798106193542</t>
+    <t xml:space="preserve">1.7627409696579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226066589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798118114471</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395069122314</t>
+    <t xml:space="preserve">1.90395045280457</t>
   </si>
   <si>
     <t xml:space="preserve">1.90077722072601</t>
@@ -1841,10 +1841,10 @@
     <t xml:space="preserve">1.88967096805573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8884345293045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89172410964966</t>
+    <t xml:space="preserve">1.88843429088593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89172434806824</t>
   </si>
   <si>
     <t xml:space="preserve">1.89665937423706</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">1.86869478225708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88020980358124</t>
+    <t xml:space="preserve">1.88020956516266</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349962234497</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929850101471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613910675049</t>
+    <t xml:space="preserve">1.94929873943329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613886833191</t>
   </si>
   <si>
     <t xml:space="preserve">1.97890818119049</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397327423096</t>
+    <t xml:space="preserve">1.97397351264954</t>
   </si>
   <si>
     <t xml:space="preserve">1.94600856304169</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00687313079834</t>
+    <t xml:space="preserve">2.00687289237976</t>
   </si>
   <si>
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358295440674</t>
+    <t xml:space="preserve">2.00358319282532</t>
   </si>
   <si>
     <t xml:space="preserve">1.99206793308258</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04964256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03319215774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03154730796814</t>
+    <t xml:space="preserve">2.04964232444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03319239616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03154754638672</t>
   </si>
   <si>
     <t xml:space="preserve">2.03483724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06609225273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06444716453552</t>
+    <t xml:space="preserve">2.06609201431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06444692611694</t>
   </si>
   <si>
     <t xml:space="preserve">2.04306244850159</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167797088623</t>
+    <t xml:space="preserve">2.02167773246765</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">2.17959570884705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20098042488098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18453049659729</t>
+    <t xml:space="preserve">2.20098066329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2012,22 +2012,22 @@
     <t xml:space="preserve">2.22072005271912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2305896282196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24210500717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21578478813171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23388004302979</t>
+    <t xml:space="preserve">2.23058986663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24210476875305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21578502655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23387980461121</t>
   </si>
   <si>
     <t xml:space="preserve">2.24045991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21249508857727</t>
+    <t xml:space="preserve">2.21249485015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2059154510498</t>
+    <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
     <t xml:space="preserve">2.25361943244934</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">2.27171421051025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474401473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513457298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006912231445</t>
+    <t xml:space="preserve">2.29474377632141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348972320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270860671997</t>
+    <t xml:space="preserve">2.26348948478699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270836830139</t>
   </si>
   <si>
     <t xml:space="preserve">2.30625891685486</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">2.25855445861816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29803371429443</t>
+    <t xml:space="preserve">2.29803395271301</t>
   </si>
   <si>
     <t xml:space="preserve">2.31612873077393</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">2.2815842628479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35889792442322</t>
+    <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435345649719</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">2.31777381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.357253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38686275482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35560822486877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37534809112549</t>
+    <t xml:space="preserve">2.35725331306458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38686299324036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35560846328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37534785270691</t>
   </si>
   <si>
     <t xml:space="preserve">2.43127727508545</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45101690292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50859117507935</t>
+    <t xml:space="preserve">2.451016664505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50859093666077</t>
   </si>
   <si>
     <t xml:space="preserve">2.48556160926819</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">2.46746683120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47733664512634</t>
+    <t xml:space="preserve">2.47733640670776</t>
   </si>
   <si>
     <t xml:space="preserve">2.45924186706543</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898149490356</t>
+    <t xml:space="preserve">2.47898125648499</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">2.46088695526123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51023602485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55465030670166</t>
+    <t xml:space="preserve">2.51023578643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55465054512024</t>
   </si>
   <si>
     <t xml:space="preserve">2.52668595314026</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36218810081482</t>
+    <t xml:space="preserve">2.36218786239624</t>
   </si>
   <si>
     <t xml:space="preserve">2.36383318901062</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184463500977</t>
+    <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
     <t xml:space="preserve">2.33257818222046</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05128741264343</t>
+    <t xml:space="preserve">2.21413969993591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05128717422485</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">1.8242803812027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956912994385</t>
+    <t xml:space="preserve">1.54956901073456</t>
   </si>
   <si>
     <t xml:space="preserve">1.59645092487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.510089635849</t>
+    <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
     <t xml:space="preserve">1.50844466686249</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013118267059</t>
+    <t xml:space="preserve">1.57013130187988</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66965234279633</t>
+    <t xml:space="preserve">1.66965246200562</t>
   </si>
   <si>
     <t xml:space="preserve">1.68610215187073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76835131645203</t>
+    <t xml:space="preserve">1.76835107803345</t>
   </si>
   <si>
     <t xml:space="preserve">1.85059988498688</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">1.73216164112091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72887170314789</t>
+    <t xml:space="preserve">1.7288715839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73051679134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229170799255</t>
+    <t xml:space="preserve">1.7305166721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229182720184</t>
   </si>
   <si>
     <t xml:space="preserve">1.76670622825623</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">1.86211490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83579504489899</t>
+    <t xml:space="preserve">1.83579528331757</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302573204041</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848126411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.776575922966</t>
+    <t xml:space="preserve">1.74038636684418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657604217529</t>
   </si>
   <si>
     <t xml:space="preserve">1.78480088710785</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">1.81934523582458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79960572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527453899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968905925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232818603516</t>
+    <t xml:space="preserve">1.79960548877716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527477741241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968929767609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232842445374</t>
   </si>
   <si>
     <t xml:space="preserve">1.96410369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92133390903473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817439556122</t>
+    <t xml:space="preserve">1.92133402824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817415714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224521160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90488421916962</t>
+    <t xml:space="preserve">1.85224497318268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9048844575882</t>
   </si>
   <si>
     <t xml:space="preserve">1.91146409511566</t>
@@ -21797,7 +21797,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21823,7 +21823,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21849,7 +21849,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21875,7 +21875,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21901,7 +21901,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21927,7 +21927,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21953,7 +21953,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21979,7 +21979,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22005,7 +22005,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22031,7 +22031,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22057,7 +22057,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22083,7 +22083,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22109,7 +22109,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22135,7 +22135,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22161,7 +22161,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22187,7 +22187,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22213,7 +22213,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22239,7 +22239,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22265,7 +22265,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22291,7 +22291,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22317,7 +22317,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22343,7 +22343,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22369,7 +22369,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22395,7 +22395,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22421,7 +22421,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22473,7 +22473,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22499,7 +22499,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22551,7 +22551,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22577,7 +22577,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22603,7 +22603,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22629,7 +22629,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22655,7 +22655,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22681,7 +22681,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22707,7 +22707,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22733,7 +22733,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22759,7 +22759,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22785,7 +22785,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22837,7 +22837,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22889,7 +22889,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22993,7 +22993,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23019,7 +23019,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23045,7 +23045,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23071,7 +23071,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23097,7 +23097,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23123,7 +23123,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23149,7 +23149,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23175,7 +23175,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23201,7 +23201,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23227,7 +23227,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23253,7 +23253,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23279,7 +23279,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23305,7 +23305,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23331,7 +23331,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23357,7 +23357,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23383,7 +23383,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23409,7 +23409,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23435,7 +23435,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23461,7 +23461,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23487,7 +23487,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23513,7 +23513,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23539,7 +23539,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23565,7 +23565,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23591,7 +23591,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23617,7 +23617,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23643,7 +23643,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23669,7 +23669,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23695,7 +23695,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23721,7 +23721,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23747,7 +23747,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23773,7 +23773,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23799,7 +23799,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23825,7 +23825,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23851,7 +23851,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23877,7 +23877,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23903,7 +23903,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23929,7 +23929,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23955,7 +23955,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23981,7 +23981,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24007,7 +24007,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24033,7 +24033,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24059,7 +24059,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24085,7 +24085,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24111,7 +24111,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24137,7 +24137,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24163,7 +24163,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24189,7 +24189,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24215,7 +24215,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24241,7 +24241,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24267,7 +24267,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24293,7 +24293,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24319,7 +24319,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24345,7 +24345,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24371,7 +24371,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24397,7 +24397,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24423,7 +24423,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24449,7 +24449,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24475,7 +24475,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24501,7 +24501,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24527,7 +24527,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24553,7 +24553,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24579,7 +24579,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24605,7 +24605,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24631,7 +24631,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24657,7 +24657,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24683,7 +24683,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24709,7 +24709,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24735,7 +24735,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24761,7 +24761,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24787,7 +24787,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24839,7 +24839,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24865,7 +24865,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24891,7 +24891,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24943,7 +24943,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25021,7 +25021,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25177,7 +25177,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25359,7 +25359,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25385,7 +25385,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25463,7 +25463,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25593,7 +25593,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25671,7 +25671,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25775,7 +25775,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25827,7 +25827,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25853,7 +25853,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25879,7 +25879,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25905,7 +25905,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25931,7 +25931,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26009,7 +26009,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26061,7 +26061,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26087,7 +26087,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26191,7 +26191,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26243,7 +26243,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26321,7 +26321,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26451,7 +26451,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26555,7 +26555,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26815,7 +26815,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26841,7 +26841,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26867,7 +26867,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26893,7 +26893,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26945,7 +26945,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27101,7 +27101,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27231,7 +27231,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27309,7 +27309,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27361,7 +27361,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27439,7 +27439,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27543,7 +27543,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27595,7 +27595,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27647,7 +27647,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27673,7 +27673,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27751,7 +27751,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27777,7 +27777,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27881,7 +27881,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -61325,7 +61325,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6501388889</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>2183089</v>
@@ -61346,6 +61346,32 @@
         <v>1525</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6505324074</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>2257863</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>2.02800011634827</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>1.99199998378754</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>1.99800002574921</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>2.00399994850159</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1527">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269325733185</t>
+    <t xml:space="preserve">1.04269313812256</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549718856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974045276642</t>
+    <t xml:space="preserve">1.03189921379089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549742698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974057197571</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743305683136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0031156539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02614271640778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00959193706512</t>
+    <t xml:space="preserve">1.00311553478241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02614259719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00959181785583</t>
   </si>
   <si>
     <t xml:space="preserve">0.983686447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964976906776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791142940521</t>
+    <t xml:space="preserve">0.964976787567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791202545166</t>
   </si>
   <si>
     <t xml:space="preserve">0.951304733753204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913885712623596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93403434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341862678528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957781076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453249454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.990162789821625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929711341858</t>
+    <t xml:space="preserve">0.913885593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934034407138824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95778101682663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453309059143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99016284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929592132568</t>
   </si>
   <si>
     <t xml:space="preserve">1.0146290063858</t>
@@ -107,67 +107,67 @@
     <t xml:space="preserve">0.955622255802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941949844360352</t>
+    <t xml:space="preserve">0.941950023174286</t>
   </si>
   <si>
     <t xml:space="preserve">0.914605259895325</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935473620891571</t>
+    <t xml:space="preserve">0.935473501682281</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801269054413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947706818580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733642578125</t>
+    <t xml:space="preserve">0.947706639766693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733761787415</t>
   </si>
   <si>
     <t xml:space="preserve">0.979368925094604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998797953128815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03117954730988</t>
+    <t xml:space="preserve">0.99879789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
     <t xml:space="preserve">1.03621697425842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02110540866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0563657283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02326428890228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05132842063904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05852425098419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03981494903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341292381287</t>
+    <t xml:space="preserve">1.02110528945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05636548995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0268622636795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02326416969299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05132830142975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05852437019348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03981482982635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341280460358</t>
   </si>
   <si>
     <t xml:space="preserve">1.01247012615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02542281150818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06572008132935</t>
+    <t xml:space="preserve">1.02542304992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06572031974792</t>
   </si>
   <si>
     <t xml:space="preserve">1.07723379135132</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">1.11609184741974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120353221893</t>
+    <t xml:space="preserve">1.13120341300964</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
@@ -188,79 +188,79 @@
     <t xml:space="preserve">1.14343655109406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12616610527039</t>
+    <t xml:space="preserve">1.12616634368896</t>
   </si>
   <si>
     <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256824970245</t>
+    <t xml:space="preserve">1.12256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544655799866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336217403412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14199733734131</t>
+    <t xml:space="preserve">1.141277551651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336229324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14199721813202</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12976431846619</t>
+    <t xml:space="preserve">1.1297641992569</t>
   </si>
   <si>
     <t xml:space="preserve">1.13048374652863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13696014881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14415609836578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767969608307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703452587128</t>
+    <t xml:space="preserve">1.13696002960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14415621757507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767981529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703440666199</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279114246368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1448757648468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13624048233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12328791618347</t>
+    <t xml:space="preserve">1.14487564563751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13624036312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12328779697418</t>
   </si>
   <si>
     <t xml:space="preserve">1.10457837581635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.121129155159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1563892364502</t>
+    <t xml:space="preserve">1.12112903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15638935565948</t>
   </si>
   <si>
     <t xml:space="preserve">1.14847362041473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16214597225189</t>
+    <t xml:space="preserve">1.16214609146118</t>
   </si>
   <si>
     <t xml:space="preserve">1.15495002269745</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14991307258606</t>
+    <t xml:space="preserve">1.14991295337677</t>
   </si>
   <si>
     <t xml:space="preserve">1.1506325006485</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">1.13480138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10817635059357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15423035621643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12760531902313</t>
+    <t xml:space="preserve">1.10817623138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15423047542572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12760555744171</t>
   </si>
   <si>
     <t xml:space="preserve">1.11249387264252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11177432537079</t>
+    <t xml:space="preserve">1.1117742061615</t>
   </si>
   <si>
     <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17222034931183</t>
+    <t xml:space="preserve">1.17222023010254</t>
   </si>
   <si>
     <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18733167648315</t>
+    <t xml:space="preserve">1.18733179569244</t>
   </si>
   <si>
     <t xml:space="preserve">1.18085551261902</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">1.19884538650513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18661224842072</t>
+    <t xml:space="preserve">1.18661248683929</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006158828735</t>
@@ -311,28 +311,28 @@
     <t xml:space="preserve">1.18805146217346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1858925819397</t>
+    <t xml:space="preserve">1.18589270114899</t>
   </si>
   <si>
     <t xml:space="preserve">1.19308865070343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16862225532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162557125092</t>
+    <t xml:space="preserve">1.16862237453461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162569046021</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07795345783234</t>
+    <t xml:space="preserve">1.07795333862305</t>
   </si>
   <si>
     <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07514584064484</t>
+    <t xml:space="preserve">1.07514595985413</t>
   </si>
   <si>
     <t xml:space="preserve">1.09381151199341</t>
@@ -344,34 +344,34 @@
     <t xml:space="preserve">1.01392221450806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979577243328094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944244861603</t>
+    <t xml:space="preserve">0.979577422142029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944256782532</t>
   </si>
   <si>
     <t xml:space="preserve">1.00048291683197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0378143787384</t>
+    <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
     <t xml:space="preserve">1.04453408718109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04901385307312</t>
+    <t xml:space="preserve">1.04901373386383</t>
   </si>
   <si>
     <t xml:space="preserve">1.01541543006897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00869560241699</t>
+    <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333473205566</t>
+    <t xml:space="preserve">1.03333461284637</t>
   </si>
   <si>
     <t xml:space="preserve">1.04080092906952</t>
@@ -380,28 +380,28 @@
     <t xml:space="preserve">1.03408110141754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01914858818054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02885472774506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03557431697845</t>
+    <t xml:space="preserve">1.01914870738983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02885484695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03557443618774</t>
   </si>
   <si>
     <t xml:space="preserve">1.05573344230652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04677379131317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767964363098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469309329987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0773857831955</t>
+    <t xml:space="preserve">1.04677391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0676794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469297409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07738566398621</t>
   </si>
   <si>
     <t xml:space="preserve">1.07813215255737</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">1.09754467010498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09903788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08634519577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09978449344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10277104377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11173057556152</t>
+    <t xml:space="preserve">1.09903800487518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08634531497955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709180355072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09978461265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10277092456818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11173045635223</t>
   </si>
   <si>
     <t xml:space="preserve">1.10501110553741</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">1.09007823467255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06319975852966</t>
+    <t xml:space="preserve">1.06319987773895</t>
   </si>
   <si>
     <t xml:space="preserve">1.06170642375946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05946660041809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05125367641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0661860704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887899875641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127782821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10575747489929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13114297389984</t>
+    <t xml:space="preserve">1.0594664812088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05125379562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618630886078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127770900726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10575759410858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13114285469055</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10799765586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426414012909</t>
+    <t xml:space="preserve">1.10799753665924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426437854767</t>
   </si>
   <si>
     <t xml:space="preserve">1.11322391033173</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">1.09455811977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08037221431732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202443599701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09231817722321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08783853054047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11247718334198</t>
+    <t xml:space="preserve">1.08037209510803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202431678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0923182964325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08783864974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11247706413269</t>
   </si>
   <si>
     <t xml:space="preserve">1.14383554458618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12666308879852</t>
+    <t xml:space="preserve">1.12666320800781</t>
   </si>
   <si>
     <t xml:space="preserve">1.11994349956512</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933186531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1005312204361</t>
+    <t xml:space="preserve">1.08933162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10053110122681</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980852603912</t>
@@ -518,49 +518,49 @@
     <t xml:space="preserve">1.17668735980988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17892718315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20207273960114</t>
+    <t xml:space="preserve">1.17892706394196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20207262039185</t>
   </si>
   <si>
     <t xml:space="preserve">1.21700537204742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22223174571991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22521829605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19535303115845</t>
+    <t xml:space="preserve">1.2222318649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22521817684174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19535291194916</t>
   </si>
   <si>
     <t xml:space="preserve">1.21476531028748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22148501873016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20356607437134</t>
+    <t xml:space="preserve">1.22148513793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
     <t xml:space="preserve">1.18938016891479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18714010715485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16996765136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18490028381348</t>
+    <t xml:space="preserve">1.18714022636414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16996777057648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18490016460419</t>
   </si>
   <si>
     <t xml:space="preserve">1.19311320781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519414424896</t>
+    <t xml:space="preserve">1.17519402503967</t>
   </si>
   <si>
     <t xml:space="preserve">1.06991934776306</t>
@@ -575,19 +575,19 @@
     <t xml:space="preserve">1.04528057575226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05274677276611</t>
+    <t xml:space="preserve">1.0527468919754</t>
   </si>
   <si>
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064180374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02512168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05200016498566</t>
+    <t xml:space="preserve">1.02064192295074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02512156963348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05200028419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.02586817741394</t>
@@ -605,67 +605,67 @@
     <t xml:space="preserve">1.11098408699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11471712589264</t>
+    <t xml:space="preserve">1.11471700668335</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1348762512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14906203746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279507637024</t>
+    <t xml:space="preserve">1.13412940502167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13487601280212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14906215667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279531478882</t>
   </si>
   <si>
     <t xml:space="preserve">1.16175472736359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16698098182678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15130209922791</t>
+    <t xml:space="preserve">1.16698110103607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15130198001862</t>
   </si>
   <si>
     <t xml:space="preserve">1.13636934757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15727484226227</t>
+    <t xml:space="preserve">1.15727496147156</t>
   </si>
   <si>
     <t xml:space="preserve">1.17146098613739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17220771312714</t>
+    <t xml:space="preserve">1.17220759391785</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17295408248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250145435333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847443580627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14458227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890315055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12293004989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15055525302887</t>
+    <t xml:space="preserve">1.1729542016983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847455501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14458239078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890303134918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12292993068695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15055537223816</t>
   </si>
   <si>
     <t xml:space="preserve">1.16474115848541</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">1.14308893680573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18042039871216</t>
+    <t xml:space="preserve">1.18042051792145</t>
   </si>
   <si>
     <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17967391014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18191373348236</t>
+    <t xml:space="preserve">1.17967367172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18191349506378</t>
   </si>
   <si>
     <t xml:space="preserve">1.21177899837494</t>
@@ -692,43 +692,43 @@
     <t xml:space="preserve">1.1960996389389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20879244804382</t>
+    <t xml:space="preserve">1.20879232883453</t>
   </si>
   <si>
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20431244373322</t>
+    <t xml:space="preserve">1.2043125629425</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551215648651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447144985199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22820460796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22596478462219</t>
+    <t xml:space="preserve">1.21551203727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22820472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2259646654129</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806975364685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899951934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36409139633179</t>
+    <t xml:space="preserve">1.32899963855743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
     <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38574326038361</t>
+    <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
     <t xml:space="preserve">1.41486191749573</t>
@@ -737,91 +737,91 @@
     <t xml:space="preserve">1.42979454994202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43352770805359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547379016876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42008817195892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784846782684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45293998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46339285373688</t>
+    <t xml:space="preserve">1.4335275888443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547390937805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4200884103775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41784858703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45294010639191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46339273452759</t>
   </si>
   <si>
     <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45219337940216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46488618850708</t>
+    <t xml:space="preserve">1.45219349861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46488630771637</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43950080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920694828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024729728699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083501815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40664899349213</t>
+    <t xml:space="preserve">1.43950068950653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024741649628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083513736725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40664911270142</t>
   </si>
   <si>
     <t xml:space="preserve">1.44846034049988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44995367527008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46413946151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44472718238831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48355174064636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45592653751373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49325788021088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267039775848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53058958053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506922721863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52461647987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54104208946228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49251139163971</t>
+    <t xml:space="preserve">1.44995355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46413958072662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44472706317902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48355185985565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45592665672302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49325799942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952496051788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53058934211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506934642792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52461636066437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54104232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49251127243042</t>
   </si>
   <si>
     <t xml:space="preserve">1.50669729709625</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">1.55298829078674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57538712024689</t>
+    <t xml:space="preserve">1.5753870010376</t>
   </si>
   <si>
     <t xml:space="preserve">1.58733320236206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59927952289581</t>
+    <t xml:space="preserve">1.59927940368652</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837378978729</t>
+    <t xml:space="preserve">1.57837390899658</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226571559906</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">1.58285355567932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58882653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389402389526</t>
+    <t xml:space="preserve">1.58882665634155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389378547668</t>
   </si>
   <si>
     <t xml:space="preserve">1.60823893547058</t>
@@ -866,49 +866,49 @@
     <t xml:space="preserve">1.61719834804535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6425838470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63213109970093</t>
+    <t xml:space="preserve">1.64258396625519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959729671478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63213121891022</t>
   </si>
   <si>
     <t xml:space="preserve">1.64557039737701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362443447113</t>
+    <t xml:space="preserve">1.63362419605255</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65846979618073</t>
+    <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461801528931</t>
+    <t xml:space="preserve">1.6646181344986</t>
   </si>
   <si>
     <t xml:space="preserve">1.64463663101196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58930289745331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6108216047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085835933685</t>
+    <t xml:space="preserve">1.5893030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61082148551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085847854614</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56317329406738</t>
+    <t xml:space="preserve">1.5631730556488</t>
   </si>
   <si>
     <t xml:space="preserve">1.56471037864685</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">1.54626572132111</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58008062839508</t>
+    <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
     <t xml:space="preserve">1.58776593208313</t>
@@ -929,34 +929,34 @@
     <t xml:space="preserve">1.60467350482941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60006237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5908397436142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852516651154</t>
+    <t xml:space="preserve">1.600062251091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59083986282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852504730225</t>
   </si>
   <si>
     <t xml:space="preserve">1.61389553546906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63080310821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543262004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848829269409</t>
+    <t xml:space="preserve">1.63080298900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6384881734848</t>
   </si>
   <si>
     <t xml:space="preserve">1.65539586544037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156222343445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696970462799</t>
+    <t xml:space="preserve">1.64156234264374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696982383728</t>
   </si>
   <si>
     <t xml:space="preserve">1.65232169628143</t>
@@ -968,505 +968,508 @@
     <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67537748813629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68306267261505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70458126068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72917377948761</t>
+    <t xml:space="preserve">1.675377368927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68306255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70458114147186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72917413711548</t>
   </si>
   <si>
     <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150709152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69997012615204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72609972953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76452589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298868656158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991475582123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145195960999</t>
+    <t xml:space="preserve">1.7015073299408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69997000694275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72609996795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76452577114105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298880577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76145172119141</t>
   </si>
   <si>
     <t xml:space="preserve">1.74608135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763669490814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532211780548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915552139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913702487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77682220935822</t>
+    <t xml:space="preserve">1.72763693332672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7353218793869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915564060211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913690567017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77682244777679</t>
   </si>
   <si>
     <t xml:space="preserve">1.77221119403839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7675998210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834079742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293343544006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984088897705</t>
+    <t xml:space="preserve">1.76759970188141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79834091663361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293355464935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984100818634</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295193195343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79372990131378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78758156299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74761831760406</t>
+    <t xml:space="preserve">1.79372978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78758144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74761819839478</t>
   </si>
   <si>
     <t xml:space="preserve">1.71995151042938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71534061431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72456300258636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454438686371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300718307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071074485779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380352973938</t>
+    <t xml:space="preserve">1.71534049510956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72456252574921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071110248566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380341053009</t>
   </si>
   <si>
     <t xml:space="preserve">1.75376665592194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75222945213318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81217432022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80602586269379</t>
+    <t xml:space="preserve">1.75222969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81217420101166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80602610111237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.819859623909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987788200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143334388733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75684082508087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80756318569183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8152482509613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521149635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135971546173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89824867248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285992622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671170711517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056360721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215570449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8536741733551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84291517734528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832242012024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674822330475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211930751801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439665317535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358240604401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9336005449295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130422592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821179866791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052673339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050823688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356367111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971189022064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202682495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98124897480011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94436001777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969351291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661934375763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95973038673401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00123047828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00276732444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510075569153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434152126312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745232582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206357955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92284142971039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665621757507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736043930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01660084724426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95511901378632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94897091388702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05195307731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07039761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07808256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0673234462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02582311630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0119903087616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00737881660461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00584197044373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04119372367859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88287830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830404281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365579605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.826007604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87826716899872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8644335269928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672984600067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83522987365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85982275009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441503047943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902640342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447063922882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87058186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.901322722435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363741874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519299983978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84598910808563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95819354057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204484462738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9289892911911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85828542709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8798041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361939907074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743418693542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667495250702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94589710235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96587860584259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9120819568634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859521150589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8475261926651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137797355652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450739383698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7829704284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7122665643692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66769230365753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62004387378693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6323401927948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64924764633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000688076019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771068096161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62772929668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59545123577118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69535899162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73224806785583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72624862194061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942173480988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70244908332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71038222312927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69927585124969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70720911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7500479221344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73735511302948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74528813362122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7817804813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79288685321808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79764664173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8119261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543389797211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76432752609253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78971362113953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79130017757416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019368648529</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985938549042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79987800121307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143346309662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75684082508087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80756306648254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8152482509613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521149635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89824879169464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285992622375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671158790588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8905633687973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215582370758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85367429256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84291517734528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832242012024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674822330475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211906909943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439689159393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358216762543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360078334808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130410671234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821179866791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052661418915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050823688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356402873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971189022064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98124921321869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94436013698578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969351291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661934375763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95973038673401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00123071670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00276756286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510075569153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434152126312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745244503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206381797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9228413105011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665645599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736020088196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01660108566284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95511913299561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94897150993347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9873970746994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05195283889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07039785385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0780827999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10574960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06732368469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02582311630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01199007034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00737881660461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00584149360657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04119348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88287830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830392360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365579605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.826007604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87826716899872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86443388462067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87672996520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83522999286652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85982263088226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902640342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447063922882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87058210372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515624523163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363741874695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134133815765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519323825836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84598910808563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95819330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9428231716156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87980437278748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361904144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743406772614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667483329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94589710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9658784866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9120819568634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88595235347748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8475261926651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137785434723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526674747467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7845071554184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78297019004822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71226632595062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66769242286682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62004387378693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63234031200409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64924740791321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771056175232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6277289390564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5954509973526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69535899162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73224794864655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72624850273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846136569977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70244896411896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71038222312927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69927597045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7500479221344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73735499382019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74528801441193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78178036212921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288697242737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79764676094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8119261264801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543377876282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76432740688324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78971338272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79130017757416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019404411316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779252529144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8246191740036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668615341187</t>
+    <t xml:space="preserve">1.82779240608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82461905479431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668627262115</t>
   </si>
   <si>
     <t xml:space="preserve">1.79923319816589</t>
@@ -1475,76 +1478,76 @@
     <t xml:space="preserve">1.77384734153748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77860724925995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649749755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856447696686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760398864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140340805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91823017597198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207212924957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86269843578339</t>
+    <t xml:space="preserve">1.77860736846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649773597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856459617615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760434627533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140328884125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91823029518127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207224845886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
     <t xml:space="preserve">1.8753913640976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87380456924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745834350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572554588318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875301361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80716645717621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115417480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74687469005585</t>
+    <t xml:space="preserve">1.87380480766296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745846271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875289440155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8071665763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115441322327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74687457084656</t>
   </si>
   <si>
     <t xml:space="preserve">1.74211490154266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73576843738556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73418176174164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73259520530701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451582431793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69292950630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64057075977325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60249173641205</t>
+    <t xml:space="preserve">1.73576831817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73418188095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73259508609772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451594352722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69292938709259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64057087898254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60249185562134</t>
   </si>
   <si>
     <t xml:space="preserve">1.61677145957947</t>
@@ -1553,64 +1556,64 @@
     <t xml:space="preserve">1.62787783145905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64374399185181</t>
+    <t xml:space="preserve">1.6437441110611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64215731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64533066749573</t>
+    <t xml:space="preserve">1.64533042907715</t>
   </si>
   <si>
     <t xml:space="preserve">1.71196889877319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.769087433815</t>
+    <t xml:space="preserve">1.76908755302429</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975627422333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119706630707</t>
+    <t xml:space="preserve">1.68975639343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119682788849</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66595685482025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706334590912</t>
+    <t xml:space="preserve">1.66595673561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706322669983</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547643184662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071652412415</t>
+    <t xml:space="preserve">1.67071664333344</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58821225166321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56282615661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54220008850098</t>
+    <t xml:space="preserve">1.58821213245392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5628262758255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54219996929169</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506004810333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046764850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140663146973</t>
+    <t xml:space="preserve">1.51046752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140651226044</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
@@ -1619,88 +1622,88 @@
     <t xml:space="preserve">1.52554047107697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54061341285706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268027305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443409919739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54854655265808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52395379543304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5564798116684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55409967899323</t>
+    <t xml:space="preserve">1.54061329364777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268015384674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5144339799881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54854643344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52395391464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55647969245911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55409955978394</t>
   </si>
   <si>
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5739324092865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56520617008209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63105094432831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62311792373657</t>
+    <t xml:space="preserve">1.57393252849579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56520628929138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6310510635376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62311780452728</t>
   </si>
   <si>
     <t xml:space="preserve">1.64691722393036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65167713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62629127502441</t>
+    <t xml:space="preserve">1.65167725086212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62629103660583</t>
   </si>
   <si>
     <t xml:space="preserve">1.59614527225494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60883843898773</t>
+    <t xml:space="preserve">1.60883831977844</t>
   </si>
   <si>
     <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53664684295654</t>
+    <t xml:space="preserve">1.53664696216583</t>
   </si>
   <si>
     <t xml:space="preserve">1.54933977127075</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5548928976059</t>
+    <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
     <t xml:space="preserve">1.53902673721313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56679272651672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54299330711365</t>
+    <t xml:space="preserve">1.56679260730743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54299342632294</t>
   </si>
   <si>
     <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51998722553253</t>
+    <t xml:space="preserve">1.51998710632324</t>
   </si>
   <si>
     <t xml:space="preserve">1.50729417800903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5993185043335</t>
+    <t xml:space="preserve">1.59931862354279</t>
   </si>
   <si>
     <t xml:space="preserve">1.60090506076813</t>
@@ -1709,49 +1712,46 @@
     <t xml:space="preserve">1.59138548374176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58662557601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65485048294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768941402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278350353241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6691300868988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307503223419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403575897217</t>
+    <t xml:space="preserve">1.58662545681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65485036373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768929481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6627836227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66913020610809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307515144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403587818146</t>
   </si>
   <si>
     <t xml:space="preserve">1.70879578590393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70562243461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7135556936264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816959857941</t>
+    <t xml:space="preserve">1.70562255382538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71355545520782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816947937012</t>
   </si>
   <si>
     <t xml:space="preserve">1.6865828037262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65326380729675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67388987541199</t>
+    <t xml:space="preserve">1.65326392650604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6738897562027</t>
   </si>
   <si>
     <t xml:space="preserve">1.68340957164764</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">1.65643703937531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65802359580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182289600372</t>
+    <t xml:space="preserve">1.65802347660065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182301521301</t>
   </si>
   <si>
     <t xml:space="preserve">1.71672880649567</t>
@@ -1772,40 +1772,40 @@
     <t xml:space="preserve">1.80557978153229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81827306747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303273677826</t>
+    <t xml:space="preserve">1.81827282905579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303249835968</t>
   </si>
   <si>
     <t xml:space="preserve">1.7881270647049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654026985168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033980846405</t>
+    <t xml:space="preserve">1.81509983539581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654050827026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033968925476</t>
   </si>
   <si>
     <t xml:space="preserve">1.80399310588837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8388991355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8008199930191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69134271144867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68023633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961027145386</t>
+    <t xml:space="preserve">1.83889901638031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80081987380981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69134283065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68023645877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961015224457</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422429561615</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">1.66754341125488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73894143104553</t>
+    <t xml:space="preserve">1.73894155025482</t>
   </si>
   <si>
     <t xml:space="preserve">1.7627409696579</t>
@@ -1826,25 +1826,25 @@
     <t xml:space="preserve">1.77226066589355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75798118114471</t>
+    <t xml:space="preserve">1.757981300354</t>
   </si>
   <si>
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395045280457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90077722072601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88967096805573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88843429088593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89172434806824</t>
+    <t xml:space="preserve">1.90395057201385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9007773399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88967084884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8884345293045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89172410964966</t>
   </si>
   <si>
     <t xml:space="preserve">1.89665937423706</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">1.86869478225708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88020956516266</t>
+    <t xml:space="preserve">1.88020980358124</t>
   </si>
   <si>
     <t xml:space="preserve">1.88349962234497</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929873943329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613886833191</t>
+    <t xml:space="preserve">1.94929850101471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613910675049</t>
   </si>
   <si>
     <t xml:space="preserve">1.97890818119049</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397351264954</t>
+    <t xml:space="preserve">1.97397327423096</t>
   </si>
   <si>
     <t xml:space="preserve">1.94600856304169</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00687289237976</t>
+    <t xml:space="preserve">2.00687313079834</t>
   </si>
   <si>
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358319282532</t>
+    <t xml:space="preserve">2.00358295440674</t>
   </si>
   <si>
     <t xml:space="preserve">1.99206793308258</t>
@@ -1946,22 +1946,22 @@
     <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04964232444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03319239616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03154754638672</t>
+    <t xml:space="preserve">2.04964256286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03319215774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03154730796814</t>
   </si>
   <si>
     <t xml:space="preserve">2.03483724594116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06609201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06444692611694</t>
+    <t xml:space="preserve">2.06609225273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06444716453552</t>
   </si>
   <si>
     <t xml:space="preserve">2.04306244850159</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
+    <t xml:space="preserve">2.02167797088623</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">2.17959570884705</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20098066329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18453025817871</t>
+    <t xml:space="preserve">2.20098042488098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18453049659729</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2012,22 +2012,22 @@
     <t xml:space="preserve">2.22072005271912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23058986663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24210476875305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21578502655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23387980461121</t>
+    <t xml:space="preserve">2.2305896282196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24210500717163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21578478813171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23388004302979</t>
   </si>
   <si>
     <t xml:space="preserve">2.24045991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21249485015869</t>
+    <t xml:space="preserve">2.21249508857727</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2045,7 +2045,7 @@
     <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20591521263123</t>
+    <t xml:space="preserve">2.2059154510498</t>
   </si>
   <si>
     <t xml:space="preserve">2.25361943244934</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">2.27171421051025</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29474377632141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26513433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006936073303</t>
+    <t xml:space="preserve">2.29474401473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26513457298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006912231445</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348948478699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270836830139</t>
+    <t xml:space="preserve">2.26348972320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
     <t xml:space="preserve">2.30625891685486</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">2.25855445861816</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29803395271301</t>
+    <t xml:space="preserve">2.29803371429443</t>
   </si>
   <si>
     <t xml:space="preserve">2.31612873077393</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">2.2815842628479</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3588981628418</t>
+    <t xml:space="preserve">2.35889792442322</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435345649719</t>
@@ -2150,16 +2150,16 @@
     <t xml:space="preserve">2.31777381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35725331306458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38686299324036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35560846328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37534785270691</t>
+    <t xml:space="preserve">2.357253074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38686275482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35560822486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37534809112549</t>
   </si>
   <si>
     <t xml:space="preserve">2.43127727508545</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.451016664505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50859093666077</t>
+    <t xml:space="preserve">2.45101690292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50859117507935</t>
   </si>
   <si>
     <t xml:space="preserve">2.48556160926819</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">2.46746683120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47733640670776</t>
+    <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
     <t xml:space="preserve">2.45924186706543</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898125648499</t>
+    <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
@@ -2207,10 +2207,10 @@
     <t xml:space="preserve">2.46088695526123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51023578643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55465054512024</t>
+    <t xml:space="preserve">2.51023602485657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55465030670166</t>
   </si>
   <si>
     <t xml:space="preserve">2.52668595314026</t>
@@ -2219,7 +2219,7 @@
     <t xml:space="preserve">2.51352596282959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36218786239624</t>
+    <t xml:space="preserve">2.36218810081482</t>
   </si>
   <si>
     <t xml:space="preserve">2.36383318901062</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184439659119</t>
+    <t xml:space="preserve">2.26184463500977</t>
   </si>
   <si>
     <t xml:space="preserve">2.33257818222046</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413969993591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05128717422485</t>
+    <t xml:space="preserve">2.21413993835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05128741264343</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">1.8242803812027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956901073456</t>
+    <t xml:space="preserve">1.54956912994385</t>
   </si>
   <si>
     <t xml:space="preserve">1.59645092487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51008951663971</t>
+    <t xml:space="preserve">1.510089635849</t>
   </si>
   <si>
     <t xml:space="preserve">1.50844466686249</t>
@@ -2276,19 +2276,19 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013130187988</t>
+    <t xml:space="preserve">1.57013118267059</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66965246200562</t>
+    <t xml:space="preserve">1.66965234279633</t>
   </si>
   <si>
     <t xml:space="preserve">1.68610215187073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76835107803345</t>
+    <t xml:space="preserve">1.76835131645203</t>
   </si>
   <si>
     <t xml:space="preserve">1.85059988498688</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">1.73216164112091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7288715839386</t>
+    <t xml:space="preserve">1.72887170314789</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7305166721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
+    <t xml:space="preserve">1.73051679134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229170799255</t>
   </si>
   <si>
     <t xml:space="preserve">1.76670622825623</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">1.86211490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83579528331757</t>
+    <t xml:space="preserve">1.83579504489899</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302573204041</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038636684418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848114490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657604217529</t>
+    <t xml:space="preserve">1.74038648605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848126411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.776575922966</t>
   </si>
   <si>
     <t xml:space="preserve">1.78480088710785</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">1.81934523582458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79960548877716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527477741241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968929767609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232842445374</t>
+    <t xml:space="preserve">1.79960572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527453899384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91968905925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232818603516</t>
   </si>
   <si>
     <t xml:space="preserve">1.96410369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92133402824402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817415714264</t>
+    <t xml:space="preserve">1.92133390903473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817439556122</t>
   </si>
   <si>
     <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224497318268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9048844575882</t>
+    <t xml:space="preserve">1.85224521160126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488421916962</t>
   </si>
   <si>
     <t xml:space="preserve">1.91146409511566</t>
@@ -4590,6 +4590,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.99800002574921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99500000476837</t>
   </si>
 </sst>
 </file>
@@ -21797,7 +21800,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21823,7 +21826,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21849,7 +21852,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21875,7 +21878,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21901,7 +21904,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21927,7 +21930,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21953,7 +21956,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21979,7 +21982,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22005,7 +22008,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22031,7 +22034,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22057,7 +22060,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22083,7 +22086,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22109,7 +22112,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22135,7 +22138,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22161,7 +22164,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22187,7 +22190,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22213,7 +22216,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22239,7 +22242,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22265,7 +22268,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22291,7 +22294,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22317,7 +22320,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22343,7 +22346,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22369,7 +22372,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22395,7 +22398,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22421,7 +22424,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22473,7 +22476,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22499,7 +22502,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22551,7 +22554,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22577,7 +22580,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22603,7 +22606,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22629,7 +22632,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22655,7 +22658,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22681,7 +22684,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22707,7 +22710,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22733,7 +22736,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22759,7 +22762,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22785,7 +22788,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22837,7 +22840,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22889,7 +22892,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -22993,7 +22996,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23019,7 +23022,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23045,7 +23048,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23071,7 +23074,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23097,7 +23100,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23123,7 +23126,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23149,7 +23152,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23175,7 +23178,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23201,7 +23204,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23227,7 +23230,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23253,7 +23256,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23279,7 +23282,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23305,7 +23308,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23331,7 +23334,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23357,7 +23360,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23383,7 +23386,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23409,7 +23412,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23435,7 +23438,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23461,7 +23464,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23487,7 +23490,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23513,7 +23516,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23539,7 +23542,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23565,7 +23568,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23591,7 +23594,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23617,7 +23620,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23643,7 +23646,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23669,7 +23672,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23695,7 +23698,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23721,7 +23724,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23747,7 +23750,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23773,7 +23776,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23799,7 +23802,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23825,7 +23828,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23851,7 +23854,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23877,7 +23880,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23903,7 +23906,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23929,7 +23932,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23955,7 +23958,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23981,7 +23984,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24007,7 +24010,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24033,7 +24036,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24059,7 +24062,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24085,7 +24088,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24111,7 +24114,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24137,7 +24140,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24163,7 +24166,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24189,7 +24192,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24215,7 +24218,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24241,7 +24244,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24267,7 +24270,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24293,7 +24296,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24319,7 +24322,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24345,7 +24348,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24371,7 +24374,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24397,7 +24400,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24423,7 +24426,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24449,7 +24452,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24475,7 +24478,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24501,7 +24504,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24527,7 +24530,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24553,7 +24556,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24579,7 +24582,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24605,7 +24608,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24631,7 +24634,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24657,7 +24660,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24683,7 +24686,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24709,7 +24712,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24735,7 +24738,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24761,7 +24764,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24787,7 +24790,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24839,7 +24842,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24865,7 +24868,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24891,7 +24894,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24943,7 +24946,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25021,7 +25024,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25177,7 +25180,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25359,7 +25362,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25385,7 +25388,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25463,7 +25466,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25593,7 +25596,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25671,7 +25674,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25775,7 +25778,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25827,7 +25830,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25853,7 +25856,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25879,7 +25882,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25905,7 +25908,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25931,7 +25934,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26009,7 +26012,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26061,7 +26064,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26087,7 +26090,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26191,7 +26194,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26243,7 +26246,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26321,7 +26324,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26451,7 +26454,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26555,7 +26558,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26815,7 +26818,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26841,7 +26844,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26867,7 +26870,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26893,7 +26896,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26945,7 +26948,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27101,7 +27104,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27231,7 +27234,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27309,7 +27312,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27361,7 +27364,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27439,7 +27442,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27543,7 +27546,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27595,7 +27598,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27647,7 +27650,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27673,7 +27676,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27751,7 +27754,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27777,7 +27780,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27881,7 +27884,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -61351,7 +61354,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6505324074</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>2257863</v>
@@ -61372,6 +61375,32 @@
         <v>1430</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6507060185</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>4137865</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>2.0239999294281</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>1.99300003051758</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>2.00999999046326</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>1.99500000476837</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1528">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269313812256</t>
+    <t xml:space="preserve">1.04269325733185</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189921379089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549742698669</t>
+    <t xml:space="preserve">1.03189933300018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0354973077774</t>
   </si>
   <si>
     <t xml:space="preserve">1.02974057197571</t>
@@ -65,19 +65,19 @@
     <t xml:space="preserve">1.00959181785583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983686447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976787567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791202545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304733753204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885593414307</t>
+    <t xml:space="preserve">0.983686327934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976906776428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791083335876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95130467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885772228241</t>
   </si>
   <si>
     <t xml:space="preserve">0.934034407138824</t>
@@ -86,34 +86,34 @@
     <t xml:space="preserve">0.956341743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.95778101682663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453309059143</t>
+    <t xml:space="preserve">0.957780957221985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453428268433</t>
   </si>
   <si>
     <t xml:space="preserve">0.99016284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977929592132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146290063858</t>
+    <t xml:space="preserve">0.977929711341858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01462888717651</t>
   </si>
   <si>
     <t xml:space="preserve">0.992321491241455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955622255802155</t>
+    <t xml:space="preserve">0.955622315406799</t>
   </si>
   <si>
     <t xml:space="preserve">0.941950023174286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914605259895325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.935473501682281</t>
+    <t xml:space="preserve">0.914605319499969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.935473620891571</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801269054413</t>
@@ -122,40 +122,40 @@
     <t xml:space="preserve">0.947706639766693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970733761787415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368925094604</t>
+    <t xml:space="preserve">0.970733642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368805885315</t>
   </si>
   <si>
     <t xml:space="preserve">0.99879789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03117966651917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03621697425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05636548995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0268622636795</t>
+    <t xml:space="preserve">1.03117978572845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03621709346771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110540866852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05636560916901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02686214447021</t>
   </si>
   <si>
     <t xml:space="preserve">1.02326416969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05132830142975</t>
+    <t xml:space="preserve">1.05132842063904</t>
   </si>
   <si>
     <t xml:space="preserve">1.05852437019348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03981482982635</t>
+    <t xml:space="preserve">1.03981494903564</t>
   </si>
   <si>
     <t xml:space="preserve">1.04341280460358</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">1.01247012615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02542304992676</t>
+    <t xml:space="preserve">1.02542293071747</t>
   </si>
   <si>
     <t xml:space="preserve">1.06572031974792</t>
@@ -173,13 +173,13 @@
     <t xml:space="preserve">1.07723379135132</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11609184741974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13120341300964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14919328689575</t>
+    <t xml:space="preserve">1.11609196662903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13120353221893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14919316768646</t>
   </si>
   <si>
     <t xml:space="preserve">1.13552093505859</t>
@@ -188,106 +188,106 @@
     <t xml:space="preserve">1.14343655109406</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12616634368896</t>
+    <t xml:space="preserve">1.12616622447968</t>
   </si>
   <si>
     <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256813049316</t>
+    <t xml:space="preserve">1.12256824970245</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544655799866</t>
   </si>
   <si>
-    <t xml:space="preserve">1.141277551651</t>
+    <t xml:space="preserve">1.14127779006958</t>
   </si>
   <si>
     <t xml:space="preserve">1.13336229324341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14199721813202</t>
+    <t xml:space="preserve">1.14199733734131</t>
   </si>
   <si>
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1297641992569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13048374652863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696002960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14415621757507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13767981529236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703440666199</t>
+    <t xml:space="preserve">1.12976431846619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13048362731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696014881134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14415609836578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13767957687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703452587128</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279114246368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14487564563751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13624036312103</t>
+    <t xml:space="preserve">1.1448757648468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13624060153961</t>
   </si>
   <si>
     <t xml:space="preserve">1.12328779697418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10457837581635</t>
+    <t xml:space="preserve">1.10457849502563</t>
   </si>
   <si>
     <t xml:space="preserve">1.12112903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15638935565948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14847362041473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16214609146118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15495002269745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991295337677</t>
+    <t xml:space="preserve">1.1563892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14847373962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16214597225189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15494990348816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991283416748</t>
   </si>
   <si>
     <t xml:space="preserve">1.1506325006485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13480138778687</t>
+    <t xml:space="preserve">1.13480150699615</t>
   </si>
   <si>
     <t xml:space="preserve">1.10817623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15423047542572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12760555744171</t>
+    <t xml:space="preserve">1.15423035621643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12760531902313</t>
   </si>
   <si>
     <t xml:space="preserve">1.11249387264252</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1117742061615</t>
+    <t xml:space="preserve">1.11177432537079</t>
   </si>
   <si>
     <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17222023010254</t>
+    <t xml:space="preserve">1.17222034931183</t>
   </si>
   <si>
     <t xml:space="preserve">1.2010041475296</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">1.18733179569244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18085551261902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661248683929</t>
+    <t xml:space="preserve">1.18085563182831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884514808655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661224842072</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006158828735</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">1.16862237453461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09162569046021</t>
+    <t xml:space="preserve">1.09162557125092</t>
   </si>
   <si>
     <t xml:space="preserve">1.08155131340027</t>
@@ -332,25 +332,25 @@
     <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07514595985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09381151199341</t>
+    <t xml:space="preserve">1.07514584064484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09381139278412</t>
   </si>
   <si>
     <t xml:space="preserve">1.07290589809418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01392221450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577422142029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944256782532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048291683197</t>
+    <t xml:space="preserve">1.01392209529877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577302932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944232940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048279762268</t>
   </si>
   <si>
     <t xml:space="preserve">1.03781425952911</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">1.01541543006897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00869572162628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02288174629211</t>
+    <t xml:space="preserve">1.00869560241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02288162708282</t>
   </si>
   <si>
     <t xml:space="preserve">1.03333461284637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04080092906952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03408110141754</t>
+    <t xml:space="preserve">1.04080080986023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03408122062683</t>
   </si>
   <si>
     <t xml:space="preserve">1.01914870738983</t>
@@ -386,7 +386,7 @@
     <t xml:space="preserve">1.02885484695435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03557443618774</t>
+    <t xml:space="preserve">1.03557431697845</t>
   </si>
   <si>
     <t xml:space="preserve">1.05573344230652</t>
@@ -404,7 +404,7 @@
     <t xml:space="preserve">1.07738566398621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07813215255737</t>
+    <t xml:space="preserve">1.07813227176666</t>
   </si>
   <si>
     <t xml:space="preserve">1.09754467010498</t>
@@ -416,16 +416,16 @@
     <t xml:space="preserve">1.08634531497955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08709180355072</t>
+    <t xml:space="preserve">1.08709168434143</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978461265564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10277092456818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11173045635223</t>
+    <t xml:space="preserve">1.10277116298676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11173069477081</t>
   </si>
   <si>
     <t xml:space="preserve">1.10501110553741</t>
@@ -434,118 +434,118 @@
     <t xml:space="preserve">1.10874402523041</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09007823467255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06319987773895</t>
+    <t xml:space="preserve">1.09007847309113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06319975852966</t>
   </si>
   <si>
     <t xml:space="preserve">1.06170642375946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0594664812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05125379562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06618630886078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887887954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127770900726</t>
+    <t xml:space="preserve">1.05946671962738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05125367641449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618618965149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887899875641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127782821655</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575759410858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13114285469055</t>
+    <t xml:space="preserve">1.13114297389984</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10799753665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10426437854767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11322391033173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
+    <t xml:space="preserve">1.10799741744995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10426425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11322379112244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455823898315</t>
   </si>
   <si>
     <t xml:space="preserve">1.08037209510803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10202431678772</t>
+    <t xml:space="preserve">1.10202419757843</t>
   </si>
   <si>
     <t xml:space="preserve">1.0923182964325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08783864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11247706413269</t>
+    <t xml:space="preserve">1.08783853054047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
     <t xml:space="preserve">1.14383554458618</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12666320800781</t>
+    <t xml:space="preserve">1.12666308879852</t>
   </si>
   <si>
     <t xml:space="preserve">1.11994349956512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08261203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08933162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10053110122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14980852603912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17668735980988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17892706394196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20207262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21700537204742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2222318649292</t>
+    <t xml:space="preserve">1.08261215686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08933174610138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1005312204361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14980864524841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17668724060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17892730236053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20207273960114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21700513362885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223162651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521817684174</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19535291194916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21476531028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22148513793945</t>
+    <t xml:space="preserve">1.19535303115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21476542949677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22148489952087</t>
   </si>
   <si>
     <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18938016891479</t>
+    <t xml:space="preserve">1.18938004970551</t>
   </si>
   <si>
     <t xml:space="preserve">1.18714022636414</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">1.16996777057648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18490016460419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19311320781708</t>
+    <t xml:space="preserve">1.18490028381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19311332702637</t>
   </si>
   <si>
     <t xml:space="preserve">1.17519402503967</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06991934776306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06543970108032</t>
+    <t xml:space="preserve">1.06991946697235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06543958187103</t>
   </si>
   <si>
     <t xml:space="preserve">1.05722665786743</t>
@@ -581,13 +581,13 @@
     <t xml:space="preserve">1.04304075241089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02064192295074</t>
+    <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
     <t xml:space="preserve">1.02512156963348</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05200028419495</t>
+    <t xml:space="preserve">1.05200040340424</t>
   </si>
   <si>
     <t xml:space="preserve">1.02586817741394</t>
@@ -596,22 +596,22 @@
     <t xml:space="preserve">1.08186542987823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08111870288849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09530472755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098408699036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471700668335</t>
+    <t xml:space="preserve">1.08111882209778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09530460834503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098396778107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471712589264</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412940502167</t>
+    <t xml:space="preserve">1.13412952423096</t>
   </si>
   <si>
     <t xml:space="preserve">1.13487601280212</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">1.15279531478882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16175472736359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16698110103607</t>
+    <t xml:space="preserve">1.16175484657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16698122024536</t>
   </si>
   <si>
     <t xml:space="preserve">1.15130198001862</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">1.15727496147156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17146098613739</t>
+    <t xml:space="preserve">1.1714608669281</t>
   </si>
   <si>
     <t xml:space="preserve">1.17220759391785</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">1.1729542016983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16250133514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847455501556</t>
+    <t xml:space="preserve">1.16250145435333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847443580627</t>
   </si>
   <si>
     <t xml:space="preserve">1.14458239078522</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">1.12890303134918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12292993068695</t>
+    <t xml:space="preserve">1.12293016910553</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055537223816</t>
@@ -671,22 +671,22 @@
     <t xml:space="preserve">1.16474115848541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14308893680573</t>
+    <t xml:space="preserve">1.14308905601501</t>
   </si>
   <si>
     <t xml:space="preserve">1.18042051792145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18863344192505</t>
+    <t xml:space="preserve">1.18863332271576</t>
   </si>
   <si>
     <t xml:space="preserve">1.17967367172241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18191349506378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21177899837494</t>
+    <t xml:space="preserve">1.18191361427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21177887916565</t>
   </si>
   <si>
     <t xml:space="preserve">1.1960996389389</t>
@@ -698,22 +698,22 @@
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447156906128</t>
+    <t xml:space="preserve">1.2155122756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447168827057</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2259646654129</t>
+    <t xml:space="preserve">1.22596478462219</t>
   </si>
   <si>
     <t xml:space="preserve">1.25806975364685</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486191749573</t>
+    <t xml:space="preserve">1.41486203670502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42979454994202</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">1.4335275888443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44547390937805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200884103775</t>
+    <t xml:space="preserve">1.44547379016876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
     <t xml:space="preserve">1.41784858703613</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">1.46339273452759</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45741975307465</t>
+    <t xml:space="preserve">1.45741987228394</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219349861145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488630771637</t>
+    <t xml:space="preserve">1.46488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
@@ -770,58 +770,58 @@
     <t xml:space="preserve">1.43950068950653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44920682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024741649628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42083513736725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40664911270142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44846034049988</t>
+    <t xml:space="preserve">1.44920694828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024729728699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42083489894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40664899349213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44846022129059</t>
   </si>
   <si>
     <t xml:space="preserve">1.44995355606079</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46413958072662</t>
+    <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
     <t xml:space="preserve">1.44472706317902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48355185985565</t>
+    <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
     <t xml:space="preserve">1.45592665672302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49325799942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952496051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267051696777</t>
+    <t xml:space="preserve">1.49325811862946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952484130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267039775848</t>
   </si>
   <si>
     <t xml:space="preserve">1.53058934211731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506934642792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52461636066437</t>
+    <t xml:space="preserve">1.53506922721863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
     <t xml:space="preserve">1.54104232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49251127243042</t>
+    <t xml:space="preserve">1.49251139163971</t>
   </si>
   <si>
     <t xml:space="preserve">1.50669729709625</t>
@@ -830,37 +830,37 @@
     <t xml:space="preserve">1.55298829078674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5753870010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927940368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62018513679504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.563441157341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57837390899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60226571559906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58285355567932</t>
+    <t xml:space="preserve">1.57538712024689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733308315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927952289581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62018501758575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56344127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57837378978729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58285331726074</t>
   </si>
   <si>
     <t xml:space="preserve">1.58882665634155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57389378547668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823893547058</t>
+    <t xml:space="preserve">1.57389390468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823905467987</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719834804535</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">1.63213121891022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64557039737701</t>
+    <t xml:space="preserve">1.64557027816772</t>
   </si>
   <si>
     <t xml:space="preserve">1.63362419605255</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65846991539001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693283081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6646181344986</t>
+    <t xml:space="preserve">1.6584700345993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693295001984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66461777687073</t>
   </si>
   <si>
     <t xml:space="preserve">1.64463663101196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5893030166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61082148551941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085847854614</t>
+    <t xml:space="preserve">1.58930289745331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6108216047287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085835933685</t>
   </si>
   <si>
     <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5631730556488</t>
+    <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
     <t xml:space="preserve">1.56471037864685</t>
@@ -923,19 +923,19 @@
     <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58776593208313</t>
+    <t xml:space="preserve">1.58776581287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.60467350482941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.600062251091</t>
+    <t xml:space="preserve">1.60006213188171</t>
   </si>
   <si>
     <t xml:space="preserve">1.59083986282349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59852504730225</t>
+    <t xml:space="preserve">1.59852516651154</t>
   </si>
   <si>
     <t xml:space="preserve">1.61389553546906</t>
@@ -944,31 +944,31 @@
     <t xml:space="preserve">1.63080298900604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61543273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6384881734848</t>
+    <t xml:space="preserve">1.61543262004852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63848805427551</t>
   </si>
   <si>
     <t xml:space="preserve">1.65539586544037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156234264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696982383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65232169628143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67998862266541</t>
+    <t xml:space="preserve">1.64156222343445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696970462799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65232181549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67998874187469</t>
   </si>
   <si>
     <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
-    <t xml:space="preserve">1.675377368927</t>
+    <t xml:space="preserve">1.67537748813629</t>
   </si>
   <si>
     <t xml:space="preserve">1.68306255340576</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">1.70458114147186</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72917413711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148871421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7015073299408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69997000694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72609996795654</t>
+    <t xml:space="preserve">1.72917377948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70150709152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69996988773346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72609984874725</t>
   </si>
   <si>
     <t xml:space="preserve">1.76452577114105</t>
@@ -998,37 +998,37 @@
     <t xml:space="preserve">1.76298880577087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75991487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145172119141</t>
+    <t xml:space="preserve">1.75991475582123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7614518404007</t>
   </si>
   <si>
     <t xml:space="preserve">1.74608135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763693332672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7353218793869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915564060211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913690567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77682244777679</t>
+    <t xml:space="preserve">1.72763669490814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915540218353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913702487946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77682220935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.77221119403839</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76759970188141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834091663361</t>
+    <t xml:space="preserve">1.76759994029999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79834079742432</t>
   </si>
   <si>
     <t xml:space="preserve">1.82293355464935</t>
@@ -1037,7 +1037,7 @@
     <t xml:space="preserve">1.83984100818634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80295193195343</t>
+    <t xml:space="preserve">1.80295205116272</t>
   </si>
   <si>
     <t xml:space="preserve">1.79372978210449</t>
@@ -1046,46 +1046,46 @@
     <t xml:space="preserve">1.78758144378662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74761819839478</t>
+    <t xml:space="preserve">1.74761831760406</t>
   </si>
   <si>
     <t xml:space="preserve">1.71995151042938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71534049510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72456252574921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454426765442</t>
+    <t xml:space="preserve">1.71534037590027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72456276416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.744544506073</t>
   </si>
   <si>
     <t xml:space="preserve">1.74300730228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73071110248566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380341053009</t>
+    <t xml:space="preserve">1.73071098327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7138032913208</t>
   </si>
   <si>
     <t xml:space="preserve">1.75376665592194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75222969055176</t>
+    <t xml:space="preserve">1.75222957134247</t>
   </si>
   <si>
     <t xml:space="preserve">1.81217420101166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80602610111237</t>
+    <t xml:space="preserve">1.80602598190308</t>
   </si>
   <si>
     <t xml:space="preserve">1.819859623909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79987788200378</t>
+    <t xml:space="preserve">1.79987776279449</t>
   </si>
   <si>
     <t xml:space="preserve">1.78143334388733</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">1.80756318569183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8152482509613</t>
+    <t xml:space="preserve">1.81524837017059</t>
   </si>
   <si>
     <t xml:space="preserve">1.85521149635315</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">1.86135971546173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89824867248535</t>
+    <t xml:space="preserve">1.89824855327606</t>
   </si>
   <si>
     <t xml:space="preserve">1.90285992622375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89671170711517</t>
+    <t xml:space="preserve">1.89671158790588</t>
   </si>
   <si>
     <t xml:space="preserve">1.89056360721588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83215570449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8536741733551</t>
+    <t xml:space="preserve">1.83215582370758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367429256439</t>
   </si>
   <si>
     <t xml:space="preserve">1.84291517734528</t>
@@ -1130,13 +1130,13 @@
     <t xml:space="preserve">1.81832242012024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85674822330475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211930751801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439665317535</t>
+    <t xml:space="preserve">1.85674834251404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211918830872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439677238464</t>
   </si>
   <si>
     <t xml:space="preserve">1.95358240604401</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">1.9336005449295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92130422592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821179866791</t>
+    <t xml:space="preserve">1.92130434513092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821156024933</t>
   </si>
   <si>
     <t xml:space="preserve">1.93052673339844</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">1.95050823688507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97356367111206</t>
+    <t xml:space="preserve">1.97356390953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.97971189022064</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97202682495117</t>
+    <t xml:space="preserve">1.97202658653259</t>
   </si>
   <si>
     <t xml:space="preserve">1.98124897480011</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">2.03350830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99969351291656</t>
+    <t xml:space="preserve">1.99969375133514</t>
   </si>
   <si>
     <t xml:space="preserve">1.99661934375763</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">2.00123047828674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00276732444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97510075569153</t>
+    <t xml:space="preserve">2.00276756286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97510099411011</t>
   </si>
   <si>
     <t xml:space="preserve">1.96434152126312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92745232582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206357955933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284142971039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665621757507</t>
+    <t xml:space="preserve">1.92745220661163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206334114075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92284154891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665645599365</t>
   </si>
   <si>
     <t xml:space="preserve">2.02736043930054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01660084724426</t>
+    <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
     <t xml:space="preserve">1.95511901378632</t>
@@ -1226,7 +1226,7 @@
     <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05195307731628</t>
+    <t xml:space="preserve">2.05195331573486</t>
   </si>
   <si>
     <t xml:space="preserve">2.07039761543274</t>
@@ -1235,31 +1235,31 @@
     <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10574960708618</t>
+    <t xml:space="preserve">2.1057493686676</t>
   </si>
   <si>
     <t xml:space="preserve">2.0673234462738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02582311630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0119903087616</t>
+    <t xml:space="preserve">2.02582335472107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01199007034302</t>
   </si>
   <si>
     <t xml:space="preserve">2.00737881660461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00584197044373</t>
+    <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
     <t xml:space="preserve">2.04119372367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88287830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830404281616</t>
+    <t xml:space="preserve">1.88287842273712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830416202545</t>
   </si>
   <si>
     <t xml:space="preserve">1.87365579605103</t>
@@ -1274,40 +1274,40 @@
     <t xml:space="preserve">1.8644335269928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87672984600067</t>
+    <t xml:space="preserve">1.87672996520996</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522987365723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85982275009155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441503047943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902640342712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447063922882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87058186531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363741874695</t>
+    <t xml:space="preserve">1.85982263088226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88441526889801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902652263641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447040081024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87058198451996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515612602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132260322571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363765716553</t>
   </si>
   <si>
     <t xml:space="preserve">1.88134109973907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87519299983978</t>
+    <t xml:space="preserve">1.87519311904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598910808563</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">1.95819354057312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95204484462738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9428231716156</t>
+    <t xml:space="preserve">1.95204532146454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94282293319702</t>
   </si>
   <si>
     <t xml:space="preserve">1.92591559886932</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">1.9289892911911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8798041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361939907074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743418693542</t>
+    <t xml:space="preserve">1.85828566551208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87980425357819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361927986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743430614471</t>
   </si>
   <si>
     <t xml:space="preserve">1.93667495250702</t>
@@ -1355,25 +1355,25 @@
     <t xml:space="preserve">1.8859521150589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8475261926651</t>
+    <t xml:space="preserve">1.84752631187439</t>
   </si>
   <si>
     <t xml:space="preserve">1.84137797355652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79526686668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450739383698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7829704284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7122665643692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66769230365753</t>
+    <t xml:space="preserve">1.79526674747467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450763225555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78297030925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71226644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66769218444824</t>
   </si>
   <si>
     <t xml:space="preserve">1.62004387378693</t>
@@ -1388,10 +1388,10 @@
     <t xml:space="preserve">1.66000688076019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64771068096161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62772929668427</t>
+    <t xml:space="preserve">1.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62772917747498</t>
   </si>
   <si>
     <t xml:space="preserve">1.59545123577118</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">1.69535899162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73224806785583</t>
+    <t xml:space="preserve">1.73224794864655</t>
   </si>
   <si>
     <t xml:space="preserve">1.72624862194061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74846124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942173480988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70244908332825</t>
+    <t xml:space="preserve">1.74846136569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942185401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70244920253754</t>
   </si>
   <si>
     <t xml:space="preserve">1.71038222312927</t>
@@ -1421,58 +1421,58 @@
     <t xml:space="preserve">1.69927585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7500479221344</t>
+    <t xml:space="preserve">1.70720899105072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75004804134369</t>
   </si>
   <si>
     <t xml:space="preserve">1.73735511302948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528813362122</t>
+    <t xml:space="preserve">1.74528801441193</t>
   </si>
   <si>
     <t xml:space="preserve">1.7817804813385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79288685321808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79764664173126</t>
+    <t xml:space="preserve">1.79288673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79764676094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.8119261264801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77543389797211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76432752609253</t>
+    <t xml:space="preserve">1.7754340171814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76432740688324</t>
   </si>
   <si>
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130017757416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78019368648529</t>
+    <t xml:space="preserve">1.79130005836487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78019392490387</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985938549042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82779240608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82461905479431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668627262115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923319816589</t>
+    <t xml:space="preserve">1.82779264450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82461929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79923331737518</t>
   </si>
   <si>
     <t xml:space="preserve">1.77384734153748</t>
@@ -1481,67 +1481,67 @@
     <t xml:space="preserve">1.77860736846924</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649773597717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856459617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760434627533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140328884125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91823029518127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207224845886</t>
+    <t xml:space="preserve">1.88649785518646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856471538544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760410785675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140340805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91823017597198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207212924957</t>
   </si>
   <si>
     <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8753913640976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87380480766296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745846271515</t>
+    <t xml:space="preserve">1.87539148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380492687225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745822429657</t>
   </si>
   <si>
     <t xml:space="preserve">1.83572566509247</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80875289440155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115441322327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74687457084656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74211490154266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73576831817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73418188095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73259508609772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451594352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69292938709259</t>
+    <t xml:space="preserve">1.80875301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80716669559479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115453243256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74687469005585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74211502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73576819896698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73418176174164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73259520530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451606273651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69292950630188</t>
   </si>
   <si>
     <t xml:space="preserve">1.64057087898254</t>
@@ -1562,37 +1562,37 @@
     <t xml:space="preserve">1.64215731620789</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64533042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71196889877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76908755302429</t>
+    <t xml:space="preserve">1.64533054828644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71196913719177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76908767223358</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975639343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119682788849</t>
+    <t xml:space="preserve">1.68975615501404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119694709778</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66595673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706322669983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547643184662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67071664333344</t>
+    <t xml:space="preserve">1.66595685482025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706310749054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6754766702652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67071652412415</t>
   </si>
   <si>
     <t xml:space="preserve">1.58265888690948</t>
@@ -1601,46 +1601,46 @@
     <t xml:space="preserve">1.58821213245392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5628262758255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54219996929169</t>
+    <t xml:space="preserve">1.56282603740692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5421998500824</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506004810333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140651226044</t>
+    <t xml:space="preserve">1.51046741008759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140663146973</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52554047107697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54061329364777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268015384674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5144339799881</t>
+    <t xml:space="preserve">1.52554035186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54061341285706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268003463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51443409919739</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854643344879</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52395391464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55647969245911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55409955978394</t>
+    <t xml:space="preserve">1.52395379543304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55647957324982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
     <t xml:space="preserve">1.51760733127594</t>
@@ -1649,34 +1649,34 @@
     <t xml:space="preserve">1.57393252849579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56520628929138</t>
+    <t xml:space="preserve">1.5652060508728</t>
   </si>
   <si>
     <t xml:space="preserve">1.6310510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62311780452728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64691722393036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167725086212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62629103660583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59614527225494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60883831977844</t>
+    <t xml:space="preserve">1.62311792373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64691734313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167713165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62629115581512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59614539146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60883843898773</t>
   </si>
   <si>
     <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53664696216583</t>
+    <t xml:space="preserve">1.53664684295654</t>
   </si>
   <si>
     <t xml:space="preserve">1.54933977127075</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53902673721313</t>
+    <t xml:space="preserve">1.53902661800385</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679260730743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54299342632294</t>
+    <t xml:space="preserve">1.54299330711365</t>
   </si>
   <si>
     <t xml:space="preserve">1.49142789840698</t>
@@ -1706,28 +1706,28 @@
     <t xml:space="preserve">1.59931862354279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60090506076813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59138548374176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58662545681</t>
+    <t xml:space="preserve">1.60090517997742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59138536453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
     <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69768929481506</t>
+    <t xml:space="preserve">1.69768941402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.6627836227417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66913020610809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307515144348</t>
+    <t xml:space="preserve">1.6691300868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307527065277</t>
   </si>
   <si>
     <t xml:space="preserve">1.70403587818146</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">1.70562255382538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71355545520782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816947937012</t>
+    <t xml:space="preserve">1.7135556936264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816959857941</t>
   </si>
   <si>
     <t xml:space="preserve">1.6865828037262</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">1.65326392650604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6738897562027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340957164764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643703937531</t>
+    <t xml:space="preserve">1.67388987541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340969085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643715858459</t>
   </si>
   <si>
     <t xml:space="preserve">1.65802347660065</t>
@@ -1769,22 +1769,22 @@
     <t xml:space="preserve">1.71672880649567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80557978153229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827282905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303249835968</t>
+    <t xml:space="preserve">1.80557990074158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827294826508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303273677826</t>
   </si>
   <si>
     <t xml:space="preserve">1.7881270647049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509983539581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654050827026</t>
+    <t xml:space="preserve">1.81509959697723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
     <t xml:space="preserve">1.81033968925476</t>
@@ -1796,43 +1796,43 @@
     <t xml:space="preserve">1.83889901638031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80081987380981</t>
+    <t xml:space="preserve">1.8008199930191</t>
   </si>
   <si>
     <t xml:space="preserve">1.69134283065796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68023645877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961015224457</t>
+    <t xml:space="preserve">1.68023633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422429561615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62946426868439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894155025482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7627409696579</t>
+    <t xml:space="preserve">1.62946438789368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66754329204559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894143104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76274085044861</t>
   </si>
   <si>
     <t xml:space="preserve">1.77226066589355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.757981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83096587657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90395057201385</t>
+    <t xml:space="preserve">1.75798106193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83096575737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90395081043243</t>
   </si>
   <si>
     <t xml:space="preserve">1.9007773399353</t>
@@ -1844,43 +1844,43 @@
     <t xml:space="preserve">1.8884345293045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89172410964966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89665937423706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86869478225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88020980358124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349962234497</t>
+    <t xml:space="preserve">1.89172446727753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89665925502777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86869466304779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88020968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349950313568</t>
   </si>
   <si>
     <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95587861537933</t>
+    <t xml:space="preserve">1.95587873458862</t>
   </si>
   <si>
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929850101471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613910675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97890818119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548829555511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851798057556</t>
+    <t xml:space="preserve">1.949298620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613886833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9789080619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548817634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851774215698</t>
   </si>
   <si>
     <t xml:space="preserve">2.01180791854858</t>
@@ -1895,70 +1895,70 @@
     <t xml:space="preserve">2.02332282066345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98219835758209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98384320735931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97397327423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600856304169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159440040588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271886348724</t>
+    <t xml:space="preserve">1.98219847679138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98384308815002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97397351264954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600868225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159451961517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271898269653</t>
   </si>
   <si>
     <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99371325969696</t>
+    <t xml:space="preserve">1.99371314048767</t>
   </si>
   <si>
     <t xml:space="preserve">1.99864792823792</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00687313079834</t>
+    <t xml:space="preserve">2.00687289237976</t>
   </si>
   <si>
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206793308258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01016283035278</t>
+    <t xml:space="preserve">2.00358319282532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206805229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01016306877136</t>
   </si>
   <si>
     <t xml:space="preserve">2.01345276832581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98055326938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042308330536</t>
+    <t xml:space="preserve">1.98055338859558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042320251465</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964256286621</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03319215774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03154730796814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06609225273132</t>
+    <t xml:space="preserve">2.03319239616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03154754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06609201431274</t>
   </si>
   <si>
     <t xml:space="preserve">2.06444716453552</t>
@@ -1973,10 +1973,10 @@
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04635238647461</t>
+    <t xml:space="preserve">2.02167773246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04635214805603</t>
   </si>
   <si>
     <t xml:space="preserve">2.07925200462341</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.14011597633362</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16314601898193</t>
+    <t xml:space="preserve">2.16314578056335</t>
   </si>
   <si>
     <t xml:space="preserve">2.15821099281311</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">2.20098042488098</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18453049659729</t>
+    <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
     <t xml:space="preserve">2.1697256565094</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111037254333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22072005271912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2305896282196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24210500717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21578478813171</t>
+    <t xml:space="preserve">2.19111061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2207202911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23058986663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24210453033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21578502655029</t>
   </si>
   <si>
     <t xml:space="preserve">2.23388004302979</t>
@@ -2030,13 +2030,13 @@
     <t xml:space="preserve">2.21249508857727</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2026252746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20756030082703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1713707447052</t>
+    <t xml:space="preserve">2.20262503623962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20756006240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17137098312378</t>
   </si>
   <si>
     <t xml:space="preserve">2.19933533668518</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">2.19604539871216</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2059154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25361943244934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28816413879395</t>
+    <t xml:space="preserve">2.20591521263123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25361967086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28816437721252</t>
   </si>
   <si>
     <t xml:space="preserve">2.25690937042236</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513457298279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006912231445</t>
+    <t xml:space="preserve">2.26513433456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.27993941307068</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27664923667908</t>
+    <t xml:space="preserve">2.2766489982605</t>
   </si>
   <si>
     <t xml:space="preserve">2.24539470672607</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26348972320557</t>
+    <t xml:space="preserve">2.26348948478699</t>
   </si>
   <si>
     <t xml:space="preserve">2.32270860671997</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30625891685486</t>
+    <t xml:space="preserve">2.30625867843628</t>
   </si>
   <si>
     <t xml:space="preserve">2.31448364257812</t>
@@ -2102,25 +2102,25 @@
     <t xml:space="preserve">2.30296874046326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27335906028748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26677966117859</t>
+    <t xml:space="preserve">2.27335929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26677942276001</t>
   </si>
   <si>
     <t xml:space="preserve">2.30790400505066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31941890716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33093333244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25855445861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29803371429443</t>
+    <t xml:space="preserve">2.31941866874695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25855469703674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29803395271301</t>
   </si>
   <si>
     <t xml:space="preserve">2.31612873077393</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23716998100281</t>
+    <t xml:space="preserve">2.23716974258423</t>
   </si>
   <si>
     <t xml:space="preserve">2.2486846446991</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25032949447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2815842628479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35889792442322</t>
+    <t xml:space="preserve">2.2503297328949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28158402442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435345649719</t>
@@ -2156,13 +2156,13 @@
     <t xml:space="preserve">2.38686275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35560822486877</t>
+    <t xml:space="preserve">2.35560846328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.37534809112549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43127727508545</t>
+    <t xml:space="preserve">2.43127703666687</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253180503845</t>
@@ -2171,13 +2171,13 @@
     <t xml:space="preserve">2.45101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50859117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48556160926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240138053894</t>
+    <t xml:space="preserve">2.50859093666077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48556137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47240161895752</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
@@ -2186,25 +2186,25 @@
     <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45924186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46582174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798733711243</t>
+    <t xml:space="preserve">2.45924162864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4658215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798709869385</t>
   </si>
   <si>
     <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898149490356</t>
+    <t xml:space="preserve">2.47898125648499</t>
   </si>
   <si>
     <t xml:space="preserve">2.47569155693054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46088695526123</t>
+    <t xml:space="preserve">2.46088671684265</t>
   </si>
   <si>
     <t xml:space="preserve">2.51023602485657</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">2.55465030670166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52668595314026</t>
+    <t xml:space="preserve">2.52668571472168</t>
   </si>
   <si>
     <t xml:space="preserve">2.51352596282959</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">2.36218810081482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36383318901062</t>
+    <t xml:space="preserve">2.36383295059204</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
@@ -2231,16 +2231,16 @@
     <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26184463500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33257818222046</t>
+    <t xml:space="preserve">2.26184439659119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33257842063904</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413993835449</t>
+    <t xml:space="preserve">2.21414017677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128741264343</t>
@@ -2252,22 +2252,22 @@
     <t xml:space="preserve">1.8242803812027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54956912994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59645092487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.510089635849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50844466686249</t>
+    <t xml:space="preserve">1.54956889152527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59645080566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51008951663971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5084445476532</t>
   </si>
   <si>
     <t xml:space="preserve">1.45580530166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52407205104828</t>
+    <t xml:space="preserve">1.52407193183899</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
@@ -2276,46 +2276,46 @@
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013118267059</t>
+    <t xml:space="preserve">1.57013130187988</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66965234279633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68610215187073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76835131645203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85059988498688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73216164112091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72887170314789</t>
+    <t xml:space="preserve">1.6696525812149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68610227108002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76835119724274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85060000419617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73216152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7288715839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.745321393013</t>
+    <t xml:space="preserve">1.74532151222229</t>
   </si>
   <si>
     <t xml:space="preserve">1.74367642402649</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73545145988464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73051679134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229170799255</t>
+    <t xml:space="preserve">1.73545157909393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7305166721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229182720184</t>
   </si>
   <si>
     <t xml:space="preserve">1.76670622825623</t>
@@ -2324,16 +2324,16 @@
     <t xml:space="preserve">1.78973591327667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81441044807434</t>
+    <t xml:space="preserve">1.81441056728363</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125081539154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276547908783</t>
+    <t xml:space="preserve">1.80618584156036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276559829712</t>
   </si>
   <si>
     <t xml:space="preserve">1.83908522129059</t>
@@ -2342,19 +2342,19 @@
     <t xml:space="preserve">1.84895479679108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8719847202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211490631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579504489899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79302573204041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76012623310089</t>
+    <t xml:space="preserve">1.87198483943939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211478710175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79302585124969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76012635231018</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
@@ -2363,70 +2363,70 @@
     <t xml:space="preserve">1.74038648605347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75848126411438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.776575922966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480088710785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415031433105</t>
+    <t xml:space="preserve">1.75848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657616138458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480112552643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415043354034</t>
   </si>
   <si>
     <t xml:space="preserve">1.86047005653381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81934523582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960572719574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527453899384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968905925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96410369873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92133390903473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817439556122</t>
+    <t xml:space="preserve">1.81934535503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960560798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9196891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232842445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96410346031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92133402824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817415714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224521160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90488421916962</t>
+    <t xml:space="preserve">1.85224509239197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90488433837891</t>
   </si>
   <si>
     <t xml:space="preserve">1.91146409511566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98555850982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527956962585</t>
+    <t xml:space="preserve">1.98555862903595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527945041656</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89647400379181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91189277172089</t>
+    <t xml:space="preserve">1.89647388458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9118926525116</t>
   </si>
   <si>
     <t xml:space="preserve">1.91703200340271</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">1.92731094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93759000301361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101643562317</t>
+    <t xml:space="preserve">1.9375901222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101631641388</t>
   </si>
   <si>
     <t xml:space="preserve">1.93245053291321</t>
@@ -2453,16 +2453,16 @@
     <t xml:space="preserve">1.88448178768158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276863098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86906325817108</t>
+    <t xml:space="preserve">1.88276839256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86906337738037</t>
   </si>
   <si>
     <t xml:space="preserve">1.85193157196045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84850537776947</t>
+    <t xml:space="preserve">1.84850549697876</t>
   </si>
   <si>
     <t xml:space="preserve">1.88105571269989</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">1.92388463020325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90675294399261</t>
+    <t xml:space="preserve">1.9067530632019</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85021877288818</t>
+    <t xml:space="preserve">1.85021865367889</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766843795776</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">1.8399395942688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86563694477081</t>
+    <t xml:space="preserve">1.8656370639801</t>
   </si>
   <si>
     <t xml:space="preserve">1.85878455638885</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157443523407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92902433872223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89990043640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92217147350311</t>
+    <t xml:space="preserve">1.96157419681549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92902421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89990031719208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9221715927124</t>
   </si>
   <si>
     <t xml:space="preserve">1.89133453369141</t>
@@ -2531,37 +2531,37 @@
     <t xml:space="preserve">1.87762904167175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86735033988953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89818727970123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87420284748077</t>
+    <t xml:space="preserve">1.86735022068024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89818716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87420272827148</t>
   </si>
   <si>
     <t xml:space="preserve">1.88790822029114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91017937660217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619482517242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507894515991</t>
+    <t xml:space="preserve">1.91017949581146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619494438171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8450790643692</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81595504283905</t>
+    <t xml:space="preserve">1.81595516204834</t>
   </si>
   <si>
     <t xml:space="preserve">1.80910265445709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78340518474579</t>
+    <t xml:space="preserve">1.7834050655365</t>
   </si>
   <si>
     <t xml:space="preserve">1.78169178962708</t>
@@ -2579,25 +2579,25 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201012611389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547559738159</t>
+    <t xml:space="preserve">1.73201024532318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547571659088</t>
   </si>
   <si>
     <t xml:space="preserve">1.65491759777069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67119264602661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67890202999115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69774687290192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858369350433</t>
+    <t xml:space="preserve">1.6711927652359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67890214920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69774675369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858381271362</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474285364151</t>
@@ -2615,10 +2615,10 @@
     <t xml:space="preserve">1.78683137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78854477405548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8039630651474</t>
+    <t xml:space="preserve">1.78854465484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80396294593811</t>
   </si>
   <si>
     <t xml:space="preserve">1.76627349853516</t>
@@ -2630,34 +2630,34 @@
     <t xml:space="preserve">1.79025757312775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85535788536072</t>
+    <t xml:space="preserve">1.85535800457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671366691589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92559766769409</t>
+    <t xml:space="preserve">1.96671378612518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9255975484848</t>
   </si>
   <si>
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280778884888</t>
+    <t xml:space="preserve">1.82280790805817</t>
   </si>
   <si>
     <t xml:space="preserve">1.81938171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82109463214874</t>
+    <t xml:space="preserve">1.82109451293945</t>
   </si>
   <si>
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711055755615</t>
+    <t xml:space="preserve">1.79711043834686</t>
   </si>
   <si>
     <t xml:space="preserve">1.798823595047</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.80224990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77141308784485</t>
+    <t xml:space="preserve">1.77141296863556</t>
   </si>
   <si>
     <t xml:space="preserve">1.83137357234955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83480000495911</t>
+    <t xml:space="preserve">1.83479988574982</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73886275291443</t>
+    <t xml:space="preserve">1.73886287212372</t>
   </si>
   <si>
     <t xml:space="preserve">1.74400234222412</t>
@@ -2699,31 +2699,31 @@
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428128242493</t>
+    <t xml:space="preserve">1.75428140163422</t>
   </si>
   <si>
     <t xml:space="preserve">1.7422890663147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.767986536026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79539716243744</t>
+    <t xml:space="preserve">1.76798641681671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79539728164673</t>
   </si>
   <si>
     <t xml:space="preserve">1.8245210647583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8142421245575</t>
+    <t xml:space="preserve">1.81424200534821</t>
   </si>
   <si>
     <t xml:space="preserve">1.80053663253784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76969969272614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80738925933838</t>
+    <t xml:space="preserve">1.76969981193542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80738937854767</t>
   </si>
   <si>
     <t xml:space="preserve">1.83308696746826</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96328747272491</t>
+    <t xml:space="preserve">1.9632875919342</t>
   </si>
   <si>
     <t xml:space="preserve">2.01639556884766</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">2.03352737426758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98898494243622</t>
+    <t xml:space="preserve">1.98898482322693</t>
   </si>
   <si>
     <t xml:space="preserve">2.00440335273743</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">2.04723262786865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153515815735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0438060760498</t>
+    <t xml:space="preserve">2.02153491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04380631446838</t>
   </si>
   <si>
     <t xml:space="preserve">2.07635641098022</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209303855896</t>
+    <t xml:space="preserve">2.04209327697754</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2795,10 +2795,10 @@
     <t xml:space="preserve">2.07293009757996</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08149600028992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06607747077942</t>
+    <t xml:space="preserve">2.08149576187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06607723236084</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">2.14316987991333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12261176109314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13460397720337</t>
+    <t xml:space="preserve">2.12261152267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13460421562195</t>
   </si>
   <si>
     <t xml:space="preserve">2.17400693893433</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1620147228241</t>
+    <t xml:space="preserve">2.16201448440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
@@ -2843,37 +2843,37 @@
     <t xml:space="preserve">2.18942546844482</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2271146774292</t>
+    <t xml:space="preserve">2.22711491584778</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24082016944885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2425332069397</t>
+    <t xml:space="preserve">2.24082040786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24253344535828</t>
   </si>
   <si>
     <t xml:space="preserve">2.24938607215881</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24424648284912</t>
+    <t xml:space="preserve">2.24424624443054</t>
   </si>
   <si>
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1877121925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19970440864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20998311042786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23739409446716</t>
+    <t xml:space="preserve">2.18771195411682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19970464706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20998334884644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23739385604858</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">2.27165722846985</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25281262397766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25224590301514</t>
+    <t xml:space="preserve">2.25281238555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25224566459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20247220993042</t>
+    <t xml:space="preserve">2.202472448349</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1473662853241</t>
+    <t xml:space="preserve">2.14736604690552</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847804069519</t>
+    <t xml:space="preserve">2.13847780227661</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136045455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647384643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536209106445</t>
+    <t xml:space="preserve">2.21136069297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647408485413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536185264587</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202610969543</t>
+    <t xml:space="preserve">2.22202634811401</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25580096244812</t>
+    <t xml:space="preserve">2.2558012008667</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379700660706</t>
+    <t xml:space="preserve">2.30379676818848</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335090637207</t>
+    <t xml:space="preserve">2.32335066795349</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3873450756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623332023621</t>
+    <t xml:space="preserve">2.38734531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623308181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36423587799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201212882996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445567131042</t>
+    <t xml:space="preserve">2.36956858634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3642361164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068058013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490153312683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445543289185</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27890992164612</t>
+    <t xml:space="preserve">2.2789101600647</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691319465637</t>
+    <t xml:space="preserve">2.24691295623779</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889594078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534064292908</t>
+    <t xml:space="preserve">2.43889617919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600653648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534088134766</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332945823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49755764007568</t>
+    <t xml:space="preserve">2.56332969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4975574016571</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5419979095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555344581604</t>
+    <t xml:space="preserve">2.54199814796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555320739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222445487976</t>
+    <t xml:space="preserve">2.49222469329834</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3170,40 +3170,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801795959473</t>
+    <t xml:space="preserve">2.31801772117615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046102523804</t>
+    <t xml:space="preserve">2.33046126365662</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290456771851</t>
+    <t xml:space="preserve">2.34290432929993</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579397201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31090712547302</t>
+    <t xml:space="preserve">2.33579421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3109073638916</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646685600281</t>
+    <t xml:space="preserve">2.26646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2006950378418</t>
+    <t xml:space="preserve">2.20069479942322</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357721328735</t>
+    <t xml:space="preserve">2.27357745170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492274284363</t>
+    <t xml:space="preserve">2.13492298126221</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937024116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0247106552124</t>
+    <t xml:space="preserve">2.09937047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02471041679382</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893136978149</t>
+    <t xml:space="preserve">2.03893113136292</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04070901870728</t>
+    <t xml:space="preserve">2.0407087802887</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026291847229</t>
+    <t xml:space="preserve">2.06026268005371</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491599082947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047500610352</t>
+    <t xml:space="preserve">2.21491575241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802495002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047524452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759259223938</t>
+    <t xml:space="preserve">2.09759283065796</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15625429153442</t>
+    <t xml:space="preserve">2.156254529953</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381098747253</t>
+    <t xml:space="preserve">2.14381074905396</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272020339966</t>
+    <t xml:space="preserve">1.91272008419037</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8540586233139</t>
+    <t xml:space="preserve">1.85405874252319</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495118141174</t>
+    <t xml:space="preserve">1.81495106220245</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738725662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494407176971</t>
+    <t xml:space="preserve">1.90738713741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494395256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8860559463501</t>
+    <t xml:space="preserve">1.88605582714081</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75540089607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251137256622</t>
+    <t xml:space="preserve">1.7554007768631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251125335693</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317702770233</t>
+    <t xml:space="preserve">1.77317690849304</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -4593,6 +4593,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.99500000476837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96300005912781</t>
   </si>
 </sst>
 </file>
@@ -61380,7 +61383,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6507060185</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>4137865</v>
@@ -61401,6 +61404,32 @@
         <v>1526</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6496064815</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>3006508</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>1.99899995326996</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>1.96300005912781</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>1.99600005149841</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>1.96300005912781</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -47,64 +47,64 @@
     <t xml:space="preserve">1.03189933300018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03549718856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974057197571</t>
+    <t xml:space="preserve">1.0354973077774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974045276642</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743305683136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00311553478241</t>
+    <t xml:space="preserve">1.0031156539917</t>
   </si>
   <si>
     <t xml:space="preserve">1.0261424779892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00959181785583</t>
+    <t xml:space="preserve">1.00959193706512</t>
   </si>
   <si>
     <t xml:space="preserve">0.98368638753891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964976966381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791083335876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95130455493927</t>
+    <t xml:space="preserve">0.964976906776428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791023731232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95130467414856</t>
   </si>
   <si>
     <t xml:space="preserve">0.913885593414307</t>
   </si>
   <si>
-    <t xml:space="preserve">0.934034407138824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957780957221985</t>
+    <t xml:space="preserve">0.93403434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341803073883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.957781076431274</t>
   </si>
   <si>
     <t xml:space="preserve">0.971453249454498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.99016273021698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929592132568</t>
+    <t xml:space="preserve">0.99016284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929532527924</t>
   </si>
   <si>
     <t xml:space="preserve">1.01462888717651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9923215508461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95562219619751</t>
+    <t xml:space="preserve">0.99232143163681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622136592865</t>
   </si>
   <si>
     <t xml:space="preserve">0.941949844360352</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">0.914605319499969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935473501682281</t>
+    <t xml:space="preserve">0.935473442077637</t>
   </si>
   <si>
     <t xml:space="preserve">0.921801209449768</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">0.947706699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970733642578125</t>
+    <t xml:space="preserve">0.97073370218277</t>
   </si>
   <si>
     <t xml:space="preserve">0.97936874628067</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03621673583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110528945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05636548995972</t>
+    <t xml:space="preserve">1.03621685504913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110540866852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05636560916901</t>
   </si>
   <si>
     <t xml:space="preserve">1.02686214447021</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">1.03981482982635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04341292381287</t>
+    <t xml:space="preserve">1.04341268539429</t>
   </si>
   <si>
     <t xml:space="preserve">1.01247024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02542281150818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06572008132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07723379135132</t>
+    <t xml:space="preserve">1.02542293071747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06572020053864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07723367214203</t>
   </si>
   <si>
     <t xml:space="preserve">1.11609196662903</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13552093505859</t>
+    <t xml:space="preserve">1.1355208158493</t>
   </si>
   <si>
     <t xml:space="preserve">1.14343655109406</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">1.12616622447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11897015571594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12256836891174</t>
+    <t xml:space="preserve">1.11897027492523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12256824970245</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544655799866</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1297641992569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13048374652863</t>
+    <t xml:space="preserve">1.12976431846619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13048386573792</t>
   </si>
   <si>
     <t xml:space="preserve">1.13696014881134</t>
@@ -227,37 +227,37 @@
     <t xml:space="preserve">1.13767969608307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14703440666199</t>
+    <t xml:space="preserve">1.1470342874527</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279126167297</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14487552642822</t>
+    <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
     <t xml:space="preserve">1.13624048233032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12328779697418</t>
+    <t xml:space="preserve">1.12328791618347</t>
   </si>
   <si>
     <t xml:space="preserve">1.10457837581635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.121129155159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1563892364502</t>
+    <t xml:space="preserve">1.12112903594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15638911724091</t>
   </si>
   <si>
     <t xml:space="preserve">1.14847362041473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16214597225189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15495002269745</t>
+    <t xml:space="preserve">1.16214609146118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15494990348816</t>
   </si>
   <si>
     <t xml:space="preserve">1.14991283416748</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">1.13480126857758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10817635059357</t>
+    <t xml:space="preserve">1.10817623138428</t>
   </si>
   <si>
     <t xml:space="preserve">1.15423047542572</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">1.12760543823242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11249375343323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11177432537079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14055824279785</t>
+    <t xml:space="preserve">1.11249387264252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11177444458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
     <t xml:space="preserve">1.17222023010254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20100426673889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18733179569244</t>
+    <t xml:space="preserve">1.20100402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18733167648315</t>
   </si>
   <si>
     <t xml:space="preserve">1.18085551261902</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">1.19884526729584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18661224842072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17006158828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18805134296417</t>
+    <t xml:space="preserve">1.18661212921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17006170749664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18805122375488</t>
   </si>
   <si>
     <t xml:space="preserve">1.1858925819397</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">1.16862225532532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09162580966949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08155119419098</t>
+    <t xml:space="preserve">1.09162569046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
     <t xml:space="preserve">1.07795345783234</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">1.09306478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07514595985413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0938116312027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07290601730347</t>
+    <t xml:space="preserve">1.07514584064484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09381175041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07290589809418</t>
   </si>
   <si>
     <t xml:space="preserve">1.01392221450806</t>
@@ -347,34 +347,34 @@
     <t xml:space="preserve">0.979577302932739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00944232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048303604126</t>
+    <t xml:space="preserve">1.00944244861603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048291683197</t>
   </si>
   <si>
     <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0445339679718</t>
+    <t xml:space="preserve">1.04453408718109</t>
   </si>
   <si>
     <t xml:space="preserve">1.04901373386383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01541531085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00869572162628</t>
+    <t xml:space="preserve">1.01541543006897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00869584083557</t>
   </si>
   <si>
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333461284637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04080092906952</t>
+    <t xml:space="preserve">1.03333449363708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04080080986023</t>
   </si>
   <si>
     <t xml:space="preserve">1.03408122062683</t>
@@ -392,7 +392,7 @@
     <t xml:space="preserve">1.05573356151581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04677391052246</t>
+    <t xml:space="preserve">1.04677402973175</t>
   </si>
   <si>
     <t xml:space="preserve">1.0676794052124</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">1.09903788566589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08634531497955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709168434143</t>
+    <t xml:space="preserve">1.08634519577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709192276001</t>
   </si>
   <si>
     <t xml:space="preserve">1.09978449344635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10277104377747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11173069477081</t>
+    <t xml:space="preserve">1.10277092456818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11173057556152</t>
   </si>
   <si>
     <t xml:space="preserve">1.10501098632812</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">1.09007847309113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06319975852966</t>
+    <t xml:space="preserve">1.06319963932037</t>
   </si>
   <si>
     <t xml:space="preserve">1.06170642375946</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">1.05125367641449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06618630886078</t>
+    <t xml:space="preserve">1.0661860704422</t>
   </si>
   <si>
     <t xml:space="preserve">1.0788791179657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10127770900726</t>
+    <t xml:space="preserve">1.10127758979797</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575747489929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13114297389984</t>
+    <t xml:space="preserve">1.13114309310913</t>
   </si>
   <si>
     <t xml:space="preserve">1.13935589790344</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">1.10799741744995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10426437854767</t>
+    <t xml:space="preserve">1.10426425933838</t>
   </si>
   <si>
     <t xml:space="preserve">1.11322379112244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09455800056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037197589874</t>
+    <t xml:space="preserve">1.09455811977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037221431732</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202431678772</t>
@@ -509,28 +509,28 @@
     <t xml:space="preserve">1.08933174610138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10053133964539</t>
+    <t xml:space="preserve">1.1005312204361</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17668724060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17892730236053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20207273960114</t>
+    <t xml:space="preserve">1.1766871213913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17892718315125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20207262039185</t>
   </si>
   <si>
     <t xml:space="preserve">1.21700525283813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22223162651062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22521829605103</t>
+    <t xml:space="preserve">1.22223150730133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22521817684174</t>
   </si>
   <si>
     <t xml:space="preserve">1.19535291194916</t>
@@ -539,37 +539,37 @@
     <t xml:space="preserve">1.21476531028748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22148501873016</t>
+    <t xml:space="preserve">1.22148513793945</t>
   </si>
   <si>
     <t xml:space="preserve">1.20356595516205</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18937993049622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18714010715485</t>
+    <t xml:space="preserve">1.18938004970551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18713998794556</t>
   </si>
   <si>
     <t xml:space="preserve">1.16996765136719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1849000453949</t>
+    <t xml:space="preserve">1.18490016460419</t>
   </si>
   <si>
     <t xml:space="preserve">1.19311320781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519414424896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991934776306</t>
+    <t xml:space="preserve">1.17519402503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991922855377</t>
   </si>
   <si>
     <t xml:space="preserve">1.06543958187103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05722653865814</t>
+    <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
     <t xml:space="preserve">1.04528069496155</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">1.02064180374146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02512156963348</t>
+    <t xml:space="preserve">1.02512168884277</t>
   </si>
   <si>
     <t xml:space="preserve">1.05200040340424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02586829662323</t>
+    <t xml:space="preserve">1.02586817741394</t>
   </si>
   <si>
     <t xml:space="preserve">1.08186542987823</t>
@@ -599,22 +599,22 @@
     <t xml:space="preserve">1.08111882209778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09530472755432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11098396778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471712589264</t>
+    <t xml:space="preserve">1.09530484676361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11098408699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471700668335</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13487613201141</t>
+    <t xml:space="preserve">1.13412964344025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13487601280212</t>
   </si>
   <si>
     <t xml:space="preserve">1.14906215667725</t>
@@ -629,43 +629,43 @@
     <t xml:space="preserve">1.16698110103607</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15130209922791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13636922836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15727484226227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1714608669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220759391785</t>
+    <t xml:space="preserve">1.15130198001862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13636934757233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15727496147156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17146098613739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220747470856</t>
   </si>
   <si>
     <t xml:space="preserve">1.17594075202942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1729542016983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250145435333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847443580627</t>
+    <t xml:space="preserve">1.17295432090759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250157356262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847455501556</t>
   </si>
   <si>
     <t xml:space="preserve">1.14458215236664</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12890303134918</t>
+    <t xml:space="preserve">1.12890315055847</t>
   </si>
   <si>
     <t xml:space="preserve">1.12292993068695</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15055525302887</t>
+    <t xml:space="preserve">1.15055537223816</t>
   </si>
   <si>
     <t xml:space="preserve">1.1647412776947</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">1.14308905601501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18042039871216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18863332271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1796737909317</t>
+    <t xml:space="preserve">1.18042027950287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18863320350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17967391014099</t>
   </si>
   <si>
     <t xml:space="preserve">1.18191361427307</t>
@@ -689,49 +689,49 @@
     <t xml:space="preserve">1.21177887916565</t>
   </si>
   <si>
-    <t xml:space="preserve">1.19609975814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20879244804382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19385993480682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.19609987735748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20879232883453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19385981559753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953905582428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447144985199</t>
+    <t xml:space="preserve">1.21551191806793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447156906128</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820484638214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22596490383148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25806999206543</t>
+    <t xml:space="preserve">1.22596478462219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25806987285614</t>
   </si>
   <si>
     <t xml:space="preserve">1.32899963855743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36409115791321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37379741668701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38574349880219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41486203670502</t>
+    <t xml:space="preserve">1.3640912771225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37379729747772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3857433795929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41486191749573</t>
   </si>
   <si>
     <t xml:space="preserve">1.42979443073273</t>
@@ -743,55 +743,55 @@
     <t xml:space="preserve">1.44547367095947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42008829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784870624542</t>
+    <t xml:space="preserve">1.4200884103775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41784846782684</t>
   </si>
   <si>
     <t xml:space="preserve">1.45293998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46339297294617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45741987228394</t>
+    <t xml:space="preserve">1.46339285373688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
     <t xml:space="preserve">1.45219361782074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46488606929779</t>
+    <t xml:space="preserve">1.46488618850708</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43950068950653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44920694828033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024741649628</t>
+    <t xml:space="preserve">1.43950080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44920682907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024753570557</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664899349213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44846022129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44995367527008</t>
+    <t xml:space="preserve">1.40664911270142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44846034049988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4499534368515</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472718238831</t>
+    <t xml:space="preserve">1.44472694396973</t>
   </si>
   <si>
     <t xml:space="preserve">1.48355185985565</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">1.45592653751373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49325799942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952496051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267039775848</t>
+    <t xml:space="preserve">1.49325788021088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952484130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267051696777</t>
   </si>
   <si>
     <t xml:space="preserve">1.5305894613266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53506922721863</t>
+    <t xml:space="preserve">1.53506910800934</t>
   </si>
   <si>
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104220867157</t>
+    <t xml:space="preserve">1.54104232788086</t>
   </si>
   <si>
     <t xml:space="preserve">1.49251139163971</t>
@@ -827,148 +827,148 @@
     <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55298817157745</t>
+    <t xml:space="preserve">1.55298829078674</t>
   </si>
   <si>
     <t xml:space="preserve">1.57538712024689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58733320236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927928447723</t>
+    <t xml:space="preserve">1.58733332157135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927940368652</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56344127655029</t>
+    <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837378978729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60226559638977</t>
+    <t xml:space="preserve">1.60226571559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.58285319805145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58882641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389390468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823893547058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61719846725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64258408546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63959753513336</t>
+    <t xml:space="preserve">1.58882653713226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389402389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823881626129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61719834804535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64258396625519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
     <t xml:space="preserve">1.63213098049164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64557039737701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63362419605255</t>
+    <t xml:space="preserve">1.64557027816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63362431526184</t>
   </si>
   <si>
     <t xml:space="preserve">1.63810408115387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65846979618073</t>
+    <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693271160126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6646181344986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463663101196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58930289745331</t>
+    <t xml:space="preserve">1.66461801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463651180267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
     <t xml:space="preserve">1.61082148551941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57085847854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55856204032898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56317329406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56471002101898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56624734401703</t>
+    <t xml:space="preserve">1.57085835933685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55856227874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56317317485809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56471014022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56624722480774</t>
   </si>
   <si>
     <t xml:space="preserve">1.5462658405304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58008062839508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58776593208313</t>
+    <t xml:space="preserve">1.58008050918579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58776581287384</t>
   </si>
   <si>
     <t xml:space="preserve">1.60467338562012</t>
   </si>
   <si>
-    <t xml:space="preserve">1.600062251091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59083998203278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59852504730225</t>
+    <t xml:space="preserve">1.60006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59083986282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59852516651154</t>
   </si>
   <si>
     <t xml:space="preserve">1.61389553546906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63080310821533</t>
+    <t xml:space="preserve">1.63080298900604</t>
   </si>
   <si>
     <t xml:space="preserve">1.61543262004852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6384881734848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65539586544037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64156234264374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696994304657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65232181549072</t>
+    <t xml:space="preserve">1.63848841190338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65539574623108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64156246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696982383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65232169628143</t>
   </si>
   <si>
     <t xml:space="preserve">1.67998850345612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67691433429718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.675377368927</t>
+    <t xml:space="preserve">1.67691445350647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67537748813629</t>
   </si>
   <si>
     <t xml:space="preserve">1.68306267261505</t>
@@ -983,25 +983,25 @@
     <t xml:space="preserve">1.72148871421814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70150709152222</t>
+    <t xml:space="preserve">1.70150697231293</t>
   </si>
   <si>
     <t xml:space="preserve">1.69996988773346</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72609984874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76452589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298868656158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991463661194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145160198212</t>
+    <t xml:space="preserve">1.72609972953796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76452577114105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298880577087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991475582123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76145172119141</t>
   </si>
   <si>
     <t xml:space="preserve">1.74608147144318</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">1.73532199859619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74915552139282</t>
+    <t xml:space="preserve">1.74915564060211</t>
   </si>
   <si>
     <t xml:space="preserve">1.76913702487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77682220935822</t>
+    <t xml:space="preserve">1.7768223285675</t>
   </si>
   <si>
     <t xml:space="preserve">1.7722110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76759994029999</t>
+    <t xml:space="preserve">1.7675998210907</t>
   </si>
   <si>
     <t xml:space="preserve">1.79834091663361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82293367385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984112739563</t>
+    <t xml:space="preserve">1.82293355464935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984124660492</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295181274414</t>
@@ -1043,25 +1043,25 @@
     <t xml:space="preserve">1.79372990131378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78758156299591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74761831760406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995139122009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71534049510956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72456276416779</t>
+    <t xml:space="preserve">1.7875816822052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74761843681335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995162963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71534061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7245626449585</t>
   </si>
   <si>
     <t xml:space="preserve">1.74454438686371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74300694465637</t>
+    <t xml:space="preserve">1.74300706386566</t>
   </si>
   <si>
     <t xml:space="preserve">1.73071098327637</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">1.75376677513123</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75222945213318</t>
+    <t xml:space="preserve">1.75222957134247</t>
   </si>
   <si>
     <t xml:space="preserve">1.81217420101166</t>
@@ -1085,25 +1085,25 @@
     <t xml:space="preserve">1.81985950469971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79987776279449</t>
+    <t xml:space="preserve">1.79987788200378</t>
   </si>
   <si>
     <t xml:space="preserve">1.78143322467804</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75684058666229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80756306648254</t>
+    <t xml:space="preserve">1.75684070587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80756294727325</t>
   </si>
   <si>
     <t xml:space="preserve">1.81524837017059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521149635315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135947704315</t>
+    <t xml:space="preserve">1.85521125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
     <t xml:space="preserve">1.89824867248535</t>
@@ -1112,70 +1112,70 @@
     <t xml:space="preserve">1.90285980701447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89671158790588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056372642517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215606212616</t>
+    <t xml:space="preserve">1.89671146869659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056360721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215594291687</t>
   </si>
   <si>
     <t xml:space="preserve">1.85367429256439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8429149389267</t>
+    <t xml:space="preserve">1.84291505813599</t>
   </si>
   <si>
     <t xml:space="preserve">1.81832253932953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85674822330475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211883068085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90439677238464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358216762543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9336005449295</t>
+    <t xml:space="preserve">1.85674846172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211894989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90439701080322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360090255737</t>
   </si>
   <si>
     <t xml:space="preserve">1.92130434513092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93821167945862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052673339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050835609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356402873993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971200942993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98124897480011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94435977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969363212585</t>
+    <t xml:space="preserve">1.93821179866791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052685260773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050811767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356414794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971165180206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202694416046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9812490940094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9443598985672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969375133514</t>
   </si>
   <si>
     <t xml:space="preserve">1.99661958217621</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.95973038673401</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00123047828674</t>
+    <t xml:space="preserve">2.00123071670532</t>
   </si>
   <si>
     <t xml:space="preserve">2.00276756286621</t>
@@ -1196,19 +1196,19 @@
     <t xml:space="preserve">1.96434140205383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92745244503021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206357955933</t>
+    <t xml:space="preserve">1.92745232582092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206381797791</t>
   </si>
   <si>
     <t xml:space="preserve">1.92284142971039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95665633678436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02736043930054</t>
+    <t xml:space="preserve">1.95665645599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02736020088196</t>
   </si>
   <si>
     <t xml:space="preserve">2.01660108566284</t>
@@ -1217,22 +1217,22 @@
     <t xml:space="preserve">1.9551192522049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9489711523056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9873970746994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656409263611</t>
+    <t xml:space="preserve">1.94897103309631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656433105469</t>
   </si>
   <si>
     <t xml:space="preserve">2.05195307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808256149292</t>
+    <t xml:space="preserve">2.07039761543274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.10574960708618</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">2.04119372367859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88287830352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830380439758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365579605103</t>
+    <t xml:space="preserve">1.88287818431854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830404281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365615367889</t>
   </si>
   <si>
     <t xml:space="preserve">1.826007604599</t>
@@ -1271,13 +1271,13 @@
     <t xml:space="preserve">1.87826716899872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86443388462067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87672972679138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83522987365723</t>
+    <t xml:space="preserve">1.86443364620209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87673008441925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83522999286652</t>
   </si>
   <si>
     <t xml:space="preserve">1.85982263088226</t>
@@ -1286,85 +1286,85 @@
     <t xml:space="preserve">1.88441514968872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88902652263641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447040081024</t>
+    <t xml:space="preserve">1.88902628421783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447063922882</t>
   </si>
   <si>
     <t xml:space="preserve">1.87058198451996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91515600681305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363729953766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134098052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519323825836</t>
+    <t xml:space="preserve">1.91515612602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132284164429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363753795624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519311904907</t>
   </si>
   <si>
     <t xml:space="preserve">1.84598922729492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95819330215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204520225525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94282305240631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591547966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898976802826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8582855463028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87980437278748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361916065216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94743382930756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667471408844</t>
+    <t xml:space="preserve">1.95819318294525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204508304596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94282293319702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591559886932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898988723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85828542709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8798041343689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361892223358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94743406772614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667459487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96587872505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91208243370056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88595223426819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752631187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8413782119751</t>
+    <t xml:space="preserve">1.96587836742401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91208219528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8859521150589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8475261926651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137797355652</t>
   </si>
   <si>
     <t xml:space="preserve">1.79526662826538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78450751304626</t>
+    <t xml:space="preserve">1.78450739383698</t>
   </si>
   <si>
     <t xml:space="preserve">1.7829704284668</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">1.66769230365753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62004375457764</t>
+    <t xml:space="preserve">1.62004387378693</t>
   </si>
   <si>
     <t xml:space="preserve">1.6323401927948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64924740791321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66000699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771068096161</t>
+    <t xml:space="preserve">1.6492475271225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66000711917877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771056175232</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
@@ -1406,16 +1406,16 @@
     <t xml:space="preserve">1.72624862194061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74846112728119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942197322845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70244896411896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71038210391998</t>
+    <t xml:space="preserve">1.74846124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942185401917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70244908332825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
     <t xml:space="preserve">1.69927597045898</t>
@@ -1424,49 +1424,49 @@
     <t xml:space="preserve">1.70720899105072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75004804134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73735499382019</t>
+    <t xml:space="preserve">1.75004780292511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
     <t xml:space="preserve">1.74528813362122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78178060054779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79764676094055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81192636489868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543377876282</t>
+    <t xml:space="preserve">1.7817804813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7928866147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79764664173126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81192624568939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432764530182</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78971374034882</t>
+    <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
     <t xml:space="preserve">1.79130017757416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78019368648529</t>
+    <t xml:space="preserve">1.78019380569458</t>
   </si>
   <si>
     <t xml:space="preserve">1.81985926628113</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82779240608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82461929321289</t>
+    <t xml:space="preserve">1.82779252529144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8246191740036</t>
   </si>
   <si>
     <t xml:space="preserve">1.81668603420258</t>
@@ -1481,58 +1481,58 @@
     <t xml:space="preserve">1.77860724925995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88649773597717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856459617615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760422706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92140328884125</t>
+    <t xml:space="preserve">1.88649785518646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856471538544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760410785675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
     <t xml:space="preserve">1.91823029518127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84207212924957</t>
+    <t xml:space="preserve">1.84207201004028</t>
   </si>
   <si>
     <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8753913640976</t>
+    <t xml:space="preserve">1.87539160251617</t>
   </si>
   <si>
     <t xml:space="preserve">1.87380480766296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86745822429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572554588318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80875313282013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115441322327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74687469005585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74211490154266</t>
+    <t xml:space="preserve">1.86745846271515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80875301361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80716645717621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115429401398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74687457084656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74211502075195</t>
   </si>
   <si>
     <t xml:space="preserve">1.73576831817627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73418176174164</t>
+    <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
     <t xml:space="preserve">1.73259496688843</t>
@@ -1541,7 +1541,7 @@
     <t xml:space="preserve">1.69451606273651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69292938709259</t>
+    <t xml:space="preserve">1.69292950630188</t>
   </si>
   <si>
     <t xml:space="preserve">1.64057087898254</t>
@@ -1559,16 +1559,16 @@
     <t xml:space="preserve">1.64374399185181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6421571969986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64533066749573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71196889877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76908755302429</t>
+    <t xml:space="preserve">1.64215731620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64533054828644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71196901798248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.769087433815</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
@@ -1580,22 +1580,22 @@
     <t xml:space="preserve">1.66119694709778</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65009033679962</t>
+    <t xml:space="preserve">1.65009045600891</t>
   </si>
   <si>
     <t xml:space="preserve">1.66595673561096</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67706322669983</t>
+    <t xml:space="preserve">1.67706334590912</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071664333344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5826587677002</t>
+    <t xml:space="preserve">1.67071676254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58265900611877</t>
   </si>
   <si>
     <t xml:space="preserve">1.58821225166321</t>
@@ -1604,34 +1604,34 @@
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54220008850098</t>
+    <t xml:space="preserve">1.54219996929169</t>
   </si>
   <si>
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046764850616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140663146973</t>
+    <t xml:space="preserve">1.51046752929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140651226044</t>
   </si>
   <si>
     <t xml:space="preserve">1.53109359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52554035186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54061329364777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53268015384674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51443409919739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54854643344879</t>
+    <t xml:space="preserve">1.52554047107697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54061341285706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53268027305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5144339799881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54854655265808</t>
   </si>
   <si>
     <t xml:space="preserve">1.52395379543304</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">1.55647969245911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55409955978394</t>
+    <t xml:space="preserve">1.55409967899323</t>
   </si>
   <si>
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57393252849579</t>
+    <t xml:space="preserve">1.5739324092865</t>
   </si>
   <si>
     <t xml:space="preserve">1.56520617008209</t>
@@ -1658,13 +1658,13 @@
     <t xml:space="preserve">1.62311792373657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64691734313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167713165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62629127502441</t>
+    <t xml:space="preserve">1.64691722393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167725086212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62629115581512</t>
   </si>
   <si>
     <t xml:space="preserve">1.59614527225494</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">1.60883831977844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5588595867157</t>
+    <t xml:space="preserve">1.55885946750641</t>
   </si>
   <si>
     <t xml:space="preserve">1.53664684295654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54933977127075</t>
+    <t xml:space="preserve">1.54933965206146</t>
   </si>
   <si>
     <t xml:space="preserve">1.55489301681519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53902685642242</t>
+    <t xml:space="preserve">1.53902673721313</t>
   </si>
   <si>
     <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54299330711365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49142801761627</t>
+    <t xml:space="preserve">1.54299342632294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49142789840698</t>
   </si>
   <si>
     <t xml:space="preserve">1.51998722553253</t>
@@ -1709,94 +1709,94 @@
     <t xml:space="preserve">1.60090506076813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59138548374176</t>
+    <t xml:space="preserve">1.59138536453247</t>
   </si>
   <si>
     <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485048294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768953323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278350353241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6691300868988</t>
+    <t xml:space="preserve">1.65485036373138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768941402435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278338432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66913020610809</t>
   </si>
   <si>
     <t xml:space="preserve">1.72307538986206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72148895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70403563976288</t>
+    <t xml:space="preserve">1.72148883342743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70403587818146</t>
   </si>
   <si>
     <t xml:space="preserve">1.70879566669464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70562243461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7135556936264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816947937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6865828037262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65326380729675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67388987541199</t>
+    <t xml:space="preserve">1.70562255382538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71355557441711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816959857941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68658292293549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65326392650604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6738897562027</t>
   </si>
   <si>
     <t xml:space="preserve">1.68340957164764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65643692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802359580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182289600372</t>
+    <t xml:space="preserve">1.65643703937531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802371501923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182277679443</t>
   </si>
   <si>
     <t xml:space="preserve">1.71672880649567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80557990074158</t>
+    <t xml:space="preserve">1.80557978153229</t>
   </si>
   <si>
     <t xml:space="preserve">1.81827282905579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82303273677826</t>
+    <t xml:space="preserve">1.82303261756897</t>
   </si>
   <si>
     <t xml:space="preserve">1.78812682628632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509959697723</t>
+    <t xml:space="preserve">1.81509947776794</t>
   </si>
   <si>
     <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81033992767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399310588837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83889901638031</t>
+    <t xml:space="preserve">1.81033980846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399298667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83889877796173</t>
   </si>
   <si>
     <t xml:space="preserve">1.80081987380981</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.68023633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65961027145386</t>
+    <t xml:space="preserve">1.65961039066315</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422429561615</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">1.62946426868439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66754341125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894143104553</t>
+    <t xml:space="preserve">1.66754353046417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894155025482</t>
   </si>
   <si>
     <t xml:space="preserve">1.76274085044861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77226042747498</t>
+    <t xml:space="preserve">1.77226054668427</t>
   </si>
   <si>
     <t xml:space="preserve">1.75798106193542</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90395081043243</t>
+    <t xml:space="preserve">1.90395057201385</t>
   </si>
   <si>
     <t xml:space="preserve">1.90077745914459</t>
@@ -1844,22 +1844,22 @@
     <t xml:space="preserve">1.88967096805573</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8884345293045</t>
+    <t xml:space="preserve">1.88843441009521</t>
   </si>
   <si>
     <t xml:space="preserve">1.89172434806824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89665937423706</t>
+    <t xml:space="preserve">1.89665949344635</t>
   </si>
   <si>
     <t xml:space="preserve">1.86869490146637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88020980358124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88349950313568</t>
+    <t xml:space="preserve">1.88020968437195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88349938392639</t>
   </si>
   <si>
     <t xml:space="preserve">1.93120396137238</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">1.95587861537933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96903860569</t>
+    <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
     <t xml:space="preserve">1.94929885864258</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">1.9361389875412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9789080619812</t>
+    <t xml:space="preserve">1.97890818119049</t>
   </si>
   <si>
     <t xml:space="preserve">1.98548817634583</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">2.01180791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01674294471741</t>
+    <t xml:space="preserve">2.01674270629883</t>
   </si>
   <si>
     <t xml:space="preserve">2.01509785652161</t>
@@ -1898,28 +1898,28 @@
     <t xml:space="preserve">2.02332282066345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98219811916351</t>
+    <t xml:space="preserve">1.98219835758209</t>
   </si>
   <si>
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397339344025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600856304169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159440040588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94271874427795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97726309299469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99371302127838</t>
+    <t xml:space="preserve">1.97397327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600868225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159428119659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94271886348724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97726321220398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99371290206909</t>
   </si>
   <si>
     <t xml:space="preserve">1.9986480474472</t>
@@ -1937,16 +1937,16 @@
     <t xml:space="preserve">1.99206805229187</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01016283035278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01345252990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.980553150177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042320251465</t>
+    <t xml:space="preserve">2.0101625919342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01345276832581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98055338859558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964208602905</t>
@@ -1970,16 +1970,16 @@
     <t xml:space="preserve">2.04306244850159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97068333625793</t>
+    <t xml:space="preserve">1.97068345546722</t>
   </si>
   <si>
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04635238647461</t>
+    <t xml:space="preserve">2.02167749404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04635214805603</t>
   </si>
   <si>
     <t xml:space="preserve">2.07925200462341</t>
@@ -2003,7 +2003,7 @@
     <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1697256565094</t>
+    <t xml:space="preserve">2.16972541809082</t>
   </si>
   <si>
     <t xml:space="preserve">2.17795062065125</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">2.19111037254333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22072005271912</t>
+    <t xml:space="preserve">2.22071981430054</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">2.21578502655029</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23387980461121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24045968055725</t>
+    <t xml:space="preserve">2.23388004302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24045944213867</t>
   </si>
   <si>
     <t xml:space="preserve">2.21249508857727</t>
@@ -2051,13 +2051,13 @@
     <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25361943244934</t>
+    <t xml:space="preserve">2.25361967086792</t>
   </si>
   <si>
     <t xml:space="preserve">2.28816390037537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25690960884094</t>
+    <t xml:space="preserve">2.25690937042236</t>
   </si>
   <si>
     <t xml:space="preserve">2.28487396240234</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513433456421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27006912231445</t>
+    <t xml:space="preserve">2.26513409614563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.2799391746521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27664923667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24539470672607</t>
+    <t xml:space="preserve">2.2766489982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2453944683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.24374961853027</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">2.26677942276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30790376663208</t>
+    <t xml:space="preserve">2.3079035282135</t>
   </si>
   <si>
     <t xml:space="preserve">2.31941866874695</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435369491577</t>
+    <t xml:space="preserve">2.32435345649719</t>
   </si>
   <si>
     <t xml:space="preserve">2.31777381896973</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">2.45101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50859093666077</t>
+    <t xml:space="preserve">2.50859117507935</t>
   </si>
   <si>
     <t xml:space="preserve">2.48556160926819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47240161895752</t>
+    <t xml:space="preserve">2.4724018573761</t>
   </si>
   <si>
     <t xml:space="preserve">2.4674665927887</t>
@@ -2189,13 +2189,13 @@
     <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45924186706543</t>
+    <t xml:space="preserve">2.45924162864685</t>
   </si>
   <si>
     <t xml:space="preserve">2.46582174301147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798709869385</t>
+    <t xml:space="preserve">2.42798686027527</t>
   </si>
   <si>
     <t xml:space="preserve">2.49378657341003</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">2.47898149490356</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47569155693054</t>
+    <t xml:space="preserve">2.47569131851196</t>
   </si>
   <si>
     <t xml:space="preserve">2.46088695526123</t>
@@ -2228,10 +2228,10 @@
     <t xml:space="preserve">2.36383295059204</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40495729446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38028287887573</t>
+    <t xml:space="preserve">2.40495753288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38028264045715</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184439659119</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">2.21413993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05128741264343</t>
+    <t xml:space="preserve">2.05128717422485</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">1.59645092487335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.510089635849</t>
+    <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
     <t xml:space="preserve">1.5084445476532</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">1.52407193183899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47636759281158</t>
+    <t xml:space="preserve">1.47636747360229</t>
   </si>
   <si>
     <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57013130187988</t>
+    <t xml:space="preserve">1.57013118267059</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">1.66965234279633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68610215187073</t>
+    <t xml:space="preserve">1.68610227108002</t>
   </si>
   <si>
     <t xml:space="preserve">1.76835119724274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85060000419617</t>
+    <t xml:space="preserve">1.85059988498688</t>
   </si>
   <si>
     <t xml:space="preserve">1.73216164112091</t>
@@ -2306,28 +2306,28 @@
     <t xml:space="preserve">1.71571183204651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74532127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74367618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545134067535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7305166721344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229170799255</t>
+    <t xml:space="preserve">1.745321393013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7436763048172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73545145988464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73051679134369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229182720184</t>
   </si>
   <si>
     <t xml:space="preserve">1.76670610904694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78973579406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81441044807434</t>
+    <t xml:space="preserve">1.78973591327667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81441032886505</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125069618225</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">1.80618572235107</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81276547908783</t>
+    <t xml:space="preserve">1.81276535987854</t>
   </si>
   <si>
     <t xml:space="preserve">1.8390851020813</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">1.8719847202301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86211466789246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579528331757</t>
+    <t xml:space="preserve">1.86211454868317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579516410828</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76012647151947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77328586578369</t>
+    <t xml:space="preserve">1.76012635231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
     <t xml:space="preserve">1.74038648605347</t>
@@ -2369,19 +2369,19 @@
     <t xml:space="preserve">1.75848138332367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77657616138458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480112552643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415031433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86046993732452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81934523582458</t>
+    <t xml:space="preserve">1.77657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480100631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415019512177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86046981811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81934535503387</t>
   </si>
   <si>
     <t xml:space="preserve">1.79960572719574</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">1.87527465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91968929767609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232854366302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96410346031189</t>
+    <t xml:space="preserve">1.9196891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232842445374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96410357952118</t>
   </si>
   <si>
     <t xml:space="preserve">1.92133414745331</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85224521160126</t>
+    <t xml:space="preserve">1.85224509239197</t>
   </si>
   <si>
     <t xml:space="preserve">1.9048844575882</t>
@@ -2417,22 +2417,22 @@
     <t xml:space="preserve">1.91146397590637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98555862903595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97527968883514</t>
+    <t xml:space="preserve">1.98555850982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97527956962585</t>
   </si>
   <si>
     <t xml:space="preserve">1.91531884670258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8964741230011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91189241409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91703176498413</t>
+    <t xml:space="preserve">1.89647400379181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91189253330231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91703188419342</t>
   </si>
   <si>
     <t xml:space="preserve">1.88962137699127</t>
@@ -2441,22 +2441,22 @@
     <t xml:space="preserve">1.90503990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92731094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93758988380432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94101631641388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93245053291321</t>
+    <t xml:space="preserve">1.92731106281281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93759000301361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9324506521225</t>
   </si>
   <si>
     <t xml:space="preserve">1.88448202610016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88276863098145</t>
+    <t xml:space="preserve">1.88276875019073</t>
   </si>
   <si>
     <t xml:space="preserve">1.86906325817108</t>
@@ -2468,16 +2468,16 @@
     <t xml:space="preserve">1.84850537776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88105571269989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90161371231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92388463020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9067530632019</t>
+    <t xml:space="preserve">1.8810555934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9016135931015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92388474941254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90675318241119</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8502185344696</t>
+    <t xml:space="preserve">1.85021865367889</t>
   </si>
   <si>
     <t xml:space="preserve">1.81766831874847</t>
@@ -2504,31 +2504,31 @@
     <t xml:space="preserve">1.86563694477081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85878455638885</t>
+    <t xml:space="preserve">1.85878443717957</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93073737621307</t>
+    <t xml:space="preserve">1.93073725700378</t>
   </si>
   <si>
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157419681549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92902421951294</t>
+    <t xml:space="preserve">1.9615740776062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92902433872223</t>
   </si>
   <si>
     <t xml:space="preserve">1.89990031719208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92217135429382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89133453369141</t>
+    <t xml:space="preserve">1.92217147350311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89133441448212</t>
   </si>
   <si>
     <t xml:space="preserve">1.87762916088104</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790798187256</t>
+    <t xml:space="preserve">1.88790810108185</t>
   </si>
   <si>
     <t xml:space="preserve">1.91017949581146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88619518280029</t>
+    <t xml:space="preserve">1.886195063591</t>
   </si>
   <si>
     <t xml:space="preserve">1.8450790643692</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">1.7834050655365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78169178962708</t>
+    <t xml:space="preserve">1.78169190883636</t>
   </si>
   <si>
     <t xml:space="preserve">1.7731260061264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76456022262573</t>
+    <t xml:space="preserve">1.76456034183502</t>
   </si>
   <si>
     <t xml:space="preserve">1.7577075958252</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201012611389</t>
+    <t xml:space="preserve">1.73201024532318</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547571659088</t>
@@ -2591,22 +2591,22 @@
     <t xml:space="preserve">1.65491771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6711927652359</t>
+    <t xml:space="preserve">1.67119264602661</t>
   </si>
   <si>
     <t xml:space="preserve">1.67890202999115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69774675369263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72858381271362</t>
+    <t xml:space="preserve">1.69774687290192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72858369350433</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474285364151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70973896980286</t>
+    <t xml:space="preserve">1.70973908901215</t>
   </si>
   <si>
     <t xml:space="preserve">1.79197096824646</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">1.7782655954361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78683137893677</t>
+    <t xml:space="preserve">1.78683149814606</t>
   </si>
   <si>
     <t xml:space="preserve">1.78854465484619</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">1.94444262981415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96671378612518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92559778690338</t>
+    <t xml:space="preserve">1.96671366691589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92559766769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.89476072788239</t>
@@ -2666,13 +2666,13 @@
     <t xml:space="preserve">1.79882347583771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80224990844727</t>
+    <t xml:space="preserve">1.80225002765656</t>
   </si>
   <si>
     <t xml:space="preserve">1.77141296863556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83137381076813</t>
+    <t xml:space="preserve">1.83137369155884</t>
   </si>
   <si>
     <t xml:space="preserve">1.8348001241684</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">1.82623422145844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85364496707916</t>
+    <t xml:space="preserve">1.85364484786987</t>
   </si>
   <si>
     <t xml:space="preserve">1.86221063137054</t>
@@ -2690,22 +2690,22 @@
     <t xml:space="preserve">1.81252884864807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73714971542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73886287212372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74400234222412</t>
+    <t xml:space="preserve">1.73714983463287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73886275291443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74400222301483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428152084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7422890663147</t>
+    <t xml:space="preserve">1.75428140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74228918552399</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">1.76969969272614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80738937854767</t>
+    <t xml:space="preserve">1.80738925933838</t>
   </si>
   <si>
     <t xml:space="preserve">1.83308708667755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86049747467041</t>
+    <t xml:space="preserve">1.8604975938797</t>
   </si>
   <si>
     <t xml:space="preserve">1.87077653408051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91874504089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96328735351562</t>
+    <t xml:space="preserve">1.91874516010284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96328747272491</t>
   </si>
   <si>
     <t xml:space="preserve">2.01639556884766</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">2.00954270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00269031524658</t>
+    <t xml:space="preserve">2.00269055366516</t>
   </si>
   <si>
     <t xml:space="preserve">2.033527135849</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98898482322693</t>
+    <t xml:space="preserve">1.98898494243622</t>
   </si>
   <si>
     <t xml:space="preserve">2.00440335273743</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">2.04723286628723</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02153491973877</t>
+    <t xml:space="preserve">2.02153515815735</t>
   </si>
   <si>
     <t xml:space="preserve">2.0438060760498</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">2.08320903778076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07293033599854</t>
+    <t xml:space="preserve">2.07293009757996</t>
   </si>
   <si>
     <t xml:space="preserve">2.08149600028992</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452542304993</t>
+    <t xml:space="preserve">2.25452566146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -61438,7 +61438,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6494791667</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>1810166</v>
@@ -61459,6 +61459,32 @@
         <v>1397</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6493634259</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>2183640</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>1.98800003528595</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>1.95899999141693</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>1.96099996566772</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>1.97500002384186</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04269313812256</t>
+    <t xml:space="preserve">1.04269325733185</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189933300018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0354973077774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02974045276642</t>
+    <t xml:space="preserve">1.03189945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549742698669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02974057197571</t>
   </si>
   <si>
     <t xml:space="preserve">1.00743305683136</t>
@@ -65,49 +65,49 @@
     <t xml:space="preserve">1.00959193706512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98368638753891</t>
+    <t xml:space="preserve">0.983686447143555</t>
   </si>
   <si>
     <t xml:space="preserve">0.964976906776428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939791023731232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95130467414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885593414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93403434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341803073883</t>
+    <t xml:space="preserve">0.939791142940521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951304614543915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885772228241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.934034407138824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341743469238</t>
   </si>
   <si>
     <t xml:space="preserve">0.957781076431274</t>
   </si>
   <si>
-    <t xml:space="preserve">0.971453249454498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99016284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977929532527924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01462888717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99232143163681</t>
+    <t xml:space="preserve">0.971453487873077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.990162789821625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977929592132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01462912559509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992321610450745</t>
   </si>
   <si>
     <t xml:space="preserve">0.955622136592865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.941949844360352</t>
+    <t xml:space="preserve">0.941949903964996</t>
   </si>
   <si>
     <t xml:space="preserve">0.914605319499969</t>
@@ -119,49 +119,49 @@
     <t xml:space="preserve">0.921801209449768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947706699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97073370218277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97936874628067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99879789352417</t>
+    <t xml:space="preserve">0.947706580162048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733761787415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979368805885315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998797833919525</t>
   </si>
   <si>
     <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03621685504913</t>
+    <t xml:space="preserve">1.03621697425842</t>
   </si>
   <si>
     <t xml:space="preserve">1.02110540866852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05636560916901</t>
+    <t xml:space="preserve">1.05636548995972</t>
   </si>
   <si>
     <t xml:space="preserve">1.02686214447021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02326416969299</t>
+    <t xml:space="preserve">1.02326428890228</t>
   </si>
   <si>
     <t xml:space="preserve">1.05132830142975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05852425098419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03981482982635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04341268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01247024536133</t>
+    <t xml:space="preserve">1.0585241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03981494903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04341292381287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01247000694275</t>
   </si>
   <si>
     <t xml:space="preserve">1.02542293071747</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">1.11609196662903</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13120341300964</t>
+    <t xml:space="preserve">1.13120329380035</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
@@ -191,43 +191,43 @@
     <t xml:space="preserve">1.12616622447968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11897027492523</t>
+    <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
     <t xml:space="preserve">1.12256824970245</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12544655799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14127767086029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336229324341</t>
+    <t xml:space="preserve">1.12544667720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14127779006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336217403412</t>
   </si>
   <si>
     <t xml:space="preserve">1.14199733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11681151390076</t>
+    <t xml:space="preserve">1.11681163311005</t>
   </si>
   <si>
     <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13048386573792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696014881134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14415597915649</t>
+    <t xml:space="preserve">1.13048374652863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696026802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14415621757507</t>
   </si>
   <si>
     <t xml:space="preserve">1.13767969608307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1470342874527</t>
+    <t xml:space="preserve">1.14703440666199</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279126167297</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">1.13624048233032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12328791618347</t>
+    <t xml:space="preserve">1.12328779697418</t>
   </si>
   <si>
     <t xml:space="preserve">1.10457837581635</t>
@@ -248,7 +248,7 @@
     <t xml:space="preserve">1.12112903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15638911724091</t>
+    <t xml:space="preserve">1.1563892364502</t>
   </si>
   <si>
     <t xml:space="preserve">1.14847362041473</t>
@@ -257,28 +257,28 @@
     <t xml:space="preserve">1.16214609146118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15494990348816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14991283416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15063238143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13480126857758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10817623138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15423047542572</t>
+    <t xml:space="preserve">1.15495014190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14991295337677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1506325006485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13480138778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10817635059357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15423023700714</t>
   </si>
   <si>
     <t xml:space="preserve">1.12760543823242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11249387264252</t>
+    <t xml:space="preserve">1.11249399185181</t>
   </si>
   <si>
     <t xml:space="preserve">1.11177444458008</t>
@@ -287,55 +287,55 @@
     <t xml:space="preserve">1.14055812358856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17222023010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20100402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18733167648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085551261902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884526729584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661212921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17006170749664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18805122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1858925819397</t>
+    <t xml:space="preserve">1.17222011089325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2010041475296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18733179569244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085563182831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884538650513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661236763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17006158828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18805158138275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18589270114899</t>
   </si>
   <si>
     <t xml:space="preserve">1.19308853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16862225532532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162569046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08155131340027</t>
+    <t xml:space="preserve">1.16862237453461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162557125092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08155119419098</t>
   </si>
   <si>
     <t xml:space="preserve">1.07795345783234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09306478500366</t>
+    <t xml:space="preserve">1.09306490421295</t>
   </si>
   <si>
     <t xml:space="preserve">1.07514584064484</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09381175041199</t>
+    <t xml:space="preserve">1.09381151199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.07290589809418</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">1.01392221450806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979577302932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944244861603</t>
+    <t xml:space="preserve">0.979577362537384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944232940674</t>
   </si>
   <si>
     <t xml:space="preserve">1.00048291683197</t>
@@ -356,31 +356,31 @@
     <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04453408718109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04901373386383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01541543006897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00869584083557</t>
+    <t xml:space="preserve">1.0445339679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04901361465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01541531085968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00869560241699</t>
   </si>
   <si>
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333449363708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04080080986023</t>
+    <t xml:space="preserve">1.03333461284637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04080092906952</t>
   </si>
   <si>
     <t xml:space="preserve">1.03408122062683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01914870738983</t>
+    <t xml:space="preserve">1.01914858818054</t>
   </si>
   <si>
     <t xml:space="preserve">1.02885472774506</t>
@@ -389,40 +389,40 @@
     <t xml:space="preserve">1.03557443618774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05573356151581</t>
+    <t xml:space="preserve">1.05573332309723</t>
   </si>
   <si>
     <t xml:space="preserve">1.04677402973175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0676794052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469297409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07738566398621</t>
+    <t xml:space="preserve">1.06767952442169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469285488129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07738554477692</t>
   </si>
   <si>
     <t xml:space="preserve">1.07813227176666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09754455089569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09903788566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08634519577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08709192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09978449344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10277092456818</t>
+    <t xml:space="preserve">1.09754490852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0990377664566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08634531497955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08709180355072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09978461265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10277104377747</t>
   </si>
   <si>
     <t xml:space="preserve">1.11173057556152</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">1.10501098632812</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10874426364899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007847309113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06319963932037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06170642375946</t>
+    <t xml:space="preserve">1.10874402523041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007823467255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06319975852966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06170654296875</t>
   </si>
   <si>
     <t xml:space="preserve">1.0594664812088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05125367641449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0661860704422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0788791179657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127758979797</t>
+    <t xml:space="preserve">1.05125379562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06618618965149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887899875641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127782821655</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575747489929</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">1.13114309310913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13935589790344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799741744995</t>
+    <t xml:space="preserve">1.13935577869415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799753665924</t>
   </si>
   <si>
     <t xml:space="preserve">1.10426425933838</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">1.09455811977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08037221431732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202431678772</t>
+    <t xml:space="preserve">1.08037233352661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202443599701</t>
   </si>
   <si>
     <t xml:space="preserve">1.0923182964325</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">1.11247718334198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14383566379547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666296958923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994349956512</t>
+    <t xml:space="preserve">1.14383542537689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666308879852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994361877441</t>
   </si>
   <si>
     <t xml:space="preserve">1.08261203765869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08933174610138</t>
+    <t xml:space="preserve">1.0893315076828</t>
   </si>
   <si>
     <t xml:space="preserve">1.1005312204361</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1766871213913</t>
+    <t xml:space="preserve">1.17668735980988</t>
   </si>
   <si>
     <t xml:space="preserve">1.17892718315125</t>
@@ -527,19 +527,19 @@
     <t xml:space="preserve">1.21700525283813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22223150730133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22521817684174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19535291194916</t>
+    <t xml:space="preserve">1.22223174571991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22521829605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19535303115845</t>
   </si>
   <si>
     <t xml:space="preserve">1.21476531028748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22148513793945</t>
+    <t xml:space="preserve">1.22148501873016</t>
   </si>
   <si>
     <t xml:space="preserve">1.20356595516205</t>
@@ -548,22 +548,22 @@
     <t xml:space="preserve">1.18938004970551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18713998794556</t>
+    <t xml:space="preserve">1.18714010715485</t>
   </si>
   <si>
     <t xml:space="preserve">1.16996765136719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18490016460419</t>
+    <t xml:space="preserve">1.18490028381348</t>
   </si>
   <si>
     <t xml:space="preserve">1.19311320781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519402503967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991922855377</t>
+    <t xml:space="preserve">1.17519414424896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991934776306</t>
   </si>
   <si>
     <t xml:space="preserve">1.06543958187103</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">1.05722677707672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04528069496155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05274677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04304075241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02064180374146</t>
+    <t xml:space="preserve">1.04528057575226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0527468919754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0430406332016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02064192295074</t>
   </si>
   <si>
     <t xml:space="preserve">1.02512168884277</t>
@@ -602,22 +602,22 @@
     <t xml:space="preserve">1.09530484676361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11098408699036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11471700668335</t>
+    <t xml:space="preserve">1.11098384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11471724510193</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13412964344025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13487601280212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14906215667725</t>
+    <t xml:space="preserve">1.13412952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13487613201141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14906203746796</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279519557953</t>
@@ -635,61 +635,61 @@
     <t xml:space="preserve">1.13636934757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15727496147156</t>
+    <t xml:space="preserve">1.15727484226227</t>
   </si>
   <si>
     <t xml:space="preserve">1.17146098613739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17220747470856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17594075202942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17295432090759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16250157356262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16847455501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14458215236664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890315055847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12292993068695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15055537223816</t>
+    <t xml:space="preserve">1.17220771312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17594063282013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1729542016983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16250133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16847443580627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14458227157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890303134918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12292981147766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15055525302887</t>
   </si>
   <si>
     <t xml:space="preserve">1.1647412776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14308905601501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18042027950287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18863320350647</t>
+    <t xml:space="preserve">1.14308893680573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18042039871216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
     <t xml:space="preserve">1.17967391014099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18191361427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21177887916565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19609987735748</t>
+    <t xml:space="preserve">1.18191385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21177899837494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1960996389389</t>
   </si>
   <si>
     <t xml:space="preserve">1.20879232883453</t>
@@ -698,55 +698,55 @@
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20431268215179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20953905582428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21551191806793</t>
+    <t xml:space="preserve">1.2043125629425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20953893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21551203727722</t>
   </si>
   <si>
     <t xml:space="preserve">1.22447156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22820484638214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22596478462219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25806987285614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32899963855743</t>
+    <t xml:space="preserve">1.22820472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22596490383148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25806975364685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32899951934814</t>
   </si>
   <si>
     <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37379729747772</t>
+    <t xml:space="preserve">1.3737975358963</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486191749573</t>
+    <t xml:space="preserve">1.41486203670502</t>
   </si>
   <si>
     <t xml:space="preserve">1.42979443073273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43352782726288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547367095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200884103775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41784846782684</t>
+    <t xml:space="preserve">1.4335275888443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547379016876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42008829116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41784870624542</t>
   </si>
   <si>
     <t xml:space="preserve">1.45293998718262</t>
@@ -758,67 +758,67 @@
     <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45219361782074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46488618850708</t>
+    <t xml:space="preserve">1.45219349861145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46488606929779</t>
   </si>
   <si>
     <t xml:space="preserve">1.44099402427673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43950080871582</t>
+    <t xml:space="preserve">1.43950068950653</t>
   </si>
   <si>
     <t xml:space="preserve">1.44920682907104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44024753570557</t>
+    <t xml:space="preserve">1.44024741649628</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40664911270142</t>
+    <t xml:space="preserve">1.40664899349213</t>
   </si>
   <si>
     <t xml:space="preserve">1.44846034049988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4499534368515</t>
+    <t xml:space="preserve">1.44995355606079</t>
   </si>
   <si>
     <t xml:space="preserve">1.46413946151733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44472694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48355185985565</t>
+    <t xml:space="preserve">1.44472706317902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48355174064636</t>
   </si>
   <si>
     <t xml:space="preserve">1.45592653751373</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49325788021088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48952484130859</t>
+    <t xml:space="preserve">1.49325799942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48952496051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.51267051696777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5305894613266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506910800934</t>
+    <t xml:space="preserve">1.53058934211731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506922721863</t>
   </si>
   <si>
     <t xml:space="preserve">1.52461647987366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54104232788086</t>
+    <t xml:space="preserve">1.54104220867157</t>
   </si>
   <si>
     <t xml:space="preserve">1.49251139163971</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">1.57538712024689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58733332157135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927940368652</t>
+    <t xml:space="preserve">1.58733308315277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927928447723</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
@@ -845,28 +845,28 @@
     <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837378978729</t>
+    <t xml:space="preserve">1.578373670578</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226571559906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285319805145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58882653713226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389402389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823881626129</t>
+    <t xml:space="preserve">1.58285343647003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58882641792297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389414310455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823893547058</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719834804535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64258396625519</t>
+    <t xml:space="preserve">1.64258372783661</t>
   </si>
   <si>
     <t xml:space="preserve">1.63959741592407</t>
@@ -878,19 +878,19 @@
     <t xml:space="preserve">1.64557027816772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362431526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810408115387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65846991539001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65693271160126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66461801528931</t>
+    <t xml:space="preserve">1.63362407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810396194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65846979618073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65693283081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66461789608002</t>
   </si>
   <si>
     <t xml:space="preserve">1.64463651180267</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61082148551941</t>
+    <t xml:space="preserve">1.6108216047287</t>
   </si>
   <si>
     <t xml:space="preserve">1.57085835933685</t>
@@ -911,130 +911,130 @@
     <t xml:space="preserve">1.56317317485809</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56471014022827</t>
+    <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
     <t xml:space="preserve">1.56624722480774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5462658405304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58008050918579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58776581287384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60467338562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60006237030029</t>
+    <t xml:space="preserve">1.54626572132111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58008074760437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58776593208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60467350482941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.600062251091</t>
   </si>
   <si>
     <t xml:space="preserve">1.59083986282349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59852516651154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61389553546906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63080298900604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543262004852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63848841190338</t>
+    <t xml:space="preserve">1.59852504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61389577388763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63080322742462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543250083923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6384881734848</t>
   </si>
   <si>
     <t xml:space="preserve">1.65539574623108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156246185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696982383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65232169628143</t>
+    <t xml:space="preserve">1.64156234264374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696970462799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65232181549072</t>
   </si>
   <si>
     <t xml:space="preserve">1.67998850345612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67691445350647</t>
+    <t xml:space="preserve">1.67691433429718</t>
   </si>
   <si>
     <t xml:space="preserve">1.67537748813629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68306267261505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70458114147186</t>
+    <t xml:space="preserve">1.68306255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70458126068115</t>
   </si>
   <si>
     <t xml:space="preserve">1.7291738986969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72148871421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70150697231293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69996988773346</t>
+    <t xml:space="preserve">1.72148859500885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70150721073151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69997000694275</t>
   </si>
   <si>
     <t xml:space="preserve">1.72609972953796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76452577114105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298880577087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991475582123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76145172119141</t>
+    <t xml:space="preserve">1.76452589035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298844814301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991487503052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7614518404007</t>
   </si>
   <si>
     <t xml:space="preserve">1.74608147144318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72763681411743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532199859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74915564060211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76913702487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7768223285675</t>
+    <t xml:space="preserve">1.72763669490814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73532164096832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74915540218353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76913714408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77682220935822</t>
   </si>
   <si>
     <t xml:space="preserve">1.7722110748291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7675998210907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79834091663361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82293355464935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83984124660492</t>
+    <t xml:space="preserve">1.76759994029999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7983410358429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82293331623077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83984100818634</t>
   </si>
   <si>
     <t xml:space="preserve">1.80295181274414</t>
@@ -1055,25 +1055,25 @@
     <t xml:space="preserve">1.71534061431885</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7245626449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74454438686371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74300706386566</t>
+    <t xml:space="preserve">1.72456276416779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74454426765442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74300730228424</t>
   </si>
   <si>
     <t xml:space="preserve">1.73071098327637</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71380352973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376677513123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75222957134247</t>
+    <t xml:space="preserve">1.71380341053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376653671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75222945213318</t>
   </si>
   <si>
     <t xml:space="preserve">1.81217420101166</t>
@@ -1082,88 +1082,88 @@
     <t xml:space="preserve">1.80602586269379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987788200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143322467804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75684070587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80756294727325</t>
+    <t xml:space="preserve">1.81985938549042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987800121307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143346309662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75684058666229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80756318569183</t>
   </si>
   <si>
     <t xml:space="preserve">1.81524837017059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85521125793457</t>
+    <t xml:space="preserve">1.85521137714386</t>
   </si>
   <si>
     <t xml:space="preserve">1.86135959625244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89824867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90285980701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89671146869659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89056360721588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215594291687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85367429256439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84291505813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81832253932953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674846172333</t>
+    <t xml:space="preserve">1.89824879169464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90285992622375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89671158790588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89056348800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215570449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367453098297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84291529655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81832218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674834251404</t>
   </si>
   <si>
     <t xml:space="preserve">1.87211894989014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90439701080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95358228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360090255737</t>
+    <t xml:space="preserve">1.90439689159393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95358216762543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360078334808</t>
   </si>
   <si>
     <t xml:space="preserve">1.92130434513092</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93821179866791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93052685260773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95050811767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356414794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971165180206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202694416046</t>
+    <t xml:space="preserve">1.93821203708649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93052661418915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95050823688507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356379032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971212863922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202682495117</t>
   </si>
   <si>
     <t xml:space="preserve">1.9812490940094</t>
@@ -1172,13 +1172,13 @@
     <t xml:space="preserve">1.9443598985672</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03350830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969375133514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661958217621</t>
+    <t xml:space="preserve">2.03350853919983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969351291656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99661934375763</t>
   </si>
   <si>
     <t xml:space="preserve">1.95973038673401</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">2.00276756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510087490082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434140205383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745232582092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93206381797791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92284142971039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665645599365</t>
+    <t xml:space="preserve">1.97510051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96434152126312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745268344879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93206357955933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92284154891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665609836578</t>
   </si>
   <si>
     <t xml:space="preserve">2.02736020088196</t>
@@ -1214,37 +1214,37 @@
     <t xml:space="preserve">2.01660108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9551192522049</t>
+    <t xml:space="preserve">1.95511913299561</t>
   </si>
   <si>
     <t xml:space="preserve">1.94897103309631</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98739719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05656433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05195307731628</t>
+    <t xml:space="preserve">1.9873970746994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05656456947327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05195283889771</t>
   </si>
   <si>
     <t xml:space="preserve">2.07039761543274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0780827999115</t>
+    <t xml:space="preserve">2.07808256149292</t>
   </si>
   <si>
     <t xml:space="preserve">2.10574960708618</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06732368469238</t>
+    <t xml:space="preserve">2.0673234462738</t>
   </si>
   <si>
     <t xml:space="preserve">2.02582311630249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01199007034302</t>
+    <t xml:space="preserve">2.01198983192444</t>
   </si>
   <si>
     <t xml:space="preserve">2.00737881660461</t>
@@ -1253,118 +1253,118 @@
     <t xml:space="preserve">2.00584149360657</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04119372367859</t>
+    <t xml:space="preserve">2.04119348526001</t>
   </si>
   <si>
     <t xml:space="preserve">1.88287818431854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83830404281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365615367889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.826007604599</t>
+    <t xml:space="preserve">1.83830392360687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365567684174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82600772380829</t>
   </si>
   <si>
     <t xml:space="preserve">1.87826716899872</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86443364620209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87673008441925</t>
+    <t xml:space="preserve">1.86443376541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672996520996</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522999286652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85982263088226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88441514968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88902628421783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82447063922882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87058198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91515612602234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90132284164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363753795624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134109973907</t>
+    <t xml:space="preserve">1.85982275009155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8844153881073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88902640342712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82447075843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87058210372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91515624523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.901322722435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363765716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134133815765</t>
   </si>
   <si>
     <t xml:space="preserve">1.87519311904907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84598922729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95819318294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95204508304596</t>
+    <t xml:space="preserve">1.84598886966705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95819330215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95204520225525</t>
   </si>
   <si>
     <t xml:space="preserve">1.94282293319702</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92591559886932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92898988723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85828542709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8798041343689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91361892223358</t>
+    <t xml:space="preserve">1.92591571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92898941040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8582855463028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87980437278748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91361904144287</t>
   </si>
   <si>
     <t xml:space="preserve">1.94743406772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93667459487915</t>
+    <t xml:space="preserve">1.93667507171631</t>
   </si>
   <si>
     <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96587836742401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91208219528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8859521150589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8475261926651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84137797355652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526662826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78450739383698</t>
+    <t xml:space="preserve">1.9658784866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91208207607269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88595235347748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752607345581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8413782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526674747467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78450751304626</t>
   </si>
   <si>
     <t xml:space="preserve">1.7829704284668</t>
@@ -1376,40 +1376,40 @@
     <t xml:space="preserve">1.66769230365753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62004387378693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6323401927948</t>
+    <t xml:space="preserve">1.62004375457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63234031200409</t>
   </si>
   <si>
     <t xml:space="preserve">1.6492475271225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66000711917877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771056175232</t>
+    <t xml:space="preserve">1.66000699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771068096161</t>
   </si>
   <si>
     <t xml:space="preserve">1.62772905826569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59545123577118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69535887241364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73224806785583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72624862194061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72942185401917</t>
+    <t xml:space="preserve">1.59545111656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69535911083221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73224794864655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72624850273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846136569977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72942197322845</t>
   </si>
   <si>
     <t xml:space="preserve">1.70244908332825</t>
@@ -1418,28 +1418,28 @@
     <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69927597045898</t>
+    <t xml:space="preserve">1.69927585124969</t>
   </si>
   <si>
     <t xml:space="preserve">1.70720899105072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75004780292511</t>
+    <t xml:space="preserve">1.75004804134369</t>
   </si>
   <si>
     <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528813362122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7817804813385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7928866147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79764664173126</t>
+    <t xml:space="preserve">1.74528801441193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78178036212921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79288673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79764676094055</t>
   </si>
   <si>
     <t xml:space="preserve">1.81192624568939</t>
@@ -1448,79 +1448,79 @@
     <t xml:space="preserve">1.77543389797211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76432764530182</t>
+    <t xml:space="preserve">1.76432740688324</t>
   </si>
   <si>
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79130017757416</t>
+    <t xml:space="preserve">1.79129981994629</t>
   </si>
   <si>
     <t xml:space="preserve">1.78019380569458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985926628113</t>
+    <t xml:space="preserve">1.81985914707184</t>
   </si>
   <si>
     <t xml:space="preserve">1.82779252529144</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8246191740036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81668603420258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923319816589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384722232819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860724925995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88649785518646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87856471538544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89760410785675</t>
+    <t xml:space="preserve">1.82461929321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81668627262115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79923331737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384734153748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860713005066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88649773597717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87856447696686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89760398864746</t>
   </si>
   <si>
     <t xml:space="preserve">1.92140340805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91823029518127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84207201004028</t>
+    <t xml:space="preserve">1.91823017597198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84207236766815</t>
   </si>
   <si>
     <t xml:space="preserve">1.8626983165741</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87539160251617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87380480766296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86745846271515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572566509247</t>
+    <t xml:space="preserve">1.87539148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87380468845367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86745822429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572554588318</t>
   </si>
   <si>
     <t xml:space="preserve">1.80875301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80716645717621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115429401398</t>
+    <t xml:space="preserve">1.8071665763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115453243256</t>
   </si>
   <si>
     <t xml:space="preserve">1.74687457084656</t>
@@ -1535,10 +1535,10 @@
     <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73259496688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451606273651</t>
+    <t xml:space="preserve">1.73259520530701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451594352722</t>
   </si>
   <si>
     <t xml:space="preserve">1.69292950630188</t>
@@ -1547,16 +1547,16 @@
     <t xml:space="preserve">1.64057087898254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60249185562134</t>
+    <t xml:space="preserve">1.60249173641205</t>
   </si>
   <si>
     <t xml:space="preserve">1.61677145957947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62787771224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64374399185181</t>
+    <t xml:space="preserve">1.62787783145905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6437441110611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64215731620789</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">1.64533054828644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71196901798248</t>
+    <t xml:space="preserve">1.71196889877319</t>
   </si>
   <si>
     <t xml:space="preserve">1.769087433815</t>
@@ -1574,31 +1574,31 @@
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975627422333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119694709778</t>
+    <t xml:space="preserve">1.68975615501404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119706630707</t>
   </si>
   <si>
     <t xml:space="preserve">1.65009045600891</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66595673561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706334590912</t>
+    <t xml:space="preserve">1.66595685482025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706310749054</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67071676254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58265900611877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58821225166321</t>
+    <t xml:space="preserve">1.67071664333344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58265888690948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58821213245392</t>
   </si>
   <si>
     <t xml:space="preserve">1.56282615661621</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">1.53506016731262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51046752929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54140651226044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53109359741211</t>
+    <t xml:space="preserve">1.51046741008759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54140663146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5310937166214</t>
   </si>
   <si>
     <t xml:space="preserve">1.52554047107697</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">1.54061341285706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53268027305603</t>
+    <t xml:space="preserve">1.53268015384674</t>
   </si>
   <si>
     <t xml:space="preserve">1.5144339799881</t>
@@ -1646,7 +1646,7 @@
     <t xml:space="preserve">1.51760733127594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5739324092865</t>
+    <t xml:space="preserve">1.57393252849579</t>
   </si>
   <si>
     <t xml:space="preserve">1.56520617008209</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">1.62311792373657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64691722393036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167725086212</t>
+    <t xml:space="preserve">1.64691734313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167713165283</t>
   </si>
   <si>
     <t xml:space="preserve">1.62629115581512</t>
@@ -1670,16 +1670,16 @@
     <t xml:space="preserve">1.59614527225494</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60883831977844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55885946750641</t>
+    <t xml:space="preserve">1.60883843898773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55885970592499</t>
   </si>
   <si>
     <t xml:space="preserve">1.53664684295654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54933965206146</t>
+    <t xml:space="preserve">1.54933977127075</t>
   </si>
   <si>
     <t xml:space="preserve">1.55489301681519</t>
@@ -1700,10 +1700,10 @@
     <t xml:space="preserve">1.51998722553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50729429721832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59931862354279</t>
+    <t xml:space="preserve">1.50729417800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59931838512421</t>
   </si>
   <si>
     <t xml:space="preserve">1.60090506076813</t>
@@ -1718,37 +1718,37 @@
     <t xml:space="preserve">1.65485036373138</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69768941402435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66278338432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66913020610809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72307538986206</t>
+    <t xml:space="preserve">1.69768929481506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66278350353241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6691300868988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72307527065277</t>
   </si>
   <si>
     <t xml:space="preserve">1.72148883342743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70403587818146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70879566669464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70562255382538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71355557441711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816959857941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68658292293549</t>
+    <t xml:space="preserve">1.70403575897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70879554748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70562243461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7135556936264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816947937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68658268451691</t>
   </si>
   <si>
     <t xml:space="preserve">1.65326392650604</t>
@@ -1757,112 +1757,112 @@
     <t xml:space="preserve">1.6738897562027</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68340957164764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643703937531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802371501923</t>
+    <t xml:space="preserve">1.68340969085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643715858459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802359580994</t>
   </si>
   <si>
     <t xml:space="preserve">1.68182277679443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71672880649567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80557978153229</t>
+    <t xml:space="preserve">1.71672868728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.805579662323</t>
   </si>
   <si>
     <t xml:space="preserve">1.81827282905579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82303261756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78812682628632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81509947776794</t>
+    <t xml:space="preserve">1.82303285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78812694549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81509983539581</t>
   </si>
   <si>
     <t xml:space="preserve">1.78654038906097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81033980846405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399298667908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83889877796173</t>
+    <t xml:space="preserve">1.81033968925476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399322509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83889901638031</t>
   </si>
   <si>
     <t xml:space="preserve">1.80081987380981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69134283065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68023633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961039066315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63422429561615</t>
+    <t xml:space="preserve">1.69134271144867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68023645877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961015224457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63422417640686</t>
   </si>
   <si>
     <t xml:space="preserve">1.62946426868439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66754353046417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894155025482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76274085044861</t>
+    <t xml:space="preserve">1.66754329204559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894143104553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76274073123932</t>
   </si>
   <si>
     <t xml:space="preserve">1.77226054668427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75798106193542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83096587657928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90395057201385</t>
+    <t xml:space="preserve">1.757981300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83096599578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90395069122314</t>
   </si>
   <si>
     <t xml:space="preserve">1.90077745914459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88967096805573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88843441009521</t>
+    <t xml:space="preserve">1.88967072963715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88843429088593</t>
   </si>
   <si>
     <t xml:space="preserve">1.89172434806824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89665949344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86869490146637</t>
+    <t xml:space="preserve">1.89665937423706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86869478225708</t>
   </si>
   <si>
     <t xml:space="preserve">1.88020968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88349938392639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120396137238</t>
+    <t xml:space="preserve">1.88349962234497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93120384216309</t>
   </si>
   <si>
     <t xml:space="preserve">1.95587861537933</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9361389875412</t>
+    <t xml:space="preserve">1.94929850101471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613886833191</t>
   </si>
   <si>
     <t xml:space="preserve">1.97890818119049</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98548817634583</t>
+    <t xml:space="preserve">1.98548829555511</t>
   </si>
   <si>
     <t xml:space="preserve">2.00851774215698</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01180791854858</t>
+    <t xml:space="preserve">2.01180815696716</t>
   </si>
   <si>
     <t xml:space="preserve">2.01674270629883</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.01509785652161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02332282066345</t>
+    <t xml:space="preserve">2.02332258224487</t>
   </si>
   <si>
     <t xml:space="preserve">1.98219835758209</t>
@@ -1904,13 +1904,13 @@
     <t xml:space="preserve">1.98384320735931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97397327423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600868225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90159428119659</t>
+    <t xml:space="preserve">1.97397351264954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600856304169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90159440040588</t>
   </si>
   <si>
     <t xml:space="preserve">1.94271886348724</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99371290206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9986480474472</t>
+    <t xml:space="preserve">1.99371325969696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99864816665649</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1934,58 +1934,58 @@
     <t xml:space="preserve">2.00358295440674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99206805229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0101625919342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01345276832581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98055338859558</t>
+    <t xml:space="preserve">1.99206817150116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01016283035278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01345300674438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98055326938629</t>
   </si>
   <si>
     <t xml:space="preserve">1.99042308330536</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04964208602905</t>
+    <t xml:space="preserve">2.04964232444763</t>
   </si>
   <si>
     <t xml:space="preserve">2.03319239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03154754638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483748435974</t>
+    <t xml:space="preserve">2.0315477848053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483724594116</t>
   </si>
   <si>
     <t xml:space="preserve">2.06609201431274</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06444716453552</t>
+    <t xml:space="preserve">2.06444692611694</t>
   </si>
   <si>
     <t xml:space="preserve">2.04306244850159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97068345546722</t>
+    <t xml:space="preserve">1.97068333625793</t>
   </si>
   <si>
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167749404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04635214805603</t>
+    <t xml:space="preserve">2.02167773246765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04635238647461</t>
   </si>
   <si>
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1401162147522</t>
+    <t xml:space="preserve">2.14011597633362</t>
   </si>
   <si>
     <t xml:space="preserve">2.16314601898193</t>
@@ -1994,25 +1994,25 @@
     <t xml:space="preserve">2.15821099281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17959570884705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2009801864624</t>
+    <t xml:space="preserve">2.17959547042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20098066329956</t>
   </si>
   <si>
     <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16972541809082</t>
+    <t xml:space="preserve">2.16972589492798</t>
   </si>
   <si>
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111037254333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22071981430054</t>
+    <t xml:space="preserve">2.19111061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2207202911377</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">2.23388004302979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24045944213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21249508857727</t>
+    <t xml:space="preserve">2.24045991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21249485015869</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25361967086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28816390037537</t>
+    <t xml:space="preserve">2.25361943244934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28816413879395</t>
   </si>
   <si>
     <t xml:space="preserve">2.25690937042236</t>
@@ -2063,37 +2063,37 @@
     <t xml:space="preserve">2.28487396240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27171444892883</t>
+    <t xml:space="preserve">2.27171421051025</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513409614563</t>
+    <t xml:space="preserve">2.26513433456421</t>
   </si>
   <si>
     <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2799391746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2766489982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2453944683075</t>
+    <t xml:space="preserve">2.27993965148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27664923667908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24539470672607</t>
   </si>
   <si>
     <t xml:space="preserve">2.24374961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22565507888794</t>
+    <t xml:space="preserve">2.22565484046936</t>
   </si>
   <si>
     <t xml:space="preserve">2.26348948478699</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32270860671997</t>
+    <t xml:space="preserve">2.32270836830139</t>
   </si>
   <si>
     <t xml:space="preserve">2.30625891685486</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">2.31448364257812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30296897888184</t>
+    <t xml:space="preserve">2.30296874046326</t>
   </si>
   <si>
     <t xml:space="preserve">2.27335929870605</t>
@@ -2111,31 +2111,31 @@
     <t xml:space="preserve">2.26677942276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3079035282135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31941866874695</t>
+    <t xml:space="preserve">2.30790400505066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31941890716553</t>
   </si>
   <si>
     <t xml:space="preserve">2.33093357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25855469703674</t>
+    <t xml:space="preserve">2.25855445861816</t>
   </si>
   <si>
     <t xml:space="preserve">2.29803395271301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31612849235535</t>
+    <t xml:space="preserve">2.31612873077393</t>
   </si>
   <si>
     <t xml:space="preserve">2.28651905059814</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23716950416565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24868440628052</t>
+    <t xml:space="preserve">2.23716974258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2486846446991</t>
   </si>
   <si>
     <t xml:space="preserve">2.2503297328949</t>
@@ -2147,25 +2147,25 @@
     <t xml:space="preserve">2.3588981628418</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435345649719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31777381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.357253074646</t>
+    <t xml:space="preserve">2.32435369491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31777405738831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35725331306458</t>
   </si>
   <si>
     <t xml:space="preserve">2.38686275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3556079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37534809112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43127703666687</t>
+    <t xml:space="preserve">2.35560822486877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37534785270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43127727508545</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253180503845</t>
@@ -2174,19 +2174,19 @@
     <t xml:space="preserve">2.45101690292358</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50859117507935</t>
+    <t xml:space="preserve">2.50859093666077</t>
   </si>
   <si>
     <t xml:space="preserve">2.48556160926819</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4724018573761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4674665927887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47733664512634</t>
+    <t xml:space="preserve">2.47240138053894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46746683120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47733640670776</t>
   </si>
   <si>
     <t xml:space="preserve">2.45924162864685</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">2.46582174301147</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42798686027527</t>
+    <t xml:space="preserve">2.42798709869385</t>
   </si>
   <si>
     <t xml:space="preserve">2.49378657341003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47898149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47569131851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46088695526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51023626327515</t>
+    <t xml:space="preserve">2.47898125648499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47569155693054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46088671684265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51023602485657</t>
   </si>
   <si>
     <t xml:space="preserve">2.55465054512024</t>
@@ -2222,22 +2222,22 @@
     <t xml:space="preserve">2.51352620124817</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36218810081482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36383295059204</t>
+    <t xml:space="preserve">2.36218786239624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36383318901062</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028264045715</t>
+    <t xml:space="preserve">2.38028287887573</t>
   </si>
   <si>
     <t xml:space="preserve">2.26184439659119</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33257818222046</t>
+    <t xml:space="preserve">2.33257842063904</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">2.21413993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05128717422485</t>
+    <t xml:space="preserve">2.05128741264343</t>
   </si>
   <si>
     <t xml:space="preserve">1.84731006622314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82428026199341</t>
+    <t xml:space="preserve">1.82428050041199</t>
   </si>
   <si>
     <t xml:space="preserve">1.54956901073456</t>
@@ -2264,22 +2264,22 @@
     <t xml:space="preserve">1.51008951663971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5084445476532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45580530166626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52407193183899</t>
+    <t xml:space="preserve">1.50844466686249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45580542087555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52407205104828</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46896517276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57013118267059</t>
+    <t xml:space="preserve">1.46896529197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57013130187988</t>
   </si>
   <si>
     <t xml:space="preserve">1.53887677192688</t>
@@ -2288,19 +2288,19 @@
     <t xml:space="preserve">1.66965234279633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68610227108002</t>
+    <t xml:space="preserve">1.68610215187073</t>
   </si>
   <si>
     <t xml:space="preserve">1.76835119724274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85059988498688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73216164112091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72887170314789</t>
+    <t xml:space="preserve">1.85060000419617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73216152191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72887146472931</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2315,106 +2315,106 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73051679134369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72229182720184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76670610904694</t>
+    <t xml:space="preserve">1.7305166721344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72229170799255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76670622825623</t>
   </si>
   <si>
     <t xml:space="preserve">1.78973591327667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81441032886505</t>
+    <t xml:space="preserve">1.81441056728363</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125069618225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618572235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276535987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8390851020813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84895503520966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8719847202301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211454868317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579516410828</t>
+    <t xml:space="preserve">1.80618584156036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276547908783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83908522129059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84895479679108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87198460102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211478710175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579540252686</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76012635231018</t>
+    <t xml:space="preserve">1.76012623310089</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038648605347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848138332367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657604217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480100631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83415019512177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86046981811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81934535503387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960572719574</t>
+    <t xml:space="preserve">1.74038636684418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848114490509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657616138458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480112552643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83415031433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86046993732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81934523582458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960560798645</t>
   </si>
   <si>
     <t xml:space="preserve">1.87527465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9196891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232842445374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96410357952118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92133414745331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90817403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83086037635803</t>
+    <t xml:space="preserve">1.91968905925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232866287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96410346031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92133402824402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90817415714264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83086025714874</t>
   </si>
   <si>
     <t xml:space="preserve">1.85224509239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9048844575882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91146397590637</t>
+    <t xml:space="preserve">1.90488421916962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91146409511566</t>
   </si>
   <si>
     <t xml:space="preserve">1.98555850982666</t>
@@ -2429,130 +2429,130 @@
     <t xml:space="preserve">1.89647400379181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91189253330231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91703188419342</t>
+    <t xml:space="preserve">1.91189277172089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91703200340271</t>
   </si>
   <si>
     <t xml:space="preserve">1.88962137699127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90503990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92731106281281</t>
+    <t xml:space="preserve">1.90503966808319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92731094360352</t>
   </si>
   <si>
     <t xml:space="preserve">1.93759000301361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94101619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9324506521225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88448202610016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276875019073</t>
+    <t xml:space="preserve">1.94101643562317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93245053291321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88448178768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276863098145</t>
   </si>
   <si>
     <t xml:space="preserve">1.86906325817108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85193169116974</t>
+    <t xml:space="preserve">1.85193157196045</t>
   </si>
   <si>
     <t xml:space="preserve">1.84850537776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8810555934906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9016135931015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92388474941254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90675318241119</t>
+    <t xml:space="preserve">1.88105571269989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90161371231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92388463020325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90675294399261</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83822619915009</t>
+    <t xml:space="preserve">1.83822631835938</t>
   </si>
   <si>
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85021865367889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81766831874847</t>
+    <t xml:space="preserve">1.85021877288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81766843795776</t>
   </si>
   <si>
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83993947505951</t>
+    <t xml:space="preserve">1.8399395942688</t>
   </si>
   <si>
     <t xml:space="preserve">1.86563694477081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85878443717957</t>
+    <t xml:space="preserve">1.85878455638885</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93073725700378</t>
+    <t xml:space="preserve">1.93073737621307</t>
   </si>
   <si>
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9615740776062</t>
+    <t xml:space="preserve">1.96157443523407</t>
   </si>
   <si>
     <t xml:space="preserve">1.92902433872223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89990031719208</t>
+    <t xml:space="preserve">1.89990043640137</t>
   </si>
   <si>
     <t xml:space="preserve">1.92217147350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89133441448212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87762916088104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86735022068024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89818716049194</t>
+    <t xml:space="preserve">1.89133453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87762904167175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86735033988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89818727970123</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790810108185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91017949581146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.886195063591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8450790643692</t>
+    <t xml:space="preserve">1.88790822029114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91017937660217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88619482517242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84507894515991</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">1.81595504283905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8091025352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7834050655365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169190883636</t>
+    <t xml:space="preserve">1.80910265445709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78340518474579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169178962708</t>
   </si>
   <si>
     <t xml:space="preserve">1.7731260061264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76456034183502</t>
+    <t xml:space="preserve">1.76456022262573</t>
   </si>
   <si>
     <t xml:space="preserve">1.7577075958252</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201024532318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547571659088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65491771697998</t>
+    <t xml:space="preserve">1.73201012611389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547559738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65491759777069</t>
   </si>
   <si>
     <t xml:space="preserve">1.67119264602661</t>
@@ -2609,16 +2609,16 @@
     <t xml:space="preserve">1.70973908901215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79197096824646</t>
+    <t xml:space="preserve">1.79197084903717</t>
   </si>
   <si>
     <t xml:space="preserve">1.7782655954361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78683149814606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78854465484619</t>
+    <t xml:space="preserve">1.78683137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78854477405548</t>
   </si>
   <si>
     <t xml:space="preserve">1.8039630651474</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025769233704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85535800457001</t>
+    <t xml:space="preserve">1.79025757312775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85535788536072</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280790805817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8193815946579</t>
+    <t xml:space="preserve">1.82280778884888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81938171386719</t>
   </si>
   <si>
     <t xml:space="preserve">1.82109463214874</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711043834686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79882347583771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80225002765656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141296863556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83137369155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8348001241684</t>
+    <t xml:space="preserve">1.79711055755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.798823595047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80224990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141308784485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83137357234955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83480000495911</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2690,22 +2690,22 @@
     <t xml:space="preserve">1.81252884864807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73714983463287</t>
+    <t xml:space="preserve">1.73714971542358</t>
   </si>
   <si>
     <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74400222301483</t>
+    <t xml:space="preserve">1.74400234222412</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428140163422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74228918552399</t>
+    <t xml:space="preserve">1.75428128242493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7422890663147</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">1.79539716243744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82452118396759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81424200534821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80053675174713</t>
+    <t xml:space="preserve">1.8245210647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8142421245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80053663253784</t>
   </si>
   <si>
     <t xml:space="preserve">1.76969969272614</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">1.80738925933838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83308708667755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8604975938797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87077653408051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91874516010284</t>
+    <t xml:space="preserve">1.83308696746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86049747467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91874504089355</t>
   </si>
   <si>
     <t xml:space="preserve">1.96328747272491</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">2.0181086063385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01468229293823</t>
+    <t xml:space="preserve">2.01468253135681</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00269055366516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.033527135849</t>
+    <t xml:space="preserve">2.00269031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03352737426758</t>
   </si>
   <si>
     <t xml:space="preserve">1.98898494243622</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723286628723</t>
+    <t xml:space="preserve">2.04723262786865</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153515815735</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209327697754</t>
+    <t xml:space="preserve">2.04209303855896</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">2.08149600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06607723236084</t>
+    <t xml:space="preserve">2.06607747077942</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2837,16 +2837,16 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16201448440552</t>
+    <t xml:space="preserve">2.1620147228241</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18942523002625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22711491584778</t>
+    <t xml:space="preserve">2.18942546844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2271146774292</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">2.24082016944885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24253344535828</t>
+    <t xml:space="preserve">2.2425332069397</t>
   </si>
   <si>
     <t xml:space="preserve">2.24938607215881</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18771195411682</t>
+    <t xml:space="preserve">2.1877121925354</t>
   </si>
   <si>
     <t xml:space="preserve">2.19970440864563</t>
@@ -2876,13 +2876,13 @@
     <t xml:space="preserve">2.20998311042786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23739385604858</t>
+    <t xml:space="preserve">2.23739409446716</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452566146851</t>
+    <t xml:space="preserve">2.25452542304993</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">2.25281262397766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25224566459656</t>
+    <t xml:space="preserve">2.25224590301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.202472448349</t>
+    <t xml:space="preserve">2.20247220993042</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14736604690552</t>
+    <t xml:space="preserve">2.1473662853241</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847780227661</t>
+    <t xml:space="preserve">2.13847804069519</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136069297791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002890586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647408485413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536185264587</t>
+    <t xml:space="preserve">2.21136045455933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647384643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536209106445</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202634811401</t>
+    <t xml:space="preserve">2.22202610969543</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2558012008667</t>
+    <t xml:space="preserve">2.25580096244812</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379676818848</t>
+    <t xml:space="preserve">2.30379700660706</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335066795349</t>
+    <t xml:space="preserve">2.32335090637207</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38734531402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623308181763</t>
+    <t xml:space="preserve">2.3873450756073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623332023621</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3047,22 +3047,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956858634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3642361164093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490153312683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445543289185</t>
+    <t xml:space="preserve">2.36956882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36423587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068081855774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201212882996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490177154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445567131042</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2789101600647</t>
+    <t xml:space="preserve">2.27890992164612</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691295623779</t>
+    <t xml:space="preserve">2.24691319465637</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600653648376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534088134766</t>
+    <t xml:space="preserve">2.43889594078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600677490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534064292908</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332969665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4975574016571</t>
+    <t xml:space="preserve">2.56332945823669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49755764007568</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54199814796448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555320739746</t>
+    <t xml:space="preserve">2.5419979095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555344581604</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222469329834</t>
+    <t xml:space="preserve">2.49222445487976</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3173,40 +3173,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801772117615</t>
+    <t xml:space="preserve">2.31801795959473</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046126365662</t>
+    <t xml:space="preserve">2.33046102523804</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290432929993</t>
+    <t xml:space="preserve">2.34290456771851</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579421043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3109073638916</t>
+    <t xml:space="preserve">2.33579397201538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31090712547302</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646661758423</t>
+    <t xml:space="preserve">2.26646685600281</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20069479942322</t>
+    <t xml:space="preserve">2.2006950378418</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357745170593</t>
+    <t xml:space="preserve">2.27357721328735</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492298126221</t>
+    <t xml:space="preserve">2.13492274284363</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937047958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02471041679382</t>
+    <t xml:space="preserve">2.09937024116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0247106552124</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893113136292</t>
+    <t xml:space="preserve">2.03893136978149</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0407087802887</t>
+    <t xml:space="preserve">2.04070901870728</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026268005371</t>
+    <t xml:space="preserve">2.06026291847229</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491575241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802495002747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047524452209</t>
+    <t xml:space="preserve">2.21491599082947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802471160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047500610352</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759283065796</t>
+    <t xml:space="preserve">2.09759259223938</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.156254529953</t>
+    <t xml:space="preserve">2.15625429153442</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381074905396</t>
+    <t xml:space="preserve">2.14381098747253</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272008419037</t>
+    <t xml:space="preserve">1.91272020339966</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85405874252319</t>
+    <t xml:space="preserve">1.8540586233139</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495106220245</t>
+    <t xml:space="preserve">1.81495118141174</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738713741302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494395256042</t>
+    <t xml:space="preserve">1.90738725662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494407176971</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88605582714081</t>
+    <t xml:space="preserve">1.8860559463501</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7554007768631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251125335693</t>
+    <t xml:space="preserve">1.75540089607239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251137256622</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317690849304</t>
+    <t xml:space="preserve">1.77317702770233</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -61464,7 +61464,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6493634259</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>2183640</v>
@@ -61485,6 +61485,32 @@
         <v>1398</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493171296</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>2883565</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>1.99399995803833</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>1.96700000762939</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>1.98699998855591</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>1.99500000476837</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -44,52 +44,52 @@
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03189945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03549742698669</t>
+    <t xml:space="preserve">1.03189933300018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03549718856812</t>
   </si>
   <si>
     <t xml:space="preserve">1.02974057197571</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00743305683136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0031156539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0261424779892</t>
+    <t xml:space="preserve">1.00743293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00311553478241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02614259719849</t>
   </si>
   <si>
     <t xml:space="preserve">1.00959193706512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.983686447143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964976906776428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.939791142940521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951304614543915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913885772228241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.934034407138824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.956341743469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.957781076431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.971453487873077</t>
+    <t xml:space="preserve">0.983686327934265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964976847171783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.939791202545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95130467414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913885593414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93403422832489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.956341862678528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95778101682663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.971453368663788</t>
   </si>
   <si>
     <t xml:space="preserve">0.990162789821625</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">0.977929592132568</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01462912559509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992321610450745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955622136592865</t>
+    <t xml:space="preserve">1.01462888717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9923215508461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.955622255802155</t>
   </si>
   <si>
     <t xml:space="preserve">0.941949903964996</t>
@@ -116,37 +116,37 @@
     <t xml:space="preserve">0.935473442077637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921801209449768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947706580162048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.970733761787415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979368805885315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998797833919525</t>
+    <t xml:space="preserve">0.921801328659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947706758975983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.970733523368835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97936886548996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998798012733459</t>
   </si>
   <si>
     <t xml:space="preserve">1.03117966651917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03621697425842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02110540866852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05636548995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02686214447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02326428890228</t>
+    <t xml:space="preserve">1.03621685504913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02110552787781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0563657283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02686238288879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02326416969299</t>
   </si>
   <si>
     <t xml:space="preserve">1.05132830142975</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">1.04341292381287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01247000694275</t>
+    <t xml:space="preserve">1.01247012615204</t>
   </si>
   <si>
     <t xml:space="preserve">1.02542293071747</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">1.07723367214203</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11609196662903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13120329380035</t>
+    <t xml:space="preserve">1.11609184741974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13120353221893</t>
   </si>
   <si>
     <t xml:space="preserve">1.14919328689575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1355208158493</t>
+    <t xml:space="preserve">1.13552093505859</t>
   </si>
   <si>
     <t xml:space="preserve">1.14343655109406</t>
@@ -194,40 +194,40 @@
     <t xml:space="preserve">1.11897015571594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12256824970245</t>
+    <t xml:space="preserve">1.12256813049316</t>
   </si>
   <si>
     <t xml:space="preserve">1.12544667720795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14127779006958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13336217403412</t>
+    <t xml:space="preserve">1.14127767086029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13336229324341</t>
   </si>
   <si>
     <t xml:space="preserve">1.14199733734131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11681163311005</t>
+    <t xml:space="preserve">1.11681151390076</t>
   </si>
   <si>
     <t xml:space="preserve">1.12976431846619</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13048374652863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13696026802063</t>
+    <t xml:space="preserve">1.13048386573792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13696014881134</t>
   </si>
   <si>
     <t xml:space="preserve">1.14415621757507</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13767969608307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14703440666199</t>
+    <t xml:space="preserve">1.13767981529236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14703452587128</t>
   </si>
   <si>
     <t xml:space="preserve">1.15279126167297</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">1.14487564563751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13624048233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12328779697418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10457837581635</t>
+    <t xml:space="preserve">1.1362407207489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12328791618347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10457825660706</t>
   </si>
   <si>
     <t xml:space="preserve">1.12112903594971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1563892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14847362041473</t>
+    <t xml:space="preserve">1.15638935565948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14847373962402</t>
   </si>
   <si>
     <t xml:space="preserve">1.16214609146118</t>
@@ -263,67 +263,67 @@
     <t xml:space="preserve">1.14991295337677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1506325006485</t>
+    <t xml:space="preserve">1.15063261985779</t>
   </si>
   <si>
     <t xml:space="preserve">1.13480138778687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10817635059357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15423023700714</t>
+    <t xml:space="preserve">1.10817623138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15423035621643</t>
   </si>
   <si>
     <t xml:space="preserve">1.12760543823242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11249399185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11177444458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14055812358856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17222011089325</t>
+    <t xml:space="preserve">1.11249387264252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11177432537079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14055824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17222023010254</t>
   </si>
   <si>
     <t xml:space="preserve">1.2010041475296</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18733179569244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18085563182831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19884538650513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18661236763</t>
+    <t xml:space="preserve">1.18733191490173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18085539340973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19884526729584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18661212921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.17006158828735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18805158138275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18589270114899</t>
+    <t xml:space="preserve">1.18805146217346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1858925819397</t>
   </si>
   <si>
     <t xml:space="preserve">1.19308853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.16862237453461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09162557125092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08155119419098</t>
+    <t xml:space="preserve">1.16862225532532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09162569046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08155131340027</t>
   </si>
   <si>
     <t xml:space="preserve">1.07795345783234</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">1.09306490421295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07514584064484</t>
+    <t xml:space="preserve">1.07514572143555</t>
   </si>
   <si>
     <t xml:space="preserve">1.09381151199341</t>
@@ -341,37 +341,37 @@
     <t xml:space="preserve">1.07290589809418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01392221450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979577362537384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00944232940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00048291683197</t>
+    <t xml:space="preserve">1.01392209529877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979577302932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00944244861603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00048303604126</t>
   </si>
   <si>
     <t xml:space="preserve">1.03781425952911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0445339679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04901361465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01541531085968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00869560241699</t>
+    <t xml:space="preserve">1.04453408718109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04901385307312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01541554927826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00869572162628</t>
   </si>
   <si>
     <t xml:space="preserve">1.02288174629211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03333461284637</t>
+    <t xml:space="preserve">1.03333449363708</t>
   </si>
   <si>
     <t xml:space="preserve">1.04080092906952</t>
@@ -386,28 +386,28 @@
     <t xml:space="preserve">1.02885472774506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03557443618774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05573332309723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04677402973175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06767952442169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06469285488129</t>
+    <t xml:space="preserve">1.03557431697845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05573344230652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04677391052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0676794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06469321250916</t>
   </si>
   <si>
     <t xml:space="preserve">1.07738554477692</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07813227176666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09754490852356</t>
+    <t xml:space="preserve">1.07813215255737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09754478931427</t>
   </si>
   <si>
     <t xml:space="preserve">1.0990377664566</t>
@@ -419,22 +419,22 @@
     <t xml:space="preserve">1.08709180355072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09978461265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10277104377747</t>
+    <t xml:space="preserve">1.09978449344635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10277116298676</t>
   </si>
   <si>
     <t xml:space="preserve">1.11173057556152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10501098632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10874402523041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09007823467255</t>
+    <t xml:space="preserve">1.10501086711884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1087441444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09007835388184</t>
   </si>
   <si>
     <t xml:space="preserve">1.06319975852966</t>
@@ -443,91 +443,91 @@
     <t xml:space="preserve">1.06170654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0594664812088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05125379562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06618618965149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07887899875641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10127782821655</t>
+    <t xml:space="preserve">1.05946660041809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0512535572052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0661860704422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07887887954712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10127794742584</t>
   </si>
   <si>
     <t xml:space="preserve">1.10575747489929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13114309310913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13935577869415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10799753665924</t>
+    <t xml:space="preserve">1.13114297389984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13935601711273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10799741744995</t>
   </si>
   <si>
     <t xml:space="preserve">1.10426425933838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11322379112244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09455811977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08037233352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202443599701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0923182964325</t>
+    <t xml:space="preserve">1.11322391033173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09455800056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08037221431732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202431678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09231841564178</t>
   </si>
   <si>
     <t xml:space="preserve">1.08783853054047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11247718334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14383542537689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12666308879852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11994361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08261203765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0893315076828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1005312204361</t>
+    <t xml:space="preserve">1.11247730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14383566379547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12666296958923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11994349956512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08261215686798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08933186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10053110122681</t>
   </si>
   <si>
     <t xml:space="preserve">1.14980864524841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17668735980988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17892718315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20207262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21700525283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22223174571991</t>
+    <t xml:space="preserve">1.17668724060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17892730236053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20207273960114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21700537204742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22223162651062</t>
   </si>
   <si>
     <t xml:space="preserve">1.22521829605103</t>
@@ -536,19 +536,19 @@
     <t xml:space="preserve">1.19535303115845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21476531028748</t>
+    <t xml:space="preserve">1.21476542949677</t>
   </si>
   <si>
     <t xml:space="preserve">1.22148501873016</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20356595516205</t>
+    <t xml:space="preserve">1.20356607437134</t>
   </si>
   <si>
     <t xml:space="preserve">1.18938004970551</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18714010715485</t>
+    <t xml:space="preserve">1.18714022636414</t>
   </si>
   <si>
     <t xml:space="preserve">1.16996765136719</t>
@@ -560,16 +560,16 @@
     <t xml:space="preserve">1.19311320781708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17519414424896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06991934776306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06543958187103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05722677707672</t>
+    <t xml:space="preserve">1.17519402503967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06991946697235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06543970108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05722653865814</t>
   </si>
   <si>
     <t xml:space="preserve">1.04528057575226</t>
@@ -578,25 +578,25 @@
     <t xml:space="preserve">1.0527468919754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0430406332016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02064192295074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02512168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05200040340424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02586817741394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08186542987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08111882209778</t>
+    <t xml:space="preserve">1.04304075241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02064180374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02512180805206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05200016498566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02586829662323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08186554908752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08111870288849</t>
   </si>
   <si>
     <t xml:space="preserve">1.09530484676361</t>
@@ -605,7 +605,7 @@
     <t xml:space="preserve">1.11098384857178</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11471724510193</t>
+    <t xml:space="preserve">1.11471700668335</t>
   </si>
   <si>
     <t xml:space="preserve">1.1318895816803</t>
@@ -617,37 +617,37 @@
     <t xml:space="preserve">1.13487613201141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14906203746796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15279519557953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16175472736359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16698110103607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15130198001862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13636934757233</t>
+    <t xml:space="preserve">1.14906215667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15279507637024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16175484657288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16698122024536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15130186080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13636922836304</t>
   </si>
   <si>
     <t xml:space="preserve">1.15727484226227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17146098613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17220771312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17594063282013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1729542016983</t>
+    <t xml:space="preserve">1.1714608669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17220747470856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17594075202942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17295408248901</t>
   </si>
   <si>
     <t xml:space="preserve">1.16250133514404</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">1.16847443580627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14458227157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12890303134918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12292981147766</t>
+    <t xml:space="preserve">1.14458239078522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12890315055847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12293004989624</t>
   </si>
   <si>
     <t xml:space="preserve">1.15055525302887</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">1.1647412776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14308893680573</t>
+    <t xml:space="preserve">1.14308905601501</t>
   </si>
   <si>
     <t xml:space="preserve">1.18042039871216</t>
@@ -680,34 +680,34 @@
     <t xml:space="preserve">1.18863344192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17967391014099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18191385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21177899837494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1960996389389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20879232883453</t>
+    <t xml:space="preserve">1.1796737909317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18191361427307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21177887916565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19609951972961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20879220962524</t>
   </si>
   <si>
     <t xml:space="preserve">1.19385981559753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2043125629425</t>
+    <t xml:space="preserve">1.20431268215179</t>
   </si>
   <si>
     <t xml:space="preserve">1.20953893661499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21551203727722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22447156906128</t>
+    <t xml:space="preserve">1.21551215648651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22447168827057</t>
   </si>
   <si>
     <t xml:space="preserve">1.22820472717285</t>
@@ -719,61 +719,61 @@
     <t xml:space="preserve">1.25806975364685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32899951934814</t>
+    <t xml:space="preserve">1.32899963855743</t>
   </si>
   <si>
     <t xml:space="preserve">1.3640912771225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3737975358963</t>
+    <t xml:space="preserve">1.37379741668701</t>
   </si>
   <si>
     <t xml:space="preserve">1.3857433795929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41486203670502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42979443073273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4335275888443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44547379016876</t>
+    <t xml:space="preserve">1.41486191749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42979454994202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43352770805359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44547355175018</t>
   </si>
   <si>
     <t xml:space="preserve">1.42008829116821</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41784870624542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45293998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46339285373688</t>
+    <t xml:space="preserve">1.41784834861755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4529402256012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46339297294617</t>
   </si>
   <si>
     <t xml:space="preserve">1.45741975307465</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45219349861145</t>
+    <t xml:space="preserve">1.45219337940216</t>
   </si>
   <si>
     <t xml:space="preserve">1.46488606929779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44099402427673</t>
+    <t xml:space="preserve">1.44099390506744</t>
   </si>
   <si>
     <t xml:space="preserve">1.43950068950653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44920682907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44024741649628</t>
+    <t xml:space="preserve">1.44920694828033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44024729728699</t>
   </si>
   <si>
     <t xml:space="preserve">1.42083501815796</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">1.40664899349213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44846034049988</t>
+    <t xml:space="preserve">1.44846022129059</t>
   </si>
   <si>
     <t xml:space="preserve">1.44995355606079</t>
@@ -803,10 +803,10 @@
     <t xml:space="preserve">1.49325799942017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48952496051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51267051696777</t>
+    <t xml:space="preserve">1.48952484130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51267027854919</t>
   </si>
   <si>
     <t xml:space="preserve">1.53058934211731</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">1.53506922721863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52461647987366</t>
+    <t xml:space="preserve">1.52461636066437</t>
   </si>
   <si>
     <t xml:space="preserve">1.54104220867157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49251139163971</t>
+    <t xml:space="preserve">1.49251127243042</t>
   </si>
   <si>
     <t xml:space="preserve">1.50669729709625</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55298829078674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57538712024689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58733308315277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59927928447723</t>
+    <t xml:space="preserve">1.55298817157745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57538735866547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58733320236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59927952289581</t>
   </si>
   <si>
     <t xml:space="preserve">1.62018513679504</t>
@@ -845,67 +845,67 @@
     <t xml:space="preserve">1.563441157341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.578373670578</t>
+    <t xml:space="preserve">1.57837402820587</t>
   </si>
   <si>
     <t xml:space="preserve">1.60226571559906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58285343647003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58882641792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57389414310455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60823893547058</t>
+    <t xml:space="preserve">1.58285331726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58882653713226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57389390468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60823881626129</t>
   </si>
   <si>
     <t xml:space="preserve">1.61719834804535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64258372783661</t>
+    <t xml:space="preserve">1.6425838470459</t>
   </si>
   <si>
     <t xml:space="preserve">1.63959741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63213098049164</t>
+    <t xml:space="preserve">1.63213109970093</t>
   </si>
   <si>
     <t xml:space="preserve">1.64557027816772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63362407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63810396194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65846979618073</t>
+    <t xml:space="preserve">1.63362443447113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63810408115387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65846991539001</t>
   </si>
   <si>
     <t xml:space="preserve">1.65693283081055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66461789608002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64463651180267</t>
+    <t xml:space="preserve">1.66461801528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64463663101196</t>
   </si>
   <si>
     <t xml:space="preserve">1.5893030166626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6108216047287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57085835933685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55856227874756</t>
+    <t xml:space="preserve">1.61082148551941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57085824012756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55856215953827</t>
   </si>
   <si>
     <t xml:space="preserve">1.56317317485809</t>
@@ -914,46 +914,46 @@
     <t xml:space="preserve">1.56471025943756</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56624722480774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54626572132111</t>
+    <t xml:space="preserve">1.56624734401703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5462658405304</t>
   </si>
   <si>
     <t xml:space="preserve">1.58008074760437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58776593208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60467350482941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.600062251091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59083986282349</t>
+    <t xml:space="preserve">1.58776581287384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60467326641083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60006248950958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5908397436142</t>
   </si>
   <si>
     <t xml:space="preserve">1.59852504730225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61389577388763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63080322742462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61543250083923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6384881734848</t>
+    <t xml:space="preserve">1.61389553546906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63080298900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61543273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63848829269409</t>
   </si>
   <si>
     <t xml:space="preserve">1.65539574623108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64156234264374</t>
+    <t xml:space="preserve">1.64156222343445</t>
   </si>
   <si>
     <t xml:space="preserve">1.61696970462799</t>
@@ -974,49 +974,49 @@
     <t xml:space="preserve">1.68306255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70458126068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7291738986969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72148859500885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70150721073151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69997000694275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72609972953796</t>
+    <t xml:space="preserve">1.70458102226257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72917377948761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72148895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70150709152222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69997012615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72609996795654</t>
   </si>
   <si>
     <t xml:space="preserve">1.76452589035034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298844814301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75991487503052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7614518404007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74608147144318</t>
+    <t xml:space="preserve">1.76298868656158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75991475582123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76145195960999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74608159065247</t>
   </si>
   <si>
     <t xml:space="preserve">1.72763669490814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73532164096832</t>
+    <t xml:space="preserve">1.73532199859619</t>
   </si>
   <si>
     <t xml:space="preserve">1.74915540218353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76913714408875</t>
+    <t xml:space="preserve">1.76913702487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.77682220935822</t>
@@ -1028,28 +1028,28 @@
     <t xml:space="preserve">1.76759994029999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7983410358429</t>
+    <t xml:space="preserve">1.79834079742432</t>
   </si>
   <si>
     <t xml:space="preserve">1.82293331623077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83984100818634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80295181274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79372990131378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7875816822052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74761843681335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71995162963867</t>
+    <t xml:space="preserve">1.83984112739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80295205116272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79372978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78758132457733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74761831760406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71995151042938</t>
   </si>
   <si>
     <t xml:space="preserve">1.71534061431885</t>
@@ -1061,124 +1061,124 @@
     <t xml:space="preserve">1.74454426765442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74300730228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73071098327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71380341053009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75376653671265</t>
+    <t xml:space="preserve">1.74300718307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73071086406708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71380364894867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75376665592194</t>
   </si>
   <si>
     <t xml:space="preserve">1.75222945213318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81217420101166</t>
+    <t xml:space="preserve">1.81217432022095</t>
   </si>
   <si>
     <t xml:space="preserve">1.80602586269379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985938549042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79987800121307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78143346309662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75684058666229</t>
+    <t xml:space="preserve">1.81985950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79987812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78143358230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75684070587158</t>
   </si>
   <si>
     <t xml:space="preserve">1.80756318569183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81524837017059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85521137714386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86135959625244</t>
+    <t xml:space="preserve">1.8152482509613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85521149635315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86135971546173</t>
   </si>
   <si>
     <t xml:space="preserve">1.89824879169464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90285992622375</t>
+    <t xml:space="preserve">1.90286016464233</t>
   </si>
   <si>
     <t xml:space="preserve">1.89671158790588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89056348800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83215570449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85367453098297</t>
+    <t xml:space="preserve">1.89056360721588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83215582370758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85367441177368</t>
   </si>
   <si>
     <t xml:space="preserve">1.84291529655457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81832218170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85674834251404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87211894989014</t>
+    <t xml:space="preserve">1.81832230091095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85674846172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87211906909943</t>
   </si>
   <si>
     <t xml:space="preserve">1.90439689159393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95358216762543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93360078334808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92130434513092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93821203708649</t>
+    <t xml:space="preserve">1.95358228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93360066413879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92130446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93821179866791</t>
   </si>
   <si>
     <t xml:space="preserve">1.93052661418915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95050823688507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97356379032135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97971212863922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97202682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9812490940094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9443598985672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03350853919983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99969351291656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99661934375763</t>
+    <t xml:space="preserve">1.95050835609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97356355190277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97971177101135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97202670574188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98124921321869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94436001777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03350830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99969363212585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9966197013855</t>
   </si>
   <si>
     <t xml:space="preserve">1.95973038673401</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">2.00276756286621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97510051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96434152126312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92745268344879</t>
+    <t xml:space="preserve">1.97510063648224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9643417596817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92745220661163</t>
   </si>
   <si>
     <t xml:space="preserve">1.93206357955933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92284154891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95665609836578</t>
+    <t xml:space="preserve">1.92284142971039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95665669441223</t>
   </si>
   <si>
     <t xml:space="preserve">2.02736020088196</t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">1.95511913299561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94897103309631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9873970746994</t>
+    <t xml:space="preserve">1.94897127151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98739695549011</t>
   </si>
   <si>
     <t xml:space="preserve">2.05656456947327</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">2.05195283889771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07039761543274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07808256149292</t>
+    <t xml:space="preserve">2.07039785385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0780827999115</t>
   </si>
   <si>
     <t xml:space="preserve">2.10574960708618</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">2.02582311630249</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01198983192444</t>
+    <t xml:space="preserve">2.01199007034302</t>
   </si>
   <si>
     <t xml:space="preserve">2.00737881660461</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">2.04119348526001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88287818431854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830392360687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87365567684174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82600772380829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87826716899872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86443376541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87672996520996</t>
+    <t xml:space="preserve">1.88287830352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83830380439758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87365555763245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82600748538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87826728820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86443388462067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87672984600067</t>
   </si>
   <si>
     <t xml:space="preserve">1.83522999286652</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.85982275009155</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8844153881073</t>
+    <t xml:space="preserve">1.88441514968872</t>
   </si>
   <si>
     <t xml:space="preserve">1.88902640342712</t>
@@ -1295,118 +1295,118 @@
     <t xml:space="preserve">1.87058210372925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91515624523163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.901322722435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89363765716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88134133815765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87519311904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84598886966705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95819330215454</t>
+    <t xml:space="preserve">1.91515612602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90132260322571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89363729953766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88134109973907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87519299983978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84598922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95819354057312</t>
   </si>
   <si>
     <t xml:space="preserve">1.95204520225525</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94282293319702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92591571807861</t>
+    <t xml:space="preserve">1.9428231716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92591536045074</t>
   </si>
   <si>
     <t xml:space="preserve">1.92898941040039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8582855463028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87980437278748</t>
+    <t xml:space="preserve">1.85828542709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8798041343689</t>
   </si>
   <si>
     <t xml:space="preserve">1.91361904144287</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94743406772614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93667507171631</t>
+    <t xml:space="preserve">1.94743394851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93667459487915</t>
   </si>
   <si>
     <t xml:space="preserve">1.94589710235596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9658784866333</t>
+    <t xml:space="preserve">1.96587836742401</t>
   </si>
   <si>
     <t xml:space="preserve">1.91208207607269</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88595235347748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84752607345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8413782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79526674747467</t>
+    <t xml:space="preserve">1.88595259189606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84752643108368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84137797355652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79526662826538</t>
   </si>
   <si>
     <t xml:space="preserve">1.78450751304626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7829704284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71226644515991</t>
+    <t xml:space="preserve">1.78297030925751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71226632595062</t>
   </si>
   <si>
     <t xml:space="preserve">1.66769230365753</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62004375457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63234031200409</t>
+    <t xml:space="preserve">1.62004387378693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6323401927948</t>
   </si>
   <si>
     <t xml:space="preserve">1.6492475271225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66000699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64771068096161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62772905826569</t>
+    <t xml:space="preserve">1.66000688076019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64771056175232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6277289390564</t>
   </si>
   <si>
     <t xml:space="preserve">1.59545111656189</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69535911083221</t>
+    <t xml:space="preserve">1.69535899162292</t>
   </si>
   <si>
     <t xml:space="preserve">1.73224794864655</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72624850273132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74846136569977</t>
+    <t xml:space="preserve">1.7262487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74846124649048</t>
   </si>
   <si>
     <t xml:space="preserve">1.72942197322845</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">1.71038222312927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69927585124969</t>
+    <t xml:space="preserve">1.69927608966827</t>
   </si>
   <si>
     <t xml:space="preserve">1.70720899105072</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">1.7373548746109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74528801441193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78178036212921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79288673400879</t>
+    <t xml:space="preserve">1.74528813362122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78178060054779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7928866147995</t>
   </si>
   <si>
     <t xml:space="preserve">1.79764676094055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81192624568939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77543389797211</t>
+    <t xml:space="preserve">1.8119261264801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77543377876282</t>
   </si>
   <si>
     <t xml:space="preserve">1.76432740688324</t>
@@ -1454,100 +1454,100 @@
     <t xml:space="preserve">1.78971362113953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79129981994629</t>
+    <t xml:space="preserve">1.79130017757416</t>
   </si>
   <si>
     <t xml:space="preserve">1.78019380569458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81985914707184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82779252529144</t>
+    <t xml:space="preserve">1.81985926628113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82779264450073</t>
   </si>
   <si>
     <t xml:space="preserve">1.82461929321289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81668627262115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79923331737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77384734153748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77860713005066</t>
+    <t xml:space="preserve">1.81668615341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79923319816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77384746074677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77860724925995</t>
   </si>
   <si>
     <t xml:space="preserve">1.88649773597717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87856447696686</t>
+    <t xml:space="preserve">1.87856459617615</t>
   </si>
   <si>
     <t xml:space="preserve">1.89760398864746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92140340805054</t>
+    <t xml:space="preserve">1.92140352725983</t>
   </si>
   <si>
     <t xml:space="preserve">1.91823017597198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84207236766815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8626983165741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87539148330688</t>
+    <t xml:space="preserve">1.84207224845886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86269855499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87539124488831</t>
   </si>
   <si>
     <t xml:space="preserve">1.87380468845367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86745822429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83572554588318</t>
+    <t xml:space="preserve">1.86745834350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83572566509247</t>
   </si>
   <si>
     <t xml:space="preserve">1.80875301361084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8071665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76115453243256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74687457084656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74211502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73576831817627</t>
+    <t xml:space="preserve">1.80716669559479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76115429401398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74687469005585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74211490154266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73576843738556</t>
   </si>
   <si>
     <t xml:space="preserve">1.73418164253235</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73259520530701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69451594352722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69292950630188</t>
+    <t xml:space="preserve">1.73259508609772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69451582431793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69292938709259</t>
   </si>
   <si>
     <t xml:space="preserve">1.64057087898254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60249173641205</t>
+    <t xml:space="preserve">1.60249185562134</t>
   </si>
   <si>
     <t xml:space="preserve">1.61677145957947</t>
@@ -1556,10 +1556,10 @@
     <t xml:space="preserve">1.62787783145905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6437441110611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64215731620789</t>
+    <t xml:space="preserve">1.64374399185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6421571969986</t>
   </si>
   <si>
     <t xml:space="preserve">1.64533054828644</t>
@@ -1568,25 +1568,25 @@
     <t xml:space="preserve">1.71196889877319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.769087433815</t>
+    <t xml:space="preserve">1.76908767223358</t>
   </si>
   <si>
     <t xml:space="preserve">1.71990203857422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68975615501404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66119706630707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65009045600891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66595685482025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67706310749054</t>
+    <t xml:space="preserve">1.68975627422333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66119694709778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65009033679962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66595673561096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67706346511841</t>
   </si>
   <si>
     <t xml:space="preserve">1.67547655105591</t>
@@ -1595,31 +1595,31 @@
     <t xml:space="preserve">1.67071664333344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58265888690948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58821213245392</t>
+    <t xml:space="preserve">1.58265900611877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58821225166321</t>
   </si>
   <si>
     <t xml:space="preserve">1.56282615661621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54219996929169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53506016731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51046741008759</t>
+    <t xml:space="preserve">1.54220008850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53506004810333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51046752929688</t>
   </si>
   <si>
     <t xml:space="preserve">1.54140663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5310937166214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52554047107697</t>
+    <t xml:space="preserve">1.53109347820282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52554059028625</t>
   </si>
   <si>
     <t xml:space="preserve">1.54061341285706</t>
@@ -1628,28 +1628,28 @@
     <t xml:space="preserve">1.53268015384674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5144339799881</t>
+    <t xml:space="preserve">1.51443409919739</t>
   </si>
   <si>
     <t xml:space="preserve">1.54854655265808</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52395379543304</t>
+    <t xml:space="preserve">1.52395391464233</t>
   </si>
   <si>
     <t xml:space="preserve">1.55647969245911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55409967899323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51760733127594</t>
+    <t xml:space="preserve">1.55409955978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51760745048523</t>
   </si>
   <si>
     <t xml:space="preserve">1.57393252849579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56520617008209</t>
+    <t xml:space="preserve">1.5652060508728</t>
   </si>
   <si>
     <t xml:space="preserve">1.6310510635376</t>
@@ -1658,22 +1658,22 @@
     <t xml:space="preserve">1.62311792373657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64691734313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65167713165283</t>
+    <t xml:space="preserve">1.64691722393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65167737007141</t>
   </si>
   <si>
     <t xml:space="preserve">1.62629115581512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59614527225494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60883843898773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55885970592499</t>
+    <t xml:space="preserve">1.59614539146423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60883831977844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5588595867157</t>
   </si>
   <si>
     <t xml:space="preserve">1.53664684295654</t>
@@ -1691,22 +1691,22 @@
     <t xml:space="preserve">1.56679272651672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54299342632294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49142789840698</t>
+    <t xml:space="preserve">1.54299330711365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49142801761627</t>
   </si>
   <si>
     <t xml:space="preserve">1.51998722553253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50729417800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59931838512421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60090506076813</t>
+    <t xml:space="preserve">1.50729429721832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59931862354279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60090517997742</t>
   </si>
   <si>
     <t xml:space="preserve">1.59138536453247</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">1.58662557601929</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65485036373138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69768929481506</t>
+    <t xml:space="preserve">1.65485048294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69768941402435</t>
   </si>
   <si>
     <t xml:space="preserve">1.66278350353241</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6691300868988</t>
+    <t xml:space="preserve">1.66912996768951</t>
   </si>
   <si>
     <t xml:space="preserve">1.72307527065277</t>
@@ -1733,19 +1733,19 @@
     <t xml:space="preserve">1.72148883342743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70403575897217</t>
+    <t xml:space="preserve">1.70403587818146</t>
   </si>
   <si>
     <t xml:space="preserve">1.70879554748535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70562243461609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7135556936264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68816947937012</t>
+    <t xml:space="preserve">1.70562255382538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71355545520782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68816959857941</t>
   </si>
   <si>
     <t xml:space="preserve">1.68658268451691</t>
@@ -1754,49 +1754,49 @@
     <t xml:space="preserve">1.65326392650604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6738897562027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68340969085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65643715858459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65802359580994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68182277679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71672868728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.805579662323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81827282905579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82303285598755</t>
+    <t xml:space="preserve">1.67388987541199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68340957164764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65643692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65802347660065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68182289600372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71672880649567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80557978153229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81827294826508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82303273677826</t>
   </si>
   <si>
     <t xml:space="preserve">1.78812694549561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81509983539581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78654038906097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81033968925476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80399322509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83889901638031</t>
+    <t xml:space="preserve">1.81509971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78654026985168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81033980846405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80399310588837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8388991355896</t>
   </si>
   <si>
     <t xml:space="preserve">1.80081987380981</t>
@@ -1805,10 +1805,10 @@
     <t xml:space="preserve">1.69134271144867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68023645877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65961015224457</t>
+    <t xml:space="preserve">1.68023633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65961027145386</t>
   </si>
   <si>
     <t xml:space="preserve">1.63422417640686</t>
@@ -1817,34 +1817,34 @@
     <t xml:space="preserve">1.62946426868439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66754329204559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73894143104553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76274073123932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77226054668427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.757981300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83096599578857</t>
+    <t xml:space="preserve">1.66754341125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73894131183624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76274085044861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77226042747498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75798118114471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83096587657928</t>
   </si>
   <si>
     <t xml:space="preserve">1.90395069122314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90077745914459</t>
+    <t xml:space="preserve">1.90077722072601</t>
   </si>
   <si>
     <t xml:space="preserve">1.88967072963715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88843429088593</t>
+    <t xml:space="preserve">1.88843441009521</t>
   </si>
   <si>
     <t xml:space="preserve">1.89172434806824</t>
@@ -1859,10 +1859,10 @@
     <t xml:space="preserve">1.88020968437195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88349962234497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93120384216309</t>
+    <t xml:space="preserve">1.88349938392639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9312037229538</t>
   </si>
   <si>
     <t xml:space="preserve">1.95587861537933</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">1.96903848648071</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94929850101471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93613886833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97890818119049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98548829555511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00851774215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01180815696716</t>
+    <t xml:space="preserve">1.949298620224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93613874912262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97890794277191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98548817634583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00851798057556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01180791854858</t>
   </si>
   <si>
     <t xml:space="preserve">2.01674270629883</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">2.01509785652161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02332258224487</t>
+    <t xml:space="preserve">2.02332305908203</t>
   </si>
   <si>
     <t xml:space="preserve">1.98219835758209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98384320735931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97397351264954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94600856304169</t>
+    <t xml:space="preserve">1.98384308815002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97397327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94600868225098</t>
   </si>
   <si>
     <t xml:space="preserve">1.90159440040588</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">1.97726321220398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99371325969696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99864816665649</t>
+    <t xml:space="preserve">1.99371290206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9986480474472</t>
   </si>
   <si>
     <t xml:space="preserve">2.00687289237976</t>
@@ -1931,22 +1931,22 @@
     <t xml:space="preserve">2.00522780418396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00358295440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99206817150116</t>
+    <t xml:space="preserve">2.00358319282532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99206805229187</t>
   </si>
   <si>
     <t xml:space="preserve">2.01016283035278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01345300674438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98055326938629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99042308330536</t>
+    <t xml:space="preserve">2.01345276832581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.980553150177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99042332172394</t>
   </si>
   <si>
     <t xml:space="preserve">2.04964232444763</t>
@@ -1955,28 +1955,28 @@
     <t xml:space="preserve">2.03319239616394</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0315477848053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03483724594116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06609201431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06444692611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04306244850159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97068333625793</t>
+    <t xml:space="preserve">2.03154754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03483748435974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06609225273132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06444716453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04306268692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97068345546722</t>
   </si>
   <si>
     <t xml:space="preserve">2.0266125202179</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02167773246765</t>
+    <t xml:space="preserve">2.02167749404907</t>
   </si>
   <si>
     <t xml:space="preserve">2.04635238647461</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">2.07925200462341</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14011597633362</t>
+    <t xml:space="preserve">2.1401162147522</t>
   </si>
   <si>
     <t xml:space="preserve">2.16314601898193</t>
@@ -1994,31 +1994,31 @@
     <t xml:space="preserve">2.15821099281311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17959547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20098066329956</t>
+    <t xml:space="preserve">2.17959570884705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20098042488098</t>
   </si>
   <si>
     <t xml:space="preserve">2.18453025817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16972589492798</t>
+    <t xml:space="preserve">2.16972541809082</t>
   </si>
   <si>
     <t xml:space="preserve">2.17795062065125</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19111061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2207202911377</t>
+    <t xml:space="preserve">2.19111037254333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22072005271912</t>
   </si>
   <si>
     <t xml:space="preserve">2.23058986663818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24210476875305</t>
+    <t xml:space="preserve">2.24210500717163</t>
   </si>
   <si>
     <t xml:space="preserve">2.21578502655029</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">2.23388004302979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24045991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21249485015869</t>
+    <t xml:space="preserve">2.24045944213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21249508857727</t>
   </si>
   <si>
     <t xml:space="preserve">2.2026252746582</t>
@@ -2051,43 +2051,43 @@
     <t xml:space="preserve">2.20591521263123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25361943244934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28816413879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25690937042236</t>
+    <t xml:space="preserve">2.25361967086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28816390037537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25690960884094</t>
   </si>
   <si>
     <t xml:space="preserve">2.28487396240234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27171421051025</t>
+    <t xml:space="preserve">2.27171444892883</t>
   </si>
   <si>
     <t xml:space="preserve">2.29474401473999</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26513433456421</t>
+    <t xml:space="preserve">2.26513409614563</t>
   </si>
   <si>
     <t xml:space="preserve">2.27006936073303</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27993965148926</t>
+    <t xml:space="preserve">2.2799391746521</t>
   </si>
   <si>
     <t xml:space="preserve">2.27664923667908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24539470672607</t>
+    <t xml:space="preserve">2.2453944683075</t>
   </si>
   <si>
     <t xml:space="preserve">2.24374961853027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22565484046936</t>
+    <t xml:space="preserve">2.22565507888794</t>
   </si>
   <si>
     <t xml:space="preserve">2.26348948478699</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">2.31448364257812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30296874046326</t>
+    <t xml:space="preserve">2.30296897888184</t>
   </si>
   <si>
     <t xml:space="preserve">2.27335929870605</t>
@@ -2111,22 +2111,22 @@
     <t xml:space="preserve">2.26677942276001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30790400505066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31941890716553</t>
+    <t xml:space="preserve">2.3079035282135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31941866874695</t>
   </si>
   <si>
     <t xml:space="preserve">2.33093357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25855445861816</t>
+    <t xml:space="preserve">2.25855469703674</t>
   </si>
   <si>
     <t xml:space="preserve">2.29803395271301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31612873077393</t>
+    <t xml:space="preserve">2.31612849235535</t>
   </si>
   <si>
     <t xml:space="preserve">2.28651905059814</t>
@@ -2150,133 +2150,133 @@
     <t xml:space="preserve">2.32435369491577</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31777405738831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35725331306458</t>
+    <t xml:space="preserve">2.31777381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.357253074646</t>
   </si>
   <si>
     <t xml:space="preserve">2.38686275482178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35560822486877</t>
+    <t xml:space="preserve">2.3556079864502</t>
   </si>
   <si>
     <t xml:space="preserve">2.37534785270691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43127727508545</t>
+    <t xml:space="preserve">2.43127703666687</t>
   </si>
   <si>
     <t xml:space="preserve">2.46253180503845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45101690292358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.50859093666077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48556160926819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.47240138053894</t>
+    <t xml:space="preserve">2.451016664505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.50859117507935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48556137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4724018573761</t>
   </si>
   <si>
     <t xml:space="preserve">2.46746683120728</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47733640670776</t>
+    <t xml:space="preserve">2.47733664512634</t>
   </si>
   <si>
     <t xml:space="preserve">2.45924162864685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46582174301147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42798709869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49378657341003</t>
+    <t xml:space="preserve">2.4658215045929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42798686027527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49378633499146</t>
   </si>
   <si>
     <t xml:space="preserve">2.47898125648499</t>
   </si>
   <si>
-    <t xml:space="preserve">2.47569155693054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46088671684265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51023602485657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55465054512024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52668595314026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51352620124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36218786239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36383318901062</t>
+    <t xml:space="preserve">2.47569131851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46088695526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51023626327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55465030670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52668571472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51352596282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36218810081482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36383295059204</t>
   </si>
   <si>
     <t xml:space="preserve">2.40495753288269</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38028287887573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26184439659119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33257842063904</t>
+    <t xml:space="preserve">2.38028264045715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26184463500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33257818222046</t>
   </si>
   <si>
     <t xml:space="preserve">2.34902834892273</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21413993835449</t>
+    <t xml:space="preserve">2.21414017677307</t>
   </si>
   <si>
     <t xml:space="preserve">2.05128741264343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84731006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82428050041199</t>
+    <t xml:space="preserve">1.84731018543243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82428026199341</t>
   </si>
   <si>
     <t xml:space="preserve">1.54956901073456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59645092487335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51008951663971</t>
+    <t xml:space="preserve">1.59645104408264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51008939743042</t>
   </si>
   <si>
     <t xml:space="preserve">1.50844466686249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45580542087555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52407205104828</t>
+    <t xml:space="preserve">1.45580530166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5240718126297</t>
   </si>
   <si>
     <t xml:space="preserve">1.47636747360229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46896529197693</t>
+    <t xml:space="preserve">1.46896517276764</t>
   </si>
   <si>
     <t xml:space="preserve">1.57013130187988</t>
@@ -2288,7 +2288,7 @@
     <t xml:space="preserve">1.66965234279633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68610215187073</t>
+    <t xml:space="preserve">1.68610227108002</t>
   </si>
   <si>
     <t xml:space="preserve">1.76835119724274</t>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">1.73216152191162</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72887146472931</t>
+    <t xml:space="preserve">1.7288715839386</t>
   </si>
   <si>
     <t xml:space="preserve">1.71571183204651</t>
@@ -2315,64 +2315,64 @@
     <t xml:space="preserve">1.73545145988464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7305166721344</t>
+    <t xml:space="preserve">1.73051679134369</t>
   </si>
   <si>
     <t xml:space="preserve">1.72229170799255</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76670622825623</t>
+    <t xml:space="preserve">1.76670598983765</t>
   </si>
   <si>
     <t xml:space="preserve">1.78973591327667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81441056728363</t>
+    <t xml:space="preserve">1.81441044807434</t>
   </si>
   <si>
     <t xml:space="preserve">1.80125069618225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80618584156036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81276547908783</t>
+    <t xml:space="preserve">1.80618572235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81276535987854</t>
   </si>
   <si>
     <t xml:space="preserve">1.83908522129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84895479679108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87198460102081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86211478710175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83579540252686</t>
+    <t xml:space="preserve">1.84895491600037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8719847202301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86211466789246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83579528331757</t>
   </si>
   <si>
     <t xml:space="preserve">1.79302585124969</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76012623310089</t>
+    <t xml:space="preserve">1.76012635231018</t>
   </si>
   <si>
     <t xml:space="preserve">1.77328598499298</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74038636684418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75848114490509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77657616138458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78480112552643</t>
+    <t xml:space="preserve">1.74038648605347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75848126411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77657604217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78480100631714</t>
   </si>
   <si>
     <t xml:space="preserve">1.83415031433105</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">1.86046993732452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81934523582458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79960560798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87527465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91968905925751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97232866287231</t>
+    <t xml:space="preserve">1.81934535503387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79960572719574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87527477741241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9196891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97232842445374</t>
   </si>
   <si>
     <t xml:space="preserve">1.96410346031189</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">1.90817415714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83086025714874</t>
+    <t xml:space="preserve">1.83086037635803</t>
   </si>
   <si>
     <t xml:space="preserve">1.85224509239197</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90488421916962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91146409511566</t>
+    <t xml:space="preserve">1.9048844575882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91146397590637</t>
   </si>
   <si>
     <t xml:space="preserve">1.98555850982666</t>
@@ -2429,130 +2429,130 @@
     <t xml:space="preserve">1.89647400379181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91189277172089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91703200340271</t>
+    <t xml:space="preserve">1.91189253330231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91703188419342</t>
   </si>
   <si>
     <t xml:space="preserve">1.88962137699127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90503966808319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92731094360352</t>
+    <t xml:space="preserve">1.90503990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92731106281281</t>
   </si>
   <si>
     <t xml:space="preserve">1.93759000301361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94101643562317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93245053291321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88448178768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88276863098145</t>
+    <t xml:space="preserve">1.94101619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9324506521225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88448202610016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88276875019073</t>
   </si>
   <si>
     <t xml:space="preserve">1.86906325817108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85193157196045</t>
+    <t xml:space="preserve">1.85193169116974</t>
   </si>
   <si>
     <t xml:space="preserve">1.84850537776947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88105571269989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90161371231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92388463020325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90675294399261</t>
+    <t xml:space="preserve">1.8810555934906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9016135931015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92388474941254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90675318241119</t>
   </si>
   <si>
     <t xml:space="preserve">1.86392390727997</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83822631835938</t>
+    <t xml:space="preserve">1.83822619915009</t>
   </si>
   <si>
     <t xml:space="preserve">1.84679210186005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85021877288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81766843795776</t>
+    <t xml:space="preserve">1.85021865367889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81766831874847</t>
   </si>
   <si>
     <t xml:space="preserve">1.82794749736786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8399395942688</t>
+    <t xml:space="preserve">1.83993947505951</t>
   </si>
   <si>
     <t xml:space="preserve">1.86563694477081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85878455638885</t>
+    <t xml:space="preserve">1.85878443717957</t>
   </si>
   <si>
     <t xml:space="preserve">1.87934243679047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93073737621307</t>
+    <t xml:space="preserve">1.93073725700378</t>
   </si>
   <si>
     <t xml:space="preserve">1.93930304050446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96157443523407</t>
+    <t xml:space="preserve">1.9615740776062</t>
   </si>
   <si>
     <t xml:space="preserve">1.92902433872223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89990043640137</t>
+    <t xml:space="preserve">1.89990031719208</t>
   </si>
   <si>
     <t xml:space="preserve">1.92217147350311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89133453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87762904167175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86735033988953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89818727970123</t>
+    <t xml:space="preserve">1.89133441448212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87762916088104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86735022068024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89818716049194</t>
   </si>
   <si>
     <t xml:space="preserve">1.87420284748077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88790822029114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91017937660217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88619482517242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84507894515991</t>
+    <t xml:space="preserve">1.88790810108185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91017949581146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.886195063591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8450790643692</t>
   </si>
   <si>
     <t xml:space="preserve">1.84165275096893</t>
@@ -2561,19 +2561,19 @@
     <t xml:space="preserve">1.81595504283905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80910265445709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78340518474579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78169178962708</t>
+    <t xml:space="preserve">1.8091025352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7834050655365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78169190883636</t>
   </si>
   <si>
     <t xml:space="preserve">1.7731260061264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76456022262573</t>
+    <t xml:space="preserve">1.76456034183502</t>
   </si>
   <si>
     <t xml:space="preserve">1.7577075958252</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">1.73029696941376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73201012611389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67547559738159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65491759777069</t>
+    <t xml:space="preserve">1.73201024532318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67547571659088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65491771697998</t>
   </si>
   <si>
     <t xml:space="preserve">1.67119264602661</t>
@@ -2609,16 +2609,16 @@
     <t xml:space="preserve">1.70973908901215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79197084903717</t>
+    <t xml:space="preserve">1.79197096824646</t>
   </si>
   <si>
     <t xml:space="preserve">1.7782655954361</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78683137893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78854477405548</t>
+    <t xml:space="preserve">1.78683149814606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78854465484619</t>
   </si>
   <si>
     <t xml:space="preserve">1.8039630651474</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">1.75942075252533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79025757312775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85535788536072</t>
+    <t xml:space="preserve">1.79025769233704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85535800457001</t>
   </si>
   <si>
     <t xml:space="preserve">1.94444262981415</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">1.89476072788239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82280778884888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81938171386719</t>
+    <t xml:space="preserve">1.82280790805817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8193815946579</t>
   </si>
   <si>
     <t xml:space="preserve">1.82109463214874</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">1.77483928203583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79711055755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.798823595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77141308784485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83137357234955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83480000495911</t>
+    <t xml:space="preserve">1.79711043834686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79882347583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80225002765656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77141296863556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83137369155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8348001241684</t>
   </si>
   <si>
     <t xml:space="preserve">1.82623422145844</t>
@@ -2690,22 +2690,22 @@
     <t xml:space="preserve">1.81252884864807</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73714971542358</t>
+    <t xml:space="preserve">1.73714983463287</t>
   </si>
   <si>
     <t xml:space="preserve">1.73886275291443</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74400234222412</t>
+    <t xml:space="preserve">1.74400222301483</t>
   </si>
   <si>
     <t xml:space="preserve">1.75256812572479</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75428128242493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7422890663147</t>
+    <t xml:space="preserve">1.75428140163422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74228918552399</t>
   </si>
   <si>
     <t xml:space="preserve">1.767986536026</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">1.79539716243744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8245210647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8142421245575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80053663253784</t>
+    <t xml:space="preserve">1.82452118396759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81424200534821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80053675174713</t>
   </si>
   <si>
     <t xml:space="preserve">1.76969969272614</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">1.80738925933838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83308696746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86049747467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87077665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91874504089355</t>
+    <t xml:space="preserve">1.83308708667755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8604975938797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87077653408051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91874516010284</t>
   </si>
   <si>
     <t xml:space="preserve">1.96328747272491</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">2.0181086063385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01468253135681</t>
+    <t xml:space="preserve">2.01468229293823</t>
   </si>
   <si>
     <t xml:space="preserve">2.00954270362854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00269031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03352737426758</t>
+    <t xml:space="preserve">2.00269055366516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.033527135849</t>
   </si>
   <si>
     <t xml:space="preserve">1.98898494243622</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">2.00440335273743</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04723262786865</t>
+    <t xml:space="preserve">2.04723286628723</t>
   </si>
   <si>
     <t xml:space="preserve">2.02153515815735</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">2.05408525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04209303855896</t>
+    <t xml:space="preserve">2.04209327697754</t>
   </si>
   <si>
     <t xml:space="preserve">2.08320903778076</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">2.08149600028992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06607747077942</t>
+    <t xml:space="preserve">2.06607723236084</t>
   </si>
   <si>
     <t xml:space="preserve">2.0900616645813</t>
@@ -2837,16 +2837,16 @@
     <t xml:space="preserve">2.14145660400391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1620147228241</t>
+    <t xml:space="preserve">2.16201448440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.20827007293701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18942546844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2271146774292</t>
+    <t xml:space="preserve">2.18942523002625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22711491584778</t>
   </si>
   <si>
     <t xml:space="preserve">2.19627785682678</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">2.24082016944885</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2425332069397</t>
+    <t xml:space="preserve">2.24253344535828</t>
   </si>
   <si>
     <t xml:space="preserve">2.24938607215881</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">2.18599891662598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1877121925354</t>
+    <t xml:space="preserve">2.18771195411682</t>
   </si>
   <si>
     <t xml:space="preserve">2.19970440864563</t>
@@ -2876,13 +2876,13 @@
     <t xml:space="preserve">2.20998311042786</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23739409446716</t>
+    <t xml:space="preserve">2.23739385604858</t>
   </si>
   <si>
     <t xml:space="preserve">2.24595975875854</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25452542304993</t>
+    <t xml:space="preserve">2.25452566146851</t>
   </si>
   <si>
     <t xml:space="preserve">2.26651763916016</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">2.25281262397766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25224590301514</t>
+    <t xml:space="preserve">2.25224566459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.22913670539856</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">2.20425009727478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20247220993042</t>
+    <t xml:space="preserve">2.202472448349</t>
   </si>
   <si>
     <t xml:space="preserve">2.17225289344788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1473662853241</t>
+    <t xml:space="preserve">2.14736604690552</t>
   </si>
   <si>
     <t xml:space="preserve">2.14025568962097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13847804069519</t>
+    <t xml:space="preserve">2.13847780227661</t>
   </si>
   <si>
     <t xml:space="preserve">2.1260347366333</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">2.15269899368286</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21136045455933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19002914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18647384643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19536209106445</t>
+    <t xml:space="preserve">2.21136069297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19002890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18647408485413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19536185264587</t>
   </si>
   <si>
     <t xml:space="preserve">2.20602774620056</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22202610969543</t>
+    <t xml:space="preserve">2.22202634811401</t>
   </si>
   <si>
     <t xml:space="preserve">2.19891715049744</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.27002191543579</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25580096244812</t>
+    <t xml:space="preserve">2.2558012008667</t>
   </si>
   <si>
     <t xml:space="preserve">2.28602075576782</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">2.26113390922546</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30379700660706</t>
+    <t xml:space="preserve">2.30379676818848</t>
   </si>
   <si>
     <t xml:space="preserve">2.30912971496582</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32335090637207</t>
+    <t xml:space="preserve">2.32335066795349</t>
   </si>
   <si>
     <t xml:space="preserve">2.33757185935974</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">2.35179257392883</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3873450756073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39623332023621</t>
+    <t xml:space="preserve">2.38734531402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39623308181763</t>
   </si>
   <si>
     <t xml:space="preserve">2.44422888755798</t>
@@ -3047,22 +3047,22 @@
     <t xml:space="preserve">2.39978837966919</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36956882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36423587799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36068081855774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38201212882996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37490177154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39445567131042</t>
+    <t xml:space="preserve">2.36956858634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3642361164093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36068058013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38201236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37490153312683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39445543289185</t>
   </si>
   <si>
     <t xml:space="preserve">2.28068780899048</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">2.30024170875549</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27890992164612</t>
+    <t xml:space="preserve">2.2789101600647</t>
   </si>
   <si>
     <t xml:space="preserve">2.34112691879272</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">2.22024846076965</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24691319465637</t>
+    <t xml:space="preserve">2.24691295623779</t>
   </si>
   <si>
     <t xml:space="preserve">2.40689873695374</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43889594078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44600677490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43534064292908</t>
+    <t xml:space="preserve">2.43889617919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44600653648376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43534088134766</t>
   </si>
   <si>
     <t xml:space="preserve">2.41400957107544</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">2.5171115398407</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56332945823669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49755764007568</t>
+    <t xml:space="preserve">2.56332969665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4975574016571</t>
   </si>
   <si>
     <t xml:space="preserve">2.51355624198914</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5419979095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54555344581604</t>
+    <t xml:space="preserve">2.54199814796448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54555320739746</t>
   </si>
   <si>
     <t xml:space="preserve">2.48155903816223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49222445487976</t>
+    <t xml:space="preserve">2.49222469329834</t>
   </si>
   <si>
     <t xml:space="preserve">2.45844984054565</t>
@@ -3173,40 +3173,40 @@
     <t xml:space="preserve">2.35357022285461</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31801795959473</t>
+    <t xml:space="preserve">2.31801772117615</t>
   </si>
   <si>
     <t xml:space="preserve">2.31446266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33046102523804</t>
+    <t xml:space="preserve">2.33046126365662</t>
   </si>
   <si>
     <t xml:space="preserve">2.39267778396606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34290456771851</t>
+    <t xml:space="preserve">2.34290432929993</t>
   </si>
   <si>
     <t xml:space="preserve">2.34468197822571</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33579397201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31090712547302</t>
+    <t xml:space="preserve">2.33579421043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3109073638916</t>
   </si>
   <si>
     <t xml:space="preserve">2.25046825408936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26646685600281</t>
+    <t xml:space="preserve">2.26646661758423</t>
   </si>
   <si>
     <t xml:space="preserve">2.20958304405212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2006950378418</t>
+    <t xml:space="preserve">2.20069479942322</t>
   </si>
   <si>
     <t xml:space="preserve">2.27535486221313</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">2.36779117584229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27357721328735</t>
+    <t xml:space="preserve">2.27357745170593</t>
   </si>
   <si>
     <t xml:space="preserve">2.21313810348511</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">2.19358420372009</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13492274284363</t>
+    <t xml:space="preserve">2.13492298126221</t>
   </si>
   <si>
     <t xml:space="preserve">2.11536908149719</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">2.12959003448486</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09937024116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0247106552124</t>
+    <t xml:space="preserve">2.09937047958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02471041679382</t>
   </si>
   <si>
     <t xml:space="preserve">2.00160145759583</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">2.04604172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03893136978149</t>
+    <t xml:space="preserve">2.03893113136292</t>
   </si>
   <si>
     <t xml:space="preserve">2.02293276786804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04070901870728</t>
+    <t xml:space="preserve">2.0407087802887</t>
   </si>
   <si>
     <t xml:space="preserve">2.04426407814026</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06026291847229</t>
+    <t xml:space="preserve">2.06026268005371</t>
   </si>
   <si>
     <t xml:space="preserve">2.10470342636108</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">2.24869060516357</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21491599082947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23802471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17047500610352</t>
+    <t xml:space="preserve">2.21491575241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23802495002747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17047524452209</t>
   </si>
   <si>
     <t xml:space="preserve">2.15803194046021</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">2.18291878700256</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09759259223938</t>
+    <t xml:space="preserve">2.09759283065796</t>
   </si>
   <si>
     <t xml:space="preserve">2.1242573261261</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.18114113807678</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15625429153442</t>
+    <t xml:space="preserve">2.156254529953</t>
   </si>
   <si>
     <t xml:space="preserve">2.16691994667053</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">2.14203333854675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14381098747253</t>
+    <t xml:space="preserve">2.14381074905396</t>
   </si>
   <si>
     <t xml:space="preserve">2.05848526954651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91272020339966</t>
+    <t xml:space="preserve">1.91272008419037</t>
   </si>
   <si>
     <t xml:space="preserve">1.83450484275818</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.85583639144897</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8540586233139</t>
+    <t xml:space="preserve">1.85405874252319</t>
   </si>
   <si>
     <t xml:space="preserve">1.88783359527588</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.80606305599213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81495118141174</t>
+    <t xml:space="preserve">1.81495106220245</t>
   </si>
   <si>
     <t xml:space="preserve">1.84872579574585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90738725662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89494407176971</t>
+    <t xml:space="preserve">1.90738713741302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89494395256042</t>
   </si>
   <si>
     <t xml:space="preserve">1.87716782093048</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">1.8522812128067</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8860559463501</t>
+    <t xml:space="preserve">1.88605582714081</t>
   </si>
   <si>
     <t xml:space="preserve">1.74740135669708</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">1.76873290538788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75540089607239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76251137256622</t>
+    <t xml:space="preserve">1.7554007768631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76251125335693</t>
   </si>
   <si>
     <t xml:space="preserve">1.77051055431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77317702770233</t>
+    <t xml:space="preserve">1.77317690849304</t>
   </si>
   <si>
     <t xml:space="preserve">1.72162592411041</t>
@@ -61490,13 +61490,13 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6493171296</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>2883565</v>
       </c>
       <c r="C2176" t="n">
-        <v>1.99399995803833</v>
+        <v>1.99500000476837</v>
       </c>
       <c r="D2176" t="n">
         <v>1.96700000762939</v>
@@ -61511,6 +61511,32 @@
         <v>1527</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.649537037</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>3635943</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>1.99600005149841</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>1.96700000762939</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>1.98699998855591</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>1.98399996757507</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,76 +44,76 @@
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970110177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973492503166199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968080580234528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947108864784241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943049967288971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964698255062103</t>
+    <t xml:space="preserve">0.970110297203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973492562770844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968080639839172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947108924388885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943049788475037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964698076248169</t>
   </si>
   <si>
     <t xml:space="preserve">0.949138462543488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924784243106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907194972038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883517265319824</t>
+    <t xml:space="preserve">0.924784183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907195150852203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883517384529114</t>
   </si>
   <si>
     <t xml:space="preserve">0.894341468811035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859163105487823</t>
+    <t xml:space="preserve">0.859163045883179</t>
   </si>
   <si>
     <t xml:space="preserve">0.878105223178864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899076819419861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900429964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91328352689743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930872857570648</t>
+    <t xml:space="preserve">0.89907693862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900429904460907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913283586502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930872678756714</t>
   </si>
   <si>
     <t xml:space="preserve">0.919372141361237</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953873813152313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932902216911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898400604724884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885546803474426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859839558601379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87945818901062</t>
+    <t xml:space="preserve">0.953873872756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932902276515961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89840042591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885546863079071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859839618206024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879458427429199</t>
   </si>
   <si>
     <t xml:space="preserve">0.866604626178741</t>
@@ -122,58 +122,58 @@
     <t xml:space="preserve">0.890958905220032</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91260701417923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920725166797638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938990831375122</t>
+    <t xml:space="preserve">0.912607073783875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920725107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938990771770477</t>
   </si>
   <si>
     <t xml:space="preserve">0.969433546066284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974169194698334</t>
+    <t xml:space="preserve">0.974169313907623</t>
   </si>
   <si>
     <t xml:space="preserve">0.959962487220764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993111252784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965374708175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961992084980011</t>
+    <t xml:space="preserve">0.993111491203308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96537458896637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961992144584656</t>
   </si>
   <si>
     <t xml:space="preserve">0.988375723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995140850543976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977551639080048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980934202671051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951844453811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964021623134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00190603733063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01273000240326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04926133155823</t>
+    <t xml:space="preserve">0.995140731334686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977551817893982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980934381484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951844394207001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964021503925323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00190579891205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01273012161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04926145076752</t>
   </si>
   <si>
     <t xml:space="preserve">1.06346809864044</t>
@@ -182,67 +182,67 @@
     <t xml:space="preserve">1.08038079738617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06752681732178</t>
+    <t xml:space="preserve">1.06752717494965</t>
   </si>
   <si>
     <t xml:space="preserve">1.07496857643127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05873250961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05196726322174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05534970760345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05805611610413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07293915748596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06549763679504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07361578941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04993784427643</t>
+    <t xml:space="preserve">1.05873262882233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05196738243103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05534982681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05805587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07293891906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06549739837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07361555099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04993796348572</t>
   </si>
   <si>
     <t xml:space="preserve">1.06211495399475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06279158592224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07564508914948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06955671310425</t>
+    <t xml:space="preserve">1.06279146671295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06887996196747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07564520835876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06955659389496</t>
   </si>
   <si>
     <t xml:space="preserve">1.07835114002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08376324176788</t>
+    <t xml:space="preserve">1.08376312255859</t>
   </si>
   <si>
     <t xml:space="preserve">1.07632160186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06820356845856</t>
+    <t xml:space="preserve">1.06820344924927</t>
   </si>
   <si>
     <t xml:space="preserve">1.05602645874023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0384373664856</t>
+    <t xml:space="preserve">1.03843724727631</t>
   </si>
   <si>
     <t xml:space="preserve">1.05399692058563</t>
@@ -251,58 +251,58 @@
     <t xml:space="preserve">1.08714580535889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07970404624939</t>
+    <t xml:space="preserve">1.07970416545868</t>
   </si>
   <si>
     <t xml:space="preserve">1.09255790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08579277992249</t>
+    <t xml:space="preserve">1.08579254150391</t>
   </si>
   <si>
     <t xml:space="preserve">1.08105707168579</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08173370361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06685066223145</t>
+    <t xml:space="preserve">1.08173358440399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06685054302216</t>
   </si>
   <si>
     <t xml:space="preserve">1.04181981086731</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08511626720428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06008553504944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0458790063858</t>
+    <t xml:space="preserve">1.085116147995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06008541584015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04587888717651</t>
   </si>
   <si>
     <t xml:space="preserve">1.04520237445831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07226276397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202872753143</t>
+    <t xml:space="preserve">1.07226252555847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202896595001</t>
   </si>
   <si>
     <t xml:space="preserve">1.12908911705017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11623537540436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11014688014984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12705981731415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11555886268616</t>
+    <t xml:space="preserve">1.11623525619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11014711856842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12705957889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11555898189545</t>
   </si>
   <si>
     <t xml:space="preserve">1.0999995470047</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">1.11691200733185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11488234996796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12164747714996</t>
+    <t xml:space="preserve">1.11488258838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12164759635925</t>
   </si>
   <si>
     <t xml:space="preserve">1.09864628314972</t>
@@ -323,91 +323,91 @@
     <t xml:space="preserve">1.02626013755798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01678895950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01340639591217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02761316299438</t>
+    <t xml:space="preserve">1.01678907871246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01340663433075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02761328220367</t>
   </si>
   <si>
     <t xml:space="preserve">1.01076710224152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02831506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00866115093231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953209519386292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920921146869659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948997855186462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940574944019318</t>
+    <t xml:space="preserve">1.02831518650055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00866138935089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953209638595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920921206474304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948998034000397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940575003623962</t>
   </si>
   <si>
     <t xml:space="preserve">0.97567093372345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981988370418549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986199796199799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954613208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948295950889587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961632430553436</t>
+    <t xml:space="preserve">0.981988251209259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986199617385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954613387584686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948295891284943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961632668972015</t>
   </si>
   <si>
     <t xml:space="preserve">0.97145938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978478729724884</t>
+    <t xml:space="preserve">0.978478610515594</t>
   </si>
   <si>
     <t xml:space="preserve">0.972161412239075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958122909069061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96724796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973565101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992517113685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984093964099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00374782085419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00094032287598</t>
+    <t xml:space="preserve">0.958122849464417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967247903347015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973565220832825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992517173290253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984094023704529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00374794006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0009400844574</t>
   </si>
   <si>
     <t xml:space="preserve">1.01287281513214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01357471942902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03182470798492</t>
+    <t xml:space="preserve">1.01357448101044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03182482719421</t>
   </si>
   <si>
     <t xml:space="preserve">1.03322851657867</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">1.02129590511322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02199792861938</t>
+    <t xml:space="preserve">1.0219978094101</t>
   </si>
   <si>
     <t xml:space="preserve">1.03393042087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03673827648163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04516112804413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03884387016296</t>
+    <t xml:space="preserve">1.03673803806305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04516136646271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03884398937225</t>
   </si>
   <si>
     <t xml:space="preserve">1.04235363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0248054265976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999536335468292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998132526874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996026635169983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988305449485779</t>
+    <t xml:space="preserve">1.02480554580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999536275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998132467269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996026754379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988305568695068</t>
   </si>
   <si>
     <t xml:space="preserve">1.00234401226044</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">1.01427662372589</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03533446788788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03954589366913</t>
+    <t xml:space="preserve">1.0353342294693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03954577445984</t>
   </si>
   <si>
     <t xml:space="preserve">1.06341123580933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07113230228424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03814208507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04656493663788</t>
+    <t xml:space="preserve">1.07113242149353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165160655975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03814196586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04656517505646</t>
   </si>
   <si>
     <t xml:space="preserve">1.02901697158813</t>
@@ -482,100 +482,100 @@
     <t xml:space="preserve">1.01568055152893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03603625297546</t>
+    <t xml:space="preserve">1.03603613376617</t>
   </si>
   <si>
     <t xml:space="preserve">1.02691125869751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02269983291626</t>
+    <t xml:space="preserve">1.02269971370697</t>
   </si>
   <si>
     <t xml:space="preserve">1.045863032341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07534372806549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05919969081879</t>
+    <t xml:space="preserve">1.07534396648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0591995716095</t>
   </si>
   <si>
     <t xml:space="preserve">1.05288231372833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01778626441956</t>
+    <t xml:space="preserve">1.01778614521027</t>
   </si>
   <si>
     <t xml:space="preserve">1.02410352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03463232517242</t>
+    <t xml:space="preserve">1.03463244438171</t>
   </si>
   <si>
     <t xml:space="preserve">1.08095920085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10622847080231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10833418369293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13009369373322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14413225650787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.149045586586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1518532037735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12377631664276</t>
+    <t xml:space="preserve">1.10622835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10833406448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1300938129425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14413213729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14904546737671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15185332298279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12377643585205</t>
   </si>
   <si>
     <t xml:space="preserve">1.14202630519867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14834380149841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13149750232697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11816108226776</t>
+    <t xml:space="preserve">1.14834368228912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13149738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11816096305847</t>
   </si>
   <si>
     <t xml:space="preserve">1.11605525016785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09991109371185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11394965648651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12167060375214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10482466220856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00585353374481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00164222717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993920922279358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982690155506134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989709258079529</t>
+    <t xml:space="preserve">1.09991121292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11394953727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12167072296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10482454299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0058536529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00164210796356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993920981884003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982690215110779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989709556102753</t>
   </si>
   <si>
     <t xml:space="preserve">0.980584442615509</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">0.96373838186264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989007353782654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964440166950226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01708424091339</t>
+    <t xml:space="preserve">0.989007532596588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964440226554871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01708436012268</t>
   </si>
   <si>
     <t xml:space="preserve">1.01638245582581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02971887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04445922374725</t>
+    <t xml:space="preserve">1.0297189950943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04445934295654</t>
   </si>
   <si>
     <t xml:space="preserve">1.04796886444092</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">1.0669207572937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08025729656219</t>
+    <t xml:space="preserve">1.08025717735291</t>
   </si>
   <si>
     <t xml:space="preserve">1.08376693725586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09219002723694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09710347652435</t>
+    <t xml:space="preserve">1.09218990802765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09710335731506</t>
   </si>
   <si>
     <t xml:space="preserve">1.08236300945282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06832468509674</t>
+    <t xml:space="preserve">1.06832444667816</t>
   </si>
   <si>
     <t xml:space="preserve">1.08797836303711</t>
@@ -641,25 +641,25 @@
     <t xml:space="preserve">1.1013149023056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10201680660248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10552656650543</t>
+    <t xml:space="preserve">1.10201704502106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10552644729614</t>
   </si>
   <si>
     <t xml:space="preserve">1.10271883010864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09289193153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0985072851181</t>
+    <t xml:space="preserve">1.09289181232452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09850740432739</t>
   </si>
   <si>
     <t xml:space="preserve">1.07604575157166</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0613055229187</t>
+    <t xml:space="preserve">1.06130540370941</t>
   </si>
   <si>
     <t xml:space="preserve">1.05569005012512</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">1.08166110515594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09499740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07464182376862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10973811149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11745917797089</t>
+    <t xml:space="preserve">1.09499752521515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07464194297791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10973799228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1174590587616</t>
   </si>
   <si>
     <t xml:space="preserve">1.10903608798981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11114168167114</t>
+    <t xml:space="preserve">1.11114192008972</t>
   </si>
   <si>
     <t xml:space="preserve">1.13921868801117</t>
@@ -692,52 +692,52 @@
     <t xml:space="preserve">1.12447834014893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13641083240509</t>
+    <t xml:space="preserve">1.13641095161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.1223726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13219940662384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13711297512054</t>
+    <t xml:space="preserve">1.13219952583313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13711285591125</t>
   </si>
   <si>
     <t xml:space="preserve">1.14272832870483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15115129947662</t>
+    <t xml:space="preserve">1.15115141868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.15466094017029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15255510807037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18273782730103</t>
+    <t xml:space="preserve">1.15255522727966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18273770809174</t>
   </si>
   <si>
     <t xml:space="preserve">1.24942028522491</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241074085236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2915358543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3027663230896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33014142513275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34417974948883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34768927097321</t>
+    <t xml:space="preserve">1.28241062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29153573513031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30276644229889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33014130592346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34417986869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3476893901825</t>
   </si>
   <si>
     <t xml:space="preserve">1.35892021656036</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">1.33505475521088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33294928073883</t>
+    <t xml:space="preserve">1.33294916152954</t>
   </si>
   <si>
     <t xml:space="preserve">1.36593925952911</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">1.37576627731323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37015092372894</t>
+    <t xml:space="preserve">1.37015080451965</t>
   </si>
   <si>
     <t xml:space="preserve">1.36523747444153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37717020511627</t>
+    <t xml:space="preserve">1.37717008590698</t>
   </si>
   <si>
     <t xml:space="preserve">1.35470867156982</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35330474376678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36242973804474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35400664806366</t>
+    <t xml:space="preserve">1.3533046245575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36242985725403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35400652885437</t>
   </si>
   <si>
     <t xml:space="preserve">1.33575677871704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32242012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36172795295715</t>
+    <t xml:space="preserve">1.32242023944855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36172783374786</t>
   </si>
   <si>
     <t xml:space="preserve">1.36313164234161</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">1.40384316444397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40033352375031</t>
+    <t xml:space="preserve">1.40033340454102</t>
   </si>
   <si>
     <t xml:space="preserve">1.42209303379059</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">1.43893921375275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44315087795258</t>
+    <t xml:space="preserve">1.443150639534</t>
   </si>
   <si>
     <t xml:space="preserve">1.43332386016846</t>
@@ -824,40 +824,40 @@
     <t xml:space="preserve">1.40314126014709</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41647744178772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45999681949615</t>
+    <t xml:space="preserve">1.4164776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45999670028687</t>
   </si>
   <si>
     <t xml:space="preserve">1.48105442523956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49228501319885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50351595878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52316987514496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46982383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48386240005493</t>
+    <t xml:space="preserve">1.49228513240814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5035160779953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52316999435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46982371807098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48386216163635</t>
   </si>
   <si>
     <t xml:space="preserve">1.50632357597351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4880735874176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49368894100189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4796507358551</t>
+    <t xml:space="preserve">1.48807346820831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49368906021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47965061664581</t>
   </si>
   <si>
     <t xml:space="preserve">1.51193916797638</t>
@@ -866,46 +866,46 @@
     <t xml:space="preserve">1.52036213874817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54422736167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54141986370087</t>
+    <t xml:space="preserve">1.54422760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54141974449158</t>
   </si>
   <si>
     <t xml:space="preserve">1.53440058231354</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54703497886658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53580439090729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54001617431641</t>
+    <t xml:space="preserve">1.54703521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53580451011658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54001593589783</t>
   </si>
   <si>
     <t xml:space="preserve">1.55916225910187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55771732330322</t>
+    <t xml:space="preserve">1.55771708488464</t>
   </si>
   <si>
     <t xml:space="preserve">1.56494224071503</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54615712165833</t>
+    <t xml:space="preserve">1.54615724086761</t>
   </si>
   <si>
     <t xml:space="preserve">1.49413692951202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51436686515808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47679686546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46523702144623</t>
+    <t xml:space="preserve">1.51436710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47679674625397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46523690223694</t>
   </si>
   <si>
     <t xml:space="preserve">1.46957182884216</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">1.45367681980133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48546695709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49269199371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50858688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50425207614899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49558186531067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50280714035034</t>
+    <t xml:space="preserve">1.485466837883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49269187450409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5085871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5042519569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49558174610138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50280702114105</t>
   </si>
   <si>
     <t xml:space="preserve">1.51725697517395</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">1.53315210342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51870214939117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54037725925446</t>
+    <t xml:space="preserve">1.51870203018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54037702083588</t>
   </si>
   <si>
     <t xml:space="preserve">1.55627226829529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54326725006104</t>
+    <t xml:space="preserve">1.54326713085175</t>
   </si>
   <si>
     <t xml:space="preserve">1.5201473236084</t>
@@ -962,22 +962,22 @@
     <t xml:space="preserve">1.55338227748871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57939231395721</t>
+    <t xml:space="preserve">1.5793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">1.57650232315063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57505738735199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58228230476379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60251259803772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62563264369965</t>
+    <t xml:space="preserve">1.5750572681427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58228242397308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60251247882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62563252449036</t>
   </si>
   <si>
     <t xml:space="preserve">1.61840748786926</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">1.59817743301392</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62274277210236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65886771678925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6574227809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65453267097473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65597796440125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64152777194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62418758869171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63141250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64441788196564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66320288181305</t>
+    <t xml:space="preserve">1.62274253368378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65886747837067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65742254257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65453243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65597772598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64152765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62418735027313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63141262531281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64441764354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66320264339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.67042791843414</t>
@@ -1025,25 +1025,25 @@
     <t xml:space="preserve">1.66609275341034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66175770759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69065773487091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71377813816071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72967314720154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69499289989471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68632292747498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68054282665253</t>
+    <t xml:space="preserve">1.66175758838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69065797328949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71377825737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72967290878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69499278068542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68632304668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68054294586182</t>
   </si>
   <si>
     <t xml:space="preserve">1.64297270774841</t>
@@ -1058,73 +1058,73 @@
     <t xml:space="preserve">1.62129747867584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64008271694183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63863742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62707757949829</t>
+    <t xml:space="preserve">1.64008259773254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6386376619339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62707769870758</t>
   </si>
   <si>
     <t xml:space="preserve">1.61118257045746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64875257015228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64730763435364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70366287231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69788300991058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71088790893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69210278987885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67476296424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65164256095886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69932806491852</t>
+    <t xml:space="preserve">1.64875280857086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64730775356293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70366275310516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.697882771492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71088814735413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69210290908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67476284503937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65164291858673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69932782649994</t>
   </si>
   <si>
     <t xml:space="preserve">1.70655286312103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74412310123444</t>
+    <t xml:space="preserve">1.74412333965302</t>
   </si>
   <si>
     <t xml:space="preserve">1.7499030828476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78458321094513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7889187335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78313839435577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77735805511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72244799137115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7426780462265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256301879883</t>
+    <t xml:space="preserve">1.78458309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78891837596893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78313815593719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7773585319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72244822978973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74267792701721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256325721741</t>
   </si>
   <si>
     <t xml:space="preserve">1.7094429731369</t>
@@ -1133,79 +1133,79 @@
     <t xml:space="preserve">1.74556803703308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76001846790314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79036343097687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83660340309143</t>
+    <t xml:space="preserve">1.76001822948456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79036319255829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83660387992859</t>
   </si>
   <si>
     <t xml:space="preserve">1.81781852245331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80625832080841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82215368747711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81492853164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83371376991272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.855388879776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86116862297058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85394358634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86261379718781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82793354988098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174376010895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87995362281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8770637512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84238362312317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88139867782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88284373283386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85683369636536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84671878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81203830242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81637346744537</t>
+    <t xml:space="preserve">1.80625855922699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82215356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81492865085602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83371388912201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85538876056671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86116850376129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85394370555878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86261343955994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82793378829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174399852753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8799535036087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87706363201141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84238350391388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88139891624451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88284349441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85683357715607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84671854972839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81203842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81637370586395</t>
   </si>
   <si>
     <t xml:space="preserve">1.80770337581635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8394935131073</t>
+    <t xml:space="preserve">1.83949375152588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90596377849579</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.83804845809937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83226895332336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86839365959167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93341946601868</t>
+    <t xml:space="preserve">1.8322685956955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86839330196381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93341886997223</t>
   </si>
   <si>
     <t xml:space="preserve">1.92908406257629</t>
@@ -1232,73 +1232,73 @@
     <t xml:space="preserve">1.94642388820648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95364892482758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97965908050537</t>
+    <t xml:space="preserve">1.95364928245544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97965931892395</t>
   </si>
   <si>
     <t xml:space="preserve">1.94353401660919</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90451896190643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8915137052536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88717889785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88573360443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91896891593933</t>
+    <t xml:space="preserve">1.90451872348785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89151358604431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88717877864838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88573348522186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91896867752075</t>
   </si>
   <si>
     <t xml:space="preserve">1.77013325691223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72822785377502</t>
+    <t xml:space="preserve">1.7282280921936</t>
   </si>
   <si>
     <t xml:space="preserve">1.7614631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71666812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579809188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75279319286346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7643529176712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72533810138702</t>
+    <t xml:space="preserve">1.71666777133942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579821109772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75279343128204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72533798217773</t>
   </si>
   <si>
     <t xml:space="preserve">1.74845826625824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77157831192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77591300010681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71522319316864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7585734128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.787473320961</t>
+    <t xml:space="preserve">1.77157819271088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77591323852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71522283554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75857317447662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047833919525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78747320175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.7802482843399</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">1.7686882019043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76290833950043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84093856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8351583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82648849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81059348583221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81348371505737</t>
+    <t xml:space="preserve">1.76290822029114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73545336723328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84093868732452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83515846729279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82648837566376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8105936050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81348347663879</t>
   </si>
   <si>
     <t xml:space="preserve">1.74701309204102</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">1.79903328418732</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83082365989685</t>
+    <t xml:space="preserve">1.83082342147827</t>
   </si>
   <si>
     <t xml:space="preserve">1.82070827484131</t>
@@ -1346,94 +1346,94 @@
     <t xml:space="preserve">1.82937860488892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84816360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79758834838867</t>
+    <t xml:space="preserve">1.84816372394562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79758846759796</t>
   </si>
   <si>
     <t xml:space="preserve">1.77302324771881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73689794540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73111796379089</t>
+    <t xml:space="preserve">1.73689806461334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73111820220947</t>
   </si>
   <si>
     <t xml:space="preserve">1.68776798248291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67765283584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67620766162872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60973739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5678323507309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52303719520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53459715843201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049216747284</t>
+    <t xml:space="preserve">1.67765295505524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67620778083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60973751544952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56783246994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5230370759964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5345972776413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049204826355</t>
   </si>
   <si>
     <t xml:space="preserve">1.5606073141098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54904723167419</t>
+    <t xml:space="preserve">1.5490471124649</t>
   </si>
   <si>
     <t xml:space="preserve">1.53026211261749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49991703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5938423871994</t>
+    <t xml:space="preserve">1.49991691112518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59384250640869</t>
   </si>
   <si>
     <t xml:space="preserve">1.62852251529694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622882604599</t>
+    <t xml:space="preserve">1.62288248538971</t>
   </si>
   <si>
     <t xml:space="preserve">1.64376497268677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62586569786072</t>
+    <t xml:space="preserve">1.62586557865143</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050797462463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60796630382538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752476215363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60498297214508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525663852692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63332366943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64078176021576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67508924007416</t>
+    <t xml:space="preserve">1.6079660654068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5975250005722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60498285293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64525675773621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63332378864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64078199863434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67508912086487</t>
   </si>
   <si>
     <t xml:space="preserve">1.68553030490875</t>
@@ -1448,46 +1448,46 @@
     <t xml:space="preserve">1.66912245750427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6586811542511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68254721164703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403875827789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67359733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71088802814484</t>
+    <t xml:space="preserve">1.65868127346039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6825475692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403887748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67359745502472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71088778972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.71834599971771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7153627872467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70790469646454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69149672985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66763126850128</t>
+    <t xml:space="preserve">1.71536266803741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70790445804596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69149696826935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66763091087341</t>
   </si>
   <si>
     <t xml:space="preserve">1.67210578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77353608608246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76607775688171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78397727012634</t>
+    <t xml:space="preserve">1.77353596687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76607811450958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78397738933563</t>
   </si>
   <si>
     <t xml:space="preserve">1.80635154247284</t>
@@ -1496,10 +1496,10 @@
     <t xml:space="preserve">1.80336833000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73177063465118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75116193294525</t>
+    <t xml:space="preserve">1.73177075386047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75116169452667</t>
   </si>
   <si>
     <t xml:space="preserve">1.76309478282928</t>
@@ -1508,40 +1508,40 @@
     <t xml:space="preserve">1.76160299777985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75563657283783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72580409049988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044660568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69895529747009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65569806098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64227330684662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63779878616333</t>
+    <t xml:space="preserve">1.75563645362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72580432891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044672489166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69895505905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65569818019867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6422735452652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63779866695404</t>
   </si>
   <si>
     <t xml:space="preserve">1.63183212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63034045696259</t>
+    <t xml:space="preserve">1.63034057617188</t>
   </si>
   <si>
     <t xml:space="preserve">1.62884879112244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59305000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59155833721161</t>
+    <t xml:space="preserve">1.59304988384247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5915584564209</t>
   </si>
   <si>
     <t xml:space="preserve">1.54233491420746</t>
@@ -1550,43 +1550,43 @@
     <t xml:space="preserve">1.50653600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51996064186096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53040206432343</t>
+    <t xml:space="preserve">1.51996076107025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53040194511414</t>
   </si>
   <si>
     <t xml:space="preserve">1.54531824588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54382646083832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54680967330933</t>
+    <t xml:space="preserve">1.54382634162903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54680955410004</t>
   </si>
   <si>
     <t xml:space="preserve">1.60945785045624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66315627098083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61691582202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58857536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56172609329224</t>
+    <t xml:space="preserve">1.66315615177155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6169159412384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58857524394989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56172597408295</t>
   </si>
   <si>
     <t xml:space="preserve">1.55128467082977</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5662008523941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664239406586</t>
+    <t xml:space="preserve">1.56620073318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664215564728</t>
   </si>
   <si>
     <t xml:space="preserve">1.57515060901642</t>
@@ -1598,31 +1598,31 @@
     <t xml:space="preserve">1.48789072036743</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49311149120331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46924555301666</t>
+    <t xml:space="preserve">1.4931116104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46924567222595</t>
   </si>
   <si>
     <t xml:space="preserve">1.44985461235046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44314217567444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200222492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44910860061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.439413189888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43419253826141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44836294651031</t>
+    <t xml:space="preserve">1.44314229488373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42002213001251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44910871982574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43941307067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43419241905212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44836282730103</t>
   </si>
   <si>
     <t xml:space="preserve">1.44090485572815</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">1.42375111579895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45582103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43270099163055</t>
+    <t xml:space="preserve">1.45582091808319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43270075321198</t>
   </si>
   <si>
     <t xml:space="preserve">1.46327912807465</t>
@@ -1643,19 +1643,19 @@
     <t xml:space="preserve">1.46104168891907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42673444747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47968697547913</t>
+    <t xml:space="preserve">1.42673432826996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47968673706055</t>
   </si>
   <si>
     <t xml:space="preserve">1.47148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53338527679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52592706680298</t>
+    <t xml:space="preserve">1.53338515758514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52592718601227</t>
   </si>
   <si>
     <t xml:space="preserve">1.54830133914948</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">1.45656681060791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46178734302521</t>
+    <t xml:space="preserve">1.4617874622345</t>
   </si>
   <si>
     <t xml:space="preserve">1.44687128067017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47297465801239</t>
+    <t xml:space="preserve">1.4729745388031</t>
   </si>
   <si>
     <t xml:space="preserve">1.45060038566589</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">1.40212261676788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42897176742554</t>
+    <t xml:space="preserve">1.42897188663483</t>
   </si>
   <si>
     <t xml:space="preserve">1.41703879833221</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">1.50355267524719</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50504422187805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49609470367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49161994457245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55575942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59603309631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56321752071381</t>
+    <t xml:space="preserve">1.50504434108734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49609482288361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49161982536316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55575954914093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59603333473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5632176399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.56918430328369</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.61989915370941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61840760707855</t>
+    <t xml:space="preserve">1.61840772628784</t>
   </si>
   <si>
     <t xml:space="preserve">1.60199964046478</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">1.58708357810974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5855917930603</t>
+    <t xml:space="preserve">1.58559167385101</t>
   </si>
   <si>
     <t xml:space="preserve">1.55426800251007</t>
@@ -1757,25 +1757,25 @@
     <t xml:space="preserve">1.57365882396698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58260869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5572509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55874264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58111691474915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61393260955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69746363162994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70939660072327</t>
+    <t xml:space="preserve">1.58260858058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725121498108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55874276161194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58111679553986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6139327287674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69746339321136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70939636230469</t>
   </si>
   <si>
     <t xml:space="preserve">1.71387135982513</t>
@@ -1784,64 +1784,64 @@
     <t xml:space="preserve">1.68105554580688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70641326904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67956399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70193815231323</t>
+    <t xml:space="preserve">1.70641303062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67956411838531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70193839073181</t>
   </si>
   <si>
     <t xml:space="preserve">1.69597184658051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72878754138947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6929886341095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59006679058075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962548732758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5602343082428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53636837005615</t>
+    <t xml:space="preserve">1.72878742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69298851490021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59006655216217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962536811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56023454666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53636848926544</t>
   </si>
   <si>
     <t xml:space="preserve">1.53189361095428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56769263744354</t>
+    <t xml:space="preserve">1.56769239902496</t>
   </si>
   <si>
     <t xml:space="preserve">1.63481521606445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65718972682953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66613948345184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65271496772766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72132933139801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78994369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78696048259735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77651917934418</t>
+    <t xml:space="preserve">1.65718948841095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66613924503326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65271484851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72132921218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78994393348694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78696072101593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7765189409256</t>
   </si>
   <si>
     <t xml:space="preserve">1.77535676956177</t>
@@ -1856,55 +1856,55 @@
     <t xml:space="preserve">1.75679910182953</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76762437820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77071738243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81556534767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83876264095306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85113453865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83257627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82020473480225</t>
+    <t xml:space="preserve">1.76762449741364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77071714401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81556510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83876252174377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85113430023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83257639408112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82020461559296</t>
   </si>
   <si>
     <t xml:space="preserve">1.86041295528412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86659908294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88824963569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89134275913239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89598226547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89443588256836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90216791629791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8635059595108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86505258083344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85577356815338</t>
+    <t xml:space="preserve">1.86659896373749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8882497549057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8913426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89598202705383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89443564414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90216815471649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86350607872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86505234241486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85577380657196</t>
   </si>
   <si>
     <t xml:space="preserve">1.82948362827301</t>
@@ -1916,13 +1916,13 @@
     <t xml:space="preserve">1.82639050483704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85886669158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87433159351349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87897074222565</t>
+    <t xml:space="preserve">1.85886645317078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8743314743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87897086143494</t>
   </si>
   <si>
     <t xml:space="preserve">1.88670325279236</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">1.88361048698425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87278497219086</t>
+    <t xml:space="preserve">1.87278485298157</t>
   </si>
   <si>
     <t xml:space="preserve">1.88979613780975</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">1.89288914203644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86195957660675</t>
+    <t xml:space="preserve">1.86195945739746</t>
   </si>
   <si>
     <t xml:space="preserve">1.87123847007751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9269118309021</t>
+    <t xml:space="preserve">1.92691159248352</t>
   </si>
   <si>
     <t xml:space="preserve">1.91144669055939</t>
@@ -1961,31 +1961,31 @@
     <t xml:space="preserve">1.91299331188202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94237637519836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94082999229431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92072558403015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85268068313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90526080131531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90062129497528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92381870746613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9547483921051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01196789741516</t>
+    <t xml:space="preserve">1.94237649440765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9408301115036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92072570323944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8526805639267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9052609205246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90062153339386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92381906509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95474827289581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01196813583374</t>
   </si>
   <si>
     <t xml:space="preserve">2.03361892700195</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">2.02897930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04908347129822</t>
+    <t xml:space="preserve">2.04908323287964</t>
   </si>
   <si>
     <t xml:space="preserve">2.06918787956238</t>
@@ -2012,16 +2012,16 @@
     <t xml:space="preserve">2.05990862846375</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08774518966675</t>
+    <t xml:space="preserve">2.08774542808533</t>
   </si>
   <si>
     <t xml:space="preserve">2.0970242023468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10784983634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08310580253601</t>
+    <t xml:space="preserve">2.10784959793091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08310604095459</t>
   </si>
   <si>
     <t xml:space="preserve">2.10011744499207</t>
@@ -2030,10 +2030,10 @@
     <t xml:space="preserve">2.10630321502686</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08001303672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07073402404785</t>
+    <t xml:space="preserve">2.08001327514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07073426246643</t>
   </si>
   <si>
     <t xml:space="preserve">2.07537364959717</t>
@@ -2045,22 +2045,22 @@
     <t xml:space="preserve">2.06764125823975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06454849243164</t>
+    <t xml:space="preserve">2.06454825401306</t>
   </si>
   <si>
     <t xml:space="preserve">2.07382702827454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11867475509644</t>
+    <t xml:space="preserve">2.11867499351501</t>
   </si>
   <si>
     <t xml:space="preserve">2.15115094184875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12176775932312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14805793762207</t>
+    <t xml:space="preserve">2.1217679977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14805769920349</t>
   </si>
   <si>
     <t xml:space="preserve">2.13568639755249</t>
@@ -2069,22 +2069,22 @@
     <t xml:space="preserve">2.15733695030212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12950038909912</t>
+    <t xml:space="preserve">2.12950015068054</t>
   </si>
   <si>
     <t xml:space="preserve">2.13413953781128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14341878890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14032554626465</t>
+    <t xml:space="preserve">2.14341855049133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14032578468323</t>
   </si>
   <si>
     <t xml:space="preserve">2.11094260215759</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10939621925354</t>
+    <t xml:space="preserve">2.10939598083496</t>
   </si>
   <si>
     <t xml:space="preserve">2.09238505363464</t>
@@ -2096,22 +2096,22 @@
     <t xml:space="preserve">2.18362665176392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16816210746765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17589473724365</t>
+    <t xml:space="preserve">2.16816234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17589449882507</t>
   </si>
   <si>
     <t xml:space="preserve">2.16506934165955</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13723278045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104701042175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16970872879028</t>
+    <t xml:space="preserve">2.13723254203796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104677200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1697084903717</t>
   </si>
   <si>
     <t xml:space="preserve">2.18053412437439</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">2.1913595199585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12331438064575</t>
+    <t xml:space="preserve">2.12331461906433</t>
   </si>
   <si>
     <t xml:space="preserve">2.16042971611023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17744088172913</t>
+    <t xml:space="preserve">2.17744112014771</t>
   </si>
   <si>
     <t xml:space="preserve">2.14960432052612</t>
@@ -2135,22 +2135,22 @@
     <t xml:space="preserve">2.10321021080017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11403560638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11558198928833</t>
+    <t xml:space="preserve">2.1140353679657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11558222770691</t>
   </si>
   <si>
     <t xml:space="preserve">2.14496517181396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21764945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18517327308655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17898774147034</t>
+    <t xml:space="preserve">2.21764969825745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18517351150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17898750305176</t>
   </si>
   <si>
     <t xml:space="preserve">2.21610307693481</t>
@@ -2159,19 +2159,19 @@
     <t xml:space="preserve">2.24393963813782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21455669403076</t>
+    <t xml:space="preserve">2.21455645561218</t>
   </si>
   <si>
     <t xml:space="preserve">2.23311424255371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28569459915161</t>
+    <t xml:space="preserve">2.28569436073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.31507778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30425238609314</t>
+    <t xml:space="preserve">2.30425214767456</t>
   </si>
   <si>
     <t xml:space="preserve">2.35837888717651</t>
@@ -2180,13 +2180,13 @@
     <t xml:space="preserve">2.33672833442688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435631752014</t>
+    <t xml:space="preserve">2.3243567943573</t>
   </si>
   <si>
     <t xml:space="preserve">2.31971716880798</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32899594306946</t>
+    <t xml:space="preserve">2.32899618148804</t>
   </si>
   <si>
     <t xml:space="preserve">2.31198477745056</t>
@@ -2195,19 +2195,19 @@
     <t xml:space="preserve">2.31817054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28260183334351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34446096420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33054232597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32744956016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31353139877319</t>
+    <t xml:space="preserve">2.28260135650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3444607257843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33054208755493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32744932174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31353116035461</t>
   </si>
   <si>
     <t xml:space="preserve">2.35992550849915</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">2.37539029121399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36301827430725</t>
+    <t xml:space="preserve">2.36301851272583</t>
   </si>
   <si>
     <t xml:space="preserve">2.22074246406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2222888469696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26095104217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23775410652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12640738487244</t>
+    <t xml:space="preserve">2.22228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26095080375671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23775362968445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12640714645386</t>
   </si>
   <si>
     <t xml:space="preserve">2.19290566444397</t>
@@ -2246,13 +2246,13 @@
     <t xml:space="preserve">2.08155941963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92845821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71504426002502</t>
+    <t xml:space="preserve">1.92845833301544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73669493198395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71504414081573</t>
   </si>
   <si>
     <t xml:space="preserve">1.45678234100342</t>
@@ -2264,25 +2264,25 @@
     <t xml:space="preserve">1.41966676712036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4181205034256</t>
+    <t xml:space="preserve">1.41812038421631</t>
   </si>
   <si>
     <t xml:space="preserve">1.36863303184509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43281209468842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38796401023865</t>
+    <t xml:space="preserve">1.43281185626984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38796389102936</t>
   </si>
   <si>
     <t xml:space="preserve">1.38100492954254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47611320018768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44673013687134</t>
+    <t xml:space="preserve">1.47611343860626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44673025608063</t>
   </si>
   <si>
     <t xml:space="preserve">1.56967520713806</t>
@@ -2291,13 +2291,13 @@
     <t xml:space="preserve">1.58513998985291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66246402263641</t>
+    <t xml:space="preserve">1.66246390342712</t>
   </si>
   <si>
     <t xml:space="preserve">1.73978793621063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62844133377075</t>
+    <t xml:space="preserve">1.62844145298004</t>
   </si>
   <si>
     <t xml:space="preserve">1.62534844875336</t>
@@ -2306,25 +2306,25 @@
     <t xml:space="preserve">1.6129766702652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64081335067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63926661014557</t>
+    <t xml:space="preserve">1.6408132314682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63926649093628</t>
   </si>
   <si>
     <t xml:space="preserve">1.63153421878815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62689507007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916267871857</t>
+    <t xml:space="preserve">1.6268949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916255950928</t>
   </si>
   <si>
     <t xml:space="preserve">1.66091740131378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68256831169128</t>
+    <t xml:space="preserve">1.68256807327271</t>
   </si>
   <si>
     <t xml:space="preserve">1.70576524734497</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">1.69339346885681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69803309440613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70421862602234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7289627790451</t>
+    <t xml:space="preserve">1.69803297519684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70421874523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72896254062653</t>
   </si>
   <si>
     <t xml:space="preserve">1.73824119567871</t>
@@ -2348,25 +2348,25 @@
     <t xml:space="preserve">1.75989210605621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75061321258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72586965560913</t>
+    <t xml:space="preserve">1.75061309337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72586953639984</t>
   </si>
   <si>
     <t xml:space="preserve">1.68566107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65473139286041</t>
+    <t xml:space="preserve">1.65473175048828</t>
   </si>
   <si>
     <t xml:space="preserve">1.66710329055786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63617360591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65318512916565</t>
+    <t xml:space="preserve">1.63617372512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65318500995636</t>
   </si>
   <si>
     <t xml:space="preserve">1.67019629478455</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">1.67792880535126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7243230342865</t>
+    <t xml:space="preserve">1.72432315349579</t>
   </si>
   <si>
     <t xml:space="preserve">1.74906671047211</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">1.69184696674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298499107361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80474007129669</t>
+    <t xml:space="preserve">1.7629851102829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8047399520874</t>
   </si>
   <si>
     <t xml:space="preserve">1.85422718524933</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">1.79391443729401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72123003005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74133431911469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79082155227661</t>
+    <t xml:space="preserve">1.72123026847839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74133443832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7908216714859</t>
   </si>
   <si>
     <t xml:space="preserve">1.79700720310211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86666536331177</t>
+    <t xml:space="preserve">1.86666512489319</t>
   </si>
   <si>
     <t xml:space="preserve">1.85700166225433</t>
@@ -2429,70 +2429,70 @@
     <t xml:space="preserve">1.78291487693787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79741036891937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224192142487</t>
+    <t xml:space="preserve">1.79741024971008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80224180221558</t>
   </si>
   <si>
     <t xml:space="preserve">1.77647256851196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7909677028656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81190538406372</t>
+    <t xml:space="preserve">1.79096794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81190550327301</t>
   </si>
   <si>
     <t xml:space="preserve">1.82156896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82479023933411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81673717498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77164077758789</t>
+    <t xml:space="preserve">1.82479000091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81673729419708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77164101600647</t>
   </si>
   <si>
     <t xml:space="preserve">1.77003026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75714540481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74103963375092</t>
+    <t xml:space="preserve">1.75714552402496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74103975296021</t>
   </si>
   <si>
     <t xml:space="preserve">1.73781859874725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76841986179352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78774666786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80868422985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79257833957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75231397151947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72815501689911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73620808124542</t>
+    <t xml:space="preserve">1.76841974258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78774678707123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80868434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7925785779953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75231385231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72815489768982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73620796203613</t>
   </si>
   <si>
     <t xml:space="preserve">1.73942923545837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70882821083069</t>
+    <t xml:space="preserve">1.7088280916214</t>
   </si>
   <si>
     <t xml:space="preserve">1.71849167346954</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">1.72976565361023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7539244890213</t>
+    <t xml:space="preserve">1.75392436981201</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474821805954</t>
@@ -2510,34 +2510,34 @@
     <t xml:space="preserve">1.7668092250824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81512665748596</t>
+    <t xml:space="preserve">1.81512653827667</t>
   </si>
   <si>
     <t xml:space="preserve">1.82317936420441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84411692619324</t>
+    <t xml:space="preserve">1.84411680698395</t>
   </si>
   <si>
     <t xml:space="preserve">1.81351613998413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78613615036011</t>
+    <t xml:space="preserve">1.78613603115082</t>
   </si>
   <si>
     <t xml:space="preserve">1.80707359313965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77808320522308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7651983499527</t>
+    <t xml:space="preserve">1.77808308601379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519846916199</t>
   </si>
   <si>
     <t xml:space="preserve">1.75553500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78452563285828</t>
+    <t xml:space="preserve">1.78452551364899</t>
   </si>
   <si>
     <t xml:space="preserve">1.76197731494904</t>
@@ -2546,34 +2546,34 @@
     <t xml:space="preserve">1.77486193180084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79579961299896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77325129508972</t>
+    <t xml:space="preserve">1.79579973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77325141429901</t>
   </si>
   <si>
     <t xml:space="preserve">1.7345974445343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73137640953064</t>
+    <t xml:space="preserve">1.73137629032135</t>
   </si>
   <si>
     <t xml:space="preserve">1.70721733570099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70077526569366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67661654949188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67500579357147</t>
+    <t xml:space="preserve">1.70077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67661643028259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67500591278076</t>
   </si>
   <si>
     <t xml:space="preserve">1.66695284843445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65890002250671</t>
+    <t xml:space="preserve">1.658900141716</t>
   </si>
   <si>
     <t xml:space="preserve">1.65245771408081</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">1.62829911708832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5751496553421</t>
+    <t xml:space="preserve">1.57514977455139</t>
   </si>
   <si>
     <t xml:space="preserve">1.55582284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57112336158752</t>
+    <t xml:space="preserve">1.57112324237823</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837092876434</t>
@@ -2603,19 +2603,19 @@
     <t xml:space="preserve">1.62507772445679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64279425144196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6073614358902</t>
+    <t xml:space="preserve">1.64279413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60736155509949</t>
   </si>
   <si>
     <t xml:space="preserve">1.68466937541962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67178463935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67983746528625</t>
+    <t xml:space="preserve">1.67178475856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67983770370483</t>
   </si>
   <si>
     <t xml:space="preserve">1.68144822120667</t>
@@ -2633,13 +2633,13 @@
     <t xml:space="preserve">1.6830587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74426078796387</t>
+    <t xml:space="preserve">1.74426090717316</t>
   </si>
   <si>
     <t xml:space="preserve">1.82801127433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894895553589</t>
+    <t xml:space="preserve">1.84894871711731</t>
   </si>
   <si>
     <t xml:space="preserve">1.81029462814331</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">1.71365988254547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71043884754181</t>
+    <t xml:space="preserve">1.71043872833252</t>
   </si>
   <si>
     <t xml:space="preserve">1.71204924583435</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">1.69433295726776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6653425693512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7217128276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72493374347687</t>
+    <t xml:space="preserve">1.66534245014191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72171270847321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72493398189545</t>
   </si>
   <si>
     <t xml:space="preserve">1.71688103675842</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">1.74265027046204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75070345401764</t>
+    <t xml:space="preserve">1.75070321559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70399630069733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6331307888031</t>
+    <t xml:space="preserve">1.63313090801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.63474130630493</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">1.64762604236603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64923655986786</t>
+    <t xml:space="preserve">1.64923667907715</t>
   </si>
   <si>
     <t xml:space="preserve">1.63796257972717</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">1.68789041042328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7152704000473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560705661774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69272243976593</t>
+    <t xml:space="preserve">1.71527051925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70560693740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69272232055664</t>
   </si>
   <si>
     <t xml:space="preserve">1.6637316942215</t>
@@ -2729,10 +2729,10 @@
     <t xml:space="preserve">1.69916450977325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72332346439362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74909257888794</t>
+    <t xml:space="preserve">1.72332358360291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74909269809723</t>
   </si>
   <si>
     <t xml:space="preserve">1.75875616073608</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">1.84572768211365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89565587043762</t>
+    <t xml:space="preserve">1.89565563201904</t>
   </si>
   <si>
     <t xml:space="preserve">1.90854024887085</t>
@@ -2753,19 +2753,19 @@
     <t xml:space="preserve">1.89887678623199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89726638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8940452337265</t>
+    <t xml:space="preserve">1.89726614952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89404499530792</t>
   </si>
   <si>
     <t xml:space="preserve">1.88921320438385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88277113437653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91176164150238</t>
+    <t xml:space="preserve">1.8827713727951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9117614030838</t>
   </si>
   <si>
     <t xml:space="preserve">1.86988639831543</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">1.92464649677277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90048730373383</t>
+    <t xml:space="preserve">1.9004875421524</t>
   </si>
   <si>
     <t xml:space="preserve">1.92142486572266</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">1.93108856678009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91981446743011</t>
+    <t xml:space="preserve">1.9198145866394</t>
   </si>
   <si>
     <t xml:space="preserve">1.95846843719482</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">1.95685791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94236266613007</t>
+    <t xml:space="preserve">1.94236242771149</t>
   </si>
   <si>
     <t xml:space="preserve">1.96491074562073</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">2.00678586959839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04382920265198</t>
+    <t xml:space="preserve">2.04382944107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.05188226699829</t>
@@ -2837,16 +2837,16 @@
     <t xml:space="preserve">2.01322817802429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03255534172058</t>
+    <t xml:space="preserve">2.032555103302</t>
   </si>
   <si>
     <t xml:space="preserve">2.07604098320007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05832481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09375715255737</t>
+    <t xml:space="preserve">2.05832457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09375739097595</t>
   </si>
   <si>
     <t xml:space="preserve">2.0647668838501</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">2.10825252532959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11469459533691</t>
+    <t xml:space="preserve">2.11469483375549</t>
   </si>
   <si>
     <t xml:space="preserve">2.10986304283142</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">2.05510330200195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05671405792236</t>
+    <t xml:space="preserve">2.05671381950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.06798815727234</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">2.0776515007019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1034209728241</t>
+    <t xml:space="preserve">2.10342073440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.11147379875183</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">2.11791634559631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11738348007202</t>
+    <t xml:space="preserve">2.11738324165344</t>
   </si>
   <si>
     <t xml:space="preserve">2.09565806388855</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">2.07226157188416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07059025764465</t>
+    <t xml:space="preserve">2.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">2.04218053817749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0187840461731</t>
+    <t xml:space="preserve">2.01878380775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.01209926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01042795181274</t>
+    <t xml:space="preserve">2.01042771339417</t>
   </si>
   <si>
     <t xml:space="preserve">1.99872970581055</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">2.02379727363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.078946352005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05889225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05554986000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06390595436096</t>
+    <t xml:space="preserve">2.07894659042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05889201164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05555009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06390571594238</t>
   </si>
   <si>
     <t xml:space="preserve">2.07393288612366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0889732837677</t>
+    <t xml:space="preserve">2.08897352218628</t>
   </si>
   <si>
     <t xml:space="preserve">2.06724810600281</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.13409519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12072563171387</t>
+    <t xml:space="preserve">2.12072587013245</t>
   </si>
   <si>
     <t xml:space="preserve">2.14913606643677</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">2.12573933601379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16584777832031</t>
+    <t xml:space="preserve">2.16584753990173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17086124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18423080444336</t>
+    <t xml:space="preserve">2.18423056602478</t>
   </si>
   <si>
     <t xml:space="preserve">2.19760012626648</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">2.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24439311027527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25274920463562</t>
+    <t xml:space="preserve">2.24439334869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25274896621704</t>
   </si>
   <si>
     <t xml:space="preserve">2.29787063598633</t>
@@ -3047,22 +3047,22 @@
     <t xml:space="preserve">2.25609135627747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22768115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2226676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21932554244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23937940597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23269486427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25107789039612</t>
+    <t xml:space="preserve">2.22768092155457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22266793251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21932530403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23937964439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23269462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25107765197754</t>
   </si>
   <si>
     <t xml:space="preserve">2.14412236213684</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">2.16250538825989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14245080947876</t>
+    <t xml:space="preserve">2.14245104789734</t>
   </si>
   <si>
     <t xml:space="preserve">2.2009425163269</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">2.0873019695282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11237025260925</t>
+    <t xml:space="preserve">2.11237001419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.26277589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29954218864441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28951478004456</t>
+    <t xml:space="preserve">2.29285740852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29954195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28951501846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946091651917</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">2.36638927459717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40983963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34800624847412</t>
+    <t xml:space="preserve">2.40983986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34800601005554</t>
   </si>
   <si>
     <t xml:space="preserve">2.36304688453674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38978552818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39312815666199</t>
+    <t xml:space="preserve">2.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39312791824341</t>
   </si>
   <si>
     <t xml:space="preserve">2.3329656124115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34299230575562</t>
+    <t xml:space="preserve">2.34299254417419</t>
   </si>
   <si>
     <t xml:space="preserve">2.31124019622803</t>
@@ -3179,34 +3179,34 @@
     <t xml:space="preserve">2.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19091510772705</t>
+    <t xml:space="preserve">2.19091534614563</t>
   </si>
   <si>
     <t xml:space="preserve">2.24940657615662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20261359214783</t>
+    <t xml:space="preserve">2.20261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">2.20428466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19592881202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.172532081604</t>
+    <t xml:space="preserve">2.19592905044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17253232002258</t>
   </si>
   <si>
     <t xml:space="preserve">2.1157124042511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13075304031372</t>
+    <t xml:space="preserve">2.13075280189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.07727527618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06891942024231</t>
+    <t xml:space="preserve">2.06891918182373</t>
   </si>
   <si>
     <t xml:space="preserve">2.13910865783691</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">2.22601008415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13743758201599</t>
+    <t xml:space="preserve">2.13743782043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.08061742782593</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">2.06223440170288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00708556175232</t>
+    <t xml:space="preserve">2.0070858001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.98870277404785</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">2.00207209587097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97366189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90347290039062</t>
+    <t xml:space="preserve">1.97366213798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90347266197205</t>
   </si>
   <si>
     <t xml:space="preserve">1.88174748420715</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">1.92352664470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91684210300446</t>
+    <t xml:space="preserve">1.91684186458588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90180146694183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91851329803467</t>
+    <t xml:space="preserve">1.91851305961609</t>
   </si>
   <si>
     <t xml:space="preserve">1.92185544967651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93689632415771</t>
+    <t xml:space="preserve">1.93689608573914</t>
   </si>
   <si>
     <t xml:space="preserve">1.97867572307587</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">2.1140410900116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08228898048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10401391983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04050898551941</t>
+    <t xml:space="preserve">2.08228874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1040141582489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04050922393799</t>
   </si>
   <si>
     <t xml:space="preserve">2.02881097793579</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">2.05220770835876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97199070453644</t>
+    <t xml:space="preserve">1.97199094295502</t>
   </si>
   <si>
     <t xml:space="preserve">1.99705874919891</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.05053639411926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02713990211487</t>
+    <t xml:space="preserve">2.02714014053345</t>
   </si>
   <si>
     <t xml:space="preserve">2.03716683387756</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">2.01377034187317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01544165611267</t>
+    <t xml:space="preserve">2.01544141769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.9352251291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79818832874298</t>
+    <t xml:space="preserve">1.79818820953369</t>
   </si>
   <si>
     <t xml:space="preserve">1.72465646266937</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.74471068382263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74303936958313</t>
+    <t xml:space="preserve">1.74303948879242</t>
   </si>
   <si>
     <t xml:space="preserve">1.77479183673859</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.69791769981384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627355575562</t>
+    <t xml:space="preserve">1.70627343654633</t>
   </si>
   <si>
     <t xml:space="preserve">1.73802578449249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79317474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78147661685944</t>
+    <t xml:space="preserve">1.79317462444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78147649765015</t>
   </si>
   <si>
     <t xml:space="preserve">1.7647647857666</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">1.74136829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77312064170837</t>
+    <t xml:space="preserve">1.77312052249908</t>
   </si>
   <si>
     <t xml:space="preserve">1.6427686214447</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">1.66282284259796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028917789459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65697383880615</t>
+    <t xml:space="preserve">1.6502890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65697371959686</t>
   </si>
   <si>
     <t xml:space="preserve">1.66449403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66700088977814</t>
+    <t xml:space="preserve">1.66700077056885</t>
   </si>
   <si>
     <t xml:space="preserve">1.61853659152985</t>
@@ -4605,6 +4605,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.88900005817413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9210000038147</t>
   </si>
 </sst>
 </file>
@@ -61574,7 +61577,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6494791667</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>2125336</v>
@@ -61595,6 +61598,32 @@
         <v>1530</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6495601852</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>2330124</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>1.92799997329712</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>1.88399994373322</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>1.8860000371933</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>1.9210000038147</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="1533">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980257511138916</t>
+    <t xml:space="preserve">0.980257630348206</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
@@ -47,154 +47,154 @@
     <t xml:space="preserve">0.970110177993774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973492681980133</t>
+    <t xml:space="preserve">0.973492622375488</t>
   </si>
   <si>
     <t xml:space="preserve">0.968080461025238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947108924388885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.943050026893616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964698016643524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949138522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924784302711487</t>
+    <t xml:space="preserve">0.94710898399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.943049967288971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964698255062103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949138462543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924784123897552</t>
   </si>
   <si>
     <t xml:space="preserve">0.907194972038269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883517324924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894341468811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859163105487823</t>
+    <t xml:space="preserve">0.883517265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89434140920639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859163165092468</t>
   </si>
   <si>
     <t xml:space="preserve">0.878105282783508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89907705783844</t>
+    <t xml:space="preserve">0.899076879024506</t>
   </si>
   <si>
     <t xml:space="preserve">0.900429964065552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913283586502075</t>
+    <t xml:space="preserve">0.91328364610672</t>
   </si>
   <si>
     <t xml:space="preserve">0.930872797966003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.919372200965881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953873991966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932902336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89840042591095</t>
+    <t xml:space="preserve">0.919372022151947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953873932361603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932902216911316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.898400485515594</t>
   </si>
   <si>
     <t xml:space="preserve">0.885546743869781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859839618206024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87945818901062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866604626178741</t>
+    <t xml:space="preserve">0.859839558601379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87945830821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866604685783386</t>
   </si>
   <si>
     <t xml:space="preserve">0.890958845615387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912607073783875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920725107192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938990950584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969433605670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974169135093689</t>
+    <t xml:space="preserve">0.912607133388519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920725166797638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938990831375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969433546066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974169194698334</t>
   </si>
   <si>
     <t xml:space="preserve">0.959962487220764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993111312389374</t>
+    <t xml:space="preserve">0.993111371994019</t>
   </si>
   <si>
     <t xml:space="preserve">0.965374708175659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961992084980011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988375842571259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995140910148621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977551698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980934202671051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951844453811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964021563529968</t>
+    <t xml:space="preserve">0.961992025375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988375723361969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995140731334686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977551639080048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980934321880341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951844394207001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964021503925323</t>
   </si>
   <si>
     <t xml:space="preserve">1.00190591812134</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01273000240326</t>
+    <t xml:space="preserve">1.01272988319397</t>
   </si>
   <si>
     <t xml:space="preserve">1.04926133155823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06346786022186</t>
+    <t xml:space="preserve">1.06346809864044</t>
   </si>
   <si>
     <t xml:space="preserve">1.08038079738617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06752705574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07496869564056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05873262882233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05196738243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05534970760345</t>
+    <t xml:space="preserve">1.06752693653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07496845722198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05873250961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05196726322174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05534982681274</t>
   </si>
   <si>
     <t xml:space="preserve">1.05805599689484</t>
@@ -209,55 +209,55 @@
     <t xml:space="preserve">1.07361567020416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04993796348572</t>
+    <t xml:space="preserve">1.04993784427643</t>
   </si>
   <si>
     <t xml:space="preserve">1.06211507320404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06279146671295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07564496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06955635547638</t>
+    <t xml:space="preserve">1.06279158592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06887996196747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07564520835876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06955647468567</t>
   </si>
   <si>
     <t xml:space="preserve">1.07835114002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08376336097717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07632148265839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06820368766785</t>
+    <t xml:space="preserve">1.08376324176788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07632160186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06820356845856</t>
   </si>
   <si>
     <t xml:space="preserve">1.05602633953094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0384373664856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05399703979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0871456861496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07970404624939</t>
+    <t xml:space="preserve">1.03843724727631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05399680137634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08714592456818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07970428466797</t>
   </si>
   <si>
     <t xml:space="preserve">1.0925577878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0857926607132</t>
+    <t xml:space="preserve">1.08579277992249</t>
   </si>
   <si>
     <t xml:space="preserve">1.08105707168579</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">1.06685054302216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181981086731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08511602878571</t>
+    <t xml:space="preserve">1.0418199300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08511626720428</t>
   </si>
   <si>
     <t xml:space="preserve">1.06008553504944</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">1.04520237445831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07226252555847</t>
+    <t xml:space="preserve">1.07226264476776</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202884674072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12908899784088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11623561382294</t>
+    <t xml:space="preserve">1.12908911705017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11623549461365</t>
   </si>
   <si>
     <t xml:space="preserve">1.11014699935913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12705969810486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11555886268616</t>
+    <t xml:space="preserve">1.12705957889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11555910110474</t>
   </si>
   <si>
     <t xml:space="preserve">1.09999942779541</t>
@@ -311,43 +311,43 @@
     <t xml:space="preserve">1.11691200733185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11488246917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12164735794067</t>
+    <t xml:space="preserve">1.11488234996796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12164759635925</t>
   </si>
   <si>
     <t xml:space="preserve">1.09864640235901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02626001834869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01678907871246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01340663433075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02761328220367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01076698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02831506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00866150856018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953209638595581</t>
+    <t xml:space="preserve">1.02626013755798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01678895950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01340651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02761316299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01076710224152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02831494808197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0086612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953209519386292</t>
   </si>
   <si>
     <t xml:space="preserve">0.920921206474304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948997974395752</t>
+    <t xml:space="preserve">0.948997855186462</t>
   </si>
   <si>
     <t xml:space="preserve">0.940574944019318</t>
@@ -356,58 +356,58 @@
     <t xml:space="preserve">0.97567093372345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981988251209259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986199855804443</t>
+    <t xml:space="preserve">0.981988370418549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986199796199799</t>
   </si>
   <si>
     <t xml:space="preserve">0.954613327980042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.948295950889587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961632430553436</t>
+    <t xml:space="preserve">0.948296070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961632549762726</t>
   </si>
   <si>
     <t xml:space="preserve">0.9714595079422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978478610515594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.972161412239075</t>
+    <t xml:space="preserve">0.978478729724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.972161293029785</t>
   </si>
   <si>
     <t xml:space="preserve">0.958122909069061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967247843742371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973565220832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992517113685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984093964099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0037477016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00094020366669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01287281513214</t>
+    <t xml:space="preserve">0.96724796295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973564982414246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992517232894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984094202518463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00374782085419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00094032287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01287257671356</t>
   </si>
   <si>
     <t xml:space="preserve">1.01357471942902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03182470798492</t>
+    <t xml:space="preserve">1.03182482719421</t>
   </si>
   <si>
     <t xml:space="preserve">1.03322863578796</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">1.02129590511322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02199792861938</t>
+    <t xml:space="preserve">1.0219978094101</t>
   </si>
   <si>
     <t xml:space="preserve">1.03393042087555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03673827648163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04516112804413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03884410858154</t>
+    <t xml:space="preserve">1.03673791885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04516124725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03884398937225</t>
   </si>
   <si>
     <t xml:space="preserve">1.04235363006592</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">0.998132407665253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996026754379272</t>
+    <t xml:space="preserve">0.996026635169983</t>
   </si>
   <si>
     <t xml:space="preserve">0.988305568695068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00234377384186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01427674293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03533446788788</t>
+    <t xml:space="preserve">1.00234401226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01427662372589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03533411026001</t>
   </si>
   <si>
     <t xml:space="preserve">1.03954577445984</t>
@@ -467,25 +467,25 @@
     <t xml:space="preserve">1.07113230228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165160655975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0381418466568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04656505584717</t>
+    <t xml:space="preserve">1.04165172576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03814196586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04656493663788</t>
   </si>
   <si>
     <t xml:space="preserve">1.02901697158813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01568055152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03603625297546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02691125869751</t>
+    <t xml:space="preserve">1.01568043231964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03603613376617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02691113948822</t>
   </si>
   <si>
     <t xml:space="preserve">1.02269971370697</t>
@@ -494,16 +494,16 @@
     <t xml:space="preserve">1.045863032341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07534384727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0591995716095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05288243293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01778626441956</t>
+    <t xml:space="preserve">1.07534372806549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919945240021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05288231372833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01778638362885</t>
   </si>
   <si>
     <t xml:space="preserve">1.02410352230072</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">1.03463232517242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08095920085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10622847080231</t>
+    <t xml:space="preserve">1.08095932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10622835159302</t>
   </si>
   <si>
     <t xml:space="preserve">1.10833418369293</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">1.149045586586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1518532037735</t>
+    <t xml:space="preserve">1.15185332298279</t>
   </si>
   <si>
     <t xml:space="preserve">1.12377643585205</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">1.14202642440796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14834380149841</t>
+    <t xml:space="preserve">1.14834368228912</t>
   </si>
   <si>
     <t xml:space="preserve">1.13149738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11816108226776</t>
+    <t xml:space="preserve">1.11816120147705</t>
   </si>
   <si>
     <t xml:space="preserve">1.11605536937714</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">1.09991109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11394965648651</t>
+    <t xml:space="preserve">1.11394953727722</t>
   </si>
   <si>
     <t xml:space="preserve">1.12167060375214</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">1.10482466220856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00585341453552</t>
+    <t xml:space="preserve">1.00585353374481</t>
   </si>
   <si>
     <t xml:space="preserve">1.00164222717285</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">0.993921041488647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982690155506134</t>
+    <t xml:space="preserve">0.982690274715424</t>
   </si>
   <si>
     <t xml:space="preserve">0.989709377288818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980584442615509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959526836872101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96373838186264</t>
+    <t xml:space="preserve">0.980584323406219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959526717662811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.963738262653351</t>
   </si>
   <si>
     <t xml:space="preserve">0.989007353782654</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">0.964440286159515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01708436012268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01638233661652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0297189950943</t>
+    <t xml:space="preserve">1.01708424091339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01638245582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02971887588501</t>
   </si>
   <si>
     <t xml:space="preserve">1.04445934295654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04796886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0641131401062</t>
+    <t xml:space="preserve">1.04796874523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06411325931549</t>
   </si>
   <si>
     <t xml:space="preserve">1.06621885299683</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">1.08376693725586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09219014644623</t>
+    <t xml:space="preserve">1.09219002723694</t>
   </si>
   <si>
     <t xml:space="preserve">1.09710335731506</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">1.08797836303711</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1013149023056</t>
+    <t xml:space="preserve">1.10131502151489</t>
   </si>
   <si>
     <t xml:space="preserve">1.10201692581177</t>
@@ -650,34 +650,34 @@
     <t xml:space="preserve">1.10271883010864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09289193153381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07604575157166</t>
+    <t xml:space="preserve">1.09289181232452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0985072851181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07604563236237</t>
   </si>
   <si>
     <t xml:space="preserve">1.06130540370941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05568993091583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08166122436523</t>
+    <t xml:space="preserve">1.05569005012512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08166110515594</t>
   </si>
   <si>
     <t xml:space="preserve">1.09499752521515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07464194297791</t>
+    <t xml:space="preserve">1.07464182376862</t>
   </si>
   <si>
     <t xml:space="preserve">1.10973787307739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1174590587616</t>
+    <t xml:space="preserve">1.11745917797089</t>
   </si>
   <si>
     <t xml:space="preserve">1.10903596878052</t>
@@ -686,76 +686,76 @@
     <t xml:space="preserve">1.11114168167114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13921856880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12447845935822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13641107082367</t>
+    <t xml:space="preserve">1.13921868801117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12447834014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13641095161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.12237250804901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13219952583313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13711273670197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14272820949554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15115141868591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15466105937958</t>
+    <t xml:space="preserve">1.13219940662384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13711297512054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14272832870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15115129947662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15466070175171</t>
   </si>
   <si>
     <t xml:space="preserve">1.15255510807037</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18273782730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24942028522491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241074085236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.29153561592102</t>
+    <t xml:space="preserve">1.18273770809174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2494204044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2915358543396</t>
   </si>
   <si>
     <t xml:space="preserve">1.3027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33014154434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34417974948883</t>
+    <t xml:space="preserve">1.33014118671417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34417963027954</t>
   </si>
   <si>
     <t xml:space="preserve">1.3476893901825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35892021656036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33505475521088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33294904232025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3659393787384</t>
+    <t xml:space="preserve">1.35892033576965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33505499362946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33294916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36593925952911</t>
   </si>
   <si>
     <t xml:space="preserve">1.37576627731323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37015104293823</t>
+    <t xml:space="preserve">1.37015092372894</t>
   </si>
   <si>
     <t xml:space="preserve">1.36523735523224</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">1.37717020511627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35470855236053</t>
+    <t xml:space="preserve">1.35470879077911</t>
   </si>
   <si>
     <t xml:space="preserve">1.35330474376678</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">1.36242973804474</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35400676727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33575677871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32242012023926</t>
+    <t xml:space="preserve">1.35400664806366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33575665950775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32242023944855</t>
   </si>
   <si>
     <t xml:space="preserve">1.36172783374786</t>
@@ -788,34 +788,34 @@
     <t xml:space="preserve">1.36313164234161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37646806240082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35821831226349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39471805095673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3687469959259</t>
+    <t xml:space="preserve">1.3764683008194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3582181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39471828937531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36874711513519</t>
   </si>
   <si>
     <t xml:space="preserve">1.40384316444397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40033352375031</t>
+    <t xml:space="preserve">1.40033364295959</t>
   </si>
   <si>
     <t xml:space="preserve">1.42209315299988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43893933296204</t>
+    <t xml:space="preserve">1.43893909454346</t>
   </si>
   <si>
     <t xml:space="preserve">1.44315075874329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43332397937775</t>
+    <t xml:space="preserve">1.43332374095917</t>
   </si>
   <si>
     <t xml:space="preserve">1.44876599311829</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">1.4164776802063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45999670028687</t>
+    <t xml:space="preserve">1.45999681949615</t>
   </si>
   <si>
     <t xml:space="preserve">1.48105442523956</t>
@@ -836,52 +836,52 @@
     <t xml:space="preserve">1.49228513240814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50351595878601</t>
+    <t xml:space="preserve">1.5035160779953</t>
   </si>
   <si>
     <t xml:space="preserve">1.52316999435425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46982383728027</t>
+    <t xml:space="preserve">1.46982371807098</t>
   </si>
   <si>
     <t xml:space="preserve">1.48386228084564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5063236951828</t>
+    <t xml:space="preserve">1.50632357597351</t>
   </si>
   <si>
     <t xml:space="preserve">1.48807370662689</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49368894100189</t>
+    <t xml:space="preserve">1.49368906021118</t>
   </si>
   <si>
     <t xml:space="preserve">1.47965061664581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51193916797638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52036190032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54422748088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54141962528229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53440058231354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54703509807587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53580451011658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54001605510712</t>
+    <t xml:space="preserve">1.51193904876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52036213874817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54422760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54141974449158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53440082073212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54703521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53580439090729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54001593589783</t>
   </si>
   <si>
     <t xml:space="preserve">1.55916237831116</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">1.56494212150574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54615724086761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49413692951202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51436698436737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47679686546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46523678302765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46957194805145</t>
+    <t xml:space="preserve">1.54615747928619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4941371679306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51436710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47679674625397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46523690223694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46957182884216</t>
   </si>
   <si>
     <t xml:space="preserve">1.47101676464081</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">1.45367681980133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.485466837883</t>
+    <t xml:space="preserve">1.48546695709229</t>
   </si>
   <si>
     <t xml:space="preserve">1.49269187450409</t>
@@ -935,25 +935,25 @@
     <t xml:space="preserve">1.49558198451996</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50280702114105</t>
+    <t xml:space="preserve">1.50280690193176</t>
   </si>
   <si>
     <t xml:space="preserve">1.51725709438324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53315210342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51870203018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54037725925446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55627238750458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54326725006104</t>
+    <t xml:space="preserve">1.53315198421478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51870226860046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54037690162659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55627226829529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54326713085175</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014720439911</t>
@@ -962,40 +962,40 @@
     <t xml:space="preserve">1.55338227748871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57939231395721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57650220394135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57505738735199</t>
+    <t xml:space="preserve">1.57939255237579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57650244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57505750656128</t>
   </si>
   <si>
     <t xml:space="preserve">1.58228230476379</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60251259803772</t>
+    <t xml:space="preserve">1.60251247882843</t>
   </si>
   <si>
     <t xml:space="preserve">1.62563252449036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61840748786926</t>
+    <t xml:space="preserve">1.61840760707855</t>
   </si>
   <si>
     <t xml:space="preserve">1.59962248802185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59817743301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62274253368378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65886783599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65742266178131</t>
+    <t xml:space="preserve">1.59817731380463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62274265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65886759757996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65742254257202</t>
   </si>
   <si>
     <t xml:space="preserve">1.65453267097473</t>
@@ -1004,82 +1004,82 @@
     <t xml:space="preserve">1.65597784519196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64152777194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62418746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63141262531281</t>
+    <t xml:space="preserve">1.64152765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.624187707901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63141238689423</t>
   </si>
   <si>
     <t xml:space="preserve">1.64441776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66320276260376</t>
+    <t xml:space="preserve">1.66320264339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.67042791843414</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66609263420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66175758838654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69065773487091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71377801895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72967302799225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69499266147614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68632292747498</t>
+    <t xml:space="preserve">1.66609287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66175770759583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69065797328949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71377789974213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72967314720154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69499289989471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68632304668427</t>
   </si>
   <si>
     <t xml:space="preserve">1.68054282665253</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64297270774841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61696255207062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61262774467468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62129759788513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64008259773254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63863754272461</t>
+    <t xml:space="preserve">1.64297258853912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61696243286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61262762546539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62129747867584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64008295536041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63863778114319</t>
   </si>
   <si>
     <t xml:space="preserve">1.62707769870758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61118257045746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64875257015228</t>
+    <t xml:space="preserve">1.61118233203888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64875280857086</t>
   </si>
   <si>
     <t xml:space="preserve">1.64730763435364</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.697882771492</t>
+    <t xml:space="preserve">1.70366299152374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69788289070129</t>
   </si>
   <si>
     <t xml:space="preserve">1.71088802814484</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">1.69210302829742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67476284503937</t>
+    <t xml:space="preserve">1.67476272583008</t>
   </si>
   <si>
     <t xml:space="preserve">1.65164256095886</t>
@@ -1097,46 +1097,46 @@
     <t xml:space="preserve">1.69932806491852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70655262470245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74412322044373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74990296363831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.784583568573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78891861438751</t>
+    <t xml:space="preserve">1.70655298233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74412310123444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74990320205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78458333015442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78891849517822</t>
   </si>
   <si>
     <t xml:space="preserve">1.78313827514648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77735805511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72244811058044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74267828464508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256313800812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70944285392761</t>
+    <t xml:space="preserve">1.77735829353333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72244799137115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7426780462265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256278038025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70944309234619</t>
   </si>
   <si>
     <t xml:space="preserve">1.74556815624237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76001846790314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79036295413971</t>
+    <t xml:space="preserve">1.76001834869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79036355018616</t>
   </si>
   <si>
     <t xml:space="preserve">1.83660364151001</t>
@@ -1145,37 +1145,37 @@
     <t xml:space="preserve">1.81781852245331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80625808238983</t>
+    <t xml:space="preserve">1.80625855922699</t>
   </si>
   <si>
     <t xml:space="preserve">1.82215344905853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81492853164673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83371365070343</t>
+    <t xml:space="preserve">1.81492877006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83371353149414</t>
   </si>
   <si>
     <t xml:space="preserve">1.85538876056671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86116898059845</t>
+    <t xml:space="preserve">1.86116862297058</t>
   </si>
   <si>
     <t xml:space="preserve">1.85394358634949</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86261379718781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82793343067169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174376010895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87995386123657</t>
+    <t xml:space="preserve">1.86261355876923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82793366909027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174399852753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87995374202728</t>
   </si>
   <si>
     <t xml:space="preserve">1.87706363201141</t>
@@ -1184,37 +1184,37 @@
     <t xml:space="preserve">1.84238362312317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88139867782593</t>
+    <t xml:space="preserve">1.88139891624451</t>
   </si>
   <si>
     <t xml:space="preserve">1.88284373283386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85683333873749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84671854972839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81203830242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81637358665466</t>
+    <t xml:space="preserve">1.85683345794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8467184305191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81203842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81637346744537</t>
   </si>
   <si>
     <t xml:space="preserve">1.80770361423492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83949339389801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90596401691437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89584910869598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83804869651794</t>
+    <t xml:space="preserve">1.83949375152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90596377849579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8958488702774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83804857730865</t>
   </si>
   <si>
     <t xml:space="preserve">1.83226847648621</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">1.86839365959167</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93341898918152</t>
+    <t xml:space="preserve">1.9334192276001</t>
   </si>
   <si>
     <t xml:space="preserve">1.92908406257629</t>
@@ -1235,28 +1235,28 @@
     <t xml:space="preserve">1.95364892482758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97965908050537</t>
+    <t xml:space="preserve">1.97965931892395</t>
   </si>
   <si>
     <t xml:space="preserve">1.94353425502777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90451896190643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8915137052536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88717865943909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88573360443115</t>
+    <t xml:space="preserve">1.90451848506927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89151418209076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88717889785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88573384284973</t>
   </si>
   <si>
     <t xml:space="preserve">1.91896891593933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77013337612152</t>
+    <t xml:space="preserve">1.77013325691223</t>
   </si>
   <si>
     <t xml:space="preserve">1.72822785377502</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">1.7614631652832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71666812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579809188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75279295444489</t>
+    <t xml:space="preserve">1.71666777133942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579821109772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75279331207275</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435303688049</t>
@@ -1280,85 +1280,85 @@
     <t xml:space="preserve">1.72533798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74845790863037</t>
+    <t xml:space="preserve">1.74845814704895</t>
   </si>
   <si>
     <t xml:space="preserve">1.77157819271088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77591300010681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71522307395935</t>
+    <t xml:space="preserve">1.77591323852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71522319316864</t>
   </si>
   <si>
     <t xml:space="preserve">1.75857329368591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80047857761383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.787473320961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7802482843399</t>
+    <t xml:space="preserve">1.80047845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78747344017029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78024816513062</t>
   </si>
   <si>
     <t xml:space="preserve">1.76868832111359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76290810108185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545289039612</t>
+    <t xml:space="preserve">1.76290845870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7354531288147</t>
   </si>
   <si>
     <t xml:space="preserve">1.84093868732452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83515870571136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82648885250092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81059336662292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81348359584808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74701309204102</t>
+    <t xml:space="preserve">1.83515846729279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82648873329163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81059372425079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8134833574295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74701333045959</t>
   </si>
   <si>
     <t xml:space="preserve">1.76724350452423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79903316497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83082365989685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8207083940506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82937848567963</t>
+    <t xml:space="preserve">1.79903340339661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83082377910614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82937860488892</t>
   </si>
   <si>
     <t xml:space="preserve">1.84816360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79758834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77302324771881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73689806461334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73111796379089</t>
+    <t xml:space="preserve">1.79758810997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77302312850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73689794540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73111820220947</t>
   </si>
   <si>
     <t xml:space="preserve">1.68776798248291</t>
@@ -1385,31 +1385,31 @@
     <t xml:space="preserve">1.55049228668213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5606073141098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54904723167419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5302619934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49991691112518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59384250640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62852251529694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.622882604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64376509189606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62586557865143</t>
+    <t xml:space="preserve">1.56060719490051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54904747009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53026223182678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49991714954376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5938423871994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62852275371552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62288248538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64376521110535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62586581707001</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050797462463</t>
@@ -1418,37 +1418,37 @@
     <t xml:space="preserve">1.60796630382538</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752464294434</t>
+    <t xml:space="preserve">1.59752488136292</t>
   </si>
   <si>
     <t xml:space="preserve">1.60498297214508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64525663852692</t>
+    <t xml:space="preserve">1.64525675773621</t>
   </si>
   <si>
     <t xml:space="preserve">1.63332378864288</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64078176021576</t>
+    <t xml:space="preserve">1.64078187942505</t>
   </si>
   <si>
     <t xml:space="preserve">1.67508912086487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68553018569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69000518321991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70342981815338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66912269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65868127346039</t>
+    <t xml:space="preserve">1.68553042411804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6900053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70342969894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66912245750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6586811542511</t>
   </si>
   <si>
     <t xml:space="preserve">1.68254733085632</t>
@@ -1460,91 +1460,94 @@
     <t xml:space="preserve">1.67359745502472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71834599971771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71536266803741</t>
+    <t xml:space="preserve">1.71088790893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71834623813629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7153627872467</t>
   </si>
   <si>
     <t xml:space="preserve">1.70790469646454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69149684906006</t>
+    <t xml:space="preserve">1.69149672985077</t>
   </si>
   <si>
     <t xml:space="preserve">1.66763091087341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67210578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77353608608246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76607799530029</t>
+    <t xml:space="preserve">1.67210590839386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77353596687317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76607763767242</t>
   </si>
   <si>
     <t xml:space="preserve">1.78397727012634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80635154247284</t>
+    <t xml:space="preserve">1.80635142326355</t>
   </si>
   <si>
     <t xml:space="preserve">1.80336833000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73177063465118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75116181373596</t>
+    <t xml:space="preserve">1.73177051544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75116169452667</t>
   </si>
   <si>
     <t xml:space="preserve">1.76309466362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76160275936127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75563681125641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72580397129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044648647308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69895529747009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65569806098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64227330684662</t>
+    <t xml:space="preserve">1.76160311698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75563669204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72580420970917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044660568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6989551782608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65569794178009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64227342605591</t>
   </si>
   <si>
     <t xml:space="preserve">1.63779866695404</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63183200359344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63034057617188</t>
+    <t xml:space="preserve">1.63183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63034045696259</t>
   </si>
   <si>
     <t xml:space="preserve">1.62884891033173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59305000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5915584564209</t>
+    <t xml:space="preserve">1.59304976463318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59155833721161</t>
   </si>
   <si>
     <t xml:space="preserve">1.54233491420746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5065358877182</t>
+    <t xml:space="preserve">1.50653600692749</t>
   </si>
   <si>
     <t xml:space="preserve">1.51996064186096</t>
@@ -1553,7 +1556,7 @@
     <t xml:space="preserve">1.53040206432343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54531824588776</t>
+    <t xml:space="preserve">1.54531812667847</t>
   </si>
   <si>
     <t xml:space="preserve">1.54382646083832</t>
@@ -1562,7 +1565,7 @@
     <t xml:space="preserve">1.54680979251862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60945796966553</t>
+    <t xml:space="preserve">1.60945785045624</t>
   </si>
   <si>
     <t xml:space="preserve">1.66315627098083</t>
@@ -1574,10 +1577,10 @@
     <t xml:space="preserve">1.58857524394989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56172609329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55128467082977</t>
+    <t xml:space="preserve">1.56172597408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55128455162048</t>
   </si>
   <si>
     <t xml:space="preserve">1.56620097160339</t>
@@ -1595,25 +1598,25 @@
     <t xml:space="preserve">1.48789083957672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4931116104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46924567222595</t>
+    <t xml:space="preserve">1.49311172962189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46924555301666</t>
   </si>
   <si>
     <t xml:space="preserve">1.44985461235046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44314217567444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200222492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44910871982574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43941330909729</t>
+    <t xml:space="preserve">1.44314205646515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42002213001251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44910848140717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.439413189888</t>
   </si>
   <si>
     <t xml:space="preserve">1.43419253826141</t>
@@ -1622,58 +1625,58 @@
     <t xml:space="preserve">1.44836294651031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44090485572815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42375123500824</t>
+    <t xml:space="preserve">1.44090473651886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42375111579895</t>
   </si>
   <si>
     <t xml:space="preserve">1.45582103729248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43270087242126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46327912807465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46104180812836</t>
+    <t xml:space="preserve">1.43270099163055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46327900886536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46104156970978</t>
   </si>
   <si>
     <t xml:space="preserve">1.42673444747925</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47968697547913</t>
+    <t xml:space="preserve">1.47968685626984</t>
   </si>
   <si>
     <t xml:space="preserve">1.47148311138153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53338515758514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52592706680298</t>
+    <t xml:space="preserve">1.53338527679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52592718601227</t>
   </si>
   <si>
     <t xml:space="preserve">1.54830133914948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55277633666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52891027927399</t>
+    <t xml:space="preserve">1.55277621746063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52891051769257</t>
   </si>
   <si>
     <t xml:space="preserve">1.50056958198547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5125025510788</t>
+    <t xml:space="preserve">1.51250267028809</t>
   </si>
   <si>
     <t xml:space="preserve">1.46551656723022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4446337223053</t>
+    <t xml:space="preserve">1.44463384151459</t>
   </si>
   <si>
     <t xml:space="preserve">1.45656681060791</t>
@@ -1697,10 +1700,10 @@
     <t xml:space="preserve">1.42897176742554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41703867912292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50355279445648</t>
+    <t xml:space="preserve">1.4170389175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50355291366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.50504434108734</t>
@@ -1709,7 +1712,7 @@
     <t xml:space="preserve">1.49609470367432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49161982536316</t>
+    <t xml:space="preserve">1.49161994457245</t>
   </si>
   <si>
     <t xml:space="preserve">1.55575942993164</t>
@@ -1718,16 +1721,13 @@
     <t xml:space="preserve">1.59603321552277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56321752071381</t>
+    <t xml:space="preserve">1.5632176399231</t>
   </si>
   <si>
     <t xml:space="preserve">1.5691841840744</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6198992729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61840760707855</t>
+    <t xml:space="preserve">1.61989903450012</t>
   </si>
   <si>
     <t xml:space="preserve">1.60199975967407</t>
@@ -1739,13 +1739,13 @@
     <t xml:space="preserve">1.60349130630493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6109493970871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58708357810974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5855917930603</t>
+    <t xml:space="preserve">1.61094951629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58708369731903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58559191226959</t>
   </si>
   <si>
     <t xml:space="preserve">1.55426788330078</t>
@@ -1757,19 +1757,19 @@
     <t xml:space="preserve">1.58260869979858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55725121498108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55874264240265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58111703395844</t>
+    <t xml:space="preserve">1.55725109577179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55874252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58111691474915</t>
   </si>
   <si>
     <t xml:space="preserve">1.6139327287674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69746351242065</t>
+    <t xml:space="preserve">1.69746327400208</t>
   </si>
   <si>
     <t xml:space="preserve">1.70939648151398</t>
@@ -1778,28 +1778,28 @@
     <t xml:space="preserve">1.71387124061584</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6810554265976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70641326904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67956411838531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70193815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69597184658051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72878742218018</t>
+    <t xml:space="preserve">1.68105566501617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70641314983368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67956399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70193839073181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69597160816193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72878730297089</t>
   </si>
   <si>
     <t xml:space="preserve">1.69298851490021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59006679058075</t>
+    <t xml:space="preserve">1.59006667137146</t>
   </si>
   <si>
     <t xml:space="preserve">1.57962536811829</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">1.5602343082428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53636848926544</t>
+    <t xml:space="preserve">1.53636837005615</t>
   </si>
   <si>
     <t xml:space="preserve">1.53189361095428</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">1.56769251823425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63481533527374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65718948841095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66613936424255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65271496772766</t>
+    <t xml:space="preserve">1.63481509685516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65718960762024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66613924503326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65271484851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.72132933139801</t>
@@ -1835,34 +1835,34 @@
     <t xml:space="preserve">1.78994393348694</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78696060180664</t>
+    <t xml:space="preserve">1.78696036338806</t>
   </si>
   <si>
     <t xml:space="preserve">1.77651917934418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77535688877106</t>
+    <t xml:space="preserve">1.77535676956177</t>
   </si>
   <si>
     <t xml:space="preserve">1.77844965457916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78308916091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75679934024811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76762437820435</t>
+    <t xml:space="preserve">1.78308928012848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75679922103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76762449741364</t>
   </si>
   <si>
     <t xml:space="preserve">1.77071738243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81556534767151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83876252174377</t>
+    <t xml:space="preserve">1.81556522846222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83876240253448</t>
   </si>
   <si>
     <t xml:space="preserve">1.85113430023193</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">1.82020485401154</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86041307449341</t>
+    <t xml:space="preserve">1.8604131937027</t>
   </si>
   <si>
     <t xml:space="preserve">1.86659896373749</t>
@@ -1892,34 +1892,34 @@
     <t xml:space="preserve">1.89443564414978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90216791629791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86350607872009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86505270004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85577380657196</t>
+    <t xml:space="preserve">1.90216815471649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86350619792938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86505258083344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85577356815338</t>
   </si>
   <si>
     <t xml:space="preserve">1.82948350906372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78772866725922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82639038562775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85886657238007</t>
+    <t xml:space="preserve">1.78772854804993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82639062404633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85886681079865</t>
   </si>
   <si>
     <t xml:space="preserve">1.8743314743042</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87897098064423</t>
+    <t xml:space="preserve">1.87897086143494</t>
   </si>
   <si>
     <t xml:space="preserve">1.88670325279236</t>
@@ -1928,7 +1928,7 @@
     <t xml:space="preserve">1.88515663146973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88361048698425</t>
+    <t xml:space="preserve">1.88361024856567</t>
   </si>
   <si>
     <t xml:space="preserve">1.87278485298157</t>
@@ -1940,49 +1940,49 @@
     <t xml:space="preserve">1.89288914203644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86195945739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87123835086823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9269118309021</t>
+    <t xml:space="preserve">1.86195969581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87123847007751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92691171169281</t>
   </si>
   <si>
     <t xml:space="preserve">1.91144669055939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90990054607391</t>
+    <t xml:space="preserve">1.90990042686462</t>
   </si>
   <si>
     <t xml:space="preserve">1.91299331188202</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94237661361694</t>
+    <t xml:space="preserve">1.94237637519836</t>
   </si>
   <si>
     <t xml:space="preserve">1.94082999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92072558403015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85268068313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90526103973389</t>
+    <t xml:space="preserve">1.92072582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85268080234528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90526080131531</t>
   </si>
   <si>
     <t xml:space="preserve">1.90062129497528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92381870746613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95474851131439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01196813583374</t>
+    <t xml:space="preserve">1.92381823062897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9547483921051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01196789741516</t>
   </si>
   <si>
     <t xml:space="preserve">2.03361892700195</t>
@@ -1991,34 +1991,34 @@
     <t xml:space="preserve">2.02897930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04908323287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06918787956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05372285842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03980445861816</t>
+    <t xml:space="preserve">2.04908347129822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0691876411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05372262001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03980422019958</t>
   </si>
   <si>
     <t xml:space="preserve">2.04753708839417</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05990862846375</t>
+    <t xml:space="preserve">2.05990886688232</t>
   </si>
   <si>
     <t xml:space="preserve">2.08774542808533</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0970242023468</t>
+    <t xml:space="preserve">2.09702396392822</t>
   </si>
   <si>
     <t xml:space="preserve">2.10784959793091</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08310604095459</t>
+    <t xml:space="preserve">2.08310580253601</t>
   </si>
   <si>
     <t xml:space="preserve">2.10011744499207</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">2.10630297660828</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08001327514648</t>
+    <t xml:space="preserve">2.08001303672791</t>
   </si>
   <si>
     <t xml:space="preserve">2.07073402404785</t>
@@ -2048,10 +2048,10 @@
     <t xml:space="preserve">2.07382702827454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11867475509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15115094184875</t>
+    <t xml:space="preserve">2.11867499351501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15115070343018</t>
   </si>
   <si>
     <t xml:space="preserve">2.12176775932312</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">2.14805817604065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13568639755249</t>
+    <t xml:space="preserve">2.13568615913391</t>
   </si>
   <si>
     <t xml:space="preserve">2.15733695030212</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">2.12950015068054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13413953781128</t>
+    <t xml:space="preserve">2.13413977622986</t>
   </si>
   <si>
     <t xml:space="preserve">2.14341855049133</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">2.14032554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11094284057617</t>
+    <t xml:space="preserve">2.11094236373901</t>
   </si>
   <si>
     <t xml:space="preserve">2.10939598083496</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">2.09238505363464</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12795400619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18362665176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16816210746765</t>
+    <t xml:space="preserve">2.12795376777649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1836268901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16816234588623</t>
   </si>
   <si>
     <t xml:space="preserve">2.17589449882507</t>
@@ -2111,19 +2111,19 @@
     <t xml:space="preserve">2.16970872879028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18053388595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19135975837708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12331461906433</t>
+    <t xml:space="preserve">2.18053412437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1913595199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12331438064575</t>
   </si>
   <si>
     <t xml:space="preserve">2.16042971611023</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17744112014771</t>
+    <t xml:space="preserve">2.17744088172913</t>
   </si>
   <si>
     <t xml:space="preserve">2.14960432052612</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">2.11403560638428</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11558222770691</t>
+    <t xml:space="preserve">2.11558198928833</t>
   </si>
   <si>
     <t xml:space="preserve">2.14496517181396</t>
@@ -2144,10 +2144,10 @@
     <t xml:space="preserve">2.21764945983887</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18517351150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17898750305176</t>
+    <t xml:space="preserve">2.18517327308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17898774147034</t>
   </si>
   <si>
     <t xml:space="preserve">2.21610307693481</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">2.21455669403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23311424255371</t>
+    <t xml:space="preserve">2.23311448097229</t>
   </si>
   <si>
     <t xml:space="preserve">2.28569436073303</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">2.31507778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30425214767456</t>
+    <t xml:space="preserve">2.30425238609314</t>
   </si>
   <si>
     <t xml:space="preserve">2.35837912559509</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33672833442688</t>
+    <t xml:space="preserve">2.33672857284546</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435655593872</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">2.3197169303894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32899594306946</t>
+    <t xml:space="preserve">2.32899618148804</t>
   </si>
   <si>
     <t xml:space="preserve">2.31198453903198</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31817030906677</t>
+    <t xml:space="preserve">2.31817054748535</t>
   </si>
   <si>
     <t xml:space="preserve">2.28260159492493</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3444607257843</t>
+    <t xml:space="preserve">2.34446096420288</t>
   </si>
   <si>
     <t xml:space="preserve">2.33054232597351</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">2.22074246406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22228932380676</t>
+    <t xml:space="preserve">2.22228908538818</t>
   </si>
   <si>
     <t xml:space="preserve">2.26095104217529</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">2.19290566444397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20837044715881</t>
+    <t xml:space="preserve">2.20837068557739</t>
   </si>
   <si>
     <t xml:space="preserve">2.08155941963196</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">1.73669481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71504426002502</t>
+    <t xml:space="preserve">1.71504402160645</t>
   </si>
   <si>
     <t xml:space="preserve">1.45678222179413</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">1.50085699558258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41966664791107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41812038421631</t>
+    <t xml:space="preserve">1.41966676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41812026500702</t>
   </si>
   <si>
     <t xml:space="preserve">1.36863303184509</t>
@@ -2273,16 +2273,16 @@
     <t xml:space="preserve">1.38796401023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38100504875183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47611331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44673013687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56967520713806</t>
+    <t xml:space="preserve">1.38100492954254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47611320018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44673025608063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56967508792877</t>
   </si>
   <si>
     <t xml:space="preserve">1.58513998985291</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">1.66246402263641</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73978793621063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62844145298004</t>
+    <t xml:space="preserve">1.73978769779205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62844133377075</t>
   </si>
   <si>
     <t xml:space="preserve">1.62534844875336</t>
@@ -2315,13 +2315,13 @@
     <t xml:space="preserve">1.62689507007599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61916267871857</t>
+    <t xml:space="preserve">1.61916255950928</t>
   </si>
   <si>
     <t xml:space="preserve">1.66091752052307</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68256831169128</t>
+    <t xml:space="preserve">1.68256819248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.70576536655426</t>
@@ -2330,25 +2330,25 @@
     <t xml:space="preserve">1.69339346885681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69803297519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70421886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72896254062653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73824119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75989210605621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75061309337616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72586965560913</t>
+    <t xml:space="preserve">1.69803285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70421874523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72896265983582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73824107646942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75989198684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75061285495758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72586941719055</t>
   </si>
   <si>
     <t xml:space="preserve">1.68566119670868</t>
@@ -2363,58 +2363,58 @@
     <t xml:space="preserve">1.63617372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65318512916565</t>
+    <t xml:space="preserve">1.65318500995636</t>
   </si>
   <si>
     <t xml:space="preserve">1.67019629478455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67792880535126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72432315349579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74906671047211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.710404753685</t>
+    <t xml:space="preserve">1.67792868614197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7243230342865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74906659126282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71040463447571</t>
   </si>
   <si>
     <t xml:space="preserve">1.69184696674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298487186432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8047399520874</t>
+    <t xml:space="preserve">1.76298499107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80473971366882</t>
   </si>
   <si>
     <t xml:space="preserve">1.85422718524933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84649479389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80628657341003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79391443729401</t>
+    <t xml:space="preserve">1.8464949131012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80628621578217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7939145565033</t>
   </si>
   <si>
     <t xml:space="preserve">1.7212301492691</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74133455753326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79082179069519</t>
+    <t xml:space="preserve">1.74133443832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79082155227661</t>
   </si>
   <si>
     <t xml:space="preserve">1.7970073223114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86666536331177</t>
+    <t xml:space="preserve">1.86666512489319</t>
   </si>
   <si>
     <t xml:space="preserve">1.85700166225433</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">1.79741024971008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80224192142487</t>
+    <t xml:space="preserve">1.80224180221558</t>
   </si>
   <si>
     <t xml:space="preserve">1.77647256851196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79096782207489</t>
+    <t xml:space="preserve">1.79096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">1.81190550327301</t>
@@ -2450,55 +2450,55 @@
     <t xml:space="preserve">1.81673729419708</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77164077758789</t>
+    <t xml:space="preserve">1.77164101600647</t>
   </si>
   <si>
     <t xml:space="preserve">1.77003026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75714540481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74103963375092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73781871795654</t>
+    <t xml:space="preserve">1.75714552402496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74103975296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73781859874725</t>
   </si>
   <si>
     <t xml:space="preserve">1.76841974258423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78774666786194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80868422985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79257845878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75231397151947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72815501689911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73620808124542</t>
+    <t xml:space="preserve">1.78774678707123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80868434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7925785779953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75231385231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72815489768982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73620796203613</t>
   </si>
   <si>
     <t xml:space="preserve">1.73942923545837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70882821083069</t>
+    <t xml:space="preserve">1.7088280916214</t>
   </si>
   <si>
     <t xml:space="preserve">1.71849167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72976577281952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75392460823059</t>
+    <t xml:space="preserve">1.72976565361023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75392436981201</t>
   </si>
   <si>
     <t xml:space="preserve">1.7474821805954</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">1.82317936420441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84411704540253</t>
+    <t xml:space="preserve">1.84411680698395</t>
   </si>
   <si>
     <t xml:space="preserve">1.81351613998413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78613615036011</t>
+    <t xml:space="preserve">1.78613603115082</t>
   </si>
   <si>
     <t xml:space="preserve">1.80707359313965</t>
@@ -2534,34 +2534,34 @@
     <t xml:space="preserve">1.75553500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78452563285828</t>
+    <t xml:space="preserve">1.78452551364899</t>
   </si>
   <si>
     <t xml:space="preserve">1.76197731494904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77486205101013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579961299896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77325129508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73459756374359</t>
+    <t xml:space="preserve">1.77486193180084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77325141429901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7345974445343</t>
   </si>
   <si>
     <t xml:space="preserve">1.73137629032135</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70721745491028</t>
+    <t xml:space="preserve">1.70721733570099</t>
   </si>
   <si>
     <t xml:space="preserve">1.70077514648438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67661654949188</t>
+    <t xml:space="preserve">1.67661643028259</t>
   </si>
   <si>
     <t xml:space="preserve">1.67500591278076</t>
@@ -2570,25 +2570,25 @@
     <t xml:space="preserve">1.66695284843445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65890002250671</t>
+    <t xml:space="preserve">1.658900141716</t>
   </si>
   <si>
     <t xml:space="preserve">1.65245771408081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62668824195862</t>
+    <t xml:space="preserve">1.62668836116791</t>
   </si>
   <si>
     <t xml:space="preserve">1.62829911708832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5751496553421</t>
+    <t xml:space="preserve">1.57514977455139</t>
   </si>
   <si>
     <t xml:space="preserve">1.55582284927368</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57112336158752</t>
+    <t xml:space="preserve">1.57112324237823</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837092876434</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">1.64279413223267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6073614358902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68466925621033</t>
+    <t xml:space="preserve">1.60736155509949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68466937541962</t>
   </si>
   <si>
     <t xml:space="preserve">1.67178475856781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67983758449554</t>
+    <t xml:space="preserve">1.67983770370483</t>
   </si>
   <si>
     <t xml:space="preserve">1.68144822120667</t>
@@ -2630,19 +2630,19 @@
     <t xml:space="preserve">1.6830587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74426078796387</t>
+    <t xml:space="preserve">1.74426090717316</t>
   </si>
   <si>
     <t xml:space="preserve">1.82801127433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894895553589</t>
+    <t xml:space="preserve">1.84894871711731</t>
   </si>
   <si>
     <t xml:space="preserve">1.81029462814331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78130435943604</t>
+    <t xml:space="preserve">1.78130424022675</t>
   </si>
   <si>
     <t xml:space="preserve">1.71365988254547</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">1.68950116634369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69111168384552</t>
+    <t xml:space="preserve">1.69111156463623</t>
   </si>
   <si>
     <t xml:space="preserve">1.69433295726776</t>
@@ -2669,25 +2669,25 @@
     <t xml:space="preserve">1.66534245014191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7217128276825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72493374347687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71688115596771</t>
+    <t xml:space="preserve">1.72171270847321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72493398189545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71688103675842</t>
   </si>
   <si>
     <t xml:space="preserve">1.74265027046204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75070333480835</t>
+    <t xml:space="preserve">1.75070321559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70399630069733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6331307888031</t>
+    <t xml:space="preserve">1.63313090801239</t>
   </si>
   <si>
     <t xml:space="preserve">1.63474130630493</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">1.63957297801971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64762592315674</t>
+    <t xml:space="preserve">1.64762604236603</t>
   </si>
   <si>
     <t xml:space="preserve">1.64923667907715</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">1.69916450977325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72332346439362</t>
+    <t xml:space="preserve">1.72332358360291</t>
   </si>
   <si>
     <t xml:space="preserve">1.74909269809723</t>
@@ -2741,19 +2741,19 @@
     <t xml:space="preserve">1.84572768211365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89565587043762</t>
+    <t xml:space="preserve">1.89565563201904</t>
   </si>
   <si>
     <t xml:space="preserve">1.90854024887085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89887702465057</t>
+    <t xml:space="preserve">1.89887678623199</t>
   </si>
   <si>
     <t xml:space="preserve">1.89726614952087</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8940452337265</t>
+    <t xml:space="preserve">1.89404499530792</t>
   </si>
   <si>
     <t xml:space="preserve">1.88921320438385</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">1.8827713727951</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91176164150238</t>
+    <t xml:space="preserve">1.9117614030838</t>
   </si>
   <si>
     <t xml:space="preserve">1.86988639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88438129425049</t>
+    <t xml:space="preserve">1.88438153266907</t>
   </si>
   <si>
     <t xml:space="preserve">1.92464649677277</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90048730373383</t>
+    <t xml:space="preserve">1.9004875421524</t>
   </si>
   <si>
     <t xml:space="preserve">1.92142486572266</t>
@@ -2792,13 +2792,13 @@
     <t xml:space="preserve">1.95846843719482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94880473613739</t>
+    <t xml:space="preserve">1.94880497455597</t>
   </si>
   <si>
     <t xml:space="preserve">1.95685791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94236266613007</t>
+    <t xml:space="preserve">1.94236242771149</t>
   </si>
   <si>
     <t xml:space="preserve">1.96491074562073</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">2.0148389339447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99551153182983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00678610801697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04382920265198</t>
+    <t xml:space="preserve">1.99551177024841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00678586959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04382944107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.05188226699829</t>
@@ -2828,10 +2828,10 @@
     <t xml:space="preserve">2.01161742210388</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01805973052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01322793960571</t>
+    <t xml:space="preserve">2.01805996894836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01322817802429</t>
   </si>
   <si>
     <t xml:space="preserve">2.032555103302</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">2.07604098320007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05832481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09375715255737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06476664543152</t>
+    <t xml:space="preserve">2.05832457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09375739097595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0647668838501</t>
   </si>
   <si>
     <t xml:space="preserve">2.10664200782776</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">2.10342073440552</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11147356033325</t>
+    <t xml:space="preserve">2.11147379875183</t>
   </si>
   <si>
     <t xml:space="preserve">2.11952686309814</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">2.11791634559631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11738348007202</t>
+    <t xml:space="preserve">2.11738324165344</t>
   </si>
   <si>
     <t xml:space="preserve">2.09565806388855</t>
@@ -2900,19 +2900,19 @@
     <t xml:space="preserve">2.07226157188416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07059025764465</t>
+    <t xml:space="preserve">2.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">2.04218053817749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0187840461731</t>
+    <t xml:space="preserve">2.01878380775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.01209926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01042795181274</t>
+    <t xml:space="preserve">2.01042771339417</t>
   </si>
   <si>
     <t xml:space="preserve">1.99872970581055</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">2.02379727363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.078946352005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05889225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05554986000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06390595436096</t>
+    <t xml:space="preserve">2.07894659042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05889201164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05555009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06390571594238</t>
   </si>
   <si>
     <t xml:space="preserve">2.07393288612366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0889732837677</t>
+    <t xml:space="preserve">2.08897352218628</t>
   </si>
   <si>
     <t xml:space="preserve">2.06724810600281</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">2.13409519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12072563171387</t>
+    <t xml:space="preserve">2.12072587013245</t>
   </si>
   <si>
     <t xml:space="preserve">2.14913606643677</t>
@@ -2975,13 +2975,13 @@
     <t xml:space="preserve">2.12573933601379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16584777832031</t>
+    <t xml:space="preserve">2.16584753990173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17086124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18423080444336</t>
+    <t xml:space="preserve">2.18423056602478</t>
   </si>
   <si>
     <t xml:space="preserve">2.19760012626648</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">2.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24439311027527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25274920463562</t>
+    <t xml:space="preserve">2.24439334869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25274896621704</t>
   </si>
   <si>
     <t xml:space="preserve">2.29787063598633</t>
@@ -3044,22 +3044,22 @@
     <t xml:space="preserve">2.25609135627747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22768115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2226676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21932554244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23937940597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23269486427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25107789039612</t>
+    <t xml:space="preserve">2.22768092155457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22266793251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21932530403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23937964439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23269462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25107765197754</t>
   </si>
   <si>
     <t xml:space="preserve">2.14412236213684</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">2.16250538825989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14245080947876</t>
+    <t xml:space="preserve">2.14245104789734</t>
   </si>
   <si>
     <t xml:space="preserve">2.2009425163269</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">2.0873019695282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11237025260925</t>
+    <t xml:space="preserve">2.11237001419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.26277589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29954218864441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28951478004456</t>
+    <t xml:space="preserve">2.29285740852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29954195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28951501846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946091651917</t>
@@ -3116,25 +3116,25 @@
     <t xml:space="preserve">2.36638927459717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40983963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34800624847412</t>
+    <t xml:space="preserve">2.40983986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34800601005554</t>
   </si>
   <si>
     <t xml:space="preserve">2.36304688453674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38978552818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39312815666199</t>
+    <t xml:space="preserve">2.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39312791824341</t>
   </si>
   <si>
     <t xml:space="preserve">2.3329656124115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34299230575562</t>
+    <t xml:space="preserve">2.34299254417419</t>
   </si>
   <si>
     <t xml:space="preserve">2.31124019622803</t>
@@ -3176,34 +3176,34 @@
     <t xml:space="preserve">2.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19091510772705</t>
+    <t xml:space="preserve">2.19091534614563</t>
   </si>
   <si>
     <t xml:space="preserve">2.24940657615662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20261359214783</t>
+    <t xml:space="preserve">2.20261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">2.20428466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19592881202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.172532081604</t>
+    <t xml:space="preserve">2.19592905044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17253232002258</t>
   </si>
   <si>
     <t xml:space="preserve">2.1157124042511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13075304031372</t>
+    <t xml:space="preserve">2.13075280189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.07727527618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06891942024231</t>
+    <t xml:space="preserve">2.06891918182373</t>
   </si>
   <si>
     <t xml:space="preserve">2.13910865783691</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.22601008415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13743758201599</t>
+    <t xml:space="preserve">2.13743782043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.08061742782593</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">2.06223440170288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00708556175232</t>
+    <t xml:space="preserve">2.0070858001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.98870277404785</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">2.00207209587097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97366189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90347290039062</t>
+    <t xml:space="preserve">1.97366213798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90347266197205</t>
   </si>
   <si>
     <t xml:space="preserve">1.88174748420715</t>
@@ -3269,19 +3269,19 @@
     <t xml:space="preserve">1.92352664470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91684210300446</t>
+    <t xml:space="preserve">1.91684186458588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90180146694183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91851329803467</t>
+    <t xml:space="preserve">1.91851305961609</t>
   </si>
   <si>
     <t xml:space="preserve">1.92185544967651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93689632415771</t>
+    <t xml:space="preserve">1.93689608573914</t>
   </si>
   <si>
     <t xml:space="preserve">1.97867572307587</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">2.1140410900116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08228898048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10401391983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04050898551941</t>
+    <t xml:space="preserve">2.08228874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1040141582489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04050922393799</t>
   </si>
   <si>
     <t xml:space="preserve">2.02881097793579</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">2.05220770835876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97199070453644</t>
+    <t xml:space="preserve">1.97199094295502</t>
   </si>
   <si>
     <t xml:space="preserve">1.99705874919891</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">2.05053639411926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02713990211487</t>
+    <t xml:space="preserve">2.02714014053345</t>
   </si>
   <si>
     <t xml:space="preserve">2.03716683387756</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">2.01377034187317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01544165611267</t>
+    <t xml:space="preserve">2.01544141769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.9352251291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79818832874298</t>
+    <t xml:space="preserve">1.79818820953369</t>
   </si>
   <si>
     <t xml:space="preserve">1.72465646266937</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">1.74471068382263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74303936958313</t>
+    <t xml:space="preserve">1.74303948879242</t>
   </si>
   <si>
     <t xml:space="preserve">1.77479183673859</t>
@@ -3389,16 +3389,16 @@
     <t xml:space="preserve">1.69791769981384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627355575562</t>
+    <t xml:space="preserve">1.70627343654633</t>
   </si>
   <si>
     <t xml:space="preserve">1.73802578449249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79317474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78147661685944</t>
+    <t xml:space="preserve">1.79317462444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78147649765015</t>
   </si>
   <si>
     <t xml:space="preserve">1.7647647857666</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">1.74136829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77312064170837</t>
+    <t xml:space="preserve">1.77312052249908</t>
   </si>
   <si>
     <t xml:space="preserve">1.6427686214447</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">1.66282284259796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028917789459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65697383880615</t>
+    <t xml:space="preserve">1.6502890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65697371959686</t>
   </si>
   <si>
     <t xml:space="preserve">1.66449403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66700088977814</t>
+    <t xml:space="preserve">1.66700077056885</t>
   </si>
   <si>
     <t xml:space="preserve">1.61853659152985</t>
@@ -4608,6 +4608,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.92799997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92999994754791</t>
   </si>
 </sst>
 </file>
@@ -21815,7 +21818,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21841,7 +21844,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21867,7 +21870,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21893,7 +21896,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21919,7 +21922,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21945,7 +21948,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21971,7 +21974,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -21997,7 +22000,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22023,7 +22026,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22049,7 +22052,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22075,7 +22078,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22101,7 +22104,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22127,7 +22130,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22153,7 +22156,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22179,7 +22182,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22205,7 +22208,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22231,7 +22234,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22257,7 +22260,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22283,7 +22286,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22309,7 +22312,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22335,7 +22338,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22361,7 +22364,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22387,7 +22390,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22413,7 +22416,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22439,7 +22442,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22491,7 +22494,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22517,7 +22520,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22569,7 +22572,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22595,7 +22598,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22621,7 +22624,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22647,7 +22650,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22673,7 +22676,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22699,7 +22702,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22725,7 +22728,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22751,7 +22754,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22777,7 +22780,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22803,7 +22806,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22855,7 +22858,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22907,7 +22910,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23011,7 +23014,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23037,7 +23040,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23063,7 +23066,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23089,7 +23092,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23115,7 +23118,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23141,7 +23144,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23167,7 +23170,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23193,7 +23196,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23219,7 +23222,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23245,7 +23248,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23271,7 +23274,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23297,7 +23300,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23323,7 +23326,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23349,7 +23352,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23375,7 +23378,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23401,7 +23404,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23427,7 +23430,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23453,7 +23456,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23479,7 +23482,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23505,7 +23508,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23531,7 +23534,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23557,7 +23560,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23583,7 +23586,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23609,7 +23612,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23635,7 +23638,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23661,7 +23664,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23687,7 +23690,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23713,7 +23716,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23739,7 +23742,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23765,7 +23768,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23791,7 +23794,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23817,7 +23820,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23843,7 +23846,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23869,7 +23872,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23895,7 +23898,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23921,7 +23924,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23947,7 +23950,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23973,7 +23976,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -23999,7 +24002,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24025,7 +24028,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24051,7 +24054,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24077,7 +24080,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24103,7 +24106,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24129,7 +24132,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24155,7 +24158,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24181,7 +24184,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24207,7 +24210,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24233,7 +24236,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24259,7 +24262,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24285,7 +24288,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24311,7 +24314,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24337,7 +24340,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24363,7 +24366,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24389,7 +24392,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24415,7 +24418,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24441,7 +24444,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24467,7 +24470,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24493,7 +24496,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24519,7 +24522,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24545,7 +24548,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24571,7 +24574,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24597,7 +24600,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24623,7 +24626,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24649,7 +24652,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24675,7 +24678,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24701,7 +24704,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24727,7 +24730,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24753,7 +24756,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24779,7 +24782,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24805,7 +24808,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24857,7 +24860,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24883,7 +24886,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24909,7 +24912,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24961,7 +24964,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25039,7 +25042,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25195,7 +25198,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25377,7 +25380,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25403,7 +25406,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25481,7 +25484,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25611,7 +25614,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25689,7 +25692,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25793,7 +25796,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>571</v>
+        <v>322</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25845,7 +25848,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25871,7 +25874,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25897,7 +25900,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25923,7 +25926,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25949,7 +25952,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26027,7 +26030,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26079,7 +26082,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26105,7 +26108,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26209,7 +26212,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26261,7 +26264,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26339,7 +26342,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26469,7 +26472,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26573,7 +26576,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26833,7 +26836,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26859,7 +26862,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26885,7 +26888,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26911,7 +26914,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26963,7 +26966,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27119,7 +27122,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27249,7 +27252,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27327,7 +27330,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27379,7 +27382,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27457,7 +27460,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27561,7 +27564,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27613,7 +27616,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27665,7 +27668,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27691,7 +27694,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27769,7 +27772,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27795,7 +27798,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27899,7 +27902,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -61629,7 +61632,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.649525463</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>2193074</v>
@@ -61650,6 +61653,32 @@
         <v>1531</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6493634259</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>1603373</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>1.93700003623962</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>1.90199995040894</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>1.92499995231628</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>1.92999994754791</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1532</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1536">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,73 +38,73 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980257749557495</t>
+    <t xml:space="preserve">0.980257630348206</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970110177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973492681980133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968080580234528</t>
+    <t xml:space="preserve">0.970110058784485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973492562770844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968080699443817</t>
   </si>
   <si>
     <t xml:space="preserve">0.947108924388885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943049788475037</t>
+    <t xml:space="preserve">0.943049907684326</t>
   </si>
   <si>
     <t xml:space="preserve">0.964698016643524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.949138522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924784064292908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907194972038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883517324924469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89434140920639</t>
+    <t xml:space="preserve">0.949138402938843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924784362316132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907195210456848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883517265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894341468811035</t>
   </si>
   <si>
     <t xml:space="preserve">0.859163105487823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878105223178864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.899076998233795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900430023670197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913283705711365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930872857570648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919372022151947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953873991966248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932902216911316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898400545120239</t>
+    <t xml:space="preserve">0.878105282783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899076879024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900429844856262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913283586502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930872797966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919372081756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953873872756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932902336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89840042591095</t>
   </si>
   <si>
     <t xml:space="preserve">0.885546803474426</t>
@@ -113,49 +113,49 @@
     <t xml:space="preserve">0.859839558601379</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87945830821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866604685783386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.890958905220032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.912607192993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920725107192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938990950584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969433605670929</t>
+    <t xml:space="preserve">0.879458129405975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866604745388031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.890958845615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91260701417923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920724987983704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938990831375122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969433486461639</t>
   </si>
   <si>
     <t xml:space="preserve">0.974169135093689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959962487220764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993111312389374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965374708175659</t>
+    <t xml:space="preserve">0.959962546825409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993111431598663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96537458896637</t>
   </si>
   <si>
     <t xml:space="preserve">0.961992084980011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988375723361969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995140910148621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977551579475403</t>
+    <t xml:space="preserve">0.988375842571259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995140790939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977551817893982</t>
   </si>
   <si>
     <t xml:space="preserve">0.980934321880341</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">0.964021563529968</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00190579891205</t>
+    <t xml:space="preserve">1.00190603733063</t>
   </si>
   <si>
     <t xml:space="preserve">1.01273000240326</t>
@@ -179,25 +179,25 @@
     <t xml:space="preserve">1.06346797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08038067817688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06752705574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07496869564056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05873262882233</t>
+    <t xml:space="preserve">1.08038079738617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06752693653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07496857643127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05873239040375</t>
   </si>
   <si>
     <t xml:space="preserve">1.05196738243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05534970760345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05805575847626</t>
+    <t xml:space="preserve">1.05534994602203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05805587768555</t>
   </si>
   <si>
     <t xml:space="preserve">1.07293903827667</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">1.07361555099487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04993784427643</t>
+    <t xml:space="preserve">1.04993772506714</t>
   </si>
   <si>
     <t xml:space="preserve">1.06211507320404</t>
@@ -218,37 +218,37 @@
     <t xml:space="preserve">1.06279146671295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07564496994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06955659389496</t>
+    <t xml:space="preserve">1.06888020038605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07564508914948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06955635547638</t>
   </si>
   <si>
     <t xml:space="preserve">1.07835114002228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08376348018646</t>
+    <t xml:space="preserve">1.08376312255859</t>
   </si>
   <si>
     <t xml:space="preserve">1.07632160186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06820356845856</t>
+    <t xml:space="preserve">1.06820344924927</t>
   </si>
   <si>
     <t xml:space="preserve">1.05602657794952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03843724727631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05399692058563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08714580535889</t>
+    <t xml:space="preserve">1.0384373664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05399680137634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0871456861496</t>
   </si>
   <si>
     <t xml:space="preserve">1.07970416545868</t>
@@ -257,34 +257,34 @@
     <t xml:space="preserve">1.0925577878952</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0857926607132</t>
+    <t xml:space="preserve">1.08579277992249</t>
   </si>
   <si>
     <t xml:space="preserve">1.08105719089508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08173358440399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06685066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04181969165802</t>
+    <t xml:space="preserve">1.08173370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06685054302216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04181981086731</t>
   </si>
   <si>
     <t xml:space="preserve">1.085116147995</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06008541584015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0458790063858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04520237445831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07226240634918</t>
+    <t xml:space="preserve">1.06008553504944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04587888717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04520225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07226252555847</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202884674072</t>
@@ -293,16 +293,16 @@
     <t xml:space="preserve">1.12908911705017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11623549461365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11014699935913</t>
+    <t xml:space="preserve">1.11623561382294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11014711856842</t>
   </si>
   <si>
     <t xml:space="preserve">1.12705957889557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11555886268616</t>
+    <t xml:space="preserve">1.11555910110474</t>
   </si>
   <si>
     <t xml:space="preserve">1.09999942779541</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">1.11691200733185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11488270759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12164747714996</t>
+    <t xml:space="preserve">1.11488258838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12164759635925</t>
   </si>
   <si>
     <t xml:space="preserve">1.09864628314972</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">1.02626001834869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01678919792175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01340663433075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02761328220367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01076722145081</t>
+    <t xml:space="preserve">1.01678907871246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01340651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0276130437851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01076698303223</t>
   </si>
   <si>
     <t xml:space="preserve">1.02831506729126</t>
@@ -344,55 +344,55 @@
     <t xml:space="preserve">0.953209519386292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920921087265015</t>
+    <t xml:space="preserve">0.920921146869659</t>
   </si>
   <si>
     <t xml:space="preserve">0.948997855186462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940575063228607</t>
+    <t xml:space="preserve">0.940574944019318</t>
   </si>
   <si>
     <t xml:space="preserve">0.97567093372345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981988251209259</t>
+    <t xml:space="preserve">0.981988370418549</t>
   </si>
   <si>
     <t xml:space="preserve">0.986199796199799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954613327980042</t>
+    <t xml:space="preserve">0.954613208770752</t>
   </si>
   <si>
     <t xml:space="preserve">0.948295831680298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961632549762726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9714595079422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978478491306305</t>
+    <t xml:space="preserve">0.961632668972015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97145938873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978478729724884</t>
   </si>
   <si>
     <t xml:space="preserve">0.972161412239075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958122670650482</t>
+    <t xml:space="preserve">0.958122909069061</t>
   </si>
   <si>
     <t xml:space="preserve">0.96724796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973565220832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992517113685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984093964099884</t>
+    <t xml:space="preserve">0.973565101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992517232894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984094083309174</t>
   </si>
   <si>
     <t xml:space="preserve">1.00374782085419</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">1.03182458877563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03322839736938</t>
+    <t xml:space="preserve">1.03322851657867</t>
   </si>
   <si>
     <t xml:space="preserve">1.02129602432251</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">1.0219978094101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03393030166626</t>
+    <t xml:space="preserve">1.03393042087555</t>
   </si>
   <si>
     <t xml:space="preserve">1.03673815727234</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04516112804413</t>
+    <t xml:space="preserve">1.04516124725342</t>
   </si>
   <si>
     <t xml:space="preserve">1.03884398937225</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04235363006592</t>
+    <t xml:space="preserve">1.04235351085663</t>
   </si>
   <si>
     <t xml:space="preserve">1.0248054265976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999536454677582</t>
+    <t xml:space="preserve">0.999536335468292</t>
   </si>
   <si>
     <t xml:space="preserve">0.998132407665253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996026635169983</t>
+    <t xml:space="preserve">0.996026754379272</t>
   </si>
   <si>
     <t xml:space="preserve">0.988305568695068</t>
@@ -455,31 +455,31 @@
     <t xml:space="preserve">1.01427674293518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0353342294693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03954577445984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06341111660004</t>
+    <t xml:space="preserve">1.03533434867859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03954589366913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06341123580933</t>
   </si>
   <si>
     <t xml:space="preserve">1.07113230228424</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04165172576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03814208507538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04656517505646</t>
+    <t xml:space="preserve">1.04165160655975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03814196586609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04656493663788</t>
   </si>
   <si>
     <t xml:space="preserve">1.02901697158813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01568055152893</t>
+    <t xml:space="preserve">1.01568043231964</t>
   </si>
   <si>
     <t xml:space="preserve">1.03603613376617</t>
@@ -494,13 +494,13 @@
     <t xml:space="preserve">1.04586315155029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07534384727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05919969081879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05288243293762</t>
+    <t xml:space="preserve">1.07534372806549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919981002808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05288231372833</t>
   </si>
   <si>
     <t xml:space="preserve">1.01778638362885</t>
@@ -509,13 +509,13 @@
     <t xml:space="preserve">1.02410352230072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03463232517242</t>
+    <t xml:space="preserve">1.03463244438171</t>
   </si>
   <si>
     <t xml:space="preserve">1.08095920085907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10622847080231</t>
+    <t xml:space="preserve">1.10622835159302</t>
   </si>
   <si>
     <t xml:space="preserve">1.10833418369293</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">1.13009369373322</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14413225650787</t>
+    <t xml:space="preserve">1.14413213729858</t>
   </si>
   <si>
     <t xml:space="preserve">1.149045586586</t>
@@ -533,16 +533,16 @@
     <t xml:space="preserve">1.1518532037735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12377655506134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14202654361725</t>
+    <t xml:space="preserve">1.12377631664276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14202642440796</t>
   </si>
   <si>
     <t xml:space="preserve">1.14834368228912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13149750232697</t>
+    <t xml:space="preserve">1.13149738311768</t>
   </si>
   <si>
     <t xml:space="preserve">1.11816108226776</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">1.11605525016785</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09991121292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11394941806793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12167084217072</t>
+    <t xml:space="preserve">1.09991133213043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11394953727722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12167072296143</t>
   </si>
   <si>
     <t xml:space="preserve">1.10482466220856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00585353374481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00164210796356</t>
+    <t xml:space="preserve">1.00585341453552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00164222717285</t>
   </si>
   <si>
     <t xml:space="preserve">0.993920922279358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.982690274715424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989709377288818</t>
+    <t xml:space="preserve">0.982690155506134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989709258079529</t>
   </si>
   <si>
     <t xml:space="preserve">0.980584442615509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.959526598453522</t>
+    <t xml:space="preserve">0.95952695608139</t>
   </si>
   <si>
     <t xml:space="preserve">0.96373838186264</t>
@@ -590,10 +590,10 @@
     <t xml:space="preserve">0.989007472991943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96444034576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01708424091339</t>
+    <t xml:space="preserve">0.964440166950226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01708436012268</t>
   </si>
   <si>
     <t xml:space="preserve">1.01638233661652</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">1.04445934295654</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04796898365021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0641131401062</t>
+    <t xml:space="preserve">1.04796862602234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06411325931549</t>
   </si>
   <si>
     <t xml:space="preserve">1.06621885299683</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.0669207572937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08025729656219</t>
+    <t xml:space="preserve">1.08025741577148</t>
   </si>
   <si>
     <t xml:space="preserve">1.08376693725586</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">1.08236312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06832444667816</t>
+    <t xml:space="preserve">1.06832456588745</t>
   </si>
   <si>
     <t xml:space="preserve">1.08797836303711</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">1.09289181232452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07604575157166</t>
+    <t xml:space="preserve">1.0985072851181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07604587078094</t>
   </si>
   <si>
     <t xml:space="preserve">1.06130540370941</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">1.05568993091583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08166110515594</t>
+    <t xml:space="preserve">1.08166122436523</t>
   </si>
   <si>
     <t xml:space="preserve">1.09499764442444</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">1.10973787307739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1174590587616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10903596878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11114156246185</t>
+    <t xml:space="preserve">1.11745917797089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10903608798981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11114168167114</t>
   </si>
   <si>
     <t xml:space="preserve">1.13921868801117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12447845935822</t>
+    <t xml:space="preserve">1.12447834014893</t>
   </si>
   <si>
     <t xml:space="preserve">1.13641095161438</t>
@@ -701,28 +701,28 @@
     <t xml:space="preserve">1.13219952583313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13711297512054</t>
+    <t xml:space="preserve">1.13711309432983</t>
   </si>
   <si>
     <t xml:space="preserve">1.14272844791412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15115129947662</t>
+    <t xml:space="preserve">1.15115141868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.15466094017029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15255498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18273794651031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24942052364349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241074085236</t>
+    <t xml:space="preserve">1.15255510807037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18273770809174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2494204044342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241062164307</t>
   </si>
   <si>
     <t xml:space="preserve">1.29153573513031</t>
@@ -731,37 +731,37 @@
     <t xml:space="preserve">1.3027663230896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33014118671417</t>
+    <t xml:space="preserve">1.33014130592346</t>
   </si>
   <si>
     <t xml:space="preserve">1.34417974948883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34768927097321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35892033576965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33505487442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33294916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3659393787384</t>
+    <t xml:space="preserve">1.3476893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35892021656036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33505475521088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33294904232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36593925952911</t>
   </si>
   <si>
     <t xml:space="preserve">1.37576627731323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37015092372894</t>
+    <t xml:space="preserve">1.37015080451965</t>
   </si>
   <si>
     <t xml:space="preserve">1.36523747444153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37717008590698</t>
+    <t xml:space="preserve">1.37717020511627</t>
   </si>
   <si>
     <t xml:space="preserve">1.35470867156982</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">1.35330474376678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36242985725403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35400664806366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33575689792633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32242012023926</t>
+    <t xml:space="preserve">1.36242973804474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35400676727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33575677871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32242023944855</t>
   </si>
   <si>
     <t xml:space="preserve">1.36172783374786</t>
@@ -788,34 +788,34 @@
     <t xml:space="preserve">1.3631317615509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37646806240082</t>
+    <t xml:space="preserve">1.37646818161011</t>
   </si>
   <si>
     <t xml:space="preserve">1.35821831226349</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39471817016602</t>
+    <t xml:space="preserve">1.39471828937531</t>
   </si>
   <si>
     <t xml:space="preserve">1.3687469959259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384316444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40033364295959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42209315299988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43893921375275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44315075874329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43332386016846</t>
+    <t xml:space="preserve">1.40384328365326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40033352375031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42209327220917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43893909454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.443150639534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43332374095917</t>
   </si>
   <si>
     <t xml:space="preserve">1.44876611232758</t>
@@ -833,22 +833,22 @@
     <t xml:space="preserve">1.48105442523956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49228525161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50351595878601</t>
+    <t xml:space="preserve">1.49228513240814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5035160779953</t>
   </si>
   <si>
     <t xml:space="preserve">1.52316999435425</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46982383728027</t>
+    <t xml:space="preserve">1.46982371807098</t>
   </si>
   <si>
     <t xml:space="preserve">1.48386228084564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5063236951828</t>
+    <t xml:space="preserve">1.50632357597351</t>
   </si>
   <si>
     <t xml:space="preserve">1.48807370662689</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">1.49368917942047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4796507358551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51193904876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52036190032959</t>
+    <t xml:space="preserve">1.47965049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51193916797638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52036201953888</t>
   </si>
   <si>
     <t xml:space="preserve">1.54422748088837</t>
@@ -881,7 +881,7 @@
     <t xml:space="preserve">1.535804271698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54001593589783</t>
+    <t xml:space="preserve">1.54001605510712</t>
   </si>
   <si>
     <t xml:space="preserve">1.55916225910187</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">1.56494212150574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54615724086761</t>
+    <t xml:space="preserve">1.5461573600769</t>
   </si>
   <si>
     <t xml:space="preserve">1.49413704872131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51436698436737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47679698467255</t>
+    <t xml:space="preserve">1.51436710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47679686546326</t>
   </si>
   <si>
     <t xml:space="preserve">1.46523690223694</t>
@@ -911,64 +911,64 @@
     <t xml:space="preserve">1.46957182884216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47101676464081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47246205806732</t>
+    <t xml:space="preserve">1.4710168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47246193885803</t>
   </si>
   <si>
     <t xml:space="preserve">1.45367693901062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.485466837883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49269187450409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50858700275421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50425207614899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49558198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50280690193176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51725709438324</t>
+    <t xml:space="preserve">1.48546695709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4926917552948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5085871219635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5042519569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49558186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50280702114105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51725697517395</t>
   </si>
   <si>
     <t xml:space="preserve">1.53315198421478</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51870214939117</t>
+    <t xml:space="preserve">1.51870203018188</t>
   </si>
   <si>
     <t xml:space="preserve">1.54037714004517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55627238750458</t>
+    <t xml:space="preserve">1.55627226829529</t>
   </si>
   <si>
     <t xml:space="preserve">1.54326725006104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5201473236084</t>
+    <t xml:space="preserve">1.52014708518982</t>
   </si>
   <si>
     <t xml:space="preserve">1.55338227748871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57939231395721</t>
+    <t xml:space="preserve">1.5793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">1.57650232315063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57505750656128</t>
+    <t xml:space="preserve">1.57505738735199</t>
   </si>
   <si>
     <t xml:space="preserve">1.58228242397308</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">1.62563252449036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61840748786926</t>
+    <t xml:space="preserve">1.61840760707855</t>
   </si>
   <si>
     <t xml:space="preserve">1.59962248802185</t>
@@ -989,43 +989,43 @@
     <t xml:space="preserve">1.59817731380463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62274253368378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65886795520782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65742266178131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65453255176544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65597760677338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64152777194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62418746948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63141250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64441776275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66320264339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67042768001556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66609263420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66175782680511</t>
+    <t xml:space="preserve">1.62274265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65886783599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65742242336273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65453279018402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65597748756409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64152765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62418758869171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63141262531281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64441764354706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66320300102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67042779922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66609287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66175770759583</t>
   </si>
   <si>
     <t xml:space="preserve">1.6906578540802</t>
@@ -1034,46 +1034,46 @@
     <t xml:space="preserve">1.71377801895142</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72967314720154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69499289989471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68632328510284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68054282665253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64297270774841</t>
+    <t xml:space="preserve">1.72967302799225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69499278068542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68632292747498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68054294586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64297258853912</t>
   </si>
   <si>
     <t xml:space="preserve">1.61696243286133</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61262762546539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62129759788513</t>
+    <t xml:space="preserve">1.61262726783752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62129747867584</t>
   </si>
   <si>
     <t xml:space="preserve">1.64008259773254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63863742351532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62707781791687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61118257045746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64875268936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64730763435364</t>
+    <t xml:space="preserve">1.63863754272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62707757949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61118268966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64875280857086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64730775356293</t>
   </si>
   <si>
     <t xml:space="preserve">1.70366287231445</t>
@@ -1082,16 +1082,16 @@
     <t xml:space="preserve">1.69788289070129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71088802814484</t>
+    <t xml:space="preserve">1.71088814735413</t>
   </si>
   <si>
     <t xml:space="preserve">1.69210290908813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67476296424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65164256095886</t>
+    <t xml:space="preserve">1.67476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65164279937744</t>
   </si>
   <si>
     <t xml:space="preserve">1.69932782649994</t>
@@ -1100,85 +1100,85 @@
     <t xml:space="preserve">1.70655298233032</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74412310123444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7499030828476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78458333015442</t>
+    <t xml:space="preserve">1.74412322044373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74990320205688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78458321094513</t>
   </si>
   <si>
     <t xml:space="preserve">1.78891849517822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78313839435577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77735829353333</t>
+    <t xml:space="preserve">1.78313827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77735841274261</t>
   </si>
   <si>
     <t xml:space="preserve">1.72244799137115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74267816543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256325721741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70944309234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74556815624237</t>
+    <t xml:space="preserve">1.7426780462265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256313800812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7094429731369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74556803703308</t>
   </si>
   <si>
     <t xml:space="preserve">1.76001822948456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79036319255829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83660364151001</t>
+    <t xml:space="preserve">1.79036331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8366037607193</t>
   </si>
   <si>
     <t xml:space="preserve">1.81781852245331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80625855922699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82215368747711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81492877006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83371341228485</t>
+    <t xml:space="preserve">1.8062584400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82215344905853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81492865085602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83371365070343</t>
   </si>
   <si>
     <t xml:space="preserve">1.85538876056671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86116874217987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85394382476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86261391639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82793343067169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174399852753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87995362281799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87706387042999</t>
+    <t xml:space="preserve">1.861168384552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85394370555878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86261367797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82793354988098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174376010895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87995398044586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87706363201141</t>
   </si>
   <si>
     <t xml:space="preserve">1.84238338470459</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">1.88284373283386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85683333873749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84671878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81203830242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81637334823608</t>
+    <t xml:space="preserve">1.85683381557465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84671831130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81203842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81637346744537</t>
   </si>
   <si>
     <t xml:space="preserve">1.80770361423492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83949363231659</t>
+    <t xml:space="preserve">1.83949375152588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90596377849579</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">1.8958488702774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83804845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83226847648621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86839365959167</t>
+    <t xml:space="preserve">1.83804833889008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8322685956955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86839354038239</t>
   </si>
   <si>
     <t xml:space="preserve">1.9334192276001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92908406257629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94642388820648</t>
+    <t xml:space="preserve">1.92908430099487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94642412662506</t>
   </si>
   <si>
     <t xml:space="preserve">1.95364892482758</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">1.97965908050537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94353401660919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90451872348785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8915137052536</t>
+    <t xml:space="preserve">1.94353425502777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90451896190643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89151394367218</t>
   </si>
   <si>
     <t xml:space="preserve">1.88717889785767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88573384284973</t>
+    <t xml:space="preserve">1.88573360443115</t>
   </si>
   <si>
     <t xml:space="preserve">1.91896891593933</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">1.77013325691223</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72822785377502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76146304607391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71666812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579833030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75279319286346</t>
+    <t xml:space="preserve">1.7282280921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76146292686462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71666777133942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579809188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75279295444489</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435315608978</t>
@@ -1286,37 +1286,37 @@
     <t xml:space="preserve">1.77157819271088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77591288089752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71522307395935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7585734128952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047845840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78747344017029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7802482843399</t>
+    <t xml:space="preserve">1.77591335773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71522283554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75857305526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047833919525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78747320175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78024816513062</t>
   </si>
   <si>
     <t xml:space="preserve">1.7686882019043</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76290810108185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84093844890594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83515846729279</t>
+    <t xml:space="preserve">1.76290833950043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73545324802399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84093856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83515870571136</t>
   </si>
   <si>
     <t xml:space="preserve">1.82648849487305</t>
@@ -1325,16 +1325,16 @@
     <t xml:space="preserve">1.8105936050415</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81348359584808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74701297283173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76724350452423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79903340339661</t>
+    <t xml:space="preserve">1.81348347663879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74701321125031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76724338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79903328418732</t>
   </si>
   <si>
     <t xml:space="preserve">1.83082365989685</t>
@@ -1343,31 +1343,31 @@
     <t xml:space="preserve">1.8207083940506</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8293788433075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84816372394562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79758834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77302348613739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73689794540405</t>
+    <t xml:space="preserve">1.82937836647034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84816360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79758822917938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77302324771881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73689806461334</t>
   </si>
   <si>
     <t xml:space="preserve">1.73111796379089</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68776774406433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67765295505524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67620766162872</t>
+    <t xml:space="preserve">1.68776786327362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67765271663666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6762079000473</t>
   </si>
   <si>
     <t xml:space="preserve">1.60973739624023</t>
@@ -1376,25 +1376,25 @@
     <t xml:space="preserve">1.5678323507309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5230370759964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5345972776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049228668213</t>
+    <t xml:space="preserve">1.52303719520569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53459715843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049204826355</t>
   </si>
   <si>
     <t xml:space="preserve">1.5606073141098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5490471124649</t>
+    <t xml:space="preserve">1.54904723167419</t>
   </si>
   <si>
     <t xml:space="preserve">1.53026211261749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49991691112518</t>
+    <t xml:space="preserve">1.49991714954376</t>
   </si>
   <si>
     <t xml:space="preserve">1.59384250640869</t>
@@ -1403,22 +1403,22 @@
     <t xml:space="preserve">1.62852263450623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.622882604599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64376497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62586557865143</t>
+    <t xml:space="preserve">1.62288248538971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64376485347748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62586569786072</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050797462463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60796630382538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752464294434</t>
+    <t xml:space="preserve">1.60796618461609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752488136292</t>
   </si>
   <si>
     <t xml:space="preserve">1.60498297214508</t>
@@ -1430,46 +1430,46 @@
     <t xml:space="preserve">1.63332390785217</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64078176021576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67508900165558</t>
+    <t xml:space="preserve">1.64078199863434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67508912086487</t>
   </si>
   <si>
     <t xml:space="preserve">1.68553030490875</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69000542163849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70342981815338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66912269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6586811542511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68254709243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68403875827789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67359757423401</t>
+    <t xml:space="preserve">1.6900053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70342993736267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66912245750427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65868139266968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68254721164703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68403887748718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67359733581543</t>
   </si>
   <si>
     <t xml:space="preserve">1.71088790893555</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71834576129913</t>
+    <t xml:space="preserve">1.71834588050842</t>
   </si>
   <si>
     <t xml:space="preserve">1.7153627872467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70790457725525</t>
+    <t xml:space="preserve">1.70790469646454</t>
   </si>
   <si>
     <t xml:space="preserve">1.69149672985077</t>
@@ -1478,16 +1478,16 @@
     <t xml:space="preserve">1.6676310300827</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67210590839386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77353620529175</t>
+    <t xml:space="preserve">1.67210602760315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77353608608246</t>
   </si>
   <si>
     <t xml:space="preserve">1.76607799530029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78397727012634</t>
+    <t xml:space="preserve">1.78397738933563</t>
   </si>
   <si>
     <t xml:space="preserve">1.80635154247284</t>
@@ -1496,7 +1496,7 @@
     <t xml:space="preserve">1.80336833000183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73177063465118</t>
+    <t xml:space="preserve">1.73177051544189</t>
   </si>
   <si>
     <t xml:space="preserve">1.75116169452667</t>
@@ -1505,49 +1505,49 @@
     <t xml:space="preserve">1.76309478282928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76160311698914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75563681125641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72580397129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044648647308</t>
+    <t xml:space="preserve">1.76160299777985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75563657283783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72580420970917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044660568237</t>
   </si>
   <si>
     <t xml:space="preserve">1.69895529747009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65569806098938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64227330684662</t>
+    <t xml:space="preserve">1.65569829940796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64227366447449</t>
   </si>
   <si>
     <t xml:space="preserve">1.63779878616333</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63183200359344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63034045696259</t>
+    <t xml:space="preserve">1.63183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63034069538116</t>
   </si>
   <si>
     <t xml:space="preserve">1.62884891033173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59304988384247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59155857563019</t>
+    <t xml:space="preserve">1.59305000305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5915584564209</t>
   </si>
   <si>
     <t xml:space="preserve">1.54233503341675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50653600692749</t>
+    <t xml:space="preserve">1.50653612613678</t>
   </si>
   <si>
     <t xml:space="preserve">1.51996064186096</t>
@@ -1562,28 +1562,28 @@
     <t xml:space="preserve">1.54382646083832</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54680979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60945785045624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66315627098083</t>
+    <t xml:space="preserve">1.54680967330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60945796966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66315639019012</t>
   </si>
   <si>
     <t xml:space="preserve">1.61691606044769</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5885751247406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56172621250153</t>
+    <t xml:space="preserve">1.58857524394989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56172597408295</t>
   </si>
   <si>
     <t xml:space="preserve">1.55128455162048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56620097160339</t>
+    <t xml:space="preserve">1.5662008523941</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664227485657</t>
@@ -1595,43 +1595,43 @@
     <t xml:space="preserve">1.57067573070526</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48789083957672</t>
+    <t xml:space="preserve">1.48789072036743</t>
   </si>
   <si>
     <t xml:space="preserve">1.49311149120331</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46924555301666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44985461235046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44314217567444</t>
+    <t xml:space="preserve">1.46924543380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44985437393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44314205646515</t>
   </si>
   <si>
     <t xml:space="preserve">1.42002213001251</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44910860061646</t>
+    <t xml:space="preserve">1.44910848140717</t>
   </si>
   <si>
     <t xml:space="preserve">1.439413189888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43419253826141</t>
+    <t xml:space="preserve">1.43419229984283</t>
   </si>
   <si>
     <t xml:space="preserve">1.44836294651031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44090485572815</t>
+    <t xml:space="preserve">1.44090473651886</t>
   </si>
   <si>
     <t xml:space="preserve">1.42375123500824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45582103729248</t>
+    <t xml:space="preserve">1.45582091808319</t>
   </si>
   <si>
     <t xml:space="preserve">1.43270087242126</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.47968697547913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47148311138153</t>
+    <t xml:space="preserve">1.47148299217224</t>
   </si>
   <si>
     <t xml:space="preserve">1.53338527679443</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.52592718601227</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54830121994019</t>
+    <t xml:space="preserve">1.54830145835876</t>
   </si>
   <si>
     <t xml:space="preserve">1.55277621746063</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.52891039848328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50056982040405</t>
+    <t xml:space="preserve">1.50056970119476</t>
   </si>
   <si>
     <t xml:space="preserve">1.51250267028809</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">1.46551656723022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44463384151459</t>
+    <t xml:space="preserve">1.4446337223053</t>
   </si>
   <si>
     <t xml:space="preserve">1.45656681060791</t>
@@ -1685,31 +1685,31 @@
     <t xml:space="preserve">1.4617874622345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44687128067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47297465801239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45060050487518</t>
+    <t xml:space="preserve">1.44687116146088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4729745388031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45060038566589</t>
   </si>
   <si>
     <t xml:space="preserve">1.40212261676788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42897176742554</t>
+    <t xml:space="preserve">1.42897164821625</t>
   </si>
   <si>
     <t xml:space="preserve">1.41703879833221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50355267524719</t>
+    <t xml:space="preserve">1.50355291366577</t>
   </si>
   <si>
     <t xml:space="preserve">1.50504446029663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49609482288361</t>
+    <t xml:space="preserve">1.49609470367432</t>
   </si>
   <si>
     <t xml:space="preserve">1.49161994457245</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">1.55575942993164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59603321552277</t>
+    <t xml:space="preserve">1.59603345394135</t>
   </si>
   <si>
     <t xml:space="preserve">1.5632176399231</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">1.61989915370941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61840760707855</t>
+    <t xml:space="preserve">1.61840784549713</t>
   </si>
   <si>
     <t xml:space="preserve">1.60199964046478</t>
@@ -1742,25 +1742,25 @@
     <t xml:space="preserve">1.60349142551422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6109493970871</t>
+    <t xml:space="preserve">1.61094951629639</t>
   </si>
   <si>
     <t xml:space="preserve">1.58708357810974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58559167385101</t>
+    <t xml:space="preserve">1.5855917930603</t>
   </si>
   <si>
     <t xml:space="preserve">1.55426800251007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57365882396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58260869979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55725109577179</t>
+    <t xml:space="preserve">1.57365894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58260858058929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725121498108</t>
   </si>
   <si>
     <t xml:space="preserve">1.55874264240265</t>
@@ -1769,79 +1769,79 @@
     <t xml:space="preserve">1.58111691474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61393260955811</t>
+    <t xml:space="preserve">1.61393284797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.69746351242065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939636230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71387147903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68105554580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70641338825226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67956411838531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70193827152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69597184658051</t>
+    <t xml:space="preserve">1.7093962430954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71387124061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68105566501617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70641314983368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67956399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7019385099411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69597172737122</t>
   </si>
   <si>
     <t xml:space="preserve">1.72878742218018</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69298839569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59006667137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962548732758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5602343082428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53636837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.531893491745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56769263744354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63481521606445</t>
+    <t xml:space="preserve">1.6929886341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59006679058075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962536811829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56023442745209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53636848926544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53189361095428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56769251823425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63481533527374</t>
   </si>
   <si>
     <t xml:space="preserve">1.65718960762024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66613924503326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65271496772766</t>
+    <t xml:space="preserve">1.66613936424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65271484851837</t>
   </si>
   <si>
     <t xml:space="preserve">1.7213294506073</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78994393348694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78696072101593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77651906013489</t>
+    <t xml:space="preserve">1.78994405269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78696084022522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77651917934418</t>
   </si>
   <si>
     <t xml:space="preserve">1.77535688877106</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">1.77844977378845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78308916091919</t>
+    <t xml:space="preserve">1.78308928012848</t>
   </si>
   <si>
     <t xml:space="preserve">1.75679922103882</t>
@@ -1874,13 +1874,13 @@
     <t xml:space="preserve">1.83257639408112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82020485401154</t>
+    <t xml:space="preserve">1.82020473480225</t>
   </si>
   <si>
     <t xml:space="preserve">1.86041295528412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86659896373749</t>
+    <t xml:space="preserve">1.86659920215607</t>
   </si>
   <si>
     <t xml:space="preserve">1.88824963569641</t>
@@ -1895,13 +1895,13 @@
     <t xml:space="preserve">1.89443564414978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90216791629791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86350631713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86505270004272</t>
+    <t xml:space="preserve">1.90216815471649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86350607872009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86505246162415</t>
   </si>
   <si>
     <t xml:space="preserve">1.85577380657196</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">1.82948350906372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78772854804993</t>
+    <t xml:space="preserve">1.78772878646851</t>
   </si>
   <si>
     <t xml:space="preserve">1.82639050483704</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">1.86195969581604</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87123847007751</t>
+    <t xml:space="preserve">1.87123870849609</t>
   </si>
   <si>
     <t xml:space="preserve">1.92691171169281</t>
@@ -1967,16 +1967,16 @@
     <t xml:space="preserve">1.94082999229431</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92072558403015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85268068313599</t>
+    <t xml:space="preserve">1.92072582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85268092155457</t>
   </si>
   <si>
     <t xml:space="preserve">1.90526080131531</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90062129497528</t>
+    <t xml:space="preserve">1.90062153339386</t>
   </si>
   <si>
     <t xml:space="preserve">1.92381870746613</t>
@@ -1994,19 +1994,19 @@
     <t xml:space="preserve">2.02897930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04908347129822</t>
+    <t xml:space="preserve">2.04908323287964</t>
   </si>
   <si>
     <t xml:space="preserve">2.06918787956238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05372285842896</t>
+    <t xml:space="preserve">2.05372262001038</t>
   </si>
   <si>
     <t xml:space="preserve">2.03980422019958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04753684997559</t>
+    <t xml:space="preserve">2.04753708839417</t>
   </si>
   <si>
     <t xml:space="preserve">2.05990862846375</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">2.08310580253601</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10011720657349</t>
+    <t xml:space="preserve">2.10011744499207</t>
   </si>
   <si>
     <t xml:space="preserve">2.10630297660828</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">2.07073402404785</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07537341117859</t>
+    <t xml:space="preserve">2.07537364959717</t>
   </si>
   <si>
     <t xml:space="preserve">2.0413510799408</t>
@@ -2045,13 +2045,13 @@
     <t xml:space="preserve">2.06764125823975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06454849243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07382678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11867475509644</t>
+    <t xml:space="preserve">2.06454825401306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07382702827454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11867499351501</t>
   </si>
   <si>
     <t xml:space="preserve">2.15115094184875</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">2.13413977622986</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14341855049133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14032554626465</t>
+    <t xml:space="preserve">2.14341878890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14032530784607</t>
   </si>
   <si>
     <t xml:space="preserve">2.11094260215759</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">2.10939598083496</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09238481521606</t>
+    <t xml:space="preserve">2.09238505363464</t>
   </si>
   <si>
     <t xml:space="preserve">2.12795376777649</t>
@@ -2096,28 +2096,28 @@
     <t xml:space="preserve">2.1836268901825</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16816234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17589473724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16506910324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13723254203796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104701042175</t>
+    <t xml:space="preserve">2.16816210746765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17589449882507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16506934165955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13723278045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104653358459</t>
   </si>
   <si>
     <t xml:space="preserve">2.16970872879028</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18053388595581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19135975837708</t>
+    <t xml:space="preserve">2.18053412437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1913595199585</t>
   </si>
   <si>
     <t xml:space="preserve">2.12331461906433</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">2.14496493339539</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21764945983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18517351150513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17898750305176</t>
+    <t xml:space="preserve">2.21764922142029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18517327308655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17898774147034</t>
   </si>
   <si>
     <t xml:space="preserve">2.21610307693481</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">2.21455669403076</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23311424255371</t>
+    <t xml:space="preserve">2.23311448097229</t>
   </si>
   <si>
     <t xml:space="preserve">2.28569436073303</t>
@@ -2171,19 +2171,19 @@
     <t xml:space="preserve">2.31507778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30425238609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35837912559509</t>
+    <t xml:space="preserve">2.30425214767456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35837888717651</t>
   </si>
   <si>
     <t xml:space="preserve">2.33672833442688</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32435655593872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3197169303894</t>
+    <t xml:space="preserve">2.3243567943573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31971716880798</t>
   </si>
   <si>
     <t xml:space="preserve">2.32899594306946</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">2.33054232597351</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32744956016541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31353139877319</t>
+    <t xml:space="preserve">2.32744932174683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31353116035461</t>
   </si>
   <si>
     <t xml:space="preserve">2.35992550849915</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40168046951294</t>
+    <t xml:space="preserve">2.40168023109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.37539029121399</t>
@@ -2225,16 +2225,16 @@
     <t xml:space="preserve">2.22074246406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22228908538818</t>
+    <t xml:space="preserve">2.2222888469696</t>
   </si>
   <si>
     <t xml:space="preserve">2.26095104217529</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23775410652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12640738487244</t>
+    <t xml:space="preserve">2.23775386810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12640714645386</t>
   </si>
   <si>
     <t xml:space="preserve">2.19290590286255</t>
@@ -2252,10 +2252,10 @@
     <t xml:space="preserve">1.73669481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71504426002502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45678222179413</t>
+    <t xml:space="preserve">1.71504414081573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45678210258484</t>
   </si>
   <si>
     <t xml:space="preserve">1.50085687637329</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">1.44673025608063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56967520713806</t>
+    <t xml:space="preserve">1.56967532634735</t>
   </si>
   <si>
     <t xml:space="preserve">1.58513998985291</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6624641418457</t>
+    <t xml:space="preserve">1.66246402263641</t>
   </si>
   <si>
     <t xml:space="preserve">1.73978781700134</t>
@@ -2300,31 +2300,31 @@
     <t xml:space="preserve">1.62844145298004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62534856796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61297655105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64081335067749</t>
+    <t xml:space="preserve">1.62534844875336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6129766702652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6408132314682</t>
   </si>
   <si>
     <t xml:space="preserve">1.63926661014557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63153421878815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689507007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61916267871857</t>
+    <t xml:space="preserve">1.63153433799744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6268949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61916255950928</t>
   </si>
   <si>
     <t xml:space="preserve">1.66091740131378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68256831169128</t>
+    <t xml:space="preserve">1.68256819248199</t>
   </si>
   <si>
     <t xml:space="preserve">1.70576536655426</t>
@@ -2336,31 +2336,31 @@
     <t xml:space="preserve">1.69803309440613</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70421874523163</t>
+    <t xml:space="preserve">1.70421862602234</t>
   </si>
   <si>
     <t xml:space="preserve">1.72896254062653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73824119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7598922252655</t>
+    <t xml:space="preserve">1.738241314888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75989210605621</t>
   </si>
   <si>
     <t xml:space="preserve">1.75061309337616</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72586977481842</t>
+    <t xml:space="preserve">1.72586941719055</t>
   </si>
   <si>
     <t xml:space="preserve">1.68566119670868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65473163127899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66710340976715</t>
+    <t xml:space="preserve">1.65473175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66710329055786</t>
   </si>
   <si>
     <t xml:space="preserve">1.63617372512817</t>
@@ -2372,13 +2372,13 @@
     <t xml:space="preserve">1.67019629478455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67792880535126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72432315349579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74906671047211</t>
+    <t xml:space="preserve">1.67792892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72432327270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74906659126282</t>
   </si>
   <si>
     <t xml:space="preserve">1.71040463447571</t>
@@ -2387,10 +2387,10 @@
     <t xml:space="preserve">1.69184696674347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76298487186432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80474019050598</t>
+    <t xml:space="preserve">1.76298499107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8047399520874</t>
   </si>
   <si>
     <t xml:space="preserve">1.85422718524933</t>
@@ -2405,64 +2405,64 @@
     <t xml:space="preserve">1.79391443729401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72123003005981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74133455753326</t>
+    <t xml:space="preserve">1.7212301492691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74133443832397</t>
   </si>
   <si>
     <t xml:space="preserve">1.7908216714859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7970073223114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86666536331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85700166225433</t>
+    <t xml:space="preserve">1.79700744152069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86666524410248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85700178146362</t>
   </si>
   <si>
     <t xml:space="preserve">1.80063140392303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78291487693787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79741036891937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80224192142487</t>
+    <t xml:space="preserve">1.78291499614716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79741013050079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80224168300629</t>
   </si>
   <si>
     <t xml:space="preserve">1.77647256851196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7909677028656</t>
+    <t xml:space="preserve">1.79096794128418</t>
   </si>
   <si>
     <t xml:space="preserve">1.81190538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82156896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82479023933411</t>
+    <t xml:space="preserve">1.82156884670258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82479012012482</t>
   </si>
   <si>
     <t xml:space="preserve">1.81673717498779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77164077758789</t>
+    <t xml:space="preserve">1.77164101600647</t>
   </si>
   <si>
     <t xml:space="preserve">1.77003026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75714540481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74103963375092</t>
+    <t xml:space="preserve">1.75714552402496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74103975296021</t>
   </si>
   <si>
     <t xml:space="preserve">1.73781859874725</t>
@@ -2471,28 +2471,28 @@
     <t xml:space="preserve">1.76841986179352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78774666786194</t>
+    <t xml:space="preserve">1.78774690628052</t>
   </si>
   <si>
     <t xml:space="preserve">1.80868422985077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79257833957672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75231397151947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72815501689911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73620808124542</t>
+    <t xml:space="preserve">1.79257845878601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75231385231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72815489768982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73620796203613</t>
   </si>
   <si>
     <t xml:space="preserve">1.73942923545837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70882821083069</t>
+    <t xml:space="preserve">1.7088280916214</t>
   </si>
   <si>
     <t xml:space="preserve">1.71849167346954</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">1.72976565361023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7539244890213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7474821805954</t>
+    <t xml:space="preserve">1.75392436981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74748229980469</t>
   </si>
   <si>
     <t xml:space="preserve">1.7668092250824</t>
@@ -2519,52 +2519,52 @@
     <t xml:space="preserve">1.84411692619324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81351613998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78613615036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80707359313965</t>
+    <t xml:space="preserve">1.81351602077484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78613603115082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80707347393036</t>
   </si>
   <si>
     <t xml:space="preserve">1.77808320522308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7651983499527</t>
+    <t xml:space="preserve">1.76519846916199</t>
   </si>
   <si>
     <t xml:space="preserve">1.75553500652313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78452563285828</t>
+    <t xml:space="preserve">1.78452551364899</t>
   </si>
   <si>
     <t xml:space="preserve">1.76197731494904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77486193180084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579961299896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77325129508972</t>
+    <t xml:space="preserve">1.77486181259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7732515335083</t>
   </si>
   <si>
     <t xml:space="preserve">1.7345974445343</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73137640953064</t>
+    <t xml:space="preserve">1.73137629032135</t>
   </si>
   <si>
     <t xml:space="preserve">1.70721733570099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70077526569366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67661654949188</t>
+    <t xml:space="preserve">1.70077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67661643028259</t>
   </si>
   <si>
     <t xml:space="preserve">1.67500579357147</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">1.62668836116791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62829911708832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5751496553421</t>
+    <t xml:space="preserve">1.62829899787903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57514977455139</t>
   </si>
   <si>
     <t xml:space="preserve">1.55582284927368</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">1.57837092876434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59608733654022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62507772445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64279425144196</t>
+    <t xml:space="preserve">1.59608721733093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62507784366608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64279413223267</t>
   </si>
   <si>
     <t xml:space="preserve">1.6073614358902</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">1.68466937541962</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67178463935852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67983746528625</t>
+    <t xml:space="preserve">1.67178475856781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67983758449554</t>
   </si>
   <si>
     <t xml:space="preserve">1.68144822120667</t>
@@ -2633,16 +2633,16 @@
     <t xml:space="preserve">1.6830587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74426078796387</t>
+    <t xml:space="preserve">1.74426090717316</t>
   </si>
   <si>
     <t xml:space="preserve">1.82801127433777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84894895553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81029462814331</t>
+    <t xml:space="preserve">1.8489488363266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8102947473526</t>
   </si>
   <si>
     <t xml:space="preserve">1.78130424022675</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">1.71365988254547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71043884754181</t>
+    <t xml:space="preserve">1.71043872833252</t>
   </si>
   <si>
     <t xml:space="preserve">1.71204924583435</t>
@@ -2666,25 +2666,25 @@
     <t xml:space="preserve">1.69111156463623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69433295726776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6653425693512</t>
+    <t xml:space="preserve">1.69433283805847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66534245014191</t>
   </si>
   <si>
     <t xml:space="preserve">1.7217128276825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72493374347687</t>
+    <t xml:space="preserve">1.72493398189545</t>
   </si>
   <si>
     <t xml:space="preserve">1.71688103675842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74265027046204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75070345401764</t>
+    <t xml:space="preserve">1.74265038967133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75070321559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70399630069733</t>
@@ -2693,19 +2693,19 @@
     <t xml:space="preserve">1.6331307888031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63474130630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63957297801971</t>
+    <t xml:space="preserve">1.63474142551422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.639573097229</t>
   </si>
   <si>
     <t xml:space="preserve">1.64762604236603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64923655986786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63796257972717</t>
+    <t xml:space="preserve">1.64923679828644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63796246051788</t>
   </si>
   <si>
     <t xml:space="preserve">1.66212117671967</t>
@@ -2714,22 +2714,22 @@
     <t xml:space="preserve">1.68789041042328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7152704000473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560705661774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69272243976593</t>
+    <t xml:space="preserve">1.71527051925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70560693740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69272232055664</t>
   </si>
   <si>
     <t xml:space="preserve">1.6637316942215</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69916450977325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72332346439362</t>
+    <t xml:space="preserve">1.69916462898254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72332358360291</t>
   </si>
   <si>
     <t xml:space="preserve">1.74909257888794</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">1.8038524389267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84572768211365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89565587043762</t>
+    <t xml:space="preserve">1.84572756290436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89565563201904</t>
   </si>
   <si>
     <t xml:space="preserve">1.90854024887085</t>
@@ -2753,10 +2753,10 @@
     <t xml:space="preserve">1.89887678623199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89726638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8940452337265</t>
+    <t xml:space="preserve">1.89726614952087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89404499530792</t>
   </si>
   <si>
     <t xml:space="preserve">1.88921320438385</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">1.88277113437653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91176164150238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86988639831543</t>
+    <t xml:space="preserve">1.9117614030838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86988627910614</t>
   </si>
   <si>
     <t xml:space="preserve">1.88438153266907</t>
@@ -2789,19 +2789,19 @@
     <t xml:space="preserve">1.93108856678009</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91981446743011</t>
+    <t xml:space="preserve">1.9198145866394</t>
   </si>
   <si>
     <t xml:space="preserve">1.95846843719482</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94880497455597</t>
+    <t xml:space="preserve">1.94880521297455</t>
   </si>
   <si>
     <t xml:space="preserve">1.95685791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94236266613007</t>
+    <t xml:space="preserve">1.94236242771149</t>
   </si>
   <si>
     <t xml:space="preserve">1.96491074562073</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">2.00678586959839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04382920265198</t>
+    <t xml:space="preserve">2.04382944107056</t>
   </si>
   <si>
     <t xml:space="preserve">2.05188226699829</t>
@@ -2837,16 +2837,16 @@
     <t xml:space="preserve">2.01322817802429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03255534172058</t>
+    <t xml:space="preserve">2.032555103302</t>
   </si>
   <si>
     <t xml:space="preserve">2.07604098320007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05832481384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09375715255737</t>
+    <t xml:space="preserve">2.05832457542419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09375739097595</t>
   </si>
   <si>
     <t xml:space="preserve">2.0647668838501</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">2.10825252532959</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11469459533691</t>
+    <t xml:space="preserve">2.11469483375549</t>
   </si>
   <si>
     <t xml:space="preserve">2.10986304283142</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">2.05510330200195</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05671405792236</t>
+    <t xml:space="preserve">2.05671381950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.06798815727234</t>
@@ -2876,13 +2876,13 @@
     <t xml:space="preserve">2.0776515007019</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1034209728241</t>
+    <t xml:space="preserve">2.10342073440552</t>
   </si>
   <si>
     <t xml:space="preserve">2.11147379875183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11952686309814</t>
+    <t xml:space="preserve">2.11952662467957</t>
   </si>
   <si>
     <t xml:space="preserve">2.13080072402954</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">2.11791634559631</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11738348007202</t>
+    <t xml:space="preserve">2.11738324165344</t>
   </si>
   <si>
     <t xml:space="preserve">2.09565806388855</t>
@@ -2903,19 +2903,19 @@
     <t xml:space="preserve">2.07226157188416</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07059025764465</t>
+    <t xml:space="preserve">2.07059049606323</t>
   </si>
   <si>
     <t xml:space="preserve">2.04218053817749</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0187840461731</t>
+    <t xml:space="preserve">2.01878380775452</t>
   </si>
   <si>
     <t xml:space="preserve">2.01209926605225</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01042795181274</t>
+    <t xml:space="preserve">2.01042771339417</t>
   </si>
   <si>
     <t xml:space="preserve">1.99872970581055</t>
@@ -2927,22 +2927,22 @@
     <t xml:space="preserve">2.02379727363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.078946352005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05889225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05554986000061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06390595436096</t>
+    <t xml:space="preserve">2.07894659042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05889201164246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05555009841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06390571594238</t>
   </si>
   <si>
     <t xml:space="preserve">2.07393288612366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0889732837677</t>
+    <t xml:space="preserve">2.08897352218628</t>
   </si>
   <si>
     <t xml:space="preserve">2.06724810600281</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">2.13409519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12072563171387</t>
+    <t xml:space="preserve">2.12072587013245</t>
   </si>
   <si>
     <t xml:space="preserve">2.14913606643677</t>
@@ -2978,13 +2978,13 @@
     <t xml:space="preserve">2.12573933601379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16584777832031</t>
+    <t xml:space="preserve">2.16584753990173</t>
   </si>
   <si>
     <t xml:space="preserve">2.17086124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18423080444336</t>
+    <t xml:space="preserve">2.18423056602478</t>
   </si>
   <si>
     <t xml:space="preserve">2.19760012626648</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">2.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24439311027527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25274920463562</t>
+    <t xml:space="preserve">2.24439334869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25274896621704</t>
   </si>
   <si>
     <t xml:space="preserve">2.29787063598633</t>
@@ -3047,22 +3047,22 @@
     <t xml:space="preserve">2.25609135627747</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22768115997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2226676940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21932554244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23937940597534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23269486427307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25107789039612</t>
+    <t xml:space="preserve">2.22768092155457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22266793251038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21932530403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23937964439392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23269462585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25107765197754</t>
   </si>
   <si>
     <t xml:space="preserve">2.14412236213684</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">2.16250538825989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14245080947876</t>
+    <t xml:space="preserve">2.14245104789734</t>
   </si>
   <si>
     <t xml:space="preserve">2.2009425163269</t>
@@ -3086,19 +3086,19 @@
     <t xml:space="preserve">2.0873019695282</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11237025260925</t>
+    <t xml:space="preserve">2.11237001419067</t>
   </si>
   <si>
     <t xml:space="preserve">2.26277589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29954218864441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28951478004456</t>
+    <t xml:space="preserve">2.29285740852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29954195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28951501846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946091651917</t>
@@ -3119,25 +3119,25 @@
     <t xml:space="preserve">2.36638927459717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40983963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34800624847412</t>
+    <t xml:space="preserve">2.40983986854553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34800601005554</t>
   </si>
   <si>
     <t xml:space="preserve">2.36304688453674</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38978552818298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39312815666199</t>
+    <t xml:space="preserve">2.38978576660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39312791824341</t>
   </si>
   <si>
     <t xml:space="preserve">2.3329656124115</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34299230575562</t>
+    <t xml:space="preserve">2.34299254417419</t>
   </si>
   <si>
     <t xml:space="preserve">2.31124019622803</t>
@@ -3179,34 +3179,34 @@
     <t xml:space="preserve">2.17587471008301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19091510772705</t>
+    <t xml:space="preserve">2.19091534614563</t>
   </si>
   <si>
     <t xml:space="preserve">2.24940657615662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20261359214783</t>
+    <t xml:space="preserve">2.20261335372925</t>
   </si>
   <si>
     <t xml:space="preserve">2.20428466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19592881202698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.172532081604</t>
+    <t xml:space="preserve">2.19592905044556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17253232002258</t>
   </si>
   <si>
     <t xml:space="preserve">2.1157124042511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13075304031372</t>
+    <t xml:space="preserve">2.13075280189514</t>
   </si>
   <si>
     <t xml:space="preserve">2.07727527618408</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06891942024231</t>
+    <t xml:space="preserve">2.06891918182373</t>
   </si>
   <si>
     <t xml:space="preserve">2.13910865783691</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">2.22601008415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13743758201599</t>
+    <t xml:space="preserve">2.13743782043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.08061742782593</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">2.06223440170288</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00708556175232</t>
+    <t xml:space="preserve">2.0070858001709</t>
   </si>
   <si>
     <t xml:space="preserve">1.98870277404785</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">2.00207209587097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97366189956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90347290039062</t>
+    <t xml:space="preserve">1.97366213798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90347266197205</t>
   </si>
   <si>
     <t xml:space="preserve">1.88174748420715</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">1.92352664470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91684210300446</t>
+    <t xml:space="preserve">1.91684186458588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90180146694183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91851329803467</t>
+    <t xml:space="preserve">1.91851305961609</t>
   </si>
   <si>
     <t xml:space="preserve">1.92185544967651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93689632415771</t>
+    <t xml:space="preserve">1.93689608573914</t>
   </si>
   <si>
     <t xml:space="preserve">1.97867572307587</t>
@@ -3317,13 +3317,13 @@
     <t xml:space="preserve">2.1140410900116</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08228898048401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10401391983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04050898551941</t>
+    <t xml:space="preserve">2.08228874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1040141582489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04050922393799</t>
   </si>
   <si>
     <t xml:space="preserve">2.02881097793579</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">2.05220770835876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97199070453644</t>
+    <t xml:space="preserve">1.97199094295502</t>
   </si>
   <si>
     <t xml:space="preserve">1.99705874919891</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">2.05053639411926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02713990211487</t>
+    <t xml:space="preserve">2.02714014053345</t>
   </si>
   <si>
     <t xml:space="preserve">2.03716683387756</t>
@@ -3362,13 +3362,13 @@
     <t xml:space="preserve">2.01377034187317</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01544165611267</t>
+    <t xml:space="preserve">2.01544141769409</t>
   </si>
   <si>
     <t xml:space="preserve">1.9352251291275</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79818832874298</t>
+    <t xml:space="preserve">1.79818820953369</t>
   </si>
   <si>
     <t xml:space="preserve">1.72465646266937</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">1.74471068382263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74303936958313</t>
+    <t xml:space="preserve">1.74303948879242</t>
   </si>
   <si>
     <t xml:space="preserve">1.77479183673859</t>
@@ -3392,16 +3392,16 @@
     <t xml:space="preserve">1.69791769981384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70627355575562</t>
+    <t xml:space="preserve">1.70627343654633</t>
   </si>
   <si>
     <t xml:space="preserve">1.73802578449249</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79317474365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78147661685944</t>
+    <t xml:space="preserve">1.79317462444305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78147649765015</t>
   </si>
   <si>
     <t xml:space="preserve">1.7647647857666</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">1.74136829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77312064170837</t>
+    <t xml:space="preserve">1.77312052249908</t>
   </si>
   <si>
     <t xml:space="preserve">1.6427686214447</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">1.66282284259796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65028917789459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65697383880615</t>
+    <t xml:space="preserve">1.6502890586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65697371959686</t>
   </si>
   <si>
     <t xml:space="preserve">1.66449403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66700088977814</t>
+    <t xml:space="preserve">1.66700077056885</t>
   </si>
   <si>
     <t xml:space="preserve">1.61853659152985</t>
@@ -4617,6 +4617,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.91199994087219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89900004863739</t>
   </si>
 </sst>
 </file>
@@ -61690,7 +61693,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6494444444</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>1490075</v>
@@ -61711,6 +61714,32 @@
         <v>1534</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6494097222</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>2205226</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>1.91499996185303</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>1.87600004673004</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>1.91199994087219</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>1.89900004863739</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="1537">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,184 +44,184 @@
     <t xml:space="preserve">IRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97010999917984</t>
+    <t xml:space="preserve">0.970110177993774</t>
   </si>
   <si>
     <t xml:space="preserve">0.973492622375488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968080818653107</t>
+    <t xml:space="preserve">0.968080580234528</t>
   </si>
   <si>
     <t xml:space="preserve">0.947108864784241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943049907684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964698076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949138462543488</t>
+    <t xml:space="preserve">0.943050026893616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964698016643524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949138402938843</t>
   </si>
   <si>
     <t xml:space="preserve">0.924784123897552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907195031642914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883517205715179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89434140920639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859163165092468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878105223178864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89907705783844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900429964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91328364610672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930872797966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919372081756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953873872756958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932902157306671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.898400545120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885546982288361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859839618206024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87945830821991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866604566574097</t>
+    <t xml:space="preserve">0.907195150852203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883517265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894341468811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859163105487823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878105282783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899076879024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900430023670197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913283586502075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930872976779938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919372141361237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953874051570892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932902038097382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.89840042591095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885546743869781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859839558601379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.879458248615265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866604685783386</t>
   </si>
   <si>
     <t xml:space="preserve">0.890958845615387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912607133388519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.920725107192993</t>
+    <t xml:space="preserve">0.91260701417923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.920725226402283</t>
   </si>
   <si>
     <t xml:space="preserve">0.938990831375122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.969433605670929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974169254302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959962546825409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993111312389374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.965374648571014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961992144584656</t>
+    <t xml:space="preserve">0.969433665275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974169313907623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959962606430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993111252784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96537458896637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961992025375366</t>
   </si>
   <si>
     <t xml:space="preserve">0.988375723361969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.995140910148621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977551877498627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980934143066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95184451341629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964021623134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00190579891205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01273000240326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04926121234894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06346797943115</t>
+    <t xml:space="preserve">0.995140850543976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977551758289337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980934202671051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951844453811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964021503925323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00190591812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01272988319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04926133155823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06346809864044</t>
   </si>
   <si>
     <t xml:space="preserve">1.08038079738617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06752693653107</t>
+    <t xml:space="preserve">1.06752681732178</t>
   </si>
   <si>
     <t xml:space="preserve">1.07496857643127</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05873239040375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05196738243103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05534994602203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05805587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07293903827667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06549739837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07361578941345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04993808269501</t>
+    <t xml:space="preserve">1.05873250961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05196750164032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05534982681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05805599689484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07293915748596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06549775600433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07361567020416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04993784427643</t>
   </si>
   <si>
     <t xml:space="preserve">1.06211495399475</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06279146671295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06888008117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07564496994019</t>
+    <t xml:space="preserve">1.06279158592224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06888020038605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07564508914948</t>
   </si>
   <si>
     <t xml:space="preserve">1.06955659389496</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">1.08376324176788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07632172107697</t>
+    <t xml:space="preserve">1.07632160186768</t>
   </si>
   <si>
     <t xml:space="preserve">1.06820344924927</t>
@@ -242,22 +242,22 @@
     <t xml:space="preserve">1.05602645874023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0384373664856</t>
+    <t xml:space="preserve">1.03843724727631</t>
   </si>
   <si>
     <t xml:space="preserve">1.05399692058563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08714592456818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07970404624939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0925577878952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08579254150391</t>
+    <t xml:space="preserve">1.08714580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07970428466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09255790710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0857926607132</t>
   </si>
   <si>
     <t xml:space="preserve">1.08105707168579</t>
@@ -266,16 +266,16 @@
     <t xml:space="preserve">1.08173358440399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06685078144073</t>
+    <t xml:space="preserve">1.06685066223145</t>
   </si>
   <si>
     <t xml:space="preserve">1.04181969165802</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08511602878571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06008565425873</t>
+    <t xml:space="preserve">1.08511626720428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06008553504944</t>
   </si>
   <si>
     <t xml:space="preserve">1.04587888717651</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">1.04520237445831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07226252555847</t>
+    <t xml:space="preserve">1.07226264476776</t>
   </si>
   <si>
     <t xml:space="preserve">1.10202884674072</t>
@@ -293,34 +293,34 @@
     <t xml:space="preserve">1.12908899784088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11623561382294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11014699935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12705969810486</t>
+    <t xml:space="preserve">1.11623537540436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11014688014984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12705957889557</t>
   </si>
   <si>
     <t xml:space="preserve">1.11555898189545</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09999942779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11691200733185</t>
+    <t xml:space="preserve">1.09999966621399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11691212654114</t>
   </si>
   <si>
     <t xml:space="preserve">1.11488246917725</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12164759635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09864616394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02626001834869</t>
+    <t xml:space="preserve">1.12164735794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09864628314972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02626025676727</t>
   </si>
   <si>
     <t xml:space="preserve">1.01678907871246</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">1.01340651512146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02761328220367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01076698303223</t>
+    <t xml:space="preserve">1.02761316299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01076722145081</t>
   </si>
   <si>
     <t xml:space="preserve">1.02831518650055</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0086612701416</t>
+    <t xml:space="preserve">1.00866138935089</t>
   </si>
   <si>
     <t xml:space="preserve">0.953209578990936</t>
@@ -350,28 +350,28 @@
     <t xml:space="preserve">0.948997914791107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.940574884414673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97567093372345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981988191604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.986199676990509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.954613268375397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948296070098877</t>
+    <t xml:space="preserve">0.940574824810028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975670874118805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981988310813904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986199796199799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.954613208770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948295891284943</t>
   </si>
   <si>
     <t xml:space="preserve">0.961632490158081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9714595079422</t>
+    <t xml:space="preserve">0.971459329128265</t>
   </si>
   <si>
     <t xml:space="preserve">0.978478848934174</t>
@@ -380,37 +380,37 @@
     <t xml:space="preserve">0.97216135263443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.958122909069061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.967247784137726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97356516122818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992517173290253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984093964099884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0037477016449</t>
+    <t xml:space="preserve">0.958122968673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967248022556305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.973565101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992517232894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984094023704529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00374782085419</t>
   </si>
   <si>
     <t xml:space="preserve">1.0009400844574</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01287281513214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01357471942902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03182482719421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03322863578796</t>
+    <t xml:space="preserve">1.01287257671356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01357483863831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03182470798492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03322851657867</t>
   </si>
   <si>
     <t xml:space="preserve">1.02129590511322</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">1.02199792861938</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03393042087555</t>
+    <t xml:space="preserve">1.03393054008484</t>
   </si>
   <si>
     <t xml:space="preserve">1.03673815727234</t>
@@ -428,22 +428,22 @@
     <t xml:space="preserve">1.04516112804413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03884398937225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04235351085663</t>
+    <t xml:space="preserve">1.03884387016296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235339164734</t>
   </si>
   <si>
     <t xml:space="preserve">1.0248054265976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999536395072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998132526874542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.996026635169983</t>
+    <t xml:space="preserve">0.999536275863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998132407665253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.996026754379272</t>
   </si>
   <si>
     <t xml:space="preserve">0.988305449485779</t>
@@ -452,100 +452,100 @@
     <t xml:space="preserve">1.00234401226044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01427686214447</t>
+    <t xml:space="preserve">1.01427674293518</t>
   </si>
   <si>
     <t xml:space="preserve">1.03533434867859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03954589366913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06341135501862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07113242149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165148735046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03814196586609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04656517505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02901709079742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01568043231964</t>
+    <t xml:space="preserve">1.03954577445984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06341111660004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07113230228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165160655975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0381418466568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04656493663788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02901697158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01568055152893</t>
   </si>
   <si>
     <t xml:space="preserve">1.03603613376617</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0269113779068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02269971370697</t>
+    <t xml:space="preserve">1.02691125869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02269983291626</t>
   </si>
   <si>
     <t xml:space="preserve">1.04586315155029</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07534396648407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0591995716095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05288231372833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01778638362885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02410364151001</t>
+    <t xml:space="preserve">1.07534384727478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919969081879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05288243293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01778626441956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02410352230072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03463244438171</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08095920085907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10622823238373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10833418369293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1300938129425</t>
+    <t xml:space="preserve">1.08095908164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10622835159302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10833406448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13009369373322</t>
   </si>
   <si>
     <t xml:space="preserve">1.14413213729858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14904582500458</t>
+    <t xml:space="preserve">1.149045586586</t>
   </si>
   <si>
     <t xml:space="preserve">1.1518532037735</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12377643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14202642440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14834380149841</t>
+    <t xml:space="preserve">1.12377631664276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14202630519867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14834368228912</t>
   </si>
   <si>
     <t xml:space="preserve">1.13149750232697</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11816108226776</t>
+    <t xml:space="preserve">1.11816120147705</t>
   </si>
   <si>
     <t xml:space="preserve">1.11605525016785</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">1.09991109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11394941806793</t>
+    <t xml:space="preserve">1.11394953727722</t>
   </si>
   <si>
     <t xml:space="preserve">1.12167060375214</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">1.10482454299927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00585353374481</t>
+    <t xml:space="preserve">1.0058536529541</t>
   </si>
   <si>
     <t xml:space="preserve">1.00164210796356</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993920862674713</t>
+    <t xml:space="preserve">0.993920981884003</t>
   </si>
   <si>
     <t xml:space="preserve">0.982690155506134</t>
@@ -578,52 +578,52 @@
     <t xml:space="preserve">0.989709496498108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980584383010864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959526658058167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.963738262653351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989007413387299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964439988136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01708447933197</t>
+    <t xml:space="preserve">0.980584502220154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959526717662811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96373838186264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989007353782654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964440166950226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01708424091339</t>
   </si>
   <si>
     <t xml:space="preserve">1.01638245582581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02971887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04445946216583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04796886444092</t>
+    <t xml:space="preserve">1.02971911430359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04445922374725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04796898365021</t>
   </si>
   <si>
     <t xml:space="preserve">1.0641131401062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06621897220612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0669207572937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08025729656219</t>
+    <t xml:space="preserve">1.06621885299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06692087650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08025741577148</t>
   </si>
   <si>
     <t xml:space="preserve">1.08376693725586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09218990802765</t>
+    <t xml:space="preserve">1.09219002723694</t>
   </si>
   <si>
     <t xml:space="preserve">1.09710335731506</t>
@@ -635,22 +635,22 @@
     <t xml:space="preserve">1.06832468509674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08797836303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10131502151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10201692581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10552656650543</t>
+    <t xml:space="preserve">1.0879784822464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1013149023056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10201680660248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10552668571472</t>
   </si>
   <si>
     <t xml:space="preserve">1.10271883010864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09289193153381</t>
+    <t xml:space="preserve">1.09289181232452</t>
   </si>
   <si>
     <t xml:space="preserve">1.0985072851181</t>
@@ -662,13 +662,13 @@
     <t xml:space="preserve">1.06130540370941</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05569016933441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08166122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09499764442444</t>
+    <t xml:space="preserve">1.05569005012512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08166110515594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09499752521515</t>
   </si>
   <si>
     <t xml:space="preserve">1.07464194297791</t>
@@ -677,16 +677,16 @@
     <t xml:space="preserve">1.10973799228668</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11745917797089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10903596878052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11114168167114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13921880722046</t>
+    <t xml:space="preserve">1.11745929718018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1090362071991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11114180088043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13921868801117</t>
   </si>
   <si>
     <t xml:space="preserve">1.12447834014893</t>
@@ -701,61 +701,61 @@
     <t xml:space="preserve">1.13219952583313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13711297512054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14272832870483</t>
+    <t xml:space="preserve">1.13711285591125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14272820949554</t>
   </si>
   <si>
     <t xml:space="preserve">1.15115129947662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15466094017029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15255510807037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18273770809174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24942028522491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28241074085236</t>
+    <t xml:space="preserve">1.15466105937958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15255534648895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18273782730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24942016601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28241062164307</t>
   </si>
   <si>
     <t xml:space="preserve">1.29153573513031</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30276644229889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33014130592346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34417974948883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34768950939178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35892021656036</t>
+    <t xml:space="preserve">1.30276620388031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33014142513275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34417986869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3476893901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35892009735107</t>
   </si>
   <si>
     <t xml:space="preserve">1.33505475521088</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33294916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36593949794769</t>
+    <t xml:space="preserve">1.33294904232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36593925952911</t>
   </si>
   <si>
     <t xml:space="preserve">1.37576627731323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37015092372894</t>
+    <t xml:space="preserve">1.37015104293823</t>
   </si>
   <si>
     <t xml:space="preserve">1.36523759365082</t>
@@ -764,37 +764,37 @@
     <t xml:space="preserve">1.37717008590698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35470855236053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35330486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36242985725403</t>
+    <t xml:space="preserve">1.35470867156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35330474376678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36242973804474</t>
   </si>
   <si>
     <t xml:space="preserve">1.35400664806366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33575665950775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32242012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36172783374786</t>
+    <t xml:space="preserve">1.33575677871704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32242023944855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36172795295715</t>
   </si>
   <si>
     <t xml:space="preserve">1.36313164234161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37646806240082</t>
+    <t xml:space="preserve">1.37646818161011</t>
   </si>
   <si>
     <t xml:space="preserve">1.3582181930542</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39471817016602</t>
+    <t xml:space="preserve">1.39471805095673</t>
   </si>
   <si>
     <t xml:space="preserve">1.36874711513519</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">1.42209315299988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43893921375275</t>
+    <t xml:space="preserve">1.43893909454346</t>
   </si>
   <si>
     <t xml:space="preserve">1.443150639534</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">1.44876599311829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40314126014709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41647756099701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45999670028687</t>
+    <t xml:space="preserve">1.40314114093781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4164776802063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45999681949615</t>
   </si>
   <si>
     <t xml:space="preserve">1.48105442523956</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">1.49228513240814</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50351595878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52316987514496</t>
+    <t xml:space="preserve">1.50351583957672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52316975593567</t>
   </si>
   <si>
     <t xml:space="preserve">1.46982371807098</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48386228084564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50632357597351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48807370662689</t>
+    <t xml:space="preserve">1.48386240005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5063236951828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4880735874176</t>
   </si>
   <si>
     <t xml:space="preserve">1.49368906021118</t>
@@ -863,91 +863,91 @@
     <t xml:space="preserve">1.51193916797638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52036225795746</t>
+    <t xml:space="preserve">1.52036201953888</t>
   </si>
   <si>
     <t xml:space="preserve">1.54422748088837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54141974449158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53440070152283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54703521728516</t>
+    <t xml:space="preserve">1.54141986370087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53440058231354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54703509807587</t>
   </si>
   <si>
     <t xml:space="preserve">1.53580439090729</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54001569747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55916213989258</t>
+    <t xml:space="preserve">1.54001593589783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55916237831116</t>
   </si>
   <si>
     <t xml:space="preserve">1.55771720409393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56494235992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5461573600769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49413704872131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51436722278595</t>
+    <t xml:space="preserve">1.56494224071503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54615724086761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49413692951202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51436698436737</t>
   </si>
   <si>
     <t xml:space="preserve">1.47679686546326</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46523690223694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46957170963287</t>
+    <t xml:space="preserve">1.46523678302765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46957182884216</t>
   </si>
   <si>
     <t xml:space="preserve">1.47101676464081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47246193885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45367693901062</t>
+    <t xml:space="preserve">1.47246205806732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45367681980133</t>
   </si>
   <si>
     <t xml:space="preserve">1.485466837883</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49269199371338</t>
+    <t xml:space="preserve">1.49269187450409</t>
   </si>
   <si>
     <t xml:space="preserve">1.50858700275421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50425219535828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49558198451996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50280702114105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51725697517395</t>
+    <t xml:space="preserve">1.5042519569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49558186531067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50280690193176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51725709438324</t>
   </si>
   <si>
     <t xml:space="preserve">1.53315210342407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51870214939117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54037725925446</t>
+    <t xml:space="preserve">1.51870203018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54037714004517</t>
   </si>
   <si>
     <t xml:space="preserve">1.55627238750458</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">1.54326713085175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52014708518982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.553382396698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57939255237579</t>
+    <t xml:space="preserve">1.52014720439911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55338227748871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5793924331665</t>
   </si>
   <si>
     <t xml:space="preserve">1.57650244235992</t>
@@ -971,19 +971,19 @@
     <t xml:space="preserve">1.57505738735199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58228242397308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60251235961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62563240528107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61840760707855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59962236881256</t>
+    <t xml:space="preserve">1.58228230476379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60251247882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62563252449036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61840748786926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59962248802185</t>
   </si>
   <si>
     <t xml:space="preserve">1.59817743301392</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">1.62274253368378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65886783599854</t>
+    <t xml:space="preserve">1.65886771678925</t>
   </si>
   <si>
     <t xml:space="preserve">1.65742266178131</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">1.65453267097473</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65597772598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64152789115906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62418735027313</t>
+    <t xml:space="preserve">1.65597808361053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64152765274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62418758869171</t>
   </si>
   <si>
     <t xml:space="preserve">1.63141250610352</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">1.64441776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66320288181305</t>
+    <t xml:space="preserve">1.66320264339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.67042779922485</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">1.66609275341034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66175746917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69065773487091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71377801895142</t>
+    <t xml:space="preserve">1.66175758838654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69065761566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71377813816071</t>
   </si>
   <si>
     <t xml:space="preserve">1.72967326641083</t>
@@ -1040,31 +1040,31 @@
     <t xml:space="preserve">1.69499289989471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68632280826569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68054282665253</t>
+    <t xml:space="preserve">1.68632304668427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68054294586182</t>
   </si>
   <si>
     <t xml:space="preserve">1.64297258853912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61696243286133</t>
+    <t xml:space="preserve">1.61696255207062</t>
   </si>
   <si>
     <t xml:space="preserve">1.61262762546539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62129747867584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64008259773254</t>
+    <t xml:space="preserve">1.62129735946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64008271694183</t>
   </si>
   <si>
     <t xml:space="preserve">1.63863742351532</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62707793712616</t>
+    <t xml:space="preserve">1.62707757949829</t>
   </si>
   <si>
     <t xml:space="preserve">1.61118233203888</t>
@@ -1076,133 +1076,133 @@
     <t xml:space="preserve">1.64730751514435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70366287231445</t>
+    <t xml:space="preserve">1.70366299152374</t>
   </si>
   <si>
     <t xml:space="preserve">1.69788289070129</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71088802814484</t>
+    <t xml:space="preserve">1.71088778972626</t>
   </si>
   <si>
     <t xml:space="preserve">1.69210290908813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67476272583008</t>
+    <t xml:space="preserve">1.67476296424866</t>
   </si>
   <si>
     <t xml:space="preserve">1.65164268016815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69932782649994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70655310153961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74412333965302</t>
+    <t xml:space="preserve">1.69932794570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70655286312103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74412310123444</t>
   </si>
   <si>
     <t xml:space="preserve">1.74990296363831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78458333015442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78891837596893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78313815593719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77735829353333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72244787216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74267816543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256301879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7094429731369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74556803703308</t>
+    <t xml:space="preserve">1.784583568573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78891861438751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78313839435577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77735817432404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72244799137115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7426780462265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256325721741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70944285392761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74556827545166</t>
   </si>
   <si>
     <t xml:space="preserve">1.76001834869385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79036331176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83660352230072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8178186416626</t>
+    <t xml:space="preserve">1.790363073349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83660340309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781840324402</t>
   </si>
   <si>
     <t xml:space="preserve">1.80625832080841</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82215344905853</t>
+    <t xml:space="preserve">1.82215356826782</t>
   </si>
   <si>
     <t xml:space="preserve">1.81492853164673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83371353149414</t>
+    <t xml:space="preserve">1.83371341228485</t>
   </si>
   <si>
     <t xml:space="preserve">1.85538876056671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86116850376129</t>
+    <t xml:space="preserve">1.86116862297058</t>
   </si>
   <si>
     <t xml:space="preserve">1.85394370555878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86261379718781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82793378829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91174364089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87995398044586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87706387042999</t>
+    <t xml:space="preserve">1.86261403560638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8279333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91174387931824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87995374202728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87706363201141</t>
   </si>
   <si>
     <t xml:space="preserve">1.84238350391388</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88139879703522</t>
+    <t xml:space="preserve">1.88139891624451</t>
   </si>
   <si>
     <t xml:space="preserve">1.88284373283386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85683369636536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84671866893768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81203830242157</t>
+    <t xml:space="preserve">1.85683357715607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84671890735626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81203854084015</t>
   </si>
   <si>
     <t xml:space="preserve">1.81637334823608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80770325660706</t>
+    <t xml:space="preserve">1.80770337581635</t>
   </si>
   <si>
     <t xml:space="preserve">1.8394935131073</t>
@@ -1211,118 +1211,118 @@
     <t xml:space="preserve">1.90596401691437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89584863185883</t>
+    <t xml:space="preserve">1.89584898948669</t>
   </si>
   <si>
     <t xml:space="preserve">1.83804845809937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83226871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86839365959167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93341910839081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92908418178558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94642388820648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95364928245544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97965931892395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94353425502777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90451884269714</t>
+    <t xml:space="preserve">1.8322685956955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86839354038239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9334192276001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92908370494843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94642436504364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95364904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97965919971466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94353401660919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90451872348785</t>
   </si>
   <si>
     <t xml:space="preserve">1.89151382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8871785402298</t>
+    <t xml:space="preserve">1.88717877864838</t>
   </si>
   <si>
     <t xml:space="preserve">1.88573360443115</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91896867752075</t>
+    <t xml:space="preserve">1.91896891593933</t>
   </si>
   <si>
     <t xml:space="preserve">1.77013313770294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7282280921936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7614631652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71666812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76579833030701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75279331207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76435315608978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72533822059631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74845826625824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77157807350159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77591335773468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71522319316864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75857329368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80047869682312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78747320175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7802482843399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76868808269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290845870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7354531288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84093856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8351583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82648861408234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81059336662292</t>
+    <t xml:space="preserve">1.72822797298431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76146304607391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.716668009758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76579821109772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75279319286346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76435327529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72533810138702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74845814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77157831192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7759131193161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71522307395935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75857317447662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80047845840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78747355937958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78024816513062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7686882019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290822029114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73545289039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84093880653381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83515858650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82648849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81059324741364</t>
   </si>
   <si>
     <t xml:space="preserve">1.81348359584808</t>
@@ -1331,58 +1331,58 @@
     <t xml:space="preserve">1.74701309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76724350452423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79903340339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83082354068756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8207083940506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82937872409821</t>
+    <t xml:space="preserve">1.76724302768707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79903328418732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83082365989685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070851325989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8293788433075</t>
   </si>
   <si>
     <t xml:space="preserve">1.84816360473633</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79758822917938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77302300930023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73689794540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73111796379089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68776774406433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67765295505524</t>
+    <t xml:space="preserve">1.79758834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7730233669281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73689830303192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73111808300018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68776786327362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67765283584595</t>
   </si>
   <si>
     <t xml:space="preserve">1.67620778083801</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60973727703094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56783246994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52303695678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53459703922272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049204826355</t>
+    <t xml:space="preserve">1.60973739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5678323507309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5230370759964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53459715843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049216747284</t>
   </si>
   <si>
     <t xml:space="preserve">1.5606073141098</t>
@@ -1394,28 +1394,28 @@
     <t xml:space="preserve">1.53026223182678</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49991691112518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59384262561798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62852251529694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62288248538971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64376509189606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62586569786072</t>
+    <t xml:space="preserve">1.49991703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5938423871994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62852275371552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.622882604599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64376497268677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62586557865143</t>
   </si>
   <si>
     <t xml:space="preserve">1.60050797462463</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60796618461609</t>
+    <t xml:space="preserve">1.6079660654068</t>
   </si>
   <si>
     <t xml:space="preserve">1.59752476215363</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">1.60498297214508</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6452568769455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63332390785217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64078199863434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67508900165558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68553042411804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6900053024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70342981815338</t>
+    <t xml:space="preserve">1.64525663852692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63332378864288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64078176021576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67508912086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68553030490875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69000542163849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7034295797348</t>
   </si>
   <si>
     <t xml:space="preserve">1.66912257671356</t>
@@ -1454,28 +1454,25 @@
     <t xml:space="preserve">1.68254733085632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68403875827789</t>
+    <t xml:space="preserve">1.68403887748718</t>
   </si>
   <si>
     <t xml:space="preserve">1.67359745502472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71088790893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.718346118927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71536266803741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70790469646454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69149672985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66763114929199</t>
+    <t xml:space="preserve">1.71834588050842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7153627872467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70790481567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6676310300827</t>
   </si>
   <si>
     <t xml:space="preserve">1.67210590839386</t>
@@ -1484,55 +1481,55 @@
     <t xml:space="preserve">1.77353596687317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76607799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78397738933563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80635142326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80336844921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73177075386047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75116181373596</t>
+    <t xml:space="preserve">1.766077876091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78397727012634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80635154247284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80336856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73177051544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75116169452667</t>
   </si>
   <si>
     <t xml:space="preserve">1.76309478282928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76160323619843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75563669204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72580397129059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70044648647308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6989551782608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65569818019867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64227342605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63779854774475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63183224201202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63034069538116</t>
+    <t xml:space="preserve">1.76160299777985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75563681125641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72580420970917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70044660568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69895505905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65569806098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64227330684662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63779878616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63183200359344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63034045696259</t>
   </si>
   <si>
     <t xml:space="preserve">1.62884891033173</t>
@@ -1541,31 +1538,31 @@
     <t xml:space="preserve">1.59305000305176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59155857563019</t>
+    <t xml:space="preserve">1.5915584564209</t>
   </si>
   <si>
     <t xml:space="preserve">1.54233503341675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50653600692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51996076107025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53040182590485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531812667847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54382658004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54680967330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60945773124695</t>
+    <t xml:space="preserve">1.5065358877182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51996064186096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53040206432343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531824588776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54382646083832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54680979251862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60945785045624</t>
   </si>
   <si>
     <t xml:space="preserve">1.66315603256226</t>
@@ -1574,10 +1571,10 @@
     <t xml:space="preserve">1.6169159412384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58857536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56172597408295</t>
+    <t xml:space="preserve">1.58857524394989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56172609329224</t>
   </si>
   <si>
     <t xml:space="preserve">1.55128467082977</t>
@@ -1586,70 +1583,70 @@
     <t xml:space="preserve">1.56620073318481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664239406586</t>
+    <t xml:space="preserve">1.57664227485657</t>
   </si>
   <si>
     <t xml:space="preserve">1.57515048980713</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57067561149597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48789095878601</t>
+    <t xml:space="preserve">1.57067549228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48789083957672</t>
   </si>
   <si>
     <t xml:space="preserve">1.4931116104126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46924567222595</t>
+    <t xml:space="preserve">1.46924543380737</t>
   </si>
   <si>
     <t xml:space="preserve">1.44985449314117</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44314205646515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200222492218</t>
+    <t xml:space="preserve">1.44314229488373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42002213001251</t>
   </si>
   <si>
     <t xml:space="preserve">1.44910860061646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.439413189888</t>
+    <t xml:space="preserve">1.43941307067871</t>
   </si>
   <si>
     <t xml:space="preserve">1.43419253826141</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44836282730103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44090473651886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42375099658966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45582091808319</t>
+    <t xml:space="preserve">1.44836294651031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44090485572815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42375111579895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45582103729248</t>
   </si>
   <si>
     <t xml:space="preserve">1.43270087242126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46327912807465</t>
+    <t xml:space="preserve">1.46327924728394</t>
   </si>
   <si>
     <t xml:space="preserve">1.46104168891907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42673432826996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47968685626984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47148311138153</t>
+    <t xml:space="preserve">1.42673444747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47968697547913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47148299217224</t>
   </si>
   <si>
     <t xml:space="preserve">1.53338515758514</t>
@@ -1661,19 +1658,19 @@
     <t xml:space="preserve">1.54830133914948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55277633666992</t>
+    <t xml:space="preserve">1.55277621746063</t>
   </si>
   <si>
     <t xml:space="preserve">1.52891027927399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50056970119476</t>
+    <t xml:space="preserve">1.50056958198547</t>
   </si>
   <si>
     <t xml:space="preserve">1.5125025510788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46551644802094</t>
+    <t xml:space="preserve">1.46551656723022</t>
   </si>
   <si>
     <t xml:space="preserve">1.44463396072388</t>
@@ -1682,19 +1679,19 @@
     <t xml:space="preserve">1.45656681060791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4617874622345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44687139987946</t>
+    <t xml:space="preserve">1.46178758144379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44687116146088</t>
   </si>
   <si>
     <t xml:space="preserve">1.47297465801239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4506002664566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40212261676788</t>
+    <t xml:space="preserve">1.45060038566589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40212273597717</t>
   </si>
   <si>
     <t xml:space="preserve">1.42897176742554</t>
@@ -1709,55 +1706,58 @@
     <t xml:space="preserve">1.50504422187805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49609470367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49161982536316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55575942993164</t>
+    <t xml:space="preserve">1.49609482288361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49161994457245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55575954914093</t>
   </si>
   <si>
     <t xml:space="preserve">1.59603333473206</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56321775913239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56918406486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61989903450012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199964046478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60647475719452</t>
+    <t xml:space="preserve">1.5632176399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5691841840744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6198992729187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61840772628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199975967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60647463798523</t>
   </si>
   <si>
     <t xml:space="preserve">1.60349142551422</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6109493970871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58708345890045</t>
+    <t xml:space="preserve">1.61094951629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58708369731903</t>
   </si>
   <si>
     <t xml:space="preserve">1.5855917930603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55426788330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58260858058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55725109577179</t>
+    <t xml:space="preserve">1.55426800251007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365894317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58260869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725121498108</t>
   </si>
   <si>
     <t xml:space="preserve">1.55874264240265</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">1.58111703395844</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61393296718597</t>
+    <t xml:space="preserve">1.61393260955811</t>
   </si>
   <si>
     <t xml:space="preserve">1.69746351242065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7093962430954</t>
+    <t xml:space="preserve">1.70939648151398</t>
   </si>
   <si>
     <t xml:space="preserve">1.71387135982513</t>
@@ -1781,85 +1781,85 @@
     <t xml:space="preserve">1.68105554580688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70641326904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6795642375946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70193815231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69597172737122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72878730297089</t>
+    <t xml:space="preserve">1.70641314983368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67956411838531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70193827152252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69597160816193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72878742218018</t>
   </si>
   <si>
     <t xml:space="preserve">1.69298851490021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59006679058075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57962560653687</t>
+    <t xml:space="preserve">1.59006667137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57962536811829</t>
   </si>
   <si>
     <t xml:space="preserve">1.56023442745209</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53636848926544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53189337253571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56769251823425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63481521606445</t>
+    <t xml:space="preserve">1.53636825084686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53189373016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56769239902496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63481533527374</t>
   </si>
   <si>
     <t xml:space="preserve">1.65718960762024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66613936424255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65271484851837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7213294506073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78994393348694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78696048259735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77651917934418</t>
+    <t xml:space="preserve">1.66613948345184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65271496772766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72132933139801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78994381427765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78696060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77651906013489</t>
   </si>
   <si>
     <t xml:space="preserve">1.77535688877106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77844953536987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78308916091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75679934024811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76762437820435</t>
+    <t xml:space="preserve">1.77844965457916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78308928012848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75679922103882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76762449741364</t>
   </si>
   <si>
     <t xml:space="preserve">1.77071738243103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81556534767151</t>
+    <t xml:space="preserve">1.81556522846222</t>
   </si>
   <si>
     <t xml:space="preserve">1.83876240253448</t>
@@ -1868,28 +1868,28 @@
     <t xml:space="preserve">1.85113441944122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83257627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82020485401154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86041295528412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86659920215607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88824963569641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89134287834167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89598190784454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89443552494049</t>
+    <t xml:space="preserve">1.83257651329041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82020497322083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86041307449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86659932136536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88824939727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8913426399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89598214626312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89443564414978</t>
   </si>
   <si>
     <t xml:space="preserve">1.9021680355072</t>
@@ -1901,61 +1901,61 @@
     <t xml:space="preserve">1.86505258083344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85577380657196</t>
+    <t xml:space="preserve">1.85577368736267</t>
   </si>
   <si>
     <t xml:space="preserve">1.82948350906372</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78772854804993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82639074325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85886645317078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8743314743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87897074222565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88670349121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88515675067902</t>
+    <t xml:space="preserve">1.78772878646851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82639050483704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85886669158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87433135509491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87897086143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88670325279236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88515663146973</t>
   </si>
   <si>
     <t xml:space="preserve">1.88361036777496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87278473377228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88979625701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89288902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86195957660675</t>
+    <t xml:space="preserve">1.87278485298157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88979613780975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89288926124573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86195945739746</t>
   </si>
   <si>
     <t xml:space="preserve">1.8712385892868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92691195011139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144680976868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90990042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91299319267273</t>
+    <t xml:space="preserve">1.92691171169281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9114465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90990030765533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91299343109131</t>
   </si>
   <si>
     <t xml:space="preserve">1.94237649440765</t>
@@ -1964,16 +1964,16 @@
     <t xml:space="preserve">1.9408301115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92072582244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8526805639267</t>
+    <t xml:space="preserve">1.92072570323944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85268068313599</t>
   </si>
   <si>
     <t xml:space="preserve">1.90526103973389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90062165260315</t>
+    <t xml:space="preserve">1.90062153339386</t>
   </si>
   <si>
     <t xml:space="preserve">1.92381858825684</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">1.9547483921051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01196813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03361892700195</t>
+    <t xml:space="preserve">2.01196789741516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03361868858337</t>
   </si>
   <si>
     <t xml:space="preserve">2.02897906303406</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">2.06918787956238</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05372262001038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03980469703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04753684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05990886688232</t>
+    <t xml:space="preserve">2.05372285842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03980445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04753708839417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05990862846375</t>
   </si>
   <si>
     <t xml:space="preserve">2.08774542808533</t>
@@ -2015,28 +2015,28 @@
     <t xml:space="preserve">2.0970242023468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10784959793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08310580253601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10011720657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10630321502686</t>
+    <t xml:space="preserve">2.10784983634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08310604095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10011744499207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10630297660828</t>
   </si>
   <si>
     <t xml:space="preserve">2.08001303672791</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07073426246643</t>
+    <t xml:space="preserve">2.07073402404785</t>
   </si>
   <si>
     <t xml:space="preserve">2.07537364959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04135131835938</t>
+    <t xml:space="preserve">2.04135084152222</t>
   </si>
   <si>
     <t xml:space="preserve">2.06764125823975</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">2.11867499351501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15115118026733</t>
+    <t xml:space="preserve">2.15115094184875</t>
   </si>
   <si>
     <t xml:space="preserve">2.12176775932312</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">2.13568615913391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15733671188354</t>
+    <t xml:space="preserve">2.15733695030212</t>
   </si>
   <si>
     <t xml:space="preserve">2.12950015068054</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">2.13413953781128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14341878890991</t>
+    <t xml:space="preserve">2.14341855049133</t>
   </si>
   <si>
     <t xml:space="preserve">2.14032554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11094260215759</t>
+    <t xml:space="preserve">2.11094236373901</t>
   </si>
   <si>
     <t xml:space="preserve">2.10939598083496</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">2.09238481521606</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12795376777649</t>
+    <t xml:space="preserve">2.12795400619507</t>
   </si>
   <si>
     <t xml:space="preserve">2.1836268901825</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">2.1913595199585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12331438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16042971611023</t>
+    <t xml:space="preserve">2.12331461906433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16042995452881</t>
   </si>
   <si>
     <t xml:space="preserve">2.17744112014771</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">2.10320997238159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11403560638428</t>
+    <t xml:space="preserve">2.1140353679657</t>
   </si>
   <si>
     <t xml:space="preserve">2.11558222770691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14496517181396</t>
+    <t xml:space="preserve">2.14496493339539</t>
   </si>
   <si>
     <t xml:space="preserve">2.21764945983887</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">2.18517351150513</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17898774147034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21610307693481</t>
+    <t xml:space="preserve">2.17898750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21610283851624</t>
   </si>
   <si>
     <t xml:space="preserve">2.24393939971924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21455645561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23311424255371</t>
+    <t xml:space="preserve">2.21455669403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23311448097229</t>
   </si>
   <si>
     <t xml:space="preserve">2.28569459915161</t>
@@ -2168,34 +2168,34 @@
     <t xml:space="preserve">2.31507778167725</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30425214767456</t>
+    <t xml:space="preserve">2.30425238609314</t>
   </si>
   <si>
     <t xml:space="preserve">2.35837888717651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33672857284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32435631752014</t>
+    <t xml:space="preserve">2.33672833442688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32435655593872</t>
   </si>
   <si>
     <t xml:space="preserve">2.3197169303894</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32899618148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31198477745056</t>
+    <t xml:space="preserve">2.32899594306946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31198453903198</t>
   </si>
   <si>
     <t xml:space="preserve">2.31817054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28260135650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3444607257843</t>
+    <t xml:space="preserve">2.28260159492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34446096420288</t>
   </si>
   <si>
     <t xml:space="preserve">2.33054256439209</t>
@@ -2204,88 +2204,88 @@
     <t xml:space="preserve">2.32744956016541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31353139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35992550849915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40168046951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37539005279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36301851272583</t>
+    <t xml:space="preserve">2.31353116035461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35992574691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40168023109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37539076805115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36301827430725</t>
   </si>
   <si>
     <t xml:space="preserve">2.22074270248413</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22228908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26095128059387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23775362968445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12640738487244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19290566444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20837068557739</t>
+    <t xml:space="preserve">2.22228932380676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26095104217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23775386810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12640762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19290590286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20837044715881</t>
   </si>
   <si>
     <t xml:space="preserve">2.08155941963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92845821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71504414081573</t>
+    <t xml:space="preserve">1.92845833301544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73669493198395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71504426002502</t>
   </si>
   <si>
     <t xml:space="preserve">1.45678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50085699558258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41966688632965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4181205034256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36863303184509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43281209468842</t>
+    <t xml:space="preserve">1.50085687637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41966676712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41812038421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36863315105438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43281197547913</t>
   </si>
   <si>
     <t xml:space="preserve">1.38796401023865</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38100492954254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47611320018768</t>
+    <t xml:space="preserve">1.38100504875183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47611331939697</t>
   </si>
   <si>
     <t xml:space="preserve">1.44673025608063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56967508792877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58513998985291</t>
+    <t xml:space="preserve">1.56967520713806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58513987064362</t>
   </si>
   <si>
     <t xml:space="preserve">1.66246402263641</t>
@@ -2303,19 +2303,19 @@
     <t xml:space="preserve">1.61297655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64081311225891</t>
+    <t xml:space="preserve">1.6408132314682</t>
   </si>
   <si>
     <t xml:space="preserve">1.63926672935486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63153409957886</t>
+    <t xml:space="preserve">1.63153421878815</t>
   </si>
   <si>
     <t xml:space="preserve">1.6268949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61916255950928</t>
+    <t xml:space="preserve">1.61916267871857</t>
   </si>
   <si>
     <t xml:space="preserve">1.66091740131378</t>
@@ -2324,46 +2324,46 @@
     <t xml:space="preserve">1.68256819248199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70576548576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6933935880661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69803285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70421886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72896265983582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73824107646942</t>
+    <t xml:space="preserve">1.70576536655426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69339346885681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69803309440613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70421874523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72896254062653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73824119567871</t>
   </si>
   <si>
     <t xml:space="preserve">1.75989210605621</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75061297416687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72586953639984</t>
+    <t xml:space="preserve">1.75061309337616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72586965560913</t>
   </si>
   <si>
     <t xml:space="preserve">1.68566107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65473163127899</t>
+    <t xml:space="preserve">1.6547315120697</t>
   </si>
   <si>
     <t xml:space="preserve">1.66710329055786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63617384433746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65318500995636</t>
+    <t xml:space="preserve">1.63617360591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65318524837494</t>
   </si>
   <si>
     <t xml:space="preserve">1.67019629478455</t>
@@ -2372,55 +2372,55 @@
     <t xml:space="preserve">1.67792880535126</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72432291507721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74906659126282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71040463447571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69184708595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298487186432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80473983287811</t>
+    <t xml:space="preserve">1.7243230342865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74906671047211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.710404753685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69184696674347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298499107361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8047399520874</t>
   </si>
   <si>
     <t xml:space="preserve">1.85422718524933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84649503231049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80628621578217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7939145565033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7212301492691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74133455753326</t>
+    <t xml:space="preserve">1.84649467468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80628645420074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79391443729401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72123003005981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74133443832397</t>
   </si>
   <si>
     <t xml:space="preserve">1.79082155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79700756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86666536331177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85700166225433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80063128471375</t>
+    <t xml:space="preserve">1.7970073223114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86666524410248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85700178146362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80063140392303</t>
   </si>
   <si>
     <t xml:space="preserve">1.78291499614716</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">1.79741036891937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80224180221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77647268772125</t>
+    <t xml:space="preserve">1.80224192142487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77647256851196</t>
   </si>
   <si>
     <t xml:space="preserve">1.7909677028656</t>
@@ -2450,31 +2450,31 @@
     <t xml:space="preserve">1.81673717498779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77164101600647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77003014087677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75714564323425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74103975296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73781859874725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76841962337494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78774678707123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80868434906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79257845878601</t>
+    <t xml:space="preserve">1.77164077758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77003037929535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75714540481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74103963375092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73781871795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76841986179352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78774666786194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80868422985077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79257833957672</t>
   </si>
   <si>
     <t xml:space="preserve">1.75231397151947</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">1.72815501689911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73620784282684</t>
+    <t xml:space="preserve">1.73620796203613</t>
   </si>
   <si>
     <t xml:space="preserve">1.73942923545837</t>
@@ -2495,94 +2495,94 @@
     <t xml:space="preserve">1.71849167346954</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72976565361023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75392436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74748206138611</t>
+    <t xml:space="preserve">1.72976577281952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7539244890213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7474821805954</t>
   </si>
   <si>
     <t xml:space="preserve">1.76680910587311</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81512665748596</t>
+    <t xml:space="preserve">1.81512653827667</t>
   </si>
   <si>
     <t xml:space="preserve">1.82317936420441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84411704540253</t>
+    <t xml:space="preserve">1.84411716461182</t>
   </si>
   <si>
     <t xml:space="preserve">1.81351613998413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78613603115082</t>
+    <t xml:space="preserve">1.78613615036011</t>
   </si>
   <si>
     <t xml:space="preserve">1.80707359313965</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77808332443237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7651983499527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75553512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7845253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76197743415833</t>
+    <t xml:space="preserve">1.77808308601379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76519846916199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75553500652313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78452563285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76197731494904</t>
   </si>
   <si>
     <t xml:space="preserve">1.77486193180084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79579949378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77325141429901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73459756374359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73137629032135</t>
+    <t xml:space="preserve">1.79579961299896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77325129508972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7345974445343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73137640953064</t>
   </si>
   <si>
     <t xml:space="preserve">1.70721745491028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70077526569366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67661654949188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67500591278076</t>
+    <t xml:space="preserve">1.70077514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67661643028259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67500579357147</t>
   </si>
   <si>
     <t xml:space="preserve">1.66695284843445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65890002250671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65245759487152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62668824195862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62829899787903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57514977455139</t>
+    <t xml:space="preserve">1.65889990329742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6524578332901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62668836116791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62829911708832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5751496553421</t>
   </si>
   <si>
     <t xml:space="preserve">1.55582284927368</t>
@@ -2591,19 +2591,19 @@
     <t xml:space="preserve">1.57112324237823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837092876434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59608721733093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62507784366608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64279425144196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6073614358902</t>
+    <t xml:space="preserve">1.57837104797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59608745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6250776052475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64279413223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60736131668091</t>
   </si>
   <si>
     <t xml:space="preserve">1.68466937541962</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">1.66051065921783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65406823158264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6830587387085</t>
+    <t xml:space="preserve">1.65406835079193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68305861949921</t>
   </si>
   <si>
     <t xml:space="preserve">1.74426078796387</t>
@@ -2639,19 +2639,19 @@
     <t xml:space="preserve">1.8489488363266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8102947473526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78130424022675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71365988254547</t>
+    <t xml:space="preserve">1.81029462814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78130435943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71366000175476</t>
   </si>
   <si>
     <t xml:space="preserve">1.71043884754181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71204936504364</t>
+    <t xml:space="preserve">1.71204924583435</t>
   </si>
   <si>
     <t xml:space="preserve">1.66856360435486</t>
@@ -2663,22 +2663,22 @@
     <t xml:space="preserve">1.69111168384552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69433307647705</t>
+    <t xml:space="preserve">1.69433295726776</t>
   </si>
   <si>
     <t xml:space="preserve">1.66534245014191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72171270847321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72493398189545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71688103675842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74265038967133</t>
+    <t xml:space="preserve">1.72171294689178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72493386268616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71688091754913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74265027046204</t>
   </si>
   <si>
     <t xml:space="preserve">1.75070333480835</t>
@@ -2693,31 +2693,31 @@
     <t xml:space="preserve">1.63474130630493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.639573097229</t>
+    <t xml:space="preserve">1.63957297801971</t>
   </si>
   <si>
     <t xml:space="preserve">1.64762592315674</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64923667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63796246051788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66212105751038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68789041042328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7152704000473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560693740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69272220134735</t>
+    <t xml:space="preserve">1.64923655986786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63796257972717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66212117671967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68789052963257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71527051925659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70560705661774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69272232055664</t>
   </si>
   <si>
     <t xml:space="preserve">1.66373181343079</t>
@@ -2726,22 +2726,22 @@
     <t xml:space="preserve">1.69916450977325</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72332346439362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74909257888794</t>
+    <t xml:space="preserve">1.72332334518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74909269809723</t>
   </si>
   <si>
     <t xml:space="preserve">1.75875604152679</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80385255813599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84572756290436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89565587043762</t>
+    <t xml:space="preserve">1.8038524389267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84572780132294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89565598964691</t>
   </si>
   <si>
     <t xml:space="preserve">1.90854036808014</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">1.89887690544128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89726603031158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8940452337265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88921344280243</t>
+    <t xml:space="preserve">1.89726638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89404511451721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88921332359314</t>
   </si>
   <si>
     <t xml:space="preserve">1.88277113437653</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">1.86988627910614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88438177108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92464637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90048742294312</t>
+    <t xml:space="preserve">1.88438153266907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92464625835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90048730373383</t>
   </si>
   <si>
     <t xml:space="preserve">1.92142486572266</t>
@@ -2789,25 +2789,25 @@
     <t xml:space="preserve">1.91981446743011</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95846843719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94880509376526</t>
+    <t xml:space="preserve">1.95846819877625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94880497455597</t>
   </si>
   <si>
     <t xml:space="preserve">1.95685791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94236266613007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9649111032486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99067997932434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99712252616882</t>
+    <t xml:space="preserve">1.94236254692078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96491074562073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99067986011505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99712228775024</t>
   </si>
   <si>
     <t xml:space="preserve">2.01483869552612</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">2.00678586959839</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04382967948914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05188226699829</t>
+    <t xml:space="preserve">2.04382944107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05188250541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.01161766052246</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">2.01322817802429</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03255534172058</t>
+    <t xml:space="preserve">2.032555103302</t>
   </si>
   <si>
     <t xml:space="preserve">2.07604098320007</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05832433700562</t>
+    <t xml:space="preserve">2.05832457542419</t>
   </si>
   <si>
     <t xml:space="preserve">2.09375715255737</t>
@@ -2849,10 +2849,10 @@
     <t xml:space="preserve">2.0647668838501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10664200782776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10825276374817</t>
+    <t xml:space="preserve">2.10664176940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10825252532959</t>
   </si>
   <si>
     <t xml:space="preserve">2.11469483375549</t>
@@ -2861,10 +2861,10 @@
     <t xml:space="preserve">2.10986280441284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05510330200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05671381950378</t>
+    <t xml:space="preserve">2.05510354042053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05671405792236</t>
   </si>
   <si>
     <t xml:space="preserve">2.06798815727234</t>
@@ -2891,13 +2891,13 @@
     <t xml:space="preserve">2.11791610717773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11738324165344</t>
+    <t xml:space="preserve">2.11738348007202</t>
   </si>
   <si>
     <t xml:space="preserve">2.09565806388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07226181030273</t>
+    <t xml:space="preserve">2.07226157188416</t>
   </si>
   <si>
     <t xml:space="preserve">2.07059025764465</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">2.02379727363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07894611358643</t>
+    <t xml:space="preserve">2.078946352005</t>
   </si>
   <si>
     <t xml:space="preserve">2.05889225006104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05555009841919</t>
+    <t xml:space="preserve">2.05554986000061</t>
   </si>
   <si>
     <t xml:space="preserve">2.06390571594238</t>
@@ -2948,16 +2948,16 @@
     <t xml:space="preserve">2.00875687599182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04552268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08395981788635</t>
+    <t xml:space="preserve">2.04552292823792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08396005630493</t>
   </si>
   <si>
     <t xml:space="preserve">2.13409519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12072610855103</t>
+    <t xml:space="preserve">2.12072587013245</t>
   </si>
   <si>
     <t xml:space="preserve">2.14913606643677</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">2.17086124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18423056602478</t>
+    <t xml:space="preserve">2.18423080444336</t>
   </si>
   <si>
     <t xml:space="preserve">2.19760012626648</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">2.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24439311027527</t>
+    <t xml:space="preserve">2.24439334869385</t>
   </si>
   <si>
     <t xml:space="preserve">2.25274920463562</t>
@@ -3008,16 +3008,16 @@
     <t xml:space="preserve">2.25943350791931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23102378845215</t>
+    <t xml:space="preserve">2.23102355003357</t>
   </si>
   <si>
     <t xml:space="preserve">2.22433876991272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20595574378967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18757319450378</t>
+    <t xml:space="preserve">2.20595598220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18757295608521</t>
   </si>
   <si>
     <t xml:space="preserve">2.17420363426208</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">2.21431183815002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19425749778748</t>
+    <t xml:space="preserve">2.19425773620605</t>
   </si>
   <si>
     <t xml:space="preserve">2.18924379348755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19258666038513</t>
+    <t xml:space="preserve">2.19258642196655</t>
   </si>
   <si>
     <t xml:space="preserve">2.16918992996216</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">2.21765422821045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25609135627747</t>
+    <t xml:space="preserve">2.25609111785889</t>
   </si>
   <si>
     <t xml:space="preserve">2.22768115997314</t>
@@ -3050,19 +3050,19 @@
     <t xml:space="preserve">2.2226676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21932530403137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23937964439392</t>
+    <t xml:space="preserve">2.21932554244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23937940597534</t>
   </si>
   <si>
     <t xml:space="preserve">2.23269486427307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25107765197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14412236213684</t>
+    <t xml:space="preserve">2.25107789039612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14412212371826</t>
   </si>
   <si>
     <t xml:space="preserve">2.16250538825989</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">2.14245104789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20094227790833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1274106502533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13242411613464</t>
+    <t xml:space="preserve">2.2009425163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12741041183472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13242435455322</t>
   </si>
   <si>
     <t xml:space="preserve">2.08730220794678</t>
@@ -3089,19 +3089,19 @@
     <t xml:space="preserve">2.26277589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29285740852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29954195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28951478004456</t>
+    <t xml:space="preserve">2.29285717010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29954218864441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28951501846313</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946091651917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31625366210938</t>
+    <t xml:space="preserve">2.31625390052795</t>
   </si>
   <si>
     <t xml:space="preserve">2.32962322235107</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">2.40649747848511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38811445236206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36638903617859</t>
+    <t xml:space="preserve">2.38811421394348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36638927459717</t>
   </si>
   <si>
     <t xml:space="preserve">2.40983986854553</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">2.34800624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36304688453674</t>
+    <t xml:space="preserve">2.36304664611816</t>
   </si>
   <si>
     <t xml:space="preserve">2.38978552818298</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">2.39312815666199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33296537399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34299254417419</t>
+    <t xml:space="preserve">2.3329656124115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34299230575562</t>
   </si>
   <si>
     <t xml:space="preserve">2.31124019622803</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">2.28450131416321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30288434028625</t>
+    <t xml:space="preserve">2.30288457870483</t>
   </si>
   <si>
     <t xml:space="preserve">2.3078978061676</t>
@@ -3158,22 +3158,22 @@
     <t xml:space="preserve">2.28283023834229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26778936386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2360372543335</t>
+    <t xml:space="preserve">2.26778960227966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23603749275208</t>
   </si>
   <si>
     <t xml:space="preserve">2.23436594009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21264052391052</t>
+    <t xml:space="preserve">2.2126407623291</t>
   </si>
   <si>
     <t xml:space="preserve">2.17921710014343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17587494850159</t>
+    <t xml:space="preserve">2.17587471008301</t>
   </si>
   <si>
     <t xml:space="preserve">2.19091534614563</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">2.24940657615662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20261359214783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20428490638733</t>
+    <t xml:space="preserve">2.20261383056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20428466796875</t>
   </si>
   <si>
     <t xml:space="preserve">2.19592881202698</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">2.172532081604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1157124042511</t>
+    <t xml:space="preserve">2.11571216583252</t>
   </si>
   <si>
     <t xml:space="preserve">2.13075280189514</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.22601008415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13743782043457</t>
+    <t xml:space="preserve">2.13743758201599</t>
   </si>
   <si>
     <t xml:space="preserve">2.08061766624451</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">2.12239694595337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06223440170288</t>
+    <t xml:space="preserve">2.06223464012146</t>
   </si>
   <si>
     <t xml:space="preserve">2.00708556175232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98870289325714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00541472434998</t>
+    <t xml:space="preserve">1.98870277404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0054144859314</t>
   </si>
   <si>
     <t xml:space="preserve">2.10735630989075</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">2.00207209587097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97366213798523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90347254276276</t>
+    <t xml:space="preserve">1.97366201877594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90347278118134</t>
   </si>
   <si>
     <t xml:space="preserve">1.88174736499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84331023693085</t>
+    <t xml:space="preserve">1.84331011772156</t>
   </si>
   <si>
     <t xml:space="preserve">1.88007605075836</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">1.94859445095062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92519783973694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190955162048</t>
+    <t xml:space="preserve">1.92519772052765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190967082977</t>
   </si>
   <si>
     <t xml:space="preserve">1.92352664470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91684198379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90180146694183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91851317882538</t>
+    <t xml:space="preserve">1.91684186458588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90180158615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91851329803467</t>
   </si>
   <si>
     <t xml:space="preserve">1.92185544967651</t>
@@ -3287,19 +3287,19 @@
     <t xml:space="preserve">1.97867560386658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93021142482758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94525194168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97533321380615</t>
+    <t xml:space="preserve">1.93021154403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9452520608902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97533345222473</t>
   </si>
   <si>
     <t xml:space="preserve">2.02546858787537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99037384986877</t>
+    <t xml:space="preserve">1.99037373065948</t>
   </si>
   <si>
     <t xml:space="preserve">2.06557679176331</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">2.09900045394897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11905455589294</t>
+    <t xml:space="preserve">2.11905479431152</t>
   </si>
   <si>
     <t xml:space="preserve">2.1140410900116</t>
@@ -3317,22 +3317,22 @@
     <t xml:space="preserve">2.08228874206543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1040141582489</t>
+    <t xml:space="preserve">2.10401391983032</t>
   </si>
   <si>
     <t xml:space="preserve">2.04050898551941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02881073951721</t>
+    <t xml:space="preserve">2.02881097793579</t>
   </si>
   <si>
     <t xml:space="preserve">2.04886507987976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05220746994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97199094295502</t>
+    <t xml:space="preserve">2.05220770835876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97199082374573</t>
   </si>
   <si>
     <t xml:space="preserve">1.99705874919891</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">2.03549575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06056356430054</t>
+    <t xml:space="preserve">2.06056332588196</t>
   </si>
   <si>
     <t xml:space="preserve">2.05053639411926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02714014053345</t>
+    <t xml:space="preserve">2.02713990211487</t>
   </si>
   <si>
     <t xml:space="preserve">2.03716683387756</t>
@@ -3359,22 +3359,22 @@
     <t xml:space="preserve">2.01377058029175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01544165611267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93522489070892</t>
+    <t xml:space="preserve">2.01544141769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9352251291275</t>
   </si>
   <si>
     <t xml:space="preserve">1.79818820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72465634346008</t>
+    <t xml:space="preserve">1.72465646266937</t>
   </si>
   <si>
     <t xml:space="preserve">1.69290411472321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74471056461334</t>
+    <t xml:space="preserve">1.74471068382263</t>
   </si>
   <si>
     <t xml:space="preserve">1.74303936958313</t>
@@ -3386,16 +3386,16 @@
     <t xml:space="preserve">1.72966992855072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69791758060455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70627343654633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73802590370178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79317474365234</t>
+    <t xml:space="preserve">1.69791769981384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70627355575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73802578449249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79317462444305</t>
   </si>
   <si>
     <t xml:space="preserve">1.78147649765015</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">1.7647647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74136829376221</t>
+    <t xml:space="preserve">1.7413684129715</t>
   </si>
   <si>
     <t xml:space="preserve">1.77312064170837</t>
@@ -3422,19 +3422,19 @@
     <t xml:space="preserve">1.65697371959686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66449391841888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66700077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61853671073914</t>
+    <t xml:space="preserve">1.66449403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66700088977814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61853659152985</t>
   </si>
   <si>
     <t xml:space="preserve">1.55252504348755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58594870567322</t>
+    <t xml:space="preserve">1.58594858646393</t>
   </si>
   <si>
     <t xml:space="preserve">1.61071527004242</t>
@@ -3443,10 +3443,10 @@
     <t xml:space="preserve">1.62486755847931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59037125110626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57798790931702</t>
+    <t xml:space="preserve">1.59037113189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57798802852631</t>
   </si>
   <si>
     <t xml:space="preserve">1.58241057395935</t>
@@ -3482,25 +3482,25 @@
     <t xml:space="preserve">1.53641533851624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5479142665863</t>
+    <t xml:space="preserve">1.54791414737701</t>
   </si>
   <si>
     <t xml:space="preserve">1.54526054859161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55941307544708</t>
+    <t xml:space="preserve">1.55941295623779</t>
   </si>
   <si>
     <t xml:space="preserve">1.59390938282013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56648910045624</t>
+    <t xml:space="preserve">1.56648921966553</t>
   </si>
   <si>
     <t xml:space="preserve">1.5399534702301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53022384643555</t>
+    <t xml:space="preserve">1.53022372722626</t>
   </si>
   <si>
     <t xml:space="preserve">1.48688209056854</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">1.46919167041779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4302726984024</t>
+    <t xml:space="preserve">1.43027257919312</t>
   </si>
   <si>
     <t xml:space="preserve">1.41081321239471</t>
@@ -3524,10 +3524,10 @@
     <t xml:space="preserve">1.40904426574707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33120608329773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32501459121704</t>
+    <t xml:space="preserve">1.33120620250702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32501447200775</t>
   </si>
   <si>
     <t xml:space="preserve">1.34182047843933</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">1.36304903030396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29317164421082</t>
+    <t xml:space="preserve">1.2931717634201</t>
   </si>
   <si>
     <t xml:space="preserve">1.27371227741241</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">1.26398241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2657516002655</t>
+    <t xml:space="preserve">1.26575148105621</t>
   </si>
   <si>
     <t xml:space="preserve">1.23390877246857</t>
@@ -3584,22 +3584,22 @@
     <t xml:space="preserve">1.15695524215698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1755303144455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16137778759003</t>
+    <t xml:space="preserve">1.17553019523621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16137790679932</t>
   </si>
   <si>
     <t xml:space="preserve">1.2002968788147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2277170419693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28078842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22329437732697</t>
+    <t xml:space="preserve">1.22771716117859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28078830242157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22329449653625</t>
   </si>
   <si>
     <t xml:space="preserve">1.19410514831543</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">1.16933858394623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.18349099159241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17906820774078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13572669029236</t>
+    <t xml:space="preserve">1.1834911108017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17906832695007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13572680950165</t>
   </si>
   <si>
     <t xml:space="preserve">1.15960884094238</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">1.22152543067932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2029504776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24363839626312</t>
+    <t xml:space="preserve">1.20295035839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24363851547241</t>
   </si>
   <si>
     <t xml:space="preserve">1.28609549999237</t>
@@ -3659,13 +3659,13 @@
     <t xml:space="preserve">1.32059192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31086206436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30732417106628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31616938114166</t>
+    <t xml:space="preserve">1.31086218357086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30732405185699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31616926193237</t>
   </si>
   <si>
     <t xml:space="preserve">1.30024790763855</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">1.38162398338318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38250839710236</t>
+    <t xml:space="preserve">1.38250851631165</t>
   </si>
   <si>
     <t xml:space="preserve">1.39666080474854</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">1.45946192741394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42142748832703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39400720596313</t>
+    <t xml:space="preserve">1.42142736911774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39400732517242</t>
   </si>
   <si>
     <t xml:space="preserve">1.41435122489929</t>
@@ -3719,13 +3719,13 @@
     <t xml:space="preserve">1.39312279224396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40285241603851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37631678581238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36039543151855</t>
+    <t xml:space="preserve">1.4028525352478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37631690502167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36039531230927</t>
   </si>
   <si>
     <t xml:space="preserve">1.36658704280853</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">1.31351578235626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29847896099091</t>
+    <t xml:space="preserve">1.29847884178162</t>
   </si>
   <si>
     <t xml:space="preserve">1.31793832778931</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">1.30909311771393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.27105867862701</t>
+    <t xml:space="preserve">1.2710587978363</t>
   </si>
   <si>
     <t xml:space="preserve">1.30820858478546</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">1.53464639186859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53906905651093</t>
+    <t xml:space="preserve">1.53906893730164</t>
   </si>
   <si>
     <t xml:space="preserve">1.47449886798859</t>
@@ -3794,13 +3794,13 @@
     <t xml:space="preserve">1.50545716285706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51607131958008</t>
+    <t xml:space="preserve">1.51607143878937</t>
   </si>
   <si>
     <t xml:space="preserve">1.46653807163239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49395835399628</t>
+    <t xml:space="preserve">1.49395823478699</t>
   </si>
   <si>
     <t xml:space="preserve">1.51872491836548</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">1.5098797082901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49926543235779</t>
+    <t xml:space="preserve">1.49926555156708</t>
   </si>
   <si>
     <t xml:space="preserve">1.46123087406158</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">1.45415484905243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45680832862854</t>
+    <t xml:space="preserve">1.45680820941925</t>
   </si>
   <si>
     <t xml:space="preserve">1.47361433506012</t>
@@ -3851,10 +3851,10 @@
     <t xml:space="preserve">1.45769286155701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44619405269623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169762611389</t>
+    <t xml:space="preserve">1.44619417190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169774532318</t>
   </si>
   <si>
     <t xml:space="preserve">1.41258227825165</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">1.40815961360931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37808573246002</t>
+    <t xml:space="preserve">1.37808585166931</t>
   </si>
   <si>
     <t xml:space="preserve">1.4824595451355</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">1.61602234840393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64521157741547</t>
+    <t xml:space="preserve">1.64521169662476</t>
   </si>
   <si>
     <t xml:space="preserve">1.66644012928009</t>
@@ -3911,28 +3911,28 @@
     <t xml:space="preserve">1.68766868114471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69209122657776</t>
+    <t xml:space="preserve">1.69209134578705</t>
   </si>
   <si>
     <t xml:space="preserve">1.64255797863007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65317237377167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467118263245</t>
+    <t xml:space="preserve">1.65317225456238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467106342316</t>
   </si>
   <si>
     <t xml:space="preserve">1.69386041164398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66909372806549</t>
+    <t xml:space="preserve">1.6690936088562</t>
   </si>
   <si>
     <t xml:space="preserve">1.68059253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67793893814087</t>
+    <t xml:space="preserve">1.67793881893158</t>
   </si>
   <si>
     <t xml:space="preserve">1.68589961528778</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">1.73012566566467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73277926445007</t>
+    <t xml:space="preserve">1.73277938365936</t>
   </si>
   <si>
     <t xml:space="preserve">1.70535910129547</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">1.70359003543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66732466220856</t>
+    <t xml:space="preserve">1.66732478141785</t>
   </si>
   <si>
     <t xml:space="preserve">1.70624363422394</t>
@@ -3983,19 +3983,19 @@
     <t xml:space="preserve">1.68855321407318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66024851799011</t>
+    <t xml:space="preserve">1.66024839878082</t>
   </si>
   <si>
     <t xml:space="preserve">1.64609611034393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65671038627625</t>
+    <t xml:space="preserve">1.65671050548553</t>
   </si>
   <si>
     <t xml:space="preserve">1.6522878408432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66290199756622</t>
+    <t xml:space="preserve">1.66290211677551</t>
   </si>
   <si>
     <t xml:space="preserve">1.6496342420578</t>
@@ -4620,6 +4620,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.87999999523163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82299995422363</t>
   </si>
 </sst>
 </file>
@@ -21827,7 +21830,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21853,7 +21856,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21879,7 +21882,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21905,7 +21908,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21931,7 +21934,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21957,7 +21960,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21983,7 +21986,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22009,7 +22012,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22035,7 +22038,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22061,7 +22064,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22087,7 +22090,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22113,7 +22116,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22139,7 +22142,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22165,7 +22168,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22191,7 +22194,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22217,7 +22220,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22243,7 +22246,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22269,7 +22272,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22295,7 +22298,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22321,7 +22324,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22347,7 +22350,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22373,7 +22376,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22399,7 +22402,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22425,7 +22428,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22451,7 +22454,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22503,7 +22506,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22529,7 +22532,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22581,7 +22584,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22607,7 +22610,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22633,7 +22636,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22659,7 +22662,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22685,7 +22688,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22711,7 +22714,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22737,7 +22740,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22763,7 +22766,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22789,7 +22792,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22815,7 +22818,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22867,7 +22870,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22919,7 +22922,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23023,7 +23026,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23049,7 +23052,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23075,7 +23078,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23101,7 +23104,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23127,7 +23130,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23153,7 +23156,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23179,7 +23182,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23205,7 +23208,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23231,7 +23234,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23257,7 +23260,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23283,7 +23286,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23309,7 +23312,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23335,7 +23338,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23361,7 +23364,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23387,7 +23390,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23413,7 +23416,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23439,7 +23442,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23465,7 +23468,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23491,7 +23494,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23517,7 +23520,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G714" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23543,7 +23546,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G715" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23569,7 +23572,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G716" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23595,7 +23598,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G717" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23621,7 +23624,7 @@
         <v>1.932000041008</v>
       </c>
       <c r="G718" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23647,7 +23650,7 @@
         <v>1.90900003910065</v>
       </c>
       <c r="G719" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23673,7 +23676,7 @@
         <v>1.95200002193451</v>
       </c>
       <c r="G720" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23699,7 +23702,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G721" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23725,7 +23728,7 @@
         <v>1.96200001239777</v>
       </c>
       <c r="G722" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23751,7 +23754,7 @@
         <v>1.95899999141693</v>
       </c>
       <c r="G723" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23777,7 +23780,7 @@
         <v>1.91299998760223</v>
       </c>
       <c r="G724" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23803,7 +23806,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G725" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -23829,7 +23832,7 @@
         <v>1.98399996757507</v>
       </c>
       <c r="G726" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -23855,7 +23858,7 @@
         <v>1.97300004959106</v>
       </c>
       <c r="G727" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -23881,7 +23884,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G728" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -23907,7 +23910,7 @@
         <v>2.05599999427795</v>
       </c>
       <c r="G729" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -23933,7 +23936,7 @@
         <v>2.0460000038147</v>
       </c>
       <c r="G730" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -23959,7 +23962,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G731" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -23985,7 +23988,7 @@
         <v>2.07599997520447</v>
       </c>
       <c r="G732" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -24011,7 +24014,7 @@
         <v>2.08200001716614</v>
       </c>
       <c r="G733" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24037,7 +24040,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G734" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24063,7 +24066,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G735" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24089,7 +24092,7 @@
         <v>2.02800011634827</v>
       </c>
       <c r="G736" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24115,7 +24118,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G737" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24141,7 +24144,7 @@
         <v>2.01200008392334</v>
       </c>
       <c r="G738" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24167,7 +24170,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G739" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24193,7 +24196,7 @@
         <v>1.94200003147125</v>
       </c>
       <c r="G740" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24219,7 +24222,7 @@
         <v>1.93700003623962</v>
       </c>
       <c r="G741" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24245,7 +24248,7 @@
         <v>1.95299994945526</v>
       </c>
       <c r="G742" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24271,7 +24274,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G743" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24297,7 +24300,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G744" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24323,7 +24326,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G745" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24349,7 +24352,7 @@
         <v>1.9210000038147</v>
       </c>
       <c r="G746" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24375,7 +24378,7 @@
         <v>1.97500002384186</v>
       </c>
       <c r="G747" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24401,7 +24404,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G748" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24427,7 +24430,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G749" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24453,7 +24456,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G750" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24479,7 +24482,7 @@
         <v>1.91600000858307</v>
       </c>
       <c r="G751" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24505,7 +24508,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G752" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24531,7 +24534,7 @@
         <v>1.92299997806549</v>
       </c>
       <c r="G753" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24557,7 +24560,7 @@
         <v>2.01600003242493</v>
       </c>
       <c r="G754" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24583,7 +24586,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G755" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24609,7 +24612,7 @@
         <v>2.01799988746643</v>
       </c>
       <c r="G756" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24635,7 +24638,7 @@
         <v>2.00600004196167</v>
       </c>
       <c r="G757" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24661,7 +24664,7 @@
         <v>2</v>
       </c>
       <c r="G758" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24687,7 +24690,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G759" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24713,7 +24716,7 @@
         <v>2.08599996566772</v>
       </c>
       <c r="G760" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24739,7 +24742,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G761" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24765,7 +24768,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G762" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24791,7 +24794,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G763" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -24817,7 +24820,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G764" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -24869,7 +24872,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -24895,7 +24898,7 @@
         <v>2.17199993133545</v>
       </c>
       <c r="G767" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -24921,7 +24924,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G768" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -24973,7 +24976,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G770" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25051,7 +25054,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G773" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25207,7 +25210,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G779" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25389,7 +25392,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G786" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25415,7 +25418,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G787" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25493,7 +25496,7 @@
         <v>2.10400009155273</v>
       </c>
       <c r="G790" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25623,7 +25626,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G795" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25701,7 +25704,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G798" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25805,7 +25808,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G802" t="s">
-        <v>322</v>
+        <v>571</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -25857,7 +25860,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G804" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -25883,7 +25886,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G805" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -25909,7 +25912,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G806" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -25935,7 +25938,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G807" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -25961,7 +25964,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G808" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26039,7 +26042,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G811" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26091,7 +26094,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G813" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26117,7 +26120,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G814" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26221,7 +26224,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G818" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26273,7 +26276,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G820" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26351,7 +26354,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G823" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26481,7 +26484,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26585,7 +26588,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G832" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26845,7 +26848,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G842" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -26871,7 +26874,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G843" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -26897,7 +26900,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G844" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -26923,7 +26926,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G845" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -26975,7 +26978,7 @@
         <v>2.09599995613098</v>
       </c>
       <c r="G847" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27131,7 +27134,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G853" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27261,7 +27264,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G858" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27339,7 +27342,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G861" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27391,7 +27394,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G863" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27469,7 +27472,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G866" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27573,7 +27576,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G870" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27625,7 +27628,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G872" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27677,7 +27680,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G874" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27703,7 +27706,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G875" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27781,7 +27784,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G878" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -27807,7 +27810,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G879" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -27911,7 +27914,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G883" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -61745,7 +61748,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.6494560185</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>1684188</v>
@@ -61766,6 +61769,32 @@
         <v>1535</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6495949074</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>3063957</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>1.88300001621246</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>1.82299995422363</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>1.88199996948242</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>1.82299995422363</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1536</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRE.MI.xlsx
+++ b/data/IRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.980257868766785</t>
+    <t xml:space="preserve">0.980257749557495</t>
   </si>
   <si>
     <t xml:space="preserve">IRE.MI</t>
@@ -47,76 +47,76 @@
     <t xml:space="preserve">0.97011011838913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973492622375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.968080639839172</t>
+    <t xml:space="preserve">0.973492741584778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968080461025238</t>
   </si>
   <si>
     <t xml:space="preserve">0.947108864784241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943049848079681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964698135852814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.949138522148132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.924784243106842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.907194852828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883517205715179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894341349601746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859163105487823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.878105163574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89907693862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.900429964065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913283586502075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.930872917175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919372141361237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953873813152313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932902216911316</t>
+    <t xml:space="preserve">0.943049967288971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964698076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.949138343334198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.924784183502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.907194912433624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883517324924469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894341468811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859162986278534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.878105282783508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.899076879024506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.900429904460907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91328364610672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.930872738361359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919372200965881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953873991966248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932902157306671</t>
   </si>
   <si>
     <t xml:space="preserve">0.89840042591095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885546863079071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.859839618206024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879458248615265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.866604566574097</t>
+    <t xml:space="preserve">0.885546803474426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.859839498996735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87945830821991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.866604804992676</t>
   </si>
   <si>
     <t xml:space="preserve">0.890959024429321</t>
@@ -125,91 +125,91 @@
     <t xml:space="preserve">0.91260701417923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920725166797638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.938990831375122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.969433784484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974169313907623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.959962606430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993111371994019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96537458896637</t>
+    <t xml:space="preserve">0.920725226402283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.938990771770477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.969433665275574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974169254302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.959962546825409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993111312389374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.965374648571014</t>
   </si>
   <si>
     <t xml:space="preserve">0.961992144584656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988375782966614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.995140731334686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.977551698684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980934202671051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.951844453811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.964021623134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00190603733063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01273000240326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04926156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06346809864044</t>
+    <t xml:space="preserve">0.988375842571259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995140790939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.977551758289337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980934262275696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95184451341629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.964021503925323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00190591812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01273012161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04926145076752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06346786022186</t>
   </si>
   <si>
     <t xml:space="preserve">1.08038067817688</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06752705574036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07496857643127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05873239040375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05196750164032</t>
+    <t xml:space="preserve">1.06752693653107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07496845722198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05873250961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05196738243103</t>
   </si>
   <si>
     <t xml:space="preserve">1.05534982681274</t>
   </si>
   <si>
-    <t xml:space="preserve">1.05805611610413</t>
+    <t xml:space="preserve">1.05805587768555</t>
   </si>
   <si>
     <t xml:space="preserve">1.07293903827667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06549739837646</t>
+    <t xml:space="preserve">1.06549751758575</t>
   </si>
   <si>
     <t xml:space="preserve">1.07361567020416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04993796348572</t>
+    <t xml:space="preserve">1.04993808269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.06211507320404</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">1.06888020038605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07564508914948</t>
+    <t xml:space="preserve">1.07564520835876</t>
   </si>
   <si>
     <t xml:space="preserve">1.06955647468567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07835114002228</t>
+    <t xml:space="preserve">1.07835102081299</t>
   </si>
   <si>
     <t xml:space="preserve">1.08376312255859</t>
@@ -236,10 +236,10 @@
     <t xml:space="preserve">1.07632160186768</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06820344924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05602657794952</t>
+    <t xml:space="preserve">1.06820356845856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05602645874023</t>
   </si>
   <si>
     <t xml:space="preserve">1.0384373664856</t>
@@ -248,13 +248,13 @@
     <t xml:space="preserve">1.05399692058563</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08714580535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07970416545868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0925577878952</t>
+    <t xml:space="preserve">1.08714592456818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07970404624939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09255766868591</t>
   </si>
   <si>
     <t xml:space="preserve">1.08579277992249</t>
@@ -263,76 +263,76 @@
     <t xml:space="preserve">1.08105731010437</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08173370361328</t>
+    <t xml:space="preserve">1.08173358440399</t>
   </si>
   <si>
     <t xml:space="preserve">1.06685054302216</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04181957244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.085116147995</t>
+    <t xml:space="preserve">1.0418199300766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08511626720428</t>
   </si>
   <si>
     <t xml:space="preserve">1.06008541584015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.04587876796722</t>
+    <t xml:space="preserve">1.04587888717651</t>
   </si>
   <si>
     <t xml:space="preserve">1.04520237445831</t>
   </si>
   <si>
-    <t xml:space="preserve">1.07226252555847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10202896595001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12908911705017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11623537540436</t>
+    <t xml:space="preserve">1.07226264476776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10202884674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12908923625946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11623549461365</t>
   </si>
   <si>
     <t xml:space="preserve">1.11014688014984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12705957889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11555910110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09999930858612</t>
+    <t xml:space="preserve">1.12705969810486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11555898189545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0999995470047</t>
   </si>
   <si>
     <t xml:space="preserve">1.11691200733185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11488246917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12164759635925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09864616394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02626013755798</t>
+    <t xml:space="preserve">1.11488234996796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12164747714996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09864628314972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02626025676727</t>
   </si>
   <si>
     <t xml:space="preserve">1.01678895950317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01340663433075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02761328220367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01076722145081</t>
+    <t xml:space="preserve">1.01340651512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0276130437851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01076710224152</t>
   </si>
   <si>
     <t xml:space="preserve">1.02831506729126</t>
@@ -344,67 +344,67 @@
     <t xml:space="preserve">0.953209519386292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.920921087265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948997914791107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.940575063228607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975670754909515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.981988430023193</t>
+    <t xml:space="preserve">0.920921146869659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948997974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940574824810028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97567093372345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.981988310813904</t>
   </si>
   <si>
     <t xml:space="preserve">0.986199796199799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954613387584686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.948295891284943</t>
+    <t xml:space="preserve">0.954613268375397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.948296010494232</t>
   </si>
   <si>
     <t xml:space="preserve">0.961632549762726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97145938873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.978478610515594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97216123342514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.958123028278351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96724796295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973565220832825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.992517113685608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984094023704529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0037477016449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0009400844574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01287281513214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01357471942902</t>
+    <t xml:space="preserve">0.971459448337555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.978478729724884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97216135263443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.958122909069061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.967248022556305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97356516122818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.992517292499542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984094083309174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00374794006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00094020366669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01287293434143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01357483863831</t>
   </si>
   <si>
     <t xml:space="preserve">1.03182470798492</t>
@@ -413,115 +413,115 @@
     <t xml:space="preserve">1.03322863578796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02129578590393</t>
+    <t xml:space="preserve">1.02129590511322</t>
   </si>
   <si>
     <t xml:space="preserve">1.0219978094101</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03393042087555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03673827648163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04516124725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03884398937225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04235351085663</t>
+    <t xml:space="preserve">1.03393030166626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03673803806305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04516112804413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03884387016296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04235363006592</t>
   </si>
   <si>
     <t xml:space="preserve">1.0248054265976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999536335468292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998132646083832</t>
+    <t xml:space="preserve">0.999536514282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998132586479187</t>
   </si>
   <si>
     <t xml:space="preserve">0.996026873588562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988305330276489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00234389305115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01427662372589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03533434867859</t>
+    <t xml:space="preserve">0.988305687904358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00234401226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01427686214447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0353342294693</t>
   </si>
   <si>
     <t xml:space="preserve">1.03954577445984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06341123580933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07113242149353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04165160655975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03814208507538</t>
+    <t xml:space="preserve">1.06341111660004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07113230228424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04165148735046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0381418466568</t>
   </si>
   <si>
     <t xml:space="preserve">1.04656505584717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02901709079742</t>
+    <t xml:space="preserve">1.02901697158813</t>
   </si>
   <si>
     <t xml:space="preserve">1.01568055152893</t>
   </si>
   <si>
-    <t xml:space="preserve">1.03603637218475</t>
+    <t xml:space="preserve">1.03603613376617</t>
   </si>
   <si>
     <t xml:space="preserve">1.02691125869751</t>
   </si>
   <si>
-    <t xml:space="preserve">1.02269983291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.045863032341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07534384727478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0591995716095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05288243293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01778614521027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02410364151001</t>
+    <t xml:space="preserve">1.02269971370697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04586315155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07534396648407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05919945240021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.05288219451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01778638362885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02410352230072</t>
   </si>
   <si>
     <t xml:space="preserve">1.03463232517242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.08095920085907</t>
+    <t xml:space="preserve">1.08095932006836</t>
   </si>
   <si>
     <t xml:space="preserve">1.10622835159302</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10833418369293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13009369373322</t>
+    <t xml:space="preserve">1.10833430290222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1300938129425</t>
   </si>
   <si>
     <t xml:space="preserve">1.14413213729858</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">1.149045586586</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1518532037735</t>
+    <t xml:space="preserve">1.15185308456421</t>
   </si>
   <si>
     <t xml:space="preserve">1.12377643585205</t>
@@ -539,16 +539,16 @@
     <t xml:space="preserve">1.14202630519867</t>
   </si>
   <si>
-    <t xml:space="preserve">1.14834380149841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13149762153625</t>
+    <t xml:space="preserve">1.14834356307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13149750232697</t>
   </si>
   <si>
     <t xml:space="preserve">1.11816108226776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11605525016785</t>
+    <t xml:space="preserve">1.11605536937714</t>
   </si>
   <si>
     <t xml:space="preserve">1.09991109371185</t>
@@ -557,7 +557,7 @@
     <t xml:space="preserve">1.11394953727722</t>
   </si>
   <si>
-    <t xml:space="preserve">1.12167060375214</t>
+    <t xml:space="preserve">1.12167072296143</t>
   </si>
   <si>
     <t xml:space="preserve">1.10482454299927</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">1.0058536529541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00164210796356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.993920981884003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.982690215110779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989709377288818</t>
+    <t xml:space="preserve">1.00164222717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.993921101093292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.982690155506134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989709496498108</t>
   </si>
   <si>
     <t xml:space="preserve">0.980584383010864</t>
@@ -584,46 +584,46 @@
     <t xml:space="preserve">0.959526777267456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.963738262653351</t>
+    <t xml:space="preserve">0.963738322257996</t>
   </si>
   <si>
     <t xml:space="preserve">0.989007532596588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964440107345581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01708424091339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01638233661652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02971887588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04445910453796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04796898365021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0641131401062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06621897220612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06692063808441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08025729656219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08376681804657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09219002723694</t>
+    <t xml:space="preserve">0.964440047740936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01708436012268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01638245582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02971875667572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04445946216583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04796886444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06411302089691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06621873378754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06692051887512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08025741577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08376693725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09218978881836</t>
   </si>
   <si>
     <t xml:space="preserve">1.09710335731506</t>
@@ -632,34 +632,34 @@
     <t xml:space="preserve">1.08236312866211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.06832456588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08797836303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1013149023056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10201680660248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10552668571472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10271871089935</t>
+    <t xml:space="preserve">1.06832444667816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0879784822464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10131502151489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10201692581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10552656650543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10271883010864</t>
   </si>
   <si>
     <t xml:space="preserve">1.09289193153381</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09850740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07604563236237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06130540370941</t>
+    <t xml:space="preserve">1.0985072851181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07604587078094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.06130516529083</t>
   </si>
   <si>
     <t xml:space="preserve">1.05568993091583</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">1.08166122436523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09499764442444</t>
+    <t xml:space="preserve">1.09499752521515</t>
   </si>
   <si>
     <t xml:space="preserve">1.07464194297791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10973787307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11745917797089</t>
+    <t xml:space="preserve">1.10973799228668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1174590587616</t>
   </si>
   <si>
     <t xml:space="preserve">1.10903608798981</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11114192008972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13921856880188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12447834014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13641107082367</t>
+    <t xml:space="preserve">1.11114168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13921868801117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12447822093964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13641095161438</t>
   </si>
   <si>
     <t xml:space="preserve">1.12237250804901</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">1.13219952583313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.13711297512054</t>
+    <t xml:space="preserve">1.13711285591125</t>
   </si>
   <si>
     <t xml:space="preserve">1.14272820949554</t>
@@ -710,19 +710,19 @@
     <t xml:space="preserve">1.15115129947662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.15466105937958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15255522727966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18273794651031</t>
+    <t xml:space="preserve">1.15466094017029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15255498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18273770809174</t>
   </si>
   <si>
     <t xml:space="preserve">1.2494204044342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28241062164307</t>
+    <t xml:space="preserve">1.28241074085236</t>
   </si>
   <si>
     <t xml:space="preserve">1.29153573513031</t>
@@ -731,25 +731,25 @@
     <t xml:space="preserve">1.30276644229889</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33014142513275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34417986869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3476893901825</t>
+    <t xml:space="preserve">1.33014130592346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34417974948883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34768927097321</t>
   </si>
   <si>
     <t xml:space="preserve">1.35892021656036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33505475521088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33294916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36593949794769</t>
+    <t xml:space="preserve">1.33505487442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33294904232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3659393787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.37576627731323</t>
@@ -761,37 +761,37 @@
     <t xml:space="preserve">1.36523747444153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37717008590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35470843315125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35330486297607</t>
+    <t xml:space="preserve">1.37716996669769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35470855236053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35330474376678</t>
   </si>
   <si>
     <t xml:space="preserve">1.36242985725403</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35400676727295</t>
+    <t xml:space="preserve">1.35400664806366</t>
   </si>
   <si>
     <t xml:space="preserve">1.33575677871704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32242012023926</t>
+    <t xml:space="preserve">1.32242000102997</t>
   </si>
   <si>
     <t xml:space="preserve">1.36172783374786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3631317615509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37646818161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35821831226349</t>
+    <t xml:space="preserve">1.36313164234161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37646806240082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35821807384491</t>
   </si>
   <si>
     <t xml:space="preserve">1.39471805095673</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">1.36874711513519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40384304523468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40033352375031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42209303379059</t>
+    <t xml:space="preserve">1.40384292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40033340454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42209315299988</t>
   </si>
   <si>
     <t xml:space="preserve">1.43893921375275</t>
@@ -815,109 +815,109 @@
     <t xml:space="preserve">1.443150639534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43332374095917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44876611232758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40314102172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41647756099701</t>
+    <t xml:space="preserve">1.43332386016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44876599311829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40314114093781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4164776802063</t>
   </si>
   <si>
     <t xml:space="preserve">1.45999670028687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48105442523956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49228525161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50351583957672</t>
+    <t xml:space="preserve">1.48105430603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49228501319885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5035160779953</t>
   </si>
   <si>
     <t xml:space="preserve">1.52316987514496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46982395648956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48386240005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5063236951828</t>
+    <t xml:space="preserve">1.46982371807098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48386228084564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50632357597351</t>
   </si>
   <si>
     <t xml:space="preserve">1.4880735874176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49368917942047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47965085506439</t>
+    <t xml:space="preserve">1.49368894100189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47965061664581</t>
   </si>
   <si>
     <t xml:space="preserve">1.51193916797638</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52036201953888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54422736167908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54141974449158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53440058231354</t>
+    <t xml:space="preserve">1.52036213874817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54422748088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54141986370087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53440082073212</t>
   </si>
   <si>
     <t xml:space="preserve">1.54703521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53580439090729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54001593589783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55916237831116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55771708488464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56494212150574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54615724086761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49413692951202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51436698436737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47679686546326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46523678302765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46957170963287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4710168838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47246193885803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45367693901062</t>
+    <t xml:space="preserve">1.53580451011658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54001581668854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55916213989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55771720409393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56494224071503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5461573600769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49413704872131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51436710357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47679674625397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46523702144623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46957182884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47101676464081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47246205806732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45367681980133</t>
   </si>
   <si>
     <t xml:space="preserve">1.485466837883</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">1.50858700275421</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5042519569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49558174610138</t>
+    <t xml:space="preserve">1.50425207614899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49558198451996</t>
   </si>
   <si>
     <t xml:space="preserve">1.50280690193176</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">1.51725697517395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53315198421478</t>
+    <t xml:space="preserve">1.53315210342407</t>
   </si>
   <si>
     <t xml:space="preserve">1.51870214939117</t>
@@ -953,37 +953,37 @@
     <t xml:space="preserve">1.55627238750458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54326725006104</t>
+    <t xml:space="preserve">1.54326701164246</t>
   </si>
   <si>
     <t xml:space="preserve">1.52014720439911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55338227748871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5793924331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57650232315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5750572681427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5822821855545</t>
+    <t xml:space="preserve">1.55338251590729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57939255237579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57650244235992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57505738735199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58228242397308</t>
   </si>
   <si>
     <t xml:space="preserve">1.60251247882843</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62563264369965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61840748786926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59962248802185</t>
+    <t xml:space="preserve">1.62563240528107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61840760707855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59962236881256</t>
   </si>
   <si>
     <t xml:space="preserve">1.59817731380463</t>
@@ -992,46 +992,46 @@
     <t xml:space="preserve">1.62274253368378</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65886771678925</t>
+    <t xml:space="preserve">1.65886783599854</t>
   </si>
   <si>
     <t xml:space="preserve">1.65742266178131</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65453267097473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65597784519196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64152777194977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62418758869171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63141250610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64441788196564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66320264339447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67042779922485</t>
+    <t xml:space="preserve">1.65453279018402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65597772598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64152789115906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62418723106384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63141262531281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64441776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66320300102234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67042791843414</t>
   </si>
   <si>
     <t xml:space="preserve">1.66609275341034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66175770759583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69065773487091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71377801895142</t>
+    <t xml:space="preserve">1.66175746917725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69065797328949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71377778053284</t>
   </si>
   <si>
     <t xml:space="preserve">1.72967326641083</t>
@@ -1043,31 +1043,31 @@
     <t xml:space="preserve">1.68632292747498</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68054282665253</t>
+    <t xml:space="preserve">1.68054270744324</t>
   </si>
   <si>
     <t xml:space="preserve">1.64297258853912</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61696255207062</t>
+    <t xml:space="preserve">1.61696243286133</t>
   </si>
   <si>
     <t xml:space="preserve">1.61262762546539</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62129747867584</t>
+    <t xml:space="preserve">1.62129735946655</t>
   </si>
   <si>
     <t xml:space="preserve">1.64008271694183</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63863754272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62707757949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61118245124817</t>
+    <t xml:space="preserve">1.6386376619339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62707769870758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61118233203888</t>
   </si>
   <si>
     <t xml:space="preserve">1.64875268936157</t>
@@ -1076,85 +1076,85 @@
     <t xml:space="preserve">1.64730751514435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70366311073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69788289070129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71088790893555</t>
+    <t xml:space="preserve">1.70366299152374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.697882771492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71088802814484</t>
   </si>
   <si>
     <t xml:space="preserve">1.69210290908813</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67476296424866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65164291858673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69932794570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70655274391174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74412310123444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7499030828476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78458344936371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7889187335968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78313815593719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77735817432404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72244799137115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7426780462265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73256325721741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70944285392761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74556827545166</t>
+    <t xml:space="preserve">1.67476272583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65164279937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69932782649994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70655298233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74412333965302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74990284442902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78458321094513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78891849517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78313827514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77735829353333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72244822978973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74267816543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73256301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70944273471832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74556791782379</t>
   </si>
   <si>
     <t xml:space="preserve">1.76001822948456</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79036331176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83660328388214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8178186416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80625832080841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82215344905853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81492877006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83371365070343</t>
+    <t xml:space="preserve">1.79036343097687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83660352230072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81781840324402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8062584400177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82215356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81492853164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83371341228485</t>
   </si>
   <si>
     <t xml:space="preserve">1.85538864135742</t>
@@ -1163,49 +1163,49 @@
     <t xml:space="preserve">1.86116874217987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85394370555878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86261391639709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8279333114624</t>
+    <t xml:space="preserve">1.85394358634949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86261403560638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82793343067169</t>
   </si>
   <si>
     <t xml:space="preserve">1.91174376010895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87995374202728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8770637512207</t>
+    <t xml:space="preserve">1.87995386123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87706398963928</t>
   </si>
   <si>
     <t xml:space="preserve">1.84238362312317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88139891624451</t>
+    <t xml:space="preserve">1.88139867782593</t>
   </si>
   <si>
     <t xml:space="preserve">1.88284373283386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85683357715607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84671878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81203842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81637346744537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80770325660706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83949363231659</t>
+    <t xml:space="preserve">1.85683369636536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84671866893768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81203818321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81637322902679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80770349502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83949375152588</t>
   </si>
   <si>
     <t xml:space="preserve">1.90596401691437</t>
@@ -1214,55 +1214,55 @@
     <t xml:space="preserve">1.8958488702774</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83804845809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83226871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8683934211731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9334192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92908406257629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94642436504364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95364916324615</t>
+    <t xml:space="preserve">1.83804857730865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83226847648621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86839365959167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93341886997223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92908418178558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94642388820648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95364904403687</t>
   </si>
   <si>
     <t xml:space="preserve">1.97965931892395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94353401660919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90451908111572</t>
+    <t xml:space="preserve">1.94353425502777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90451884269714</t>
   </si>
   <si>
     <t xml:space="preserve">1.89151382446289</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88717889785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88573360443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91896891593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77013325691223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72822797298431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7614631652832</t>
+    <t xml:space="preserve">1.88717877864838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88573372364044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91896867752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77013313770294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7282280921936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76146304607391</t>
   </si>
   <si>
     <t xml:space="preserve">1.71666812896729</t>
@@ -1271,166 +1271,166 @@
     <t xml:space="preserve">1.76579821109772</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75279319286346</t>
+    <t xml:space="preserve">1.75279343128204</t>
   </si>
   <si>
     <t xml:space="preserve">1.76435315608978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72533810138702</t>
+    <t xml:space="preserve">1.72533822059631</t>
   </si>
   <si>
     <t xml:space="preserve">1.74845826625824</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77157831192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77591300010681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71522295475006</t>
+    <t xml:space="preserve">1.77157807350159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77591335773468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71522331237793</t>
   </si>
   <si>
     <t xml:space="preserve">1.75857329368591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80047833919525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78747344017029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78024804592133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7686882019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76290810108185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73545289039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84093880653381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8351583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82648849487305</t>
+    <t xml:space="preserve">1.80047857761383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78747320175171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7802482843399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76868808269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76290857791901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7354531288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84093856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83515846729279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82648861408234</t>
   </si>
   <si>
     <t xml:space="preserve">1.81059336662292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81348359584808</t>
+    <t xml:space="preserve">1.81348347663879</t>
   </si>
   <si>
     <t xml:space="preserve">1.74701309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76724326610565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79903340339661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83082354068756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82070851325989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8293788433075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84816360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79758834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7730233669281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73689830303192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73111796379089</t>
+    <t xml:space="preserve">1.76724350452423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79903328418732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83082330226898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82070827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82937824726105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84816348552704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79758810997009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77302312850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73689806461334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73111808300018</t>
   </si>
   <si>
     <t xml:space="preserve">1.68776786327362</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67765271663666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6762079000473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60973739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5678323507309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52303719520569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5345972776413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55049228668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56060719490051</t>
+    <t xml:space="preserve">1.67765283584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67620778083801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60973727703094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56783246994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52303695678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53459715843201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55049204826355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56060743331909</t>
   </si>
   <si>
     <t xml:space="preserve">1.54904723167419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53026235103607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49991691112518</t>
+    <t xml:space="preserve">1.53026211261749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49991703033447</t>
   </si>
   <si>
     <t xml:space="preserve">1.59384250640869</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62852263450623</t>
+    <t xml:space="preserve">1.62852251529694</t>
   </si>
   <si>
     <t xml:space="preserve">1.62288248538971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64376497268677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62586557865143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60050797462463</t>
+    <t xml:space="preserve">1.64376509189606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62586569786072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60050785541534</t>
   </si>
   <si>
     <t xml:space="preserve">1.6079660654068</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752488136292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60498285293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64525675773621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63332378864288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64078176021576</t>
+    <t xml:space="preserve">1.59752464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60498297214508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6452568769455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63332390785217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64078199863434</t>
   </si>
   <si>
     <t xml:space="preserve">1.67508912086487</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">1.70342969894409</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66912257671356</t>
+    <t xml:space="preserve">1.66912245750427</t>
   </si>
   <si>
     <t xml:space="preserve">1.6586811542511</t>
@@ -1454,25 +1454,28 @@
     <t xml:space="preserve">1.68254721164703</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68403887748718</t>
+    <t xml:space="preserve">1.68403875827789</t>
   </si>
   <si>
     <t xml:space="preserve">1.67359745502472</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71834588050842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71536290645599</t>
+    <t xml:space="preserve">1.71088778972626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.718346118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71536266803741</t>
   </si>
   <si>
     <t xml:space="preserve">1.70790481567383</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69149672985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6676310300827</t>
+    <t xml:space="preserve">1.69149684906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66763114929199</t>
   </si>
   <si>
     <t xml:space="preserve">1.67210590839386</t>
@@ -1490,10 +1493,10 @@
     <t xml:space="preserve">1.80635142326355</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80336844921112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73177051544189</t>
+    <t xml:space="preserve">1.80336833000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73177075386047</t>
   </si>
   <si>
     <t xml:space="preserve">1.75116169452667</t>
@@ -1502,82 +1505,82 @@
     <t xml:space="preserve">1.76309478282928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76160299777985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75563681125641</t>
+    <t xml:space="preserve">1.76160311698914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75563657283783</t>
   </si>
   <si>
     <t xml:space="preserve">1.72580397129059</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70044660568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6989551782608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65569794178009</t>
+    <t xml:space="preserve">1.70044636726379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69895505905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65569818019867</t>
   </si>
   <si>
     <t xml:space="preserve">1.64227342605591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63779866695404</t>
+    <t xml:space="preserve">1.63779854774475</t>
   </si>
   <si>
     <t xml:space="preserve">1.63183212280273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63034057617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62884879112244</t>
+    <t xml:space="preserve">1.63034069538116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62884891033173</t>
   </si>
   <si>
     <t xml:space="preserve">1.59305000305176</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5915584564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54233491420746</t>
+    <t xml:space="preserve">1.59155857563019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54233503341675</t>
   </si>
   <si>
     <t xml:space="preserve">1.50653600692749</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51996076107025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53040194511414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54531824588776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54382646083832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54680979251862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60945796966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66315627098083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61691582202911</t>
+    <t xml:space="preserve">1.51996088027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53040206432343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54531800746918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54382658004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54680967330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60945785045624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66315603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6169159412384</t>
   </si>
   <si>
     <t xml:space="preserve">1.58857536315918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56172609329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55128455162048</t>
+    <t xml:space="preserve">1.56172597408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55128467082977</t>
   </si>
   <si>
     <t xml:space="preserve">1.56620073318481</t>
@@ -1586,31 +1589,31 @@
     <t xml:space="preserve">1.57664227485657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57515048980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57067573070526</t>
+    <t xml:space="preserve">1.57515060901642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57067561149597</t>
   </si>
   <si>
     <t xml:space="preserve">1.48789083957672</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49311172962189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46924555301666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44985449314117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44314229488373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4200222492218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44910871982574</t>
+    <t xml:space="preserve">1.49311149120331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46924567222595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44985461235046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44314217567444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42002213001251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44910860061646</t>
   </si>
   <si>
     <t xml:space="preserve">1.439413189888</t>
@@ -1619,43 +1622,43 @@
     <t xml:space="preserve">1.43419241905212</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44836294651031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44090497493744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42375111579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45582103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43270075321198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46327924728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46104168891907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42673444747925</t>
+    <t xml:space="preserve">1.44836282730103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44090473651886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42375099658966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45582091808319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43270087242126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46327912807465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46104156970978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42673432826996</t>
   </si>
   <si>
     <t xml:space="preserve">1.47968685626984</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47148299217224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53338515758514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52592718601227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54830121994019</t>
+    <t xml:space="preserve">1.47148311138153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53338527679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52592706680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54830133914948</t>
   </si>
   <si>
     <t xml:space="preserve">1.55277633666992</t>
@@ -1664,16 +1667,16 @@
     <t xml:space="preserve">1.52891027927399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50056958198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5125025510788</t>
+    <t xml:space="preserve">1.50056970119476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51250267028809</t>
   </si>
   <si>
     <t xml:space="preserve">1.46551656723022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44463384151459</t>
+    <t xml:space="preserve">1.44463396072388</t>
   </si>
   <si>
     <t xml:space="preserve">1.45656681060791</t>
@@ -1688,10 +1691,10 @@
     <t xml:space="preserve">1.47297465801239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45060038566589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40212273597717</t>
+    <t xml:space="preserve">1.4506002664566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40212261676788</t>
   </si>
   <si>
     <t xml:space="preserve">1.42897176742554</t>
@@ -1703,10 +1706,10 @@
     <t xml:space="preserve">1.50355279445648</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50504434108734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49609458446503</t>
+    <t xml:space="preserve">1.50504422187805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49609482288361</t>
   </si>
   <si>
     <t xml:space="preserve">1.49161982536316</t>
@@ -1715,49 +1718,46 @@
     <t xml:space="preserve">1.55575942993164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59603321552277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56321752071381</t>
+    <t xml:space="preserve">1.59603333473206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56321775913239</t>
   </si>
   <si>
     <t xml:space="preserve">1.56918406486511</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61989915370941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61840760707855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60199964046478</t>
+    <t xml:space="preserve">1.61989903450012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60199975967407</t>
   </si>
   <si>
     <t xml:space="preserve">1.60647463798523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60349154472351</t>
+    <t xml:space="preserve">1.60349142551422</t>
   </si>
   <si>
     <t xml:space="preserve">1.6109493970871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58708345890045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5855917930603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55426800251007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57365894317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58260858058929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55725121498108</t>
+    <t xml:space="preserve">1.58708333969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58559191226959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55426788330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57365870475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58260869979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55725109577179</t>
   </si>
   <si>
     <t xml:space="preserve">1.55874264240265</t>
@@ -1766,37 +1766,37 @@
     <t xml:space="preserve">1.58111691474915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61393260955811</t>
+    <t xml:space="preserve">1.61393284797668</t>
   </si>
   <si>
     <t xml:space="preserve">1.69746351242065</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70939648151398</t>
+    <t xml:space="preserve">1.70939636230469</t>
   </si>
   <si>
     <t xml:space="preserve">1.71387135982513</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68105566501617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70641314983368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67956399917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70193827152252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69597160816193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72878754138947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6929886341095</t>
+    <t xml:space="preserve">1.68105554580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70641326904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67956411838531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70193815231323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69597172737122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72878730297089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69298851490021</t>
   </si>
   <si>
     <t xml:space="preserve">1.59006667137146</t>
@@ -1808,10 +1808,10 @@
     <t xml:space="preserve">1.5602343082428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53636837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53189373016357</t>
+    <t xml:space="preserve">1.53636848926544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.531893491745</t>
   </si>
   <si>
     <t xml:space="preserve">1.56769251823425</t>
@@ -1823,16 +1823,16 @@
     <t xml:space="preserve">1.65718960762024</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66613948345184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65271472930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72132933139801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78994393348694</t>
+    <t xml:space="preserve">1.66613936424255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65271484851837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7213294506073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78994381427765</t>
   </si>
   <si>
     <t xml:space="preserve">1.78696060180664</t>
@@ -1841,22 +1841,22 @@
     <t xml:space="preserve">1.77651917934418</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77535688877106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77844977378845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78308928012848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75679922103882</t>
+    <t xml:space="preserve">1.77535676956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77844953536987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78308916091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75679934024811</t>
   </si>
   <si>
     <t xml:space="preserve">1.76762437820435</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77071738243103</t>
+    <t xml:space="preserve">1.77071750164032</t>
   </si>
   <si>
     <t xml:space="preserve">1.81556522846222</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">1.83876252174377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85113453865051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83257639408112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82020485401154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86041307449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86659908294678</t>
+    <t xml:space="preserve">1.85113441944122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83257627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82020473480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8604131937027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86659896373749</t>
   </si>
   <si>
     <t xml:space="preserve">1.88824963569641</t>
@@ -1889,19 +1889,19 @@
     <t xml:space="preserve">1.89598190784454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89443552494049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9021680355072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86350619792938</t>
+    <t xml:space="preserve">1.89443564414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90216791629791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8635059595108</t>
   </si>
   <si>
     <t xml:space="preserve">1.86505258083344</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85577380657196</t>
+    <t xml:space="preserve">1.85577368736267</t>
   </si>
   <si>
     <t xml:space="preserve">1.82948338985443</t>
@@ -1910,136 +1910,136 @@
     <t xml:space="preserve">1.78772866725922</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82639050483704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85886669158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87433159351349</t>
+    <t xml:space="preserve">1.82639062404633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85886657238007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87433135509491</t>
   </si>
   <si>
     <t xml:space="preserve">1.87897098064423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88670325279236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88515663146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88361048698425</t>
+    <t xml:space="preserve">1.88670349121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88515651226044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88361024856567</t>
   </si>
   <si>
     <t xml:space="preserve">1.87278473377228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88979613780975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89288926124573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86195933818817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87123847007751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92691159248352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91144680976868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90990042686462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91299331188202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94237649440765</t>
+    <t xml:space="preserve">1.88979637622833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89288902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86195969581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8712385892868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9269118309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91144692897797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90990018844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91299307346344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94237637519836</t>
   </si>
   <si>
     <t xml:space="preserve">1.9408301115036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92072570323944</t>
+    <t xml:space="preserve">1.92072558403015</t>
   </si>
   <si>
     <t xml:space="preserve">1.85268068313599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9052609205246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90062141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92381870746613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95474863052368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01196789741516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03361868858337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02897930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04908347129822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06918787956238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05372285842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03980469703674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04753708839417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05990862846375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08774495124817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0970242023468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10784983634949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08310604095459</t>
+    <t xml:space="preserve">1.90526103973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90062177181244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92381846904755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9547483921051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01196813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03361892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02897906303406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0490837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0691876411438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05372262001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03980445861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04753684997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0599091053009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08774566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09702396392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10784935951233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08310580253601</t>
   </si>
   <si>
     <t xml:space="preserve">2.10011744499207</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10630297660828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08001303672791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07073402404785</t>
+    <t xml:space="preserve">2.10630321502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08001279830933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07073426246643</t>
   </si>
   <si>
     <t xml:space="preserve">2.07537364959717</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0413510799408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06764125823975</t>
+    <t xml:space="preserve">2.04135131835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06764101982117</t>
   </si>
   <si>
     <t xml:space="preserve">2.06454825401306</t>
@@ -2048,28 +2048,28 @@
     <t xml:space="preserve">2.07382702827454</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11867523193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15115118026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12176752090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14805817604065</t>
+    <t xml:space="preserve">2.11867475509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15115094184875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1217679977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14805793762207</t>
   </si>
   <si>
     <t xml:space="preserve">2.13568615913391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15733695030212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12950038909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13413977622986</t>
+    <t xml:space="preserve">2.15733671188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12950015068054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13413953781128</t>
   </si>
   <si>
     <t xml:space="preserve">2.14341878890991</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">2.14032554626465</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11094236373901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10939598083496</t>
+    <t xml:space="preserve">2.11094260215759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10939621925354</t>
   </si>
   <si>
     <t xml:space="preserve">2.09238481521606</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">2.12795400619507</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18362712860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16816186904907</t>
+    <t xml:space="preserve">2.1836268901825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16816210746765</t>
   </si>
   <si>
     <t xml:space="preserve">2.17589449882507</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">2.16506910324097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13723254203796</t>
+    <t xml:space="preserve">2.13723278045654</t>
   </si>
   <si>
     <t xml:space="preserve">2.13104677200317</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">2.1913595199585</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12331438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16042971611023</t>
+    <t xml:space="preserve">2.12331414222717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16042995452881</t>
   </si>
   <si>
     <t xml:space="preserve">2.17744088172913</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">2.1496045589447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10320997238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11403560638428</t>
+    <t xml:space="preserve">2.10321021080017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1140353679657</t>
   </si>
   <si>
     <t xml:space="preserve">2.11558222770691</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">2.17898750305176</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21610307693481</t>
+    <t xml:space="preserve">2.21610283851624</t>
   </si>
   <si>
     <t xml:space="preserve">2.24393939971924</t>
@@ -2162,25 +2162,25 @@
     <t xml:space="preserve">2.23311424255371</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28569436073303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31507778167725</t>
+    <t xml:space="preserve">2.28569459915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31507754325867</t>
   </si>
   <si>
     <t xml:space="preserve">2.30425214767456</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35837912559509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33672857284546</t>
+    <t xml:space="preserve">2.35837888717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33672833442688</t>
   </si>
   <si>
     <t xml:space="preserve">2.32435655593872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3197169303894</t>
+    <t xml:space="preserve">2.31971716880798</t>
   </si>
   <si>
     <t xml:space="preserve">2.32899594306946</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">2.31817054748535</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28260159492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3444607257843</t>
+    <t xml:space="preserve">2.28260111808777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34446096420288</t>
   </si>
   <si>
     <t xml:space="preserve">2.33054256439209</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">2.32744956016541</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31353116035461</t>
+    <t xml:space="preserve">2.31353139877319</t>
   </si>
   <si>
     <t xml:space="preserve">2.35992574691772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40168046951294</t>
+    <t xml:space="preserve">2.40168023109436</t>
   </si>
   <si>
     <t xml:space="preserve">2.37539029121399</t>
@@ -2222,40 +2222,40 @@
     <t xml:space="preserve">2.22074246406555</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22228932380676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26095104217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23775410652161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12640738487244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19290590286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20837044715881</t>
+    <t xml:space="preserve">2.22228908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26095080375671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23775362968445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12640762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19290566444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20837068557739</t>
   </si>
   <si>
     <t xml:space="preserve">2.08155965805054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92845821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71504414081573</t>
+    <t xml:space="preserve">1.92845809459686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73669493198395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71504426002502</t>
   </si>
   <si>
     <t xml:space="preserve">1.45678234100342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50085699558258</t>
+    <t xml:space="preserve">1.50085687637329</t>
   </si>
   <si>
     <t xml:space="preserve">1.41966676712036</t>
@@ -2270,16 +2270,16 @@
     <t xml:space="preserve">1.43281197547913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38796389102936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38100504875183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47611331939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44673025608063</t>
+    <t xml:space="preserve">1.38796401023865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38100492954254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47611320018768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44673013687134</t>
   </si>
   <si>
     <t xml:space="preserve">1.56967508792877</t>
@@ -2303,49 +2303,49 @@
     <t xml:space="preserve">1.61297655105591</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64081311225891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63926672935486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63153433799744</t>
+    <t xml:space="preserve">1.6408132314682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63926661014557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63153409957886</t>
   </si>
   <si>
     <t xml:space="preserve">1.6268949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61916267871857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66091740131378</t>
+    <t xml:space="preserve">1.61916255950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66091752052307</t>
   </si>
   <si>
     <t xml:space="preserve">1.68256819248199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70576536655426</t>
+    <t xml:space="preserve">1.70576548576355</t>
   </si>
   <si>
     <t xml:space="preserve">1.6933935880661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69803297519684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70421874523163</t>
+    <t xml:space="preserve">1.69803285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70421886444092</t>
   </si>
   <si>
     <t xml:space="preserve">1.72896265983582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73824119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7598922252655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75061297416687</t>
+    <t xml:space="preserve">1.73824107646942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75989210605621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75061309337616</t>
   </si>
   <si>
     <t xml:space="preserve">1.72586965560913</t>
@@ -2354,64 +2354,64 @@
     <t xml:space="preserve">1.68566107749939</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6547315120697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66710329055786</t>
+    <t xml:space="preserve">1.65473163127899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66710317134857</t>
   </si>
   <si>
     <t xml:space="preserve">1.63617372512817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65318524837494</t>
+    <t xml:space="preserve">1.65318512916565</t>
   </si>
   <si>
     <t xml:space="preserve">1.67019629478455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67792868614197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72432315349579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74906659126282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.710404753685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69184708595276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76298487186432</t>
+    <t xml:space="preserve">1.67792880535126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72432291507721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74906671047211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71040451526642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69184696674347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76298475265503</t>
   </si>
   <si>
     <t xml:space="preserve">1.8047399520874</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85422730445862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84649479389191</t>
+    <t xml:space="preserve">1.85422718524933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84649503231049</t>
   </si>
   <si>
     <t xml:space="preserve">1.80628633499146</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79391443729401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72123003005981</t>
+    <t xml:space="preserve">1.7939145565033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7212301492691</t>
   </si>
   <si>
     <t xml:space="preserve">1.74133443832397</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7908216714859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79700744152069</t>
+    <t xml:space="preserve">1.79082155227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79700756072998</t>
   </si>
   <si>
     <t xml:space="preserve">1.86666536331177</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">1.80063140392303</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78291511535645</t>
+    <t xml:space="preserve">1.78291499614716</t>
   </si>
   <si>
     <t xml:space="preserve">1.79741036891937</t>
@@ -2432,34 +2432,34 @@
     <t xml:space="preserve">1.80224192142487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77647256851196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79096782207489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81190538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82156896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82479012012482</t>
+    <t xml:space="preserve">1.77647268772125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79096758365631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81190526485443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82156884670258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82479000091553</t>
   </si>
   <si>
     <t xml:space="preserve">1.81673717498779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77164077758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77003026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75714552402496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74103975296021</t>
+    <t xml:space="preserve">1.77164089679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77003014087677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75714564323425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74103987216949</t>
   </si>
   <si>
     <t xml:space="preserve">1.73781859874725</t>
@@ -2471,28 +2471,28 @@
     <t xml:space="preserve">1.78774666786194</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80868422985077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79257845878601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75231409072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72815489768982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73620796203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73942911624908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7088280916214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71849167346954</t>
+    <t xml:space="preserve">1.80868434906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79257833957672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75231385231018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72815501689911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73620784282684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73942935466766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70882797241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71849179267883</t>
   </si>
   <si>
     <t xml:space="preserve">1.72976565361023</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">1.7539244890213</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74748229980469</t>
+    <t xml:space="preserve">1.74748206138611</t>
   </si>
   <si>
     <t xml:space="preserve">1.76680910587311</t>
@@ -2513,13 +2513,13 @@
     <t xml:space="preserve">1.82317936420441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84411716461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81351613998413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78613615036011</t>
+    <t xml:space="preserve">1.84411704540253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81351602077484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78613591194153</t>
   </si>
   <si>
     <t xml:space="preserve">1.80707359313965</t>
@@ -2528,40 +2528,40 @@
     <t xml:space="preserve">1.77808320522308</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76519846916199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75553500652313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78452563285828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76197731494904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77486193180084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79579961299896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77325129508972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7345974445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73137640953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70721757411957</t>
+    <t xml:space="preserve">1.7651983499527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75553512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7845253944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76197743415833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77486205101013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79579973220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77325141429901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73459756374359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73137629032135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70721745491028</t>
   </si>
   <si>
     <t xml:space="preserve">1.70077526569366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67661654949188</t>
+    <t xml:space="preserve">1.67661643028259</t>
   </si>
   <si>
     <t xml:space="preserve">1.67500579357147</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">1.65890002250671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65245771408081</t>
+    <t xml:space="preserve">1.6524578332901</t>
   </si>
   <si>
     <t xml:space="preserve">1.62668836116791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62829911708832</t>
+    <t xml:space="preserve">1.62829899787903</t>
   </si>
   <si>
     <t xml:space="preserve">1.5751496553421</t>
@@ -2597,13 +2597,13 @@
     <t xml:space="preserve">1.59608733654022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62507772445679</t>
+    <t xml:space="preserve">1.62507784366608</t>
   </si>
   <si>
     <t xml:space="preserve">1.64279413223267</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60736131668091</t>
+    <t xml:space="preserve">1.6073614358902</t>
   </si>
   <si>
     <t xml:space="preserve">1.68466937541962</t>
@@ -2615,40 +2615,40 @@
     <t xml:space="preserve">1.67983758449554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68144834041595</t>
+    <t xml:space="preserve">1.68144822120667</t>
   </si>
   <si>
     <t xml:space="preserve">1.6959433555603</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66051077842712</t>
+    <t xml:space="preserve">1.66051054000854</t>
   </si>
   <si>
     <t xml:space="preserve">1.65406823158264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68305861949921</t>
+    <t xml:space="preserve">1.6830587387085</t>
   </si>
   <si>
     <t xml:space="preserve">1.74426078796387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82801139354706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84894895553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81029462814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78130435943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71365988254547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71043884754181</t>
+    <t xml:space="preserve">1.82801103591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84894871711731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81029486656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78130424022675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71366000175476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71043872833252</t>
   </si>
   <si>
     <t xml:space="preserve">1.71204924583435</t>
@@ -2666,22 +2666,22 @@
     <t xml:space="preserve">1.69433295726776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6653425693512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72171294689178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72493386268616</t>
+    <t xml:space="preserve">1.66534245014191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72171270847321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72493398189545</t>
   </si>
   <si>
     <t xml:space="preserve">1.71688103675842</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74265038967133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75070333480835</t>
+    <t xml:space="preserve">1.74265027046204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75070321559906</t>
   </si>
   <si>
     <t xml:space="preserve">1.70399630069733</t>
@@ -2693,31 +2693,31 @@
     <t xml:space="preserve">1.63474130630493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.639573097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64762592315674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64923655986786</t>
+    <t xml:space="preserve">1.63957297801971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64762604236603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64923667907715</t>
   </si>
   <si>
     <t xml:space="preserve">1.63796246051788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66212117671967</t>
+    <t xml:space="preserve">1.66212105751038</t>
   </si>
   <si>
     <t xml:space="preserve">1.68789041042328</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71527063846588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70560705661774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69272220134735</t>
+    <t xml:space="preserve">1.7152704000473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70560693740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69272232055664</t>
   </si>
   <si>
     <t xml:space="preserve">1.66373181343079</t>
@@ -2726,31 +2726,31 @@
     <t xml:space="preserve">1.69916462898254</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72332334518433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74909269809723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75875604152679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8038524389267</t>
+    <t xml:space="preserve">1.72332346439362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74909257888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75875616073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80385255813599</t>
   </si>
   <si>
     <t xml:space="preserve">1.84572768211365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89565587043762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90854036808014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89887690544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89726626873016</t>
+    <t xml:space="preserve">1.89565575122833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90854012966156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89887702465057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89726614952087</t>
   </si>
   <si>
     <t xml:space="preserve">1.89404511451721</t>
@@ -2762,73 +2762,73 @@
     <t xml:space="preserve">1.88277113437653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91176176071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86988627910614</t>
+    <t xml:space="preserve">1.91176164150238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86988639831543</t>
   </si>
   <si>
     <t xml:space="preserve">1.88438153266907</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92464637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90048730373383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92142486572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95202600955963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93108856678009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9198145866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95846843719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94880485534668</t>
+    <t xml:space="preserve">1.92464625835419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9004875421524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92142498493195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95202612876892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9310884475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91981446743011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95846831798553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94880509376526</t>
   </si>
   <si>
     <t xml:space="preserve">1.95685791969299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94236242771149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96491086483002</t>
+    <t xml:space="preserve">1.94236266613007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96491074562073</t>
   </si>
   <si>
     <t xml:space="preserve">1.99067997932434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99712228775024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01483869552612</t>
+    <t xml:space="preserve">1.99712240695953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0148389339447</t>
   </si>
   <si>
     <t xml:space="preserve">1.99551165103912</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00678586959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04382944107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05188250541687</t>
+    <t xml:space="preserve">2.00678610801697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04382967948914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05188226699829</t>
   </si>
   <si>
     <t xml:space="preserve">2.01161766052246</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01805996894836</t>
+    <t xml:space="preserve">2.01806020736694</t>
   </si>
   <si>
     <t xml:space="preserve">2.01322817802429</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">2.032555103302</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07604074478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05832457542419</t>
+    <t xml:space="preserve">2.07604098320007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05832433700562</t>
   </si>
   <si>
     <t xml:space="preserve">2.09375715255737</t>
@@ -2849,19 +2849,19 @@
     <t xml:space="preserve">2.0647668838501</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10664176940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10825252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11469507217407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10986280441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05510354042053</t>
+    <t xml:space="preserve">2.10664200782776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10825276374817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11469483375549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10986304283142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05510330200195</t>
   </si>
   <si>
     <t xml:space="preserve">2.05671381950378</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">2.06798815727234</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07765126228333</t>
+    <t xml:space="preserve">2.0776515007019</t>
   </si>
   <si>
     <t xml:space="preserve">2.1034209728241</t>
@@ -2879,25 +2879,25 @@
     <t xml:space="preserve">2.11147379875183</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11952662467957</t>
+    <t xml:space="preserve">2.11952686309814</t>
   </si>
   <si>
     <t xml:space="preserve">2.13080072402954</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13563275337219</t>
+    <t xml:space="preserve">2.13563251495361</t>
   </si>
   <si>
     <t xml:space="preserve">2.11791610717773</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11738348007202</t>
+    <t xml:space="preserve">2.11738324165344</t>
   </si>
   <si>
     <t xml:space="preserve">2.09565806388855</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07226157188416</t>
+    <t xml:space="preserve">2.07226181030273</t>
   </si>
   <si>
     <t xml:space="preserve">2.07059025764465</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">2.02379727363586</t>
   </si>
   <si>
-    <t xml:space="preserve">2.078946352005</t>
+    <t xml:space="preserve">2.07894611358643</t>
   </si>
   <si>
     <t xml:space="preserve">2.05889225006104</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05554986000061</t>
+    <t xml:space="preserve">2.05555009841919</t>
   </si>
   <si>
     <t xml:space="preserve">2.06390571594238</t>
@@ -2948,16 +2948,16 @@
     <t xml:space="preserve">2.00875687599182</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04552292823792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08396005630493</t>
+    <t xml:space="preserve">2.04552268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08395981788635</t>
   </si>
   <si>
     <t xml:space="preserve">2.13409519195557</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12072587013245</t>
+    <t xml:space="preserve">2.12072610855103</t>
   </si>
   <si>
     <t xml:space="preserve">2.14913606643677</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">2.17086124420166</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18423080444336</t>
+    <t xml:space="preserve">2.18423056602478</t>
   </si>
   <si>
     <t xml:space="preserve">2.19760012626648</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">2.2109694480896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24439334869385</t>
+    <t xml:space="preserve">2.24439311027527</t>
   </si>
   <si>
     <t xml:space="preserve">2.25274920463562</t>
@@ -3008,16 +3008,16 @@
     <t xml:space="preserve">2.25943350791931</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23102355003357</t>
+    <t xml:space="preserve">2.23102378845215</t>
   </si>
   <si>
     <t xml:space="preserve">2.22433876991272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20595598220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18757295608521</t>
+    <t xml:space="preserve">2.20595574378967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18757319450378</t>
   </si>
   <si>
     <t xml:space="preserve">2.17420363426208</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">2.21431183815002</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19425773620605</t>
+    <t xml:space="preserve">2.19425749778748</t>
   </si>
   <si>
     <t xml:space="preserve">2.18924379348755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19258642196655</t>
+    <t xml:space="preserve">2.19258666038513</t>
   </si>
   <si>
     <t xml:space="preserve">2.16918992996216</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">2.21765422821045</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25609111785889</t>
+    <t xml:space="preserve">2.25609135627747</t>
   </si>
   <si>
     <t xml:space="preserve">2.22768115997314</t>
@@ -3050,19 +3050,19 @@
     <t xml:space="preserve">2.2226676940918</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21932554244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23937940597534</t>
+    <t xml:space="preserve">2.21932530403137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23937964439392</t>
   </si>
   <si>
     <t xml:space="preserve">2.23269486427307</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25107789039612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14412212371826</t>
+    <t xml:space="preserve">2.25107765197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14412236213684</t>
   </si>
   <si>
     <t xml:space="preserve">2.16250538825989</t>
@@ -3071,13 +3071,13 @@
     <t xml:space="preserve">2.14245104789734</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2009425163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12741041183472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13242435455322</t>
+    <t xml:space="preserve">2.20094227790833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1274106502533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13242411613464</t>
   </si>
   <si>
     <t xml:space="preserve">2.08730220794678</t>
@@ -3089,19 +3089,19 @@
     <t xml:space="preserve">2.26277589797974</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29285717010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29954218864441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28951501846313</t>
+    <t xml:space="preserve">2.29285740852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29954195022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28951478004456</t>
   </si>
   <si>
     <t xml:space="preserve">2.26946091651917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31625390052795</t>
+    <t xml:space="preserve">2.31625366210938</t>
   </si>
   <si>
     <t xml:space="preserve">2.32962322235107</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">2.40649747848511</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38811421394348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36638927459717</t>
+    <t xml:space="preserve">2.38811445236206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36638903617859</t>
   </si>
   <si>
     <t xml:space="preserve">2.40983986854553</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">2.34800624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36304664611816</t>
+    <t xml:space="preserve">2.36304688453674</t>
   </si>
   <si>
     <t xml:space="preserve">2.38978552818298</t>
@@ -3131,10 +3131,10 @@
     <t xml:space="preserve">2.39312815666199</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3329656124115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34299230575562</t>
+    <t xml:space="preserve">2.33296537399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34299254417419</t>
   </si>
   <si>
     <t xml:space="preserve">2.31124019622803</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">2.28450131416321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30288457870483</t>
+    <t xml:space="preserve">2.30288434028625</t>
   </si>
   <si>
     <t xml:space="preserve">2.3078978061676</t>
@@ -3158,22 +3158,22 @@
     <t xml:space="preserve">2.28283023834229</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26778960227966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23603749275208</t>
+    <t xml:space="preserve">2.26778936386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2360372543335</t>
   </si>
   <si>
     <t xml:space="preserve">2.23436594009399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2126407623291</t>
+    <t xml:space="preserve">2.21264052391052</t>
   </si>
   <si>
     <t xml:space="preserve">2.17921710014343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17587471008301</t>
+    <t xml:space="preserve">2.17587494850159</t>
   </si>
   <si>
     <t xml:space="preserve">2.19091534614563</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">2.24940657615662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20261383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20428466796875</t>
+    <t xml:space="preserve">2.20261359214783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20428490638733</t>
   </si>
   <si>
     <t xml:space="preserve">2.19592881202698</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">2.172532081604</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11571216583252</t>
+    <t xml:space="preserve">2.1157124042511</t>
   </si>
   <si>
     <t xml:space="preserve">2.13075280189514</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">2.22601008415222</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13743758201599</t>
+    <t xml:space="preserve">2.13743782043457</t>
   </si>
   <si>
     <t xml:space="preserve">2.08061766624451</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">2.12239694595337</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06223464012146</t>
+    <t xml:space="preserve">2.06223440170288</t>
   </si>
   <si>
     <t xml:space="preserve">2.00708556175232</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98870277404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0054144859314</t>
+    <t xml:space="preserve">1.98870289325714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00541472434998</t>
   </si>
   <si>
     <t xml:space="preserve">2.10735630989075</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">2.00207209587097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97366201877594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90347278118134</t>
+    <t xml:space="preserve">1.97366213798523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90347254276276</t>
   </si>
   <si>
     <t xml:space="preserve">1.88174736499786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84331011772156</t>
+    <t xml:space="preserve">1.84331023693085</t>
   </si>
   <si>
     <t xml:space="preserve">1.88007605075836</t>
@@ -3260,22 +3260,22 @@
     <t xml:space="preserve">1.94859445095062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92519772052765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94190967082977</t>
+    <t xml:space="preserve">1.92519783973694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94190955162048</t>
   </si>
   <si>
     <t xml:space="preserve">1.92352664470673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91684186458588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90180158615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91851329803467</t>
+    <t xml:space="preserve">1.91684198379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90180146694183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91851317882538</t>
   </si>
   <si>
     <t xml:space="preserve">1.92185544967651</t>
@@ -3287,19 +3287,19 @@
     <t xml:space="preserve">1.97867560386658</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93021154403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9452520608902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97533345222473</t>
+    <t xml:space="preserve">1.93021142482758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94525194168091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97533321380615</t>
   </si>
   <si>
     <t xml:space="preserve">2.02546858787537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99037373065948</t>
+    <t xml:space="preserve">1.99037384986877</t>
   </si>
   <si>
     <t xml:space="preserve">2.06557679176331</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">2.09900045394897</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11905479431152</t>
+    <t xml:space="preserve">2.11905455589294</t>
   </si>
   <si>
     <t xml:space="preserve">2.1140410900116</t>
@@ -3317,22 +3317,22 @@
     <t xml:space="preserve">2.08228874206543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10401391983032</t>
+    <t xml:space="preserve">2.1040141582489</t>
   </si>
   <si>
     <t xml:space="preserve">2.04050898551941</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02881097793579</t>
+    <t xml:space="preserve">2.02881073951721</t>
   </si>
   <si>
     <t xml:space="preserve">2.04886507987976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05220770835876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97199082374573</t>
+    <t xml:space="preserve">2.05220746994019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97199094295502</t>
   </si>
   <si>
     <t xml:space="preserve">1.99705874919891</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">2.03549575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06056332588196</t>
+    <t xml:space="preserve">2.06056356430054</t>
   </si>
   <si>
     <t xml:space="preserve">2.05053639411926</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02713990211487</t>
+    <t xml:space="preserve">2.02714014053345</t>
   </si>
   <si>
     <t xml:space="preserve">2.03716683387756</t>
@@ -3359,22 +3359,22 @@
     <t xml:space="preserve">2.01377058029175</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01544141769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9352251291275</t>
+    <t xml:space="preserve">2.01544165611267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93522489070892</t>
   </si>
   <si>
     <t xml:space="preserve">1.79818820953369</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72465646266937</t>
+    <t xml:space="preserve">1.72465634346008</t>
   </si>
   <si>
     <t xml:space="preserve">1.69290411472321</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74471068382263</t>
+    <t xml:space="preserve">1.74471056461334</t>
   </si>
   <si>
     <t xml:space="preserve">1.74303936958313</t>
@@ -3386,16 +3386,16 @@
     <t xml:space="preserve">1.72966992855072</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69791769981384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70627355575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73802578449249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79317462444305</t>
+    <t xml:space="preserve">1.69791758060455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70627343654633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73802590370178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79317474365234</t>
   </si>
   <si>
     <t xml:space="preserve">1.78147649765015</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">1.7647647857666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7413684129715</t>
+    <t xml:space="preserve">1.74136829376221</t>
   </si>
   <si>
     <t xml:space="preserve">1.77312064170837</t>
@@ -3422,19 +3422,19 @@
     <t xml:space="preserve">1.65697371959686</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66449403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66700088977814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61853659152985</t>
+    <t xml:space="preserve">1.66449391841888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66700077056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61853671073914</t>
   </si>
   <si>
     <t xml:space="preserve">1.55252504348755</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58594858646393</t>
+    <t xml:space="preserve">1.58594870567322</t>
   </si>
   <si>
     <t xml:space="preserve">1.61071527004242</t>
@@ -3443,10 +3443,10 @@
     <t xml:space="preserve">1.62486755847931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59037113189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57798802852631</t>
+    <t xml:space="preserve">1.59037125110626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57798790931702</t>
   </si>
   <si>
     <t xml:space="preserve">1.58241057395935</t>
@@ -3482,25 +3482,25 @@
     <t xml:space="preserve">1.53641533851624</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54791414737701</t>
+    <t xml:space="preserve">1.5479142665863</t>
   </si>
   <si>
     <t xml:space="preserve">1.54526054859161</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55941295623779</t>
+    <t xml:space="preserve">1.55941307544708</t>
   </si>
   <si>
     <t xml:space="preserve">1.59390938282013</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56648921966553</t>
+    <t xml:space="preserve">1.56648910045624</t>
   </si>
   <si>
     <t xml:space="preserve">1.5399534702301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53022372722626</t>
+    <t xml:space="preserve">1.53022384643555</t>
   </si>
   <si>
     <t xml:space="preserve">1.48688209056854</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">1.46919167041779</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43027257919312</t>
+    <t xml:space="preserve">1.4302726984024</t>
   </si>
   <si>
     <t xml:space="preserve">1.41081321239471</t>
@@ -3524,10 +3524,10 @@
     <t xml:space="preserve">1.40904426574707</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33120620250702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32501447200775</t>
+    <t xml:space="preserve">1.33120608329773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32501459121704</t>
   </si>
   <si>
     <t xml:space="preserve">1.34182047843933</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">1.36304903030396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2931717634201</t>
+    <t xml:space="preserve">1.29317164421082</t>
   </si>
   <si>
     <t xml:space="preserve">1.27371227741241</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">1.26398241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26575148105621</t>
+    <t xml:space="preserve">1.2657516002655</t>
   </si>
   <si>
     <t xml:space="preserve">1.23390877246857</t>
@@ -3584,22 +3584,22 @@
     <t xml:space="preserve">1.15695524215698</t>
   </si>
   <si>
-    <t xml:space="preserve">1.17553019523621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16137790679932</t>
+    <t xml:space="preserve">1.1755303144455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16137778759003</t>
   </si>
   <si>
     <t xml:space="preserve">1.2002968788147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22771716117859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28078830242157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22329449653625</t>
+    <t xml:space="preserve">1.2277170419693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28078842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22329437732697</t>
   </si>
   <si>
     <t xml:space="preserve">1.19410514831543</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">1.16933858394623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1834911108017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17906832695007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13572680950165</t>
+    <t xml:space="preserve">1.18349099159241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17906820774078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13572669029236</t>
   </si>
   <si>
     <t xml:space="preserve">1.15960884094238</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">1.22152543067932</t>
   </si>
   <si>
-    <t xml:space="preserve">1.20295035839081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24363851547241</t>
+    <t xml:space="preserve">1.2029504776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24363839626312</t>
   </si>
   <si>
     <t xml:space="preserve">1.28609549999237</t>
@@ -3659,13 +3659,13 @@
     <t xml:space="preserve">1.32059192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31086218357086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30732405185699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31616926193237</t>
+    <t xml:space="preserve">1.31086206436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30732417106628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31616938114166</t>
   </si>
   <si>
     <t xml:space="preserve">1.30024790763855</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">1.38162398338318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38250851631165</t>
+    <t xml:space="preserve">1.38250839710236</t>
   </si>
   <si>
     <t xml:space="preserve">1.39666080474854</t>
@@ -3701,10 +3701,10 @@
     <t xml:space="preserve">1.45946192741394</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42142736911774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39400732517242</t>
+    <t xml:space="preserve">1.42142748832703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39400720596313</t>
   </si>
   <si>
     <t xml:space="preserve">1.41435122489929</t>
@@ -3719,13 +3719,13 @@
     <t xml:space="preserve">1.39312279224396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4028525352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37631690502167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36039531230927</t>
+    <t xml:space="preserve">1.40285241603851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37631678581238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36039543151855</t>
   </si>
   <si>
     <t xml:space="preserve">1.36658704280853</t>
@@ -3734,7 +3734,7 @@
     <t xml:space="preserve">1.31351578235626</t>
   </si>
   <si>
-    <t xml:space="preserve">1.29847884178162</t>
+    <t xml:space="preserve">1.29847896099091</t>
   </si>
   <si>
     <t xml:space="preserve">1.31793832778931</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">1.30909311771393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2710587978363</t>
+    <t xml:space="preserve">1.27105867862701</t>
   </si>
   <si>
     <t xml:space="preserve">1.30820858478546</t>
@@ -3776,7 +3776,7 @@
     <t xml:space="preserve">1.53464639186859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53906893730164</t>
+    <t xml:space="preserve">1.53906905651093</t>
   </si>
   <si>
     <t xml:space="preserve">1.47449886798859</t>
@@ -3794,13 +3794,13 @@
     <t xml:space="preserve">1.50545716285706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51607143878937</t>
+    <t xml:space="preserve">1.51607131958008</t>
   </si>
   <si>
     <t xml:space="preserve">1.46653807163239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49395823478699</t>
+    <t xml:space="preserve">1.49395835399628</t>
   </si>
   <si>
     <t xml:space="preserve">1.51872491836548</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">1.5098797082901</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49926555156708</t>
+    <t xml:space="preserve">1.49926543235779</t>
   </si>
   <si>
     <t xml:space="preserve">1.46123087406158</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">1.45415484905243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45680820941925</t>
+    <t xml:space="preserve">1.45680832862854</t>
   </si>
   <si>
     <t xml:space="preserve">1.47361433506012</t>
@@ -3851,10 +3851,10 @@
     <t xml:space="preserve">1.45769286155701</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44619417190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41169774532318</t>
+    <t xml:space="preserve">1.44619405269623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41169762611389</t>
   </si>
   <si>
     <t xml:space="preserve">1.41258227825165</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">1.40815961360931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37808585166931</t>
+    <t xml:space="preserve">1.37808573246002</t>
   </si>
   <si>
     <t xml:space="preserve">1.4824595451355</t>
@@ -3902,7 +3902,7 @@
     <t xml:space="preserve">1.61602234840393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64521169662476</t>
+    <t xml:space="preserve">1.64521157741547</t>
   </si>
   <si>
     <t xml:space="preserve">1.66644012928009</t>
@@ -3911,28 +3911,28 @@
     <t xml:space="preserve">1.68766868114471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69209134578705</t>
+    <t xml:space="preserve">1.69209122657776</t>
   </si>
   <si>
     <t xml:space="preserve">1.64255797863007</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65317225456238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66467106342316</t>
+    <t xml:space="preserve">1.65317237377167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66467118263245</t>
   </si>
   <si>
     <t xml:space="preserve">1.69386041164398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6690936088562</t>
+    <t xml:space="preserve">1.66909372806549</t>
   </si>
   <si>
     <t xml:space="preserve">1.68059253692627</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67793881893158</t>
+    <t xml:space="preserve">1.67793893814087</t>
   </si>
   <si>
     <t xml:space="preserve">1.68589961528778</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">1.73012566566467</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73277938365936</t>
+    <t xml:space="preserve">1.73277926445007</t>
   </si>
   <si>
     <t xml:space="preserve">1.70535910129547</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">1.70359003543854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66732478141785</t>
+    <t xml:space="preserve">1.66732466220856</t>
   </si>
   <si>
     <t xml:space="preserve">1.70624363422394</t>
@@ -3983,19 +3983,19 @@
     <t xml:space="preserve">1.68855321407318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66024839878082</t>
+    <t xml:space="preserve">1.66024851799011</t>
   </si>
   <si>
     <t xml:space="preserve">1.64609611034393</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65671050548553</t>
+    <t xml:space="preserve">1.65671038627625</t>
   </si>
   <si>
     <t xml:space="preserve">1.6522878408432</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66290211677551</t>
+    <t xml:space="preserve">1.66290199756622</t>
   </si>
   <si>
     <t xml:space="preserve">1.6496342420578</t>
@@ -4628,7 +4628,7 @@
     <t xml:space="preserve">1.82599997520447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78299999237061</t>
+    <t xml:space="preserve">1.7849999666214</t>
   </si>
 </sst>
 </file>
@@ -21836,7 +21836,7 @@
         <v>2.29399991035461</v>
       </c>
       <c r="G649" t="s">
-        <v>356</v>
+        <v>482</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -21862,7 +21862,7 @@
         <v>2.30399990081787</v>
       </c>
       <c r="G650" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -21888,7 +21888,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G651" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -21914,7 +21914,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G652" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -21940,7 +21940,7 @@
         <v>2.26799988746643</v>
       </c>
       <c r="G653" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -21966,7 +21966,7 @@
         <v>2.23600006103516</v>
       </c>
       <c r="G654" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -21992,7 +21992,7 @@
         <v>2.24200010299683</v>
       </c>
       <c r="G655" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22018,7 +22018,7 @@
         <v>2.37800002098083</v>
       </c>
       <c r="G656" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22044,7 +22044,7 @@
         <v>2.36800003051758</v>
       </c>
       <c r="G657" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22070,7 +22070,7 @@
         <v>2.39199995994568</v>
       </c>
       <c r="G658" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22096,7 +22096,7 @@
         <v>2.42199993133545</v>
       </c>
       <c r="G659" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22122,7 +22122,7 @@
         <v>2.41799998283386</v>
       </c>
       <c r="G660" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22148,7 +22148,7 @@
         <v>2.32200002670288</v>
       </c>
       <c r="G661" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22174,7 +22174,7 @@
         <v>2.34800004959106</v>
       </c>
       <c r="G662" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22200,7 +22200,7 @@
         <v>2.36400008201599</v>
       </c>
       <c r="G663" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22226,7 +22226,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G664" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22252,7 +22252,7 @@
         <v>2.35400009155273</v>
       </c>
       <c r="G665" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22278,7 +22278,7 @@
         <v>2.36199998855591</v>
       </c>
       <c r="G666" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22304,7 +22304,7 @@
         <v>2.31399989128113</v>
       </c>
       <c r="G667" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22330,7 +22330,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G668" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22356,7 +22356,7 @@
         <v>2.27800011634827</v>
       </c>
       <c r="G669" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22382,7 +22382,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G670" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22408,7 +22408,7 @@
         <v>2.20199990272522</v>
       </c>
       <c r="G671" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22434,7 +22434,7 @@
         <v>2.19600009918213</v>
       </c>
       <c r="G672" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22460,7 +22460,7 @@
         <v>2.18799996376038</v>
       </c>
       <c r="G673" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22512,7 +22512,7 @@
         <v>2.18600010871887</v>
       </c>
       <c r="G675" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22538,7 +22538,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G676" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22590,7 +22590,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G678" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22616,7 +22616,7 @@
         <v>2.1340000629425</v>
       </c>
       <c r="G679" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22642,7 +22642,7 @@
         <v>2.06800007820129</v>
       </c>
       <c r="G680" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22668,7 +22668,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G681" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22694,7 +22694,7 @@
         <v>2.03800010681152</v>
       </c>
       <c r="G682" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22720,7 +22720,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G683" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22746,7 +22746,7 @@
         <v>2.07200002670288</v>
       </c>
       <c r="G684" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22772,7 +22772,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G685" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22798,7 +22798,7 @@
         <v>2.07399988174438</v>
       </c>
       <c r="G686" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -22824,7 +22824,7 @@
         <v>2.15799999237061</v>
       </c>
       <c r="G687" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -22876,7 +22876,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G689" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -22928,7 +22928,7 @@
         <v>2.18400001525879</v>
       </c>
       <c r="G691" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23032,7 +23032,7 @@
         <v>2.16799998283386</v>
       </c>
       <c r="G695" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23058,7 +23058,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G696" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23084,7 +23084,7 @@
         <v>2.09400010108948</v>
       </c>
       <c r="G697" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23110,7 +23110,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23136,7 +23136,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G699" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23162,7 +23162,7 @@
         <v>2.13599991798401</v>
       </c>
       <c r="G700" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23188,7 +23188,7 @@
         <v>2.11400008201599</v>
       </c>
       <c r="G701" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23214,7 +23214,7 @@
         <v>2.11199998855591</v>
       </c>
       <c r="G702" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23240,7 +23240,7 @@
         <v>2.10599994659424</v>
       </c>
       <c r="G703" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23266,7 +23266,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G704" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23292,7 +23292,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G705" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23318,7 +23318,7 @@
         <v>2.05200004577637</v>
       </c>
       <c r="G706" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23344,7 +23344,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G707" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23370,7 +23370,7 @@
         <v>2.00200009346008</v>
       </c>
       <c r="G708" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23396,7 +23396,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G709" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23422,7 +23422,7 @@
         <v>1.94400000572205</v>
       </c>
       <c r="G710" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23448,7 +23448,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G711" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23474,7 +23474,7 @@
         <v>1.90400004386902</v>
       </c>
       <c r="G712" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23500,7 +23500,7 @@
         <v>1.942999958992</v>
       </c>
       <c r="G713" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H713" t="s">
         <v